--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -43,11 +43,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00ff6699"/>
       </patternFill>
     </fill>
@@ -89,6 +84,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0066cc33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -220,6 +220,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,16 +247,13 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,7 +1306,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="T5" s="17" t="inlineStr">
+      <c r="T5" s="11" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -1735,7 +1735,7 @@
           <t>303</t>
         </is>
       </c>
-      <c r="AE7" s="14" t="inlineStr">
+      <c r="AE7" s="17" t="inlineStr">
         <is>
           <t>566</t>
         </is>
@@ -2555,7 +2555,7 @@
           <t>678</t>
         </is>
       </c>
-      <c r="H12" s="17" t="inlineStr">
+      <c r="H12" s="7" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -2904,7 +2904,7 @@
           <t>052</t>
         </is>
       </c>
-      <c r="C14" s="17" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -3019,7 +3019,7 @@
           <t>280</t>
         </is>
       </c>
-      <c r="Z14" s="17" t="inlineStr">
+      <c r="Z14" s="13" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -5522,7 +5522,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="C28" s="17" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -8701,7 +8701,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="W47" s="17" t="inlineStr">
+      <c r="W47" s="12" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -9399,7 +9399,7 @@
           <t>039</t>
         </is>
       </c>
-      <c r="M51" s="8" t="inlineStr">
+      <c r="M51" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -11112,7 +11112,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="S60" s="17" t="inlineStr">
+      <c r="S60" s="10" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -11379,7 +11379,7 @@
           <t>230</t>
         </is>
       </c>
-      <c r="AI61" s="17" t="inlineStr">
+      <c r="AI61" s="16" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -11598,7 +11598,7 @@
           <t>582</t>
         </is>
       </c>
-      <c r="D63" s="5" t="inlineStr">
+      <c r="D63" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -12032,7 +12032,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="P65" s="9" t="inlineStr">
+      <c r="P65" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -12194,7 +12194,7 @@
           <t>429</t>
         </is>
       </c>
-      <c r="K66" s="17" t="inlineStr">
+      <c r="K66" s="8" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -12411,7 +12411,7 @@
           <t>269</t>
         </is>
       </c>
-      <c r="Q67" s="17" t="inlineStr">
+      <c r="Q67" s="10" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -13443,7 +13443,7 @@
           <t>008</t>
         </is>
       </c>
-      <c r="S75" s="17" t="inlineStr">
+      <c r="S75" s="10" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -13752,7 +13752,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="F77" s="17" t="inlineStr">
+      <c r="F77" s="6" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -13984,7 +13984,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="O78" s="17" t="inlineStr">
+      <c r="O78" s="9" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -14251,7 +14251,7 @@
           <t>819</t>
         </is>
       </c>
-      <c r="AE79" s="17" t="inlineStr">
+      <c r="AE79" s="14" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -15480,7 +15480,7 @@
           <t>216</t>
         </is>
       </c>
-      <c r="O86" s="17" t="inlineStr">
+      <c r="O86" s="9" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -16627,7 +16627,7 @@
           <t>118</t>
         </is>
       </c>
-      <c r="T92" s="17" t="inlineStr">
+      <c r="T92" s="11" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -16921,7 +16921,7 @@
           <t>831</t>
         </is>
       </c>
-      <c r="D94" s="17" t="inlineStr">
+      <c r="D94" s="5" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -17158,7 +17158,7 @@
           <t>772</t>
         </is>
       </c>
-      <c r="N95" s="17" t="inlineStr">
+      <c r="N95" s="9" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -18198,7 +18198,7 @@
           <t>536</t>
         </is>
       </c>
-      <c r="AI100" s="16" t="inlineStr">
+      <c r="AI100" s="17" t="inlineStr">
         <is>
           <t>566</t>
         </is>
@@ -20374,7 +20374,7 @@
           <t>631</t>
         </is>
       </c>
-      <c r="D115" s="17" t="inlineStr">
+      <c r="D115" s="5" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -20514,7 +20514,7 @@
           <t>767</t>
         </is>
       </c>
-      <c r="AF115" s="17" t="inlineStr">
+      <c r="AF115" s="15" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -21010,7 +21010,7 @@
           <t>846</t>
         </is>
       </c>
-      <c r="S118" s="10" t="inlineStr">
+      <c r="S118" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -21055,7 +21055,7 @@
           <t>283</t>
         </is>
       </c>
-      <c r="AB118" s="17" t="inlineStr">
+      <c r="AB118" s="13" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -23249,7 +23249,7 @@
           <t>887</t>
         </is>
       </c>
-      <c r="R130" s="17" t="inlineStr">
+      <c r="R130" s="10" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -24274,7 +24274,7 @@
           <t>824</t>
         </is>
       </c>
-      <c r="AJ135" s="17" t="inlineStr">
+      <c r="AJ135" s="16" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -24548,7 +24548,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="P137" s="17" t="inlineStr">
+      <c r="P137" s="9" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -25186,7 +25186,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="N143" s="17" t="inlineStr">
+      <c r="N143" s="9" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -27213,7 +27213,7 @@
           <t>023</t>
         </is>
       </c>
-      <c r="H154" s="7" t="inlineStr">
+      <c r="H154" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -28769,7 +28769,7 @@
           <t>088</t>
         </is>
       </c>
-      <c r="T162" s="17" t="inlineStr">
+      <c r="T162" s="11" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -28871,7 +28871,7 @@
           <t>036</t>
         </is>
       </c>
-      <c r="C163" s="5" t="inlineStr">
+      <c r="C163" s="17" t="inlineStr">
         <is>
           <t>566</t>
         </is>
@@ -29315,7 +29315,7 @@
           <t>053</t>
         </is>
       </c>
-      <c r="Q165" s="17" t="inlineStr">
+      <c r="Q165" s="10" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -29644,7 +29644,7 @@
           <t>850</t>
         </is>
       </c>
-      <c r="H167" s="17" t="inlineStr">
+      <c r="H167" s="7" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -31424,7 +31424,7 @@
           <t>053</t>
         </is>
       </c>
-      <c r="J179" s="17" t="inlineStr">
+      <c r="J179" s="7" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -33975,7 +33975,7 @@
           <t>493</t>
         </is>
       </c>
-      <c r="AH192" s="15" t="inlineStr">
+      <c r="AH192" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -34314,7 +34314,7 @@
           <t>622</t>
         </is>
       </c>
-      <c r="AA194" s="17" t="inlineStr">
+      <c r="AA194" s="13" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -34568,7 +34568,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="C196" s="5" t="inlineStr">
+      <c r="C196" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -36670,7 +36670,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="L207" s="17" t="inlineStr">
+      <c r="L207" s="8" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -36715,7 +36715,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="U207" s="17" t="inlineStr">
+      <c r="U207" s="11" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -38435,7 +38435,7 @@
           <t>507</t>
         </is>
       </c>
-      <c r="K219" s="17" t="inlineStr">
+      <c r="K219" s="8" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -41305,7 +41305,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="X234" s="12" t="inlineStr">
+      <c r="X234" s="17" t="inlineStr">
         <is>
           <t>566</t>
         </is>
@@ -41609,7 +41609,7 @@
           <t>905</t>
         </is>
       </c>
-      <c r="J236" s="17" t="inlineStr">
+      <c r="J236" s="7" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -42165,7 +42165,7 @@
           <t>627</t>
         </is>
       </c>
-      <c r="I239" s="17" t="inlineStr">
+      <c r="I239" s="7" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -42594,7 +42594,7 @@
           <t>482</t>
         </is>
       </c>
-      <c r="T241" s="17" t="inlineStr">
+      <c r="T241" s="11" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -43275,17 +43275,17 @@
       </c>
       <c r="B256" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>523</t>
         </is>
       </c>
       <c r="C256" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D256" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>869</t>
         </is>
       </c>
     </row>
@@ -43297,17 +43297,17 @@
       </c>
       <c r="B257" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>302</t>
         </is>
       </c>
       <c r="C257" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D257" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>469</t>
         </is>
       </c>
     </row>
@@ -43319,17 +43319,17 @@
       </c>
       <c r="B258" s="5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C258" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D258" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="C258" s="17" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="D258" s="17" t="inlineStr">
+        <is>
+          <t>418</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -38,12 +38,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00ff6699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ff6666"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff6699"/>
+        <fgColor rgb="00ff6633"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ccff33"/>
       </patternFill>
     </fill>
     <fill>
@@ -53,7 +68,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0066cc33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="006699ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006666ff"/>
       </patternFill>
     </fill>
     <fill>
@@ -63,32 +88,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ccff33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ff6633"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00339933"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00009966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0066cc33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -98,7 +98,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006666ff"/>
+        <fgColor rgb="00009966"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,9 +220,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -247,13 +244,16 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1735,7 +1735,7 @@
           <t>303</t>
         </is>
       </c>
-      <c r="AE7" s="17" t="inlineStr">
+      <c r="AE7" s="14" t="inlineStr">
         <is>
           <t>566</t>
         </is>
@@ -1969,7 +1969,7 @@
           <t>170</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="17" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -4026,7 +4026,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="17" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -4041,7 +4041,7 @@
           <t>478</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="17" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -5709,7 +5709,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="C29" s="17" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -9399,7 +9399,7 @@
           <t>039</t>
         </is>
       </c>
-      <c r="M51" s="17" t="inlineStr">
+      <c r="M51" s="8" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -10055,7 +10055,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="AF54" s="15" t="inlineStr">
+      <c r="AF54" s="17" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -11598,7 +11598,7 @@
           <t>582</t>
         </is>
       </c>
-      <c r="D63" s="17" t="inlineStr">
+      <c r="D63" s="5" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -12032,7 +12032,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="P65" s="17" t="inlineStr">
+      <c r="P65" s="9" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -13034,7 +13034,7 @@
           <t>250</t>
         </is>
       </c>
-      <c r="L73" s="8" t="inlineStr">
+      <c r="L73" s="17" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -13261,7 +13261,7 @@
           <t>255</t>
         </is>
       </c>
-      <c r="T74" s="11" t="inlineStr">
+      <c r="T74" s="17" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -14044,7 +14044,7 @@
           <t>618</t>
         </is>
       </c>
-      <c r="AA78" s="13" t="inlineStr">
+      <c r="AA78" s="17" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -14697,7 +14697,7 @@
           <t>342</t>
         </is>
       </c>
-      <c r="H82" s="7" t="inlineStr">
+      <c r="H82" s="17" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -18078,7 +18078,7 @@
           <t>332</t>
         </is>
       </c>
-      <c r="K100" s="8" t="inlineStr">
+      <c r="K100" s="17" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -18198,7 +18198,7 @@
           <t>536</t>
         </is>
       </c>
-      <c r="AI100" s="17" t="inlineStr">
+      <c r="AI100" s="16" t="inlineStr">
         <is>
           <t>566</t>
         </is>
@@ -21010,7 +21010,7 @@
           <t>846</t>
         </is>
       </c>
-      <c r="S118" s="17" t="inlineStr">
+      <c r="S118" s="10" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -27213,7 +27213,7 @@
           <t>023</t>
         </is>
       </c>
-      <c r="H154" s="17" t="inlineStr">
+      <c r="H154" s="7" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -28268,7 +28268,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="AF159" s="15" t="inlineStr">
+      <c r="AF159" s="17" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -28871,7 +28871,7 @@
           <t>036</t>
         </is>
       </c>
-      <c r="C163" s="17" t="inlineStr">
+      <c r="C163" s="5" t="inlineStr">
         <is>
           <t>566</t>
         </is>
@@ -33975,7 +33975,7 @@
           <t>493</t>
         </is>
       </c>
-      <c r="AH192" s="17" t="inlineStr">
+      <c r="AH192" s="15" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -34568,7 +34568,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="C196" s="17" t="inlineStr">
+      <c r="C196" s="5" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -39445,7 +39445,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="Z224" s="13" t="inlineStr">
+      <c r="Z224" s="17" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -41305,7 +41305,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="X234" s="17" t="inlineStr">
+      <c r="X234" s="12" t="inlineStr">
         <is>
           <t>566</t>
         </is>
@@ -43283,7 +43283,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="D256" s="5" t="inlineStr">
+      <c r="D256" s="17" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -43322,12 +43322,12 @@
           <t>991</t>
         </is>
       </c>
-      <c r="C258" s="17" t="inlineStr">
+      <c r="C258" s="5" t="inlineStr">
         <is>
           <t>566</t>
         </is>
       </c>
-      <c r="D258" s="17" t="inlineStr">
+      <c r="D258" s="5" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -43341,17 +43341,17 @@
       </c>
       <c r="B259" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>945</t>
         </is>
       </c>
       <c r="C259" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>642</t>
         </is>
       </c>
       <c r="D259" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>831</t>
         </is>
       </c>
     </row>
@@ -43361,19 +43361,19 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B260" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C260" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B260" s="17" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="C260" s="17" t="inlineStr">
+        <is>
+          <t>811</t>
         </is>
       </c>
       <c r="D260" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>592</t>
         </is>
       </c>
     </row>
@@ -43385,17 +43385,17 @@
       </c>
       <c r="B261" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C261" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>809</t>
         </is>
       </c>
       <c r="D261" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>891</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -43,11 +43,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00ff6666"/>
       </patternFill>
     </fill>
@@ -59,6 +54,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ccff33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -220,13 +220,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1969,7 +1969,7 @@
           <t>170</t>
         </is>
       </c>
-      <c r="C9" s="17" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -4026,7 +4026,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="C20" s="17" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -4041,7 +4041,7 @@
           <t>478</t>
         </is>
       </c>
-      <c r="F20" s="17" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -4071,7 +4071,7 @@
           <t>352</t>
         </is>
       </c>
-      <c r="L20" s="8" t="inlineStr">
+      <c r="L20" s="17" t="inlineStr">
         <is>
           <t>809</t>
         </is>
@@ -5709,7 +5709,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="C29" s="17" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -8574,7 +8574,7 @@
           <t>350</t>
         </is>
       </c>
-      <c r="AI46" s="16" t="inlineStr">
+      <c r="AI46" s="17" t="inlineStr">
         <is>
           <t>809</t>
         </is>
@@ -10055,7 +10055,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="AF54" s="17" t="inlineStr">
+      <c r="AF54" s="15" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -10753,7 +10753,7 @@
           <t>876</t>
         </is>
       </c>
-      <c r="V58" s="11" t="inlineStr">
+      <c r="V58" s="17" t="inlineStr">
         <is>
           <t>891</t>
         </is>
@@ -13034,7 +13034,7 @@
           <t>250</t>
         </is>
       </c>
-      <c r="L73" s="17" t="inlineStr">
+      <c r="L73" s="8" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -13261,7 +13261,7 @@
           <t>255</t>
         </is>
       </c>
-      <c r="T74" s="17" t="inlineStr">
+      <c r="T74" s="11" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -13311,7 +13311,7 @@
           <t>482</t>
         </is>
       </c>
-      <c r="AD74" s="14" t="inlineStr">
+      <c r="AD74" s="17" t="inlineStr">
         <is>
           <t>809</t>
         </is>
@@ -13458,7 +13458,7 @@
           <t>278</t>
         </is>
       </c>
-      <c r="V75" s="11" t="inlineStr">
+      <c r="V75" s="17" t="inlineStr">
         <is>
           <t>809</t>
         </is>
@@ -14044,7 +14044,7 @@
           <t>618</t>
         </is>
       </c>
-      <c r="AA78" s="17" t="inlineStr">
+      <c r="AA78" s="13" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -14697,7 +14697,7 @@
           <t>342</t>
         </is>
       </c>
-      <c r="H82" s="17" t="inlineStr">
+      <c r="H82" s="7" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -15403,7 +15403,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="AK85" s="16" t="inlineStr">
+      <c r="AK85" s="17" t="inlineStr">
         <is>
           <t>891</t>
         </is>
@@ -18078,7 +18078,7 @@
           <t>332</t>
         </is>
       </c>
-      <c r="K100" s="17" t="inlineStr">
+      <c r="K100" s="8" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -18557,7 +18557,7 @@
           <t>724</t>
         </is>
       </c>
-      <c r="AF102" s="15" t="inlineStr">
+      <c r="AF102" s="17" t="inlineStr">
         <is>
           <t>809</t>
         </is>
@@ -21793,7 +21793,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="Z122" s="13" t="inlineStr">
+      <c r="Z122" s="17" t="inlineStr">
         <is>
           <t>809</t>
         </is>
@@ -25221,7 +25221,7 @@
           <t>308</t>
         </is>
       </c>
-      <c r="U143" s="11" t="inlineStr">
+      <c r="U143" s="17" t="inlineStr">
         <is>
           <t>891</t>
         </is>
@@ -26959,7 +26959,7 @@
           <t>140</t>
         </is>
       </c>
-      <c r="AF152" s="15" t="inlineStr">
+      <c r="AF152" s="17" t="inlineStr">
         <is>
           <t>891</t>
         </is>
@@ -28268,7 +28268,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="AF159" s="17" t="inlineStr">
+      <c r="AF159" s="15" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -28502,7 +28502,7 @@
           <t>399</t>
         </is>
       </c>
-      <c r="D161" s="5" t="inlineStr">
+      <c r="D161" s="17" t="inlineStr">
         <is>
           <t>809</t>
         </is>
@@ -33167,7 +33167,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="V188" s="11" t="inlineStr">
+      <c r="V188" s="17" t="inlineStr">
         <is>
           <t>809</t>
         </is>
@@ -39313,7 +39313,7 @@
           <t>068</t>
         </is>
       </c>
-      <c r="AK223" s="16" t="inlineStr">
+      <c r="AK223" s="17" t="inlineStr">
         <is>
           <t>891</t>
         </is>
@@ -39445,7 +39445,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="Z224" s="17" t="inlineStr">
+      <c r="Z224" s="13" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -42170,7 +42170,7 @@
           <t>263</t>
         </is>
       </c>
-      <c r="J239" s="7" t="inlineStr">
+      <c r="J239" s="17" t="inlineStr">
         <is>
           <t>891</t>
         </is>
@@ -43283,7 +43283,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="D256" s="17" t="inlineStr">
+      <c r="D256" s="5" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -43361,12 +43361,12 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B260" s="17" t="inlineStr">
+      <c r="B260" s="5" t="inlineStr">
         <is>
           <t>869</t>
         </is>
       </c>
-      <c r="C260" s="17" t="inlineStr">
+      <c r="C260" s="5" t="inlineStr">
         <is>
           <t>811</t>
         </is>
@@ -43388,12 +43388,12 @@
           <t>717</t>
         </is>
       </c>
-      <c r="C261" s="5" t="inlineStr">
+      <c r="C261" s="17" t="inlineStr">
         <is>
           <t>809</t>
         </is>
       </c>
-      <c r="D261" s="5" t="inlineStr">
+      <c r="D261" s="17" t="inlineStr">
         <is>
           <t>891</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -48,12 +48,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="00ff6633"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff6633"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -223,13 +223,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -877,7 +877,7 @@
           <t>732</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
         <is>
           <t>353</t>
         </is>
@@ -887,7 +887,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>923</t>
         </is>
@@ -897,7 +897,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="M3" s="8" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -1074,17 +1074,17 @@
           <t>606</t>
         </is>
       </c>
-      <c r="K4" s="8" t="inlineStr">
+      <c r="K4" s="9" t="inlineStr">
         <is>
           <t>657</t>
         </is>
       </c>
-      <c r="L4" s="8" t="inlineStr">
+      <c r="L4" s="9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M4" s="8" t="inlineStr">
+      <c r="M4" s="9" t="inlineStr">
         <is>
           <t>043</t>
         </is>
@@ -1261,17 +1261,17 @@
           <t>380</t>
         </is>
       </c>
-      <c r="K5" s="8" t="inlineStr">
+      <c r="K5" s="9" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="L5" s="8" t="inlineStr">
+      <c r="L5" s="9" t="inlineStr">
         <is>
           <t>663</t>
         </is>
       </c>
-      <c r="M5" s="8" t="inlineStr">
+      <c r="M5" s="9" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -1286,7 +1286,7 @@
           <t>045</t>
         </is>
       </c>
-      <c r="P5" s="9" t="inlineStr">
+      <c r="P5" s="10" t="inlineStr">
         <is>
           <t>582</t>
         </is>
@@ -1448,17 +1448,17 @@
           <t>023</t>
         </is>
       </c>
-      <c r="K6" s="8" t="inlineStr">
+      <c r="K6" s="9" t="inlineStr">
         <is>
           <t>421</t>
         </is>
       </c>
-      <c r="L6" s="8" t="inlineStr">
+      <c r="L6" s="9" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="M6" s="8" t="inlineStr">
+      <c r="M6" s="9" t="inlineStr">
         <is>
           <t>970</t>
         </is>
@@ -1635,17 +1635,17 @@
           <t>317</t>
         </is>
       </c>
-      <c r="K7" s="8" t="inlineStr">
+      <c r="K7" s="9" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="L7" s="8" t="inlineStr">
+      <c r="L7" s="9" t="inlineStr">
         <is>
           <t>073</t>
         </is>
       </c>
-      <c r="M7" s="8" t="inlineStr">
+      <c r="M7" s="9" t="inlineStr">
         <is>
           <t>499</t>
         </is>
@@ -1802,7 +1802,7 @@
           <t>033</t>
         </is>
       </c>
-      <c r="G8" s="9" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>363</t>
         </is>
@@ -1822,17 +1822,17 @@
           <t>872</t>
         </is>
       </c>
-      <c r="K8" s="8" t="inlineStr">
+      <c r="K8" s="9" t="inlineStr">
         <is>
           <t>902</t>
         </is>
       </c>
-      <c r="L8" s="8" t="inlineStr">
+      <c r="L8" s="9" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="M8" s="8" t="inlineStr">
+      <c r="M8" s="9" t="inlineStr">
         <is>
           <t>425</t>
         </is>
@@ -2009,17 +2009,17 @@
           <t>648</t>
         </is>
       </c>
-      <c r="K9" s="8" t="inlineStr">
+      <c r="K9" s="9" t="inlineStr">
         <is>
           <t>425</t>
         </is>
       </c>
-      <c r="L9" s="8" t="inlineStr">
+      <c r="L9" s="9" t="inlineStr">
         <is>
           <t>446</t>
         </is>
       </c>
-      <c r="M9" s="8" t="inlineStr">
+      <c r="M9" s="9" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -2134,7 +2134,7 @@
           <t>170</t>
         </is>
       </c>
-      <c r="AJ9" s="17" t="inlineStr">
+      <c r="AJ9" s="8" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -2196,17 +2196,17 @@
           <t>162</t>
         </is>
       </c>
-      <c r="K10" s="8" t="inlineStr">
+      <c r="K10" s="9" t="inlineStr">
         <is>
           <t>887</t>
         </is>
       </c>
-      <c r="L10" s="8" t="inlineStr">
+      <c r="L10" s="9" t="inlineStr">
         <is>
           <t>351</t>
         </is>
       </c>
-      <c r="M10" s="8" t="inlineStr">
+      <c r="M10" s="9" t="inlineStr">
         <is>
           <t>439</t>
         </is>
@@ -2383,17 +2383,17 @@
           <t>444</t>
         </is>
       </c>
-      <c r="K11" s="8" t="inlineStr">
+      <c r="K11" s="9" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="L11" s="8" t="inlineStr">
+      <c r="L11" s="9" t="inlineStr">
         <is>
           <t>536</t>
         </is>
       </c>
-      <c r="M11" s="8" t="inlineStr">
+      <c r="M11" s="9" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -2570,17 +2570,17 @@
           <t>731</t>
         </is>
       </c>
-      <c r="K12" s="8" t="inlineStr">
+      <c r="K12" s="9" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="L12" s="8" t="inlineStr">
+      <c r="L12" s="9" t="inlineStr">
         <is>
           <t>176</t>
         </is>
       </c>
-      <c r="M12" s="8" t="inlineStr">
+      <c r="M12" s="9" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -2670,7 +2670,7 @@
           <t>187</t>
         </is>
       </c>
-      <c r="AE12" s="9" t="inlineStr">
+      <c r="AE12" s="15" t="inlineStr">
         <is>
           <t>258</t>
         </is>
@@ -2752,22 +2752,22 @@
           <t>740</t>
         </is>
       </c>
-      <c r="J13" s="9" t="inlineStr">
+      <c r="J13" s="7" t="inlineStr">
         <is>
           <t>825</t>
         </is>
       </c>
-      <c r="K13" s="8" t="inlineStr">
+      <c r="K13" s="9" t="inlineStr">
         <is>
           <t>088</t>
         </is>
       </c>
-      <c r="L13" s="8" t="inlineStr">
+      <c r="L13" s="9" t="inlineStr">
         <is>
           <t>631</t>
         </is>
       </c>
-      <c r="M13" s="8" t="inlineStr">
+      <c r="M13" s="9" t="inlineStr">
         <is>
           <t>012</t>
         </is>
@@ -2797,7 +2797,7 @@
           <t>660</t>
         </is>
       </c>
-      <c r="S13" s="9" t="inlineStr">
+      <c r="S13" s="11" t="inlineStr">
         <is>
           <t>825</t>
         </is>
@@ -2887,7 +2887,7 @@
           <t>447</t>
         </is>
       </c>
-      <c r="AK13" s="9" t="inlineStr">
+      <c r="AK13" s="17" t="inlineStr">
         <is>
           <t>825</t>
         </is>
@@ -2944,17 +2944,17 @@
           <t>947</t>
         </is>
       </c>
-      <c r="K14" s="8" t="inlineStr">
+      <c r="K14" s="9" t="inlineStr">
         <is>
           <t>083</t>
         </is>
       </c>
-      <c r="L14" s="8" t="inlineStr">
+      <c r="L14" s="9" t="inlineStr">
         <is>
           <t>721</t>
         </is>
       </c>
-      <c r="M14" s="8" t="inlineStr">
+      <c r="M14" s="9" t="inlineStr">
         <is>
           <t>223</t>
         </is>
@@ -3131,17 +3131,17 @@
           <t>169</t>
         </is>
       </c>
-      <c r="K15" s="8" t="inlineStr">
+      <c r="K15" s="9" t="inlineStr">
         <is>
           <t>287</t>
         </is>
       </c>
-      <c r="L15" s="8" t="inlineStr">
+      <c r="L15" s="9" t="inlineStr">
         <is>
           <t>379</t>
         </is>
       </c>
-      <c r="M15" s="8" t="inlineStr">
+      <c r="M15" s="9" t="inlineStr">
         <is>
           <t>356</t>
         </is>
@@ -3318,17 +3318,17 @@
           <t>294</t>
         </is>
       </c>
-      <c r="K16" s="8" t="inlineStr">
+      <c r="K16" s="9" t="inlineStr">
         <is>
           <t>597</t>
         </is>
       </c>
-      <c r="L16" s="8" t="inlineStr">
+      <c r="L16" s="9" t="inlineStr">
         <is>
           <t>661</t>
         </is>
       </c>
-      <c r="M16" s="8" t="inlineStr">
+      <c r="M16" s="9" t="inlineStr">
         <is>
           <t>264</t>
         </is>
@@ -3505,17 +3505,17 @@
           <t>739</t>
         </is>
       </c>
-      <c r="K17" s="8" t="inlineStr">
+      <c r="K17" s="9" t="inlineStr">
         <is>
           <t>998</t>
         </is>
       </c>
-      <c r="L17" s="8" t="inlineStr">
+      <c r="L17" s="9" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="M17" s="8" t="inlineStr">
+      <c r="M17" s="9" t="inlineStr">
         <is>
           <t>971</t>
         </is>
@@ -3677,7 +3677,7 @@
           <t>204</t>
         </is>
       </c>
-      <c r="H18" s="9" t="inlineStr">
+      <c r="H18" s="7" t="inlineStr">
         <is>
           <t>336</t>
         </is>
@@ -3692,17 +3692,17 @@
           <t>505</t>
         </is>
       </c>
-      <c r="K18" s="8" t="inlineStr">
+      <c r="K18" s="9" t="inlineStr">
         <is>
           <t>371</t>
         </is>
       </c>
-      <c r="L18" s="8" t="inlineStr">
+      <c r="L18" s="9" t="inlineStr">
         <is>
           <t>748</t>
         </is>
       </c>
-      <c r="M18" s="8" t="inlineStr">
+      <c r="M18" s="9" t="inlineStr">
         <is>
           <t>987</t>
         </is>
@@ -3879,17 +3879,17 @@
           <t>810</t>
         </is>
       </c>
-      <c r="K19" s="8" t="inlineStr">
+      <c r="K19" s="9" t="inlineStr">
         <is>
           <t>839</t>
         </is>
       </c>
-      <c r="L19" s="8" t="inlineStr">
+      <c r="L19" s="9" t="inlineStr">
         <is>
           <t>709</t>
         </is>
       </c>
-      <c r="M19" s="8" t="inlineStr">
+      <c r="M19" s="9" t="inlineStr">
         <is>
           <t>518</t>
         </is>
@@ -4066,17 +4066,17 @@
           <t>440</t>
         </is>
       </c>
-      <c r="K20" s="8" t="inlineStr">
+      <c r="K20" s="9" t="inlineStr">
         <is>
           <t>352</t>
         </is>
       </c>
-      <c r="L20" s="8" t="inlineStr">
+      <c r="L20" s="9" t="inlineStr">
         <is>
           <t>809</t>
         </is>
       </c>
-      <c r="M20" s="8" t="inlineStr">
+      <c r="M20" s="9" t="inlineStr">
         <is>
           <t>364</t>
         </is>
@@ -4253,17 +4253,17 @@
           <t>976</t>
         </is>
       </c>
-      <c r="K21" s="8" t="inlineStr">
+      <c r="K21" s="9" t="inlineStr">
         <is>
           <t>637</t>
         </is>
       </c>
-      <c r="L21" s="8" t="inlineStr">
+      <c r="L21" s="9" t="inlineStr">
         <is>
           <t>088</t>
         </is>
       </c>
-      <c r="M21" s="8" t="inlineStr">
+      <c r="M21" s="9" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -4440,17 +4440,17 @@
           <t>616</t>
         </is>
       </c>
-      <c r="K22" s="8" t="inlineStr">
+      <c r="K22" s="9" t="inlineStr">
         <is>
           <t>278</t>
         </is>
       </c>
-      <c r="L22" s="8" t="inlineStr">
+      <c r="L22" s="9" t="inlineStr">
         <is>
           <t>286</t>
         </is>
       </c>
-      <c r="M22" s="8" t="inlineStr">
+      <c r="M22" s="9" t="inlineStr">
         <is>
           <t>895</t>
         </is>
@@ -4500,7 +4500,7 @@
           <t>829</t>
         </is>
       </c>
-      <c r="W22" s="9" t="inlineStr">
+      <c r="W22" s="13" t="inlineStr">
         <is>
           <t>582</t>
         </is>
@@ -4627,17 +4627,17 @@
           <t>611</t>
         </is>
       </c>
-      <c r="K23" s="8" t="inlineStr">
+      <c r="K23" s="9" t="inlineStr">
         <is>
           <t>241</t>
         </is>
       </c>
-      <c r="L23" s="8" t="inlineStr">
+      <c r="L23" s="9" t="inlineStr">
         <is>
           <t>022</t>
         </is>
       </c>
-      <c r="M23" s="8" t="inlineStr">
+      <c r="M23" s="9" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -4814,17 +4814,17 @@
           <t>783</t>
         </is>
       </c>
-      <c r="K24" s="8" t="inlineStr">
+      <c r="K24" s="9" t="inlineStr">
         <is>
           <t>839</t>
         </is>
       </c>
-      <c r="L24" s="8" t="inlineStr">
+      <c r="L24" s="9" t="inlineStr">
         <is>
           <t>419</t>
         </is>
       </c>
-      <c r="M24" s="8" t="inlineStr">
+      <c r="M24" s="9" t="inlineStr">
         <is>
           <t>211</t>
         </is>
@@ -5001,17 +5001,17 @@
           <t>937</t>
         </is>
       </c>
-      <c r="K25" s="8" t="inlineStr">
+      <c r="K25" s="9" t="inlineStr">
         <is>
           <t>474</t>
         </is>
       </c>
-      <c r="L25" s="8" t="inlineStr">
+      <c r="L25" s="9" t="inlineStr">
         <is>
           <t>025</t>
         </is>
       </c>
-      <c r="M25" s="8" t="inlineStr">
+      <c r="M25" s="9" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -5188,17 +5188,17 @@
           <t>849</t>
         </is>
       </c>
-      <c r="K26" s="8" t="inlineStr">
+      <c r="K26" s="9" t="inlineStr">
         <is>
           <t>167</t>
         </is>
       </c>
-      <c r="L26" s="8" t="inlineStr">
+      <c r="L26" s="9" t="inlineStr">
         <is>
           <t>845</t>
         </is>
       </c>
-      <c r="M26" s="8" t="inlineStr">
+      <c r="M26" s="9" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -5375,17 +5375,17 @@
           <t>725</t>
         </is>
       </c>
-      <c r="K27" s="8" t="inlineStr">
+      <c r="K27" s="9" t="inlineStr">
         <is>
           <t>751</t>
         </is>
       </c>
-      <c r="L27" s="8" t="inlineStr">
+      <c r="L27" s="9" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M27" s="8" t="inlineStr">
+      <c r="M27" s="9" t="inlineStr">
         <is>
           <t>595</t>
         </is>
@@ -5562,17 +5562,17 @@
           <t>220</t>
         </is>
       </c>
-      <c r="K28" s="8" t="inlineStr">
+      <c r="K28" s="9" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="L28" s="8" t="inlineStr">
+      <c r="L28" s="9" t="inlineStr">
         <is>
           <t>228</t>
         </is>
       </c>
-      <c r="M28" s="8" t="inlineStr">
+      <c r="M28" s="9" t="inlineStr">
         <is>
           <t>359</t>
         </is>
@@ -5749,17 +5749,17 @@
           <t>653</t>
         </is>
       </c>
-      <c r="K29" s="8" t="inlineStr">
+      <c r="K29" s="9" t="inlineStr">
         <is>
           <t>639</t>
         </is>
       </c>
-      <c r="L29" s="8" t="inlineStr">
+      <c r="L29" s="9" t="inlineStr">
         <is>
           <t>416</t>
         </is>
       </c>
-      <c r="M29" s="8" t="inlineStr">
+      <c r="M29" s="9" t="inlineStr">
         <is>
           <t>013</t>
         </is>
@@ -5936,17 +5936,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K30" s="8" t="inlineStr">
+      <c r="K30" s="9" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="L30" s="8" t="inlineStr">
+      <c r="L30" s="9" t="inlineStr">
         <is>
           <t>714</t>
         </is>
       </c>
-      <c r="M30" s="8" t="inlineStr">
+      <c r="M30" s="9" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -6056,7 +6056,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="AI30" s="9" t="inlineStr">
+      <c r="AI30" s="17" t="inlineStr">
         <is>
           <t>825</t>
         </is>
@@ -6123,17 +6123,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K31" s="8" t="inlineStr">
+      <c r="K31" s="9" t="inlineStr">
         <is>
           <t>788</t>
         </is>
       </c>
-      <c r="L31" s="8" t="inlineStr">
+      <c r="L31" s="9" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="M31" s="8" t="inlineStr">
+      <c r="M31" s="9" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -6173,7 +6173,7 @@
           <t>915</t>
         </is>
       </c>
-      <c r="U31" s="9" t="inlineStr">
+      <c r="U31" s="12" t="inlineStr">
         <is>
           <t>285</t>
         </is>
@@ -6310,17 +6310,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K32" s="8" t="inlineStr">
+      <c r="K32" s="9" t="inlineStr">
         <is>
           <t>833</t>
         </is>
       </c>
-      <c r="L32" s="8" t="inlineStr">
+      <c r="L32" s="9" t="inlineStr">
         <is>
           <t>350</t>
         </is>
       </c>
-      <c r="M32" s="8" t="inlineStr">
+      <c r="M32" s="9" t="inlineStr">
         <is>
           <t>749</t>
         </is>
@@ -6497,17 +6497,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K33" s="8" t="inlineStr">
+      <c r="K33" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L33" s="8" t="inlineStr">
+      <c r="L33" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M33" s="8" t="inlineStr">
+      <c r="M33" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6517,7 +6517,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="O33" s="9" t="inlineStr">
+      <c r="O33" s="10" t="inlineStr">
         <is>
           <t>825</t>
         </is>
@@ -6958,17 +6958,17 @@
           <t>076</t>
         </is>
       </c>
-      <c r="K38" s="8" t="inlineStr">
+      <c r="K38" s="9" t="inlineStr">
         <is>
           <t>099</t>
         </is>
       </c>
-      <c r="L38" s="8" t="inlineStr">
+      <c r="L38" s="9" t="inlineStr">
         <is>
           <t>523</t>
         </is>
       </c>
-      <c r="M38" s="8" t="inlineStr">
+      <c r="M38" s="9" t="inlineStr">
         <is>
           <t>678</t>
         </is>
@@ -7145,17 +7145,17 @@
           <t>658</t>
         </is>
       </c>
-      <c r="K39" s="8" t="inlineStr">
+      <c r="K39" s="9" t="inlineStr">
         <is>
           <t>724</t>
         </is>
       </c>
-      <c r="L39" s="8" t="inlineStr">
+      <c r="L39" s="9" t="inlineStr">
         <is>
           <t>103</t>
         </is>
       </c>
-      <c r="M39" s="8" t="inlineStr">
+      <c r="M39" s="9" t="inlineStr">
         <is>
           <t>497</t>
         </is>
@@ -7332,17 +7332,17 @@
           <t>060</t>
         </is>
       </c>
-      <c r="K40" s="8" t="inlineStr">
+      <c r="K40" s="9" t="inlineStr">
         <is>
           <t>193</t>
         </is>
       </c>
-      <c r="L40" s="8" t="inlineStr">
+      <c r="L40" s="9" t="inlineStr">
         <is>
           <t>560</t>
         </is>
       </c>
-      <c r="M40" s="8" t="inlineStr">
+      <c r="M40" s="9" t="inlineStr">
         <is>
           <t>562</t>
         </is>
@@ -7519,17 +7519,17 @@
           <t>529</t>
         </is>
       </c>
-      <c r="K41" s="8" t="inlineStr">
+      <c r="K41" s="9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="L41" s="8" t="inlineStr">
+      <c r="L41" s="9" t="inlineStr">
         <is>
           <t>886</t>
         </is>
       </c>
-      <c r="M41" s="8" t="inlineStr">
+      <c r="M41" s="9" t="inlineStr">
         <is>
           <t>283</t>
         </is>
@@ -7706,17 +7706,17 @@
           <t>255</t>
         </is>
       </c>
-      <c r="K42" s="8" t="inlineStr">
+      <c r="K42" s="9" t="inlineStr">
         <is>
           <t>334</t>
         </is>
       </c>
-      <c r="L42" s="8" t="inlineStr">
+      <c r="L42" s="9" t="inlineStr">
         <is>
           <t>545</t>
         </is>
       </c>
-      <c r="M42" s="8" t="inlineStr">
+      <c r="M42" s="9" t="inlineStr">
         <is>
           <t>932</t>
         </is>
@@ -7893,17 +7893,17 @@
           <t>993</t>
         </is>
       </c>
-      <c r="K43" s="8" t="inlineStr">
+      <c r="K43" s="9" t="inlineStr">
         <is>
           <t>226</t>
         </is>
       </c>
-      <c r="L43" s="8" t="inlineStr">
+      <c r="L43" s="9" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="M43" s="8" t="inlineStr">
+      <c r="M43" s="9" t="inlineStr">
         <is>
           <t>800</t>
         </is>
@@ -7928,7 +7928,7 @@
           <t>613</t>
         </is>
       </c>
-      <c r="R43" s="9" t="inlineStr">
+      <c r="R43" s="11" t="inlineStr">
         <is>
           <t>363</t>
         </is>
@@ -8080,17 +8080,17 @@
           <t>616</t>
         </is>
       </c>
-      <c r="K44" s="8" t="inlineStr">
+      <c r="K44" s="9" t="inlineStr">
         <is>
           <t>443</t>
         </is>
       </c>
-      <c r="L44" s="8" t="inlineStr">
+      <c r="L44" s="9" t="inlineStr">
         <is>
           <t>481</t>
         </is>
       </c>
-      <c r="M44" s="8" t="inlineStr">
+      <c r="M44" s="9" t="inlineStr">
         <is>
           <t>314</t>
         </is>
@@ -8267,17 +8267,17 @@
           <t>057</t>
         </is>
       </c>
-      <c r="K45" s="8" t="inlineStr">
+      <c r="K45" s="9" t="inlineStr">
         <is>
           <t>987</t>
         </is>
       </c>
-      <c r="L45" s="8" t="inlineStr">
+      <c r="L45" s="9" t="inlineStr">
         <is>
           <t>650</t>
         </is>
       </c>
-      <c r="M45" s="8" t="inlineStr">
+      <c r="M45" s="9" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -8342,7 +8342,7 @@
           <t>631</t>
         </is>
       </c>
-      <c r="Z45" s="9" t="inlineStr">
+      <c r="Z45" s="14" t="inlineStr">
         <is>
           <t>825</t>
         </is>
@@ -8454,17 +8454,17 @@
           <t>191</t>
         </is>
       </c>
-      <c r="K46" s="8" t="inlineStr">
+      <c r="K46" s="9" t="inlineStr">
         <is>
           <t>767</t>
         </is>
       </c>
-      <c r="L46" s="8" t="inlineStr">
+      <c r="L46" s="9" t="inlineStr">
         <is>
           <t>974</t>
         </is>
       </c>
-      <c r="M46" s="8" t="inlineStr">
+      <c r="M46" s="9" t="inlineStr">
         <is>
           <t>193</t>
         </is>
@@ -8509,7 +8509,7 @@
           <t>941</t>
         </is>
       </c>
-      <c r="V46" s="9" t="inlineStr">
+      <c r="V46" s="12" t="inlineStr">
         <is>
           <t>528</t>
         </is>
@@ -8641,17 +8641,17 @@
           <t>437</t>
         </is>
       </c>
-      <c r="K47" s="8" t="inlineStr">
+      <c r="K47" s="9" t="inlineStr">
         <is>
           <t>226</t>
         </is>
       </c>
-      <c r="L47" s="8" t="inlineStr">
+      <c r="L47" s="9" t="inlineStr">
         <is>
           <t>082</t>
         </is>
       </c>
-      <c r="M47" s="8" t="inlineStr">
+      <c r="M47" s="9" t="inlineStr">
         <is>
           <t>564</t>
         </is>
@@ -8661,7 +8661,7 @@
           <t>218</t>
         </is>
       </c>
-      <c r="O47" s="9" t="inlineStr">
+      <c r="O47" s="10" t="inlineStr">
         <is>
           <t>528</t>
         </is>
@@ -8828,17 +8828,17 @@
           <t>822</t>
         </is>
       </c>
-      <c r="K48" s="8" t="inlineStr">
+      <c r="K48" s="9" t="inlineStr">
         <is>
           <t>810</t>
         </is>
       </c>
-      <c r="L48" s="8" t="inlineStr">
+      <c r="L48" s="9" t="inlineStr">
         <is>
           <t>964</t>
         </is>
       </c>
-      <c r="M48" s="8" t="inlineStr">
+      <c r="M48" s="9" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -9015,17 +9015,17 @@
           <t>684</t>
         </is>
       </c>
-      <c r="K49" s="8" t="inlineStr">
+      <c r="K49" s="9" t="inlineStr">
         <is>
           <t>898</t>
         </is>
       </c>
-      <c r="L49" s="8" t="inlineStr">
+      <c r="L49" s="9" t="inlineStr">
         <is>
           <t>452</t>
         </is>
       </c>
-      <c r="M49" s="8" t="inlineStr">
+      <c r="M49" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -9202,17 +9202,17 @@
           <t>032</t>
         </is>
       </c>
-      <c r="K50" s="8" t="inlineStr">
+      <c r="K50" s="9" t="inlineStr">
         <is>
           <t>346</t>
         </is>
       </c>
-      <c r="L50" s="8" t="inlineStr">
+      <c r="L50" s="9" t="inlineStr">
         <is>
           <t>866</t>
         </is>
       </c>
-      <c r="M50" s="8" t="inlineStr">
+      <c r="M50" s="9" t="inlineStr">
         <is>
           <t>256</t>
         </is>
@@ -9389,17 +9389,17 @@
           <t>292</t>
         </is>
       </c>
-      <c r="K51" s="8" t="inlineStr">
+      <c r="K51" s="9" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="L51" s="8" t="inlineStr">
+      <c r="L51" s="9" t="inlineStr">
         <is>
           <t>039</t>
         </is>
       </c>
-      <c r="M51" s="8" t="inlineStr">
+      <c r="M51" s="9" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -9474,7 +9474,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="AB51" s="9" t="inlineStr">
+      <c r="AB51" s="14" t="inlineStr">
         <is>
           <t>528</t>
         </is>
@@ -9576,17 +9576,17 @@
           <t>051</t>
         </is>
       </c>
-      <c r="K52" s="8" t="inlineStr">
+      <c r="K52" s="9" t="inlineStr">
         <is>
           <t>755</t>
         </is>
       </c>
-      <c r="L52" s="8" t="inlineStr">
+      <c r="L52" s="9" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="M52" s="8" t="inlineStr">
+      <c r="M52" s="9" t="inlineStr">
         <is>
           <t>714</t>
         </is>
@@ -9743,7 +9743,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="G53" s="6" t="inlineStr">
+      <c r="G53" s="8" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -9763,17 +9763,17 @@
           <t>389</t>
         </is>
       </c>
-      <c r="K53" s="8" t="inlineStr">
+      <c r="K53" s="9" t="inlineStr">
         <is>
           <t>407</t>
         </is>
       </c>
-      <c r="L53" s="8" t="inlineStr">
+      <c r="L53" s="9" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="M53" s="8" t="inlineStr">
+      <c r="M53" s="9" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -9950,17 +9950,17 @@
           <t>405</t>
         </is>
       </c>
-      <c r="K54" s="8" t="inlineStr">
+      <c r="K54" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L54" s="8" t="inlineStr">
+      <c r="L54" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M54" s="8" t="inlineStr">
+      <c r="M54" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10112,7 +10112,7 @@
           <t>826</t>
         </is>
       </c>
-      <c r="F55" s="9" t="inlineStr">
+      <c r="F55" s="6" t="inlineStr">
         <is>
           <t>852</t>
         </is>
@@ -10137,17 +10137,17 @@
           <t>861</t>
         </is>
       </c>
-      <c r="K55" s="8" t="inlineStr">
+      <c r="K55" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L55" s="8" t="inlineStr">
+      <c r="L55" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M55" s="8" t="inlineStr">
+      <c r="M55" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10324,17 +10324,17 @@
           <t>952</t>
         </is>
       </c>
-      <c r="K56" s="8" t="inlineStr">
+      <c r="K56" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L56" s="8" t="inlineStr">
+      <c r="L56" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M56" s="8" t="inlineStr">
+      <c r="M56" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10466,7 +10466,7 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B57" s="9" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>528</t>
         </is>
@@ -10511,17 +10511,17 @@
           <t>433</t>
         </is>
       </c>
-      <c r="K57" s="8" t="inlineStr">
+      <c r="K57" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L57" s="8" t="inlineStr">
+      <c r="L57" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M57" s="8" t="inlineStr">
+      <c r="M57" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10698,17 +10698,17 @@
           <t>608</t>
         </is>
       </c>
-      <c r="K58" s="8" t="inlineStr">
+      <c r="K58" s="9" t="inlineStr">
         <is>
           <t>452</t>
         </is>
       </c>
-      <c r="L58" s="8" t="inlineStr">
+      <c r="L58" s="9" t="inlineStr">
         <is>
           <t>684</t>
         </is>
       </c>
-      <c r="M58" s="8" t="inlineStr">
+      <c r="M58" s="9" t="inlineStr">
         <is>
           <t>429</t>
         </is>
@@ -10885,17 +10885,17 @@
           <t>744</t>
         </is>
       </c>
-      <c r="K59" s="8" t="inlineStr">
+      <c r="K59" s="9" t="inlineStr">
         <is>
           <t>558</t>
         </is>
       </c>
-      <c r="L59" s="8" t="inlineStr">
+      <c r="L59" s="9" t="inlineStr">
         <is>
           <t>378</t>
         </is>
       </c>
-      <c r="M59" s="8" t="inlineStr">
+      <c r="M59" s="9" t="inlineStr">
         <is>
           <t>818</t>
         </is>
@@ -11072,17 +11072,17 @@
           <t>835</t>
         </is>
       </c>
-      <c r="K60" s="8" t="inlineStr">
+      <c r="K60" s="9" t="inlineStr">
         <is>
           <t>419</t>
         </is>
       </c>
-      <c r="L60" s="8" t="inlineStr">
+      <c r="L60" s="9" t="inlineStr">
         <is>
           <t>798</t>
         </is>
       </c>
-      <c r="M60" s="8" t="inlineStr">
+      <c r="M60" s="9" t="inlineStr">
         <is>
           <t>676</t>
         </is>
@@ -11259,17 +11259,17 @@
           <t>357</t>
         </is>
       </c>
-      <c r="K61" s="8" t="inlineStr">
+      <c r="K61" s="9" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="L61" s="8" t="inlineStr">
+      <c r="L61" s="9" t="inlineStr">
         <is>
           <t>346</t>
         </is>
       </c>
-      <c r="M61" s="8" t="inlineStr">
+      <c r="M61" s="9" t="inlineStr">
         <is>
           <t>616</t>
         </is>
@@ -11446,17 +11446,17 @@
           <t>860</t>
         </is>
       </c>
-      <c r="K62" s="8" t="inlineStr">
+      <c r="K62" s="9" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="L62" s="8" t="inlineStr">
+      <c r="L62" s="9" t="inlineStr">
         <is>
           <t>678</t>
         </is>
       </c>
-      <c r="M62" s="8" t="inlineStr">
+      <c r="M62" s="9" t="inlineStr">
         <is>
           <t>203</t>
         </is>
@@ -11593,7 +11593,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="C63" s="9" t="inlineStr">
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>582</t>
         </is>
@@ -11633,17 +11633,17 @@
           <t>066</t>
         </is>
       </c>
-      <c r="K63" s="8" t="inlineStr">
+      <c r="K63" s="9" t="inlineStr">
         <is>
           <t>034</t>
         </is>
       </c>
-      <c r="L63" s="8" t="inlineStr">
+      <c r="L63" s="9" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="M63" s="8" t="inlineStr">
+      <c r="M63" s="9" t="inlineStr">
         <is>
           <t>023</t>
         </is>
@@ -11820,17 +11820,17 @@
           <t>245</t>
         </is>
       </c>
-      <c r="K64" s="8" t="inlineStr">
+      <c r="K64" s="9" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="L64" s="8" t="inlineStr">
+      <c r="L64" s="9" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="M64" s="8" t="inlineStr">
+      <c r="M64" s="9" t="inlineStr">
         <is>
           <t>192</t>
         </is>
@@ -12007,17 +12007,17 @@
           <t>012</t>
         </is>
       </c>
-      <c r="K65" s="8" t="inlineStr">
+      <c r="K65" s="9" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="L65" s="8" t="inlineStr">
+      <c r="L65" s="9" t="inlineStr">
         <is>
           <t>428</t>
         </is>
       </c>
-      <c r="M65" s="8" t="inlineStr">
+      <c r="M65" s="9" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -12194,17 +12194,17 @@
           <t>429</t>
         </is>
       </c>
-      <c r="K66" s="8" t="inlineStr">
+      <c r="K66" s="9" t="inlineStr">
         <is>
           <t>326</t>
         </is>
       </c>
-      <c r="L66" s="8" t="inlineStr">
+      <c r="L66" s="9" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="M66" s="8" t="inlineStr">
+      <c r="M66" s="9" t="inlineStr">
         <is>
           <t>744</t>
         </is>
@@ -12381,17 +12381,17 @@
           <t>324</t>
         </is>
       </c>
-      <c r="K67" s="8" t="inlineStr">
+      <c r="K67" s="9" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="L67" s="8" t="inlineStr">
+      <c r="L67" s="9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="M67" s="8" t="inlineStr">
+      <c r="M67" s="9" t="inlineStr">
         <is>
           <t>812</t>
         </is>
@@ -12568,17 +12568,17 @@
           <t>953</t>
         </is>
       </c>
-      <c r="K68" s="8" t="inlineStr">
+      <c r="K68" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L68" s="8" t="inlineStr">
+      <c r="L68" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M68" s="8" t="inlineStr">
+      <c r="M68" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13029,17 +13029,17 @@
           <t>261</t>
         </is>
       </c>
-      <c r="K73" s="8" t="inlineStr">
+      <c r="K73" s="9" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="L73" s="8" t="inlineStr">
+      <c r="L73" s="9" t="inlineStr">
         <is>
           <t>869</t>
         </is>
       </c>
-      <c r="M73" s="8" t="inlineStr">
+      <c r="M73" s="9" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -13216,17 +13216,17 @@
           <t>160</t>
         </is>
       </c>
-      <c r="K74" s="8" t="inlineStr">
+      <c r="K74" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L74" s="8" t="inlineStr">
+      <c r="L74" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M74" s="8" t="inlineStr">
+      <c r="M74" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13403,17 +13403,17 @@
           <t>165</t>
         </is>
       </c>
-      <c r="K75" s="8" t="inlineStr">
+      <c r="K75" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L75" s="8" t="inlineStr">
+      <c r="L75" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M75" s="8" t="inlineStr">
+      <c r="M75" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13590,17 +13590,17 @@
           <t>778</t>
         </is>
       </c>
-      <c r="K76" s="8" t="inlineStr">
+      <c r="K76" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L76" s="8" t="inlineStr">
+      <c r="L76" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M76" s="8" t="inlineStr">
+      <c r="M76" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13757,7 +13757,7 @@
           <t>326</t>
         </is>
       </c>
-      <c r="G77" s="9" t="inlineStr">
+      <c r="G77" s="6" t="inlineStr">
         <is>
           <t>528</t>
         </is>
@@ -13777,17 +13777,17 @@
           <t>110</t>
         </is>
       </c>
-      <c r="K77" s="8" t="inlineStr">
+      <c r="K77" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L77" s="8" t="inlineStr">
+      <c r="L77" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M77" s="8" t="inlineStr">
+      <c r="M77" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13964,12 +13964,12 @@
           <t>923</t>
         </is>
       </c>
-      <c r="K78" s="8" t="inlineStr">
+      <c r="K78" s="9" t="inlineStr">
         <is>
           <t>304</t>
         </is>
       </c>
-      <c r="L78" s="8" t="inlineStr">
+      <c r="L78" s="9" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -14151,17 +14151,17 @@
           <t>091</t>
         </is>
       </c>
-      <c r="K79" s="8" t="inlineStr">
+      <c r="K79" s="9" t="inlineStr">
         <is>
           <t>330</t>
         </is>
       </c>
-      <c r="L79" s="8" t="inlineStr">
+      <c r="L79" s="9" t="inlineStr">
         <is>
           <t>515</t>
         </is>
       </c>
-      <c r="M79" s="8" t="inlineStr">
+      <c r="M79" s="9" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -14338,17 +14338,17 @@
           <t>795</t>
         </is>
       </c>
-      <c r="K80" s="8" t="inlineStr">
+      <c r="K80" s="9" t="inlineStr">
         <is>
           <t>476</t>
         </is>
       </c>
-      <c r="L80" s="8" t="inlineStr">
+      <c r="L80" s="9" t="inlineStr">
         <is>
           <t>278</t>
         </is>
       </c>
-      <c r="M80" s="8" t="inlineStr">
+      <c r="M80" s="9" t="inlineStr">
         <is>
           <t>996</t>
         </is>
@@ -14525,17 +14525,17 @@
           <t>005</t>
         </is>
       </c>
-      <c r="K81" s="8" t="inlineStr">
+      <c r="K81" s="9" t="inlineStr">
         <is>
           <t>862</t>
         </is>
       </c>
-      <c r="L81" s="8" t="inlineStr">
+      <c r="L81" s="9" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="M81" s="8" t="inlineStr">
+      <c r="M81" s="9" t="inlineStr">
         <is>
           <t>595</t>
         </is>
@@ -14712,17 +14712,17 @@
           <t>525</t>
         </is>
       </c>
-      <c r="K82" s="8" t="inlineStr">
+      <c r="K82" s="9" t="inlineStr">
         <is>
           <t>057</t>
         </is>
       </c>
-      <c r="L82" s="8" t="inlineStr">
+      <c r="L82" s="9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M82" s="8" t="inlineStr">
+      <c r="M82" s="9" t="inlineStr">
         <is>
           <t>680</t>
         </is>
@@ -14767,7 +14767,7 @@
           <t>915</t>
         </is>
       </c>
-      <c r="V82" s="12" t="inlineStr">
+      <c r="V82" s="8" t="inlineStr">
         <is>
           <t>353</t>
         </is>
@@ -14899,17 +14899,17 @@
           <t>109</t>
         </is>
       </c>
-      <c r="K83" s="8" t="inlineStr">
+      <c r="K83" s="9" t="inlineStr">
         <is>
           <t>294</t>
         </is>
       </c>
-      <c r="L83" s="8" t="inlineStr">
+      <c r="L83" s="9" t="inlineStr">
         <is>
           <t>192</t>
         </is>
       </c>
-      <c r="M83" s="8" t="inlineStr">
+      <c r="M83" s="9" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -15086,17 +15086,17 @@
           <t>835</t>
         </is>
       </c>
-      <c r="K84" s="8" t="inlineStr">
+      <c r="K84" s="9" t="inlineStr">
         <is>
           <t>752</t>
         </is>
       </c>
-      <c r="L84" s="8" t="inlineStr">
+      <c r="L84" s="9" t="inlineStr">
         <is>
           <t>961</t>
         </is>
       </c>
-      <c r="M84" s="8" t="inlineStr">
+      <c r="M84" s="9" t="inlineStr">
         <is>
           <t>092</t>
         </is>
@@ -15263,7 +15263,7 @@
           <t>374</t>
         </is>
       </c>
-      <c r="I85" s="9" t="inlineStr">
+      <c r="I85" s="7" t="inlineStr">
         <is>
           <t>363</t>
         </is>
@@ -15273,12 +15273,12 @@
           <t>980</t>
         </is>
       </c>
-      <c r="K85" s="8" t="inlineStr">
+      <c r="K85" s="9" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="L85" s="8" t="inlineStr">
+      <c r="L85" s="9" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -15358,7 +15358,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="AB85" s="14" t="inlineStr">
+      <c r="AB85" s="8" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -15460,17 +15460,17 @@
           <t>034</t>
         </is>
       </c>
-      <c r="K86" s="8" t="inlineStr">
+      <c r="K86" s="9" t="inlineStr">
         <is>
           <t>074</t>
         </is>
       </c>
-      <c r="L86" s="8" t="inlineStr">
+      <c r="L86" s="9" t="inlineStr">
         <is>
           <t>880</t>
         </is>
       </c>
-      <c r="M86" s="8" t="inlineStr">
+      <c r="M86" s="9" t="inlineStr">
         <is>
           <t>818</t>
         </is>
@@ -15647,17 +15647,17 @@
           <t>270</t>
         </is>
       </c>
-      <c r="K87" s="8" t="inlineStr">
+      <c r="K87" s="9" t="inlineStr">
         <is>
           <t>505</t>
         </is>
       </c>
-      <c r="L87" s="8" t="inlineStr">
+      <c r="L87" s="9" t="inlineStr">
         <is>
           <t>859</t>
         </is>
       </c>
-      <c r="M87" s="8" t="inlineStr">
+      <c r="M87" s="9" t="inlineStr">
         <is>
           <t>137</t>
         </is>
@@ -15742,7 +15742,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="AD87" s="9" t="inlineStr">
+      <c r="AD87" s="15" t="inlineStr">
         <is>
           <t>363</t>
         </is>
@@ -15834,22 +15834,22 @@
           <t>894</t>
         </is>
       </c>
-      <c r="K88" s="8" t="inlineStr">
+      <c r="K88" s="9" t="inlineStr">
         <is>
           <t>952</t>
         </is>
       </c>
-      <c r="L88" s="8" t="inlineStr">
+      <c r="L88" s="9" t="inlineStr">
         <is>
           <t>396</t>
         </is>
       </c>
-      <c r="M88" s="8" t="inlineStr">
+      <c r="M88" s="9" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N88" s="9" t="inlineStr">
+      <c r="N88" s="10" t="inlineStr">
         <is>
           <t>363</t>
         </is>
@@ -16021,17 +16021,17 @@
           <t>732</t>
         </is>
       </c>
-      <c r="K89" s="8" t="inlineStr">
+      <c r="K89" s="9" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="L89" s="8" t="inlineStr">
+      <c r="L89" s="9" t="inlineStr">
         <is>
           <t>005</t>
         </is>
       </c>
-      <c r="M89" s="8" t="inlineStr">
+      <c r="M89" s="9" t="inlineStr">
         <is>
           <t>871</t>
         </is>
@@ -16071,7 +16071,7 @@
           <t>140</t>
         </is>
       </c>
-      <c r="U89" s="12" t="inlineStr">
+      <c r="U89" s="8" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -16126,7 +16126,7 @@
           <t>023</t>
         </is>
       </c>
-      <c r="AF89" s="9" t="inlineStr">
+      <c r="AF89" s="16" t="inlineStr">
         <is>
           <t>633</t>
         </is>
@@ -16208,17 +16208,17 @@
           <t>352</t>
         </is>
       </c>
-      <c r="K90" s="8" t="inlineStr">
+      <c r="K90" s="9" t="inlineStr">
         <is>
           <t>689</t>
         </is>
       </c>
-      <c r="L90" s="8" t="inlineStr">
+      <c r="L90" s="9" t="inlineStr">
         <is>
           <t>283</t>
         </is>
       </c>
-      <c r="M90" s="8" t="inlineStr">
+      <c r="M90" s="9" t="inlineStr">
         <is>
           <t>064</t>
         </is>
@@ -16395,17 +16395,17 @@
           <t>758</t>
         </is>
       </c>
-      <c r="K91" s="8" t="inlineStr">
+      <c r="K91" s="9" t="inlineStr">
         <is>
           <t>727</t>
         </is>
       </c>
-      <c r="L91" s="8" t="inlineStr">
+      <c r="L91" s="9" t="inlineStr">
         <is>
           <t>361</t>
         </is>
       </c>
-      <c r="M91" s="8" t="inlineStr">
+      <c r="M91" s="9" t="inlineStr">
         <is>
           <t>084</t>
         </is>
@@ -16435,7 +16435,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="S91" s="11" t="inlineStr">
+      <c r="S91" s="8" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -16582,17 +16582,17 @@
           <t>661</t>
         </is>
       </c>
-      <c r="K92" s="8" t="inlineStr">
+      <c r="K92" s="9" t="inlineStr">
         <is>
           <t>349</t>
         </is>
       </c>
-      <c r="L92" s="8" t="inlineStr">
+      <c r="L92" s="9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="M92" s="8" t="inlineStr">
+      <c r="M92" s="9" t="inlineStr">
         <is>
           <t>882</t>
         </is>
@@ -16769,17 +16769,17 @@
           <t>419</t>
         </is>
       </c>
-      <c r="K93" s="8" t="inlineStr">
+      <c r="K93" s="9" t="inlineStr">
         <is>
           <t>702</t>
         </is>
       </c>
-      <c r="L93" s="8" t="inlineStr">
+      <c r="L93" s="9" t="inlineStr">
         <is>
           <t>981</t>
         </is>
       </c>
-      <c r="M93" s="8" t="inlineStr">
+      <c r="M93" s="9" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -16956,17 +16956,17 @@
           <t>628</t>
         </is>
       </c>
-      <c r="K94" s="8" t="inlineStr">
+      <c r="K94" s="9" t="inlineStr">
         <is>
           <t>669</t>
         </is>
       </c>
-      <c r="L94" s="8" t="inlineStr">
+      <c r="L94" s="9" t="inlineStr">
         <is>
           <t>654</t>
         </is>
       </c>
-      <c r="M94" s="8" t="inlineStr">
+      <c r="M94" s="9" t="inlineStr">
         <is>
           <t>634</t>
         </is>
@@ -17143,17 +17143,17 @@
           <t>373</t>
         </is>
       </c>
-      <c r="K95" s="8" t="inlineStr">
+      <c r="K95" s="9" t="inlineStr">
         <is>
           <t>293</t>
         </is>
       </c>
-      <c r="L95" s="8" t="inlineStr">
+      <c r="L95" s="9" t="inlineStr">
         <is>
           <t>878</t>
         </is>
       </c>
-      <c r="M95" s="8" t="inlineStr">
+      <c r="M95" s="9" t="inlineStr">
         <is>
           <t>772</t>
         </is>
@@ -17168,7 +17168,7 @@
           <t>504</t>
         </is>
       </c>
-      <c r="P95" s="10" t="inlineStr">
+      <c r="P95" s="8" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -17330,17 +17330,17 @@
           <t>458</t>
         </is>
       </c>
-      <c r="K96" s="8" t="inlineStr">
+      <c r="K96" s="9" t="inlineStr">
         <is>
           <t>039</t>
         </is>
       </c>
-      <c r="L96" s="8" t="inlineStr">
+      <c r="L96" s="9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="M96" s="8" t="inlineStr">
+      <c r="M96" s="9" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -17517,17 +17517,17 @@
           <t>978</t>
         </is>
       </c>
-      <c r="K97" s="8" t="inlineStr">
+      <c r="K97" s="9" t="inlineStr">
         <is>
           <t>752</t>
         </is>
       </c>
-      <c r="L97" s="8" t="inlineStr">
+      <c r="L97" s="9" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="M97" s="8" t="inlineStr">
+      <c r="M97" s="9" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -17567,7 +17567,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="U97" s="12" t="inlineStr">
+      <c r="U97" s="8" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -17669,7 +17669,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="D98" s="5" t="inlineStr">
+      <c r="D98" s="8" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -17709,12 +17709,12 @@
           <t>484</t>
         </is>
       </c>
-      <c r="L98" s="8" t="inlineStr">
+      <c r="L98" s="9" t="inlineStr">
         <is>
           <t>773</t>
         </is>
       </c>
-      <c r="M98" s="8" t="inlineStr">
+      <c r="M98" s="9" t="inlineStr">
         <is>
           <t>892</t>
         </is>
@@ -17891,17 +17891,17 @@
           <t>529</t>
         </is>
       </c>
-      <c r="K99" s="8" t="inlineStr">
+      <c r="K99" s="9" t="inlineStr">
         <is>
           <t>822</t>
         </is>
       </c>
-      <c r="L99" s="8" t="inlineStr">
+      <c r="L99" s="9" t="inlineStr">
         <is>
           <t>664</t>
         </is>
       </c>
-      <c r="M99" s="8" t="inlineStr">
+      <c r="M99" s="9" t="inlineStr">
         <is>
           <t>932</t>
         </is>
@@ -17966,7 +17966,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="Z99" s="14" t="inlineStr">
+      <c r="Z99" s="8" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -18053,7 +18053,7 @@
           <t>865</t>
         </is>
       </c>
-      <c r="F100" s="9" t="inlineStr">
+      <c r="F100" s="6" t="inlineStr">
         <is>
           <t>285</t>
         </is>
@@ -18078,7 +18078,7 @@
           <t>332</t>
         </is>
       </c>
-      <c r="K100" s="8" t="inlineStr">
+      <c r="K100" s="9" t="inlineStr">
         <is>
           <t>869</t>
         </is>
@@ -18088,7 +18088,7 @@
           <t>844</t>
         </is>
       </c>
-      <c r="M100" s="8" t="inlineStr">
+      <c r="M100" s="9" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -18265,17 +18265,17 @@
           <t>367</t>
         </is>
       </c>
-      <c r="K101" s="8" t="inlineStr">
+      <c r="K101" s="9" t="inlineStr">
         <is>
           <t>601</t>
         </is>
       </c>
-      <c r="L101" s="8" t="inlineStr">
+      <c r="L101" s="9" t="inlineStr">
         <is>
           <t>407</t>
         </is>
       </c>
-      <c r="M101" s="8" t="inlineStr">
+      <c r="M101" s="9" t="inlineStr">
         <is>
           <t>563</t>
         </is>
@@ -18452,17 +18452,17 @@
           <t>297</t>
         </is>
       </c>
-      <c r="K102" s="8" t="inlineStr">
+      <c r="K102" s="9" t="inlineStr">
         <is>
           <t>628</t>
         </is>
       </c>
-      <c r="L102" s="8" t="inlineStr">
+      <c r="L102" s="9" t="inlineStr">
         <is>
           <t>860</t>
         </is>
       </c>
-      <c r="M102" s="8" t="inlineStr">
+      <c r="M102" s="9" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -18639,17 +18639,17 @@
           <t>878</t>
         </is>
       </c>
-      <c r="K103" s="8" t="inlineStr">
+      <c r="K103" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L103" s="8" t="inlineStr">
+      <c r="L103" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M103" s="8" t="inlineStr">
+      <c r="M103" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -19100,17 +19100,17 @@
           <t>764</t>
         </is>
       </c>
-      <c r="K108" s="8" t="inlineStr">
+      <c r="K108" s="9" t="inlineStr">
         <is>
           <t>358</t>
         </is>
       </c>
-      <c r="L108" s="8" t="inlineStr">
+      <c r="L108" s="9" t="inlineStr">
         <is>
           <t>045</t>
         </is>
       </c>
-      <c r="M108" s="8" t="inlineStr">
+      <c r="M108" s="9" t="inlineStr">
         <is>
           <t>394</t>
         </is>
@@ -19287,17 +19287,17 @@
           <t>211</t>
         </is>
       </c>
-      <c r="K109" s="8" t="inlineStr">
+      <c r="K109" s="9" t="inlineStr">
         <is>
           <t>429</t>
         </is>
       </c>
-      <c r="L109" s="8" t="inlineStr">
+      <c r="L109" s="9" t="inlineStr">
         <is>
           <t>873</t>
         </is>
       </c>
-      <c r="M109" s="8" t="inlineStr">
+      <c r="M109" s="9" t="inlineStr">
         <is>
           <t>881</t>
         </is>
@@ -19342,7 +19342,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="V109" s="9" t="inlineStr">
+      <c r="V109" s="12" t="inlineStr">
         <is>
           <t>363</t>
         </is>
@@ -19474,17 +19474,17 @@
           <t>466</t>
         </is>
       </c>
-      <c r="K110" s="8" t="inlineStr">
+      <c r="K110" s="9" t="inlineStr">
         <is>
           <t>887</t>
         </is>
       </c>
-      <c r="L110" s="8" t="inlineStr">
+      <c r="L110" s="9" t="inlineStr">
         <is>
           <t>370</t>
         </is>
       </c>
-      <c r="M110" s="8" t="inlineStr">
+      <c r="M110" s="9" t="inlineStr">
         <is>
           <t>192</t>
         </is>
@@ -19661,17 +19661,17 @@
           <t>443</t>
         </is>
       </c>
-      <c r="K111" s="8" t="inlineStr">
+      <c r="K111" s="9" t="inlineStr">
         <is>
           <t>382</t>
         </is>
       </c>
-      <c r="L111" s="8" t="inlineStr">
+      <c r="L111" s="9" t="inlineStr">
         <is>
           <t>912</t>
         </is>
       </c>
-      <c r="M111" s="8" t="inlineStr">
+      <c r="M111" s="9" t="inlineStr">
         <is>
           <t>648</t>
         </is>
@@ -19848,17 +19848,17 @@
           <t>682</t>
         </is>
       </c>
-      <c r="K112" s="8" t="inlineStr">
+      <c r="K112" s="9" t="inlineStr">
         <is>
           <t>031</t>
         </is>
       </c>
-      <c r="L112" s="8" t="inlineStr">
+      <c r="L112" s="9" t="inlineStr">
         <is>
           <t>010</t>
         </is>
       </c>
-      <c r="M112" s="8" t="inlineStr">
+      <c r="M112" s="9" t="inlineStr">
         <is>
           <t>262</t>
         </is>
@@ -20035,17 +20035,17 @@
           <t>436</t>
         </is>
       </c>
-      <c r="K113" s="8" t="inlineStr">
+      <c r="K113" s="9" t="inlineStr">
         <is>
           <t>318</t>
         </is>
       </c>
-      <c r="L113" s="8" t="inlineStr">
+      <c r="L113" s="9" t="inlineStr">
         <is>
           <t>452</t>
         </is>
       </c>
-      <c r="M113" s="8" t="inlineStr">
+      <c r="M113" s="9" t="inlineStr">
         <is>
           <t>494</t>
         </is>
@@ -20222,17 +20222,17 @@
           <t>360</t>
         </is>
       </c>
-      <c r="K114" s="8" t="inlineStr">
+      <c r="K114" s="9" t="inlineStr">
         <is>
           <t>817</t>
         </is>
       </c>
-      <c r="L114" s="8" t="inlineStr">
+      <c r="L114" s="9" t="inlineStr">
         <is>
           <t>452</t>
         </is>
       </c>
-      <c r="M114" s="8" t="inlineStr">
+      <c r="M114" s="9" t="inlineStr">
         <is>
           <t>938</t>
         </is>
@@ -20302,7 +20302,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="AA114" s="14" t="inlineStr">
+      <c r="AA114" s="8" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -20409,17 +20409,17 @@
           <t>588</t>
         </is>
       </c>
-      <c r="K115" s="8" t="inlineStr">
+      <c r="K115" s="9" t="inlineStr">
         <is>
           <t>034</t>
         </is>
       </c>
-      <c r="L115" s="8" t="inlineStr">
+      <c r="L115" s="9" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="M115" s="8" t="inlineStr">
+      <c r="M115" s="9" t="inlineStr">
         <is>
           <t>909</t>
         </is>
@@ -20596,17 +20596,17 @@
           <t>574</t>
         </is>
       </c>
-      <c r="K116" s="8" t="inlineStr">
+      <c r="K116" s="9" t="inlineStr">
         <is>
           <t>401</t>
         </is>
       </c>
-      <c r="L116" s="8" t="inlineStr">
+      <c r="L116" s="9" t="inlineStr">
         <is>
           <t>205</t>
         </is>
       </c>
-      <c r="M116" s="8" t="inlineStr">
+      <c r="M116" s="9" t="inlineStr">
         <is>
           <t>687</t>
         </is>
@@ -20621,7 +20621,7 @@
           <t>725</t>
         </is>
       </c>
-      <c r="P116" s="10" t="inlineStr">
+      <c r="P116" s="8" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -20783,17 +20783,17 @@
           <t>782</t>
         </is>
       </c>
-      <c r="K117" s="8" t="inlineStr">
+      <c r="K117" s="9" t="inlineStr">
         <is>
           <t>985</t>
         </is>
       </c>
-      <c r="L117" s="8" t="inlineStr">
+      <c r="L117" s="9" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="M117" s="8" t="inlineStr">
+      <c r="M117" s="9" t="inlineStr">
         <is>
           <t>677</t>
         </is>
@@ -20940,7 +20940,7 @@
           <t>472</t>
         </is>
       </c>
-      <c r="E118" s="6" t="inlineStr">
+      <c r="E118" s="8" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -20970,17 +20970,17 @@
           <t>998</t>
         </is>
       </c>
-      <c r="K118" s="8" t="inlineStr">
+      <c r="K118" s="9" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="L118" s="8" t="inlineStr">
+      <c r="L118" s="9" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="M118" s="8" t="inlineStr">
+      <c r="M118" s="9" t="inlineStr">
         <is>
           <t>191</t>
         </is>
@@ -21157,7 +21157,7 @@
           <t>894</t>
         </is>
       </c>
-      <c r="K119" s="8" t="inlineStr">
+      <c r="K119" s="9" t="inlineStr">
         <is>
           <t>352</t>
         </is>
@@ -21167,7 +21167,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="M119" s="8" t="inlineStr">
+      <c r="M119" s="9" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -21299,7 +21299,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B120" s="5" t="inlineStr">
+      <c r="B120" s="8" t="inlineStr">
         <is>
           <t>353</t>
         </is>
@@ -21344,17 +21344,17 @@
           <t>814</t>
         </is>
       </c>
-      <c r="K120" s="8" t="inlineStr">
+      <c r="K120" s="9" t="inlineStr">
         <is>
           <t>130</t>
         </is>
       </c>
-      <c r="L120" s="8" t="inlineStr">
+      <c r="L120" s="9" t="inlineStr">
         <is>
           <t>193</t>
         </is>
       </c>
-      <c r="M120" s="8" t="inlineStr">
+      <c r="M120" s="9" t="inlineStr">
         <is>
           <t>892</t>
         </is>
@@ -21531,17 +21531,17 @@
           <t>516</t>
         </is>
       </c>
-      <c r="K121" s="8" t="inlineStr">
+      <c r="K121" s="9" t="inlineStr">
         <is>
           <t>451</t>
         </is>
       </c>
-      <c r="L121" s="8" t="inlineStr">
+      <c r="L121" s="9" t="inlineStr">
         <is>
           <t>766</t>
         </is>
       </c>
-      <c r="M121" s="8" t="inlineStr">
+      <c r="M121" s="9" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -21566,7 +21566,7 @@
           <t>831</t>
         </is>
       </c>
-      <c r="R121" s="9" t="inlineStr">
+      <c r="R121" s="11" t="inlineStr">
         <is>
           <t>285</t>
         </is>
@@ -21718,17 +21718,17 @@
           <t>707</t>
         </is>
       </c>
-      <c r="K122" s="8" t="inlineStr">
+      <c r="K122" s="9" t="inlineStr">
         <is>
           <t>598</t>
         </is>
       </c>
-      <c r="L122" s="8" t="inlineStr">
+      <c r="L122" s="9" t="inlineStr">
         <is>
           <t>229</t>
         </is>
       </c>
-      <c r="M122" s="8" t="inlineStr">
+      <c r="M122" s="9" t="inlineStr">
         <is>
           <t>986</t>
         </is>
@@ -21885,7 +21885,7 @@
           <t>150</t>
         </is>
       </c>
-      <c r="G123" s="9" t="inlineStr">
+      <c r="G123" s="6" t="inlineStr">
         <is>
           <t>582</t>
         </is>
@@ -21905,17 +21905,17 @@
           <t>437</t>
         </is>
       </c>
-      <c r="K123" s="8" t="inlineStr">
+      <c r="K123" s="9" t="inlineStr">
         <is>
           <t>083</t>
         </is>
       </c>
-      <c r="L123" s="8" t="inlineStr">
+      <c r="L123" s="9" t="inlineStr">
         <is>
           <t>587</t>
         </is>
       </c>
-      <c r="M123" s="8" t="inlineStr">
+      <c r="M123" s="9" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -22035,7 +22035,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="AK123" s="17" t="inlineStr">
+      <c r="AK123" s="8" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -22092,17 +22092,17 @@
           <t>132</t>
         </is>
       </c>
-      <c r="K124" s="8" t="inlineStr">
+      <c r="K124" s="9" t="inlineStr">
         <is>
           <t>540</t>
         </is>
       </c>
-      <c r="L124" s="8" t="inlineStr">
+      <c r="L124" s="9" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="M124" s="8" t="inlineStr">
+      <c r="M124" s="9" t="inlineStr">
         <is>
           <t>436</t>
         </is>
@@ -22207,7 +22207,7 @@
           <t>449</t>
         </is>
       </c>
-      <c r="AH124" s="9" t="inlineStr">
+      <c r="AH124" s="16" t="inlineStr">
         <is>
           <t>336</t>
         </is>
@@ -22279,17 +22279,17 @@
           <t>788</t>
         </is>
       </c>
-      <c r="K125" s="8" t="inlineStr">
+      <c r="K125" s="9" t="inlineStr">
         <is>
           <t>587</t>
         </is>
       </c>
-      <c r="L125" s="8" t="inlineStr">
+      <c r="L125" s="9" t="inlineStr">
         <is>
           <t>733</t>
         </is>
       </c>
-      <c r="M125" s="8" t="inlineStr">
+      <c r="M125" s="9" t="inlineStr">
         <is>
           <t>840</t>
         </is>
@@ -22359,7 +22359,7 @@
           <t>398</t>
         </is>
       </c>
-      <c r="AA125" s="9" t="inlineStr">
+      <c r="AA125" s="14" t="inlineStr">
         <is>
           <t>582</t>
         </is>
@@ -22466,17 +22466,17 @@
           <t>020</t>
         </is>
       </c>
-      <c r="K126" s="8" t="inlineStr">
+      <c r="K126" s="9" t="inlineStr">
         <is>
           <t>506</t>
         </is>
       </c>
-      <c r="L126" s="8" t="inlineStr">
+      <c r="L126" s="9" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="M126" s="8" t="inlineStr">
+      <c r="M126" s="9" t="inlineStr">
         <is>
           <t>714</t>
         </is>
@@ -22653,12 +22653,12 @@
           <t>073</t>
         </is>
       </c>
-      <c r="K127" s="8" t="inlineStr">
+      <c r="K127" s="9" t="inlineStr">
         <is>
           <t>689</t>
         </is>
       </c>
-      <c r="L127" s="8" t="inlineStr">
+      <c r="L127" s="9" t="inlineStr">
         <is>
           <t>192</t>
         </is>
@@ -22840,17 +22840,17 @@
           <t>641</t>
         </is>
       </c>
-      <c r="K128" s="8" t="inlineStr">
+      <c r="K128" s="9" t="inlineStr">
         <is>
           <t>298</t>
         </is>
       </c>
-      <c r="L128" s="8" t="inlineStr">
+      <c r="L128" s="9" t="inlineStr">
         <is>
           <t>325</t>
         </is>
       </c>
-      <c r="M128" s="8" t="inlineStr">
+      <c r="M128" s="9" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -23027,17 +23027,17 @@
           <t>040</t>
         </is>
       </c>
-      <c r="K129" s="8" t="inlineStr">
+      <c r="K129" s="9" t="inlineStr">
         <is>
           <t>778</t>
         </is>
       </c>
-      <c r="L129" s="8" t="inlineStr">
+      <c r="L129" s="9" t="inlineStr">
         <is>
           <t>651</t>
         </is>
       </c>
-      <c r="M129" s="8" t="inlineStr">
+      <c r="M129" s="9" t="inlineStr">
         <is>
           <t>329</t>
         </is>
@@ -23214,17 +23214,17 @@
           <t>441</t>
         </is>
       </c>
-      <c r="K130" s="8" t="inlineStr">
+      <c r="K130" s="9" t="inlineStr">
         <is>
           <t>995</t>
         </is>
       </c>
-      <c r="L130" s="8" t="inlineStr">
+      <c r="L130" s="9" t="inlineStr">
         <is>
           <t>822</t>
         </is>
       </c>
-      <c r="M130" s="8" t="inlineStr">
+      <c r="M130" s="9" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -23401,17 +23401,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K131" s="8" t="inlineStr">
+      <c r="K131" s="9" t="inlineStr">
         <is>
           <t>846</t>
         </is>
       </c>
-      <c r="L131" s="8" t="inlineStr">
+      <c r="L131" s="9" t="inlineStr">
         <is>
           <t>088</t>
         </is>
       </c>
-      <c r="M131" s="8" t="inlineStr">
+      <c r="M131" s="9" t="inlineStr">
         <is>
           <t>490</t>
         </is>
@@ -23588,17 +23588,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K132" s="8" t="inlineStr">
+      <c r="K132" s="9" t="inlineStr">
         <is>
           <t>627</t>
         </is>
       </c>
-      <c r="L132" s="8" t="inlineStr">
+      <c r="L132" s="9" t="inlineStr">
         <is>
           <t>095</t>
         </is>
       </c>
-      <c r="M132" s="8" t="inlineStr">
+      <c r="M132" s="9" t="inlineStr">
         <is>
           <t>944</t>
         </is>
@@ -23775,17 +23775,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K133" s="8" t="inlineStr">
+      <c r="K133" s="9" t="inlineStr">
         <is>
           <t>027</t>
         </is>
       </c>
-      <c r="L133" s="8" t="inlineStr">
+      <c r="L133" s="9" t="inlineStr">
         <is>
           <t>932</t>
         </is>
       </c>
-      <c r="M133" s="8" t="inlineStr">
+      <c r="M133" s="9" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -23810,7 +23810,7 @@
           <t>130</t>
         </is>
       </c>
-      <c r="R133" s="9" t="inlineStr">
+      <c r="R133" s="11" t="inlineStr">
         <is>
           <t>633</t>
         </is>
@@ -23962,12 +23962,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K134" s="8" t="inlineStr">
+      <c r="K134" s="9" t="inlineStr">
         <is>
           <t>439</t>
         </is>
       </c>
-      <c r="L134" s="8" t="inlineStr">
+      <c r="L134" s="9" t="inlineStr">
         <is>
           <t>704</t>
         </is>
@@ -23987,7 +23987,7 @@
           <t>242</t>
         </is>
       </c>
-      <c r="P134" s="9" t="inlineStr">
+      <c r="P134" s="10" t="inlineStr">
         <is>
           <t>258</t>
         </is>
@@ -24149,17 +24149,17 @@
           <t>060</t>
         </is>
       </c>
-      <c r="K135" s="8" t="inlineStr">
+      <c r="K135" s="9" t="inlineStr">
         <is>
           <t>866</t>
         </is>
       </c>
-      <c r="L135" s="8" t="inlineStr">
+      <c r="L135" s="9" t="inlineStr">
         <is>
           <t>524</t>
         </is>
       </c>
-      <c r="M135" s="8" t="inlineStr">
+      <c r="M135" s="9" t="inlineStr">
         <is>
           <t>839</t>
         </is>
@@ -24199,7 +24199,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="U135" s="12" t="inlineStr">
+      <c r="U135" s="8" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -24336,17 +24336,17 @@
           <t>121</t>
         </is>
       </c>
-      <c r="K136" s="8" t="inlineStr">
+      <c r="K136" s="9" t="inlineStr">
         <is>
           <t>048</t>
         </is>
       </c>
-      <c r="L136" s="8" t="inlineStr">
+      <c r="L136" s="9" t="inlineStr">
         <is>
           <t>517</t>
         </is>
       </c>
-      <c r="M136" s="8" t="inlineStr">
+      <c r="M136" s="9" t="inlineStr">
         <is>
           <t>992</t>
         </is>
@@ -24436,7 +24436,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="AE136" s="9" t="inlineStr">
+      <c r="AE136" s="15" t="inlineStr">
         <is>
           <t>633</t>
         </is>
@@ -24523,17 +24523,17 @@
           <t>600</t>
         </is>
       </c>
-      <c r="K137" s="8" t="inlineStr">
+      <c r="K137" s="9" t="inlineStr">
         <is>
           <t>357</t>
         </is>
       </c>
-      <c r="L137" s="8" t="inlineStr">
+      <c r="L137" s="9" t="inlineStr">
         <is>
           <t>330</t>
         </is>
       </c>
-      <c r="M137" s="8" t="inlineStr">
+      <c r="M137" s="9" t="inlineStr">
         <is>
           <t>719</t>
         </is>
@@ -24710,17 +24710,17 @@
           <t>514</t>
         </is>
       </c>
-      <c r="K138" s="8" t="inlineStr">
+      <c r="K138" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L138" s="8" t="inlineStr">
+      <c r="L138" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M138" s="8" t="inlineStr">
+      <c r="M138" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -25171,17 +25171,17 @@
           <t>295</t>
         </is>
       </c>
-      <c r="K143" s="8" t="inlineStr">
+      <c r="K143" s="9" t="inlineStr">
         <is>
           <t>358</t>
         </is>
       </c>
-      <c r="L143" s="8" t="inlineStr">
+      <c r="L143" s="9" t="inlineStr">
         <is>
           <t>282</t>
         </is>
       </c>
-      <c r="M143" s="8" t="inlineStr">
+      <c r="M143" s="9" t="inlineStr">
         <is>
           <t>682</t>
         </is>
@@ -25358,17 +25358,17 @@
           <t>872</t>
         </is>
       </c>
-      <c r="K144" s="8" t="inlineStr">
+      <c r="K144" s="9" t="inlineStr">
         <is>
           <t>003</t>
         </is>
       </c>
-      <c r="L144" s="8" t="inlineStr">
+      <c r="L144" s="9" t="inlineStr">
         <is>
           <t>366</t>
         </is>
       </c>
-      <c r="M144" s="8" t="inlineStr">
+      <c r="M144" s="9" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -25505,7 +25505,7 @@
           <t>512</t>
         </is>
       </c>
-      <c r="C145" s="5" t="inlineStr">
+      <c r="C145" s="8" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -25545,17 +25545,17 @@
           <t>445</t>
         </is>
       </c>
-      <c r="K145" s="8" t="inlineStr">
+      <c r="K145" s="9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="L145" s="8" t="inlineStr">
+      <c r="L145" s="9" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="M145" s="8" t="inlineStr">
+      <c r="M145" s="9" t="inlineStr">
         <is>
           <t>044</t>
         </is>
@@ -25732,17 +25732,17 @@
           <t>099</t>
         </is>
       </c>
-      <c r="K146" s="8" t="inlineStr">
+      <c r="K146" s="9" t="inlineStr">
         <is>
           <t>863</t>
         </is>
       </c>
-      <c r="L146" s="8" t="inlineStr">
+      <c r="L146" s="9" t="inlineStr">
         <is>
           <t>995</t>
         </is>
       </c>
-      <c r="M146" s="8" t="inlineStr">
+      <c r="M146" s="9" t="inlineStr">
         <is>
           <t>479</t>
         </is>
@@ -25919,17 +25919,17 @@
           <t>862</t>
         </is>
       </c>
-      <c r="K147" s="8" t="inlineStr">
+      <c r="K147" s="9" t="inlineStr">
         <is>
           <t>237</t>
         </is>
       </c>
-      <c r="L147" s="8" t="inlineStr">
+      <c r="L147" s="9" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="M147" s="8" t="inlineStr">
+      <c r="M147" s="9" t="inlineStr">
         <is>
           <t>658</t>
         </is>
@@ -26106,17 +26106,17 @@
           <t>698</t>
         </is>
       </c>
-      <c r="K148" s="8" t="inlineStr">
+      <c r="K148" s="9" t="inlineStr">
         <is>
           <t>621</t>
         </is>
       </c>
-      <c r="L148" s="8" t="inlineStr">
+      <c r="L148" s="9" t="inlineStr">
         <is>
           <t>421</t>
         </is>
       </c>
-      <c r="M148" s="8" t="inlineStr">
+      <c r="M148" s="9" t="inlineStr">
         <is>
           <t>545</t>
         </is>
@@ -26293,17 +26293,17 @@
           <t>494</t>
         </is>
       </c>
-      <c r="K149" s="8" t="inlineStr">
+      <c r="K149" s="9" t="inlineStr">
         <is>
           <t>059</t>
         </is>
       </c>
-      <c r="L149" s="8" t="inlineStr">
+      <c r="L149" s="9" t="inlineStr">
         <is>
           <t>622</t>
         </is>
       </c>
-      <c r="M149" s="8" t="inlineStr">
+      <c r="M149" s="9" t="inlineStr">
         <is>
           <t>150</t>
         </is>
@@ -26435,7 +26435,7 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B150" s="5" t="inlineStr">
+      <c r="B150" s="8" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -26480,17 +26480,17 @@
           <t>153</t>
         </is>
       </c>
-      <c r="K150" s="8" t="inlineStr">
+      <c r="K150" s="9" t="inlineStr">
         <is>
           <t>048</t>
         </is>
       </c>
-      <c r="L150" s="8" t="inlineStr">
+      <c r="L150" s="9" t="inlineStr">
         <is>
           <t>544</t>
         </is>
       </c>
-      <c r="M150" s="8" t="inlineStr">
+      <c r="M150" s="9" t="inlineStr">
         <is>
           <t>407</t>
         </is>
@@ -26667,17 +26667,17 @@
           <t>052</t>
         </is>
       </c>
-      <c r="K151" s="8" t="inlineStr">
+      <c r="K151" s="9" t="inlineStr">
         <is>
           <t>814</t>
         </is>
       </c>
-      <c r="L151" s="8" t="inlineStr">
+      <c r="L151" s="9" t="inlineStr">
         <is>
           <t>029</t>
         </is>
       </c>
-      <c r="M151" s="8" t="inlineStr">
+      <c r="M151" s="9" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -26829,7 +26829,7 @@
           <t>639</t>
         </is>
       </c>
-      <c r="F152" s="9" t="inlineStr">
+      <c r="F152" s="6" t="inlineStr">
         <is>
           <t>336</t>
         </is>
@@ -26854,17 +26854,17 @@
           <t>525</t>
         </is>
       </c>
-      <c r="K152" s="8" t="inlineStr">
+      <c r="K152" s="9" t="inlineStr">
         <is>
           <t>049</t>
         </is>
       </c>
-      <c r="L152" s="8" t="inlineStr">
+      <c r="L152" s="9" t="inlineStr">
         <is>
           <t>223</t>
         </is>
       </c>
-      <c r="M152" s="8" t="inlineStr">
+      <c r="M152" s="9" t="inlineStr">
         <is>
           <t>525</t>
         </is>
@@ -27041,17 +27041,17 @@
           <t>577</t>
         </is>
       </c>
-      <c r="K153" s="8" t="inlineStr">
+      <c r="K153" s="9" t="inlineStr">
         <is>
           <t>873</t>
         </is>
       </c>
-      <c r="L153" s="8" t="inlineStr">
+      <c r="L153" s="9" t="inlineStr">
         <is>
           <t>940</t>
         </is>
       </c>
-      <c r="M153" s="8" t="inlineStr">
+      <c r="M153" s="9" t="inlineStr">
         <is>
           <t>272</t>
         </is>
@@ -27228,17 +27228,17 @@
           <t>881</t>
         </is>
       </c>
-      <c r="K154" s="8" t="inlineStr">
+      <c r="K154" s="9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="L154" s="8" t="inlineStr">
+      <c r="L154" s="9" t="inlineStr">
         <is>
           <t>537</t>
         </is>
       </c>
-      <c r="M154" s="8" t="inlineStr">
+      <c r="M154" s="9" t="inlineStr">
         <is>
           <t>169</t>
         </is>
@@ -27415,17 +27415,17 @@
           <t>056</t>
         </is>
       </c>
-      <c r="K155" s="8" t="inlineStr">
+      <c r="K155" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L155" s="8" t="inlineStr">
+      <c r="L155" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M155" s="8" t="inlineStr">
+      <c r="M155" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -27475,7 +27475,7 @@
           <t>468</t>
         </is>
       </c>
-      <c r="W155" s="9" t="inlineStr">
+      <c r="W155" s="13" t="inlineStr">
         <is>
           <t>582</t>
         </is>
@@ -27602,17 +27602,17 @@
           <t>476</t>
         </is>
       </c>
-      <c r="K156" s="8" t="inlineStr">
+      <c r="K156" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L156" s="8" t="inlineStr">
+      <c r="L156" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M156" s="8" t="inlineStr">
+      <c r="M156" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -27789,17 +27789,17 @@
           <t>152</t>
         </is>
       </c>
-      <c r="K157" s="8" t="inlineStr">
+      <c r="K157" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L157" s="8" t="inlineStr">
+      <c r="L157" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M157" s="8" t="inlineStr">
+      <c r="M157" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -27976,17 +27976,17 @@
           <t>468</t>
         </is>
       </c>
-      <c r="K158" s="8" t="inlineStr">
+      <c r="K158" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L158" s="8" t="inlineStr">
+      <c r="L158" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M158" s="8" t="inlineStr">
+      <c r="M158" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -28163,17 +28163,17 @@
           <t>727</t>
         </is>
       </c>
-      <c r="K159" s="8" t="inlineStr">
+      <c r="K159" s="9" t="inlineStr">
         <is>
           <t>838</t>
         </is>
       </c>
-      <c r="L159" s="8" t="inlineStr">
+      <c r="L159" s="9" t="inlineStr">
         <is>
           <t>691</t>
         </is>
       </c>
-      <c r="M159" s="8" t="inlineStr">
+      <c r="M159" s="9" t="inlineStr">
         <is>
           <t>421</t>
         </is>
@@ -28350,17 +28350,17 @@
           <t>126</t>
         </is>
       </c>
-      <c r="K160" s="8" t="inlineStr">
+      <c r="K160" s="9" t="inlineStr">
         <is>
           <t>667</t>
         </is>
       </c>
-      <c r="L160" s="8" t="inlineStr">
+      <c r="L160" s="9" t="inlineStr">
         <is>
           <t>830</t>
         </is>
       </c>
-      <c r="M160" s="8" t="inlineStr">
+      <c r="M160" s="9" t="inlineStr">
         <is>
           <t>277</t>
         </is>
@@ -28537,17 +28537,17 @@
           <t>475</t>
         </is>
       </c>
-      <c r="K161" s="8" t="inlineStr">
+      <c r="K161" s="9" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="L161" s="8" t="inlineStr">
+      <c r="L161" s="9" t="inlineStr">
         <is>
           <t>475</t>
         </is>
       </c>
-      <c r="M161" s="8" t="inlineStr">
+      <c r="M161" s="9" t="inlineStr">
         <is>
           <t>055</t>
         </is>
@@ -28724,17 +28724,17 @@
           <t>147</t>
         </is>
       </c>
-      <c r="K162" s="8" t="inlineStr">
+      <c r="K162" s="9" t="inlineStr">
         <is>
           <t>503</t>
         </is>
       </c>
-      <c r="L162" s="8" t="inlineStr">
+      <c r="L162" s="9" t="inlineStr">
         <is>
           <t>334</t>
         </is>
       </c>
-      <c r="M162" s="8" t="inlineStr">
+      <c r="M162" s="9" t="inlineStr">
         <is>
           <t>021</t>
         </is>
@@ -28911,17 +28911,17 @@
           <t>429</t>
         </is>
       </c>
-      <c r="K163" s="8" t="inlineStr">
+      <c r="K163" s="9" t="inlineStr">
         <is>
           <t>043</t>
         </is>
       </c>
-      <c r="L163" s="8" t="inlineStr">
+      <c r="L163" s="9" t="inlineStr">
         <is>
           <t>076</t>
         </is>
       </c>
-      <c r="M163" s="8" t="inlineStr">
+      <c r="M163" s="9" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -29041,7 +29041,7 @@
           <t>036</t>
         </is>
       </c>
-      <c r="AK163" s="9" t="inlineStr">
+      <c r="AK163" s="17" t="inlineStr">
         <is>
           <t>363</t>
         </is>
@@ -29083,7 +29083,7 @@
           <t>757</t>
         </is>
       </c>
-      <c r="H164" s="7" t="inlineStr">
+      <c r="H164" s="8" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -29098,17 +29098,17 @@
           <t>507</t>
         </is>
       </c>
-      <c r="K164" s="8" t="inlineStr">
+      <c r="K164" s="9" t="inlineStr">
         <is>
           <t>515</t>
         </is>
       </c>
-      <c r="L164" s="8" t="inlineStr">
+      <c r="L164" s="9" t="inlineStr">
         <is>
           <t>713</t>
         </is>
       </c>
-      <c r="M164" s="8" t="inlineStr">
+      <c r="M164" s="9" t="inlineStr">
         <is>
           <t>601</t>
         </is>
@@ -29285,17 +29285,17 @@
           <t>705</t>
         </is>
       </c>
-      <c r="K165" s="8" t="inlineStr">
+      <c r="K165" s="9" t="inlineStr">
         <is>
           <t>642</t>
         </is>
       </c>
-      <c r="L165" s="8" t="inlineStr">
+      <c r="L165" s="9" t="inlineStr">
         <is>
           <t>640</t>
         </is>
       </c>
-      <c r="M165" s="8" t="inlineStr">
+      <c r="M165" s="9" t="inlineStr">
         <is>
           <t>404</t>
         </is>
@@ -29467,22 +29467,22 @@
           <t>789</t>
         </is>
       </c>
-      <c r="J166" s="9" t="inlineStr">
+      <c r="J166" s="7" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="K166" s="8" t="inlineStr">
+      <c r="K166" s="9" t="inlineStr">
         <is>
           <t>871</t>
         </is>
       </c>
-      <c r="L166" s="8" t="inlineStr">
+      <c r="L166" s="9" t="inlineStr">
         <is>
           <t>808</t>
         </is>
       </c>
-      <c r="M166" s="8" t="inlineStr">
+      <c r="M166" s="9" t="inlineStr">
         <is>
           <t>229</t>
         </is>
@@ -29659,17 +29659,17 @@
           <t>279</t>
         </is>
       </c>
-      <c r="K167" s="8" t="inlineStr">
+      <c r="K167" s="9" t="inlineStr">
         <is>
           <t>942</t>
         </is>
       </c>
-      <c r="L167" s="8" t="inlineStr">
+      <c r="L167" s="9" t="inlineStr">
         <is>
           <t>227</t>
         </is>
       </c>
-      <c r="M167" s="8" t="inlineStr">
+      <c r="M167" s="9" t="inlineStr">
         <is>
           <t>620</t>
         </is>
@@ -29846,17 +29846,17 @@
           <t>762</t>
         </is>
       </c>
-      <c r="K168" s="8" t="inlineStr">
+      <c r="K168" s="9" t="inlineStr">
         <is>
           <t>047</t>
         </is>
       </c>
-      <c r="L168" s="8" t="inlineStr">
+      <c r="L168" s="9" t="inlineStr">
         <is>
           <t>678</t>
         </is>
       </c>
-      <c r="M168" s="8" t="inlineStr">
+      <c r="M168" s="9" t="inlineStr">
         <is>
           <t>744</t>
         </is>
@@ -30033,17 +30033,17 @@
           <t>885</t>
         </is>
       </c>
-      <c r="K169" s="8" t="inlineStr">
+      <c r="K169" s="9" t="inlineStr">
         <is>
           <t>028</t>
         </is>
       </c>
-      <c r="L169" s="8" t="inlineStr">
+      <c r="L169" s="9" t="inlineStr">
         <is>
           <t>031</t>
         </is>
       </c>
-      <c r="M169" s="8" t="inlineStr">
+      <c r="M169" s="9" t="inlineStr">
         <is>
           <t>890</t>
         </is>
@@ -30220,17 +30220,17 @@
           <t>321</t>
         </is>
       </c>
-      <c r="K170" s="8" t="inlineStr">
+      <c r="K170" s="9" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="L170" s="8" t="inlineStr">
+      <c r="L170" s="9" t="inlineStr">
         <is>
           <t>704</t>
         </is>
       </c>
-      <c r="M170" s="8" t="inlineStr">
+      <c r="M170" s="9" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -30407,17 +30407,17 @@
           <t>108</t>
         </is>
       </c>
-      <c r="K171" s="8" t="inlineStr">
+      <c r="K171" s="9" t="inlineStr">
         <is>
           <t>725</t>
         </is>
       </c>
-      <c r="L171" s="8" t="inlineStr">
+      <c r="L171" s="9" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="M171" s="8" t="inlineStr">
+      <c r="M171" s="9" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -30594,12 +30594,12 @@
           <t>365</t>
         </is>
       </c>
-      <c r="K172" s="8" t="inlineStr">
+      <c r="K172" s="9" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="L172" s="8" t="inlineStr">
+      <c r="L172" s="9" t="inlineStr">
         <is>
           <t>588</t>
         </is>
@@ -30781,17 +30781,17 @@
           <t>945</t>
         </is>
       </c>
-      <c r="K173" s="8" t="inlineStr">
+      <c r="K173" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L173" s="8" t="inlineStr">
+      <c r="L173" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M173" s="8" t="inlineStr">
+      <c r="M173" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -31237,22 +31237,22 @@
           <t>451</t>
         </is>
       </c>
-      <c r="J178" s="7" t="inlineStr">
+      <c r="J178" s="8" t="inlineStr">
         <is>
           <t>353</t>
         </is>
       </c>
-      <c r="K178" s="8" t="inlineStr">
+      <c r="K178" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L178" s="8" t="inlineStr">
+      <c r="L178" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M178" s="8" t="inlineStr">
+      <c r="M178" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -31357,7 +31357,7 @@
           <t>992</t>
         </is>
       </c>
-      <c r="AH178" s="16" t="inlineStr">
+      <c r="AH178" s="8" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -31429,17 +31429,17 @@
           <t>236</t>
         </is>
       </c>
-      <c r="K179" s="8" t="inlineStr">
+      <c r="K179" s="9" t="inlineStr">
         <is>
           <t>232</t>
         </is>
       </c>
-      <c r="L179" s="8" t="inlineStr">
+      <c r="L179" s="9" t="inlineStr">
         <is>
           <t>017</t>
         </is>
       </c>
-      <c r="M179" s="8" t="inlineStr">
+      <c r="M179" s="9" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -31616,17 +31616,17 @@
           <t>303</t>
         </is>
       </c>
-      <c r="K180" s="8" t="inlineStr">
+      <c r="K180" s="9" t="inlineStr">
         <is>
           <t>325</t>
         </is>
       </c>
-      <c r="L180" s="8" t="inlineStr">
+      <c r="L180" s="9" t="inlineStr">
         <is>
           <t>489</t>
         </is>
       </c>
-      <c r="M180" s="8" t="inlineStr">
+      <c r="M180" s="9" t="inlineStr">
         <is>
           <t>380</t>
         </is>
@@ -31803,17 +31803,17 @@
           <t>318</t>
         </is>
       </c>
-      <c r="K181" s="8" t="inlineStr">
+      <c r="K181" s="9" t="inlineStr">
         <is>
           <t>006</t>
         </is>
       </c>
-      <c r="L181" s="8" t="inlineStr">
+      <c r="L181" s="9" t="inlineStr">
         <is>
           <t>347</t>
         </is>
       </c>
-      <c r="M181" s="8" t="inlineStr">
+      <c r="M181" s="9" t="inlineStr">
         <is>
           <t>364</t>
         </is>
@@ -31990,17 +31990,17 @@
           <t>382</t>
         </is>
       </c>
-      <c r="K182" s="8" t="inlineStr">
+      <c r="K182" s="9" t="inlineStr">
         <is>
           <t>307</t>
         </is>
       </c>
-      <c r="L182" s="8" t="inlineStr">
+      <c r="L182" s="9" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="M182" s="8" t="inlineStr">
+      <c r="M182" s="9" t="inlineStr">
         <is>
           <t>992</t>
         </is>
@@ -32010,7 +32010,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="O182" s="9" t="inlineStr">
+      <c r="O182" s="10" t="inlineStr">
         <is>
           <t>825</t>
         </is>
@@ -32177,17 +32177,17 @@
           <t>515</t>
         </is>
       </c>
-      <c r="K183" s="8" t="inlineStr">
+      <c r="K183" s="9" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="L183" s="8" t="inlineStr">
+      <c r="L183" s="9" t="inlineStr">
         <is>
           <t>542</t>
         </is>
       </c>
-      <c r="M183" s="8" t="inlineStr">
+      <c r="M183" s="9" t="inlineStr">
         <is>
           <t>257</t>
         </is>
@@ -32334,7 +32334,7 @@
           <t>461</t>
         </is>
       </c>
-      <c r="E184" s="9" t="inlineStr">
+      <c r="E184" s="6" t="inlineStr">
         <is>
           <t>336</t>
         </is>
@@ -32364,17 +32364,17 @@
           <t>298</t>
         </is>
       </c>
-      <c r="K184" s="8" t="inlineStr">
+      <c r="K184" s="9" t="inlineStr">
         <is>
           <t>674</t>
         </is>
       </c>
-      <c r="L184" s="8" t="inlineStr">
+      <c r="L184" s="9" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="M184" s="8" t="inlineStr">
+      <c r="M184" s="9" t="inlineStr">
         <is>
           <t>964</t>
         </is>
@@ -32551,17 +32551,17 @@
           <t>808</t>
         </is>
       </c>
-      <c r="K185" s="8" t="inlineStr">
+      <c r="K185" s="9" t="inlineStr">
         <is>
           <t>571</t>
         </is>
       </c>
-      <c r="L185" s="8" t="inlineStr">
+      <c r="L185" s="9" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="M185" s="8" t="inlineStr">
+      <c r="M185" s="9" t="inlineStr">
         <is>
           <t>595</t>
         </is>
@@ -32708,7 +32708,7 @@
           <t>655</t>
         </is>
       </c>
-      <c r="E186" s="6" t="inlineStr">
+      <c r="E186" s="8" t="inlineStr">
         <is>
           <t>353</t>
         </is>
@@ -32738,17 +32738,17 @@
           <t>665</t>
         </is>
       </c>
-      <c r="K186" s="8" t="inlineStr">
+      <c r="K186" s="9" t="inlineStr">
         <is>
           <t>886</t>
         </is>
       </c>
-      <c r="L186" s="8" t="inlineStr">
+      <c r="L186" s="9" t="inlineStr">
         <is>
           <t>409</t>
         </is>
       </c>
-      <c r="M186" s="8" t="inlineStr">
+      <c r="M186" s="9" t="inlineStr">
         <is>
           <t>921</t>
         </is>
@@ -32925,17 +32925,17 @@
           <t>806</t>
         </is>
       </c>
-      <c r="K187" s="8" t="inlineStr">
+      <c r="K187" s="9" t="inlineStr">
         <is>
           <t>884</t>
         </is>
       </c>
-      <c r="L187" s="8" t="inlineStr">
+      <c r="L187" s="9" t="inlineStr">
         <is>
           <t>056</t>
         </is>
       </c>
-      <c r="M187" s="8" t="inlineStr">
+      <c r="M187" s="9" t="inlineStr">
         <is>
           <t>994</t>
         </is>
@@ -33005,7 +33005,7 @@
           <t>570</t>
         </is>
       </c>
-      <c r="AA187" s="14" t="inlineStr">
+      <c r="AA187" s="8" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -33112,17 +33112,17 @@
           <t>770</t>
         </is>
       </c>
-      <c r="K188" s="8" t="inlineStr">
+      <c r="K188" s="9" t="inlineStr">
         <is>
           <t>850</t>
         </is>
       </c>
-      <c r="L188" s="8" t="inlineStr">
+      <c r="L188" s="9" t="inlineStr">
         <is>
           <t>936</t>
         </is>
       </c>
-      <c r="M188" s="8" t="inlineStr">
+      <c r="M188" s="9" t="inlineStr">
         <is>
           <t>981</t>
         </is>
@@ -33299,17 +33299,17 @@
           <t>339</t>
         </is>
       </c>
-      <c r="K189" s="8" t="inlineStr">
+      <c r="K189" s="9" t="inlineStr">
         <is>
           <t>299</t>
         </is>
       </c>
-      <c r="L189" s="8" t="inlineStr">
+      <c r="L189" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
       </c>
-      <c r="M189" s="8" t="inlineStr">
+      <c r="M189" s="9" t="inlineStr">
         <is>
           <t>753</t>
         </is>
@@ -33329,7 +33329,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="Q189" s="11" t="inlineStr">
+      <c r="Q189" s="8" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -33344,7 +33344,7 @@
           <t>049</t>
         </is>
       </c>
-      <c r="T189" s="9" t="inlineStr">
+      <c r="T189" s="12" t="inlineStr">
         <is>
           <t>258</t>
         </is>
@@ -33486,17 +33486,17 @@
           <t>547</t>
         </is>
       </c>
-      <c r="K190" s="8" t="inlineStr">
+      <c r="K190" s="9" t="inlineStr">
         <is>
           <t>630</t>
         </is>
       </c>
-      <c r="L190" s="8" t="inlineStr">
+      <c r="L190" s="9" t="inlineStr">
         <is>
           <t>624</t>
         </is>
       </c>
-      <c r="M190" s="8" t="inlineStr">
+      <c r="M190" s="9" t="inlineStr">
         <is>
           <t>443</t>
         </is>
@@ -33673,17 +33673,17 @@
           <t>345</t>
         </is>
       </c>
-      <c r="K191" s="8" t="inlineStr">
+      <c r="K191" s="9" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="L191" s="8" t="inlineStr">
+      <c r="L191" s="9" t="inlineStr">
         <is>
           <t>221</t>
         </is>
       </c>
-      <c r="M191" s="8" t="inlineStr">
+      <c r="M191" s="9" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -33763,7 +33763,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="AC191" s="15" t="inlineStr">
+      <c r="AC191" s="8" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -33860,17 +33860,17 @@
           <t>197</t>
         </is>
       </c>
-      <c r="K192" s="8" t="inlineStr">
+      <c r="K192" s="9" t="inlineStr">
         <is>
           <t>301</t>
         </is>
       </c>
-      <c r="L192" s="8" t="inlineStr">
+      <c r="L192" s="9" t="inlineStr">
         <is>
           <t>625</t>
         </is>
       </c>
-      <c r="M192" s="8" t="inlineStr">
+      <c r="M192" s="9" t="inlineStr">
         <is>
           <t>879</t>
         </is>
@@ -34047,17 +34047,17 @@
           <t>057</t>
         </is>
       </c>
-      <c r="K193" s="8" t="inlineStr">
+      <c r="K193" s="9" t="inlineStr">
         <is>
           <t>836</t>
         </is>
       </c>
-      <c r="L193" s="8" t="inlineStr">
+      <c r="L193" s="9" t="inlineStr">
         <is>
           <t>559</t>
         </is>
       </c>
-      <c r="M193" s="8" t="inlineStr">
+      <c r="M193" s="9" t="inlineStr">
         <is>
           <t>002</t>
         </is>
@@ -34189,7 +34189,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B194" s="5" t="inlineStr">
+      <c r="B194" s="8" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -34234,17 +34234,17 @@
           <t>520</t>
         </is>
       </c>
-      <c r="K194" s="8" t="inlineStr">
+      <c r="K194" s="9" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="L194" s="8" t="inlineStr">
+      <c r="L194" s="9" t="inlineStr">
         <is>
           <t>917</t>
         </is>
       </c>
-      <c r="M194" s="8" t="inlineStr">
+      <c r="M194" s="9" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -34344,7 +34344,7 @@
           <t>965</t>
         </is>
       </c>
-      <c r="AG194" s="16" t="inlineStr">
+      <c r="AG194" s="8" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -34421,17 +34421,17 @@
           <t>874</t>
         </is>
       </c>
-      <c r="K195" s="8" t="inlineStr">
+      <c r="K195" s="9" t="inlineStr">
         <is>
           <t>748</t>
         </is>
       </c>
-      <c r="L195" s="8" t="inlineStr">
+      <c r="L195" s="9" t="inlineStr">
         <is>
           <t>727</t>
         </is>
       </c>
-      <c r="M195" s="8" t="inlineStr">
+      <c r="M195" s="9" t="inlineStr">
         <is>
           <t>555</t>
         </is>
@@ -34451,7 +34451,7 @@
           <t>716</t>
         </is>
       </c>
-      <c r="Q195" s="9" t="inlineStr">
+      <c r="Q195" s="11" t="inlineStr">
         <is>
           <t>852</t>
         </is>
@@ -34551,7 +34551,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="AK195" s="17" t="inlineStr">
+      <c r="AK195" s="8" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -34608,17 +34608,17 @@
           <t>727</t>
         </is>
       </c>
-      <c r="K196" s="8" t="inlineStr">
+      <c r="K196" s="9" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="L196" s="8" t="inlineStr">
+      <c r="L196" s="9" t="inlineStr">
         <is>
           <t>606</t>
         </is>
       </c>
-      <c r="M196" s="8" t="inlineStr">
+      <c r="M196" s="9" t="inlineStr">
         <is>
           <t>131</t>
         </is>
@@ -34658,7 +34658,7 @@
           <t>278</t>
         </is>
       </c>
-      <c r="U196" s="9" t="inlineStr">
+      <c r="U196" s="12" t="inlineStr">
         <is>
           <t>528</t>
         </is>
@@ -34795,17 +34795,17 @@
           <t>098</t>
         </is>
       </c>
-      <c r="K197" s="8" t="inlineStr">
+      <c r="K197" s="9" t="inlineStr">
         <is>
           <t>400</t>
         </is>
       </c>
-      <c r="L197" s="8" t="inlineStr">
+      <c r="L197" s="9" t="inlineStr">
         <is>
           <t>695</t>
         </is>
       </c>
-      <c r="M197" s="8" t="inlineStr">
+      <c r="M197" s="9" t="inlineStr">
         <is>
           <t>176</t>
         </is>
@@ -34952,7 +34952,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="E198" s="6" t="inlineStr">
+      <c r="E198" s="8" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -34982,17 +34982,17 @@
           <t>369</t>
         </is>
       </c>
-      <c r="K198" s="8" t="inlineStr">
+      <c r="K198" s="9" t="inlineStr">
         <is>
           <t>867</t>
         </is>
       </c>
-      <c r="L198" s="8" t="inlineStr">
+      <c r="L198" s="9" t="inlineStr">
         <is>
           <t>469</t>
         </is>
       </c>
-      <c r="M198" s="8" t="inlineStr">
+      <c r="M198" s="9" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -35129,7 +35129,7 @@
           <t>907</t>
         </is>
       </c>
-      <c r="C199" s="5" t="inlineStr">
+      <c r="C199" s="8" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -35169,17 +35169,17 @@
           <t>604</t>
         </is>
       </c>
-      <c r="K199" s="8" t="inlineStr">
+      <c r="K199" s="9" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="L199" s="8" t="inlineStr">
+      <c r="L199" s="9" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="M199" s="8" t="inlineStr">
+      <c r="M199" s="9" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -35356,17 +35356,17 @@
           <t>948</t>
         </is>
       </c>
-      <c r="K200" s="8" t="inlineStr">
+      <c r="K200" s="9" t="inlineStr">
         <is>
           <t>024</t>
         </is>
       </c>
-      <c r="L200" s="8" t="inlineStr">
+      <c r="L200" s="9" t="inlineStr">
         <is>
           <t>527</t>
         </is>
       </c>
-      <c r="M200" s="8" t="inlineStr">
+      <c r="M200" s="9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
@@ -35436,7 +35436,7 @@
           <t>991</t>
         </is>
       </c>
-      <c r="AA200" s="9" t="inlineStr">
+      <c r="AA200" s="14" t="inlineStr">
         <is>
           <t>258</t>
         </is>
@@ -35513,7 +35513,7 @@
           <t>267</t>
         </is>
       </c>
-      <c r="E201" s="9" t="inlineStr">
+      <c r="E201" s="6" t="inlineStr">
         <is>
           <t>852</t>
         </is>
@@ -35543,17 +35543,17 @@
           <t>394</t>
         </is>
       </c>
-      <c r="K201" s="8" t="inlineStr">
+      <c r="K201" s="9" t="inlineStr">
         <is>
           <t>892</t>
         </is>
       </c>
-      <c r="L201" s="8" t="inlineStr">
+      <c r="L201" s="9" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="M201" s="8" t="inlineStr">
+      <c r="M201" s="9" t="inlineStr">
         <is>
           <t>400</t>
         </is>
@@ -35568,7 +35568,7 @@
           <t>586</t>
         </is>
       </c>
-      <c r="P201" s="9" t="inlineStr">
+      <c r="P201" s="10" t="inlineStr">
         <is>
           <t>633</t>
         </is>
@@ -35730,17 +35730,17 @@
           <t>946</t>
         </is>
       </c>
-      <c r="K202" s="8" t="inlineStr">
+      <c r="K202" s="9" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="L202" s="8" t="inlineStr">
+      <c r="L202" s="9" t="inlineStr">
         <is>
           <t>371</t>
         </is>
       </c>
-      <c r="M202" s="8" t="inlineStr">
+      <c r="M202" s="9" t="inlineStr">
         <is>
           <t>894</t>
         </is>
@@ -35820,7 +35820,7 @@
           <t>571</t>
         </is>
       </c>
-      <c r="AC202" s="9" t="inlineStr">
+      <c r="AC202" s="15" t="inlineStr">
         <is>
           <t>528</t>
         </is>
@@ -35917,17 +35917,17 @@
           <t>647</t>
         </is>
       </c>
-      <c r="K203" s="8" t="inlineStr">
+      <c r="K203" s="9" t="inlineStr">
         <is>
           <t>981</t>
         </is>
       </c>
-      <c r="L203" s="8" t="inlineStr">
+      <c r="L203" s="9" t="inlineStr">
         <is>
           <t>051</t>
         </is>
       </c>
-      <c r="M203" s="8" t="inlineStr">
+      <c r="M203" s="9" t="inlineStr">
         <is>
           <t>318</t>
         </is>
@@ -36104,17 +36104,17 @@
           <t>416</t>
         </is>
       </c>
-      <c r="K204" s="8" t="inlineStr">
+      <c r="K204" s="9" t="inlineStr">
         <is>
           <t>940</t>
         </is>
       </c>
-      <c r="L204" s="8" t="inlineStr">
+      <c r="L204" s="9" t="inlineStr">
         <is>
           <t>743</t>
         </is>
       </c>
-      <c r="M204" s="8" t="inlineStr">
+      <c r="M204" s="9" t="inlineStr">
         <is>
           <t>994</t>
         </is>
@@ -36291,17 +36291,17 @@
           <t>313</t>
         </is>
       </c>
-      <c r="K205" s="8" t="inlineStr">
+      <c r="K205" s="9" t="inlineStr">
         <is>
           <t>233</t>
         </is>
       </c>
-      <c r="L205" s="8" t="inlineStr">
+      <c r="L205" s="9" t="inlineStr">
         <is>
           <t>818</t>
         </is>
       </c>
-      <c r="M205" s="8" t="inlineStr">
+      <c r="M205" s="9" t="inlineStr">
         <is>
           <t>492</t>
         </is>
@@ -36478,17 +36478,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K206" s="8" t="inlineStr">
+      <c r="K206" s="9" t="inlineStr">
         <is>
           <t>357</t>
         </is>
       </c>
-      <c r="L206" s="8" t="inlineStr">
+      <c r="L206" s="9" t="inlineStr">
         <is>
           <t>837</t>
         </is>
       </c>
-      <c r="M206" s="8" t="inlineStr">
+      <c r="M206" s="9" t="inlineStr">
         <is>
           <t>662</t>
         </is>
@@ -36558,7 +36558,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="AA206" s="14" t="inlineStr">
+      <c r="AA206" s="8" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -36588,7 +36588,7 @@
           <t>016</t>
         </is>
       </c>
-      <c r="AG206" s="9" t="inlineStr">
+      <c r="AG206" s="16" t="inlineStr">
         <is>
           <t>258</t>
         </is>
@@ -36665,17 +36665,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K207" s="8" t="inlineStr">
+      <c r="K207" s="9" t="inlineStr">
         <is>
           <t>638</t>
         </is>
       </c>
-      <c r="L207" s="8" t="inlineStr">
+      <c r="L207" s="9" t="inlineStr">
         <is>
           <t>362</t>
         </is>
       </c>
-      <c r="M207" s="8" t="inlineStr">
+      <c r="M207" s="9" t="inlineStr">
         <is>
           <t>995</t>
         </is>
@@ -36770,7 +36770,7 @@
           <t>127</t>
         </is>
       </c>
-      <c r="AF207" s="16" t="inlineStr">
+      <c r="AF207" s="8" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -36852,17 +36852,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K208" s="8" t="inlineStr">
+      <c r="K208" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L208" s="8" t="inlineStr">
+      <c r="L208" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M208" s="8" t="inlineStr">
+      <c r="M208" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -37313,17 +37313,17 @@
           <t>670</t>
         </is>
       </c>
-      <c r="K213" s="8" t="inlineStr">
+      <c r="K213" s="9" t="inlineStr">
         <is>
           <t>886</t>
         </is>
       </c>
-      <c r="L213" s="8" t="inlineStr">
+      <c r="L213" s="9" t="inlineStr">
         <is>
           <t>833</t>
         </is>
       </c>
-      <c r="M213" s="8" t="inlineStr">
+      <c r="M213" s="9" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -37500,17 +37500,17 @@
           <t>369</t>
         </is>
       </c>
-      <c r="K214" s="8" t="inlineStr">
+      <c r="K214" s="9" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="L214" s="8" t="inlineStr">
+      <c r="L214" s="9" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="M214" s="8" t="inlineStr">
+      <c r="M214" s="9" t="inlineStr">
         <is>
           <t>744</t>
         </is>
@@ -37687,17 +37687,17 @@
           <t>941</t>
         </is>
       </c>
-      <c r="K215" s="8" t="inlineStr">
+      <c r="K215" s="9" t="inlineStr">
         <is>
           <t>015</t>
         </is>
       </c>
-      <c r="L215" s="8" t="inlineStr">
+      <c r="L215" s="9" t="inlineStr">
         <is>
           <t>054</t>
         </is>
       </c>
-      <c r="M215" s="8" t="inlineStr">
+      <c r="M215" s="9" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -37762,7 +37762,7 @@
           <t>175</t>
         </is>
       </c>
-      <c r="Z215" s="9" t="inlineStr">
+      <c r="Z215" s="14" t="inlineStr">
         <is>
           <t>285</t>
         </is>
@@ -37782,7 +37782,7 @@
           <t>548</t>
         </is>
       </c>
-      <c r="AD215" s="15" t="inlineStr">
+      <c r="AD215" s="8" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -37874,17 +37874,17 @@
           <t>529</t>
         </is>
       </c>
-      <c r="K216" s="8" t="inlineStr">
+      <c r="K216" s="9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="L216" s="8" t="inlineStr">
+      <c r="L216" s="9" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="M216" s="8" t="inlineStr">
+      <c r="M216" s="9" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -38061,17 +38061,17 @@
           <t>569</t>
         </is>
       </c>
-      <c r="K217" s="8" t="inlineStr">
+      <c r="K217" s="9" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="L217" s="8" t="inlineStr">
+      <c r="L217" s="9" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="M217" s="8" t="inlineStr">
+      <c r="M217" s="9" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -38248,17 +38248,17 @@
           <t>005</t>
         </is>
       </c>
-      <c r="K218" s="8" t="inlineStr">
+      <c r="K218" s="9" t="inlineStr">
         <is>
           <t>997</t>
         </is>
       </c>
-      <c r="L218" s="8" t="inlineStr">
+      <c r="L218" s="9" t="inlineStr">
         <is>
           <t>854</t>
         </is>
       </c>
-      <c r="M218" s="8" t="inlineStr">
+      <c r="M218" s="9" t="inlineStr">
         <is>
           <t>424</t>
         </is>
@@ -38435,17 +38435,17 @@
           <t>507</t>
         </is>
       </c>
-      <c r="K219" s="8" t="inlineStr">
+      <c r="K219" s="9" t="inlineStr">
         <is>
           <t>623</t>
         </is>
       </c>
-      <c r="L219" s="8" t="inlineStr">
+      <c r="L219" s="9" t="inlineStr">
         <is>
           <t>338</t>
         </is>
       </c>
-      <c r="M219" s="8" t="inlineStr">
+      <c r="M219" s="9" t="inlineStr">
         <is>
           <t>656</t>
         </is>
@@ -38622,17 +38622,17 @@
           <t>780</t>
         </is>
       </c>
-      <c r="K220" s="8" t="inlineStr">
+      <c r="K220" s="9" t="inlineStr">
         <is>
           <t>627</t>
         </is>
       </c>
-      <c r="L220" s="8" t="inlineStr">
+      <c r="L220" s="9" t="inlineStr">
         <is>
           <t>013</t>
         </is>
       </c>
-      <c r="M220" s="8" t="inlineStr">
+      <c r="M220" s="9" t="inlineStr">
         <is>
           <t>020</t>
         </is>
@@ -38809,17 +38809,17 @@
           <t>057</t>
         </is>
       </c>
-      <c r="K221" s="8" t="inlineStr">
+      <c r="K221" s="9" t="inlineStr">
         <is>
           <t>837</t>
         </is>
       </c>
-      <c r="L221" s="8" t="inlineStr">
+      <c r="L221" s="9" t="inlineStr">
         <is>
           <t>173</t>
         </is>
       </c>
-      <c r="M221" s="8" t="inlineStr">
+      <c r="M221" s="9" t="inlineStr">
         <is>
           <t>943</t>
         </is>
@@ -38996,17 +38996,17 @@
           <t>562</t>
         </is>
       </c>
-      <c r="K222" s="8" t="inlineStr">
+      <c r="K222" s="9" t="inlineStr">
         <is>
           <t>524</t>
         </is>
       </c>
-      <c r="L222" s="8" t="inlineStr">
+      <c r="L222" s="9" t="inlineStr">
         <is>
           <t>087</t>
         </is>
       </c>
-      <c r="M222" s="8" t="inlineStr">
+      <c r="M222" s="9" t="inlineStr">
         <is>
           <t>019</t>
         </is>
@@ -39021,7 +39021,7 @@
           <t>916</t>
         </is>
       </c>
-      <c r="P222" s="10" t="inlineStr">
+      <c r="P222" s="8" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -39183,17 +39183,17 @@
           <t>270</t>
         </is>
       </c>
-      <c r="K223" s="8" t="inlineStr">
+      <c r="K223" s="9" t="inlineStr">
         <is>
           <t>890</t>
         </is>
       </c>
-      <c r="L223" s="8" t="inlineStr">
+      <c r="L223" s="9" t="inlineStr">
         <is>
           <t>046</t>
         </is>
       </c>
-      <c r="M223" s="8" t="inlineStr">
+      <c r="M223" s="9" t="inlineStr">
         <is>
           <t>704</t>
         </is>
@@ -39370,17 +39370,17 @@
           <t>926</t>
         </is>
       </c>
-      <c r="K224" s="8" t="inlineStr">
+      <c r="K224" s="9" t="inlineStr">
         <is>
           <t>741</t>
         </is>
       </c>
-      <c r="L224" s="8" t="inlineStr">
+      <c r="L224" s="9" t="inlineStr">
         <is>
           <t>310</t>
         </is>
       </c>
-      <c r="M224" s="8" t="inlineStr">
+      <c r="M224" s="9" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -39557,17 +39557,17 @@
           <t>928</t>
         </is>
       </c>
-      <c r="K225" s="8" t="inlineStr">
+      <c r="K225" s="9" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="L225" s="8" t="inlineStr">
+      <c r="L225" s="9" t="inlineStr">
         <is>
           <t>826</t>
         </is>
       </c>
-      <c r="M225" s="8" t="inlineStr">
+      <c r="M225" s="9" t="inlineStr">
         <is>
           <t>585</t>
         </is>
@@ -39744,7 +39744,7 @@
           <t>961</t>
         </is>
       </c>
-      <c r="K226" s="8" t="inlineStr">
+      <c r="K226" s="9" t="inlineStr">
         <is>
           <t>515</t>
         </is>
@@ -39931,17 +39931,17 @@
           <t>389</t>
         </is>
       </c>
-      <c r="K227" s="8" t="inlineStr">
+      <c r="K227" s="9" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="L227" s="8" t="inlineStr">
+      <c r="L227" s="9" t="inlineStr">
         <is>
           <t>570</t>
         </is>
       </c>
-      <c r="M227" s="8" t="inlineStr">
+      <c r="M227" s="9" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -40041,7 +40041,7 @@
           <t>892</t>
         </is>
       </c>
-      <c r="AG227" s="16" t="inlineStr">
+      <c r="AG227" s="8" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -40118,17 +40118,17 @@
           <t>600</t>
         </is>
       </c>
-      <c r="K228" s="8" t="inlineStr">
+      <c r="K228" s="9" t="inlineStr">
         <is>
           <t>064</t>
         </is>
       </c>
-      <c r="L228" s="8" t="inlineStr">
+      <c r="L228" s="9" t="inlineStr">
         <is>
           <t>214</t>
         </is>
       </c>
-      <c r="M228" s="8" t="inlineStr">
+      <c r="M228" s="9" t="inlineStr">
         <is>
           <t>739</t>
         </is>
@@ -40295,7 +40295,7 @@
           <t>921</t>
         </is>
       </c>
-      <c r="I229" s="9" t="inlineStr">
+      <c r="I229" s="7" t="inlineStr">
         <is>
           <t>528</t>
         </is>
@@ -40305,17 +40305,17 @@
           <t>215</t>
         </is>
       </c>
-      <c r="K229" s="8" t="inlineStr">
+      <c r="K229" s="9" t="inlineStr">
         <is>
           <t>863</t>
         </is>
       </c>
-      <c r="L229" s="8" t="inlineStr">
+      <c r="L229" s="9" t="inlineStr">
         <is>
           <t>540</t>
         </is>
       </c>
-      <c r="M229" s="8" t="inlineStr">
+      <c r="M229" s="9" t="inlineStr">
         <is>
           <t>571</t>
         </is>
@@ -40492,17 +40492,17 @@
           <t>425</t>
         </is>
       </c>
-      <c r="K230" s="8" t="inlineStr">
+      <c r="K230" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L230" s="8" t="inlineStr">
+      <c r="L230" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M230" s="8" t="inlineStr">
+      <c r="M230" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -40679,17 +40679,17 @@
           <t>583</t>
         </is>
       </c>
-      <c r="K231" s="8" t="inlineStr">
+      <c r="K231" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L231" s="8" t="inlineStr">
+      <c r="L231" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M231" s="8" t="inlineStr">
+      <c r="M231" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -40866,17 +40866,17 @@
           <t>538</t>
         </is>
       </c>
-      <c r="K232" s="8" t="inlineStr">
+      <c r="K232" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L232" s="8" t="inlineStr">
+      <c r="L232" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M232" s="8" t="inlineStr">
+      <c r="M232" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -41053,17 +41053,17 @@
           <t>960</t>
         </is>
       </c>
-      <c r="K233" s="8" t="inlineStr">
+      <c r="K233" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L233" s="8" t="inlineStr">
+      <c r="L233" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M233" s="8" t="inlineStr">
+      <c r="M233" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -41098,7 +41098,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="T233" s="12" t="inlineStr">
+      <c r="T233" s="8" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -41210,7 +41210,7 @@
           <t>614</t>
         </is>
       </c>
-      <c r="E234" s="9" t="inlineStr">
+      <c r="E234" s="6" t="inlineStr">
         <is>
           <t>528</t>
         </is>
@@ -41240,17 +41240,17 @@
           <t>764</t>
         </is>
       </c>
-      <c r="K234" s="8" t="inlineStr">
+      <c r="K234" s="9" t="inlineStr">
         <is>
           <t>179</t>
         </is>
       </c>
-      <c r="L234" s="8" t="inlineStr">
+      <c r="L234" s="9" t="inlineStr">
         <is>
           <t>897</t>
         </is>
       </c>
-      <c r="M234" s="8" t="inlineStr">
+      <c r="M234" s="9" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -41427,7 +41427,7 @@
           <t>733</t>
         </is>
       </c>
-      <c r="K235" s="8" t="inlineStr">
+      <c r="K235" s="9" t="inlineStr">
         <is>
           <t>006</t>
         </is>
@@ -41437,7 +41437,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="M235" s="8" t="inlineStr">
+      <c r="M235" s="9" t="inlineStr">
         <is>
           <t>962</t>
         </is>
@@ -41477,7 +41477,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="U235" s="9" t="inlineStr">
+      <c r="U235" s="12" t="inlineStr">
         <is>
           <t>582</t>
         </is>
@@ -41614,17 +41614,17 @@
           <t>236</t>
         </is>
       </c>
-      <c r="K236" s="8" t="inlineStr">
+      <c r="K236" s="9" t="inlineStr">
         <is>
           <t>393</t>
         </is>
       </c>
-      <c r="L236" s="8" t="inlineStr">
+      <c r="L236" s="9" t="inlineStr">
         <is>
           <t>087</t>
         </is>
       </c>
-      <c r="M236" s="8" t="inlineStr">
+      <c r="M236" s="9" t="inlineStr">
         <is>
           <t>383</t>
         </is>
@@ -41801,17 +41801,17 @@
           <t>617</t>
         </is>
       </c>
-      <c r="K237" s="8" t="inlineStr">
+      <c r="K237" s="9" t="inlineStr">
         <is>
           <t>176</t>
         </is>
       </c>
-      <c r="L237" s="8" t="inlineStr">
+      <c r="L237" s="9" t="inlineStr">
         <is>
           <t>613</t>
         </is>
       </c>
-      <c r="M237" s="8" t="inlineStr">
+      <c r="M237" s="9" t="inlineStr">
         <is>
           <t>890</t>
         </is>
@@ -41988,17 +41988,17 @@
           <t>629</t>
         </is>
       </c>
-      <c r="K238" s="8" t="inlineStr">
+      <c r="K238" s="9" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="L238" s="8" t="inlineStr">
+      <c r="L238" s="9" t="inlineStr">
         <is>
           <t>356</t>
         </is>
       </c>
-      <c r="M238" s="8" t="inlineStr">
+      <c r="M238" s="9" t="inlineStr">
         <is>
           <t>959</t>
         </is>
@@ -42175,17 +42175,17 @@
           <t>891</t>
         </is>
       </c>
-      <c r="K239" s="8" t="inlineStr">
+      <c r="K239" s="9" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="L239" s="8" t="inlineStr">
+      <c r="L239" s="9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M239" s="8" t="inlineStr">
+      <c r="M239" s="9" t="inlineStr">
         <is>
           <t>580</t>
         </is>
@@ -42362,17 +42362,17 @@
           <t>315</t>
         </is>
       </c>
-      <c r="K240" s="8" t="inlineStr">
+      <c r="K240" s="9" t="inlineStr">
         <is>
           <t>690</t>
         </is>
       </c>
-      <c r="L240" s="8" t="inlineStr">
+      <c r="L240" s="9" t="inlineStr">
         <is>
           <t>462</t>
         </is>
       </c>
-      <c r="M240" s="8" t="inlineStr">
+      <c r="M240" s="9" t="inlineStr">
         <is>
           <t>406</t>
         </is>
@@ -42549,17 +42549,17 @@
           <t>846</t>
         </is>
       </c>
-      <c r="K241" s="8" t="inlineStr">
+      <c r="K241" s="9" t="inlineStr">
         <is>
           <t>261</t>
         </is>
       </c>
-      <c r="L241" s="8" t="inlineStr">
+      <c r="L241" s="9" t="inlineStr">
         <is>
           <t>036</t>
         </is>
       </c>
-      <c r="M241" s="8" t="inlineStr">
+      <c r="M241" s="9" t="inlineStr">
         <is>
           <t>083</t>
         </is>
@@ -42736,17 +42736,17 @@
           <t>436</t>
         </is>
       </c>
-      <c r="K242" s="8" t="inlineStr">
+      <c r="K242" s="9" t="inlineStr">
         <is>
           <t>243</t>
         </is>
       </c>
-      <c r="L242" s="8" t="inlineStr">
+      <c r="L242" s="9" t="inlineStr">
         <is>
           <t>294</t>
         </is>
       </c>
-      <c r="M242" s="8" t="inlineStr">
+      <c r="M242" s="9" t="inlineStr">
         <is>
           <t>597</t>
         </is>
@@ -42923,17 +42923,17 @@
           <t>071</t>
         </is>
       </c>
-      <c r="K243" s="8" t="inlineStr">
+      <c r="K243" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L243" s="8" t="inlineStr">
+      <c r="L243" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M243" s="8" t="inlineStr">
+      <c r="M243" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -43043,7 +43043,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI243" s="17" t="inlineStr">
+      <c r="AI243" s="8" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -43493,7 +43493,7 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B266" s="5" t="inlineStr">
+      <c r="B266" s="8" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -43586,12 +43586,12 @@
           <t>488</t>
         </is>
       </c>
-      <c r="C270" s="5" t="inlineStr">
+      <c r="C270" s="8" t="inlineStr">
         <is>
           <t>448</t>
         </is>
       </c>
-      <c r="D270" s="5" t="inlineStr">
+      <c r="D270" s="8" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -43613,7 +43613,7 @@
           <t>876</t>
         </is>
       </c>
-      <c r="D271" s="9" t="inlineStr">
+      <c r="D271" s="5" t="inlineStr">
         <is>
           <t>825</t>
         </is>
@@ -43625,7 +43625,7 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B272" s="9" t="inlineStr">
+      <c r="B272" s="5" t="inlineStr">
         <is>
           <t>336</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -43,17 +43,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ff6666"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ff6633"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -220,10 +220,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -867,12 +867,12 @@
           <t>559</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="7" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>732</t>
         </is>
@@ -882,7 +882,7 @@
           <t>353</t>
         </is>
       </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="J3" s="8" t="inlineStr">
         <is>
           <t>833</t>
         </is>
@@ -972,7 +972,7 @@
           <t>152</t>
         </is>
       </c>
-      <c r="AB3" s="14" t="inlineStr">
+      <c r="AB3" s="7" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -1059,17 +1059,17 @@
           <t>776</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="H4" s="8" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="I4" s="8" t="inlineStr">
         <is>
           <t>800</t>
         </is>
       </c>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="J4" s="8" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -1246,17 +1246,17 @@
           <t>987</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="H5" s="8" t="inlineStr">
         <is>
           <t>266</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I5" s="8" t="inlineStr">
         <is>
           <t>627</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J5" s="8" t="inlineStr">
         <is>
           <t>380</t>
         </is>
@@ -1433,17 +1433,17 @@
           <t>138</t>
         </is>
       </c>
-      <c r="H6" s="7" t="inlineStr">
+      <c r="H6" s="8" t="inlineStr">
         <is>
           <t>992</t>
         </is>
       </c>
-      <c r="I6" s="7" t="inlineStr">
+      <c r="I6" s="8" t="inlineStr">
         <is>
           <t>458</t>
         </is>
       </c>
-      <c r="J6" s="7" t="inlineStr">
+      <c r="J6" s="8" t="inlineStr">
         <is>
           <t>023</t>
         </is>
@@ -1620,17 +1620,17 @@
           <t>417</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr">
+      <c r="H7" s="8" t="inlineStr">
         <is>
           <t>491</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="8" t="inlineStr">
         <is>
           <t>028</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="8" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -1782,7 +1782,7 @@
           <t>620</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -1807,17 +1807,17 @@
           <t>363</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="H8" s="8" t="inlineStr">
         <is>
           <t>287</t>
         </is>
       </c>
-      <c r="I8" s="7" t="inlineStr">
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>198</t>
         </is>
       </c>
-      <c r="J8" s="7" t="inlineStr">
+      <c r="J8" s="8" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -1964,7 +1964,7 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -1994,17 +1994,17 @@
           <t>410</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
         <is>
           <t>835</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr">
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>460</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="J9" s="8" t="inlineStr">
         <is>
           <t>648</t>
         </is>
@@ -2129,12 +2129,12 @@
           <t>414</t>
         </is>
       </c>
-      <c r="AI9" s="17" t="inlineStr">
+      <c r="AI9" s="7" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="AJ9" s="8" t="inlineStr">
+      <c r="AJ9" s="17" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -2181,17 +2181,17 @@
           <t>396</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr">
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>602</t>
         </is>
       </c>
-      <c r="I10" s="7" t="inlineStr">
+      <c r="I10" s="8" t="inlineStr">
         <is>
           <t>015</t>
         </is>
       </c>
-      <c r="J10" s="7" t="inlineStr">
+      <c r="J10" s="8" t="inlineStr">
         <is>
           <t>162</t>
         </is>
@@ -2368,17 +2368,17 @@
           <t>626</t>
         </is>
       </c>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="H11" s="8" t="inlineStr">
         <is>
           <t>421</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="I11" s="8" t="inlineStr">
         <is>
           <t>421</t>
         </is>
       </c>
-      <c r="J11" s="7" t="inlineStr">
+      <c r="J11" s="8" t="inlineStr">
         <is>
           <t>444</t>
         </is>
@@ -2555,17 +2555,17 @@
           <t>678</t>
         </is>
       </c>
-      <c r="H12" s="7" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr">
         <is>
           <t>623</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr">
+      <c r="I12" s="8" t="inlineStr">
         <is>
           <t>638</t>
         </is>
       </c>
-      <c r="J12" s="7" t="inlineStr">
+      <c r="J12" s="8" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -2742,17 +2742,17 @@
           <t>967</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="H13" s="8" t="inlineStr">
         <is>
           <t>965</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>740</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="J13" s="8" t="inlineStr">
         <is>
           <t>825</t>
         </is>
@@ -2929,17 +2929,17 @@
           <t>661</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr">
+      <c r="H14" s="8" t="inlineStr">
         <is>
           <t>824</t>
         </is>
       </c>
-      <c r="I14" s="7" t="inlineStr">
+      <c r="I14" s="8" t="inlineStr">
         <is>
           <t>408</t>
         </is>
       </c>
-      <c r="J14" s="7" t="inlineStr">
+      <c r="J14" s="8" t="inlineStr">
         <is>
           <t>947</t>
         </is>
@@ -3116,17 +3116,17 @@
           <t>551</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="H15" s="8" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="I15" s="8" t="inlineStr">
         <is>
           <t>752</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="J15" s="8" t="inlineStr">
         <is>
           <t>169</t>
         </is>
@@ -3303,17 +3303,17 @@
           <t>415</t>
         </is>
       </c>
-      <c r="H16" s="7" t="inlineStr">
+      <c r="H16" s="8" t="inlineStr">
         <is>
           <t>666</t>
         </is>
       </c>
-      <c r="I16" s="7" t="inlineStr">
+      <c r="I16" s="8" t="inlineStr">
         <is>
           <t>952</t>
         </is>
       </c>
-      <c r="J16" s="7" t="inlineStr">
+      <c r="J16" s="8" t="inlineStr">
         <is>
           <t>294</t>
         </is>
@@ -3490,7 +3490,7 @@
           <t>934</t>
         </is>
       </c>
-      <c r="H17" s="7" t="inlineStr">
+      <c r="H17" s="8" t="inlineStr">
         <is>
           <t>397</t>
         </is>
@@ -3500,7 +3500,7 @@
           <t>170</t>
         </is>
       </c>
-      <c r="J17" s="7" t="inlineStr">
+      <c r="J17" s="8" t="inlineStr">
         <is>
           <t>739</t>
         </is>
@@ -3677,17 +3677,17 @@
           <t>204</t>
         </is>
       </c>
-      <c r="H18" s="7" t="inlineStr">
+      <c r="H18" s="8" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="I18" s="7" t="inlineStr">
+      <c r="I18" s="8" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="J18" s="7" t="inlineStr">
+      <c r="J18" s="8" t="inlineStr">
         <is>
           <t>505</t>
         </is>
@@ -3864,17 +3864,17 @@
           <t>306</t>
         </is>
       </c>
-      <c r="H19" s="7" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
         <is>
           <t>023</t>
         </is>
       </c>
-      <c r="I19" s="7" t="inlineStr">
+      <c r="I19" s="8" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="J19" s="7" t="inlineStr">
+      <c r="J19" s="8" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -3904,7 +3904,7 @@
           <t>940</t>
         </is>
       </c>
-      <c r="P19" s="10" t="inlineStr">
+      <c r="P19" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -4051,17 +4051,17 @@
           <t>237</t>
         </is>
       </c>
-      <c r="H20" s="7" t="inlineStr">
+      <c r="H20" s="8" t="inlineStr">
         <is>
           <t>876</t>
         </is>
       </c>
-      <c r="I20" s="7" t="inlineStr">
+      <c r="I20" s="8" t="inlineStr">
         <is>
           <t>385</t>
         </is>
       </c>
-      <c r="J20" s="7" t="inlineStr">
+      <c r="J20" s="8" t="inlineStr">
         <is>
           <t>440</t>
         </is>
@@ -4238,17 +4238,17 @@
           <t>589</t>
         </is>
       </c>
-      <c r="H21" s="7" t="inlineStr">
+      <c r="H21" s="8" t="inlineStr">
         <is>
           <t>943</t>
         </is>
       </c>
-      <c r="I21" s="7" t="inlineStr">
+      <c r="I21" s="8" t="inlineStr">
         <is>
           <t>036</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="J21" s="8" t="inlineStr">
         <is>
           <t>976</t>
         </is>
@@ -4323,7 +4323,7 @@
           <t>143</t>
         </is>
       </c>
-      <c r="Y21" s="13" t="inlineStr">
+      <c r="Y21" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -4425,17 +4425,17 @@
           <t>339</t>
         </is>
       </c>
-      <c r="H22" s="7" t="inlineStr">
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>783</t>
         </is>
       </c>
-      <c r="I22" s="7" t="inlineStr">
+      <c r="I22" s="8" t="inlineStr">
         <is>
           <t>816</t>
         </is>
       </c>
-      <c r="J22" s="7" t="inlineStr">
+      <c r="J22" s="8" t="inlineStr">
         <is>
           <t>616</t>
         </is>
@@ -4550,7 +4550,7 @@
           <t>098</t>
         </is>
       </c>
-      <c r="AG22" s="16" t="inlineStr">
+      <c r="AG22" s="7" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -4612,17 +4612,17 @@
           <t>886</t>
         </is>
       </c>
-      <c r="H23" s="7" t="inlineStr">
+      <c r="H23" s="8" t="inlineStr">
         <is>
           <t>546</t>
         </is>
       </c>
-      <c r="I23" s="7" t="inlineStr">
+      <c r="I23" s="8" t="inlineStr">
         <is>
           <t>660</t>
         </is>
       </c>
-      <c r="J23" s="7" t="inlineStr">
+      <c r="J23" s="8" t="inlineStr">
         <is>
           <t>611</t>
         </is>
@@ -4799,17 +4799,17 @@
           <t>462</t>
         </is>
       </c>
-      <c r="H24" s="7" t="inlineStr">
+      <c r="H24" s="8" t="inlineStr">
         <is>
           <t>682</t>
         </is>
       </c>
-      <c r="I24" s="7" t="inlineStr">
+      <c r="I24" s="8" t="inlineStr">
         <is>
           <t>939</t>
         </is>
       </c>
-      <c r="J24" s="7" t="inlineStr">
+      <c r="J24" s="8" t="inlineStr">
         <is>
           <t>783</t>
         </is>
@@ -4986,17 +4986,17 @@
           <t>754</t>
         </is>
       </c>
-      <c r="H25" s="7" t="inlineStr">
+      <c r="H25" s="8" t="inlineStr">
         <is>
           <t>680</t>
         </is>
       </c>
-      <c r="I25" s="7" t="inlineStr">
+      <c r="I25" s="8" t="inlineStr">
         <is>
           <t>682</t>
         </is>
       </c>
-      <c r="J25" s="7" t="inlineStr">
+      <c r="J25" s="8" t="inlineStr">
         <is>
           <t>937</t>
         </is>
@@ -5143,7 +5143,7 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B26" s="7" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -5178,12 +5178,12 @@
           <t>017</t>
         </is>
       </c>
-      <c r="I26" s="7" t="inlineStr">
+      <c r="I26" s="8" t="inlineStr">
         <is>
           <t>318</t>
         </is>
       </c>
-      <c r="J26" s="7" t="inlineStr">
+      <c r="J26" s="8" t="inlineStr">
         <is>
           <t>849</t>
         </is>
@@ -5360,17 +5360,17 @@
           <t>001</t>
         </is>
       </c>
-      <c r="H27" s="7" t="inlineStr">
+      <c r="H27" s="8" t="inlineStr">
         <is>
           <t>526</t>
         </is>
       </c>
-      <c r="I27" s="7" t="inlineStr">
+      <c r="I27" s="8" t="inlineStr">
         <is>
           <t>102</t>
         </is>
       </c>
-      <c r="J27" s="7" t="inlineStr">
+      <c r="J27" s="8" t="inlineStr">
         <is>
           <t>725</t>
         </is>
@@ -5547,17 +5547,17 @@
           <t>101</t>
         </is>
       </c>
-      <c r="H28" s="7" t="inlineStr">
+      <c r="H28" s="8" t="inlineStr">
         <is>
           <t>497</t>
         </is>
       </c>
-      <c r="I28" s="7" t="inlineStr">
+      <c r="I28" s="8" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="J28" s="7" t="inlineStr">
+      <c r="J28" s="8" t="inlineStr">
         <is>
           <t>220</t>
         </is>
@@ -5657,7 +5657,7 @@
           <t>115</t>
         </is>
       </c>
-      <c r="AD28" s="15" t="inlineStr">
+      <c r="AD28" s="7" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -5734,17 +5734,17 @@
           <t>337</t>
         </is>
       </c>
-      <c r="H29" s="7" t="inlineStr">
+      <c r="H29" s="8" t="inlineStr">
         <is>
           <t>396</t>
         </is>
       </c>
-      <c r="I29" s="7" t="inlineStr">
+      <c r="I29" s="8" t="inlineStr">
         <is>
           <t>749</t>
         </is>
       </c>
-      <c r="J29" s="7" t="inlineStr">
+      <c r="J29" s="8" t="inlineStr">
         <is>
           <t>653</t>
         </is>
@@ -5921,17 +5921,17 @@
           <t>152</t>
         </is>
       </c>
-      <c r="H30" s="7" t="inlineStr">
+      <c r="H30" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I30" s="7" t="inlineStr">
+      <c r="I30" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J30" s="7" t="inlineStr">
+      <c r="J30" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5946,7 +5946,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="M30" s="9" t="inlineStr">
+      <c r="M30" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -6108,17 +6108,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H31" s="7" t="inlineStr">
+      <c r="H31" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I31" s="7" t="inlineStr">
+      <c r="I31" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J31" s="7" t="inlineStr">
+      <c r="J31" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6295,17 +6295,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H32" s="7" t="inlineStr">
+      <c r="H32" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I32" s="7" t="inlineStr">
+      <c r="I32" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J32" s="7" t="inlineStr">
+      <c r="J32" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6345,7 +6345,7 @@
           <t>307</t>
         </is>
       </c>
-      <c r="R32" s="11" t="inlineStr">
+      <c r="R32" s="7" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -6482,17 +6482,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H33" s="7" t="inlineStr">
+      <c r="H33" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I33" s="7" t="inlineStr">
+      <c r="I33" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J33" s="7" t="inlineStr">
+      <c r="J33" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6943,17 +6943,17 @@
           <t>449</t>
         </is>
       </c>
-      <c r="H38" s="7" t="inlineStr">
+      <c r="H38" s="8" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="I38" s="7" t="inlineStr">
+      <c r="I38" s="8" t="inlineStr">
         <is>
           <t>658</t>
         </is>
       </c>
-      <c r="J38" s="7" t="inlineStr">
+      <c r="J38" s="8" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -7130,17 +7130,17 @@
           <t>211</t>
         </is>
       </c>
-      <c r="H39" s="7" t="inlineStr">
+      <c r="H39" s="8" t="inlineStr">
         <is>
           <t>948</t>
         </is>
       </c>
-      <c r="I39" s="7" t="inlineStr">
+      <c r="I39" s="8" t="inlineStr">
         <is>
           <t>317</t>
         </is>
       </c>
-      <c r="J39" s="7" t="inlineStr">
+      <c r="J39" s="8" t="inlineStr">
         <is>
           <t>658</t>
         </is>
@@ -7317,17 +7317,17 @@
           <t>871</t>
         </is>
       </c>
-      <c r="H40" s="7" t="inlineStr">
+      <c r="H40" s="8" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="I40" s="7" t="inlineStr">
+      <c r="I40" s="8" t="inlineStr">
         <is>
           <t>458</t>
         </is>
       </c>
-      <c r="J40" s="7" t="inlineStr">
+      <c r="J40" s="8" t="inlineStr">
         <is>
           <t>060</t>
         </is>
@@ -7372,7 +7372,7 @@
           <t>818</t>
         </is>
       </c>
-      <c r="S40" s="11" t="inlineStr">
+      <c r="S40" s="7" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -7504,17 +7504,17 @@
           <t>389</t>
         </is>
       </c>
-      <c r="H41" s="7" t="inlineStr">
+      <c r="H41" s="8" t="inlineStr">
         <is>
           <t>603</t>
         </is>
       </c>
-      <c r="I41" s="7" t="inlineStr">
+      <c r="I41" s="8" t="inlineStr">
         <is>
           <t>672</t>
         </is>
       </c>
-      <c r="J41" s="7" t="inlineStr">
+      <c r="J41" s="8" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -7691,17 +7691,17 @@
           <t>273</t>
         </is>
       </c>
-      <c r="H42" s="7" t="inlineStr">
+      <c r="H42" s="8" t="inlineStr">
         <is>
           <t>584</t>
         </is>
       </c>
-      <c r="I42" s="7" t="inlineStr">
+      <c r="I42" s="8" t="inlineStr">
         <is>
           <t>487</t>
         </is>
       </c>
-      <c r="J42" s="7" t="inlineStr">
+      <c r="J42" s="8" t="inlineStr">
         <is>
           <t>255</t>
         </is>
@@ -7878,17 +7878,17 @@
           <t>676</t>
         </is>
       </c>
-      <c r="H43" s="7" t="inlineStr">
+      <c r="H43" s="8" t="inlineStr">
         <is>
           <t>063</t>
         </is>
       </c>
-      <c r="I43" s="7" t="inlineStr">
+      <c r="I43" s="8" t="inlineStr">
         <is>
           <t>749</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
+      <c r="J43" s="8" t="inlineStr">
         <is>
           <t>993</t>
         </is>
@@ -8065,17 +8065,17 @@
           <t>343</t>
         </is>
       </c>
-      <c r="H44" s="7" t="inlineStr">
+      <c r="H44" s="8" t="inlineStr">
         <is>
           <t>354</t>
         </is>
       </c>
-      <c r="I44" s="7" t="inlineStr">
+      <c r="I44" s="8" t="inlineStr">
         <is>
           <t>048</t>
         </is>
       </c>
-      <c r="J44" s="7" t="inlineStr">
+      <c r="J44" s="8" t="inlineStr">
         <is>
           <t>616</t>
         </is>
@@ -8252,17 +8252,17 @@
           <t>366</t>
         </is>
       </c>
-      <c r="H45" s="7" t="inlineStr">
+      <c r="H45" s="8" t="inlineStr">
         <is>
           <t>282</t>
         </is>
       </c>
-      <c r="I45" s="7" t="inlineStr">
+      <c r="I45" s="8" t="inlineStr">
         <is>
           <t>885</t>
         </is>
       </c>
-      <c r="J45" s="7" t="inlineStr">
+      <c r="J45" s="8" t="inlineStr">
         <is>
           <t>057</t>
         </is>
@@ -8439,17 +8439,17 @@
           <t>925</t>
         </is>
       </c>
-      <c r="H46" s="7" t="inlineStr">
+      <c r="H46" s="8" t="inlineStr">
         <is>
           <t>968</t>
         </is>
       </c>
-      <c r="I46" s="7" t="inlineStr">
+      <c r="I46" s="8" t="inlineStr">
         <is>
           <t>481</t>
         </is>
       </c>
-      <c r="J46" s="7" t="inlineStr">
+      <c r="J46" s="8" t="inlineStr">
         <is>
           <t>191</t>
         </is>
@@ -8626,17 +8626,17 @@
           <t>182</t>
         </is>
       </c>
-      <c r="H47" s="7" t="inlineStr">
+      <c r="H47" s="8" t="inlineStr">
         <is>
           <t>905</t>
         </is>
       </c>
-      <c r="I47" s="7" t="inlineStr">
+      <c r="I47" s="8" t="inlineStr">
         <is>
           <t>756</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
+      <c r="J47" s="8" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -8813,17 +8813,17 @@
           <t>043</t>
         </is>
       </c>
-      <c r="H48" s="7" t="inlineStr">
+      <c r="H48" s="8" t="inlineStr">
         <is>
           <t>025</t>
         </is>
       </c>
-      <c r="I48" s="7" t="inlineStr">
+      <c r="I48" s="8" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="J48" s="7" t="inlineStr">
+      <c r="J48" s="8" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -9000,17 +9000,17 @@
           <t>697</t>
         </is>
       </c>
-      <c r="H49" s="7" t="inlineStr">
+      <c r="H49" s="8" t="inlineStr">
         <is>
           <t>009</t>
         </is>
       </c>
-      <c r="I49" s="7" t="inlineStr">
+      <c r="I49" s="8" t="inlineStr">
         <is>
           <t>915</t>
         </is>
       </c>
-      <c r="J49" s="7" t="inlineStr">
+      <c r="J49" s="8" t="inlineStr">
         <is>
           <t>684</t>
         </is>
@@ -9187,17 +9187,17 @@
           <t>427</t>
         </is>
       </c>
-      <c r="H50" s="7" t="inlineStr">
+      <c r="H50" s="8" t="inlineStr">
         <is>
           <t>699</t>
         </is>
       </c>
-      <c r="I50" s="7" t="inlineStr">
+      <c r="I50" s="8" t="inlineStr">
         <is>
           <t>587</t>
         </is>
       </c>
-      <c r="J50" s="7" t="inlineStr">
+      <c r="J50" s="8" t="inlineStr">
         <is>
           <t>032</t>
         </is>
@@ -9374,17 +9374,17 @@
           <t>986</t>
         </is>
       </c>
-      <c r="H51" s="7" t="inlineStr">
+      <c r="H51" s="8" t="inlineStr">
         <is>
           <t>064</t>
         </is>
       </c>
-      <c r="I51" s="7" t="inlineStr">
+      <c r="I51" s="8" t="inlineStr">
         <is>
           <t>975</t>
         </is>
       </c>
-      <c r="J51" s="7" t="inlineStr">
+      <c r="J51" s="8" t="inlineStr">
         <is>
           <t>292</t>
         </is>
@@ -9561,17 +9561,17 @@
           <t>776</t>
         </is>
       </c>
-      <c r="H52" s="7" t="inlineStr">
+      <c r="H52" s="8" t="inlineStr">
         <is>
           <t>399</t>
         </is>
       </c>
-      <c r="I52" s="7" t="inlineStr">
+      <c r="I52" s="8" t="inlineStr">
         <is>
           <t>047</t>
         </is>
       </c>
-      <c r="J52" s="7" t="inlineStr">
+      <c r="J52" s="8" t="inlineStr">
         <is>
           <t>051</t>
         </is>
@@ -9743,22 +9743,22 @@
           <t>314</t>
         </is>
       </c>
-      <c r="G53" s="8" t="inlineStr">
+      <c r="G53" s="6" t="inlineStr">
         <is>
           <t>448</t>
         </is>
       </c>
-      <c r="H53" s="7" t="inlineStr">
+      <c r="H53" s="8" t="inlineStr">
         <is>
           <t>251</t>
         </is>
       </c>
-      <c r="I53" s="7" t="inlineStr">
+      <c r="I53" s="8" t="inlineStr">
         <is>
           <t>229</t>
         </is>
       </c>
-      <c r="J53" s="7" t="inlineStr">
+      <c r="J53" s="8" t="inlineStr">
         <is>
           <t>389</t>
         </is>
@@ -9935,17 +9935,17 @@
           <t>389</t>
         </is>
       </c>
-      <c r="H54" s="7" t="inlineStr">
+      <c r="H54" s="8" t="inlineStr">
         <is>
           <t>943</t>
         </is>
       </c>
-      <c r="I54" s="7" t="inlineStr">
+      <c r="I54" s="8" t="inlineStr">
         <is>
           <t>542</t>
         </is>
       </c>
-      <c r="J54" s="7" t="inlineStr">
+      <c r="J54" s="8" t="inlineStr">
         <is>
           <t>405</t>
         </is>
@@ -10122,17 +10122,17 @@
           <t>113</t>
         </is>
       </c>
-      <c r="H55" s="7" t="inlineStr">
+      <c r="H55" s="8" t="inlineStr">
         <is>
           <t>510</t>
         </is>
       </c>
-      <c r="I55" s="7" t="inlineStr">
+      <c r="I55" s="8" t="inlineStr">
         <is>
           <t>185</t>
         </is>
       </c>
-      <c r="J55" s="7" t="inlineStr">
+      <c r="J55" s="8" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -10309,17 +10309,17 @@
           <t>996</t>
         </is>
       </c>
-      <c r="H56" s="7" t="inlineStr">
+      <c r="H56" s="8" t="inlineStr">
         <is>
           <t>415</t>
         </is>
       </c>
-      <c r="I56" s="7" t="inlineStr">
+      <c r="I56" s="8" t="inlineStr">
         <is>
           <t>097</t>
         </is>
       </c>
-      <c r="J56" s="7" t="inlineStr">
+      <c r="J56" s="8" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -10496,17 +10496,17 @@
           <t>414</t>
         </is>
       </c>
-      <c r="H57" s="7" t="inlineStr">
+      <c r="H57" s="8" t="inlineStr">
         <is>
           <t>447</t>
         </is>
       </c>
-      <c r="I57" s="7" t="inlineStr">
+      <c r="I57" s="8" t="inlineStr">
         <is>
           <t>078</t>
         </is>
       </c>
-      <c r="J57" s="7" t="inlineStr">
+      <c r="J57" s="8" t="inlineStr">
         <is>
           <t>433</t>
         </is>
@@ -10683,17 +10683,17 @@
           <t>538</t>
         </is>
       </c>
-      <c r="H58" s="7" t="inlineStr">
+      <c r="H58" s="8" t="inlineStr">
         <is>
           <t>325</t>
         </is>
       </c>
-      <c r="I58" s="7" t="inlineStr">
+      <c r="I58" s="8" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="J58" s="7" t="inlineStr">
+      <c r="J58" s="8" t="inlineStr">
         <is>
           <t>608</t>
         </is>
@@ -10808,7 +10808,7 @@
           <t>393</t>
         </is>
       </c>
-      <c r="AG58" s="16" t="inlineStr">
+      <c r="AG58" s="7" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -10870,17 +10870,17 @@
           <t>837</t>
         </is>
       </c>
-      <c r="H59" s="7" t="inlineStr">
+      <c r="H59" s="8" t="inlineStr">
         <is>
           <t>552</t>
         </is>
       </c>
-      <c r="I59" s="7" t="inlineStr">
+      <c r="I59" s="8" t="inlineStr">
         <is>
           <t>873</t>
         </is>
       </c>
-      <c r="J59" s="7" t="inlineStr">
+      <c r="J59" s="8" t="inlineStr">
         <is>
           <t>744</t>
         </is>
@@ -11057,17 +11057,17 @@
           <t>864</t>
         </is>
       </c>
-      <c r="H60" s="7" t="inlineStr">
+      <c r="H60" s="8" t="inlineStr">
         <is>
           <t>463</t>
         </is>
       </c>
-      <c r="I60" s="7" t="inlineStr">
+      <c r="I60" s="8" t="inlineStr">
         <is>
           <t>912</t>
         </is>
       </c>
-      <c r="J60" s="7" t="inlineStr">
+      <c r="J60" s="8" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -11244,17 +11244,17 @@
           <t>041</t>
         </is>
       </c>
-      <c r="H61" s="7" t="inlineStr">
+      <c r="H61" s="8" t="inlineStr">
         <is>
           <t>757</t>
         </is>
       </c>
-      <c r="I61" s="7" t="inlineStr">
+      <c r="I61" s="8" t="inlineStr">
         <is>
           <t>345</t>
         </is>
       </c>
-      <c r="J61" s="7" t="inlineStr">
+      <c r="J61" s="8" t="inlineStr">
         <is>
           <t>357</t>
         </is>
@@ -11319,7 +11319,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="W61" s="13" t="inlineStr">
+      <c r="W61" s="7" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -11431,17 +11431,17 @@
           <t>247</t>
         </is>
       </c>
-      <c r="H62" s="7" t="inlineStr">
+      <c r="H62" s="8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="I62" s="7" t="inlineStr">
+      <c r="I62" s="8" t="inlineStr">
         <is>
           <t>066</t>
         </is>
       </c>
-      <c r="J62" s="7" t="inlineStr">
+      <c r="J62" s="8" t="inlineStr">
         <is>
           <t>860</t>
         </is>
@@ -11618,17 +11618,17 @@
           <t>050</t>
         </is>
       </c>
-      <c r="H63" s="7" t="inlineStr">
+      <c r="H63" s="8" t="inlineStr">
         <is>
           <t>235</t>
         </is>
       </c>
-      <c r="I63" s="7" t="inlineStr">
+      <c r="I63" s="8" t="inlineStr">
         <is>
           <t>662</t>
         </is>
       </c>
-      <c r="J63" s="7" t="inlineStr">
+      <c r="J63" s="8" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -11805,17 +11805,17 @@
           <t>806</t>
         </is>
       </c>
-      <c r="H64" s="7" t="inlineStr">
+      <c r="H64" s="8" t="inlineStr">
         <is>
           <t>514</t>
         </is>
       </c>
-      <c r="I64" s="7" t="inlineStr">
+      <c r="I64" s="8" t="inlineStr">
         <is>
           <t>705</t>
         </is>
       </c>
-      <c r="J64" s="7" t="inlineStr">
+      <c r="J64" s="8" t="inlineStr">
         <is>
           <t>245</t>
         </is>
@@ -11920,7 +11920,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="AE64" s="15" t="inlineStr">
+      <c r="AE64" s="7" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -11982,7 +11982,7 @@
           <t>525</t>
         </is>
       </c>
-      <c r="F65" s="6" t="inlineStr">
+      <c r="F65" s="7" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -11992,17 +11992,17 @@
           <t>563</t>
         </is>
       </c>
-      <c r="H65" s="7" t="inlineStr">
+      <c r="H65" s="8" t="inlineStr">
         <is>
           <t>816</t>
         </is>
       </c>
-      <c r="I65" s="7" t="inlineStr">
+      <c r="I65" s="8" t="inlineStr">
         <is>
           <t>658</t>
         </is>
       </c>
-      <c r="J65" s="7" t="inlineStr">
+      <c r="J65" s="8" t="inlineStr">
         <is>
           <t>012</t>
         </is>
@@ -12179,17 +12179,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H66" s="7" t="inlineStr">
+      <c r="H66" s="8" t="inlineStr">
         <is>
           <t>875</t>
         </is>
       </c>
-      <c r="I66" s="7" t="inlineStr">
+      <c r="I66" s="8" t="inlineStr">
         <is>
           <t>178</t>
         </is>
       </c>
-      <c r="J66" s="7" t="inlineStr">
+      <c r="J66" s="8" t="inlineStr">
         <is>
           <t>429</t>
         </is>
@@ -12244,7 +12244,7 @@
           <t>324</t>
         </is>
       </c>
-      <c r="U66" s="12" t="inlineStr">
+      <c r="U66" s="7" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -12314,7 +12314,7 @@
           <t>282</t>
         </is>
       </c>
-      <c r="AI66" s="17" t="inlineStr">
+      <c r="AI66" s="7" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -12366,17 +12366,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H67" s="7" t="inlineStr">
+      <c r="H67" s="8" t="inlineStr">
         <is>
           <t>049</t>
         </is>
       </c>
-      <c r="I67" s="7" t="inlineStr">
+      <c r="I67" s="8" t="inlineStr">
         <is>
           <t>845</t>
         </is>
       </c>
-      <c r="J67" s="7" t="inlineStr">
+      <c r="J67" s="8" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -12523,7 +12523,7 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="B68" s="7" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -12553,17 +12553,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H68" s="7" t="inlineStr">
+      <c r="H68" s="8" t="inlineStr">
         <is>
           <t>547</t>
         </is>
       </c>
-      <c r="I68" s="7" t="inlineStr">
+      <c r="I68" s="8" t="inlineStr">
         <is>
           <t>847</t>
         </is>
       </c>
-      <c r="J68" s="7" t="inlineStr">
+      <c r="J68" s="8" t="inlineStr">
         <is>
           <t>953</t>
         </is>
@@ -13014,17 +13014,17 @@
           <t>976</t>
         </is>
       </c>
-      <c r="H73" s="7" t="inlineStr">
+      <c r="H73" s="8" t="inlineStr">
         <is>
           <t>552</t>
         </is>
       </c>
-      <c r="I73" s="7" t="inlineStr">
+      <c r="I73" s="8" t="inlineStr">
         <is>
           <t>791</t>
         </is>
       </c>
-      <c r="J73" s="7" t="inlineStr">
+      <c r="J73" s="8" t="inlineStr">
         <is>
           <t>261</t>
         </is>
@@ -13201,17 +13201,17 @@
           <t>470</t>
         </is>
       </c>
-      <c r="H74" s="7" t="inlineStr">
+      <c r="H74" s="8" t="inlineStr">
         <is>
           <t>883</t>
         </is>
       </c>
-      <c r="I74" s="7" t="inlineStr">
+      <c r="I74" s="8" t="inlineStr">
         <is>
           <t>866</t>
         </is>
       </c>
-      <c r="J74" s="7" t="inlineStr">
+      <c r="J74" s="8" t="inlineStr">
         <is>
           <t>160</t>
         </is>
@@ -13388,17 +13388,17 @@
           <t>683</t>
         </is>
       </c>
-      <c r="H75" s="7" t="inlineStr">
+      <c r="H75" s="8" t="inlineStr">
         <is>
           <t>726</t>
         </is>
       </c>
-      <c r="I75" s="7" t="inlineStr">
+      <c r="I75" s="8" t="inlineStr">
         <is>
           <t>433</t>
         </is>
       </c>
-      <c r="J75" s="7" t="inlineStr">
+      <c r="J75" s="8" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -13575,17 +13575,17 @@
           <t>510</t>
         </is>
       </c>
-      <c r="H76" s="7" t="inlineStr">
+      <c r="H76" s="8" t="inlineStr">
         <is>
           <t>870</t>
         </is>
       </c>
-      <c r="I76" s="7" t="inlineStr">
+      <c r="I76" s="8" t="inlineStr">
         <is>
           <t>205</t>
         </is>
       </c>
-      <c r="J76" s="7" t="inlineStr">
+      <c r="J76" s="8" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -13762,17 +13762,17 @@
           <t>528</t>
         </is>
       </c>
-      <c r="H77" s="7" t="inlineStr">
+      <c r="H77" s="8" t="inlineStr">
         <is>
           <t>601</t>
         </is>
       </c>
-      <c r="I77" s="7" t="inlineStr">
+      <c r="I77" s="8" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="J77" s="7" t="inlineStr">
+      <c r="J77" s="8" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -13949,17 +13949,17 @@
           <t>729</t>
         </is>
       </c>
-      <c r="H78" s="7" t="inlineStr">
+      <c r="H78" s="8" t="inlineStr">
         <is>
           <t>417</t>
         </is>
       </c>
-      <c r="I78" s="7" t="inlineStr">
+      <c r="I78" s="8" t="inlineStr">
         <is>
           <t>981</t>
         </is>
       </c>
-      <c r="J78" s="7" t="inlineStr">
+      <c r="J78" s="8" t="inlineStr">
         <is>
           <t>923</t>
         </is>
@@ -14136,17 +14136,17 @@
           <t>062</t>
         </is>
       </c>
-      <c r="H79" s="7" t="inlineStr">
+      <c r="H79" s="8" t="inlineStr">
         <is>
           <t>779</t>
         </is>
       </c>
-      <c r="I79" s="7" t="inlineStr">
+      <c r="I79" s="8" t="inlineStr">
         <is>
           <t>063</t>
         </is>
       </c>
-      <c r="J79" s="7" t="inlineStr">
+      <c r="J79" s="8" t="inlineStr">
         <is>
           <t>091</t>
         </is>
@@ -14323,17 +14323,17 @@
           <t>619</t>
         </is>
       </c>
-      <c r="H80" s="7" t="inlineStr">
+      <c r="H80" s="8" t="inlineStr">
         <is>
           <t>043</t>
         </is>
       </c>
-      <c r="I80" s="7" t="inlineStr">
+      <c r="I80" s="8" t="inlineStr">
         <is>
           <t>011</t>
         </is>
       </c>
-      <c r="J80" s="7" t="inlineStr">
+      <c r="J80" s="8" t="inlineStr">
         <is>
           <t>795</t>
         </is>
@@ -14398,7 +14398,7 @@
           <t>925</t>
         </is>
       </c>
-      <c r="W80" s="13" t="inlineStr">
+      <c r="W80" s="7" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -14510,17 +14510,17 @@
           <t>518</t>
         </is>
       </c>
-      <c r="H81" s="7" t="inlineStr">
+      <c r="H81" s="8" t="inlineStr">
         <is>
           <t>823</t>
         </is>
       </c>
-      <c r="I81" s="7" t="inlineStr">
+      <c r="I81" s="8" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="J81" s="7" t="inlineStr">
+      <c r="J81" s="8" t="inlineStr">
         <is>
           <t>005</t>
         </is>
@@ -14697,17 +14697,17 @@
           <t>342</t>
         </is>
       </c>
-      <c r="H82" s="7" t="inlineStr">
+      <c r="H82" s="8" t="inlineStr">
         <is>
           <t>869</t>
         </is>
       </c>
-      <c r="I82" s="7" t="inlineStr">
+      <c r="I82" s="8" t="inlineStr">
         <is>
           <t>763</t>
         </is>
       </c>
-      <c r="J82" s="7" t="inlineStr">
+      <c r="J82" s="8" t="inlineStr">
         <is>
           <t>525</t>
         </is>
@@ -14767,7 +14767,7 @@
           <t>915</t>
         </is>
       </c>
-      <c r="V82" s="8" t="inlineStr">
+      <c r="V82" s="12" t="inlineStr">
         <is>
           <t>353</t>
         </is>
@@ -14884,17 +14884,17 @@
           <t>243</t>
         </is>
       </c>
-      <c r="H83" s="7" t="inlineStr">
+      <c r="H83" s="8" t="inlineStr">
         <is>
           <t>270</t>
         </is>
       </c>
-      <c r="I83" s="7" t="inlineStr">
+      <c r="I83" s="8" t="inlineStr">
         <is>
           <t>818</t>
         </is>
       </c>
-      <c r="J83" s="7" t="inlineStr">
+      <c r="J83" s="8" t="inlineStr">
         <is>
           <t>109</t>
         </is>
@@ -15071,17 +15071,17 @@
           <t>663</t>
         </is>
       </c>
-      <c r="H84" s="7" t="inlineStr">
+      <c r="H84" s="8" t="inlineStr">
         <is>
           <t>618</t>
         </is>
       </c>
-      <c r="I84" s="7" t="inlineStr">
+      <c r="I84" s="8" t="inlineStr">
         <is>
           <t>453</t>
         </is>
       </c>
-      <c r="J84" s="7" t="inlineStr">
+      <c r="J84" s="8" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -15258,17 +15258,17 @@
           <t>178</t>
         </is>
       </c>
-      <c r="H85" s="7" t="inlineStr">
+      <c r="H85" s="8" t="inlineStr">
         <is>
           <t>374</t>
         </is>
       </c>
-      <c r="I85" s="7" t="inlineStr">
+      <c r="I85" s="8" t="inlineStr">
         <is>
           <t>363</t>
         </is>
       </c>
-      <c r="J85" s="7" t="inlineStr">
+      <c r="J85" s="8" t="inlineStr">
         <is>
           <t>980</t>
         </is>
@@ -15283,7 +15283,7 @@
           <t>018</t>
         </is>
       </c>
-      <c r="M85" s="8" t="inlineStr">
+      <c r="M85" s="9" t="inlineStr">
         <is>
           <t>353</t>
         </is>
@@ -15358,7 +15358,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="AB85" s="8" t="inlineStr">
+      <c r="AB85" s="14" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -15445,17 +15445,17 @@
           <t>075</t>
         </is>
       </c>
-      <c r="H86" s="7" t="inlineStr">
+      <c r="H86" s="8" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="I86" s="7" t="inlineStr">
+      <c r="I86" s="8" t="inlineStr">
         <is>
           <t>020</t>
         </is>
       </c>
-      <c r="J86" s="7" t="inlineStr">
+      <c r="J86" s="8" t="inlineStr">
         <is>
           <t>034</t>
         </is>
@@ -15632,17 +15632,17 @@
           <t>503</t>
         </is>
       </c>
-      <c r="H87" s="7" t="inlineStr">
+      <c r="H87" s="8" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="I87" s="7" t="inlineStr">
+      <c r="I87" s="8" t="inlineStr">
         <is>
           <t>452</t>
         </is>
       </c>
-      <c r="J87" s="7" t="inlineStr">
+      <c r="J87" s="8" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -15682,7 +15682,7 @@
           <t>542</t>
         </is>
       </c>
-      <c r="R87" s="11" t="inlineStr">
+      <c r="R87" s="7" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -15702,7 +15702,7 @@
           <t>127</t>
         </is>
       </c>
-      <c r="V87" s="12" t="inlineStr">
+      <c r="V87" s="7" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -15819,17 +15819,17 @@
           <t>713</t>
         </is>
       </c>
-      <c r="H88" s="7" t="inlineStr">
+      <c r="H88" s="8" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="I88" s="7" t="inlineStr">
+      <c r="I88" s="8" t="inlineStr">
         <is>
           <t>428</t>
         </is>
       </c>
-      <c r="J88" s="7" t="inlineStr">
+      <c r="J88" s="8" t="inlineStr">
         <is>
           <t>894</t>
         </is>
@@ -15884,7 +15884,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="U88" s="12" t="inlineStr">
+      <c r="U88" s="7" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -15904,7 +15904,7 @@
           <t>315</t>
         </is>
       </c>
-      <c r="Y88" s="13" t="inlineStr">
+      <c r="Y88" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -15991,7 +15991,7 @@
           <t>458</t>
         </is>
       </c>
-      <c r="E89" s="6" t="inlineStr">
+      <c r="E89" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -16006,17 +16006,17 @@
           <t>003</t>
         </is>
       </c>
-      <c r="H89" s="7" t="inlineStr">
+      <c r="H89" s="8" t="inlineStr">
         <is>
           <t>098</t>
         </is>
       </c>
-      <c r="I89" s="7" t="inlineStr">
+      <c r="I89" s="8" t="inlineStr">
         <is>
           <t>178</t>
         </is>
       </c>
-      <c r="J89" s="7" t="inlineStr">
+      <c r="J89" s="8" t="inlineStr">
         <is>
           <t>732</t>
         </is>
@@ -16071,7 +16071,7 @@
           <t>140</t>
         </is>
       </c>
-      <c r="U89" s="8" t="inlineStr">
+      <c r="U89" s="12" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -16188,22 +16188,22 @@
           <t>910</t>
         </is>
       </c>
-      <c r="G90" s="6" t="inlineStr">
+      <c r="G90" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
       </c>
-      <c r="H90" s="7" t="inlineStr">
+      <c r="H90" s="8" t="inlineStr">
         <is>
           <t>918</t>
         </is>
       </c>
-      <c r="I90" s="7" t="inlineStr">
+      <c r="I90" s="8" t="inlineStr">
         <is>
           <t>542</t>
         </is>
       </c>
-      <c r="J90" s="7" t="inlineStr">
+      <c r="J90" s="8" t="inlineStr">
         <is>
           <t>352</t>
         </is>
@@ -16380,17 +16380,17 @@
           <t>375</t>
         </is>
       </c>
-      <c r="H91" s="7" t="inlineStr">
+      <c r="H91" s="8" t="inlineStr">
         <is>
           <t>878</t>
         </is>
       </c>
-      <c r="I91" s="7" t="inlineStr">
+      <c r="I91" s="8" t="inlineStr">
         <is>
           <t>863</t>
         </is>
       </c>
-      <c r="J91" s="7" t="inlineStr">
+      <c r="J91" s="8" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -16435,7 +16435,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="S91" s="8" t="inlineStr">
+      <c r="S91" s="11" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -16567,17 +16567,17 @@
           <t>383</t>
         </is>
       </c>
-      <c r="H92" s="7" t="inlineStr">
+      <c r="H92" s="8" t="inlineStr">
         <is>
           <t>666</t>
         </is>
       </c>
-      <c r="I92" s="7" t="inlineStr">
+      <c r="I92" s="8" t="inlineStr">
         <is>
           <t>357</t>
         </is>
       </c>
-      <c r="J92" s="7" t="inlineStr">
+      <c r="J92" s="8" t="inlineStr">
         <is>
           <t>661</t>
         </is>
@@ -16754,17 +16754,17 @@
           <t>128</t>
         </is>
       </c>
-      <c r="H93" s="7" t="inlineStr">
+      <c r="H93" s="8" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="I93" s="7" t="inlineStr">
+      <c r="I93" s="8" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="J93" s="7" t="inlineStr">
+      <c r="J93" s="8" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -16941,7 +16941,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="H94" s="7" t="inlineStr">
+      <c r="H94" s="8" t="inlineStr">
         <is>
           <t>224</t>
         </is>
@@ -16951,7 +16951,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="J94" s="7" t="inlineStr">
+      <c r="J94" s="8" t="inlineStr">
         <is>
           <t>628</t>
         </is>
@@ -17128,17 +17128,17 @@
           <t>627</t>
         </is>
       </c>
-      <c r="H95" s="7" t="inlineStr">
+      <c r="H95" s="8" t="inlineStr">
         <is>
           <t>575</t>
         </is>
       </c>
-      <c r="I95" s="7" t="inlineStr">
+      <c r="I95" s="8" t="inlineStr">
         <is>
           <t>863</t>
         </is>
       </c>
-      <c r="J95" s="7" t="inlineStr">
+      <c r="J95" s="8" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -17168,7 +17168,7 @@
           <t>504</t>
         </is>
       </c>
-      <c r="P95" s="8" t="inlineStr">
+      <c r="P95" s="10" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -17315,17 +17315,17 @@
           <t>344</t>
         </is>
       </c>
-      <c r="H96" s="7" t="inlineStr">
+      <c r="H96" s="8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="I96" s="7" t="inlineStr">
+      <c r="I96" s="8" t="inlineStr">
         <is>
           <t>755</t>
         </is>
       </c>
-      <c r="J96" s="7" t="inlineStr">
+      <c r="J96" s="8" t="inlineStr">
         <is>
           <t>458</t>
         </is>
@@ -17502,17 +17502,17 @@
           <t>229</t>
         </is>
       </c>
-      <c r="H97" s="7" t="inlineStr">
+      <c r="H97" s="8" t="inlineStr">
         <is>
           <t>282</t>
         </is>
       </c>
-      <c r="I97" s="7" t="inlineStr">
+      <c r="I97" s="8" t="inlineStr">
         <is>
           <t>393</t>
         </is>
       </c>
-      <c r="J97" s="7" t="inlineStr">
+      <c r="J97" s="8" t="inlineStr">
         <is>
           <t>978</t>
         </is>
@@ -17567,7 +17567,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="U97" s="8" t="inlineStr">
+      <c r="U97" s="12" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -17669,7 +17669,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="D98" s="8" t="inlineStr">
+      <c r="D98" s="5" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -17689,27 +17689,27 @@
           <t>151</t>
         </is>
       </c>
-      <c r="H98" s="7" t="inlineStr">
+      <c r="H98" s="8" t="inlineStr">
         <is>
           <t>292</t>
         </is>
       </c>
-      <c r="I98" s="7" t="inlineStr">
+      <c r="I98" s="8" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="J98" s="7" t="inlineStr">
+      <c r="J98" s="8" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="K98" s="8" t="inlineStr">
+      <c r="K98" s="9" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="L98" s="9" t="inlineStr">
+      <c r="L98" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -17876,17 +17876,17 @@
           <t>014</t>
         </is>
       </c>
-      <c r="H99" s="7" t="inlineStr">
+      <c r="H99" s="8" t="inlineStr">
         <is>
           <t>573</t>
         </is>
       </c>
-      <c r="I99" s="7" t="inlineStr">
+      <c r="I99" s="8" t="inlineStr">
         <is>
           <t>880</t>
         </is>
       </c>
-      <c r="J99" s="7" t="inlineStr">
+      <c r="J99" s="8" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -17966,7 +17966,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="Z99" s="8" t="inlineStr">
+      <c r="Z99" s="14" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -18063,17 +18063,17 @@
           <t>975</t>
         </is>
       </c>
-      <c r="H100" s="7" t="inlineStr">
+      <c r="H100" s="8" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="I100" s="7" t="inlineStr">
+      <c r="I100" s="8" t="inlineStr">
         <is>
           <t>536</t>
         </is>
       </c>
-      <c r="J100" s="7" t="inlineStr">
+      <c r="J100" s="8" t="inlineStr">
         <is>
           <t>332</t>
         </is>
@@ -18083,7 +18083,7 @@
           <t>869</t>
         </is>
       </c>
-      <c r="L100" s="8" t="inlineStr">
+      <c r="L100" s="9" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -18250,17 +18250,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H101" s="7" t="inlineStr">
+      <c r="H101" s="8" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="I101" s="7" t="inlineStr">
+      <c r="I101" s="8" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="J101" s="7" t="inlineStr">
+      <c r="J101" s="8" t="inlineStr">
         <is>
           <t>367</t>
         </is>
@@ -18437,17 +18437,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H102" s="7" t="inlineStr">
+      <c r="H102" s="8" t="inlineStr">
         <is>
           <t>561</t>
         </is>
       </c>
-      <c r="I102" s="7" t="inlineStr">
+      <c r="I102" s="8" t="inlineStr">
         <is>
           <t>712</t>
         </is>
       </c>
-      <c r="J102" s="7" t="inlineStr">
+      <c r="J102" s="8" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -18624,17 +18624,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H103" s="7" t="inlineStr">
+      <c r="H103" s="8" t="inlineStr">
         <is>
           <t>519</t>
         </is>
       </c>
-      <c r="I103" s="7" t="inlineStr">
+      <c r="I103" s="8" t="inlineStr">
         <is>
           <t>602</t>
         </is>
       </c>
-      <c r="J103" s="7" t="inlineStr">
+      <c r="J103" s="8" t="inlineStr">
         <is>
           <t>878</t>
         </is>
@@ -19085,17 +19085,17 @@
           <t>717</t>
         </is>
       </c>
-      <c r="H108" s="7" t="inlineStr">
+      <c r="H108" s="8" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="I108" s="7" t="inlineStr">
+      <c r="I108" s="8" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="J108" s="7" t="inlineStr">
+      <c r="J108" s="8" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -19220,7 +19220,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="AI108" s="17" t="inlineStr">
+      <c r="AI108" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -19272,17 +19272,17 @@
           <t>025</t>
         </is>
       </c>
-      <c r="H109" s="7" t="inlineStr">
+      <c r="H109" s="8" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="I109" s="7" t="inlineStr">
+      <c r="I109" s="8" t="inlineStr">
         <is>
           <t>765</t>
         </is>
       </c>
-      <c r="J109" s="7" t="inlineStr">
+      <c r="J109" s="8" t="inlineStr">
         <is>
           <t>211</t>
         </is>
@@ -19464,12 +19464,12 @@
           <t>377</t>
         </is>
       </c>
-      <c r="I110" s="7" t="inlineStr">
+      <c r="I110" s="8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="J110" s="7" t="inlineStr">
+      <c r="J110" s="8" t="inlineStr">
         <is>
           <t>466</t>
         </is>
@@ -19646,17 +19646,17 @@
           <t>460</t>
         </is>
       </c>
-      <c r="H111" s="7" t="inlineStr">
+      <c r="H111" s="8" t="inlineStr">
         <is>
           <t>747</t>
         </is>
       </c>
-      <c r="I111" s="7" t="inlineStr">
+      <c r="I111" s="8" t="inlineStr">
         <is>
           <t>241</t>
         </is>
       </c>
-      <c r="J111" s="7" t="inlineStr">
+      <c r="J111" s="8" t="inlineStr">
         <is>
           <t>443</t>
         </is>
@@ -19833,17 +19833,17 @@
           <t>215</t>
         </is>
       </c>
-      <c r="H112" s="7" t="inlineStr">
+      <c r="H112" s="8" t="inlineStr">
         <is>
           <t>008</t>
         </is>
       </c>
-      <c r="I112" s="7" t="inlineStr">
+      <c r="I112" s="8" t="inlineStr">
         <is>
           <t>690</t>
         </is>
       </c>
-      <c r="J112" s="7" t="inlineStr">
+      <c r="J112" s="8" t="inlineStr">
         <is>
           <t>682</t>
         </is>
@@ -19953,7 +19953,7 @@
           <t>231</t>
         </is>
       </c>
-      <c r="AF112" s="16" t="inlineStr">
+      <c r="AF112" s="7" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -19995,7 +19995,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="C113" s="5" t="inlineStr">
+      <c r="C113" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -20020,17 +20020,17 @@
           <t>089</t>
         </is>
       </c>
-      <c r="H113" s="7" t="inlineStr">
+      <c r="H113" s="8" t="inlineStr">
         <is>
           <t>401</t>
         </is>
       </c>
-      <c r="I113" s="7" t="inlineStr">
+      <c r="I113" s="8" t="inlineStr">
         <is>
           <t>359</t>
         </is>
       </c>
-      <c r="J113" s="7" t="inlineStr">
+      <c r="J113" s="8" t="inlineStr">
         <is>
           <t>436</t>
         </is>
@@ -20120,7 +20120,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="AB113" s="14" t="inlineStr">
+      <c r="AB113" s="7" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -20207,17 +20207,17 @@
           <t>526</t>
         </is>
       </c>
-      <c r="H114" s="7" t="inlineStr">
+      <c r="H114" s="8" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="I114" s="7" t="inlineStr">
+      <c r="I114" s="8" t="inlineStr">
         <is>
           <t>451</t>
         </is>
       </c>
-      <c r="J114" s="7" t="inlineStr">
+      <c r="J114" s="8" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -20302,7 +20302,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="AA114" s="8" t="inlineStr">
+      <c r="AA114" s="14" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -20394,17 +20394,17 @@
           <t>833</t>
         </is>
       </c>
-      <c r="H115" s="7" t="inlineStr">
+      <c r="H115" s="8" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="I115" s="7" t="inlineStr">
+      <c r="I115" s="8" t="inlineStr">
         <is>
           <t>912</t>
         </is>
       </c>
-      <c r="J115" s="7" t="inlineStr">
+      <c r="J115" s="8" t="inlineStr">
         <is>
           <t>588</t>
         </is>
@@ -20489,7 +20489,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="AA115" s="14" t="inlineStr">
+      <c r="AA115" s="7" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -20581,17 +20581,17 @@
           <t>555</t>
         </is>
       </c>
-      <c r="H116" s="7" t="inlineStr">
+      <c r="H116" s="8" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="I116" s="7" t="inlineStr">
+      <c r="I116" s="8" t="inlineStr">
         <is>
           <t>424</t>
         </is>
       </c>
-      <c r="J116" s="7" t="inlineStr">
+      <c r="J116" s="8" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -20621,7 +20621,7 @@
           <t>725</t>
         </is>
       </c>
-      <c r="P116" s="8" t="inlineStr">
+      <c r="P116" s="10" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -20768,17 +20768,17 @@
           <t>231</t>
         </is>
       </c>
-      <c r="H117" s="7" t="inlineStr">
+      <c r="H117" s="8" t="inlineStr">
         <is>
           <t>359</t>
         </is>
       </c>
-      <c r="I117" s="7" t="inlineStr">
+      <c r="I117" s="8" t="inlineStr">
         <is>
           <t>524</t>
         </is>
       </c>
-      <c r="J117" s="7" t="inlineStr">
+      <c r="J117" s="8" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -20940,7 +20940,7 @@
           <t>472</t>
         </is>
       </c>
-      <c r="E118" s="8" t="inlineStr">
+      <c r="E118" s="6" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -20950,22 +20950,22 @@
           <t>279</t>
         </is>
       </c>
-      <c r="G118" s="6" t="inlineStr">
+      <c r="G118" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
       </c>
-      <c r="H118" s="7" t="inlineStr">
+      <c r="H118" s="8" t="inlineStr">
         <is>
           <t>016</t>
         </is>
       </c>
-      <c r="I118" s="7" t="inlineStr">
+      <c r="I118" s="8" t="inlineStr">
         <is>
           <t>487</t>
         </is>
       </c>
-      <c r="J118" s="7" t="inlineStr">
+      <c r="J118" s="8" t="inlineStr">
         <is>
           <t>998</t>
         </is>
@@ -21142,17 +21142,17 @@
           <t>062</t>
         </is>
       </c>
-      <c r="H119" s="7" t="inlineStr">
+      <c r="H119" s="8" t="inlineStr">
         <is>
           <t>931</t>
         </is>
       </c>
-      <c r="I119" s="7" t="inlineStr">
+      <c r="I119" s="8" t="inlineStr">
         <is>
           <t>832</t>
         </is>
       </c>
-      <c r="J119" s="7" t="inlineStr">
+      <c r="J119" s="8" t="inlineStr">
         <is>
           <t>894</t>
         </is>
@@ -21247,7 +21247,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="AC119" s="15" t="inlineStr">
+      <c r="AC119" s="7" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -21299,7 +21299,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B120" s="8" t="inlineStr">
+      <c r="B120" s="5" t="inlineStr">
         <is>
           <t>353</t>
         </is>
@@ -21329,17 +21329,17 @@
           <t>059</t>
         </is>
       </c>
-      <c r="H120" s="7" t="inlineStr">
+      <c r="H120" s="8" t="inlineStr">
         <is>
           <t>009</t>
         </is>
       </c>
-      <c r="I120" s="7" t="inlineStr">
+      <c r="I120" s="8" t="inlineStr">
         <is>
           <t>409</t>
         </is>
       </c>
-      <c r="J120" s="7" t="inlineStr">
+      <c r="J120" s="8" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -21516,17 +21516,17 @@
           <t>091</t>
         </is>
       </c>
-      <c r="H121" s="7" t="inlineStr">
+      <c r="H121" s="8" t="inlineStr">
         <is>
           <t>195</t>
         </is>
       </c>
-      <c r="I121" s="7" t="inlineStr">
+      <c r="I121" s="8" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="J121" s="7" t="inlineStr">
+      <c r="J121" s="8" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -21703,17 +21703,17 @@
           <t>610</t>
         </is>
       </c>
-      <c r="H122" s="7" t="inlineStr">
+      <c r="H122" s="8" t="inlineStr">
         <is>
           <t>958</t>
         </is>
       </c>
-      <c r="I122" s="7" t="inlineStr">
+      <c r="I122" s="8" t="inlineStr">
         <is>
           <t>824</t>
         </is>
       </c>
-      <c r="J122" s="7" t="inlineStr">
+      <c r="J122" s="8" t="inlineStr">
         <is>
           <t>707</t>
         </is>
@@ -21798,7 +21798,7 @@
           <t>809</t>
         </is>
       </c>
-      <c r="AA122" s="14" t="inlineStr">
+      <c r="AA122" s="7" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -21823,7 +21823,7 @@
           <t>454</t>
         </is>
       </c>
-      <c r="AF122" s="16" t="inlineStr">
+      <c r="AF122" s="7" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -21890,17 +21890,17 @@
           <t>582</t>
         </is>
       </c>
-      <c r="H123" s="7" t="inlineStr">
+      <c r="H123" s="8" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="I123" s="7" t="inlineStr">
+      <c r="I123" s="8" t="inlineStr">
         <is>
           <t>506</t>
         </is>
       </c>
-      <c r="J123" s="7" t="inlineStr">
+      <c r="J123" s="8" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -22035,7 +22035,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="AK123" s="8" t="inlineStr">
+      <c r="AK123" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -22077,17 +22077,17 @@
           <t>795</t>
         </is>
       </c>
-      <c r="H124" s="7" t="inlineStr">
+      <c r="H124" s="8" t="inlineStr">
         <is>
           <t>613</t>
         </is>
       </c>
-      <c r="I124" s="7" t="inlineStr">
+      <c r="I124" s="8" t="inlineStr">
         <is>
           <t>009</t>
         </is>
       </c>
-      <c r="J124" s="7" t="inlineStr">
+      <c r="J124" s="8" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -22264,17 +22264,17 @@
           <t>053</t>
         </is>
       </c>
-      <c r="H125" s="7" t="inlineStr">
+      <c r="H125" s="8" t="inlineStr">
         <is>
           <t>308</t>
         </is>
       </c>
-      <c r="I125" s="7" t="inlineStr">
+      <c r="I125" s="8" t="inlineStr">
         <is>
           <t>026</t>
         </is>
       </c>
-      <c r="J125" s="7" t="inlineStr">
+      <c r="J125" s="8" t="inlineStr">
         <is>
           <t>788</t>
         </is>
@@ -22451,17 +22451,17 @@
           <t>462</t>
         </is>
       </c>
-      <c r="H126" s="7" t="inlineStr">
+      <c r="H126" s="8" t="inlineStr">
         <is>
           <t>617</t>
         </is>
       </c>
-      <c r="I126" s="7" t="inlineStr">
+      <c r="I126" s="8" t="inlineStr">
         <is>
           <t>207</t>
         </is>
       </c>
-      <c r="J126" s="7" t="inlineStr">
+      <c r="J126" s="8" t="inlineStr">
         <is>
           <t>020</t>
         </is>
@@ -22638,17 +22638,17 @@
           <t>551</t>
         </is>
       </c>
-      <c r="H127" s="7" t="inlineStr">
+      <c r="H127" s="8" t="inlineStr">
         <is>
           <t>463</t>
         </is>
       </c>
-      <c r="I127" s="7" t="inlineStr">
+      <c r="I127" s="8" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="J127" s="7" t="inlineStr">
+      <c r="J127" s="8" t="inlineStr">
         <is>
           <t>073</t>
         </is>
@@ -22825,17 +22825,17 @@
           <t>723</t>
         </is>
       </c>
-      <c r="H128" s="7" t="inlineStr">
+      <c r="H128" s="8" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="I128" s="7" t="inlineStr">
+      <c r="I128" s="8" t="inlineStr">
         <is>
           <t>798</t>
         </is>
       </c>
-      <c r="J128" s="7" t="inlineStr">
+      <c r="J128" s="8" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -22960,7 +22960,7 @@
           <t>470</t>
         </is>
       </c>
-      <c r="AI128" s="17" t="inlineStr">
+      <c r="AI128" s="7" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -23012,17 +23012,17 @@
           <t>532</t>
         </is>
       </c>
-      <c r="H129" s="7" t="inlineStr">
+      <c r="H129" s="8" t="inlineStr">
         <is>
           <t>897</t>
         </is>
       </c>
-      <c r="I129" s="7" t="inlineStr">
+      <c r="I129" s="8" t="inlineStr">
         <is>
           <t>260</t>
         </is>
       </c>
-      <c r="J129" s="7" t="inlineStr">
+      <c r="J129" s="8" t="inlineStr">
         <is>
           <t>040</t>
         </is>
@@ -23199,17 +23199,17 @@
           <t>487</t>
         </is>
       </c>
-      <c r="H130" s="7" t="inlineStr">
+      <c r="H130" s="8" t="inlineStr">
         <is>
           <t>588</t>
         </is>
       </c>
-      <c r="I130" s="7" t="inlineStr">
+      <c r="I130" s="8" t="inlineStr">
         <is>
           <t>539</t>
         </is>
       </c>
-      <c r="J130" s="7" t="inlineStr">
+      <c r="J130" s="8" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -23386,17 +23386,17 @@
           <t>019</t>
         </is>
       </c>
-      <c r="H131" s="7" t="inlineStr">
+      <c r="H131" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I131" s="7" t="inlineStr">
+      <c r="I131" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J131" s="7" t="inlineStr">
+      <c r="J131" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -23573,17 +23573,17 @@
           <t>424</t>
         </is>
       </c>
-      <c r="H132" s="7" t="inlineStr">
+      <c r="H132" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I132" s="7" t="inlineStr">
+      <c r="I132" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J132" s="7" t="inlineStr">
+      <c r="J132" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -23760,17 +23760,17 @@
           <t>327</t>
         </is>
       </c>
-      <c r="H133" s="7" t="inlineStr">
+      <c r="H133" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I133" s="7" t="inlineStr">
+      <c r="I133" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J133" s="7" t="inlineStr">
+      <c r="J133" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -23905,7 +23905,7 @@
           <t>631</t>
         </is>
       </c>
-      <c r="AK133" s="17" t="inlineStr">
+      <c r="AK133" s="7" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -23947,17 +23947,17 @@
           <t>938</t>
         </is>
       </c>
-      <c r="H134" s="7" t="inlineStr">
+      <c r="H134" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I134" s="7" t="inlineStr">
+      <c r="I134" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J134" s="7" t="inlineStr">
+      <c r="J134" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -24134,17 +24134,17 @@
           <t>847</t>
         </is>
       </c>
-      <c r="H135" s="7" t="inlineStr">
+      <c r="H135" s="8" t="inlineStr">
         <is>
           <t>195</t>
         </is>
       </c>
-      <c r="I135" s="7" t="inlineStr">
+      <c r="I135" s="8" t="inlineStr">
         <is>
           <t>708</t>
         </is>
       </c>
-      <c r="J135" s="7" t="inlineStr">
+      <c r="J135" s="8" t="inlineStr">
         <is>
           <t>060</t>
         </is>
@@ -24199,7 +24199,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="U135" s="8" t="inlineStr">
+      <c r="U135" s="12" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -24321,17 +24321,17 @@
           <t>009</t>
         </is>
       </c>
-      <c r="H136" s="7" t="inlineStr">
+      <c r="H136" s="8" t="inlineStr">
         <is>
           <t>779</t>
         </is>
       </c>
-      <c r="I136" s="7" t="inlineStr">
+      <c r="I136" s="8" t="inlineStr">
         <is>
           <t>996</t>
         </is>
       </c>
-      <c r="J136" s="7" t="inlineStr">
+      <c r="J136" s="8" t="inlineStr">
         <is>
           <t>121</t>
         </is>
@@ -24508,17 +24508,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H137" s="7" t="inlineStr">
+      <c r="H137" s="8" t="inlineStr">
         <is>
           <t>093</t>
         </is>
       </c>
-      <c r="I137" s="7" t="inlineStr">
+      <c r="I137" s="8" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="J137" s="7" t="inlineStr">
+      <c r="J137" s="8" t="inlineStr">
         <is>
           <t>600</t>
         </is>
@@ -24695,17 +24695,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H138" s="7" t="inlineStr">
+      <c r="H138" s="8" t="inlineStr">
         <is>
           <t>824</t>
         </is>
       </c>
-      <c r="I138" s="7" t="inlineStr">
+      <c r="I138" s="8" t="inlineStr">
         <is>
           <t>127</t>
         </is>
       </c>
-      <c r="J138" s="7" t="inlineStr">
+      <c r="J138" s="8" t="inlineStr">
         <is>
           <t>514</t>
         </is>
@@ -25156,17 +25156,17 @@
           <t>287</t>
         </is>
       </c>
-      <c r="H143" s="7" t="inlineStr">
+      <c r="H143" s="8" t="inlineStr">
         <is>
           <t>656</t>
         </is>
       </c>
-      <c r="I143" s="7" t="inlineStr">
+      <c r="I143" s="8" t="inlineStr">
         <is>
           <t>837</t>
         </is>
       </c>
-      <c r="J143" s="7" t="inlineStr">
+      <c r="J143" s="8" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -25343,17 +25343,17 @@
           <t>720</t>
         </is>
       </c>
-      <c r="H144" s="7" t="inlineStr">
+      <c r="H144" s="8" t="inlineStr">
         <is>
           <t>013</t>
         </is>
       </c>
-      <c r="I144" s="7" t="inlineStr">
+      <c r="I144" s="8" t="inlineStr">
         <is>
           <t>452</t>
         </is>
       </c>
-      <c r="J144" s="7" t="inlineStr">
+      <c r="J144" s="8" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -25505,7 +25505,7 @@
           <t>512</t>
         </is>
       </c>
-      <c r="C145" s="8" t="inlineStr">
+      <c r="C145" s="5" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -25530,17 +25530,17 @@
           <t>366</t>
         </is>
       </c>
-      <c r="H145" s="7" t="inlineStr">
+      <c r="H145" s="8" t="inlineStr">
         <is>
           <t>897</t>
         </is>
       </c>
-      <c r="I145" s="7" t="inlineStr">
+      <c r="I145" s="8" t="inlineStr">
         <is>
           <t>223</t>
         </is>
       </c>
-      <c r="J145" s="7" t="inlineStr">
+      <c r="J145" s="8" t="inlineStr">
         <is>
           <t>445</t>
         </is>
@@ -25675,7 +25675,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="AK145" s="17" t="inlineStr">
+      <c r="AK145" s="7" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -25717,17 +25717,17 @@
           <t>573</t>
         </is>
       </c>
-      <c r="H146" s="7" t="inlineStr">
+      <c r="H146" s="8" t="inlineStr">
         <is>
           <t>685</t>
         </is>
       </c>
-      <c r="I146" s="7" t="inlineStr">
+      <c r="I146" s="8" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="J146" s="7" t="inlineStr">
+      <c r="J146" s="8" t="inlineStr">
         <is>
           <t>099</t>
         </is>
@@ -25904,17 +25904,17 @@
           <t>718</t>
         </is>
       </c>
-      <c r="H147" s="7" t="inlineStr">
+      <c r="H147" s="8" t="inlineStr">
         <is>
           <t>828</t>
         </is>
       </c>
-      <c r="I147" s="7" t="inlineStr">
+      <c r="I147" s="8" t="inlineStr">
         <is>
           <t>630</t>
         </is>
       </c>
-      <c r="J147" s="7" t="inlineStr">
+      <c r="J147" s="8" t="inlineStr">
         <is>
           <t>862</t>
         </is>
@@ -26091,17 +26091,17 @@
           <t>646</t>
         </is>
       </c>
-      <c r="H148" s="7" t="inlineStr">
+      <c r="H148" s="8" t="inlineStr">
         <is>
           <t>452</t>
         </is>
       </c>
-      <c r="I148" s="7" t="inlineStr">
+      <c r="I148" s="8" t="inlineStr">
         <is>
           <t>826</t>
         </is>
       </c>
-      <c r="J148" s="7" t="inlineStr">
+      <c r="J148" s="8" t="inlineStr">
         <is>
           <t>698</t>
         </is>
@@ -26278,17 +26278,17 @@
           <t>653</t>
         </is>
       </c>
-      <c r="H149" s="7" t="inlineStr">
+      <c r="H149" s="8" t="inlineStr">
         <is>
           <t>308</t>
         </is>
       </c>
-      <c r="I149" s="7" t="inlineStr">
+      <c r="I149" s="8" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="J149" s="7" t="inlineStr">
+      <c r="J149" s="8" t="inlineStr">
         <is>
           <t>494</t>
         </is>
@@ -26378,7 +26378,7 @@
           <t>855</t>
         </is>
       </c>
-      <c r="AB149" s="14" t="inlineStr">
+      <c r="AB149" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -26435,7 +26435,7 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B150" s="8" t="inlineStr">
+      <c r="B150" s="5" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -26465,17 +26465,17 @@
           <t>442</t>
         </is>
       </c>
-      <c r="H150" s="7" t="inlineStr">
+      <c r="H150" s="8" t="inlineStr">
         <is>
           <t>354</t>
         </is>
       </c>
-      <c r="I150" s="7" t="inlineStr">
+      <c r="I150" s="8" t="inlineStr">
         <is>
           <t>611</t>
         </is>
       </c>
-      <c r="J150" s="7" t="inlineStr">
+      <c r="J150" s="8" t="inlineStr">
         <is>
           <t>153</t>
         </is>
@@ -26510,7 +26510,7 @@
           <t>250</t>
         </is>
       </c>
-      <c r="Q150" s="11" t="inlineStr">
+      <c r="Q150" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -26652,17 +26652,17 @@
           <t>316</t>
         </is>
       </c>
-      <c r="H151" s="7" t="inlineStr">
+      <c r="H151" s="8" t="inlineStr">
         <is>
           <t>008</t>
         </is>
       </c>
-      <c r="I151" s="7" t="inlineStr">
+      <c r="I151" s="8" t="inlineStr">
         <is>
           <t>462</t>
         </is>
       </c>
-      <c r="J151" s="7" t="inlineStr">
+      <c r="J151" s="8" t="inlineStr">
         <is>
           <t>052</t>
         </is>
@@ -26712,7 +26712,7 @@
           <t>084</t>
         </is>
       </c>
-      <c r="T151" s="12" t="inlineStr">
+      <c r="T151" s="7" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -26839,17 +26839,17 @@
           <t>677</t>
         </is>
       </c>
-      <c r="H152" s="7" t="inlineStr">
+      <c r="H152" s="8" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="I152" s="7" t="inlineStr">
+      <c r="I152" s="8" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="J152" s="7" t="inlineStr">
+      <c r="J152" s="8" t="inlineStr">
         <is>
           <t>525</t>
         </is>
@@ -26874,7 +26874,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="O152" s="10" t="inlineStr">
+      <c r="O152" s="7" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -27026,17 +27026,17 @@
           <t>546</t>
         </is>
       </c>
-      <c r="H153" s="7" t="inlineStr">
+      <c r="H153" s="8" t="inlineStr">
         <is>
           <t>471</t>
         </is>
       </c>
-      <c r="I153" s="7" t="inlineStr">
+      <c r="I153" s="8" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="J153" s="7" t="inlineStr">
+      <c r="J153" s="8" t="inlineStr">
         <is>
           <t>577</t>
         </is>
@@ -27213,17 +27213,17 @@
           <t>023</t>
         </is>
       </c>
-      <c r="H154" s="7" t="inlineStr">
+      <c r="H154" s="8" t="inlineStr">
         <is>
           <t>418</t>
         </is>
       </c>
-      <c r="I154" s="7" t="inlineStr">
+      <c r="I154" s="8" t="inlineStr">
         <is>
           <t>125</t>
         </is>
       </c>
-      <c r="J154" s="7" t="inlineStr">
+      <c r="J154" s="8" t="inlineStr">
         <is>
           <t>881</t>
         </is>
@@ -27400,17 +27400,17 @@
           <t>283</t>
         </is>
       </c>
-      <c r="H155" s="7" t="inlineStr">
+      <c r="H155" s="8" t="inlineStr">
         <is>
           <t>269</t>
         </is>
       </c>
-      <c r="I155" s="7" t="inlineStr">
+      <c r="I155" s="8" t="inlineStr">
         <is>
           <t>438</t>
         </is>
       </c>
-      <c r="J155" s="7" t="inlineStr">
+      <c r="J155" s="8" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -27587,17 +27587,17 @@
           <t>544</t>
         </is>
       </c>
-      <c r="H156" s="7" t="inlineStr">
+      <c r="H156" s="8" t="inlineStr">
         <is>
           <t>598</t>
         </is>
       </c>
-      <c r="I156" s="7" t="inlineStr">
+      <c r="I156" s="8" t="inlineStr">
         <is>
           <t>374</t>
         </is>
       </c>
-      <c r="J156" s="7" t="inlineStr">
+      <c r="J156" s="8" t="inlineStr">
         <is>
           <t>476</t>
         </is>
@@ -27652,7 +27652,7 @@
           <t>543</t>
         </is>
       </c>
-      <c r="U156" s="12" t="inlineStr">
+      <c r="U156" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -27774,17 +27774,17 @@
           <t>088</t>
         </is>
       </c>
-      <c r="H157" s="7" t="inlineStr">
+      <c r="H157" s="8" t="inlineStr">
         <is>
           <t>072</t>
         </is>
       </c>
-      <c r="I157" s="7" t="inlineStr">
+      <c r="I157" s="8" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="J157" s="7" t="inlineStr">
+      <c r="J157" s="8" t="inlineStr">
         <is>
           <t>152</t>
         </is>
@@ -27961,17 +27961,17 @@
           <t>567</t>
         </is>
       </c>
-      <c r="H158" s="7" t="inlineStr">
+      <c r="H158" s="8" t="inlineStr">
         <is>
           <t>481</t>
         </is>
       </c>
-      <c r="I158" s="7" t="inlineStr">
+      <c r="I158" s="8" t="inlineStr">
         <is>
           <t>556</t>
         </is>
       </c>
-      <c r="J158" s="7" t="inlineStr">
+      <c r="J158" s="8" t="inlineStr">
         <is>
           <t>468</t>
         </is>
@@ -28148,17 +28148,17 @@
           <t>250</t>
         </is>
       </c>
-      <c r="H159" s="7" t="inlineStr">
+      <c r="H159" s="8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="I159" s="7" t="inlineStr">
+      <c r="I159" s="8" t="inlineStr">
         <is>
           <t>721</t>
         </is>
       </c>
-      <c r="J159" s="7" t="inlineStr">
+      <c r="J159" s="8" t="inlineStr">
         <is>
           <t>727</t>
         </is>
@@ -28335,17 +28335,17 @@
           <t>076</t>
         </is>
       </c>
-      <c r="H160" s="7" t="inlineStr">
+      <c r="H160" s="8" t="inlineStr">
         <is>
           <t>965</t>
         </is>
       </c>
-      <c r="I160" s="7" t="inlineStr">
+      <c r="I160" s="8" t="inlineStr">
         <is>
           <t>524</t>
         </is>
       </c>
-      <c r="J160" s="7" t="inlineStr">
+      <c r="J160" s="8" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -28522,17 +28522,17 @@
           <t>879</t>
         </is>
       </c>
-      <c r="H161" s="7" t="inlineStr">
+      <c r="H161" s="8" t="inlineStr">
         <is>
           <t>733</t>
         </is>
       </c>
-      <c r="I161" s="7" t="inlineStr">
+      <c r="I161" s="8" t="inlineStr">
         <is>
           <t>681</t>
         </is>
       </c>
-      <c r="J161" s="7" t="inlineStr">
+      <c r="J161" s="8" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -28709,17 +28709,17 @@
           <t>029</t>
         </is>
       </c>
-      <c r="H162" s="7" t="inlineStr">
+      <c r="H162" s="8" t="inlineStr">
         <is>
           <t>278</t>
         </is>
       </c>
-      <c r="I162" s="7" t="inlineStr">
+      <c r="I162" s="8" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="J162" s="7" t="inlineStr">
+      <c r="J162" s="8" t="inlineStr">
         <is>
           <t>147</t>
         </is>
@@ -28896,17 +28896,17 @@
           <t>819</t>
         </is>
       </c>
-      <c r="H163" s="7" t="inlineStr">
+      <c r="H163" s="8" t="inlineStr">
         <is>
           <t>911</t>
         </is>
       </c>
-      <c r="I163" s="7" t="inlineStr">
+      <c r="I163" s="8" t="inlineStr">
         <is>
           <t>928</t>
         </is>
       </c>
-      <c r="J163" s="7" t="inlineStr">
+      <c r="J163" s="8" t="inlineStr">
         <is>
           <t>429</t>
         </is>
@@ -29088,12 +29088,12 @@
           <t>448</t>
         </is>
       </c>
-      <c r="I164" s="7" t="inlineStr">
+      <c r="I164" s="8" t="inlineStr">
         <is>
           <t>021</t>
         </is>
       </c>
-      <c r="J164" s="7" t="inlineStr">
+      <c r="J164" s="8" t="inlineStr">
         <is>
           <t>507</t>
         </is>
@@ -29270,17 +29270,17 @@
           <t>860</t>
         </is>
       </c>
-      <c r="H165" s="7" t="inlineStr">
+      <c r="H165" s="8" t="inlineStr">
         <is>
           <t>913</t>
         </is>
       </c>
-      <c r="I165" s="7" t="inlineStr">
+      <c r="I165" s="8" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="J165" s="7" t="inlineStr">
+      <c r="J165" s="8" t="inlineStr">
         <is>
           <t>705</t>
         </is>
@@ -29457,17 +29457,17 @@
           <t>686</t>
         </is>
       </c>
-      <c r="H166" s="7" t="inlineStr">
+      <c r="H166" s="8" t="inlineStr">
         <is>
           <t>126</t>
         </is>
       </c>
-      <c r="I166" s="7" t="inlineStr">
+      <c r="I166" s="8" t="inlineStr">
         <is>
           <t>789</t>
         </is>
       </c>
-      <c r="J166" s="7" t="inlineStr">
+      <c r="J166" s="8" t="inlineStr">
         <is>
           <t>258</t>
         </is>
@@ -29644,17 +29644,17 @@
           <t>850</t>
         </is>
       </c>
-      <c r="H167" s="7" t="inlineStr">
+      <c r="H167" s="8" t="inlineStr">
         <is>
           <t>632</t>
         </is>
       </c>
-      <c r="I167" s="7" t="inlineStr">
+      <c r="I167" s="8" t="inlineStr">
         <is>
           <t>403</t>
         </is>
       </c>
-      <c r="J167" s="7" t="inlineStr">
+      <c r="J167" s="8" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -29831,17 +29831,17 @@
           <t>242</t>
         </is>
       </c>
-      <c r="H168" s="7" t="inlineStr">
+      <c r="H168" s="8" t="inlineStr">
         <is>
           <t>911</t>
         </is>
       </c>
-      <c r="I168" s="7" t="inlineStr">
+      <c r="I168" s="8" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="J168" s="7" t="inlineStr">
+      <c r="J168" s="8" t="inlineStr">
         <is>
           <t>762</t>
         </is>
@@ -30018,17 +30018,17 @@
           <t>408</t>
         </is>
       </c>
-      <c r="H169" s="7" t="inlineStr">
+      <c r="H169" s="8" t="inlineStr">
         <is>
           <t>932</t>
         </is>
       </c>
-      <c r="I169" s="7" t="inlineStr">
+      <c r="I169" s="8" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="J169" s="7" t="inlineStr">
+      <c r="J169" s="8" t="inlineStr">
         <is>
           <t>885</t>
         </is>
@@ -30205,17 +30205,17 @@
           <t>746</t>
         </is>
       </c>
-      <c r="H170" s="7" t="inlineStr">
+      <c r="H170" s="8" t="inlineStr">
         <is>
           <t>976</t>
         </is>
       </c>
-      <c r="I170" s="7" t="inlineStr">
+      <c r="I170" s="8" t="inlineStr">
         <is>
           <t>861</t>
         </is>
       </c>
-      <c r="J170" s="7" t="inlineStr">
+      <c r="J170" s="8" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -30392,17 +30392,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H171" s="7" t="inlineStr">
+      <c r="H171" s="8" t="inlineStr">
         <is>
           <t>364</t>
         </is>
       </c>
-      <c r="I171" s="7" t="inlineStr">
+      <c r="I171" s="8" t="inlineStr">
         <is>
           <t>427</t>
         </is>
       </c>
-      <c r="J171" s="7" t="inlineStr">
+      <c r="J171" s="8" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -30417,7 +30417,7 @@
           <t>922</t>
         </is>
       </c>
-      <c r="M171" s="9" t="inlineStr">
+      <c r="M171" s="7" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -30579,17 +30579,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H172" s="7" t="inlineStr">
+      <c r="H172" s="8" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="I172" s="7" t="inlineStr">
+      <c r="I172" s="8" t="inlineStr">
         <is>
           <t>008</t>
         </is>
       </c>
-      <c r="J172" s="7" t="inlineStr">
+      <c r="J172" s="8" t="inlineStr">
         <is>
           <t>365</t>
         </is>
@@ -30614,7 +30614,7 @@
           <t>444</t>
         </is>
       </c>
-      <c r="O172" s="10" t="inlineStr">
+      <c r="O172" s="7" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -30766,17 +30766,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H173" s="7" t="inlineStr">
+      <c r="H173" s="8" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="I173" s="7" t="inlineStr">
+      <c r="I173" s="8" t="inlineStr">
         <is>
           <t>247</t>
         </is>
       </c>
-      <c r="J173" s="7" t="inlineStr">
+      <c r="J173" s="8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
@@ -31227,12 +31227,12 @@
           <t>880</t>
         </is>
       </c>
-      <c r="H178" s="7" t="inlineStr">
+      <c r="H178" s="8" t="inlineStr">
         <is>
           <t>824</t>
         </is>
       </c>
-      <c r="I178" s="7" t="inlineStr">
+      <c r="I178" s="8" t="inlineStr">
         <is>
           <t>451</t>
         </is>
@@ -31357,7 +31357,7 @@
           <t>992</t>
         </is>
       </c>
-      <c r="AH178" s="8" t="inlineStr">
+      <c r="AH178" s="16" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -31414,17 +31414,17 @@
           <t>855</t>
         </is>
       </c>
-      <c r="H179" s="7" t="inlineStr">
+      <c r="H179" s="8" t="inlineStr">
         <is>
           <t>207</t>
         </is>
       </c>
-      <c r="I179" s="7" t="inlineStr">
+      <c r="I179" s="8" t="inlineStr">
         <is>
           <t>053</t>
         </is>
       </c>
-      <c r="J179" s="7" t="inlineStr">
+      <c r="J179" s="8" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -31434,7 +31434,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="L179" s="9" t="inlineStr">
+      <c r="L179" s="7" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -31601,17 +31601,17 @@
           <t>146</t>
         </is>
       </c>
-      <c r="H180" s="7" t="inlineStr">
+      <c r="H180" s="8" t="inlineStr">
         <is>
           <t>971</t>
         </is>
       </c>
-      <c r="I180" s="7" t="inlineStr">
+      <c r="I180" s="8" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="J180" s="7" t="inlineStr">
+      <c r="J180" s="8" t="inlineStr">
         <is>
           <t>303</t>
         </is>
@@ -31788,17 +31788,17 @@
           <t>967</t>
         </is>
       </c>
-      <c r="H181" s="7" t="inlineStr">
+      <c r="H181" s="8" t="inlineStr">
         <is>
           <t>523</t>
         </is>
       </c>
-      <c r="I181" s="7" t="inlineStr">
+      <c r="I181" s="8" t="inlineStr">
         <is>
           <t>577</t>
         </is>
       </c>
-      <c r="J181" s="7" t="inlineStr">
+      <c r="J181" s="8" t="inlineStr">
         <is>
           <t>318</t>
         </is>
@@ -31975,17 +31975,17 @@
           <t>751</t>
         </is>
       </c>
-      <c r="H182" s="7" t="inlineStr">
+      <c r="H182" s="8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="I182" s="7" t="inlineStr">
+      <c r="I182" s="8" t="inlineStr">
         <is>
           <t>549</t>
         </is>
       </c>
-      <c r="J182" s="7" t="inlineStr">
+      <c r="J182" s="8" t="inlineStr">
         <is>
           <t>382</t>
         </is>
@@ -32162,17 +32162,17 @@
           <t>482</t>
         </is>
       </c>
-      <c r="H183" s="7" t="inlineStr">
+      <c r="H183" s="8" t="inlineStr">
         <is>
           <t>105</t>
         </is>
       </c>
-      <c r="I183" s="7" t="inlineStr">
+      <c r="I183" s="8" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="J183" s="7" t="inlineStr">
+      <c r="J183" s="8" t="inlineStr">
         <is>
           <t>515</t>
         </is>
@@ -32207,7 +32207,7 @@
           <t>983</t>
         </is>
       </c>
-      <c r="Q183" s="11" t="inlineStr">
+      <c r="Q183" s="7" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -32349,17 +32349,17 @@
           <t>216</t>
         </is>
       </c>
-      <c r="H184" s="7" t="inlineStr">
+      <c r="H184" s="8" t="inlineStr">
         <is>
           <t>053</t>
         </is>
       </c>
-      <c r="I184" s="7" t="inlineStr">
+      <c r="I184" s="8" t="inlineStr">
         <is>
           <t>990</t>
         </is>
       </c>
-      <c r="J184" s="7" t="inlineStr">
+      <c r="J184" s="8" t="inlineStr">
         <is>
           <t>298</t>
         </is>
@@ -32536,17 +32536,17 @@
           <t>856</t>
         </is>
       </c>
-      <c r="H185" s="7" t="inlineStr">
+      <c r="H185" s="8" t="inlineStr">
         <is>
           <t>105</t>
         </is>
       </c>
-      <c r="I185" s="7" t="inlineStr">
+      <c r="I185" s="8" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="J185" s="7" t="inlineStr">
+      <c r="J185" s="8" t="inlineStr">
         <is>
           <t>808</t>
         </is>
@@ -32708,7 +32708,7 @@
           <t>655</t>
         </is>
       </c>
-      <c r="E186" s="8" t="inlineStr">
+      <c r="E186" s="6" t="inlineStr">
         <is>
           <t>353</t>
         </is>
@@ -32723,17 +32723,17 @@
           <t>751</t>
         </is>
       </c>
-      <c r="H186" s="7" t="inlineStr">
+      <c r="H186" s="8" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="I186" s="7" t="inlineStr">
+      <c r="I186" s="8" t="inlineStr">
         <is>
           <t>965</t>
         </is>
       </c>
-      <c r="J186" s="7" t="inlineStr">
+      <c r="J186" s="8" t="inlineStr">
         <is>
           <t>665</t>
         </is>
@@ -32910,17 +32910,17 @@
           <t>974</t>
         </is>
       </c>
-      <c r="H187" s="7" t="inlineStr">
+      <c r="H187" s="8" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="I187" s="7" t="inlineStr">
+      <c r="I187" s="8" t="inlineStr">
         <is>
           <t>431</t>
         </is>
       </c>
-      <c r="J187" s="7" t="inlineStr">
+      <c r="J187" s="8" t="inlineStr">
         <is>
           <t>806</t>
         </is>
@@ -33005,7 +33005,7 @@
           <t>570</t>
         </is>
       </c>
-      <c r="AA187" s="8" t="inlineStr">
+      <c r="AA187" s="14" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -33097,17 +33097,17 @@
           <t>516</t>
         </is>
       </c>
-      <c r="H188" s="7" t="inlineStr">
+      <c r="H188" s="8" t="inlineStr">
         <is>
           <t>155</t>
         </is>
       </c>
-      <c r="I188" s="7" t="inlineStr">
+      <c r="I188" s="8" t="inlineStr">
         <is>
           <t>851</t>
         </is>
       </c>
-      <c r="J188" s="7" t="inlineStr">
+      <c r="J188" s="8" t="inlineStr">
         <is>
           <t>770</t>
         </is>
@@ -33284,7 +33284,7 @@
           <t>919</t>
         </is>
       </c>
-      <c r="H189" s="7" t="inlineStr">
+      <c r="H189" s="8" t="inlineStr">
         <is>
           <t>563</t>
         </is>
@@ -33294,7 +33294,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="J189" s="7" t="inlineStr">
+      <c r="J189" s="8" t="inlineStr">
         <is>
           <t>339</t>
         </is>
@@ -33329,7 +33329,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="Q189" s="8" t="inlineStr">
+      <c r="Q189" s="11" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -33359,7 +33359,7 @@
           <t>255</t>
         </is>
       </c>
-      <c r="W189" s="13" t="inlineStr">
+      <c r="W189" s="7" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -33471,17 +33471,17 @@
           <t>988</t>
         </is>
       </c>
-      <c r="H190" s="7" t="inlineStr">
+      <c r="H190" s="8" t="inlineStr">
         <is>
           <t>379</t>
         </is>
       </c>
-      <c r="I190" s="7" t="inlineStr">
+      <c r="I190" s="8" t="inlineStr">
         <is>
           <t>969</t>
         </is>
       </c>
-      <c r="J190" s="7" t="inlineStr">
+      <c r="J190" s="8" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -33526,7 +33526,7 @@
           <t>014</t>
         </is>
       </c>
-      <c r="S190" s="11" t="inlineStr">
+      <c r="S190" s="7" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -33658,17 +33658,17 @@
           <t>941</t>
         </is>
       </c>
-      <c r="H191" s="7" t="inlineStr">
+      <c r="H191" s="8" t="inlineStr">
         <is>
           <t>458</t>
         </is>
       </c>
-      <c r="I191" s="7" t="inlineStr">
+      <c r="I191" s="8" t="inlineStr">
         <is>
           <t>888</t>
         </is>
       </c>
-      <c r="J191" s="7" t="inlineStr">
+      <c r="J191" s="8" t="inlineStr">
         <is>
           <t>345</t>
         </is>
@@ -33698,7 +33698,7 @@
           <t>818</t>
         </is>
       </c>
-      <c r="P191" s="10" t="inlineStr">
+      <c r="P191" s="7" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -33763,7 +33763,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="AC191" s="8" t="inlineStr">
+      <c r="AC191" s="15" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -33845,17 +33845,17 @@
           <t>438</t>
         </is>
       </c>
-      <c r="H192" s="7" t="inlineStr">
+      <c r="H192" s="8" t="inlineStr">
         <is>
           <t>768</t>
         </is>
       </c>
-      <c r="I192" s="7" t="inlineStr">
+      <c r="I192" s="8" t="inlineStr">
         <is>
           <t>166</t>
         </is>
       </c>
-      <c r="J192" s="7" t="inlineStr">
+      <c r="J192" s="8" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -34032,17 +34032,17 @@
           <t>008</t>
         </is>
       </c>
-      <c r="H193" s="7" t="inlineStr">
+      <c r="H193" s="8" t="inlineStr">
         <is>
           <t>683</t>
         </is>
       </c>
-      <c r="I193" s="7" t="inlineStr">
+      <c r="I193" s="8" t="inlineStr">
         <is>
           <t>067</t>
         </is>
       </c>
-      <c r="J193" s="7" t="inlineStr">
+      <c r="J193" s="8" t="inlineStr">
         <is>
           <t>057</t>
         </is>
@@ -34189,7 +34189,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B194" s="8" t="inlineStr">
+      <c r="B194" s="5" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -34219,17 +34219,17 @@
           <t>991</t>
         </is>
       </c>
-      <c r="H194" s="7" t="inlineStr">
+      <c r="H194" s="8" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="I194" s="7" t="inlineStr">
+      <c r="I194" s="8" t="inlineStr">
         <is>
           <t>290</t>
         </is>
       </c>
-      <c r="J194" s="7" t="inlineStr">
+      <c r="J194" s="8" t="inlineStr">
         <is>
           <t>520</t>
         </is>
@@ -34344,7 +34344,7 @@
           <t>965</t>
         </is>
       </c>
-      <c r="AG194" s="8" t="inlineStr">
+      <c r="AG194" s="16" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -34406,17 +34406,17 @@
           <t>876</t>
         </is>
       </c>
-      <c r="H195" s="7" t="inlineStr">
+      <c r="H195" s="8" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="I195" s="7" t="inlineStr">
+      <c r="I195" s="8" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="J195" s="7" t="inlineStr">
+      <c r="J195" s="8" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -34551,7 +34551,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="AK195" s="8" t="inlineStr">
+      <c r="AK195" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -34593,17 +34593,17 @@
           <t>269</t>
         </is>
       </c>
-      <c r="H196" s="7" t="inlineStr">
+      <c r="H196" s="8" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="I196" s="7" t="inlineStr">
+      <c r="I196" s="8" t="inlineStr">
         <is>
           <t>897</t>
         </is>
       </c>
-      <c r="J196" s="7" t="inlineStr">
+      <c r="J196" s="8" t="inlineStr">
         <is>
           <t>727</t>
         </is>
@@ -34683,7 +34683,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="Z196" s="14" t="inlineStr">
+      <c r="Z196" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -34775,22 +34775,22 @@
           <t>328</t>
         </is>
       </c>
-      <c r="G197" s="6" t="inlineStr">
+      <c r="G197" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
       </c>
-      <c r="H197" s="7" t="inlineStr">
+      <c r="H197" s="8" t="inlineStr">
         <is>
           <t>169</t>
         </is>
       </c>
-      <c r="I197" s="7" t="inlineStr">
+      <c r="I197" s="8" t="inlineStr">
         <is>
           <t>431</t>
         </is>
       </c>
-      <c r="J197" s="7" t="inlineStr">
+      <c r="J197" s="8" t="inlineStr">
         <is>
           <t>098</t>
         </is>
@@ -34952,7 +34952,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="E198" s="8" t="inlineStr">
+      <c r="E198" s="6" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -34967,17 +34967,17 @@
           <t>319</t>
         </is>
       </c>
-      <c r="H198" s="7" t="inlineStr">
+      <c r="H198" s="8" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="I198" s="7" t="inlineStr">
+      <c r="I198" s="8" t="inlineStr">
         <is>
           <t>007</t>
         </is>
       </c>
-      <c r="J198" s="7" t="inlineStr">
+      <c r="J198" s="8" t="inlineStr">
         <is>
           <t>369</t>
         </is>
@@ -35129,7 +35129,7 @@
           <t>907</t>
         </is>
       </c>
-      <c r="C199" s="8" t="inlineStr">
+      <c r="C199" s="5" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -35154,17 +35154,17 @@
           <t>387</t>
         </is>
       </c>
-      <c r="H199" s="7" t="inlineStr">
+      <c r="H199" s="8" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="I199" s="7" t="inlineStr">
+      <c r="I199" s="8" t="inlineStr">
         <is>
           <t>604</t>
         </is>
       </c>
-      <c r="J199" s="7" t="inlineStr">
+      <c r="J199" s="8" t="inlineStr">
         <is>
           <t>604</t>
         </is>
@@ -35224,7 +35224,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="V199" s="12" t="inlineStr">
+      <c r="V199" s="7" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -35341,17 +35341,17 @@
           <t>671</t>
         </is>
       </c>
-      <c r="H200" s="7" t="inlineStr">
+      <c r="H200" s="8" t="inlineStr">
         <is>
           <t>663</t>
         </is>
       </c>
-      <c r="I200" s="7" t="inlineStr">
+      <c r="I200" s="8" t="inlineStr">
         <is>
           <t>379</t>
         </is>
       </c>
-      <c r="J200" s="7" t="inlineStr">
+      <c r="J200" s="8" t="inlineStr">
         <is>
           <t>948</t>
         </is>
@@ -35528,17 +35528,17 @@
           <t>842</t>
         </is>
       </c>
-      <c r="H201" s="7" t="inlineStr">
+      <c r="H201" s="8" t="inlineStr">
         <is>
           <t>561</t>
         </is>
       </c>
-      <c r="I201" s="7" t="inlineStr">
+      <c r="I201" s="8" t="inlineStr">
         <is>
           <t>178</t>
         </is>
       </c>
-      <c r="J201" s="7" t="inlineStr">
+      <c r="J201" s="8" t="inlineStr">
         <is>
           <t>394</t>
         </is>
@@ -35715,17 +35715,17 @@
           <t>164</t>
         </is>
       </c>
-      <c r="H202" s="7" t="inlineStr">
+      <c r="H202" s="8" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="I202" s="7" t="inlineStr">
+      <c r="I202" s="8" t="inlineStr">
         <is>
           <t>252</t>
         </is>
       </c>
-      <c r="J202" s="7" t="inlineStr">
+      <c r="J202" s="8" t="inlineStr">
         <is>
           <t>946</t>
         </is>
@@ -35902,17 +35902,17 @@
           <t>096</t>
         </is>
       </c>
-      <c r="H203" s="7" t="inlineStr">
+      <c r="H203" s="8" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="I203" s="7" t="inlineStr">
+      <c r="I203" s="8" t="inlineStr">
         <is>
           <t>754</t>
         </is>
       </c>
-      <c r="J203" s="7" t="inlineStr">
+      <c r="J203" s="8" t="inlineStr">
         <is>
           <t>647</t>
         </is>
@@ -36089,17 +36089,17 @@
           <t>593</t>
         </is>
       </c>
-      <c r="H204" s="7" t="inlineStr">
+      <c r="H204" s="8" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="I204" s="7" t="inlineStr">
+      <c r="I204" s="8" t="inlineStr">
         <is>
           <t>561</t>
         </is>
       </c>
-      <c r="J204" s="7" t="inlineStr">
+      <c r="J204" s="8" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -36214,7 +36214,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="AG204" s="16" t="inlineStr">
+      <c r="AG204" s="7" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -36276,17 +36276,17 @@
           <t>011</t>
         </is>
       </c>
-      <c r="H205" s="7" t="inlineStr">
+      <c r="H205" s="8" t="inlineStr">
         <is>
           <t>339</t>
         </is>
       </c>
-      <c r="I205" s="7" t="inlineStr">
+      <c r="I205" s="8" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="J205" s="7" t="inlineStr">
+      <c r="J205" s="8" t="inlineStr">
         <is>
           <t>313</t>
         </is>
@@ -36463,17 +36463,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H206" s="7" t="inlineStr">
+      <c r="H206" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I206" s="7" t="inlineStr">
+      <c r="I206" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J206" s="7" t="inlineStr">
+      <c r="J206" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -36558,7 +36558,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="AA206" s="8" t="inlineStr">
+      <c r="AA206" s="14" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -36650,17 +36650,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H207" s="7" t="inlineStr">
+      <c r="H207" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I207" s="7" t="inlineStr">
+      <c r="I207" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J207" s="7" t="inlineStr">
+      <c r="J207" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -36770,7 +36770,7 @@
           <t>127</t>
         </is>
       </c>
-      <c r="AF207" s="8" t="inlineStr">
+      <c r="AF207" s="16" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -36837,17 +36837,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H208" s="7" t="inlineStr">
+      <c r="H208" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I208" s="7" t="inlineStr">
+      <c r="I208" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J208" s="7" t="inlineStr">
+      <c r="J208" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -37298,17 +37298,17 @@
           <t>456</t>
         </is>
       </c>
-      <c r="H213" s="7" t="inlineStr">
+      <c r="H213" s="8" t="inlineStr">
         <is>
           <t>750</t>
         </is>
       </c>
-      <c r="I213" s="7" t="inlineStr">
+      <c r="I213" s="8" t="inlineStr">
         <is>
           <t>102</t>
         </is>
       </c>
-      <c r="J213" s="7" t="inlineStr">
+      <c r="J213" s="8" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -37383,7 +37383,7 @@
           <t>640</t>
         </is>
       </c>
-      <c r="Y213" s="13" t="inlineStr">
+      <c r="Y213" s="7" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -37485,22 +37485,22 @@
           <t>037</t>
         </is>
       </c>
-      <c r="H214" s="7" t="inlineStr">
+      <c r="H214" s="8" t="inlineStr">
         <is>
           <t>911</t>
         </is>
       </c>
-      <c r="I214" s="7" t="inlineStr">
+      <c r="I214" s="8" t="inlineStr">
         <is>
           <t>368</t>
         </is>
       </c>
-      <c r="J214" s="7" t="inlineStr">
+      <c r="J214" s="8" t="inlineStr">
         <is>
           <t>369</t>
         </is>
       </c>
-      <c r="K214" s="9" t="inlineStr">
+      <c r="K214" s="7" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -37672,17 +37672,17 @@
           <t>772</t>
         </is>
       </c>
-      <c r="H215" s="7" t="inlineStr">
+      <c r="H215" s="8" t="inlineStr">
         <is>
           <t>735</t>
         </is>
       </c>
-      <c r="I215" s="7" t="inlineStr">
+      <c r="I215" s="8" t="inlineStr">
         <is>
           <t>401</t>
         </is>
       </c>
-      <c r="J215" s="7" t="inlineStr">
+      <c r="J215" s="8" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -37782,7 +37782,7 @@
           <t>548</t>
         </is>
       </c>
-      <c r="AD215" s="8" t="inlineStr">
+      <c r="AD215" s="15" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -37859,17 +37859,17 @@
           <t>302</t>
         </is>
       </c>
-      <c r="H216" s="7" t="inlineStr">
+      <c r="H216" s="8" t="inlineStr">
         <is>
           <t>861</t>
         </is>
       </c>
-      <c r="I216" s="7" t="inlineStr">
+      <c r="I216" s="8" t="inlineStr">
         <is>
           <t>546</t>
         </is>
       </c>
-      <c r="J216" s="7" t="inlineStr">
+      <c r="J216" s="8" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -38046,17 +38046,17 @@
           <t>738</t>
         </is>
       </c>
-      <c r="H217" s="7" t="inlineStr">
+      <c r="H217" s="8" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="I217" s="7" t="inlineStr">
+      <c r="I217" s="8" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="J217" s="7" t="inlineStr">
+      <c r="J217" s="8" t="inlineStr">
         <is>
           <t>569</t>
         </is>
@@ -38233,17 +38233,17 @@
           <t>695</t>
         </is>
       </c>
-      <c r="H218" s="7" t="inlineStr">
+      <c r="H218" s="8" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="I218" s="7" t="inlineStr">
+      <c r="I218" s="8" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="J218" s="7" t="inlineStr">
+      <c r="J218" s="8" t="inlineStr">
         <is>
           <t>005</t>
         </is>
@@ -38420,17 +38420,17 @@
           <t>096</t>
         </is>
       </c>
-      <c r="H219" s="7" t="inlineStr">
+      <c r="H219" s="8" t="inlineStr">
         <is>
           <t>087</t>
         </is>
       </c>
-      <c r="I219" s="7" t="inlineStr">
+      <c r="I219" s="8" t="inlineStr">
         <is>
           <t>008</t>
         </is>
       </c>
-      <c r="J219" s="7" t="inlineStr">
+      <c r="J219" s="8" t="inlineStr">
         <is>
           <t>507</t>
         </is>
@@ -38607,17 +38607,17 @@
           <t>121</t>
         </is>
       </c>
-      <c r="H220" s="7" t="inlineStr">
+      <c r="H220" s="8" t="inlineStr">
         <is>
           <t>384</t>
         </is>
       </c>
-      <c r="I220" s="7" t="inlineStr">
+      <c r="I220" s="8" t="inlineStr">
         <is>
           <t>726</t>
         </is>
       </c>
-      <c r="J220" s="7" t="inlineStr">
+      <c r="J220" s="8" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -38794,17 +38794,17 @@
           <t>405</t>
         </is>
       </c>
-      <c r="H221" s="7" t="inlineStr">
+      <c r="H221" s="8" t="inlineStr">
         <is>
           <t>628</t>
         </is>
       </c>
-      <c r="I221" s="7" t="inlineStr">
+      <c r="I221" s="8" t="inlineStr">
         <is>
           <t>192</t>
         </is>
       </c>
-      <c r="J221" s="7" t="inlineStr">
+      <c r="J221" s="8" t="inlineStr">
         <is>
           <t>057</t>
         </is>
@@ -38914,7 +38914,7 @@
           <t>392</t>
         </is>
       </c>
-      <c r="AF221" s="16" t="inlineStr">
+      <c r="AF221" s="7" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -38981,17 +38981,17 @@
           <t>770</t>
         </is>
       </c>
-      <c r="H222" s="7" t="inlineStr">
+      <c r="H222" s="8" t="inlineStr">
         <is>
           <t>724</t>
         </is>
       </c>
-      <c r="I222" s="7" t="inlineStr">
+      <c r="I222" s="8" t="inlineStr">
         <is>
           <t>421</t>
         </is>
       </c>
-      <c r="J222" s="7" t="inlineStr">
+      <c r="J222" s="8" t="inlineStr">
         <is>
           <t>562</t>
         </is>
@@ -39021,7 +39021,7 @@
           <t>916</t>
         </is>
       </c>
-      <c r="P222" s="8" t="inlineStr">
+      <c r="P222" s="10" t="inlineStr">
         <is>
           <t>335</t>
         </is>
@@ -39056,7 +39056,7 @@
           <t>951</t>
         </is>
       </c>
-      <c r="W222" s="13" t="inlineStr">
+      <c r="W222" s="7" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -39168,17 +39168,17 @@
           <t>405</t>
         </is>
       </c>
-      <c r="H223" s="7" t="inlineStr">
+      <c r="H223" s="8" t="inlineStr">
         <is>
           <t>624</t>
         </is>
       </c>
-      <c r="I223" s="7" t="inlineStr">
+      <c r="I223" s="8" t="inlineStr">
         <is>
           <t>638</t>
         </is>
       </c>
-      <c r="J223" s="7" t="inlineStr">
+      <c r="J223" s="8" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -39355,17 +39355,17 @@
           <t>480</t>
         </is>
       </c>
-      <c r="H224" s="7" t="inlineStr">
+      <c r="H224" s="8" t="inlineStr">
         <is>
           <t>657</t>
         </is>
       </c>
-      <c r="I224" s="7" t="inlineStr">
+      <c r="I224" s="8" t="inlineStr">
         <is>
           <t>918</t>
         </is>
       </c>
-      <c r="J224" s="7" t="inlineStr">
+      <c r="J224" s="8" t="inlineStr">
         <is>
           <t>926</t>
         </is>
@@ -39542,17 +39542,17 @@
           <t>145</t>
         </is>
       </c>
-      <c r="H225" s="7" t="inlineStr">
+      <c r="H225" s="8" t="inlineStr">
         <is>
           <t>683</t>
         </is>
       </c>
-      <c r="I225" s="7" t="inlineStr">
+      <c r="I225" s="8" t="inlineStr">
         <is>
           <t>554</t>
         </is>
       </c>
-      <c r="J225" s="7" t="inlineStr">
+      <c r="J225" s="8" t="inlineStr">
         <is>
           <t>928</t>
         </is>
@@ -39729,17 +39729,17 @@
           <t>443</t>
         </is>
       </c>
-      <c r="H226" s="7" t="inlineStr">
+      <c r="H226" s="8" t="inlineStr">
         <is>
           <t>671</t>
         </is>
       </c>
-      <c r="I226" s="7" t="inlineStr">
+      <c r="I226" s="8" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="J226" s="7" t="inlineStr">
+      <c r="J226" s="8" t="inlineStr">
         <is>
           <t>961</t>
         </is>
@@ -39749,12 +39749,12 @@
           <t>515</t>
         </is>
       </c>
-      <c r="L226" s="8" t="inlineStr">
+      <c r="L226" s="9" t="inlineStr">
         <is>
           <t>335</t>
         </is>
       </c>
-      <c r="M226" s="8" t="inlineStr">
+      <c r="M226" s="9" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -39764,7 +39764,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="O226" s="10" t="inlineStr">
+      <c r="O226" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -39916,17 +39916,17 @@
           <t>897</t>
         </is>
       </c>
-      <c r="H227" s="7" t="inlineStr">
+      <c r="H227" s="8" t="inlineStr">
         <is>
           <t>041</t>
         </is>
       </c>
-      <c r="I227" s="7" t="inlineStr">
+      <c r="I227" s="8" t="inlineStr">
         <is>
           <t>557</t>
         </is>
       </c>
-      <c r="J227" s="7" t="inlineStr">
+      <c r="J227" s="8" t="inlineStr">
         <is>
           <t>389</t>
         </is>
@@ -39971,7 +39971,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="S227" s="11" t="inlineStr">
+      <c r="S227" s="7" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -40041,7 +40041,7 @@
           <t>892</t>
         </is>
       </c>
-      <c r="AG227" s="8" t="inlineStr">
+      <c r="AG227" s="16" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -40103,17 +40103,17 @@
           <t>751</t>
         </is>
       </c>
-      <c r="H228" s="7" t="inlineStr">
+      <c r="H228" s="8" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="I228" s="7" t="inlineStr">
+      <c r="I228" s="8" t="inlineStr">
         <is>
           <t>556</t>
         </is>
       </c>
-      <c r="J228" s="7" t="inlineStr">
+      <c r="J228" s="8" t="inlineStr">
         <is>
           <t>600</t>
         </is>
@@ -40238,7 +40238,7 @@
           <t>244</t>
         </is>
       </c>
-      <c r="AI228" s="17" t="inlineStr">
+      <c r="AI228" s="7" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -40260,7 +40260,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B229" s="5" t="inlineStr">
+      <c r="B229" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -40290,17 +40290,17 @@
           <t>555</t>
         </is>
       </c>
-      <c r="H229" s="7" t="inlineStr">
+      <c r="H229" s="8" t="inlineStr">
         <is>
           <t>921</t>
         </is>
       </c>
-      <c r="I229" s="7" t="inlineStr">
+      <c r="I229" s="8" t="inlineStr">
         <is>
           <t>528</t>
         </is>
       </c>
-      <c r="J229" s="7" t="inlineStr">
+      <c r="J229" s="8" t="inlineStr">
         <is>
           <t>215</t>
         </is>
@@ -40415,7 +40415,7 @@
           <t>846</t>
         </is>
       </c>
-      <c r="AG229" s="16" t="inlineStr">
+      <c r="AG229" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -40477,7 +40477,7 @@
           <t>568</t>
         </is>
       </c>
-      <c r="H230" s="7" t="inlineStr">
+      <c r="H230" s="8" t="inlineStr">
         <is>
           <t>379</t>
         </is>
@@ -40487,7 +40487,7 @@
           <t>710</t>
         </is>
       </c>
-      <c r="J230" s="7" t="inlineStr">
+      <c r="J230" s="8" t="inlineStr">
         <is>
           <t>425</t>
         </is>
@@ -40664,17 +40664,17 @@
           <t>327</t>
         </is>
       </c>
-      <c r="H231" s="7" t="inlineStr">
+      <c r="H231" s="8" t="inlineStr">
         <is>
           <t>742</t>
         </is>
       </c>
-      <c r="I231" s="7" t="inlineStr">
+      <c r="I231" s="8" t="inlineStr">
         <is>
           <t>479</t>
         </is>
       </c>
-      <c r="J231" s="7" t="inlineStr">
+      <c r="J231" s="8" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -40851,17 +40851,17 @@
           <t>685</t>
         </is>
       </c>
-      <c r="H232" s="7" t="inlineStr">
+      <c r="H232" s="8" t="inlineStr">
         <is>
           <t>257</t>
         </is>
       </c>
-      <c r="I232" s="7" t="inlineStr">
+      <c r="I232" s="8" t="inlineStr">
         <is>
           <t>481</t>
         </is>
       </c>
-      <c r="J232" s="7" t="inlineStr">
+      <c r="J232" s="8" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -41038,17 +41038,17 @@
           <t>795</t>
         </is>
       </c>
-      <c r="H233" s="7" t="inlineStr">
+      <c r="H233" s="8" t="inlineStr">
         <is>
           <t>227</t>
         </is>
       </c>
-      <c r="I233" s="7" t="inlineStr">
+      <c r="I233" s="8" t="inlineStr">
         <is>
           <t>876</t>
         </is>
       </c>
-      <c r="J233" s="7" t="inlineStr">
+      <c r="J233" s="8" t="inlineStr">
         <is>
           <t>960</t>
         </is>
@@ -41078,7 +41078,7 @@
           <t>548</t>
         </is>
       </c>
-      <c r="P233" s="10" t="inlineStr">
+      <c r="P233" s="7" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -41098,7 +41098,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="T233" s="8" t="inlineStr">
+      <c r="T233" s="12" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -41225,17 +41225,17 @@
           <t>705</t>
         </is>
       </c>
-      <c r="H234" s="7" t="inlineStr">
+      <c r="H234" s="8" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="I234" s="7" t="inlineStr">
+      <c r="I234" s="8" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="J234" s="7" t="inlineStr">
+      <c r="J234" s="8" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -41412,17 +41412,17 @@
           <t>551</t>
         </is>
       </c>
-      <c r="H235" s="7" t="inlineStr">
+      <c r="H235" s="8" t="inlineStr">
         <is>
           <t>234</t>
         </is>
       </c>
-      <c r="I235" s="7" t="inlineStr">
+      <c r="I235" s="8" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="J235" s="7" t="inlineStr">
+      <c r="J235" s="8" t="inlineStr">
         <is>
           <t>733</t>
         </is>
@@ -41599,17 +41599,17 @@
           <t>186</t>
         </is>
       </c>
-      <c r="H236" s="7" t="inlineStr">
+      <c r="H236" s="8" t="inlineStr">
         <is>
           <t>702</t>
         </is>
       </c>
-      <c r="I236" s="7" t="inlineStr">
+      <c r="I236" s="8" t="inlineStr">
         <is>
           <t>905</t>
         </is>
       </c>
-      <c r="J236" s="7" t="inlineStr">
+      <c r="J236" s="8" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -41684,7 +41684,7 @@
           <t>081</t>
         </is>
       </c>
-      <c r="Y236" s="13" t="inlineStr">
+      <c r="Y236" s="7" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -41786,17 +41786,17 @@
           <t>181</t>
         </is>
       </c>
-      <c r="H237" s="7" t="inlineStr">
+      <c r="H237" s="8" t="inlineStr">
         <is>
           <t>968</t>
         </is>
       </c>
-      <c r="I237" s="7" t="inlineStr">
+      <c r="I237" s="8" t="inlineStr">
         <is>
           <t>927</t>
         </is>
       </c>
-      <c r="J237" s="7" t="inlineStr">
+      <c r="J237" s="8" t="inlineStr">
         <is>
           <t>617</t>
         </is>
@@ -41973,17 +41973,17 @@
           <t>087</t>
         </is>
       </c>
-      <c r="H238" s="7" t="inlineStr">
+      <c r="H238" s="8" t="inlineStr">
         <is>
           <t>357</t>
         </is>
       </c>
-      <c r="I238" s="7" t="inlineStr">
+      <c r="I238" s="8" t="inlineStr">
         <is>
           <t>393</t>
         </is>
       </c>
-      <c r="J238" s="7" t="inlineStr">
+      <c r="J238" s="8" t="inlineStr">
         <is>
           <t>629</t>
         </is>
@@ -42028,7 +42028,7 @@
           <t>670</t>
         </is>
       </c>
-      <c r="S238" s="11" t="inlineStr">
+      <c r="S238" s="7" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -42160,17 +42160,17 @@
           <t>895</t>
         </is>
       </c>
-      <c r="H239" s="7" t="inlineStr">
+      <c r="H239" s="8" t="inlineStr">
         <is>
           <t>627</t>
         </is>
       </c>
-      <c r="I239" s="7" t="inlineStr">
+      <c r="I239" s="8" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="J239" s="7" t="inlineStr">
+      <c r="J239" s="8" t="inlineStr">
         <is>
           <t>891</t>
         </is>
@@ -42347,17 +42347,17 @@
           <t>677</t>
         </is>
       </c>
-      <c r="H240" s="7" t="inlineStr">
+      <c r="H240" s="8" t="inlineStr">
         <is>
           <t>606</t>
         </is>
       </c>
-      <c r="I240" s="7" t="inlineStr">
+      <c r="I240" s="8" t="inlineStr">
         <is>
           <t>181</t>
         </is>
       </c>
-      <c r="J240" s="7" t="inlineStr">
+      <c r="J240" s="8" t="inlineStr">
         <is>
           <t>315</t>
         </is>
@@ -42534,17 +42534,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H241" s="7" t="inlineStr">
+      <c r="H241" s="8" t="inlineStr">
         <is>
           <t>768</t>
         </is>
       </c>
-      <c r="I241" s="7" t="inlineStr">
+      <c r="I241" s="8" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="J241" s="7" t="inlineStr">
+      <c r="J241" s="8" t="inlineStr">
         <is>
           <t>846</t>
         </is>
@@ -42629,12 +42629,12 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AA241" s="14" t="inlineStr">
+      <c r="AA241" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
       </c>
-      <c r="AB241" s="14" t="inlineStr">
+      <c r="AB241" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -42721,17 +42721,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H242" s="7" t="inlineStr">
+      <c r="H242" s="8" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="I242" s="7" t="inlineStr">
+      <c r="I242" s="8" t="inlineStr">
         <is>
           <t>299</t>
         </is>
       </c>
-      <c r="J242" s="7" t="inlineStr">
+      <c r="J242" s="8" t="inlineStr">
         <is>
           <t>436</t>
         </is>
@@ -42908,12 +42908,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H243" s="7" t="inlineStr">
+      <c r="H243" s="8" t="inlineStr">
         <is>
           <t>487</t>
         </is>
       </c>
-      <c r="I243" s="7" t="inlineStr">
+      <c r="I243" s="8" t="inlineStr">
         <is>
           <t>955</t>
         </is>
@@ -43043,7 +43043,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI243" s="8" t="inlineStr">
+      <c r="AI243" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -43405,7 +43405,7 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B262" s="5" t="inlineStr">
+      <c r="B262" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -43493,7 +43493,7 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B266" s="8" t="inlineStr">
+      <c r="B266" s="5" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -43586,12 +43586,12 @@
           <t>488</t>
         </is>
       </c>
-      <c r="C270" s="8" t="inlineStr">
+      <c r="C270" s="5" t="inlineStr">
         <is>
           <t>448</t>
         </is>
       </c>
-      <c r="D270" s="8" t="inlineStr">
+      <c r="D270" s="5" t="inlineStr">
         <is>
           <t>533</t>
         </is>
@@ -43713,19 +43713,19 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B276" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B276" s="7" t="inlineStr">
+        <is>
+          <t>017</t>
         </is>
       </c>
       <c r="C276" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D276" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>639</t>
         </is>
       </c>
     </row>
@@ -43737,17 +43737,17 @@
       </c>
       <c r="B277" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>199</t>
         </is>
       </c>
       <c r="C277" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D277" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>562</t>
         </is>
       </c>
     </row>
@@ -43759,17 +43759,17 @@
       </c>
       <c r="B278" s="5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C278" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D278" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="C278" s="7" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="D278" s="7" t="inlineStr">
+        <is>
+          <t>071</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -1124,7 +1124,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="U4" s="17" t="inlineStr">
+      <c r="U4" s="11" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -1595,7 +1595,7 @@
           <t>752</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -1827,7 +1827,7 @@
           <t>902</t>
         </is>
       </c>
-      <c r="L8" s="17" t="inlineStr">
+      <c r="L8" s="8" t="inlineStr">
         <is>
           <t>410</t>
         </is>
@@ -1989,7 +1989,7 @@
           <t>765</t>
         </is>
       </c>
-      <c r="G9" s="17" t="inlineStr">
+      <c r="G9" s="6" t="inlineStr">
         <is>
           <t>410</t>
         </is>
@@ -3433,7 +3433,7 @@
           <t>969</t>
         </is>
       </c>
-      <c r="AH16" s="15" t="inlineStr">
+      <c r="AH16" s="17" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -3520,7 +3520,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="N17" s="17" t="inlineStr">
+      <c r="N17" s="9" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -4485,7 +4485,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="T22" s="17" t="inlineStr">
+      <c r="T22" s="11" t="inlineStr">
         <is>
           <t>014</t>
         </is>
@@ -5896,7 +5896,7 @@
           <t>753</t>
         </is>
       </c>
-      <c r="C30" s="17" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -6163,7 +6163,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="S31" s="17" t="inlineStr">
+      <c r="S31" s="10" t="inlineStr">
         <is>
           <t>041</t>
         </is>
@@ -6592,7 +6592,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AD33" s="14" t="inlineStr">
+      <c r="AD33" s="17" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -6993,7 +6993,7 @@
           <t>586</t>
         </is>
       </c>
-      <c r="R38" s="17" t="inlineStr">
+      <c r="R38" s="10" t="inlineStr">
         <is>
           <t>104</t>
         </is>
@@ -7180,7 +7180,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="R39" s="17" t="inlineStr">
+      <c r="R39" s="10" t="inlineStr">
         <is>
           <t>014</t>
         </is>
@@ -7260,7 +7260,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="AH39" s="17" t="inlineStr">
+      <c r="AH39" s="15" t="inlineStr">
         <is>
           <t>104</t>
         </is>
@@ -7337,7 +7337,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="L40" s="17" t="inlineStr">
+      <c r="L40" s="8" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -7629,7 +7629,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="AG41" s="15" t="inlineStr">
+      <c r="AG41" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -8272,7 +8272,7 @@
           <t>987</t>
         </is>
       </c>
-      <c r="L45" s="17" t="inlineStr">
+      <c r="L45" s="8" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -8367,7 +8367,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="AE45" s="17" t="inlineStr">
+      <c r="AE45" s="14" t="inlineStr">
         <is>
           <t>401</t>
         </is>
@@ -9409,7 +9409,7 @@
           <t>943</t>
         </is>
       </c>
-      <c r="O51" s="17" t="inlineStr">
+      <c r="O51" s="9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
@@ -9459,7 +9459,7 @@
           <t>769</t>
         </is>
       </c>
-      <c r="Y51" s="17" t="inlineStr">
+      <c r="Y51" s="12" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -11239,7 +11239,7 @@
           <t>061</t>
         </is>
       </c>
-      <c r="G61" s="17" t="inlineStr">
+      <c r="G61" s="6" t="inlineStr">
         <is>
           <t>041</t>
         </is>
@@ -11531,7 +11531,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="AB62" s="17" t="inlineStr">
+      <c r="AB62" s="13" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -12117,7 +12117,7 @@
           <t>428</t>
         </is>
       </c>
-      <c r="AG65" s="17" t="inlineStr">
+      <c r="AG65" s="15" t="inlineStr">
         <is>
           <t>014</t>
         </is>
@@ -12588,7 +12588,7 @@
           <t>615</t>
         </is>
       </c>
-      <c r="O68" s="17" t="inlineStr">
+      <c r="O68" s="9" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -12623,7 +12623,7 @@
           <t>928</t>
         </is>
       </c>
-      <c r="V68" s="17" t="inlineStr">
+      <c r="V68" s="11" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -13059,7 +13059,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="Q73" s="17" t="inlineStr">
+      <c r="Q73" s="10" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -13231,7 +13231,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N74" s="17" t="inlineStr">
+      <c r="N74" s="9" t="inlineStr">
         <is>
           <t>410</t>
         </is>
@@ -14196,7 +14196,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="T79" s="17" t="inlineStr">
+      <c r="T79" s="11" t="inlineStr">
         <is>
           <t>104</t>
         </is>
@@ -14717,7 +14717,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="L82" s="17" t="inlineStr">
+      <c r="L82" s="8" t="inlineStr">
         <is>
           <t>104</t>
         </is>
@@ -15191,7 +15191,7 @@
           <t>613</t>
         </is>
       </c>
-      <c r="AF84" s="17" t="inlineStr">
+      <c r="AF84" s="15" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -15732,7 +15732,7 @@
           <t>374</t>
         </is>
       </c>
-      <c r="AB87" s="17" t="inlineStr">
+      <c r="AB87" s="13" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -15869,7 +15869,7 @@
           <t>391</t>
         </is>
       </c>
-      <c r="R88" s="17" t="inlineStr">
+      <c r="R88" s="10" t="inlineStr">
         <is>
           <t>401</t>
         </is>
@@ -16066,7 +16066,7 @@
           <t>275</t>
         </is>
       </c>
-      <c r="T89" s="17" t="inlineStr">
+      <c r="T89" s="11" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -16283,7 +16283,7 @@
           <t>847</t>
         </is>
       </c>
-      <c r="Z90" s="17" t="inlineStr">
+      <c r="Z90" s="13" t="inlineStr">
         <is>
           <t>014</t>
         </is>
@@ -16360,7 +16360,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="D91" s="17" t="inlineStr">
+      <c r="D91" s="5" t="inlineStr">
         <is>
           <t>014</t>
         </is>
@@ -16510,7 +16510,7 @@
           <t>616</t>
         </is>
       </c>
-      <c r="AH91" s="17" t="inlineStr">
+      <c r="AH91" s="15" t="inlineStr">
         <is>
           <t>014</t>
         </is>
@@ -16729,7 +16729,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="C93" s="17" t="inlineStr">
+      <c r="C93" s="5" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -17138,7 +17138,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="J95" s="7" t="inlineStr">
+      <c r="J95" s="17" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -17188,7 +17188,7 @@
           <t>902</t>
         </is>
       </c>
-      <c r="T95" s="17" t="inlineStr">
+      <c r="T95" s="11" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -17871,7 +17871,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="G99" s="17" t="inlineStr">
+      <c r="G99" s="6" t="inlineStr">
         <is>
           <t>014</t>
         </is>
@@ -19377,7 +19377,7 @@
           <t>703</t>
         </is>
       </c>
-      <c r="AC109" s="17" t="inlineStr">
+      <c r="AC109" s="14" t="inlineStr">
         <is>
           <t>401</t>
         </is>
@@ -20020,7 +20020,7 @@
           <t>089</t>
         </is>
       </c>
-      <c r="H113" s="17" t="inlineStr">
+      <c r="H113" s="7" t="inlineStr">
         <is>
           <t>401</t>
         </is>
@@ -20581,7 +20581,7 @@
           <t>555</t>
         </is>
       </c>
-      <c r="H116" s="17" t="inlineStr">
+      <c r="H116" s="7" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -20596,7 +20596,7 @@
           <t>574</t>
         </is>
       </c>
-      <c r="K116" s="17" t="inlineStr">
+      <c r="K116" s="8" t="inlineStr">
         <is>
           <t>401</t>
         </is>
@@ -21895,7 +21895,7 @@
           <t>412</t>
         </is>
       </c>
-      <c r="I123" s="17" t="inlineStr">
+      <c r="I123" s="7" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -22466,7 +22466,7 @@
           <t>020</t>
         </is>
       </c>
-      <c r="K126" s="17" t="inlineStr">
+      <c r="K126" s="8" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -23289,7 +23289,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="Z130" s="17" t="inlineStr">
+      <c r="Z130" s="13" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -23648,7 +23648,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="W132" s="17" t="inlineStr">
+      <c r="W132" s="12" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -23775,7 +23775,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K133" s="8" t="inlineStr">
+      <c r="K133" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -24234,7 +24234,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="AB135" s="17" t="inlineStr">
+      <c r="AB135" s="13" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -24563,7 +24563,7 @@
           <t>132</t>
         </is>
       </c>
-      <c r="S137" s="17" t="inlineStr">
+      <c r="S137" s="10" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -24638,7 +24638,7 @@
           <t>527</t>
         </is>
       </c>
-      <c r="AH137" s="17" t="inlineStr">
+      <c r="AH137" s="15" t="inlineStr">
         <is>
           <t>014</t>
         </is>
@@ -24805,7 +24805,7 @@
           <t>774</t>
         </is>
       </c>
-      <c r="AD138" s="14" t="inlineStr">
+      <c r="AD138" s="17" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -25261,7 +25261,7 @@
           <t>641</t>
         </is>
       </c>
-      <c r="AC143" s="17" t="inlineStr">
+      <c r="AC143" s="14" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -25368,7 +25368,7 @@
           <t>366</t>
         </is>
       </c>
-      <c r="M144" s="17" t="inlineStr">
+      <c r="M144" s="8" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -25979,7 +25979,7 @@
           <t>912</t>
         </is>
       </c>
-      <c r="W147" s="17" t="inlineStr">
+      <c r="W147" s="12" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -26236,7 +26236,7 @@
           <t>218</t>
         </is>
       </c>
-      <c r="AK148" s="17" t="inlineStr">
+      <c r="AK148" s="16" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -26954,7 +26954,7 @@
           <t>481</t>
         </is>
       </c>
-      <c r="AE152" s="17" t="inlineStr">
+      <c r="AE152" s="14" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -27410,7 +27410,7 @@
           <t>438</t>
         </is>
       </c>
-      <c r="J155" s="17" t="inlineStr">
+      <c r="J155" s="7" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -27562,7 +27562,7 @@
           <t>603</t>
         </is>
       </c>
-      <c r="C156" s="5" t="inlineStr">
+      <c r="C156" s="17" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -27854,7 +27854,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="X157" s="17" t="inlineStr">
+      <c r="X157" s="12" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -28218,7 +28218,7 @@
           <t>210</t>
         </is>
       </c>
-      <c r="V159" s="11" t="inlineStr">
+      <c r="V159" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -29133,7 +29133,7 @@
           <t>618</t>
         </is>
       </c>
-      <c r="R164" s="17" t="inlineStr">
+      <c r="R164" s="10" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -29582,7 +29582,7 @@
           <t>202</t>
         </is>
       </c>
-      <c r="AG166" s="15" t="inlineStr">
+      <c r="AG166" s="17" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -30240,7 +30240,7 @@
           <t>850</t>
         </is>
       </c>
-      <c r="O170" s="17" t="inlineStr">
+      <c r="O170" s="9" t="inlineStr">
         <is>
           <t>410</t>
         </is>
@@ -30482,7 +30482,7 @@
           <t>078</t>
         </is>
       </c>
-      <c r="Z171" s="17" t="inlineStr">
+      <c r="Z171" s="13" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -30699,7 +30699,7 @@
           <t>515</t>
         </is>
       </c>
-      <c r="AF172" s="17" t="inlineStr">
+      <c r="AF172" s="15" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -31217,7 +31217,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="F178" s="17" t="inlineStr">
+      <c r="F178" s="6" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -31342,7 +31342,7 @@
           <t>968</t>
         </is>
       </c>
-      <c r="AE178" s="17" t="inlineStr">
+      <c r="AE178" s="14" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -31606,7 +31606,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="I180" s="17" t="inlineStr">
+      <c r="I180" s="7" t="inlineStr">
         <is>
           <t>410</t>
         </is>
@@ -31726,7 +31726,7 @@
           <t>817</t>
         </is>
       </c>
-      <c r="AG180" s="17" t="inlineStr">
+      <c r="AG180" s="15" t="inlineStr">
         <is>
           <t>410</t>
         </is>
@@ -32571,7 +32571,7 @@
           <t>725</t>
         </is>
       </c>
-      <c r="O185" s="17" t="inlineStr">
+      <c r="O185" s="9" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -32763,7 +32763,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="P186" s="17" t="inlineStr">
+      <c r="P186" s="9" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -32930,7 +32930,7 @@
           <t>884</t>
         </is>
       </c>
-      <c r="L187" s="17" t="inlineStr">
+      <c r="L187" s="8" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -33521,7 +33521,7 @@
           <t>894</t>
         </is>
       </c>
-      <c r="R190" s="17" t="inlineStr">
+      <c r="R190" s="10" t="inlineStr">
         <is>
           <t>014</t>
         </is>
@@ -33803,7 +33803,7 @@
           <t>541</t>
         </is>
       </c>
-      <c r="AK191" s="17" t="inlineStr">
+      <c r="AK191" s="16" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -34391,7 +34391,7 @@
           <t>805</t>
         </is>
       </c>
-      <c r="E195" s="17" t="inlineStr">
+      <c r="E195" s="6" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -34713,7 +34713,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="AF196" s="17" t="inlineStr">
+      <c r="AF196" s="15" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -34850,7 +34850,7 @@
           <t>998</t>
         </is>
       </c>
-      <c r="V197" s="17" t="inlineStr">
+      <c r="V197" s="11" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -35062,7 +35062,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="AA198" s="17" t="inlineStr">
+      <c r="AA198" s="13" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -35112,7 +35112,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="AK198" s="17" t="inlineStr">
+      <c r="AK198" s="16" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -35441,7 +35441,7 @@
           <t>258</t>
         </is>
       </c>
-      <c r="AB200" s="13" t="inlineStr">
+      <c r="AB200" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -36538,7 +36538,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="W206" s="17" t="inlineStr">
+      <c r="W206" s="12" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -37338,7 +37338,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="P213" s="17" t="inlineStr">
+      <c r="P213" s="9" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -37575,7 +37575,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="Z214" s="17" t="inlineStr">
+      <c r="Z214" s="13" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -37677,7 +37677,7 @@
           <t>735</t>
         </is>
       </c>
-      <c r="I215" s="17" t="inlineStr">
+      <c r="I215" s="7" t="inlineStr">
         <is>
           <t>401</t>
         </is>
@@ -37874,7 +37874,7 @@
           <t>529</t>
         </is>
       </c>
-      <c r="K216" s="17" t="inlineStr">
+      <c r="K216" s="8" t="inlineStr">
         <is>
           <t>104</t>
         </is>
@@ -37884,7 +37884,7 @@
           <t>189</t>
         </is>
       </c>
-      <c r="M216" s="17" t="inlineStr">
+      <c r="M216" s="8" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -38046,7 +38046,7 @@
           <t>738</t>
         </is>
       </c>
-      <c r="H217" s="17" t="inlineStr">
+      <c r="H217" s="7" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -38323,7 +38323,7 @@
           <t>865</t>
         </is>
       </c>
-      <c r="Z218" s="17" t="inlineStr">
+      <c r="Z218" s="13" t="inlineStr">
         <is>
           <t>401</t>
         </is>
@@ -38961,7 +38961,7 @@
           <t>294</t>
         </is>
       </c>
-      <c r="D222" s="17" t="inlineStr">
+      <c r="D222" s="5" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -39091,7 +39091,7 @@
           <t>386</t>
         </is>
       </c>
-      <c r="AD222" s="17" t="inlineStr">
+      <c r="AD222" s="14" t="inlineStr">
         <is>
           <t>041</t>
         </is>
@@ -39248,7 +39248,7 @@
           <t>150</t>
         </is>
       </c>
-      <c r="X223" s="17" t="inlineStr">
+      <c r="X223" s="12" t="inlineStr">
         <is>
           <t>401</t>
         </is>
@@ -39345,7 +39345,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="F224" s="17" t="inlineStr">
+      <c r="F224" s="6" t="inlineStr">
         <is>
           <t>041</t>
         </is>
@@ -39916,7 +39916,7 @@
           <t>897</t>
         </is>
       </c>
-      <c r="H227" s="17" t="inlineStr">
+      <c r="H227" s="7" t="inlineStr">
         <is>
           <t>041</t>
         </is>
@@ -40906,7 +40906,7 @@
           <t>489</t>
         </is>
       </c>
-      <c r="S232" s="17" t="inlineStr">
+      <c r="S232" s="10" t="inlineStr">
         <is>
           <t>104</t>
         </is>
@@ -41153,7 +41153,7 @@
           <t>741</t>
         </is>
       </c>
-      <c r="AE233" s="14" t="inlineStr">
+      <c r="AE233" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -42422,7 +42422,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="W240" s="17" t="inlineStr">
+      <c r="W240" s="12" t="inlineStr">
         <is>
           <t>014</t>
         </is>
@@ -43181,7 +43181,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="G249" s="17" t="inlineStr">
+      <c r="G249" s="6" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -43319,12 +43319,12 @@
           <t>577</t>
         </is>
       </c>
-      <c r="E253" s="17" t="inlineStr">
+      <c r="E253" s="6" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="F253" s="17" t="inlineStr">
+      <c r="F253" s="6" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -43432,17 +43432,17 @@
       </c>
       <c r="E256" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>770</t>
         </is>
       </c>
       <c r="F256" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>338</t>
         </is>
       </c>
       <c r="G256" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>028</t>
         </is>
       </c>
     </row>
@@ -43469,17 +43469,17 @@
       </c>
       <c r="E257" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>459</t>
         </is>
       </c>
       <c r="F257" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>261</t>
         </is>
       </c>
       <c r="G257" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -43506,17 +43506,17 @@
       </c>
       <c r="E258" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>897</t>
         </is>
       </c>
       <c r="F258" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>764</t>
         </is>
       </c>
       <c r="G258" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>212</t>
         </is>
       </c>
     </row>
@@ -43543,17 +43543,17 @@
       </c>
       <c r="E259" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>229</t>
         </is>
       </c>
       <c r="F259" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>486</t>
         </is>
       </c>
       <c r="G259" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>211</t>
         </is>
       </c>
     </row>
@@ -43580,17 +43580,17 @@
       </c>
       <c r="E260" s="6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F260" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G260" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="F260" s="17" t="inlineStr">
+        <is>
+          <t>027</t>
+        </is>
+      </c>
+      <c r="G260" s="17" t="inlineStr">
+        <is>
+          <t>373</t>
         </is>
       </c>
     </row>
@@ -43617,17 +43617,17 @@
       </c>
       <c r="E261" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>731</t>
         </is>
       </c>
       <c r="F261" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>704</t>
         </is>
       </c>
       <c r="G261" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>952</t>
         </is>
       </c>
     </row>
@@ -43654,17 +43654,17 @@
       </c>
       <c r="E262" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>080</t>
         </is>
       </c>
       <c r="F262" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>998</t>
         </is>
       </c>
       <c r="G262" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>206</t>
         </is>
       </c>
     </row>
@@ -43758,7 +43758,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="D265" s="17" t="inlineStr">
+      <c r="D265" s="5" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -44054,7 +44054,7 @@
           <t>043</t>
         </is>
       </c>
-      <c r="D273" s="17" t="inlineStr">
+      <c r="D273" s="5" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -44197,7 +44197,7 @@
           <t>199</t>
         </is>
       </c>
-      <c r="C277" s="17" t="inlineStr">
+      <c r="C277" s="5" t="inlineStr">
         <is>
           <t>056</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -43,12 +43,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="00ff6666"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff6666"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -220,7 +220,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,7 +1488,7 @@
           <t>612</t>
         </is>
       </c>
-      <c r="S6" s="10" t="inlineStr">
+      <c r="S6" s="17" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -1595,7 +1595,7 @@
           <t>752</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -2545,7 +2545,7 @@
           <t>237</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="17" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -3433,7 +3433,7 @@
           <t>969</t>
         </is>
       </c>
-      <c r="AH16" s="17" t="inlineStr">
+      <c r="AH16" s="15" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -6592,7 +6592,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AD33" s="17" t="inlineStr">
+      <c r="AD33" s="14" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -7629,7 +7629,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="AG41" s="17" t="inlineStr">
+      <c r="AG41" s="15" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -8756,7 +8756,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="AH47" s="15" t="inlineStr">
+      <c r="AH47" s="17" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -10930,7 +10930,7 @@
           <t>039</t>
         </is>
       </c>
-      <c r="T59" s="11" t="inlineStr">
+      <c r="T59" s="17" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -11052,7 +11052,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="G60" s="6" t="inlineStr">
+      <c r="G60" s="17" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -17138,7 +17138,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="J95" s="17" t="inlineStr">
+      <c r="J95" s="7" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -22486,7 +22486,7 @@
           <t>602</t>
         </is>
       </c>
-      <c r="O126" s="9" t="inlineStr">
+      <c r="O126" s="17" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -22678,7 +22678,7 @@
           <t>577</t>
         </is>
       </c>
-      <c r="P127" s="9" t="inlineStr">
+      <c r="P127" s="17" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -23775,7 +23775,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K133" s="17" t="inlineStr">
+      <c r="K133" s="8" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -24805,7 +24805,7 @@
           <t>774</t>
         </is>
       </c>
-      <c r="AD138" s="17" t="inlineStr">
+      <c r="AD138" s="14" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -27562,7 +27562,7 @@
           <t>603</t>
         </is>
       </c>
-      <c r="C156" s="17" t="inlineStr">
+      <c r="C156" s="5" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -28218,7 +28218,7 @@
           <t>210</t>
         </is>
       </c>
-      <c r="V159" s="17" t="inlineStr">
+      <c r="V159" s="11" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -29582,7 +29582,7 @@
           <t>202</t>
         </is>
       </c>
-      <c r="AG166" s="17" t="inlineStr">
+      <c r="AG166" s="15" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -29961,7 +29961,7 @@
           <t>270</t>
         </is>
       </c>
-      <c r="AH168" s="15" t="inlineStr">
+      <c r="AH168" s="17" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -30133,7 +30133,7 @@
           <t>907</t>
         </is>
       </c>
-      <c r="AE169" s="14" t="inlineStr">
+      <c r="AE169" s="17" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -35441,7 +35441,7 @@
           <t>258</t>
         </is>
       </c>
-      <c r="AB200" s="17" t="inlineStr">
+      <c r="AB200" s="13" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -39370,7 +39370,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="K224" s="8" t="inlineStr">
+      <c r="K224" s="17" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -39699,7 +39699,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B226" s="5" t="inlineStr">
+      <c r="B226" s="17" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -41148,12 +41148,12 @@
           <t>941</t>
         </is>
       </c>
-      <c r="AD233" s="14" t="inlineStr">
+      <c r="AD233" s="17" t="inlineStr">
         <is>
           <t>741</t>
         </is>
       </c>
-      <c r="AE233" s="17" t="inlineStr">
+      <c r="AE233" s="14" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -41856,7 +41856,7 @@
           <t>184</t>
         </is>
       </c>
-      <c r="V237" s="11" t="inlineStr">
+      <c r="V237" s="17" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -43583,12 +43583,12 @@
           <t>037</t>
         </is>
       </c>
-      <c r="F260" s="17" t="inlineStr">
+      <c r="F260" s="6" t="inlineStr">
         <is>
           <t>027</t>
         </is>
       </c>
-      <c r="G260" s="17" t="inlineStr">
+      <c r="G260" s="6" t="inlineStr">
         <is>
           <t>373</t>
         </is>
@@ -43691,17 +43691,17 @@
       </c>
       <c r="E263" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F263" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>827</t>
         </is>
       </c>
       <c r="G263" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>058</t>
         </is>
       </c>
     </row>
@@ -43728,17 +43728,17 @@
       </c>
       <c r="E264" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>725</t>
         </is>
       </c>
       <c r="F264" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>419</t>
         </is>
       </c>
       <c r="G264" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>840</t>
         </is>
       </c>
     </row>
@@ -43765,17 +43765,17 @@
       </c>
       <c r="E265" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>292</t>
         </is>
       </c>
       <c r="F265" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>407</t>
         </is>
       </c>
       <c r="G265" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>227</t>
         </is>
       </c>
     </row>
@@ -43802,17 +43802,17 @@
       </c>
       <c r="E266" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>904</t>
         </is>
       </c>
       <c r="F266" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>827</t>
         </is>
       </c>
       <c r="G266" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>886</t>
         </is>
       </c>
     </row>
@@ -43839,17 +43839,17 @@
       </c>
       <c r="E267" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>602</t>
         </is>
       </c>
       <c r="F267" s="6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G267" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="G267" s="17" t="inlineStr">
+        <is>
+          <t>741</t>
         </is>
       </c>
     </row>
@@ -43874,19 +43874,19 @@
           <t>757</t>
         </is>
       </c>
-      <c r="E268" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E268" s="17" t="inlineStr">
+        <is>
+          <t>864</t>
         </is>
       </c>
       <c r="F268" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>175</t>
         </is>
       </c>
       <c r="G268" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>002</t>
         </is>
       </c>
     </row>
@@ -43913,17 +43913,17 @@
       </c>
       <c r="E269" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>906</t>
         </is>
       </c>
       <c r="F269" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>957</t>
         </is>
       </c>
       <c r="G269" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>308</t>
         </is>
       </c>
     </row>
@@ -43950,17 +43950,17 @@
       </c>
       <c r="E270" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>422</t>
         </is>
       </c>
       <c r="F270" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>937</t>
         </is>
       </c>
       <c r="G270" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>177</t>
         </is>
       </c>
     </row>
@@ -43987,17 +43987,17 @@
       </c>
       <c r="E271" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>665</t>
         </is>
       </c>
       <c r="F271" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>128</t>
         </is>
       </c>
       <c r="G271" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>310</t>
         </is>
       </c>
     </row>
@@ -44024,17 +44024,17 @@
       </c>
       <c r="E272" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>717</t>
         </is>
       </c>
       <c r="F272" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>157</t>
         </is>
       </c>
       <c r="G272" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>854</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -48,12 +48,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="00ff6633"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff6633"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -223,7 +223,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1079,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="L4" s="8" t="inlineStr">
+      <c r="L4" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -1488,7 +1488,7 @@
           <t>612</t>
         </is>
       </c>
-      <c r="S6" s="17" t="inlineStr">
+      <c r="S6" s="10" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -2545,7 +2545,7 @@
           <t>237</t>
         </is>
       </c>
-      <c r="F12" s="17" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -3682,7 +3682,7 @@
           <t>336</t>
         </is>
       </c>
-      <c r="I18" s="7" t="inlineStr">
+      <c r="I18" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -4742,7 +4742,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="AH23" s="15" t="inlineStr">
+      <c r="AH23" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -4854,7 +4854,7 @@
           <t>367</t>
         </is>
       </c>
-      <c r="S24" s="10" t="inlineStr">
+      <c r="S24" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -8756,7 +8756,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="AH47" s="17" t="inlineStr">
+      <c r="AH47" s="15" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -10930,7 +10930,7 @@
           <t>039</t>
         </is>
       </c>
-      <c r="T59" s="17" t="inlineStr">
+      <c r="T59" s="11" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -11052,7 +11052,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="G60" s="17" t="inlineStr">
+      <c r="G60" s="6" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -11319,7 +11319,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="W61" s="12" t="inlineStr">
+      <c r="W61" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -14515,7 +14515,7 @@
           <t>823</t>
         </is>
       </c>
-      <c r="I81" s="7" t="inlineStr">
+      <c r="I81" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -15934,7 +15934,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="AE88" s="14" t="inlineStr">
+      <c r="AE88" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -22486,7 +22486,7 @@
           <t>602</t>
         </is>
       </c>
-      <c r="O126" s="17" t="inlineStr">
+      <c r="O126" s="9" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -22678,7 +22678,7 @@
           <t>577</t>
         </is>
       </c>
-      <c r="P127" s="17" t="inlineStr">
+      <c r="P127" s="9" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -23905,7 +23905,7 @@
           <t>631</t>
         </is>
       </c>
-      <c r="AK133" s="16" t="inlineStr">
+      <c r="AK133" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -23932,7 +23932,7 @@
           <t>587</t>
         </is>
       </c>
-      <c r="E134" s="6" t="inlineStr">
+      <c r="E134" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -27273,7 +27273,7 @@
           <t>402</t>
         </is>
       </c>
-      <c r="T154" s="11" t="inlineStr">
+      <c r="T154" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -27567,7 +27567,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="D156" s="5" t="inlineStr">
+      <c r="D156" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -29961,7 +29961,7 @@
           <t>270</t>
         </is>
       </c>
-      <c r="AH168" s="17" t="inlineStr">
+      <c r="AH168" s="15" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -30133,7 +30133,7 @@
           <t>907</t>
         </is>
       </c>
-      <c r="AE169" s="17" t="inlineStr">
+      <c r="AE169" s="14" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -32045,7 +32045,7 @@
           <t>780</t>
         </is>
       </c>
-      <c r="V182" s="11" t="inlineStr">
+      <c r="V182" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -32207,7 +32207,7 @@
           <t>983</t>
         </is>
       </c>
-      <c r="Q183" s="10" t="inlineStr">
+      <c r="Q183" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -33359,7 +33359,7 @@
           <t>255</t>
         </is>
       </c>
-      <c r="W189" s="12" t="inlineStr">
+      <c r="W189" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -36261,7 +36261,7 @@
           <t>164</t>
         </is>
       </c>
-      <c r="E205" s="6" t="inlineStr">
+      <c r="E205" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -38233,7 +38233,7 @@
           <t>695</t>
         </is>
       </c>
-      <c r="H218" s="7" t="inlineStr">
+      <c r="H218" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -38779,7 +38779,7 @@
           <t>419</t>
         </is>
       </c>
-      <c r="E221" s="6" t="inlineStr">
+      <c r="E221" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -39056,7 +39056,7 @@
           <t>951</t>
         </is>
       </c>
-      <c r="W222" s="12" t="inlineStr">
+      <c r="W222" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -39370,7 +39370,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="K224" s="17" t="inlineStr">
+      <c r="K224" s="8" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -39699,7 +39699,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B226" s="17" t="inlineStr">
+      <c r="B226" s="5" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -41148,7 +41148,7 @@
           <t>941</t>
         </is>
       </c>
-      <c r="AD233" s="17" t="inlineStr">
+      <c r="AD233" s="14" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -41856,7 +41856,7 @@
           <t>184</t>
         </is>
       </c>
-      <c r="V237" s="17" t="inlineStr">
+      <c r="V237" s="11" t="inlineStr">
         <is>
           <t>864</t>
         </is>
@@ -43847,7 +43847,7 @@
           <t>439</t>
         </is>
       </c>
-      <c r="G267" s="17" t="inlineStr">
+      <c r="G267" s="6" t="inlineStr">
         <is>
           <t>741</t>
         </is>
@@ -43874,7 +43874,7 @@
           <t>757</t>
         </is>
       </c>
-      <c r="E268" s="17" t="inlineStr">
+      <c r="E268" s="6" t="inlineStr">
         <is>
           <t>864</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -58,6 +58,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="009966ff"/>
       </patternFill>
     </fill>
@@ -69,11 +74,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="006699ff"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -229,13 +229,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1655,7 +1655,7 @@
           <t>217</t>
         </is>
       </c>
-      <c r="O7" s="9" t="inlineStr">
+      <c r="O7" s="17" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -2074,7 +2074,7 @@
           <t>154</t>
         </is>
       </c>
-      <c r="X9" s="12" t="inlineStr">
+      <c r="X9" s="17" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -2580,7 +2580,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="M12" s="8" t="inlineStr">
+      <c r="M12" s="17" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -6133,7 +6133,7 @@
           <t>153</t>
         </is>
       </c>
-      <c r="M31" s="8" t="inlineStr">
+      <c r="M31" s="17" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -6355,7 +6355,7 @@
           <t>129</t>
         </is>
       </c>
-      <c r="T32" s="17" t="inlineStr">
+      <c r="T32" s="11" t="inlineStr">
         <is>
           <t>227</t>
         </is>
@@ -7671,7 +7671,7 @@
           <t>936</t>
         </is>
       </c>
-      <c r="D42" s="5" t="inlineStr">
+      <c r="D42" s="17" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -8429,7 +8429,7 @@
           <t>264</t>
         </is>
       </c>
-      <c r="F46" s="17" t="inlineStr">
+      <c r="F46" s="6" t="inlineStr">
         <is>
           <t>407</t>
         </is>
@@ -8803,7 +8803,7 @@
           <t>709</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
+      <c r="F48" s="17" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -9509,7 +9509,7 @@
           <t>720</t>
         </is>
       </c>
-      <c r="AI51" s="16" t="inlineStr">
+      <c r="AI51" s="17" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -9763,7 +9763,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="K53" s="17" t="inlineStr">
+      <c r="K53" s="8" t="inlineStr">
         <is>
           <t>407</t>
         </is>
@@ -10818,7 +10818,7 @@
           <t>608</t>
         </is>
       </c>
-      <c r="AI58" s="16" t="inlineStr">
+      <c r="AI58" s="17" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -12289,7 +12289,7 @@
           <t>556</t>
         </is>
       </c>
-      <c r="AD66" s="14" t="inlineStr">
+      <c r="AD66" s="17" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -13358,7 +13358,7 @@
           <t>03</t>
         </is>
       </c>
-      <c r="B75" s="5" t="inlineStr">
+      <c r="B75" s="17" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -13817,7 +13817,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="S77" s="10" t="inlineStr">
+      <c r="S77" s="17" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -14752,7 +14752,7 @@
           <t>086</t>
         </is>
       </c>
-      <c r="S82" s="10" t="inlineStr">
+      <c r="S82" s="17" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -15809,7 +15809,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="F88" s="17" t="inlineStr">
+      <c r="F88" s="6" t="inlineStr">
         <is>
           <t>407</t>
         </is>
@@ -18270,7 +18270,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="L101" s="17" t="inlineStr">
+      <c r="L101" s="8" t="inlineStr">
         <is>
           <t>407</t>
         </is>
@@ -19681,7 +19681,7 @@
           <t>788</t>
         </is>
       </c>
-      <c r="O111" s="17" t="inlineStr">
+      <c r="O111" s="9" t="inlineStr">
         <is>
           <t>407</t>
         </is>
@@ -20696,7 +20696,7 @@
           <t>275</t>
         </is>
       </c>
-      <c r="AE116" s="17" t="inlineStr">
+      <c r="AE116" s="14" t="inlineStr">
         <is>
           <t>407</t>
         </is>
@@ -20748,7 +20748,7 @@
           <t>082</t>
         </is>
       </c>
-      <c r="D117" s="5" t="inlineStr">
+      <c r="D117" s="17" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -24643,7 +24643,7 @@
           <t>014</t>
         </is>
       </c>
-      <c r="AI137" s="17" t="inlineStr">
+      <c r="AI137" s="16" t="inlineStr">
         <is>
           <t>227</t>
         </is>
@@ -25752,7 +25752,7 @@
           <t>900</t>
         </is>
       </c>
-      <c r="O146" s="17" t="inlineStr">
+      <c r="O146" s="9" t="inlineStr">
         <is>
           <t>227</t>
         </is>
@@ -25777,7 +25777,7 @@
           <t>179</t>
         </is>
       </c>
-      <c r="T146" s="17" t="inlineStr">
+      <c r="T146" s="11" t="inlineStr">
         <is>
           <t>227</t>
         </is>
@@ -26490,7 +26490,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="M150" s="17" t="inlineStr">
+      <c r="M150" s="8" t="inlineStr">
         <is>
           <t>407</t>
         </is>
@@ -29664,7 +29664,7 @@
           <t>942</t>
         </is>
       </c>
-      <c r="L167" s="17" t="inlineStr">
+      <c r="L167" s="8" t="inlineStr">
         <is>
           <t>227</t>
         </is>
@@ -34997,7 +34997,7 @@
           <t>414</t>
         </is>
       </c>
-      <c r="N198" s="9" t="inlineStr">
+      <c r="N198" s="17" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -38328,7 +38328,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="AA218" s="13" t="inlineStr">
+      <c r="AA218" s="17" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -38642,7 +38642,7 @@
           <t>574</t>
         </is>
       </c>
-      <c r="O220" s="17" t="inlineStr">
+      <c r="O220" s="9" t="inlineStr">
         <is>
           <t>407</t>
         </is>
@@ -41038,7 +41038,7 @@
           <t>795</t>
         </is>
       </c>
-      <c r="H233" s="17" t="inlineStr">
+      <c r="H233" s="7" t="inlineStr">
         <is>
           <t>227</t>
         </is>
@@ -41225,7 +41225,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="H234" s="7" t="inlineStr">
+      <c r="H234" s="17" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -42948,7 +42948,7 @@
           <t>986</t>
         </is>
       </c>
-      <c r="P243" s="9" t="inlineStr">
+      <c r="P243" s="17" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -43768,12 +43768,12 @@
           <t>292</t>
         </is>
       </c>
-      <c r="F265" s="17" t="inlineStr">
+      <c r="F265" s="6" t="inlineStr">
         <is>
           <t>407</t>
         </is>
       </c>
-      <c r="G265" s="17" t="inlineStr">
+      <c r="G265" s="6" t="inlineStr">
         <is>
           <t>227</t>
         </is>
@@ -44135,17 +44135,17 @@
       </c>
       <c r="E275" s="6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F275" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G275" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="F275" s="17" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="G275" s="17" t="inlineStr">
+        <is>
+          <t>426</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -43,6 +43,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ff6666"/>
       </patternFill>
     </fill>
@@ -54,11 +59,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ccff33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -220,13 +220,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1655,7 +1655,7 @@
           <t>217</t>
         </is>
       </c>
-      <c r="O7" s="17" t="inlineStr">
+      <c r="O7" s="9" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -2074,7 +2074,7 @@
           <t>154</t>
         </is>
       </c>
-      <c r="X9" s="17" t="inlineStr">
+      <c r="X9" s="12" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -2535,7 +2535,7 @@
           <t>453</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D12" s="17" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -2580,7 +2580,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="M12" s="17" t="inlineStr">
+      <c r="M12" s="8" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -6133,7 +6133,7 @@
           <t>153</t>
         </is>
       </c>
-      <c r="M31" s="17" t="inlineStr">
+      <c r="M31" s="8" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -7671,7 +7671,7 @@
           <t>936</t>
         </is>
       </c>
-      <c r="D42" s="17" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -8803,7 +8803,7 @@
           <t>709</t>
         </is>
       </c>
-      <c r="F48" s="17" t="inlineStr">
+      <c r="F48" s="6" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -9509,7 +9509,7 @@
           <t>720</t>
         </is>
       </c>
-      <c r="AI51" s="17" t="inlineStr">
+      <c r="AI51" s="16" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -9828,7 +9828,7 @@
           <t>429</t>
         </is>
       </c>
-      <c r="X53" s="12" t="inlineStr">
+      <c r="X53" s="17" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -10818,7 +10818,7 @@
           <t>608</t>
         </is>
       </c>
-      <c r="AI58" s="17" t="inlineStr">
+      <c r="AI58" s="16" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -10900,7 +10900,7 @@
           <t>818</t>
         </is>
       </c>
-      <c r="N59" s="9" t="inlineStr">
+      <c r="N59" s="17" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -11279,7 +11279,7 @@
           <t>923</t>
         </is>
       </c>
-      <c r="O61" s="9" t="inlineStr">
+      <c r="O61" s="17" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -12062,7 +12062,7 @@
           <t>742</t>
         </is>
       </c>
-      <c r="V65" s="11" t="inlineStr">
+      <c r="V65" s="17" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -12289,7 +12289,7 @@
           <t>556</t>
         </is>
       </c>
-      <c r="AD66" s="17" t="inlineStr">
+      <c r="AD66" s="14" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -13358,7 +13358,7 @@
           <t>03</t>
         </is>
       </c>
-      <c r="B75" s="17" t="inlineStr">
+      <c r="B75" s="5" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -13817,7 +13817,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="S77" s="17" t="inlineStr">
+      <c r="S77" s="10" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -14752,7 +14752,7 @@
           <t>086</t>
         </is>
       </c>
-      <c r="S82" s="17" t="inlineStr">
+      <c r="S82" s="10" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -14989,7 +14989,7 @@
           <t>815</t>
         </is>
       </c>
-      <c r="AC83" s="14" t="inlineStr">
+      <c r="AC83" s="17" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -15166,7 +15166,7 @@
           <t>910</t>
         </is>
       </c>
-      <c r="AA84" s="13" t="inlineStr">
+      <c r="AA84" s="17" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -16587,7 +16587,7 @@
           <t>349</t>
         </is>
       </c>
-      <c r="L92" s="8" t="inlineStr">
+      <c r="L92" s="17" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -16657,7 +16657,7 @@
           <t>018</t>
         </is>
       </c>
-      <c r="Z92" s="13" t="inlineStr">
+      <c r="Z92" s="17" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -20748,7 +20748,7 @@
           <t>082</t>
         </is>
       </c>
-      <c r="D117" s="17" t="inlineStr">
+      <c r="D117" s="5" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -30472,7 +30472,7 @@
           <t>946</t>
         </is>
       </c>
-      <c r="X171" s="12" t="inlineStr">
+      <c r="X171" s="17" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -31621,7 +31621,7 @@
           <t>325</t>
         </is>
       </c>
-      <c r="L180" s="8" t="inlineStr">
+      <c r="L180" s="17" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -34997,7 +34997,7 @@
           <t>414</t>
         </is>
       </c>
-      <c r="N198" s="17" t="inlineStr">
+      <c r="N198" s="9" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -35289,7 +35289,7 @@
           <t>364</t>
         </is>
       </c>
-      <c r="AI199" s="16" t="inlineStr">
+      <c r="AI199" s="17" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -38328,7 +38328,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="AA218" s="17" t="inlineStr">
+      <c r="AA218" s="13" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -39587,7 +39587,7 @@
           <t>774</t>
         </is>
       </c>
-      <c r="Q225" s="10" t="inlineStr">
+      <c r="Q225" s="17" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -40901,7 +40901,7 @@
           <t>188</t>
         </is>
       </c>
-      <c r="R232" s="10" t="inlineStr">
+      <c r="R232" s="17" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -41225,7 +41225,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="H234" s="17" t="inlineStr">
+      <c r="H234" s="7" t="inlineStr">
         <is>
           <t>581</t>
         </is>
@@ -42609,7 +42609,7 @@
           <t>949</t>
         </is>
       </c>
-      <c r="W241" s="12" t="inlineStr">
+      <c r="W241" s="17" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -42948,7 +42948,7 @@
           <t>986</t>
         </is>
       </c>
-      <c r="P243" s="17" t="inlineStr">
+      <c r="P243" s="9" t="inlineStr">
         <is>
           <t>426</t>
         </is>
@@ -43079,6 +43079,13 @@
       </c>
       <c r="F246" s="2" t="n"/>
       <c r="G246" s="3" t="n"/>
+      <c r="H246" s="1" t="inlineStr">
+        <is>
+          <t>March 2020</t>
+        </is>
+      </c>
+      <c r="I246" s="2" t="n"/>
+      <c r="J246" s="3" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="4" t="n"/>
@@ -43112,6 +43119,21 @@
           <t>9PM</t>
         </is>
       </c>
+      <c r="H247" s="1" t="inlineStr">
+        <is>
+          <t>11AM</t>
+        </is>
+      </c>
+      <c r="I247" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="J247" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -43149,6 +43171,21 @@
           <t>034</t>
         </is>
       </c>
+      <c r="H248" s="7" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="I248" s="7" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="J248" s="7" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -43186,6 +43223,21 @@
           <t>605</t>
         </is>
       </c>
+      <c r="H249" s="7" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="I249" s="7" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="J249" s="7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -43223,6 +43275,21 @@
           <t>130</t>
         </is>
       </c>
+      <c r="H250" s="7" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="I250" s="7" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J250" s="7" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -43260,6 +43327,21 @@
           <t>242</t>
         </is>
       </c>
+      <c r="H251" s="7" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="I251" s="7" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="J251" s="7" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -43297,6 +43379,21 @@
           <t>580</t>
         </is>
       </c>
+      <c r="H252" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I252" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J252" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -43334,6 +43431,21 @@
           <t>368</t>
         </is>
       </c>
+      <c r="H253" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I253" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J253" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -43371,6 +43483,21 @@
           <t>965</t>
         </is>
       </c>
+      <c r="H254" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I254" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J254" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -43408,6 +43535,21 @@
           <t>015</t>
         </is>
       </c>
+      <c r="H255" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I255" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J255" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -43445,6 +43587,21 @@
           <t>028</t>
         </is>
       </c>
+      <c r="H256" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I256" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J256" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -43482,6 +43639,21 @@
           <t>162</t>
         </is>
       </c>
+      <c r="H257" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I257" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J257" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -43519,6 +43691,21 @@
           <t>212</t>
         </is>
       </c>
+      <c r="H258" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I258" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J258" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -43556,6 +43743,21 @@
           <t>211</t>
         </is>
       </c>
+      <c r="H259" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I259" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J259" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -43593,6 +43795,21 @@
           <t>373</t>
         </is>
       </c>
+      <c r="H260" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I260" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J260" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -43630,6 +43847,21 @@
           <t>952</t>
         </is>
       </c>
+      <c r="H261" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I261" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J261" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -43667,6 +43899,21 @@
           <t>206</t>
         </is>
       </c>
+      <c r="H262" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I262" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J262" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -43704,6 +43951,21 @@
           <t>058</t>
         </is>
       </c>
+      <c r="H263" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I263" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J263" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -43741,6 +44003,21 @@
           <t>840</t>
         </is>
       </c>
+      <c r="H264" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I264" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J264" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -43778,6 +44055,21 @@
           <t>227</t>
         </is>
       </c>
+      <c r="H265" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I265" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J265" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -43815,6 +44107,21 @@
           <t>886</t>
         </is>
       </c>
+      <c r="H266" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I266" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J266" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -43852,6 +44159,21 @@
           <t>741</t>
         </is>
       </c>
+      <c r="H267" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I267" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J267" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -43889,6 +44211,21 @@
           <t>002</t>
         </is>
       </c>
+      <c r="H268" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I268" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J268" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -43926,6 +44263,21 @@
           <t>308</t>
         </is>
       </c>
+      <c r="H269" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I269" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J269" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -43963,6 +44315,21 @@
           <t>177</t>
         </is>
       </c>
+      <c r="H270" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I270" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J270" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -44000,6 +44367,21 @@
           <t>310</t>
         </is>
       </c>
+      <c r="H271" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I271" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J271" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -44037,6 +44419,21 @@
           <t>854</t>
         </is>
       </c>
+      <c r="H272" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I272" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J272" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -44074,6 +44471,21 @@
           <t>230</t>
         </is>
       </c>
+      <c r="H273" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I273" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J273" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -44111,6 +44523,21 @@
           <t>484</t>
         </is>
       </c>
+      <c r="H274" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I274" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J274" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -44138,14 +44565,29 @@
           <t>628</t>
         </is>
       </c>
-      <c r="F275" s="17" t="inlineStr">
+      <c r="F275" s="6" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="G275" s="17" t="inlineStr">
+      <c r="G275" s="6" t="inlineStr">
         <is>
           <t>426</t>
+        </is>
+      </c>
+      <c r="H275" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I275" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J275" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -44170,17 +44612,32 @@
           <t>639</t>
         </is>
       </c>
-      <c r="E276" s="6" t="inlineStr">
+      <c r="E276" s="17" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="F276" s="17" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G276" s="6" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
+      </c>
+      <c r="H276" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F276" s="6" t="inlineStr">
+      <c r="I276" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G276" s="6" t="inlineStr">
+      <c r="J276" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -44222,6 +44679,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="H277" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I277" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J277" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -44259,9 +44731,24 @@
           <t>-</t>
         </is>
       </c>
+      <c r="H278" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I278" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J278" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="95">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -44356,6 +44843,7 @@
     <mergeCell ref="A246:A247"/>
     <mergeCell ref="B246:D246"/>
     <mergeCell ref="E246:G246"/>
+    <mergeCell ref="H246:J246"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -39,11 +39,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ff6699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -209,7 +204,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -248,12 +246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2535,7 +2527,7 @@
           <t>453</t>
         </is>
       </c>
-      <c r="D12" s="17" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -9828,7 +9820,7 @@
           <t>429</t>
         </is>
       </c>
-      <c r="X53" s="17" t="inlineStr">
+      <c r="X53" s="12" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -10900,7 +10892,7 @@
           <t>818</t>
         </is>
       </c>
-      <c r="N59" s="17" t="inlineStr">
+      <c r="N59" s="9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -11279,7 +11271,7 @@
           <t>923</t>
         </is>
       </c>
-      <c r="O61" s="17" t="inlineStr">
+      <c r="O61" s="9" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -12062,7 +12054,7 @@
           <t>742</t>
         </is>
       </c>
-      <c r="V65" s="17" t="inlineStr">
+      <c r="V65" s="11" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -14989,7 +14981,7 @@
           <t>815</t>
         </is>
       </c>
-      <c r="AC83" s="17" t="inlineStr">
+      <c r="AC83" s="14" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -15166,7 +15158,7 @@
           <t>910</t>
         </is>
       </c>
-      <c r="AA84" s="17" t="inlineStr">
+      <c r="AA84" s="13" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -16587,7 +16579,7 @@
           <t>349</t>
         </is>
       </c>
-      <c r="L92" s="17" t="inlineStr">
+      <c r="L92" s="8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -16657,7 +16649,7 @@
           <t>018</t>
         </is>
       </c>
-      <c r="Z92" s="17" t="inlineStr">
+      <c r="Z92" s="13" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -30472,7 +30464,7 @@
           <t>946</t>
         </is>
       </c>
-      <c r="X171" s="17" t="inlineStr">
+      <c r="X171" s="12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -31621,7 +31613,7 @@
           <t>325</t>
         </is>
       </c>
-      <c r="L180" s="17" t="inlineStr">
+      <c r="L180" s="8" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -35289,7 +35281,7 @@
           <t>364</t>
         </is>
       </c>
-      <c r="AI199" s="17" t="inlineStr">
+      <c r="AI199" s="16" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -39587,7 +39579,7 @@
           <t>774</t>
         </is>
       </c>
-      <c r="Q225" s="17" t="inlineStr">
+      <c r="Q225" s="10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -40901,7 +40893,7 @@
           <t>188</t>
         </is>
       </c>
-      <c r="R232" s="17" t="inlineStr">
+      <c r="R232" s="10" t="inlineStr">
         <is>
           <t>489</t>
         </is>
@@ -42609,7 +42601,7 @@
           <t>949</t>
         </is>
       </c>
-      <c r="W241" s="17" t="inlineStr">
+      <c r="W241" s="12" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -43381,17 +43373,17 @@
       </c>
       <c r="H252" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>513</t>
         </is>
       </c>
       <c r="I252" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>274</t>
         </is>
       </c>
       <c r="J252" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>221</t>
         </is>
       </c>
     </row>
@@ -44612,12 +44604,12 @@
           <t>639</t>
         </is>
       </c>
-      <c r="E276" s="17" t="inlineStr">
+      <c r="E276" s="6" t="inlineStr">
         <is>
           <t>489</t>
         </is>
       </c>
-      <c r="F276" s="17" t="inlineStr">
+      <c r="F276" s="6" t="inlineStr">
         <is>
           <t>134</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -39,6 +39,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ff6699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -204,7 +209,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,9 +218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -246,6 +248,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1405,7 +1413,7 @@
           <t>047</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -3138,7 +3146,7 @@
           <t>356</t>
         </is>
       </c>
-      <c r="N15" s="9" t="inlineStr">
+      <c r="N15" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -3452,7 +3460,7 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="17" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -4148,7 +4156,7 @@
           <t>208</t>
         </is>
       </c>
-      <c r="AC20" s="14" t="inlineStr">
+      <c r="AC20" s="17" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -4599,7 +4607,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="G23" s="6" t="inlineStr">
+      <c r="G23" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -4851,7 +4859,7 @@
           <t>163</t>
         </is>
       </c>
-      <c r="T24" s="11" t="inlineStr">
+      <c r="T24" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -7516,7 +7524,7 @@
           <t>785</t>
         </is>
       </c>
-      <c r="L41" s="8" t="inlineStr">
+      <c r="L41" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -7653,7 +7661,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="B42" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -7733,7 +7741,7 @@
           <t>720</t>
         </is>
       </c>
-      <c r="R42" s="10" t="inlineStr">
+      <c r="R42" s="17" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -13804,7 +13812,7 @@
           <t>984</t>
         </is>
       </c>
-      <c r="R77" s="10" t="inlineStr">
+      <c r="R77" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -15330,7 +15338,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="X85" s="12" t="inlineStr">
+      <c r="X85" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -24403,7 +24411,7 @@
           <t>186</t>
         </is>
       </c>
-      <c r="Z136" s="13" t="inlineStr">
+      <c r="Z136" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -26901,7 +26909,7 @@
           <t>223</t>
         </is>
       </c>
-      <c r="V152" s="11" t="inlineStr">
+      <c r="V152" s="17" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -27003,7 +27011,7 @@
           <t>748</t>
         </is>
       </c>
-      <c r="E153" s="6" t="inlineStr">
+      <c r="E153" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -32583,7 +32591,7 @@
           <t>552</t>
         </is>
       </c>
-      <c r="S185" s="10" t="inlineStr">
+      <c r="S185" s="17" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -32730,7 +32738,7 @@
           <t>665</t>
         </is>
       </c>
-      <c r="K186" s="8" t="inlineStr">
+      <c r="K186" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -33366,7 +33374,7 @@
           <t>774</t>
         </is>
       </c>
-      <c r="Z189" s="13" t="inlineStr">
+      <c r="Z189" s="17" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -33533,7 +33541,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="V190" s="11" t="inlineStr">
+      <c r="V190" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -35034,7 +35042,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="W198" s="12" t="inlineStr">
+      <c r="W198" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -36019,7 +36027,7 @@
           <t>491</t>
         </is>
       </c>
-      <c r="AG203" s="15" t="inlineStr">
+      <c r="AG203" s="17" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -37305,7 +37313,7 @@
           <t>670</t>
         </is>
       </c>
-      <c r="K213" s="8" t="inlineStr">
+      <c r="K213" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -37719,7 +37727,7 @@
           <t>731</t>
         </is>
       </c>
-      <c r="S215" s="10" t="inlineStr">
+      <c r="S215" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -37896,7 +37904,7 @@
           <t>574</t>
         </is>
       </c>
-      <c r="Q216" s="10" t="inlineStr">
+      <c r="Q216" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -38719,7 +38727,7 @@
           <t>559</t>
         </is>
       </c>
-      <c r="AF220" s="15" t="inlineStr">
+      <c r="AF220" s="17" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -43329,7 +43337,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="J251" s="7" t="inlineStr">
+      <c r="J251" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -43371,7 +43379,7 @@
           <t>580</t>
         </is>
       </c>
-      <c r="H252" s="7" t="inlineStr">
+      <c r="H252" s="17" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -43425,17 +43433,17 @@
       </c>
       <c r="H253" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>215</t>
         </is>
       </c>
       <c r="I253" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>427</t>
         </is>
       </c>
       <c r="J253" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>966</t>
         </is>
       </c>
     </row>
@@ -43477,17 +43485,17 @@
       </c>
       <c r="H254" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>992</t>
         </is>
       </c>
       <c r="I254" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>733</t>
         </is>
       </c>
       <c r="J254" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
     </row>
@@ -44094,7 +44102,7 @@
           <t>827</t>
         </is>
       </c>
-      <c r="G266" s="6" t="inlineStr">
+      <c r="G266" s="17" t="inlineStr">
         <is>
           <t>886</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -39,11 +39,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ff6699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -99,6 +94,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00009966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,6 +220,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -251,9 +254,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1413,7 +1413,7 @@
           <t>047</t>
         </is>
       </c>
-      <c r="D6" s="17" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -3146,7 +3146,7 @@
           <t>356</t>
         </is>
       </c>
-      <c r="N15" s="17" t="inlineStr">
+      <c r="N15" s="9" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -3460,7 +3460,7 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B17" s="17" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -4156,7 +4156,7 @@
           <t>208</t>
         </is>
       </c>
-      <c r="AC20" s="17" t="inlineStr">
+      <c r="AC20" s="14" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -4607,7 +4607,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="G23" s="17" t="inlineStr">
+      <c r="G23" s="6" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -4859,7 +4859,7 @@
           <t>163</t>
         </is>
       </c>
-      <c r="T24" s="17" t="inlineStr">
+      <c r="T24" s="11" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -7524,7 +7524,7 @@
           <t>785</t>
         </is>
       </c>
-      <c r="L41" s="17" t="inlineStr">
+      <c r="L41" s="8" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -7661,7 +7661,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="B42" s="17" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -7741,7 +7741,7 @@
           <t>720</t>
         </is>
       </c>
-      <c r="R42" s="17" t="inlineStr">
+      <c r="R42" s="10" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -8928,7 +8928,7 @@
           <t>655</t>
         </is>
       </c>
-      <c r="AE48" s="14" t="inlineStr">
+      <c r="AE48" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -9222,7 +9222,7 @@
           <t>322</t>
         </is>
       </c>
-      <c r="O50" s="9" t="inlineStr">
+      <c r="O50" s="17" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -9302,7 +9302,7 @@
           <t>634</t>
         </is>
       </c>
-      <c r="AE50" s="14" t="inlineStr">
+      <c r="AE50" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -11588,7 +11588,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="B63" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -13812,7 +13812,7 @@
           <t>984</t>
         </is>
       </c>
-      <c r="R77" s="17" t="inlineStr">
+      <c r="R77" s="10" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -13929,7 +13929,7 @@
           <t>750</t>
         </is>
       </c>
-      <c r="D78" s="5" t="inlineStr">
+      <c r="D78" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -14363,7 +14363,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="P80" s="9" t="inlineStr">
+      <c r="P80" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -15338,7 +15338,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="X85" s="17" t="inlineStr">
+      <c r="X85" s="12" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -17345,7 +17345,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="N96" s="9" t="inlineStr">
+      <c r="N96" s="17" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -18138,7 +18138,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="W100" s="12" t="inlineStr">
+      <c r="W100" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -18729,7 +18729,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC103" s="14" t="inlineStr">
+      <c r="AC103" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -24411,7 +24411,7 @@
           <t>186</t>
         </is>
       </c>
-      <c r="Z136" s="17" t="inlineStr">
+      <c r="Z136" s="13" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -26560,7 +26560,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="AA150" s="13" t="inlineStr">
+      <c r="AA150" s="17" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -26909,7 +26909,7 @@
           <t>223</t>
         </is>
       </c>
-      <c r="V152" s="17" t="inlineStr">
+      <c r="V152" s="11" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -26996,7 +26996,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B153" s="5" t="inlineStr">
+      <c r="B153" s="17" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -27011,7 +27011,7 @@
           <t>748</t>
         </is>
       </c>
-      <c r="E153" s="17" t="inlineStr">
+      <c r="E153" s="6" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -30220,7 +30220,7 @@
           <t>321</t>
         </is>
       </c>
-      <c r="K170" s="8" t="inlineStr">
+      <c r="K170" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -31843,7 +31843,7 @@
           <t>631</t>
         </is>
       </c>
-      <c r="S181" s="10" t="inlineStr">
+      <c r="S181" s="17" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -32177,7 +32177,7 @@
           <t>515</t>
         </is>
       </c>
-      <c r="K183" s="8" t="inlineStr">
+      <c r="K183" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -32591,7 +32591,7 @@
           <t>552</t>
         </is>
       </c>
-      <c r="S185" s="17" t="inlineStr">
+      <c r="S185" s="10" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -32738,7 +32738,7 @@
           <t>665</t>
         </is>
       </c>
-      <c r="K186" s="17" t="inlineStr">
+      <c r="K186" s="8" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -32895,7 +32895,7 @@
           <t>280</t>
         </is>
       </c>
-      <c r="E187" s="6" t="inlineStr">
+      <c r="E187" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -33324,7 +33324,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="P189" s="9" t="inlineStr">
+      <c r="P189" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -33374,7 +33374,7 @@
           <t>774</t>
         </is>
       </c>
-      <c r="Z189" s="17" t="inlineStr">
+      <c r="Z189" s="13" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -33541,7 +33541,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="V190" s="17" t="inlineStr">
+      <c r="V190" s="11" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -33855,7 +33855,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="J192" s="7" t="inlineStr">
+      <c r="J192" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -35042,7 +35042,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="W198" s="17" t="inlineStr">
+      <c r="W198" s="12" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -36027,7 +36027,7 @@
           <t>491</t>
         </is>
       </c>
-      <c r="AG203" s="17" t="inlineStr">
+      <c r="AG203" s="15" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -36164,7 +36164,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="W204" s="12" t="inlineStr">
+      <c r="W204" s="17" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -36401,7 +36401,7 @@
           <t>742</t>
         </is>
       </c>
-      <c r="AG205" s="15" t="inlineStr">
+      <c r="AG205" s="17" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -37313,7 +37313,7 @@
           <t>670</t>
         </is>
       </c>
-      <c r="K213" s="17" t="inlineStr">
+      <c r="K213" s="8" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -37540,7 +37540,7 @@
           <t>724</t>
         </is>
       </c>
-      <c r="S214" s="10" t="inlineStr">
+      <c r="S214" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -37727,7 +37727,7 @@
           <t>731</t>
         </is>
       </c>
-      <c r="S215" s="17" t="inlineStr">
+      <c r="S215" s="10" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -37904,7 +37904,7 @@
           <t>574</t>
         </is>
       </c>
-      <c r="Q216" s="17" t="inlineStr">
+      <c r="Q216" s="10" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -38727,7 +38727,7 @@
           <t>559</t>
         </is>
       </c>
-      <c r="AF220" s="17" t="inlineStr">
+      <c r="AF220" s="15" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -39121,7 +39121,7 @@
           <t>243</t>
         </is>
       </c>
-      <c r="AJ222" s="16" t="inlineStr">
+      <c r="AJ222" s="17" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -42836,7 +42836,7 @@
           <t>964</t>
         </is>
       </c>
-      <c r="AE242" s="14" t="inlineStr">
+      <c r="AE242" s="17" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -43327,17 +43327,17 @@
           <t>242</t>
         </is>
       </c>
-      <c r="H251" s="7" t="inlineStr">
+      <c r="H251" s="17" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="I251" s="7" t="inlineStr">
+      <c r="I251" s="17" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="J251" s="17" t="inlineStr">
+      <c r="J251" s="7" t="inlineStr">
         <is>
           <t>886</t>
         </is>
@@ -43379,7 +43379,7 @@
           <t>580</t>
         </is>
       </c>
-      <c r="H252" s="17" t="inlineStr">
+      <c r="H252" s="7" t="inlineStr">
         <is>
           <t>513</t>
         </is>
@@ -43537,17 +43537,17 @@
       </c>
       <c r="H255" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>503</t>
         </is>
       </c>
       <c r="I255" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>990</t>
         </is>
       </c>
       <c r="J255" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -44102,7 +44102,7 @@
           <t>827</t>
         </is>
       </c>
-      <c r="G266" s="17" t="inlineStr">
+      <c r="G266" s="6" t="inlineStr">
         <is>
           <t>886</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -39,6 +39,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ff6699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -94,11 +99,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00009966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,9 +220,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,6 +251,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2717,7 +2717,7 @@
           <t>790</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="17" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -5906,7 +5906,7 @@
           <t>760</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="E30" s="17" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -8928,7 +8928,7 @@
           <t>655</t>
         </is>
       </c>
-      <c r="AE48" s="17" t="inlineStr">
+      <c r="AE48" s="14" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -9222,7 +9222,7 @@
           <t>322</t>
         </is>
       </c>
-      <c r="O50" s="17" t="inlineStr">
+      <c r="O50" s="9" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -9302,7 +9302,7 @@
           <t>634</t>
         </is>
       </c>
-      <c r="AE50" s="17" t="inlineStr">
+      <c r="AE50" s="14" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -11588,7 +11588,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B63" s="17" t="inlineStr">
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -13929,7 +13929,7 @@
           <t>750</t>
         </is>
       </c>
-      <c r="D78" s="17" t="inlineStr">
+      <c r="D78" s="5" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -14363,7 +14363,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="P80" s="17" t="inlineStr">
+      <c r="P80" s="9" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -15358,7 +15358,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="AB85" s="13" t="inlineStr">
+      <c r="AB85" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -16435,7 +16435,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="S91" s="10" t="inlineStr">
+      <c r="S91" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -17345,7 +17345,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="N96" s="17" t="inlineStr">
+      <c r="N96" s="9" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -17704,7 +17704,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="K98" s="8" t="inlineStr">
+      <c r="K98" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -18138,7 +18138,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="W100" s="17" t="inlineStr">
+      <c r="W100" s="12" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -18729,7 +18729,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC103" s="17" t="inlineStr">
+      <c r="AC103" s="14" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -20302,7 +20302,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="AA114" s="13" t="inlineStr">
+      <c r="AA114" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -26515,7 +26515,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="R150" s="10" t="inlineStr">
+      <c r="R150" s="17" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -26560,7 +26560,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="AA150" s="17" t="inlineStr">
+      <c r="AA150" s="13" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -26996,7 +26996,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B153" s="17" t="inlineStr">
+      <c r="B153" s="5" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -29290,7 +29290,7 @@
           <t>642</t>
         </is>
       </c>
-      <c r="L165" s="8" t="inlineStr">
+      <c r="L165" s="17" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -30220,7 +30220,7 @@
           <t>321</t>
         </is>
       </c>
-      <c r="K170" s="17" t="inlineStr">
+      <c r="K170" s="8" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -31843,7 +31843,7 @@
           <t>631</t>
         </is>
       </c>
-      <c r="S181" s="17" t="inlineStr">
+      <c r="S181" s="10" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -32177,7 +32177,7 @@
           <t>515</t>
         </is>
       </c>
-      <c r="K183" s="17" t="inlineStr">
+      <c r="K183" s="8" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -32895,7 +32895,7 @@
           <t>280</t>
         </is>
       </c>
-      <c r="E187" s="17" t="inlineStr">
+      <c r="E187" s="6" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -33324,7 +33324,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="P189" s="17" t="inlineStr">
+      <c r="P189" s="9" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -33855,7 +33855,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="J192" s="17" t="inlineStr">
+      <c r="J192" s="7" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -34344,7 +34344,7 @@
           <t>965</t>
         </is>
       </c>
-      <c r="AG194" s="15" t="inlineStr">
+      <c r="AG194" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -35299,7 +35299,7 @@
           <t>202</t>
         </is>
       </c>
-      <c r="AK199" s="16" t="inlineStr">
+      <c r="AK199" s="17" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -36164,7 +36164,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="W204" s="17" t="inlineStr">
+      <c r="W204" s="12" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -36401,7 +36401,7 @@
           <t>742</t>
         </is>
       </c>
-      <c r="AG205" s="17" t="inlineStr">
+      <c r="AG205" s="15" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -36770,7 +36770,7 @@
           <t>127</t>
         </is>
       </c>
-      <c r="AF207" s="15" t="inlineStr">
+      <c r="AF207" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -37378,7 +37378,7 @@
           <t>234</t>
         </is>
       </c>
-      <c r="X213" s="12" t="inlineStr">
+      <c r="X213" s="17" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -37540,7 +37540,7 @@
           <t>724</t>
         </is>
       </c>
-      <c r="S214" s="17" t="inlineStr">
+      <c r="S214" s="10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -37782,7 +37782,7 @@
           <t>548</t>
         </is>
       </c>
-      <c r="AD215" s="14" t="inlineStr">
+      <c r="AD215" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -39121,7 +39121,7 @@
           <t>243</t>
         </is>
       </c>
-      <c r="AJ222" s="17" t="inlineStr">
+      <c r="AJ222" s="16" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -40041,7 +40041,7 @@
           <t>892</t>
         </is>
       </c>
-      <c r="AG227" s="15" t="inlineStr">
+      <c r="AG227" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -42836,7 +42836,7 @@
           <t>964</t>
         </is>
       </c>
-      <c r="AE242" s="17" t="inlineStr">
+      <c r="AE242" s="14" t="inlineStr">
         <is>
           <t>464</t>
         </is>
@@ -43043,7 +43043,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI243" s="16" t="inlineStr">
+      <c r="AI243" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -43327,12 +43327,12 @@
           <t>242</t>
         </is>
       </c>
-      <c r="H251" s="17" t="inlineStr">
+      <c r="H251" s="7" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="I251" s="17" t="inlineStr">
+      <c r="I251" s="7" t="inlineStr">
         <is>
           <t>197</t>
         </is>
@@ -44513,12 +44513,12 @@
           <t>525</t>
         </is>
       </c>
-      <c r="F274" s="6" t="inlineStr">
+      <c r="F274" s="17" t="inlineStr">
         <is>
           <t>640</t>
         </is>
       </c>
-      <c r="G274" s="6" t="inlineStr">
+      <c r="G274" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -43,12 +43,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="00ff6666"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff6666"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -220,7 +220,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2717,7 +2717,7 @@
           <t>790</t>
         </is>
       </c>
-      <c r="C13" s="17" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -3288,7 +3288,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -3772,7 +3772,7 @@
           <t>878</t>
         </is>
       </c>
-      <c r="AA18" s="13" t="inlineStr">
+      <c r="AA18" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -3894,7 +3894,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="N19" s="9" t="inlineStr">
+      <c r="N19" s="17" t="inlineStr">
         <is>
           <t>004</t>
         </is>
@@ -5906,7 +5906,7 @@
           <t>760</t>
         </is>
       </c>
-      <c r="E30" s="17" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -11436,7 +11436,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="I62" s="7" t="inlineStr">
+      <c r="I62" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -11628,7 +11628,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="J63" s="7" t="inlineStr">
+      <c r="J63" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -11703,7 +11703,7 @@
           <t>128</t>
         </is>
       </c>
-      <c r="Y63" s="12" t="inlineStr">
+      <c r="Y63" s="17" t="inlineStr">
         <is>
           <t>004</t>
         </is>
@@ -12102,7 +12102,7 @@
           <t>008</t>
         </is>
       </c>
-      <c r="AD65" s="14" t="inlineStr">
+      <c r="AD65" s="17" t="inlineStr">
         <is>
           <t>004</t>
         </is>
@@ -15358,7 +15358,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="AB85" s="17" t="inlineStr">
+      <c r="AB85" s="13" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -16435,7 +16435,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="S91" s="17" t="inlineStr">
+      <c r="S91" s="10" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -17704,7 +17704,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="K98" s="17" t="inlineStr">
+      <c r="K98" s="8" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -17739,7 +17739,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="R98" s="10" t="inlineStr">
+      <c r="R98" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -20302,7 +20302,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="AA114" s="17" t="inlineStr">
+      <c r="AA114" s="13" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -26515,7 +26515,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="R150" s="17" t="inlineStr">
+      <c r="R150" s="10" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -29290,7 +29290,7 @@
           <t>642</t>
         </is>
       </c>
-      <c r="L165" s="17" t="inlineStr">
+      <c r="L165" s="8" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -32753,7 +32753,7 @@
           <t>921</t>
         </is>
       </c>
-      <c r="N186" s="9" t="inlineStr">
+      <c r="N186" s="17" t="inlineStr">
         <is>
           <t>004</t>
         </is>
@@ -32773,7 +32773,7 @@
           <t>724</t>
         </is>
       </c>
-      <c r="R186" s="10" t="inlineStr">
+      <c r="R186" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -34344,7 +34344,7 @@
           <t>965</t>
         </is>
       </c>
-      <c r="AG194" s="17" t="inlineStr">
+      <c r="AG194" s="15" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -35299,7 +35299,7 @@
           <t>202</t>
         </is>
       </c>
-      <c r="AK199" s="17" t="inlineStr">
+      <c r="AK199" s="16" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -36770,7 +36770,7 @@
           <t>127</t>
         </is>
       </c>
-      <c r="AF207" s="17" t="inlineStr">
+      <c r="AF207" s="15" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -37378,7 +37378,7 @@
           <t>234</t>
         </is>
       </c>
-      <c r="X213" s="17" t="inlineStr">
+      <c r="X213" s="12" t="inlineStr">
         <is>
           <t>640</t>
         </is>
@@ -37782,7 +37782,7 @@
           <t>548</t>
         </is>
       </c>
-      <c r="AD215" s="17" t="inlineStr">
+      <c r="AD215" s="14" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -38213,7 +38213,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="D218" s="5" t="inlineStr">
+      <c r="D218" s="17" t="inlineStr">
         <is>
           <t>004</t>
         </is>
@@ -40041,7 +40041,7 @@
           <t>892</t>
         </is>
       </c>
-      <c r="AG227" s="17" t="inlineStr">
+      <c r="AG227" s="15" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -40507,7 +40507,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N230" s="9" t="inlineStr">
+      <c r="N230" s="17" t="inlineStr">
         <is>
           <t>004</t>
         </is>
@@ -41138,7 +41138,7 @@
           <t>685</t>
         </is>
       </c>
-      <c r="AB233" s="13" t="inlineStr">
+      <c r="AB233" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -43043,7 +43043,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI243" s="17" t="inlineStr">
+      <c r="AI243" s="16" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -43589,17 +43589,17 @@
       </c>
       <c r="H256" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>731</t>
         </is>
       </c>
       <c r="I256" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>508</t>
         </is>
       </c>
       <c r="J256" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>999</t>
         </is>
       </c>
     </row>
@@ -43641,17 +43641,17 @@
       </c>
       <c r="H257" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>542</t>
         </is>
       </c>
       <c r="I257" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>917</t>
         </is>
       </c>
       <c r="J257" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -43693,17 +43693,17 @@
       </c>
       <c r="H258" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>565</t>
         </is>
       </c>
       <c r="I258" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>896</t>
         </is>
       </c>
       <c r="J258" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>764</t>
         </is>
       </c>
     </row>
@@ -43745,17 +43745,17 @@
       </c>
       <c r="H259" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>178</t>
         </is>
       </c>
       <c r="I259" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>806</t>
         </is>
       </c>
       <c r="J259" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>439</t>
         </is>
       </c>
     </row>
@@ -43797,17 +43797,17 @@
       </c>
       <c r="H260" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>797</t>
         </is>
       </c>
       <c r="I260" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>144</t>
         </is>
       </c>
       <c r="J260" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>759</t>
         </is>
       </c>
     </row>
@@ -43849,17 +43849,17 @@
       </c>
       <c r="H261" s="7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I261" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J261" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="I261" s="17" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="J261" s="17" t="inlineStr">
+        <is>
+          <t>004</t>
         </is>
       </c>
     </row>
@@ -44513,12 +44513,12 @@
           <t>525</t>
         </is>
       </c>
-      <c r="F274" s="17" t="inlineStr">
+      <c r="F274" s="6" t="inlineStr">
         <is>
           <t>640</t>
         </is>
       </c>
-      <c r="G274" s="17" t="inlineStr">
+      <c r="G274" s="6" t="inlineStr">
         <is>
           <t>484</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -1413,7 +1413,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D6" s="17" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -1907,7 +1907,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB8" s="17" t="inlineStr">
+      <c r="AB8" s="13" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -1952,7 +1952,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK8" s="17" t="inlineStr">
+      <c r="AK8" s="16" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -1974,7 +1974,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -1989,7 +1989,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G9" s="17" t="inlineStr">
+      <c r="G9" s="6" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -2408,7 +2408,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P11" s="17" t="inlineStr">
+      <c r="P11" s="9" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -2453,7 +2453,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y11" s="17" t="inlineStr">
+      <c r="Y11" s="12" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -2498,7 +2498,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH11" s="17" t="inlineStr">
+      <c r="AH11" s="15" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -2812,7 +2812,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V13" s="17" t="inlineStr">
+      <c r="V13" s="11" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -2954,7 +2954,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M14" s="17" t="inlineStr">
+      <c r="M14" s="8" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -2999,7 +2999,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V14" s="17" t="inlineStr">
+      <c r="V14" s="11" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -3717,7 +3717,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P18" s="9" t="inlineStr">
+      <c r="P18" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -3822,7 +3822,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK18" s="17" t="inlineStr">
+      <c r="AK18" s="16" t="inlineStr">
         <is>
           <t>790</t>
         </is>
@@ -3964,7 +3964,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB19" s="17" t="inlineStr">
+      <c r="AB19" s="13" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -4196,7 +4196,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK20" s="17" t="inlineStr">
+      <c r="AK20" s="16" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -4353,7 +4353,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE21" s="17" t="inlineStr">
+      <c r="AE21" s="14" t="inlineStr">
         <is>
           <t>647</t>
         </is>
@@ -4540,7 +4540,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE22" s="17" t="inlineStr">
+      <c r="AE22" s="14" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -4824,7 +4824,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M24" s="17" t="inlineStr">
+      <c r="M24" s="8" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -5168,7 +5168,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G26" s="6" t="inlineStr">
+      <c r="G26" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -5527,7 +5527,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D28" s="17" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -5682,7 +5682,7 @@
           <t>616</t>
         </is>
       </c>
-      <c r="AI28" s="16" t="inlineStr">
+      <c r="AI28" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -5819,7 +5819,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y29" s="17" t="inlineStr">
+      <c r="Y29" s="12" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -5976,7 +5976,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S30" s="17" t="inlineStr">
+      <c r="S30" s="10" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -6036,7 +6036,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE30" s="17" t="inlineStr">
+      <c r="AE30" s="14" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -6066,7 +6066,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK30" s="16" t="inlineStr">
+      <c r="AK30" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -6275,7 +6275,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D32" s="17" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -6425,7 +6425,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH32" s="17" t="inlineStr">
+      <c r="AH32" s="15" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -6953,7 +6953,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J38" s="17" t="inlineStr">
+      <c r="J38" s="7" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -7100,7 +7100,7 @@
           <t>02</t>
         </is>
       </c>
-      <c r="B39" s="17" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -7275,7 +7275,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK39" s="17" t="inlineStr">
+      <c r="AK39" s="16" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -7347,7 +7347,7 @@
           <t>167</t>
         </is>
       </c>
-      <c r="N40" s="17" t="inlineStr">
+      <c r="N40" s="9" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -7701,7 +7701,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J42" s="17" t="inlineStr">
+      <c r="J42" s="7" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -7791,7 +7791,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB42" s="17" t="inlineStr">
+      <c r="AB42" s="13" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -7873,7 +7873,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G43" s="17" t="inlineStr">
+      <c r="G43" s="6" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -7933,7 +7933,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S43" s="17" t="inlineStr">
+      <c r="S43" s="10" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -8050,7 +8050,7 @@
           <t>159</t>
         </is>
       </c>
-      <c r="E44" s="17" t="inlineStr">
+      <c r="E44" s="6" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -8165,7 +8165,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB44" s="17" t="inlineStr">
+      <c r="AB44" s="13" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -8237,7 +8237,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="E45" s="6" t="inlineStr">
+      <c r="E45" s="17" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -8297,7 +8297,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="Q45" s="10" t="inlineStr">
+      <c r="Q45" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -8372,7 +8372,7 @@
           <t>829</t>
         </is>
       </c>
-      <c r="AF45" s="15" t="inlineStr">
+      <c r="AF45" s="17" t="inlineStr">
         <is>
           <t>137</t>
         </is>
@@ -8783,7 +8783,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="B48" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -8808,7 +8808,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G48" s="17" t="inlineStr">
+      <c r="G48" s="6" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -8873,7 +8873,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="T48" s="17" t="inlineStr">
+      <c r="T48" s="11" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -9359,7 +9359,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="E51" s="17" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -9586,7 +9586,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M52" s="8" t="inlineStr">
+      <c r="M52" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -9661,7 +9661,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB52" s="13" t="inlineStr">
+      <c r="AB52" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -9763,7 +9763,7 @@
           <t>072</t>
         </is>
       </c>
-      <c r="K53" s="17" t="inlineStr">
+      <c r="K53" s="8" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -9793,7 +9793,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="Q53" s="17" t="inlineStr">
+      <c r="Q53" s="10" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -9833,7 +9833,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y53" s="17" t="inlineStr">
+      <c r="Y53" s="12" t="inlineStr">
         <is>
           <t>970</t>
         </is>
@@ -9853,7 +9853,7 @@
           <t>174</t>
         </is>
       </c>
-      <c r="AC53" s="17" t="inlineStr">
+      <c r="AC53" s="14" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -10010,7 +10010,7 @@
           <t>202</t>
         </is>
       </c>
-      <c r="W54" s="17" t="inlineStr">
+      <c r="W54" s="12" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -10080,7 +10080,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK54" s="16" t="inlineStr">
+      <c r="AK54" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -10601,7 +10601,7 @@
           <t>944</t>
         </is>
       </c>
-      <c r="AC57" s="14" t="inlineStr">
+      <c r="AC57" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -10653,7 +10653,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="B58" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -10880,7 +10880,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J59" s="17" t="inlineStr">
+      <c r="J59" s="7" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -10915,7 +10915,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="Q59" s="17" t="inlineStr">
+      <c r="Q59" s="10" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -11147,7 +11147,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="Z60" s="13" t="inlineStr">
+      <c r="Z60" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -11401,7 +11401,7 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B62" s="17" t="inlineStr">
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -11461,7 +11461,7 @@
           <t>084</t>
         </is>
       </c>
-      <c r="N62" s="17" t="inlineStr">
+      <c r="N62" s="9" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -11491,7 +11491,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="T62" s="17" t="inlineStr">
+      <c r="T62" s="11" t="inlineStr">
         <is>
           <t>785</t>
         </is>
@@ -11588,7 +11588,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B63" s="17" t="inlineStr">
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>857</t>
         </is>
@@ -11648,7 +11648,7 @@
           <t>525</t>
         </is>
       </c>
-      <c r="N63" s="17" t="inlineStr">
+      <c r="N63" s="9" t="inlineStr">
         <is>
           <t>467</t>
         </is>
@@ -11708,7 +11708,7 @@
           <t>384</t>
         </is>
       </c>
-      <c r="Z63" s="17" t="inlineStr">
+      <c r="Z63" s="13" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -11723,7 +11723,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="AC63" s="17" t="inlineStr">
+      <c r="AC63" s="14" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -12092,7 +12092,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB65" s="17" t="inlineStr">
+      <c r="AB65" s="13" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -12219,7 +12219,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P66" s="17" t="inlineStr">
+      <c r="P66" s="9" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -12294,7 +12294,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE66" s="17" t="inlineStr">
+      <c r="AE66" s="14" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -12523,7 +12523,7 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B68" s="17" t="inlineStr">
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -13024,7 +13024,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J73" s="7" t="inlineStr">
+      <c r="J73" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -13059,7 +13059,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="Q73" s="17" t="inlineStr">
+      <c r="Q73" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -13119,7 +13119,7 @@
           <t>345</t>
         </is>
       </c>
-      <c r="AC73" s="17" t="inlineStr">
+      <c r="AC73" s="14" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -13149,7 +13149,7 @@
           <t>396</t>
         </is>
       </c>
-      <c r="AI73" s="16" t="inlineStr">
+      <c r="AI73" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -13196,7 +13196,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G74" s="17" t="inlineStr">
+      <c r="G74" s="6" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -13296,7 +13296,7 @@
           <t>148</t>
         </is>
       </c>
-      <c r="AA74" s="17" t="inlineStr">
+      <c r="AA74" s="13" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -13311,7 +13311,7 @@
           <t>252</t>
         </is>
       </c>
-      <c r="AD74" s="17" t="inlineStr">
+      <c r="AD74" s="14" t="inlineStr">
         <is>
           <t>857</t>
         </is>
@@ -13346,7 +13346,7 @@
           <t>755</t>
         </is>
       </c>
-      <c r="AK74" s="17" t="inlineStr">
+      <c r="AK74" s="16" t="inlineStr">
         <is>
           <t>785</t>
         </is>
@@ -13595,7 +13595,7 @@
           <t>806</t>
         </is>
       </c>
-      <c r="L76" s="8" t="inlineStr">
+      <c r="L76" s="17" t="inlineStr">
         <is>
           <t>137</t>
         </is>
@@ -13620,7 +13620,7 @@
           <t>719</t>
         </is>
       </c>
-      <c r="Q76" s="17" t="inlineStr">
+      <c r="Q76" s="10" t="inlineStr">
         <is>
           <t>785</t>
         </is>
@@ -13695,7 +13695,7 @@
           <t>185</t>
         </is>
       </c>
-      <c r="AF76" s="17" t="inlineStr">
+      <c r="AF76" s="15" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -13817,7 +13817,7 @@
           <t>435</t>
         </is>
       </c>
-      <c r="S77" s="10" t="inlineStr">
+      <c r="S77" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -13902,7 +13902,7 @@
           <t>945</t>
         </is>
       </c>
-      <c r="AJ77" s="17" t="inlineStr">
+      <c r="AJ77" s="16" t="inlineStr">
         <is>
           <t>857</t>
         </is>
@@ -14251,7 +14251,7 @@
           <t>887</t>
         </is>
       </c>
-      <c r="AE79" s="14" t="inlineStr">
+      <c r="AE79" s="17" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -14293,7 +14293,7 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B80" s="5" t="inlineStr">
+      <c r="B80" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -14378,7 +14378,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="S80" s="17" t="inlineStr">
+      <c r="S80" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -14667,7 +14667,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B82" s="5" t="inlineStr">
+      <c r="B82" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -14747,7 +14747,7 @@
           <t>061</t>
         </is>
       </c>
-      <c r="R82" s="10" t="inlineStr">
+      <c r="R82" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -14879,7 +14879,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G83" s="6" t="inlineStr">
+      <c r="G83" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -15181,7 +15181,7 @@
           <t>399</t>
         </is>
       </c>
-      <c r="AD84" s="17" t="inlineStr">
+      <c r="AD84" s="14" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -15201,7 +15201,7 @@
           <t>977</t>
         </is>
       </c>
-      <c r="AH84" s="17" t="inlineStr">
+      <c r="AH84" s="15" t="inlineStr">
         <is>
           <t>790</t>
         </is>
@@ -15343,7 +15343,7 @@
           <t>933</t>
         </is>
       </c>
-      <c r="Y85" s="12" t="inlineStr">
+      <c r="Y85" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -15388,7 +15388,7 @@
           <t>113</t>
         </is>
       </c>
-      <c r="AH85" s="15" t="inlineStr">
+      <c r="AH85" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -15460,7 +15460,7 @@
           <t>559</t>
         </is>
       </c>
-      <c r="K86" s="8" t="inlineStr">
+      <c r="K86" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -15470,7 +15470,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="M86" s="17" t="inlineStr">
+      <c r="M86" s="8" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -15480,7 +15480,7 @@
           <t>608</t>
         </is>
       </c>
-      <c r="O86" s="17" t="inlineStr">
+      <c r="O86" s="9" t="inlineStr">
         <is>
           <t>467</t>
         </is>
@@ -15540,7 +15540,7 @@
           <t>838</t>
         </is>
       </c>
-      <c r="AA86" s="17" t="inlineStr">
+      <c r="AA86" s="13" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -15767,7 +15767,7 @@
           <t>561</t>
         </is>
       </c>
-      <c r="AI87" s="16" t="inlineStr">
+      <c r="AI87" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -15849,12 +15849,12 @@
           <t>727</t>
         </is>
       </c>
-      <c r="N88" s="17" t="inlineStr">
+      <c r="N88" s="9" t="inlineStr">
         <is>
           <t>754</t>
         </is>
       </c>
-      <c r="O88" s="17" t="inlineStr">
+      <c r="O88" s="9" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -16056,7 +16056,7 @@
           <t>335</t>
         </is>
       </c>
-      <c r="R89" s="10" t="inlineStr">
+      <c r="R89" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -16066,7 +16066,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="T89" s="17" t="inlineStr">
+      <c r="T89" s="11" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -16106,7 +16106,7 @@
           <t>854</t>
         </is>
       </c>
-      <c r="AB89" s="17" t="inlineStr">
+      <c r="AB89" s="13" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -16151,7 +16151,7 @@
           <t>265</t>
         </is>
       </c>
-      <c r="AK89" s="16" t="inlineStr">
+      <c r="AK89" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -16203,7 +16203,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J90" s="7" t="inlineStr">
+      <c r="J90" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -16218,7 +16218,7 @@
           <t>529</t>
         </is>
       </c>
-      <c r="M90" s="17" t="inlineStr">
+      <c r="M90" s="8" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -16228,7 +16228,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="O90" s="17" t="inlineStr">
+      <c r="O90" s="9" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -16390,7 +16390,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J91" s="17" t="inlineStr">
+      <c r="J91" s="7" t="inlineStr">
         <is>
           <t>476</t>
         </is>
@@ -16500,7 +16500,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="AF91" s="17" t="inlineStr">
+      <c r="AF91" s="15" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -16525,7 +16525,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="AK91" s="16" t="inlineStr">
+      <c r="AK91" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -16612,7 +16612,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="Q92" s="17" t="inlineStr">
+      <c r="Q92" s="10" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -16652,7 +16652,7 @@
           <t>187</t>
         </is>
       </c>
-      <c r="Y92" s="12" t="inlineStr">
+      <c r="Y92" s="17" t="inlineStr">
         <is>
           <t>137</t>
         </is>
@@ -16702,7 +16702,7 @@
           <t>147</t>
         </is>
       </c>
-      <c r="AI92" s="17" t="inlineStr">
+      <c r="AI92" s="16" t="inlineStr">
         <is>
           <t>857</t>
         </is>
@@ -16749,7 +16749,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G93" s="17" t="inlineStr">
+      <c r="G93" s="6" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -16784,7 +16784,7 @@
           <t>776</t>
         </is>
       </c>
-      <c r="N93" s="17" t="inlineStr">
+      <c r="N93" s="9" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -16809,7 +16809,7 @@
           <t>592</t>
         </is>
       </c>
-      <c r="S93" s="10" t="inlineStr">
+      <c r="S93" s="17" t="inlineStr">
         <is>
           <t>137</t>
         </is>
@@ -17026,7 +17026,7 @@
           <t>896</t>
         </is>
       </c>
-      <c r="Y94" s="17" t="inlineStr">
+      <c r="Y94" s="12" t="inlineStr">
         <is>
           <t>467</t>
         </is>
@@ -17086,7 +17086,7 @@
           <t>049</t>
         </is>
       </c>
-      <c r="AK94" s="17" t="inlineStr">
+      <c r="AK94" s="16" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -17168,7 +17168,7 @@
           <t>217</t>
         </is>
       </c>
-      <c r="P95" s="9" t="inlineStr">
+      <c r="P95" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -17183,7 +17183,7 @@
           <t>418</t>
         </is>
       </c>
-      <c r="S95" s="17" t="inlineStr">
+      <c r="S95" s="10" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -17258,7 +17258,7 @@
           <t>788</t>
         </is>
       </c>
-      <c r="AH95" s="17" t="inlineStr">
+      <c r="AH95" s="15" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -17345,7 +17345,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="N96" s="17" t="inlineStr">
+      <c r="N96" s="9" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -17355,7 +17355,7 @@
           <t>311</t>
         </is>
       </c>
-      <c r="P96" s="17" t="inlineStr">
+      <c r="P96" s="9" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -17395,7 +17395,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="X96" s="17" t="inlineStr">
+      <c r="X96" s="12" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -17405,7 +17405,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="Z96" s="13" t="inlineStr">
+      <c r="Z96" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -17440,7 +17440,7 @@
           <t>116</t>
         </is>
       </c>
-      <c r="AG96" s="17" t="inlineStr">
+      <c r="AG96" s="15" t="inlineStr">
         <is>
           <t>970</t>
         </is>
@@ -17587,7 +17587,7 @@
           <t>583</t>
         </is>
       </c>
-      <c r="Y97" s="17" t="inlineStr">
+      <c r="Y97" s="12" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -17597,7 +17597,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="AA97" s="17" t="inlineStr">
+      <c r="AA97" s="13" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -17729,7 +17729,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="P98" s="17" t="inlineStr">
+      <c r="P98" s="9" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -17819,7 +17819,7 @@
           <t>679</t>
         </is>
       </c>
-      <c r="AH98" s="15" t="inlineStr">
+      <c r="AH98" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -17881,12 +17881,12 @@
           <t>922</t>
         </is>
       </c>
-      <c r="I99" s="7" t="inlineStr">
+      <c r="I99" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="J99" s="17" t="inlineStr">
+      <c r="J99" s="7" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -17966,7 +17966,7 @@
           <t>441</t>
         </is>
       </c>
-      <c r="Z99" s="17" t="inlineStr">
+      <c r="Z99" s="13" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -18063,7 +18063,7 @@
           <t>487</t>
         </is>
       </c>
-      <c r="H100" s="17" t="inlineStr">
+      <c r="H100" s="7" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -18113,12 +18113,12 @@
           <t>597</t>
         </is>
       </c>
-      <c r="R100" s="17" t="inlineStr">
+      <c r="R100" s="10" t="inlineStr">
         <is>
           <t>278</t>
         </is>
       </c>
-      <c r="S100" s="17" t="inlineStr">
+      <c r="S100" s="10" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -18168,7 +18168,7 @@
           <t>604</t>
         </is>
       </c>
-      <c r="AC100" s="17" t="inlineStr">
+      <c r="AC100" s="14" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -18208,7 +18208,7 @@
           <t>781</t>
         </is>
       </c>
-      <c r="AK100" s="17" t="inlineStr">
+      <c r="AK100" s="16" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -18290,7 +18290,7 @@
           <t>747</t>
         </is>
       </c>
-      <c r="P101" s="17" t="inlineStr">
+      <c r="P101" s="9" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -18395,7 +18395,7 @@
           <t>044</t>
         </is>
       </c>
-      <c r="AK101" s="17" t="inlineStr">
+      <c r="AK101" s="16" t="inlineStr">
         <is>
           <t>790</t>
         </is>
@@ -18407,7 +18407,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B102" s="17" t="inlineStr">
+      <c r="B102" s="5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -18659,12 +18659,12 @@
           <t>811</t>
         </is>
       </c>
-      <c r="O103" s="17" t="inlineStr">
+      <c r="O103" s="9" t="inlineStr">
         <is>
           <t>745</t>
         </is>
       </c>
-      <c r="P103" s="17" t="inlineStr">
+      <c r="P103" s="9" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -18764,7 +18764,7 @@
           <t>677</t>
         </is>
       </c>
-      <c r="AJ103" s="16" t="inlineStr">
+      <c r="AJ103" s="17" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -19190,7 +19190,7 @@
           <t>082</t>
         </is>
       </c>
-      <c r="AC108" s="14" t="inlineStr">
+      <c r="AC108" s="17" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -19210,7 +19210,7 @@
           <t>821</t>
         </is>
       </c>
-      <c r="AG108" s="15" t="inlineStr">
+      <c r="AG108" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -19382,7 +19382,7 @@
           <t>600</t>
         </is>
       </c>
-      <c r="AD109" s="14" t="inlineStr">
+      <c r="AD109" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -19564,7 +19564,7 @@
           <t>757</t>
         </is>
       </c>
-      <c r="AC110" s="17" t="inlineStr">
+      <c r="AC110" s="14" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -19641,7 +19641,7 @@
           <t>830</t>
         </is>
       </c>
-      <c r="G111" s="17" t="inlineStr">
+      <c r="G111" s="6" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -19676,7 +19676,7 @@
           <t>381</t>
         </is>
       </c>
-      <c r="N111" s="17" t="inlineStr">
+      <c r="N111" s="9" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -19706,7 +19706,7 @@
           <t>684</t>
         </is>
       </c>
-      <c r="T111" s="17" t="inlineStr">
+      <c r="T111" s="11" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -19731,7 +19731,7 @@
           <t>348</t>
         </is>
       </c>
-      <c r="Y111" s="17" t="inlineStr">
+      <c r="Y111" s="12" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -19751,7 +19751,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="AC111" s="14" t="inlineStr">
+      <c r="AC111" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -19928,7 +19928,7 @@
           <t>175</t>
         </is>
       </c>
-      <c r="AA112" s="13" t="inlineStr">
+      <c r="AA112" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -19963,7 +19963,7 @@
           <t>637</t>
         </is>
       </c>
-      <c r="AH112" s="15" t="inlineStr">
+      <c r="AH112" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -20130,7 +20130,7 @@
           <t>562</t>
         </is>
       </c>
-      <c r="AD113" s="14" t="inlineStr">
+      <c r="AD113" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -20212,7 +20212,7 @@
           <t>429</t>
         </is>
       </c>
-      <c r="I114" s="17" t="inlineStr">
+      <c r="I114" s="7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
@@ -20434,12 +20434,12 @@
           <t>306</t>
         </is>
       </c>
-      <c r="P115" s="17" t="inlineStr">
+      <c r="P115" s="9" t="inlineStr">
         <is>
           <t>857</t>
         </is>
       </c>
-      <c r="Q115" s="17" t="inlineStr">
+      <c r="Q115" s="10" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -20474,7 +20474,7 @@
           <t>781</t>
         </is>
       </c>
-      <c r="X115" s="12" t="inlineStr">
+      <c r="X115" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -20591,7 +20591,7 @@
           <t>404</t>
         </is>
       </c>
-      <c r="J116" s="7" t="inlineStr">
+      <c r="J116" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -20611,12 +20611,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N116" s="9" t="inlineStr">
+      <c r="N116" s="17" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="O116" s="9" t="inlineStr">
+      <c r="O116" s="17" t="inlineStr">
         <is>
           <t>137</t>
         </is>
@@ -20636,7 +20636,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="S116" s="10" t="inlineStr">
+      <c r="S116" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -21045,7 +21045,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="Z118" s="17" t="inlineStr">
+      <c r="Z118" s="13" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -21354,7 +21354,7 @@
           <t>526</t>
         </is>
       </c>
-      <c r="M120" s="17" t="inlineStr">
+      <c r="M120" s="8" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -21464,7 +21464,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="AI120" s="16" t="inlineStr">
+      <c r="AI120" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -21611,7 +21611,7 @@
           <t>186</t>
         </is>
       </c>
-      <c r="AA121" s="17" t="inlineStr">
+      <c r="AA121" s="13" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -21621,7 +21621,7 @@
           <t>112</t>
         </is>
       </c>
-      <c r="AC121" s="14" t="inlineStr">
+      <c r="AC121" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -21688,7 +21688,7 @@
           <t>014</t>
         </is>
       </c>
-      <c r="E122" s="17" t="inlineStr">
+      <c r="E122" s="6" t="inlineStr">
         <is>
           <t>647</t>
         </is>
@@ -21698,7 +21698,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="G122" s="17" t="inlineStr">
+      <c r="G122" s="6" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -21718,7 +21718,7 @@
           <t>540</t>
         </is>
       </c>
-      <c r="K122" s="8" t="inlineStr">
+      <c r="K122" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -21783,7 +21783,7 @@
           <t>891</t>
         </is>
       </c>
-      <c r="X122" s="17" t="inlineStr">
+      <c r="X122" s="12" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -21803,7 +21803,7 @@
           <t>252</t>
         </is>
       </c>
-      <c r="AB122" s="17" t="inlineStr">
+      <c r="AB122" s="13" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -21960,7 +21960,7 @@
           <t>554</t>
         </is>
       </c>
-      <c r="V123" s="17" t="inlineStr">
+      <c r="V123" s="11" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -22005,7 +22005,7 @@
           <t>884</t>
         </is>
       </c>
-      <c r="AE123" s="17" t="inlineStr">
+      <c r="AE123" s="14" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -22025,7 +22025,7 @@
           <t>579</t>
         </is>
       </c>
-      <c r="AI123" s="16" t="inlineStr">
+      <c r="AI123" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -22067,7 +22067,7 @@
           <t>103</t>
         </is>
       </c>
-      <c r="F124" s="17" t="inlineStr">
+      <c r="F124" s="6" t="inlineStr">
         <is>
           <t>970</t>
         </is>
@@ -22087,7 +22087,7 @@
           <t>554</t>
         </is>
       </c>
-      <c r="J124" s="17" t="inlineStr">
+      <c r="J124" s="7" t="inlineStr">
         <is>
           <t>790</t>
         </is>
@@ -22097,7 +22097,7 @@
           <t>074</t>
         </is>
       </c>
-      <c r="L124" s="8" t="inlineStr">
+      <c r="L124" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -22127,7 +22127,7 @@
           <t>129</t>
         </is>
       </c>
-      <c r="R124" s="10" t="inlineStr">
+      <c r="R124" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -22254,7 +22254,7 @@
           <t>954</t>
         </is>
       </c>
-      <c r="F125" s="17" t="inlineStr">
+      <c r="F125" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -22319,7 +22319,7 @@
           <t>793</t>
         </is>
       </c>
-      <c r="S125" s="17" t="inlineStr">
+      <c r="S125" s="10" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -22334,7 +22334,7 @@
           <t>633</t>
         </is>
       </c>
-      <c r="V125" s="17" t="inlineStr">
+      <c r="V125" s="11" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -22354,7 +22354,7 @@
           <t>148</t>
         </is>
       </c>
-      <c r="Z125" s="17" t="inlineStr">
+      <c r="Z125" s="13" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -22384,7 +22384,7 @@
           <t>313</t>
         </is>
       </c>
-      <c r="AF125" s="17" t="inlineStr">
+      <c r="AF125" s="15" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -22394,7 +22394,7 @@
           <t>911</t>
         </is>
       </c>
-      <c r="AH125" s="17" t="inlineStr">
+      <c r="AH125" s="15" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -22404,7 +22404,7 @@
           <t>853</t>
         </is>
       </c>
-      <c r="AJ125" s="16" t="inlineStr">
+      <c r="AJ125" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -22683,7 +22683,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="Q127" s="17" t="inlineStr">
+      <c r="Q127" s="10" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -22835,12 +22835,12 @@
           <t>434</t>
         </is>
       </c>
-      <c r="J128" s="17" t="inlineStr">
+      <c r="J128" s="7" t="inlineStr">
         <is>
           <t>782</t>
         </is>
       </c>
-      <c r="K128" s="17" t="inlineStr">
+      <c r="K128" s="8" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -22880,7 +22880,7 @@
           <t>532</t>
         </is>
       </c>
-      <c r="S128" s="10" t="inlineStr">
+      <c r="S128" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -22900,7 +22900,7 @@
           <t>720</t>
         </is>
       </c>
-      <c r="W128" s="12" t="inlineStr">
+      <c r="W128" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -22920,7 +22920,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="AA128" s="17" t="inlineStr">
+      <c r="AA128" s="13" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -22970,7 +22970,7 @@
           <t>059</t>
         </is>
       </c>
-      <c r="AK128" s="16" t="inlineStr">
+      <c r="AK128" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -23002,7 +23002,7 @@
           <t>808</t>
         </is>
       </c>
-      <c r="F129" s="6" t="inlineStr">
+      <c r="F129" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -23112,7 +23112,7 @@
           <t>213</t>
         </is>
       </c>
-      <c r="AB129" s="13" t="inlineStr">
+      <c r="AB129" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -23259,7 +23259,7 @@
           <t>816</t>
         </is>
       </c>
-      <c r="T130" s="17" t="inlineStr">
+      <c r="T130" s="11" t="inlineStr">
         <is>
           <t>857</t>
         </is>
@@ -23319,7 +23319,7 @@
           <t>536</t>
         </is>
       </c>
-      <c r="AF130" s="17" t="inlineStr">
+      <c r="AF130" s="15" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -23381,7 +23381,7 @@
           <t>759</t>
         </is>
       </c>
-      <c r="G131" s="6" t="inlineStr">
+      <c r="G131" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -23436,7 +23436,7 @@
           <t>921</t>
         </is>
       </c>
-      <c r="R131" s="17" t="inlineStr">
+      <c r="R131" s="10" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -23496,7 +23496,7 @@
           <t>943</t>
         </is>
       </c>
-      <c r="AD131" s="17" t="inlineStr">
+      <c r="AD131" s="14" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -23516,7 +23516,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="AH131" s="15" t="inlineStr">
+      <c r="AH131" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -23531,7 +23531,7 @@
           <t>203</t>
         </is>
       </c>
-      <c r="AK131" s="17" t="inlineStr">
+      <c r="AK131" s="16" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -23730,7 +23730,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B133" s="5" t="inlineStr">
+      <c r="B133" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -24022,7 +24022,7 @@
           <t>337</t>
         </is>
       </c>
-      <c r="W134" s="17" t="inlineStr">
+      <c r="W134" s="12" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -24082,7 +24082,7 @@
           <t>987</t>
         </is>
       </c>
-      <c r="AI134" s="17" t="inlineStr">
+      <c r="AI134" s="16" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -24104,7 +24104,7 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B135" s="5" t="inlineStr">
+      <c r="B135" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -24139,7 +24139,7 @@
           <t>392</t>
         </is>
       </c>
-      <c r="I135" s="17" t="inlineStr">
+      <c r="I135" s="7" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -24189,7 +24189,7 @@
           <t>294</t>
         </is>
       </c>
-      <c r="S135" s="10" t="inlineStr">
+      <c r="S135" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -24219,7 +24219,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="Y135" s="17" t="inlineStr">
+      <c r="Y135" s="12" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -24483,7 +24483,7 @@
           <t>321</t>
         </is>
       </c>
-      <c r="C137" s="5" t="inlineStr">
+      <c r="C137" s="17" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -24538,7 +24538,7 @@
           <t>881</t>
         </is>
       </c>
-      <c r="N137" s="17" t="inlineStr">
+      <c r="N137" s="9" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -24805,7 +24805,7 @@
           <t>203</t>
         </is>
       </c>
-      <c r="AD138" s="14" t="inlineStr">
+      <c r="AD138" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -25236,7 +25236,7 @@
           <t>358</t>
         </is>
       </c>
-      <c r="X143" s="12" t="inlineStr">
+      <c r="X143" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -25403,7 +25403,7 @@
           <t>239</t>
         </is>
       </c>
-      <c r="T144" s="17" t="inlineStr">
+      <c r="T144" s="11" t="inlineStr">
         <is>
           <t>857</t>
         </is>
@@ -25500,7 +25500,7 @@
           <t>03</t>
         </is>
       </c>
-      <c r="B145" s="17" t="inlineStr">
+      <c r="B145" s="5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -25520,7 +25520,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="F145" s="17" t="inlineStr">
+      <c r="F145" s="6" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -25595,7 +25595,7 @@
           <t>262</t>
         </is>
       </c>
-      <c r="U145" s="17" t="inlineStr">
+      <c r="U145" s="11" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -25655,7 +25655,7 @@
           <t>931</t>
         </is>
       </c>
-      <c r="AG145" s="15" t="inlineStr">
+      <c r="AG145" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -25702,7 +25702,7 @@
           <t>271</t>
         </is>
       </c>
-      <c r="E146" s="17" t="inlineStr">
+      <c r="E146" s="6" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -25717,12 +25717,12 @@
           <t>129</t>
         </is>
       </c>
-      <c r="H146" s="7" t="inlineStr">
+      <c r="H146" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
       </c>
-      <c r="I146" s="17" t="inlineStr">
+      <c r="I146" s="7" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -25862,7 +25862,7 @@
           <t>158</t>
         </is>
       </c>
-      <c r="AK146" s="17" t="inlineStr">
+      <c r="AK146" s="16" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -25969,7 +25969,7 @@
           <t>177</t>
         </is>
       </c>
-      <c r="U147" s="17" t="inlineStr">
+      <c r="U147" s="11" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -25989,7 +25989,7 @@
           <t>908</t>
         </is>
       </c>
-      <c r="Y147" s="17" t="inlineStr">
+      <c r="Y147" s="12" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -26019,7 +26019,7 @@
           <t>094</t>
         </is>
       </c>
-      <c r="AE147" s="17" t="inlineStr">
+      <c r="AE147" s="14" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -26034,7 +26034,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="AH147" s="17" t="inlineStr">
+      <c r="AH147" s="15" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -26111,7 +26111,7 @@
           <t>993</t>
         </is>
       </c>
-      <c r="L148" s="17" t="inlineStr">
+      <c r="L148" s="8" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -26363,7 +26363,7 @@
           <t>370</t>
         </is>
       </c>
-      <c r="Y149" s="17" t="inlineStr">
+      <c r="Y149" s="12" t="inlineStr">
         <is>
           <t>476</t>
         </is>
@@ -26520,7 +26520,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="S150" s="17" t="inlineStr">
+      <c r="S150" s="10" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -26747,7 +26747,7 @@
           <t>273</t>
         </is>
       </c>
-      <c r="AA151" s="17" t="inlineStr">
+      <c r="AA151" s="13" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -26894,7 +26894,7 @@
           <t>329</t>
         </is>
       </c>
-      <c r="S152" s="17" t="inlineStr">
+      <c r="S152" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -26919,7 +26919,7 @@
           <t>665</t>
         </is>
       </c>
-      <c r="X152" s="17" t="inlineStr">
+      <c r="X152" s="12" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -27131,7 +27131,7 @@
           <t>698</t>
         </is>
       </c>
-      <c r="AC153" s="17" t="inlineStr">
+      <c r="AC153" s="14" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -27223,7 +27223,7 @@
           <t>243</t>
         </is>
       </c>
-      <c r="J154" s="17" t="inlineStr">
+      <c r="J154" s="7" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -27505,7 +27505,7 @@
           <t>536</t>
         </is>
       </c>
-      <c r="AC155" s="14" t="inlineStr">
+      <c r="AC155" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -27702,7 +27702,7 @@
           <t>409</t>
         </is>
       </c>
-      <c r="AE156" s="17" t="inlineStr">
+      <c r="AE156" s="14" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -27759,7 +27759,7 @@
           <t>496</t>
         </is>
       </c>
-      <c r="E157" s="17" t="inlineStr">
+      <c r="E157" s="6" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -27824,7 +27824,7 @@
           <t>866</t>
         </is>
       </c>
-      <c r="R157" s="17" t="inlineStr">
+      <c r="R157" s="10" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -27849,7 +27849,7 @@
           <t>851</t>
         </is>
       </c>
-      <c r="W157" s="17" t="inlineStr">
+      <c r="W157" s="12" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -27874,7 +27874,7 @@
           <t>061</t>
         </is>
       </c>
-      <c r="AB157" s="17" t="inlineStr">
+      <c r="AB157" s="13" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -27904,7 +27904,7 @@
           <t>382</t>
         </is>
       </c>
-      <c r="AH157" s="17" t="inlineStr">
+      <c r="AH157" s="15" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -27951,7 +27951,7 @@
           <t>484</t>
         </is>
       </c>
-      <c r="F158" s="17" t="inlineStr">
+      <c r="F158" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -27976,7 +27976,7 @@
           <t>829</t>
         </is>
       </c>
-      <c r="K158" s="17" t="inlineStr">
+      <c r="K158" s="8" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -28051,7 +28051,7 @@
           <t>488</t>
         </is>
       </c>
-      <c r="Z158" s="17" t="inlineStr">
+      <c r="Z158" s="13" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -28101,7 +28101,7 @@
           <t>208</t>
         </is>
       </c>
-      <c r="AJ158" s="17" t="inlineStr">
+      <c r="AJ158" s="16" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -28173,7 +28173,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="M159" s="17" t="inlineStr">
+      <c r="M159" s="8" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -28193,7 +28193,7 @@
           <t>579</t>
         </is>
       </c>
-      <c r="Q159" s="17" t="inlineStr">
+      <c r="Q159" s="10" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -28233,7 +28233,7 @@
           <t>986</t>
         </is>
       </c>
-      <c r="Y159" s="12" t="inlineStr">
+      <c r="Y159" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -28273,7 +28273,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="AG159" s="15" t="inlineStr">
+      <c r="AG159" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -28310,7 +28310,7 @@
           <t>964</t>
         </is>
       </c>
-      <c r="C160" s="17" t="inlineStr">
+      <c r="C160" s="5" t="inlineStr">
         <is>
           <t>467</t>
         </is>
@@ -28345,7 +28345,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="J160" s="17" t="inlineStr">
+      <c r="J160" s="7" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -28395,7 +28395,7 @@
           <t>540</t>
         </is>
       </c>
-      <c r="T160" s="11" t="inlineStr">
+      <c r="T160" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -28552,7 +28552,7 @@
           <t>551</t>
         </is>
       </c>
-      <c r="N161" s="9" t="inlineStr">
+      <c r="N161" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -28592,12 +28592,12 @@
           <t>922</t>
         </is>
       </c>
-      <c r="V161" s="17" t="inlineStr">
+      <c r="V161" s="11" t="inlineStr">
         <is>
           <t>872</t>
         </is>
       </c>
-      <c r="W161" s="12" t="inlineStr">
+      <c r="W161" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -28607,7 +28607,7 @@
           <t>808</t>
         </is>
       </c>
-      <c r="Y161" s="17" t="inlineStr">
+      <c r="Y161" s="12" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -28814,7 +28814,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AC162" s="17" t="inlineStr">
+      <c r="AC162" s="14" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -29026,7 +29026,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="AH163" s="17" t="inlineStr">
+      <c r="AH163" s="15" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -29098,7 +29098,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="K164" s="17" t="inlineStr">
+      <c r="K164" s="8" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -29138,7 +29138,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="S164" s="17" t="inlineStr">
+      <c r="S164" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29198,7 +29198,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="AE164" s="17" t="inlineStr">
+      <c r="AE164" s="14" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29208,7 +29208,7 @@
           <t>702</t>
         </is>
       </c>
-      <c r="AG164" s="15" t="inlineStr">
+      <c r="AG164" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -29285,7 +29285,7 @@
           <t>322</t>
         </is>
       </c>
-      <c r="K165" s="8" t="inlineStr">
+      <c r="K165" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -29360,7 +29360,7 @@
           <t>812</t>
         </is>
       </c>
-      <c r="Z165" s="17" t="inlineStr">
+      <c r="Z165" s="13" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -29392,17 +29392,17 @@
       </c>
       <c r="AF165" s="15" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AG165" s="15" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AH165" s="15" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AI165" s="16" t="inlineStr">
@@ -29482,7 +29482,7 @@
           <t>888</t>
         </is>
       </c>
-      <c r="M166" s="8" t="inlineStr">
+      <c r="M166" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -29497,7 +29497,7 @@
           <t>984</t>
         </is>
       </c>
-      <c r="P166" s="17" t="inlineStr">
+      <c r="P166" s="9" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -29811,7 +29811,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="D168" s="17" t="inlineStr">
+      <c r="D168" s="5" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -29936,7 +29936,7 @@
           <t>399</t>
         </is>
       </c>
-      <c r="AC168" s="14" t="inlineStr">
+      <c r="AC168" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -30235,7 +30235,7 @@
           <t>030</t>
         </is>
       </c>
-      <c r="N170" s="17" t="inlineStr">
+      <c r="N170" s="9" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -30310,7 +30310,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="AC170" s="17" t="inlineStr">
+      <c r="AC170" s="14" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -30335,7 +30335,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="AH170" s="15" t="inlineStr">
+      <c r="AH170" s="17" t="inlineStr">
         <is>
           <t>137</t>
         </is>
@@ -30345,7 +30345,7 @@
           <t>958</t>
         </is>
       </c>
-      <c r="AJ170" s="17" t="inlineStr">
+      <c r="AJ170" s="16" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -30442,7 +30442,7 @@
           <t>064</t>
         </is>
       </c>
-      <c r="R171" s="17" t="inlineStr">
+      <c r="R171" s="10" t="inlineStr">
         <is>
           <t>746</t>
         </is>
@@ -30589,7 +30589,7 @@
           <t>759</t>
         </is>
       </c>
-      <c r="J172" s="7" t="inlineStr">
+      <c r="J172" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -30604,7 +30604,7 @@
           <t>505</t>
         </is>
       </c>
-      <c r="M172" s="17" t="inlineStr">
+      <c r="M172" s="8" t="inlineStr">
         <is>
           <t>476</t>
         </is>
@@ -30634,7 +30634,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="S172" s="10" t="inlineStr">
+      <c r="S172" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -30644,7 +30644,7 @@
           <t>284</t>
         </is>
       </c>
-      <c r="U172" s="11" t="inlineStr">
+      <c r="U172" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -30669,7 +30669,7 @@
           <t>386</t>
         </is>
       </c>
-      <c r="Z172" s="17" t="inlineStr">
+      <c r="Z172" s="13" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -30776,7 +30776,7 @@
           <t>848</t>
         </is>
       </c>
-      <c r="J173" s="17" t="inlineStr">
+      <c r="J173" s="7" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -31312,7 +31312,7 @@
           <t>722</t>
         </is>
       </c>
-      <c r="Y178" s="17" t="inlineStr">
+      <c r="Y178" s="12" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -31332,7 +31332,7 @@
           <t>174</t>
         </is>
       </c>
-      <c r="AC178" s="17" t="inlineStr">
+      <c r="AC178" s="14" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -31449,7 +31449,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="O179" s="17" t="inlineStr">
+      <c r="O179" s="9" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -31494,12 +31494,12 @@
           <t>592</t>
         </is>
       </c>
-      <c r="X179" s="12" t="inlineStr">
+      <c r="X179" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="Y179" s="17" t="inlineStr">
+      <c r="Y179" s="12" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -31681,7 +31681,7 @@
           <t>345</t>
         </is>
       </c>
-      <c r="X180" s="17" t="inlineStr">
+      <c r="X180" s="12" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -31696,7 +31696,7 @@
           <t>441</t>
         </is>
       </c>
-      <c r="AA180" s="17" t="inlineStr">
+      <c r="AA180" s="13" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -31828,7 +31828,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="P181" s="17" t="inlineStr">
+      <c r="P181" s="9" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -31908,7 +31908,7 @@
           <t>204</t>
         </is>
       </c>
-      <c r="AF181" s="15" t="inlineStr">
+      <c r="AF181" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -31960,7 +31960,7 @@
           <t>980</t>
         </is>
       </c>
-      <c r="E182" s="17" t="inlineStr">
+      <c r="E182" s="6" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -32080,7 +32080,7 @@
           <t>771</t>
         </is>
       </c>
-      <c r="AC182" s="17" t="inlineStr">
+      <c r="AC182" s="14" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -32242,7 +32242,7 @@
           <t>629</t>
         </is>
       </c>
-      <c r="X183" s="12" t="inlineStr">
+      <c r="X183" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -32464,7 +32464,7 @@
           <t>740</t>
         </is>
       </c>
-      <c r="AE184" s="17" t="inlineStr">
+      <c r="AE184" s="14" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -32531,7 +32531,7 @@
           <t>275</t>
         </is>
       </c>
-      <c r="G185" s="6" t="inlineStr">
+      <c r="G185" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -32571,12 +32571,12 @@
           <t>446</t>
         </is>
       </c>
-      <c r="O185" s="17" t="inlineStr">
+      <c r="O185" s="9" t="inlineStr">
         <is>
           <t>734</t>
         </is>
       </c>
-      <c r="P185" s="17" t="inlineStr">
+      <c r="P185" s="9" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -32708,7 +32708,7 @@
           <t>338</t>
         </is>
       </c>
-      <c r="E186" s="17" t="inlineStr">
+      <c r="E186" s="6" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -32868,7 +32868,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AK186" s="17" t="inlineStr">
+      <c r="AK186" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -32975,7 +32975,7 @@
           <t>425</t>
         </is>
       </c>
-      <c r="U187" s="17" t="inlineStr">
+      <c r="U187" s="11" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -33015,7 +33015,7 @@
           <t>605</t>
         </is>
       </c>
-      <c r="AC187" s="17" t="inlineStr">
+      <c r="AC187" s="14" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -33102,7 +33102,7 @@
           <t>611</t>
         </is>
       </c>
-      <c r="I188" s="17" t="inlineStr">
+      <c r="I188" s="7" t="inlineStr">
         <is>
           <t>746</t>
         </is>
@@ -33324,7 +33324,7 @@
           <t>310</t>
         </is>
       </c>
-      <c r="P189" s="17" t="inlineStr">
+      <c r="P189" s="9" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -33339,7 +33339,7 @@
           <t>901</t>
         </is>
       </c>
-      <c r="S189" s="17" t="inlineStr">
+      <c r="S189" s="10" t="inlineStr">
         <is>
           <t>467</t>
         </is>
@@ -33546,7 +33546,7 @@
           <t>983</t>
         </is>
       </c>
-      <c r="W190" s="17" t="inlineStr">
+      <c r="W190" s="12" t="inlineStr">
         <is>
           <t>476</t>
         </is>
@@ -33556,7 +33556,7 @@
           <t>448</t>
         </is>
       </c>
-      <c r="Y190" s="17" t="inlineStr">
+      <c r="Y190" s="12" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -33653,7 +33653,7 @@
           <t>449</t>
         </is>
       </c>
-      <c r="G191" s="17" t="inlineStr">
+      <c r="G191" s="6" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -33733,7 +33733,7 @@
           <t>650</t>
         </is>
       </c>
-      <c r="W191" s="17" t="inlineStr">
+      <c r="W191" s="12" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -33945,7 +33945,7 @@
           <t>617</t>
         </is>
       </c>
-      <c r="AB192" s="13" t="inlineStr">
+      <c r="AB192" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -33985,7 +33985,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="AJ192" s="17" t="inlineStr">
+      <c r="AJ192" s="16" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -34017,7 +34017,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="E193" s="17" t="inlineStr">
+      <c r="E193" s="6" t="inlineStr">
         <is>
           <t>970</t>
         </is>
@@ -34047,7 +34047,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="K193" s="17" t="inlineStr">
+      <c r="K193" s="8" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -34082,17 +34082,17 @@
           <t>971</t>
         </is>
       </c>
-      <c r="R193" s="10" t="inlineStr">
+      <c r="R193" s="17" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="S193" s="17" t="inlineStr">
+      <c r="S193" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
       </c>
-      <c r="T193" s="11" t="inlineStr">
+      <c r="T193" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -34112,7 +34112,7 @@
           <t>560</t>
         </is>
       </c>
-      <c r="X193" s="17" t="inlineStr">
+      <c r="X193" s="12" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -34219,7 +34219,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="H194" s="17" t="inlineStr">
+      <c r="H194" s="7" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -34244,7 +34244,7 @@
           <t>178</t>
         </is>
       </c>
-      <c r="M194" s="8" t="inlineStr">
+      <c r="M194" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -34274,7 +34274,7 @@
           <t>343</t>
         </is>
       </c>
-      <c r="S194" s="17" t="inlineStr">
+      <c r="S194" s="10" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -34309,12 +34309,12 @@
           <t>292</t>
         </is>
       </c>
-      <c r="Z194" s="13" t="inlineStr">
+      <c r="Z194" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
       </c>
-      <c r="AA194" s="17" t="inlineStr">
+      <c r="AA194" s="13" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -34386,12 +34386,12 @@
           <t>022</t>
         </is>
       </c>
-      <c r="D195" s="17" t="inlineStr">
+      <c r="D195" s="5" t="inlineStr">
         <is>
           <t>674</t>
         </is>
       </c>
-      <c r="E195" s="6" t="inlineStr">
+      <c r="E195" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -34401,7 +34401,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="G195" s="17" t="inlineStr">
+      <c r="G195" s="6" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -34501,7 +34501,7 @@
           <t>273</t>
         </is>
       </c>
-      <c r="AA195" s="13" t="inlineStr">
+      <c r="AA195" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -34563,7 +34563,7 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B196" s="17" t="inlineStr">
+      <c r="B196" s="5" t="inlineStr">
         <is>
           <t>857</t>
         </is>
@@ -34648,7 +34648,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="S196" s="17" t="inlineStr">
+      <c r="S196" s="10" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -34668,7 +34668,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="W196" s="12" t="inlineStr">
+      <c r="W196" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -34815,7 +34815,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="O197" s="17" t="inlineStr">
+      <c r="O197" s="9" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -34880,7 +34880,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="AB197" s="13" t="inlineStr">
+      <c r="AB197" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -34937,7 +34937,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B198" s="17" t="inlineStr">
+      <c r="B198" s="5" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -35027,7 +35027,7 @@
           <t>990</t>
         </is>
       </c>
-      <c r="T198" s="17" t="inlineStr">
+      <c r="T198" s="11" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -35097,7 +35097,7 @@
           <t>056</t>
         </is>
       </c>
-      <c r="AH198" s="17" t="inlineStr">
+      <c r="AH198" s="15" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -35184,12 +35184,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N199" s="17" t="inlineStr">
+      <c r="N199" s="9" t="inlineStr">
         <is>
           <t>764</t>
         </is>
       </c>
-      <c r="O199" s="17" t="inlineStr">
+      <c r="O199" s="9" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -35214,7 +35214,7 @@
           <t>321</t>
         </is>
       </c>
-      <c r="T199" s="11" t="inlineStr">
+      <c r="T199" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -35244,7 +35244,7 @@
           <t>558</t>
         </is>
       </c>
-      <c r="Z199" s="17" t="inlineStr">
+      <c r="Z199" s="13" t="inlineStr">
         <is>
           <t>857</t>
         </is>
@@ -35371,7 +35371,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N200" s="17" t="inlineStr">
+      <c r="N200" s="9" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -35386,12 +35386,12 @@
           <t>352</t>
         </is>
       </c>
-      <c r="Q200" s="17" t="inlineStr">
+      <c r="Q200" s="10" t="inlineStr">
         <is>
           <t>457</t>
         </is>
       </c>
-      <c r="R200" s="17" t="inlineStr">
+      <c r="R200" s="10" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -35401,7 +35401,7 @@
           <t>635</t>
         </is>
       </c>
-      <c r="T200" s="11" t="inlineStr">
+      <c r="T200" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -35441,7 +35441,7 @@
           <t>928</t>
         </is>
       </c>
-      <c r="AB200" s="17" t="inlineStr">
+      <c r="AB200" s="13" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -35451,7 +35451,7 @@
           <t>141</t>
         </is>
       </c>
-      <c r="AD200" s="17" t="inlineStr">
+      <c r="AD200" s="14" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -35578,7 +35578,7 @@
           <t>453</t>
         </is>
       </c>
-      <c r="R201" s="17" t="inlineStr">
+      <c r="R201" s="10" t="inlineStr">
         <is>
           <t>674</t>
         </is>
@@ -35730,7 +35730,7 @@
           <t>430</t>
         </is>
       </c>
-      <c r="K202" s="17" t="inlineStr">
+      <c r="K202" s="8" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -35840,7 +35840,7 @@
           <t>340</t>
         </is>
       </c>
-      <c r="AG202" s="17" t="inlineStr">
+      <c r="AG202" s="15" t="inlineStr">
         <is>
           <t>647</t>
         </is>
@@ -35872,7 +35872,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B203" s="5" t="inlineStr">
+      <c r="B203" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -35882,7 +35882,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="D203" s="17" t="inlineStr">
+      <c r="D203" s="5" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -35892,7 +35892,7 @@
           <t>778</t>
         </is>
       </c>
-      <c r="F203" s="17" t="inlineStr">
+      <c r="F203" s="6" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -35912,7 +35912,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="J203" s="17" t="inlineStr">
+      <c r="J203" s="7" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -35937,7 +35937,7 @@
           <t>441</t>
         </is>
       </c>
-      <c r="O203" s="17" t="inlineStr">
+      <c r="O203" s="9" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -36069,7 +36069,7 @@
           <t>223</t>
         </is>
       </c>
-      <c r="D204" s="5" t="inlineStr">
+      <c r="D204" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -36219,7 +36219,7 @@
           <t>206</t>
         </is>
       </c>
-      <c r="AH204" s="15" t="inlineStr">
+      <c r="AH204" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -36311,7 +36311,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="O205" s="17" t="inlineStr">
+      <c r="O205" s="9" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -36346,7 +36346,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="V205" s="17" t="inlineStr">
+      <c r="V205" s="11" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -36371,7 +36371,7 @@
           <t>376</t>
         </is>
       </c>
-      <c r="AA205" s="13" t="inlineStr">
+      <c r="AA205" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -36381,7 +36381,7 @@
           <t>246</t>
         </is>
       </c>
-      <c r="AC205" s="17" t="inlineStr">
+      <c r="AC205" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -36508,7 +36508,7 @@
           <t>499</t>
         </is>
       </c>
-      <c r="Q206" s="17" t="inlineStr">
+      <c r="Q206" s="10" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -36603,7 +36603,7 @@
           <t>125</t>
         </is>
       </c>
-      <c r="AJ206" s="17" t="inlineStr">
+      <c r="AJ206" s="16" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -36710,7 +36710,7 @@
           <t>430</t>
         </is>
       </c>
-      <c r="T207" s="17" t="inlineStr">
+      <c r="T207" s="11" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -36760,7 +36760,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="AD207" s="17" t="inlineStr">
+      <c r="AD207" s="14" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -37495,7 +37495,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="J214" s="7" t="inlineStr">
+      <c r="J214" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -37560,7 +37560,7 @@
           <t>849</t>
         </is>
       </c>
-      <c r="W214" s="17" t="inlineStr">
+      <c r="W214" s="12" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -37712,7 +37712,7 @@
           <t>928</t>
         </is>
       </c>
-      <c r="P215" s="17" t="inlineStr">
+      <c r="P215" s="9" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -37732,7 +37732,7 @@
           <t>164</t>
         </is>
       </c>
-      <c r="T215" s="11" t="inlineStr">
+      <c r="T215" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -37747,12 +37747,12 @@
           <t>797</t>
         </is>
       </c>
-      <c r="W215" s="17" t="inlineStr">
+      <c r="W215" s="12" t="inlineStr">
         <is>
           <t>097</t>
         </is>
       </c>
-      <c r="X215" s="17" t="inlineStr">
+      <c r="X215" s="12" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -37797,7 +37797,7 @@
           <t>244</t>
         </is>
       </c>
-      <c r="AG215" s="15" t="inlineStr">
+      <c r="AG215" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -37812,7 +37812,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="AJ215" s="17" t="inlineStr">
+      <c r="AJ215" s="16" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -37934,7 +37934,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="W216" s="17" t="inlineStr">
+      <c r="W216" s="12" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -38081,7 +38081,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="O217" s="9" t="inlineStr">
+      <c r="O217" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -38171,7 +38171,7 @@
           <t>964</t>
         </is>
       </c>
-      <c r="AG217" s="17" t="inlineStr">
+      <c r="AG217" s="15" t="inlineStr">
         <is>
           <t>970</t>
         </is>
@@ -38278,7 +38278,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="Q218" s="17" t="inlineStr">
+      <c r="Q218" s="10" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -38348,7 +38348,7 @@
           <t>903</t>
         </is>
       </c>
-      <c r="AE218" s="14" t="inlineStr">
+      <c r="AE218" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -38425,7 +38425,7 @@
           <t>352</t>
         </is>
       </c>
-      <c r="I219" s="17" t="inlineStr">
+      <c r="I219" s="7" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -38465,7 +38465,7 @@
           <t>493</t>
         </is>
       </c>
-      <c r="Q219" s="17" t="inlineStr">
+      <c r="Q219" s="10" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -38677,7 +38677,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="V220" s="17" t="inlineStr">
+      <c r="V220" s="11" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -38764,7 +38764,7 @@
           <t>09</t>
         </is>
       </c>
-      <c r="B221" s="17" t="inlineStr">
+      <c r="B221" s="5" t="inlineStr">
         <is>
           <t>674</t>
         </is>
@@ -38849,7 +38849,7 @@
           <t>590</t>
         </is>
       </c>
-      <c r="S221" s="10" t="inlineStr">
+      <c r="S221" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -38869,7 +38869,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="W221" s="17" t="inlineStr">
+      <c r="W221" s="12" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -38924,7 +38924,7 @@
           <t>362</t>
         </is>
       </c>
-      <c r="AH221" s="17" t="inlineStr">
+      <c r="AH221" s="15" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -38966,7 +38966,7 @@
           <t>499</t>
         </is>
       </c>
-      <c r="E222" s="17" t="inlineStr">
+      <c r="E222" s="6" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -39091,7 +39091,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="AD222" s="17" t="inlineStr">
+      <c r="AD222" s="14" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -39106,7 +39106,7 @@
           <t>388</t>
         </is>
       </c>
-      <c r="AG222" s="17" t="inlineStr">
+      <c r="AG222" s="15" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -39168,7 +39168,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="H223" s="17" t="inlineStr">
+      <c r="H223" s="7" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39365,7 +39365,7 @@
           <t>492</t>
         </is>
       </c>
-      <c r="J224" s="17" t="inlineStr">
+      <c r="J224" s="7" t="inlineStr">
         <is>
           <t>970</t>
         </is>
@@ -39455,7 +39455,7 @@
           <t>569</t>
         </is>
       </c>
-      <c r="AB224" s="17" t="inlineStr">
+      <c r="AB224" s="13" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -39465,7 +39465,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="AD224" s="14" t="inlineStr">
+      <c r="AD224" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -39532,7 +39532,7 @@
           <t>687</t>
         </is>
       </c>
-      <c r="F225" s="6" t="inlineStr">
+      <c r="F225" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -39542,7 +39542,7 @@
           <t>274</t>
         </is>
       </c>
-      <c r="H225" s="17" t="inlineStr">
+      <c r="H225" s="7" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -39627,12 +39627,12 @@
           <t>322</t>
         </is>
       </c>
-      <c r="Y225" s="17" t="inlineStr">
+      <c r="Y225" s="12" t="inlineStr">
         <is>
           <t>437</t>
         </is>
       </c>
-      <c r="Z225" s="17" t="inlineStr">
+      <c r="Z225" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39854,7 +39854,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="AG226" s="17" t="inlineStr">
+      <c r="AG226" s="15" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -39911,7 +39911,7 @@
           <t>404</t>
         </is>
       </c>
-      <c r="G227" s="17" t="inlineStr">
+      <c r="G227" s="6" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -40078,7 +40078,7 @@
           <t>537</t>
         </is>
       </c>
-      <c r="C228" s="17" t="inlineStr">
+      <c r="C228" s="5" t="inlineStr">
         <is>
           <t>746</t>
         </is>
@@ -40133,7 +40133,7 @@
           <t>417</t>
         </is>
       </c>
-      <c r="N228" s="9" t="inlineStr">
+      <c r="N228" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -40193,7 +40193,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="Z228" s="13" t="inlineStr">
+      <c r="Z228" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -40233,7 +40233,7 @@
           <t>311</t>
         </is>
       </c>
-      <c r="AH228" s="15" t="inlineStr">
+      <c r="AH228" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -40275,7 +40275,7 @@
           <t>663</t>
         </is>
       </c>
-      <c r="E229" s="17" t="inlineStr">
+      <c r="E229" s="6" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -40285,7 +40285,7 @@
           <t>651</t>
         </is>
       </c>
-      <c r="G229" s="6" t="inlineStr">
+      <c r="G229" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -40467,7 +40467,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="F230" s="17" t="inlineStr">
+      <c r="F230" s="6" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -40527,7 +40527,7 @@
           <t>995</t>
         </is>
       </c>
-      <c r="R230" s="17" t="inlineStr">
+      <c r="R230" s="10" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -40612,7 +40612,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="AI230" s="17" t="inlineStr">
+      <c r="AI230" s="16" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -40724,7 +40724,7 @@
           <t>527</t>
         </is>
       </c>
-      <c r="T231" s="17" t="inlineStr">
+      <c r="T231" s="11" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -40971,7 +40971,7 @@
           <t>779</t>
         </is>
       </c>
-      <c r="AF232" s="17" t="inlineStr">
+      <c r="AF232" s="15" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -41078,7 +41078,7 @@
           <t>644</t>
         </is>
       </c>
-      <c r="P233" s="17" t="inlineStr">
+      <c r="P233" s="9" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -41245,7 +41245,7 @@
           <t>927</t>
         </is>
       </c>
-      <c r="L234" s="17" t="inlineStr">
+      <c r="L234" s="8" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -41412,7 +41412,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="H235" s="17" t="inlineStr">
+      <c r="H235" s="7" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -41522,7 +41522,7 @@
           <t>722</t>
         </is>
       </c>
-      <c r="AD235" s="17" t="inlineStr">
+      <c r="AD235" s="14" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -41699,7 +41699,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="AB236" s="13" t="inlineStr">
+      <c r="AB236" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -42023,7 +42023,7 @@
           <t>039</t>
         </is>
       </c>
-      <c r="R238" s="17" t="inlineStr">
+      <c r="R238" s="10" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -42265,7 +42265,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="AC239" s="17" t="inlineStr">
+      <c r="AC239" s="14" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -42347,7 +42347,7 @@
           <t>676</t>
         </is>
       </c>
-      <c r="H240" s="17" t="inlineStr">
+      <c r="H240" s="7" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -42377,7 +42377,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="N240" s="17" t="inlineStr">
+      <c r="N240" s="9" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -42402,7 +42402,7 @@
           <t>933</t>
         </is>
       </c>
-      <c r="S240" s="10" t="inlineStr">
+      <c r="S240" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -42457,7 +42457,7 @@
           <t>229</t>
         </is>
       </c>
-      <c r="AD240" s="17" t="inlineStr">
+      <c r="AD240" s="14" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -42649,7 +42649,7 @@
           <t>899</t>
         </is>
       </c>
-      <c r="AE241" s="14" t="inlineStr">
+      <c r="AE241" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -42736,7 +42736,7 @@
           <t>504</t>
         </is>
       </c>
-      <c r="K242" s="17" t="inlineStr">
+      <c r="K242" s="8" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -42888,7 +42888,7 @@
           <t>986</t>
         </is>
       </c>
-      <c r="D243" s="17" t="inlineStr">
+      <c r="D243" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -42918,7 +42918,7 @@
           <t>355</t>
         </is>
       </c>
-      <c r="J243" s="17" t="inlineStr">
+      <c r="J243" s="7" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -43364,7 +43364,7 @@
           <t>559</t>
         </is>
       </c>
-      <c r="G248" s="6" t="inlineStr">
+      <c r="G248" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -43469,7 +43469,7 @@
           <t>152</t>
         </is>
       </c>
-      <c r="AB248" s="13" t="inlineStr">
+      <c r="AB248" s="17" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -43504,7 +43504,7 @@
           <t>268</t>
         </is>
       </c>
-      <c r="AI248" s="17" t="inlineStr">
+      <c r="AI248" s="16" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -43526,7 +43526,7 @@
           <t>02</t>
         </is>
       </c>
-      <c r="B249" s="17" t="inlineStr">
+      <c r="B249" s="5" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -43576,7 +43576,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="L249" s="8" t="inlineStr">
+      <c r="L249" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -43596,7 +43596,7 @@
           <t>542</t>
         </is>
       </c>
-      <c r="P249" s="17" t="inlineStr">
+      <c r="P249" s="9" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -43733,7 +43733,7 @@
           <t>918</t>
         </is>
       </c>
-      <c r="F250" s="17" t="inlineStr">
+      <c r="F250" s="6" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -43768,7 +43768,7 @@
           <t>663</t>
         </is>
       </c>
-      <c r="M250" s="17" t="inlineStr">
+      <c r="M250" s="8" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -43848,7 +43848,7 @@
           <t>620</t>
         </is>
       </c>
-      <c r="AC250" s="17" t="inlineStr">
+      <c r="AC250" s="14" t="inlineStr">
         <is>
           <t>790</t>
         </is>
@@ -43955,12 +43955,12 @@
           <t>583</t>
         </is>
       </c>
-      <c r="M251" s="17" t="inlineStr">
+      <c r="M251" s="8" t="inlineStr">
         <is>
           <t>970</t>
         </is>
       </c>
-      <c r="N251" s="17" t="inlineStr">
+      <c r="N251" s="9" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -44127,7 +44127,7 @@
           <t>028</t>
         </is>
       </c>
-      <c r="J252" s="7" t="inlineStr">
+      <c r="J252" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -44222,7 +44222,7 @@
           <t>257</t>
         </is>
       </c>
-      <c r="AC252" s="14" t="inlineStr">
+      <c r="AC252" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -44247,7 +44247,7 @@
           <t>606</t>
         </is>
       </c>
-      <c r="AH252" s="17" t="inlineStr">
+      <c r="AH252" s="15" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -44304,7 +44304,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="H253" s="17" t="inlineStr">
+      <c r="H253" s="7" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -44314,7 +44314,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="J253" s="17" t="inlineStr">
+      <c r="J253" s="7" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -44461,7 +44461,7 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B254" s="5" t="inlineStr">
+      <c r="B254" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -44601,7 +44601,7 @@
           <t>963</t>
         </is>
       </c>
-      <c r="AD254" s="17" t="inlineStr">
+      <c r="AD254" s="14" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -44626,7 +44626,7 @@
           <t>414</t>
         </is>
       </c>
-      <c r="AI254" s="16" t="inlineStr">
+      <c r="AI254" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -44648,7 +44648,7 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B255" s="17" t="inlineStr">
+      <c r="B255" s="5" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -44733,7 +44733,7 @@
           <t>660</t>
         </is>
       </c>
-      <c r="S255" s="17" t="inlineStr">
+      <c r="S255" s="10" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -44925,7 +44925,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="T256" s="17" t="inlineStr">
+      <c r="T256" s="11" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -45062,7 +45062,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="J257" s="7" t="inlineStr">
+      <c r="J257" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -45107,7 +45107,7 @@
           <t>148</t>
         </is>
       </c>
-      <c r="S257" s="10" t="inlineStr">
+      <c r="S257" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -45122,12 +45122,12 @@
           <t>777</t>
         </is>
       </c>
-      <c r="V257" s="17" t="inlineStr">
+      <c r="V257" s="11" t="inlineStr">
         <is>
           <t>287</t>
         </is>
       </c>
-      <c r="W257" s="17" t="inlineStr">
+      <c r="W257" s="12" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -45187,7 +45187,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="AI257" s="16" t="inlineStr">
+      <c r="AI257" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -45209,7 +45209,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B258" s="17" t="inlineStr">
+      <c r="B258" s="5" t="inlineStr">
         <is>
           <t>790</t>
         </is>
@@ -45219,7 +45219,7 @@
           <t>640</t>
         </is>
       </c>
-      <c r="D258" s="17" t="inlineStr">
+      <c r="D258" s="5" t="inlineStr">
         <is>
           <t>790</t>
         </is>
@@ -45259,7 +45259,7 @@
           <t>088</t>
         </is>
       </c>
-      <c r="L258" s="8" t="inlineStr">
+      <c r="L258" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -45496,7 +45496,7 @@
           <t>058</t>
         </is>
       </c>
-      <c r="V259" s="17" t="inlineStr">
+      <c r="V259" s="11" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -45628,7 +45628,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="K260" s="17" t="inlineStr">
+      <c r="K260" s="8" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -45653,7 +45653,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="P260" s="17" t="inlineStr">
+      <c r="P260" s="9" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -45910,7 +45910,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="AD261" s="14" t="inlineStr">
+      <c r="AD261" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -45992,7 +45992,7 @@
           <t>397</t>
         </is>
       </c>
-      <c r="I262" s="7" t="inlineStr">
+      <c r="I262" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -46047,7 +46047,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="T262" s="17" t="inlineStr">
+      <c r="T262" s="11" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -46154,7 +46154,7 @@
           <t>887</t>
         </is>
       </c>
-      <c r="D263" s="17" t="inlineStr">
+      <c r="D263" s="5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -46179,7 +46179,7 @@
           <t>336</t>
         </is>
       </c>
-      <c r="I263" s="7" t="inlineStr">
+      <c r="I263" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -46189,7 +46189,7 @@
           <t>505</t>
         </is>
       </c>
-      <c r="K263" s="8" t="inlineStr">
+      <c r="K263" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -46381,7 +46381,7 @@
           <t>839</t>
         </is>
       </c>
-      <c r="L264" s="17" t="inlineStr">
+      <c r="L264" s="8" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -46406,7 +46406,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="Q264" s="10" t="inlineStr">
+      <c r="Q264" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -46678,7 +46678,7 @@
           <t>468</t>
         </is>
       </c>
-      <c r="AH265" s="17" t="inlineStr">
+      <c r="AH265" s="15" t="inlineStr">
         <is>
           <t>746</t>
         </is>
@@ -46715,7 +46715,7 @@
           <t>387</t>
         </is>
       </c>
-      <c r="D266" s="17" t="inlineStr">
+      <c r="D266" s="5" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -46825,7 +46825,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="Z266" s="13" t="inlineStr">
+      <c r="Z266" s="17" t="inlineStr">
         <is>
           <t>137</t>
         </is>
@@ -46907,7 +46907,7 @@
           <t>945</t>
         </is>
       </c>
-      <c r="E267" s="6" t="inlineStr">
+      <c r="E267" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -46937,7 +46937,7 @@
           <t>616</t>
         </is>
       </c>
-      <c r="K267" s="17" t="inlineStr">
+      <c r="K267" s="8" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -47047,7 +47047,7 @@
           <t>098</t>
         </is>
       </c>
-      <c r="AG267" s="15" t="inlineStr">
+      <c r="AG267" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -47134,7 +47134,7 @@
           <t>022</t>
         </is>
       </c>
-      <c r="M268" s="17" t="inlineStr">
+      <c r="M268" s="8" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -47164,7 +47164,7 @@
           <t>651</t>
         </is>
       </c>
-      <c r="S268" s="17" t="inlineStr">
+      <c r="S268" s="10" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -47239,12 +47239,12 @@
           <t>372</t>
         </is>
       </c>
-      <c r="AH268" s="15" t="inlineStr">
+      <c r="AH268" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AI268" s="16" t="inlineStr">
+      <c r="AI268" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -47351,7 +47351,7 @@
           <t>367</t>
         </is>
       </c>
-      <c r="S269" s="10" t="inlineStr">
+      <c r="S269" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -47478,7 +47478,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="G270" s="17" t="inlineStr">
+      <c r="G270" s="6" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -47528,7 +47528,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="Q270" s="10" t="inlineStr">
+      <c r="Q270" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -47670,7 +47670,7 @@
           <t>534</t>
         </is>
       </c>
-      <c r="H271" s="7" t="inlineStr">
+      <c r="H271" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -47827,7 +47827,7 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B272" s="17" t="inlineStr">
+      <c r="B272" s="5" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -48074,7 +48074,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="N273" s="9" t="inlineStr">
+      <c r="N273" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -48089,7 +48089,7 @@
           <t>688</t>
         </is>
       </c>
-      <c r="Q273" s="17" t="inlineStr">
+      <c r="Q273" s="10" t="inlineStr">
         <is>
           <t>790</t>
         </is>
@@ -48119,7 +48119,7 @@
           <t>915</t>
         </is>
       </c>
-      <c r="W273" s="17" t="inlineStr">
+      <c r="W273" s="12" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -48154,7 +48154,7 @@
           <t>115</t>
         </is>
       </c>
-      <c r="AD273" s="14" t="inlineStr">
+      <c r="AD273" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -48216,7 +48216,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="E274" s="17" t="inlineStr">
+      <c r="E274" s="6" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48346,7 +48346,7 @@
           <t>492</t>
         </is>
       </c>
-      <c r="AE274" s="17" t="inlineStr">
+      <c r="AE274" s="14" t="inlineStr">
         <is>
           <t>674</t>
         </is>
@@ -48398,7 +48398,7 @@
           <t>506</t>
         </is>
       </c>
-      <c r="D275" s="17" t="inlineStr">
+      <c r="D275" s="5" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48453,7 +48453,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="O275" s="17" t="inlineStr">
+      <c r="O275" s="9" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -48488,7 +48488,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="V275" s="11" t="inlineStr">
+      <c r="V275" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -48740,7 +48740,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="AI276" s="17" t="inlineStr">
+      <c r="AI276" s="16" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -48842,7 +48842,7 @@
           <t>307</t>
         </is>
       </c>
-      <c r="R277" s="10" t="inlineStr">
+      <c r="R277" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -48892,7 +48892,7 @@
           <t>608</t>
         </is>
       </c>
-      <c r="AB277" s="17" t="inlineStr">
+      <c r="AB277" s="13" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -49450,7 +49450,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="J283" s="17" t="inlineStr">
+      <c r="J283" s="7" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -49617,7 +49617,7 @@
           <t>282</t>
         </is>
       </c>
-      <c r="F284" s="6" t="inlineStr">
+      <c r="F284" s="17" t="inlineStr">
         <is>
           <t>137</t>
         </is>
@@ -49632,7 +49632,7 @@
           <t>948</t>
         </is>
       </c>
-      <c r="I284" s="7" t="inlineStr">
+      <c r="I284" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -49762,7 +49762,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="AI284" s="17" t="inlineStr">
+      <c r="AI284" s="16" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -49772,7 +49772,7 @@
           <t>616</t>
         </is>
       </c>
-      <c r="AK284" s="16" t="inlineStr">
+      <c r="AK284" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -49799,7 +49799,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="E285" s="6" t="inlineStr">
+      <c r="E285" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -49869,7 +49869,7 @@
           <t>818</t>
         </is>
       </c>
-      <c r="S285" s="10" t="inlineStr">
+      <c r="S285" s="17" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -49894,7 +49894,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="X285" s="17" t="inlineStr">
+      <c r="X285" s="12" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -49991,7 +49991,7 @@
           <t>276</t>
         </is>
       </c>
-      <c r="F286" s="17" t="inlineStr">
+      <c r="F286" s="6" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -50016,7 +50016,7 @@
           <t>529</t>
         </is>
       </c>
-      <c r="K286" s="17" t="inlineStr">
+      <c r="K286" s="8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
@@ -50278,7 +50278,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="Z287" s="17" t="inlineStr">
+      <c r="Z287" s="13" t="inlineStr">
         <is>
           <t>790</t>
         </is>
@@ -50313,7 +50313,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="AG287" s="17" t="inlineStr">
+      <c r="AG287" s="15" t="inlineStr">
         <is>
           <t>476</t>
         </is>
@@ -50420,7 +50420,7 @@
           <t>303</t>
         </is>
       </c>
-      <c r="Q288" s="10" t="inlineStr">
+      <c r="Q288" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -50445,12 +50445,12 @@
           <t>791</t>
         </is>
       </c>
-      <c r="V288" s="17" t="inlineStr">
+      <c r="V288" s="11" t="inlineStr">
         <is>
           <t>475</t>
         </is>
       </c>
-      <c r="W288" s="12" t="inlineStr">
+      <c r="W288" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -50592,7 +50592,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="N289" s="17" t="inlineStr">
+      <c r="N289" s="9" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -50602,7 +50602,7 @@
           <t>420</t>
         </is>
       </c>
-      <c r="P289" s="17" t="inlineStr">
+      <c r="P289" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -50724,7 +50724,7 @@
           <t>215</t>
         </is>
       </c>
-      <c r="C290" s="17" t="inlineStr">
+      <c r="C290" s="5" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -50734,7 +50734,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="E290" s="17" t="inlineStr">
+      <c r="E290" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -50809,7 +50809,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="T290" s="17" t="inlineStr">
+      <c r="T290" s="11" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -50834,7 +50834,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="Y290" s="12" t="inlineStr">
+      <c r="Y290" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -51133,7 +51133,7 @@
           <t>756</t>
         </is>
       </c>
-      <c r="J292" s="17" t="inlineStr">
+      <c r="J292" s="7" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -51213,7 +51213,7 @@
           <t>480</t>
         </is>
       </c>
-      <c r="Z292" s="17" t="inlineStr">
+      <c r="Z292" s="13" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -51295,7 +51295,7 @@
           <t>051</t>
         </is>
       </c>
-      <c r="E293" s="17" t="inlineStr">
+      <c r="E293" s="6" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -51450,7 +51450,7 @@
           <t>643</t>
         </is>
       </c>
-      <c r="AJ293" s="17" t="inlineStr">
+      <c r="AJ293" s="16" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -51522,7 +51522,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="M294" s="17" t="inlineStr">
+      <c r="M294" s="8" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -51567,7 +51567,7 @@
           <t>369</t>
         </is>
       </c>
-      <c r="V294" s="17" t="inlineStr">
+      <c r="V294" s="11" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -51689,7 +51689,7 @@
           <t>699</t>
         </is>
       </c>
-      <c r="I295" s="17" t="inlineStr">
+      <c r="I295" s="7" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -51724,7 +51724,7 @@
           <t>464</t>
         </is>
       </c>
-      <c r="P295" s="17" t="inlineStr">
+      <c r="P295" s="9" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -51911,7 +51911,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="P296" s="17" t="inlineStr">
+      <c r="P296" s="9" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -51991,7 +51991,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="AF296" s="17" t="inlineStr">
+      <c r="AF296" s="15" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -52143,7 +52143,7 @@
           <t>668</t>
         </is>
       </c>
-      <c r="Y297" s="17" t="inlineStr">
+      <c r="Y297" s="12" t="inlineStr">
         <is>
           <t>647</t>
         </is>
@@ -52315,7 +52315,7 @@
           <t>842</t>
         </is>
       </c>
-      <c r="V298" s="11" t="inlineStr">
+      <c r="V298" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -52375,7 +52375,7 @@
           <t>150</t>
         </is>
       </c>
-      <c r="AH298" s="17" t="inlineStr">
+      <c r="AH298" s="15" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -52407,7 +52407,7 @@
           <t>257</t>
         </is>
       </c>
-      <c r="C299" s="17" t="inlineStr">
+      <c r="C299" s="5" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -52577,7 +52577,7 @@
           <t>472</t>
         </is>
       </c>
-      <c r="AK299" s="16" t="inlineStr">
+      <c r="AK299" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -52734,7 +52734,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="AE300" s="17" t="inlineStr">
+      <c r="AE300" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -52744,7 +52744,7 @@
           <t>595</t>
         </is>
       </c>
-      <c r="AG300" s="15" t="inlineStr">
+      <c r="AG300" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -52811,7 +52811,7 @@
           <t>415</t>
         </is>
       </c>
-      <c r="I301" s="17" t="inlineStr">
+      <c r="I301" s="7" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -52891,7 +52891,7 @@
           <t>096</t>
         </is>
       </c>
-      <c r="Y301" s="17" t="inlineStr">
+      <c r="Y301" s="12" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -52906,7 +52906,7 @@
           <t>143</t>
         </is>
       </c>
-      <c r="AB301" s="13" t="inlineStr">
+      <c r="AB301" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -52998,7 +52998,7 @@
           <t>447</t>
         </is>
       </c>
-      <c r="I302" s="17" t="inlineStr">
+      <c r="I302" s="7" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -53133,12 +53133,12 @@
           <t>399</t>
         </is>
       </c>
-      <c r="AJ302" s="17" t="inlineStr">
+      <c r="AJ302" s="16" t="inlineStr">
         <is>
           <t>079</t>
         </is>
       </c>
-      <c r="AK302" s="17" t="inlineStr">
+      <c r="AK302" s="16" t="inlineStr">
         <is>
           <t>674</t>
         </is>
@@ -53305,7 +53305,7 @@
           <t>393</t>
         </is>
       </c>
-      <c r="AG303" s="15" t="inlineStr">
+      <c r="AG303" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -53534,7 +53534,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="D305" s="5" t="inlineStr">
+      <c r="D305" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -53594,7 +53594,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="P305" s="17" t="inlineStr">
+      <c r="P305" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -53816,7 +53816,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="W306" s="12" t="inlineStr">
+      <c r="W306" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -54048,7 +54048,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="AF307" s="17" t="inlineStr">
+      <c r="AF307" s="15" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -54215,7 +54215,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="AB308" s="13" t="inlineStr">
+      <c r="AB308" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -54292,7 +54292,7 @@
           <t>744</t>
         </is>
       </c>
-      <c r="F309" s="17" t="inlineStr">
+      <c r="F309" s="6" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -54417,7 +54417,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="AE309" s="14" t="inlineStr">
+      <c r="AE309" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -54579,7 +54579,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="Z310" s="17" t="inlineStr">
+      <c r="Z310" s="13" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -54634,7 +54634,7 @@
           <t>903</t>
         </is>
       </c>
-      <c r="AK310" s="17" t="inlineStr">
+      <c r="AK310" s="16" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -54646,7 +54646,7 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B311" s="17" t="inlineStr">
+      <c r="B311" s="5" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -54656,7 +54656,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="D311" s="17" t="inlineStr">
+      <c r="D311" s="5" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -54676,7 +54676,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H311" s="17" t="inlineStr">
+      <c r="H311" s="7" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -54731,7 +54731,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="S311" s="17" t="inlineStr">
+      <c r="S311" s="10" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -54741,7 +54741,7 @@
           <t>324</t>
         </is>
       </c>
-      <c r="U311" s="11" t="inlineStr">
+      <c r="U311" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -54791,7 +54791,7 @@
           <t>581</t>
         </is>
       </c>
-      <c r="AE311" s="17" t="inlineStr">
+      <c r="AE311" s="14" t="inlineStr">
         <is>
           <t>674</t>
         </is>
@@ -54811,7 +54811,7 @@
           <t>282</t>
         </is>
       </c>
-      <c r="AI311" s="16" t="inlineStr">
+      <c r="AI311" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -54833,7 +54833,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B312" s="17" t="inlineStr">
+      <c r="B312" s="5" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -54958,12 +54958,12 @@
           <t>246</t>
         </is>
       </c>
-      <c r="AA312" s="13" t="inlineStr">
+      <c r="AA312" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
       </c>
-      <c r="AB312" s="17" t="inlineStr">
+      <c r="AB312" s="13" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -54983,7 +54983,7 @@
           <t>527</t>
         </is>
       </c>
-      <c r="AF312" s="17" t="inlineStr">
+      <c r="AF312" s="15" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -54998,7 +54998,7 @@
           <t>761</t>
         </is>
       </c>
-      <c r="AI312" s="17" t="inlineStr">
+      <c r="AI312" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -55050,7 +55050,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H313" s="17" t="inlineStr">
+      <c r="H313" s="7" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -55576,7 +55576,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="U318" s="17" t="inlineStr">
+      <c r="U318" s="11" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -55596,7 +55596,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="Y318" s="12" t="inlineStr">
+      <c r="Y318" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -55768,7 +55768,7 @@
           <t>942</t>
         </is>
       </c>
-      <c r="V319" s="17" t="inlineStr">
+      <c r="V319" s="11" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -55950,7 +55950,7 @@
           <t>677</t>
         </is>
       </c>
-      <c r="U320" s="17" t="inlineStr">
+      <c r="U320" s="11" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -55985,7 +55985,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AB320" s="17" t="inlineStr">
+      <c r="AB320" s="13" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -56010,7 +56010,7 @@
           <t>525</t>
         </is>
       </c>
-      <c r="AG320" s="17" t="inlineStr">
+      <c r="AG320" s="15" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -56030,7 +56030,7 @@
           <t>294</t>
         </is>
       </c>
-      <c r="AK320" s="17" t="inlineStr">
+      <c r="AK320" s="16" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -56062,7 +56062,7 @@
           <t>927</t>
         </is>
       </c>
-      <c r="F321" s="17" t="inlineStr">
+      <c r="F321" s="6" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -56072,7 +56072,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="H321" s="17" t="inlineStr">
+      <c r="H321" s="7" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -56177,7 +56177,7 @@
           <t>813</t>
         </is>
       </c>
-      <c r="AC321" s="17" t="inlineStr">
+      <c r="AC321" s="14" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -56192,7 +56192,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="AF321" s="17" t="inlineStr">
+      <c r="AF321" s="15" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -56207,7 +56207,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="AI321" s="16" t="inlineStr">
+      <c r="AI321" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -56668,7 +56668,7 @@
           <t>866</t>
         </is>
       </c>
-      <c r="O324" s="17" t="inlineStr">
+      <c r="O324" s="9" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -56835,12 +56835,12 @@
           <t>795</t>
         </is>
       </c>
-      <c r="K325" s="17" t="inlineStr">
+      <c r="K325" s="8" t="inlineStr">
         <is>
           <t>476</t>
         </is>
       </c>
-      <c r="L325" s="17" t="inlineStr">
+      <c r="L325" s="8" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -56855,7 +56855,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="O325" s="17" t="inlineStr">
+      <c r="O325" s="9" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -57012,7 +57012,7 @@
           <t>823</t>
         </is>
       </c>
-      <c r="I326" s="7" t="inlineStr">
+      <c r="I326" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -57102,7 +57102,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="AA326" s="13" t="inlineStr">
+      <c r="AA326" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -57122,7 +57122,7 @@
           <t>324</t>
         </is>
       </c>
-      <c r="AE326" s="17" t="inlineStr">
+      <c r="AE326" s="14" t="inlineStr">
         <is>
           <t>647</t>
         </is>
@@ -57142,7 +57142,7 @@
           <t>949</t>
         </is>
       </c>
-      <c r="AI326" s="17" t="inlineStr">
+      <c r="AI326" s="16" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -57553,7 +57553,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="E329" s="17" t="inlineStr">
+      <c r="E329" s="6" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -57638,7 +57638,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="V329" s="17" t="inlineStr">
+      <c r="V329" s="11" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -57653,7 +57653,7 @@
           <t>651</t>
         </is>
       </c>
-      <c r="Y329" s="17" t="inlineStr">
+      <c r="Y329" s="12" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -57668,7 +57668,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="AB329" s="13" t="inlineStr">
+      <c r="AB329" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -57683,7 +57683,7 @@
           <t>321</t>
         </is>
       </c>
-      <c r="AE329" s="14" t="inlineStr">
+      <c r="AE329" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -57703,7 +57703,7 @@
           <t>677</t>
         </is>
       </c>
-      <c r="AI329" s="17" t="inlineStr">
+      <c r="AI329" s="16" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -57730,7 +57730,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="C330" s="17" t="inlineStr">
+      <c r="C330" s="5" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -57755,7 +57755,7 @@
           <t>178</t>
         </is>
       </c>
-      <c r="H330" s="17" t="inlineStr">
+      <c r="H330" s="7" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -57987,7 +57987,7 @@
           <t>920</t>
         </is>
       </c>
-      <c r="Q331" s="10" t="inlineStr">
+      <c r="Q331" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -58002,7 +58002,7 @@
           <t>249</t>
         </is>
       </c>
-      <c r="T331" s="17" t="inlineStr">
+      <c r="T331" s="11" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -58082,12 +58082,12 @@
           <t>801</t>
         </is>
       </c>
-      <c r="AJ331" s="17" t="inlineStr">
+      <c r="AJ331" s="16" t="inlineStr">
         <is>
           <t>734</t>
         </is>
       </c>
-      <c r="AK331" s="17" t="inlineStr">
+      <c r="AK331" s="16" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -58119,7 +58119,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="F332" s="17" t="inlineStr">
+      <c r="F332" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -58154,7 +58154,7 @@
           <t>859</t>
         </is>
       </c>
-      <c r="M332" s="8" t="inlineStr">
+      <c r="M332" s="17" t="inlineStr">
         <is>
           <t>137</t>
         </is>
@@ -58199,7 +58199,7 @@
           <t>127</t>
         </is>
       </c>
-      <c r="V332" s="11" t="inlineStr">
+      <c r="V332" s="17" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -58224,7 +58224,7 @@
           <t>885</t>
         </is>
       </c>
-      <c r="AA332" s="17" t="inlineStr">
+      <c r="AA332" s="13" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -58311,7 +58311,7 @@
           <t>407</t>
         </is>
       </c>
-      <c r="G333" s="6" t="inlineStr">
+      <c r="G333" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -58371,7 +58371,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="S333" s="17" t="inlineStr">
+      <c r="S333" s="10" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -58391,7 +58391,7 @@
           <t>240</t>
         </is>
       </c>
-      <c r="W333" s="17" t="inlineStr">
+      <c r="W333" s="12" t="inlineStr">
         <is>
           <t>790</t>
         </is>
@@ -58431,7 +58431,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="AE333" s="14" t="inlineStr">
+      <c r="AE333" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -58461,7 +58461,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="AK333" s="17" t="inlineStr">
+      <c r="AK333" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -58548,7 +58548,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="Q334" s="17" t="inlineStr">
+      <c r="Q334" s="10" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -58608,7 +58608,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="AC334" s="17" t="inlineStr">
+      <c r="AC334" s="14" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -58670,7 +58670,7 @@
           <t>543</t>
         </is>
       </c>
-      <c r="D335" s="5" t="inlineStr">
+      <c r="D335" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -58745,7 +58745,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="S335" s="10" t="inlineStr">
+      <c r="S335" s="17" t="inlineStr">
         <is>
           <t>137</t>
         </is>
@@ -58887,7 +58887,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="J336" s="17" t="inlineStr">
+      <c r="J336" s="7" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -58897,7 +58897,7 @@
           <t>727</t>
         </is>
       </c>
-      <c r="L336" s="8" t="inlineStr">
+      <c r="L336" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -59129,12 +59129,12 @@
           <t>623</t>
         </is>
       </c>
-      <c r="U337" s="17" t="inlineStr">
+      <c r="U337" s="11" t="inlineStr">
         <is>
           <t>709</t>
         </is>
       </c>
-      <c r="V337" s="17" t="inlineStr">
+      <c r="V337" s="11" t="inlineStr">
         <is>
           <t>647</t>
         </is>
@@ -59169,7 +59169,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="AC337" s="17" t="inlineStr">
+      <c r="AC337" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -59276,12 +59276,12 @@
           <t>981</t>
         </is>
       </c>
-      <c r="M338" s="8" t="inlineStr">
+      <c r="M338" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
       </c>
-      <c r="N338" s="17" t="inlineStr">
+      <c r="N338" s="9" t="inlineStr">
         <is>
           <t>647</t>
         </is>
@@ -59326,7 +59326,7 @@
           <t>312</t>
         </is>
       </c>
-      <c r="W338" s="17" t="inlineStr">
+      <c r="W338" s="12" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -59548,7 +59548,7 @@
           <t>532</t>
         </is>
       </c>
-      <c r="AD339" s="17" t="inlineStr">
+      <c r="AD339" s="14" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -59583,7 +59583,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="AK339" s="17" t="inlineStr">
+      <c r="AK339" s="16" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -59725,7 +59725,7 @@
           <t>440</t>
         </is>
       </c>
-      <c r="AB340" s="17" t="inlineStr">
+      <c r="AB340" s="13" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -59745,7 +59745,7 @@
           <t>210</t>
         </is>
       </c>
-      <c r="AF340" s="17" t="inlineStr">
+      <c r="AF340" s="15" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -59892,7 +59892,7 @@
           <t>299</t>
         </is>
       </c>
-      <c r="X341" s="17" t="inlineStr">
+      <c r="X341" s="12" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -59927,7 +59927,7 @@
           <t>390</t>
         </is>
       </c>
-      <c r="AE341" s="17" t="inlineStr">
+      <c r="AE341" s="14" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -59989,7 +59989,7 @@
           <t>185</t>
         </is>
       </c>
-      <c r="F342" s="17" t="inlineStr">
+      <c r="F342" s="6" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -60114,7 +60114,7 @@
           <t>257</t>
         </is>
       </c>
-      <c r="AE342" s="17" t="inlineStr">
+      <c r="AE342" s="14" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -60301,7 +60301,7 @@
           <t>270</t>
         </is>
       </c>
-      <c r="AE343" s="17" t="inlineStr">
+      <c r="AE343" s="14" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -60453,7 +60453,7 @@
           <t>162</t>
         </is>
       </c>
-      <c r="X344" s="17" t="inlineStr">
+      <c r="X344" s="12" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -60837,12 +60837,12 @@
           <t>034</t>
         </is>
       </c>
-      <c r="Z346" s="17" t="inlineStr">
+      <c r="Z346" s="13" t="inlineStr">
         <is>
           <t>374</t>
         </is>
       </c>
-      <c r="AA346" s="17" t="inlineStr">
+      <c r="AA346" s="13" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -61191,7 +61191,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="V348" s="17" t="inlineStr">
+      <c r="V348" s="11" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -61256,7 +61256,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI348" s="17" t="inlineStr">
+      <c r="AI348" s="16" t="inlineStr">
         <is>
           <t>857</t>
         </is>
@@ -61592,7 +61592,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="J353" s="17" t="inlineStr">
+      <c r="J353" s="7" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -61677,7 +61677,7 @@
           <t>977</t>
         </is>
       </c>
-      <c r="AA353" s="17" t="inlineStr">
+      <c r="AA353" s="13" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -61879,7 +61879,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="AD354" s="17" t="inlineStr">
+      <c r="AD354" s="14" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -61909,7 +61909,7 @@
           <t>273</t>
         </is>
       </c>
-      <c r="AJ354" s="17" t="inlineStr">
+      <c r="AJ354" s="16" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -61941,7 +61941,7 @@
           <t>271</t>
         </is>
       </c>
-      <c r="E355" s="6" t="inlineStr">
+      <c r="E355" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -61991,7 +61991,7 @@
           <t>938</t>
         </is>
       </c>
-      <c r="O355" s="17" t="inlineStr">
+      <c r="O355" s="9" t="inlineStr">
         <is>
           <t>647</t>
         </is>
@@ -62056,7 +62056,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AB355" s="13" t="inlineStr">
+      <c r="AB355" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -62091,7 +62091,7 @@
           <t>128</t>
         </is>
       </c>
-      <c r="AI355" s="17" t="inlineStr">
+      <c r="AI355" s="16" t="inlineStr">
         <is>
           <t>746</t>
         </is>
@@ -62183,7 +62183,7 @@
           <t>407</t>
         </is>
       </c>
-      <c r="P356" s="17" t="inlineStr">
+      <c r="P356" s="9" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -62450,7 +62450,7 @@
           <t>231</t>
         </is>
       </c>
-      <c r="AF357" s="15" t="inlineStr">
+      <c r="AF357" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -62617,7 +62617,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="AB358" s="13" t="inlineStr">
+      <c r="AB358" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -62684,7 +62684,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="D359" s="17" t="inlineStr">
+      <c r="D359" s="5" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -62744,7 +62744,7 @@
           <t>188</t>
         </is>
       </c>
-      <c r="P359" s="17" t="inlineStr">
+      <c r="P359" s="9" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -62809,7 +62809,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="AC359" s="17" t="inlineStr">
+      <c r="AC359" s="14" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -62866,7 +62866,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="C360" s="5" t="inlineStr">
+      <c r="C360" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -62941,7 +62941,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="R360" s="17" t="inlineStr">
+      <c r="R360" s="10" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -62966,7 +62966,7 @@
           <t>747</t>
         </is>
       </c>
-      <c r="W360" s="17" t="inlineStr">
+      <c r="W360" s="12" t="inlineStr">
         <is>
           <t>746</t>
         </is>
@@ -62986,7 +62986,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="AA360" s="13" t="inlineStr">
+      <c r="AA360" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -63026,7 +63026,7 @@
           <t>906</t>
         </is>
       </c>
-      <c r="AI360" s="17" t="inlineStr">
+      <c r="AI360" s="16" t="inlineStr">
         <is>
           <t>785</t>
         </is>
@@ -63088,7 +63088,7 @@
           <t>424</t>
         </is>
       </c>
-      <c r="J361" s="17" t="inlineStr">
+      <c r="J361" s="7" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -63163,12 +63163,12 @@
           <t>789</t>
         </is>
       </c>
-      <c r="Y361" s="17" t="inlineStr">
+      <c r="Y361" s="12" t="inlineStr">
         <is>
           <t>708</t>
         </is>
       </c>
-      <c r="Z361" s="17" t="inlineStr">
+      <c r="Z361" s="13" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -63275,7 +63275,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="J362" s="17" t="inlineStr">
+      <c r="J362" s="7" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -63320,7 +63320,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="S362" s="17" t="inlineStr">
+      <c r="S362" s="10" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -63390,7 +63390,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="AG362" s="17" t="inlineStr">
+      <c r="AG362" s="15" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -63400,12 +63400,12 @@
           <t>250</t>
         </is>
       </c>
-      <c r="AI362" s="17" t="inlineStr">
+      <c r="AI362" s="16" t="inlineStr">
         <is>
           <t>746</t>
         </is>
       </c>
-      <c r="AJ362" s="16" t="inlineStr">
+      <c r="AJ362" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -63427,7 +63427,7 @@
           <t>348</t>
         </is>
       </c>
-      <c r="C363" s="17" t="inlineStr">
+      <c r="C363" s="5" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -63482,7 +63482,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="N363" s="9" t="inlineStr">
+      <c r="N363" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -63582,7 +63582,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="AH363" s="17" t="inlineStr">
+      <c r="AH363" s="15" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -63744,7 +63744,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="AC364" s="14" t="inlineStr">
+      <c r="AC364" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -64083,7 +64083,7 @@
           <t>240</t>
         </is>
       </c>
-      <c r="V366" s="17" t="inlineStr">
+      <c r="V366" s="11" t="inlineStr">
         <is>
           <t>467</t>
         </is>
@@ -64185,7 +64185,7 @@
           <t>579</t>
         </is>
       </c>
-      <c r="E367" s="17" t="inlineStr">
+      <c r="E367" s="6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -64270,7 +64270,7 @@
           <t>549</t>
         </is>
       </c>
-      <c r="V367" s="17" t="inlineStr">
+      <c r="V367" s="11" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -64295,7 +64295,7 @@
           <t>809</t>
         </is>
       </c>
-      <c r="AA367" s="13" t="inlineStr">
+      <c r="AA367" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -64320,7 +64320,7 @@
           <t>454</t>
         </is>
       </c>
-      <c r="AF367" s="15" t="inlineStr">
+      <c r="AF367" s="17" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -64397,7 +64397,7 @@
           <t>506</t>
         </is>
       </c>
-      <c r="J368" s="17" t="inlineStr">
+      <c r="J368" s="7" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -64407,7 +64407,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="L368" s="17" t="inlineStr">
+      <c r="L368" s="8" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -64417,7 +64417,7 @@
           <t>516</t>
         </is>
       </c>
-      <c r="N368" s="17" t="inlineStr">
+      <c r="N368" s="9" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -64442,7 +64442,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="S368" s="17" t="inlineStr">
+      <c r="S368" s="10" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -64472,7 +64472,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="Y368" s="17" t="inlineStr">
+      <c r="Y368" s="12" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -64487,7 +64487,7 @@
           <t>002</t>
         </is>
       </c>
-      <c r="AB368" s="13" t="inlineStr">
+      <c r="AB368" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -64544,7 +64544,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B369" s="5" t="inlineStr">
+      <c r="B369" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -64574,7 +64574,7 @@
           <t>795</t>
         </is>
       </c>
-      <c r="H369" s="7" t="inlineStr">
+      <c r="H369" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -64619,7 +64619,7 @@
           <t>660</t>
         </is>
       </c>
-      <c r="Q369" s="17" t="inlineStr">
+      <c r="Q369" s="10" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -64776,7 +64776,7 @@
           <t>788</t>
         </is>
       </c>
-      <c r="K370" s="17" t="inlineStr">
+      <c r="K370" s="8" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -64891,7 +64891,7 @@
           <t>231</t>
         </is>
       </c>
-      <c r="AH370" s="15" t="inlineStr">
+      <c r="AH370" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -64998,7 +64998,7 @@
           <t>422</t>
         </is>
       </c>
-      <c r="R371" s="17" t="inlineStr">
+      <c r="R371" s="10" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -65110,7 +65110,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="C372" s="17" t="inlineStr">
+      <c r="C372" s="5" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -65215,7 +65215,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="X372" s="17" t="inlineStr">
+      <c r="X372" s="12" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -65240,7 +65240,7 @@
           <t>471</t>
         </is>
       </c>
-      <c r="AC372" s="17" t="inlineStr">
+      <c r="AC372" s="14" t="inlineStr">
         <is>
           <t>857</t>
         </is>
@@ -65347,7 +65347,7 @@
           <t>325</t>
         </is>
       </c>
-      <c r="M373" s="17" t="inlineStr">
+      <c r="M373" s="8" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -65357,7 +65357,7 @@
           <t>206</t>
         </is>
       </c>
-      <c r="O373" s="17" t="inlineStr">
+      <c r="O373" s="9" t="inlineStr">
         <is>
           <t>746</t>
         </is>
@@ -65467,7 +65467,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="AK373" s="17" t="inlineStr">
+      <c r="AK373" s="16" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -65559,7 +65559,7 @@
           <t>260</t>
         </is>
       </c>
-      <c r="R374" s="17" t="inlineStr">
+      <c r="R374" s="10" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -65731,7 +65731,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="O375" s="17" t="inlineStr">
+      <c r="O375" s="9" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -65796,7 +65796,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="AB375" s="17" t="inlineStr">
+      <c r="AB375" s="13" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -65836,12 +65836,12 @@
           <t>614</t>
         </is>
       </c>
-      <c r="AJ375" s="17" t="inlineStr">
+      <c r="AJ375" s="16" t="inlineStr">
         <is>
           <t>547</t>
         </is>
       </c>
-      <c r="AK375" s="17" t="inlineStr">
+      <c r="AK375" s="16" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -65943,7 +65943,7 @@
           <t>516</t>
         </is>
       </c>
-      <c r="T376" s="17" t="inlineStr">
+      <c r="T376" s="11" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -65998,7 +65998,7 @@
           <t>806</t>
         </is>
       </c>
-      <c r="AE376" s="17" t="inlineStr">
+      <c r="AE376" s="14" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -66155,7 +66155,7 @@
           <t>556</t>
         </is>
       </c>
-      <c r="Y377" s="17" t="inlineStr">
+      <c r="Y377" s="12" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -66175,7 +66175,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="AC377" s="17" t="inlineStr">
+      <c r="AC377" s="14" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -66185,7 +66185,7 @@
           <t>534</t>
         </is>
       </c>
-      <c r="AE377" s="17" t="inlineStr">
+      <c r="AE377" s="14" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -66195,7 +66195,7 @@
           <t>922</t>
         </is>
       </c>
-      <c r="AG377" s="17" t="inlineStr">
+      <c r="AG377" s="15" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -66397,12 +66397,12 @@
           <t>266</t>
         </is>
       </c>
-      <c r="AJ378" s="16" t="inlineStr">
+      <c r="AJ378" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
       </c>
-      <c r="AK378" s="16" t="inlineStr">
+      <c r="AK378" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -66419,17 +66419,17 @@
           <t>272</t>
         </is>
       </c>
-      <c r="C379" s="17" t="inlineStr">
+      <c r="C379" s="5" t="inlineStr">
         <is>
           <t>079</t>
         </is>
       </c>
-      <c r="D379" s="17" t="inlineStr">
+      <c r="D379" s="5" t="inlineStr">
         <is>
           <t>587</t>
         </is>
       </c>
-      <c r="E379" s="6" t="inlineStr">
+      <c r="E379" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -66499,7 +66499,7 @@
           <t>404</t>
         </is>
       </c>
-      <c r="S379" s="17" t="inlineStr">
+      <c r="S379" s="10" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -66519,7 +66519,7 @@
           <t>022</t>
         </is>
       </c>
-      <c r="W379" s="17" t="inlineStr">
+      <c r="W379" s="12" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -66636,7 +66636,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="I380" s="17" t="inlineStr">
+      <c r="I380" s="7" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -66721,7 +66721,7 @@
           <t>765</t>
         </is>
       </c>
-      <c r="Z380" s="17" t="inlineStr">
+      <c r="Z380" s="13" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -66873,7 +66873,7 @@
           <t>733</t>
         </is>
       </c>
-      <c r="S381" s="17" t="inlineStr">
+      <c r="S381" s="10" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -66888,7 +66888,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="V381" s="11" t="inlineStr">
+      <c r="V381" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -66985,7 +66985,7 @@
           <t>594</t>
         </is>
       </c>
-      <c r="D382" s="17" t="inlineStr">
+      <c r="D382" s="5" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -67070,7 +67070,7 @@
           <t>015</t>
         </is>
       </c>
-      <c r="U382" s="17" t="inlineStr">
+      <c r="U382" s="11" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -67327,7 +67327,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI383" s="16" t="inlineStr">
+      <c r="AI383" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -67648,7 +67648,7 @@
           <t>259</t>
         </is>
       </c>
-      <c r="G388" s="17" t="inlineStr">
+      <c r="G388" s="6" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -67688,7 +67688,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="O388" s="17" t="inlineStr">
+      <c r="O388" s="9" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -67698,7 +67698,7 @@
           <t>488</t>
         </is>
       </c>
-      <c r="Q388" s="17" t="inlineStr">
+      <c r="Q388" s="10" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -67768,7 +67768,7 @@
           <t>281</t>
         </is>
       </c>
-      <c r="AE388" s="17" t="inlineStr">
+      <c r="AE388" s="14" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -67850,7 +67850,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="J389" s="17" t="inlineStr">
+      <c r="J389" s="7" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -67930,7 +67930,7 @@
           <t>312</t>
         </is>
       </c>
-      <c r="Z389" s="13" t="inlineStr">
+      <c r="Z389" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -67950,7 +67950,7 @@
           <t>873</t>
         </is>
       </c>
-      <c r="AD389" s="14" t="inlineStr">
+      <c r="AD389" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -67980,7 +67980,7 @@
           <t>668</t>
         </is>
       </c>
-      <c r="AJ389" s="17" t="inlineStr">
+      <c r="AJ389" s="16" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -68102,7 +68102,7 @@
           <t>644</t>
         </is>
       </c>
-      <c r="W390" s="17" t="inlineStr">
+      <c r="W390" s="12" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -68172,7 +68172,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="AK390" s="16" t="inlineStr">
+      <c r="AK390" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -68421,7 +68421,7 @@
           <t>237</t>
         </is>
       </c>
-      <c r="L392" s="17" t="inlineStr">
+      <c r="L392" s="8" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -68501,7 +68501,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AB392" s="17" t="inlineStr">
+      <c r="AB392" s="13" t="inlineStr">
         <is>
           <t>857</t>
         </is>
@@ -68638,7 +68638,7 @@
           <t>771</t>
         </is>
       </c>
-      <c r="R393" s="17" t="inlineStr">
+      <c r="R393" s="10" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -68805,7 +68805,7 @@
           <t>150</t>
         </is>
       </c>
-      <c r="N394" s="17" t="inlineStr">
+      <c r="N394" s="9" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -68840,7 +68840,7 @@
           <t>463</t>
         </is>
       </c>
-      <c r="U394" s="17" t="inlineStr">
+      <c r="U394" s="11" t="inlineStr">
         <is>
           <t>970</t>
         </is>
@@ -68920,7 +68920,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="AK394" s="17" t="inlineStr">
+      <c r="AK394" s="16" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -69144,7 +69144,7 @@
           <t>387</t>
         </is>
       </c>
-      <c r="G396" s="6" t="inlineStr">
+      <c r="G396" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -69184,7 +69184,7 @@
           <t>961</t>
         </is>
       </c>
-      <c r="O396" s="17" t="inlineStr">
+      <c r="O396" s="9" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -69209,7 +69209,7 @@
           <t>084</t>
         </is>
       </c>
-      <c r="T396" s="11" t="inlineStr">
+      <c r="T396" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -69371,7 +69371,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="O397" s="9" t="inlineStr">
+      <c r="O397" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -69386,7 +69386,7 @@
           <t>847</t>
         </is>
       </c>
-      <c r="R397" s="17" t="inlineStr">
+      <c r="R397" s="10" t="inlineStr">
         <is>
           <t>647</t>
         </is>
@@ -69471,7 +69471,7 @@
           <t>722</t>
         </is>
       </c>
-      <c r="AI397" s="17" t="inlineStr">
+      <c r="AI397" s="16" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -69685,7 +69685,7 @@
           <t>381</t>
         </is>
       </c>
-      <c r="C399" s="17" t="inlineStr">
+      <c r="C399" s="5" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -69770,7 +69770,7 @@
           <t>402</t>
         </is>
       </c>
-      <c r="T399" s="11" t="inlineStr">
+      <c r="T399" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -69830,7 +69830,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="AF399" s="17" t="inlineStr">
+      <c r="AF399" s="15" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -69932,7 +69932,7 @@
           <t>382</t>
         </is>
       </c>
-      <c r="O400" s="17" t="inlineStr">
+      <c r="O400" s="9" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -70064,7 +70064,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="D401" s="5" t="inlineStr">
+      <c r="D401" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -70089,12 +70089,12 @@
           <t>598</t>
         </is>
       </c>
-      <c r="I401" s="17" t="inlineStr">
+      <c r="I401" s="7" t="inlineStr">
         <is>
           <t>374</t>
         </is>
       </c>
-      <c r="J401" s="17" t="inlineStr">
+      <c r="J401" s="7" t="inlineStr">
         <is>
           <t>476</t>
         </is>
@@ -70194,7 +70194,7 @@
           <t>368</t>
         </is>
       </c>
-      <c r="AD401" s="17" t="inlineStr">
+      <c r="AD401" s="14" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -70386,7 +70386,7 @@
           <t>274</t>
         </is>
       </c>
-      <c r="AE402" s="17" t="inlineStr">
+      <c r="AE402" s="14" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -70513,7 +70513,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="S403" s="17" t="inlineStr">
+      <c r="S403" s="10" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -70593,7 +70593,7 @@
           <t>398</t>
         </is>
       </c>
-      <c r="AI403" s="17" t="inlineStr">
+      <c r="AI403" s="16" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -70645,7 +70645,7 @@
           <t>250</t>
         </is>
       </c>
-      <c r="H404" s="17" t="inlineStr">
+      <c r="H404" s="7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
@@ -70730,7 +70730,7 @@
           <t>164</t>
         </is>
       </c>
-      <c r="Y404" s="17" t="inlineStr">
+      <c r="Y404" s="12" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -70827,7 +70827,7 @@
           <t>765</t>
         </is>
       </c>
-      <c r="G405" s="17" t="inlineStr">
+      <c r="G405" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -70912,7 +70912,7 @@
           <t>242</t>
         </is>
       </c>
-      <c r="X405" s="17" t="inlineStr">
+      <c r="X405" s="12" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -70927,7 +70927,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="AA405" s="13" t="inlineStr">
+      <c r="AA405" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -71029,7 +71029,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="J406" s="17" t="inlineStr">
+      <c r="J406" s="7" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -71039,7 +71039,7 @@
           <t>143</t>
         </is>
       </c>
-      <c r="L406" s="17" t="inlineStr">
+      <c r="L406" s="8" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -71104,7 +71104,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="Y406" s="17" t="inlineStr">
+      <c r="Y406" s="12" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -71206,7 +71206,7 @@
           <t>029</t>
         </is>
       </c>
-      <c r="H407" s="17" t="inlineStr">
+      <c r="H407" s="7" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -71413,7 +71413,7 @@
           <t>043</t>
         </is>
       </c>
-      <c r="L408" s="17" t="inlineStr">
+      <c r="L408" s="8" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -71600,7 +71600,7 @@
           <t>515</t>
         </is>
       </c>
-      <c r="L409" s="8" t="inlineStr">
+      <c r="L409" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -71705,7 +71705,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="AG409" s="15" t="inlineStr">
+      <c r="AG409" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -71742,7 +71742,7 @@
           <t>675</t>
         </is>
       </c>
-      <c r="C410" s="17" t="inlineStr">
+      <c r="C410" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -72368,7 +72368,7 @@
           <t>953</t>
         </is>
       </c>
-      <c r="P413" s="9" t="inlineStr">
+      <c r="P413" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -72443,7 +72443,7 @@
           <t>885</t>
         </is>
       </c>
-      <c r="AE413" s="14" t="inlineStr">
+      <c r="AE413" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -72495,7 +72495,7 @@
           <t>159</t>
         </is>
       </c>
-      <c r="D414" s="17" t="inlineStr">
+      <c r="D414" s="5" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -72555,7 +72555,7 @@
           <t>246</t>
         </is>
       </c>
-      <c r="P414" s="17" t="inlineStr">
+      <c r="P414" s="9" t="inlineStr">
         <is>
           <t>746</t>
         </is>
@@ -72580,7 +72580,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="U414" s="11" t="inlineStr">
+      <c r="U414" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -72625,7 +72625,7 @@
           <t>124</t>
         </is>
       </c>
-      <c r="AD414" s="17" t="inlineStr">
+      <c r="AD414" s="14" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -72697,7 +72697,7 @@
           <t>947</t>
         </is>
       </c>
-      <c r="G415" s="17" t="inlineStr">
+      <c r="G415" s="6" t="inlineStr">
         <is>
           <t>746</t>
         </is>
@@ -72757,7 +72757,7 @@
           <t>453</t>
         </is>
       </c>
-      <c r="S415" s="17" t="inlineStr">
+      <c r="S415" s="10" t="inlineStr">
         <is>
           <t>467</t>
         </is>
@@ -72787,7 +72787,7 @@
           <t>392</t>
         </is>
       </c>
-      <c r="Y415" s="17" t="inlineStr">
+      <c r="Y415" s="12" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -72859,7 +72859,7 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B416" s="17" t="inlineStr">
+      <c r="B416" s="5" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -72914,7 +72914,7 @@
           <t>922</t>
         </is>
       </c>
-      <c r="M416" s="8" t="inlineStr">
+      <c r="M416" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -72959,7 +72959,7 @@
           <t>013</t>
         </is>
       </c>
-      <c r="V416" s="17" t="inlineStr">
+      <c r="V416" s="11" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -72974,7 +72974,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="Y416" s="17" t="inlineStr">
+      <c r="Y416" s="12" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -73111,7 +73111,7 @@
           <t>444</t>
         </is>
       </c>
-      <c r="O417" s="9" t="inlineStr">
+      <c r="O417" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -73131,9 +73131,9 @@
           <t>586</t>
         </is>
       </c>
-      <c r="S417" s="17" t="inlineStr">
-        <is>
-          <t>970</t>
+      <c r="S417" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="T417" s="11" t="inlineStr">
@@ -73323,7 +73323,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T418" s="17" t="inlineStr">
+      <c r="T418" s="11" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -73373,7 +73373,7 @@
           <t>788</t>
         </is>
       </c>
-      <c r="AD418" s="14" t="inlineStr">
+      <c r="AD418" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -73774,7 +73774,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="R423" s="17" t="inlineStr">
+      <c r="R423" s="10" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -73896,7 +73896,7 @@
           <t>449</t>
         </is>
       </c>
-      <c r="E424" s="17" t="inlineStr">
+      <c r="E424" s="6" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -73931,7 +73931,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="L424" s="8" t="inlineStr">
+      <c r="L424" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -74173,7 +74173,7 @@
           <t>429</t>
         </is>
       </c>
-      <c r="W425" s="17" t="inlineStr">
+      <c r="W425" s="12" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -74233,7 +74233,7 @@
           <t>953</t>
         </is>
       </c>
-      <c r="AI425" s="16" t="inlineStr">
+      <c r="AI425" s="17" t="inlineStr">
         <is>
           <t>136</t>
         </is>
@@ -74305,7 +74305,7 @@
           <t>006</t>
         </is>
       </c>
-      <c r="L426" s="17" t="inlineStr">
+      <c r="L426" s="8" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -74335,7 +74335,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="R426" s="10" t="inlineStr">
+      <c r="R426" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -74415,7 +74415,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="AH426" s="15" t="inlineStr">
+      <c r="AH426" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -74425,7 +74425,7 @@
           <t>039</t>
         </is>
       </c>
-      <c r="AJ426" s="17" t="inlineStr">
+      <c r="AJ426" s="16" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -74522,7 +74522,7 @@
           <t>803</t>
         </is>
       </c>
-      <c r="R427" s="17" t="inlineStr">
+      <c r="R427" s="10" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -74537,12 +74537,12 @@
           <t>275</t>
         </is>
       </c>
-      <c r="U427" s="17" t="inlineStr">
+      <c r="U427" s="11" t="inlineStr">
         <is>
           <t>780</t>
         </is>
       </c>
-      <c r="V427" s="11" t="inlineStr">
+      <c r="V427" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -74567,7 +74567,7 @@
           <t>360</t>
         </is>
       </c>
-      <c r="AA427" s="17" t="inlineStr">
+      <c r="AA427" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -74592,7 +74592,7 @@
           <t>656</t>
         </is>
       </c>
-      <c r="AF427" s="17" t="inlineStr">
+      <c r="AF427" s="15" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -74704,7 +74704,7 @@
           <t>983</t>
         </is>
       </c>
-      <c r="Q428" s="10" t="inlineStr">
+      <c r="Q428" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -74764,7 +74764,7 @@
           <t>561</t>
         </is>
       </c>
-      <c r="AC428" s="17" t="inlineStr">
+      <c r="AC428" s="14" t="inlineStr">
         <is>
           <t>467</t>
         </is>
@@ -74779,7 +74779,7 @@
           <t>564</t>
         </is>
       </c>
-      <c r="AF428" s="15" t="inlineStr">
+      <c r="AF428" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -74861,7 +74861,7 @@
           <t>298</t>
         </is>
       </c>
-      <c r="K429" s="17" t="inlineStr">
+      <c r="K429" s="8" t="inlineStr">
         <is>
           <t>674</t>
         </is>
@@ -75023,7 +75023,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="F430" s="6" t="inlineStr">
+      <c r="F430" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -75103,7 +75103,7 @@
           <t>123</t>
         </is>
       </c>
-      <c r="V430" s="11" t="inlineStr">
+      <c r="V430" s="17" t="inlineStr">
         <is>
           <t>713</t>
         </is>
@@ -75123,7 +75123,7 @@
           <t>639</t>
         </is>
       </c>
-      <c r="Z430" s="17" t="inlineStr">
+      <c r="Z430" s="13" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -75255,7 +75255,7 @@
           <t>004</t>
         </is>
       </c>
-      <c r="O431" s="17" t="inlineStr">
+      <c r="O431" s="9" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -75462,7 +75462,7 @@
           <t>488</t>
         </is>
       </c>
-      <c r="S432" s="17" t="inlineStr">
+      <c r="S432" s="10" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -75564,7 +75564,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B433" s="17" t="inlineStr">
+      <c r="B433" s="5" t="inlineStr">
         <is>
           <t>970</t>
         </is>
@@ -75579,7 +75579,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="E433" s="17" t="inlineStr">
+      <c r="E433" s="6" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -75729,7 +75729,7 @@
           <t>458</t>
         </is>
       </c>
-      <c r="AI433" s="17" t="inlineStr">
+      <c r="AI433" s="16" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -75801,7 +75801,7 @@
           <t>299</t>
         </is>
       </c>
-      <c r="L434" s="17" t="inlineStr">
+      <c r="L434" s="8" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -75856,7 +75856,7 @@
           <t>255</t>
         </is>
       </c>
-      <c r="W434" s="12" t="inlineStr">
+      <c r="W434" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -75978,7 +75978,7 @@
           <t>969</t>
         </is>
       </c>
-      <c r="J435" s="17" t="inlineStr">
+      <c r="J435" s="7" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -76023,7 +76023,7 @@
           <t>014</t>
         </is>
       </c>
-      <c r="S435" s="10" t="inlineStr">
+      <c r="S435" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -76063,7 +76063,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="AA435" s="17" t="inlineStr">
+      <c r="AA435" s="13" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -76195,7 +76195,7 @@
           <t>818</t>
         </is>
       </c>
-      <c r="P436" s="9" t="inlineStr">
+      <c r="P436" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -76382,7 +76382,7 @@
           <t>945</t>
         </is>
       </c>
-      <c r="P437" s="17" t="inlineStr">
+      <c r="P437" s="9" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -76534,7 +76534,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="I438" s="17" t="inlineStr">
+      <c r="I438" s="7" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -76674,7 +76674,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="AK438" s="16" t="inlineStr">
+      <c r="AK438" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -76741,7 +76741,7 @@
           <t>917</t>
         </is>
       </c>
-      <c r="M439" s="17" t="inlineStr">
+      <c r="M439" s="8" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -76771,7 +76771,7 @@
           <t>224</t>
         </is>
       </c>
-      <c r="S439" s="17" t="inlineStr">
+      <c r="S439" s="10" t="inlineStr">
         <is>
           <t>476</t>
         </is>
@@ -76846,7 +76846,7 @@
           <t>484</t>
         </is>
       </c>
-      <c r="AH439" s="15" t="inlineStr">
+      <c r="AH439" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -76856,7 +76856,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="AJ439" s="17" t="inlineStr">
+      <c r="AJ439" s="16" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -76873,7 +76873,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B440" s="17" t="inlineStr">
+      <c r="B440" s="5" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -76988,7 +76988,7 @@
           <t>813</t>
         </is>
       </c>
-      <c r="Y440" s="17" t="inlineStr">
+      <c r="Y440" s="12" t="inlineStr">
         <is>
           <t>476</t>
         </is>
@@ -77150,7 +77150,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="T441" s="17" t="inlineStr">
+      <c r="T441" s="11" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -77205,7 +77205,7 @@
           <t>441</t>
         </is>
       </c>
-      <c r="AE441" s="17" t="inlineStr">
+      <c r="AE441" s="14" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -77257,7 +77257,7 @@
           <t>424</t>
         </is>
       </c>
-      <c r="D442" s="17" t="inlineStr">
+      <c r="D442" s="5" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -77357,7 +77357,7 @@
           <t>460</t>
         </is>
       </c>
-      <c r="X442" s="17" t="inlineStr">
+      <c r="X442" s="12" t="inlineStr">
         <is>
           <t>674</t>
         </is>
@@ -77392,7 +77392,7 @@
           <t>250</t>
         </is>
       </c>
-      <c r="AE442" s="14" t="inlineStr">
+      <c r="AE442" s="17" t="inlineStr">
         <is>
           <t>316</t>
         </is>
@@ -77499,7 +77499,7 @@
           <t>426</t>
         </is>
       </c>
-      <c r="O443" s="17" t="inlineStr">
+      <c r="O443" s="9" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -77621,7 +77621,7 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B444" s="17" t="inlineStr">
+      <c r="B444" s="5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -77721,7 +77721,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="V444" s="11" t="inlineStr">
+      <c r="V444" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -77823,7 +77823,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="E445" s="17" t="inlineStr">
+      <c r="E445" s="6" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -77903,7 +77903,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="U445" s="11" t="inlineStr">
+      <c r="U445" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -77995,7 +77995,7 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B446" s="5" t="inlineStr">
+      <c r="B446" s="17" t="inlineStr">
         <is>
           <t>361</t>
         </is>
@@ -78232,7 +78232,7 @@
           <t>123</t>
         </is>
       </c>
-      <c r="L447" s="8" t="inlineStr">
+      <c r="L447" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -78307,7 +78307,7 @@
           <t>656</t>
         </is>
       </c>
-      <c r="AA447" s="13" t="inlineStr">
+      <c r="AA447" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -78322,7 +78322,7 @@
           <t>528</t>
         </is>
       </c>
-      <c r="AD447" s="17" t="inlineStr">
+      <c r="AD447" s="14" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -78369,7 +78369,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B448" s="17" t="inlineStr">
+      <c r="B448" s="5" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -78404,12 +78404,12 @@
           <t>190</t>
         </is>
       </c>
-      <c r="I448" s="17" t="inlineStr">
+      <c r="I448" s="7" t="inlineStr">
         <is>
           <t>754</t>
         </is>
       </c>
-      <c r="J448" s="17" t="inlineStr">
+      <c r="J448" s="7" t="inlineStr">
         <is>
           <t>647</t>
         </is>
@@ -78504,7 +78504,7 @@
           <t>463</t>
         </is>
       </c>
-      <c r="AC448" s="17" t="inlineStr">
+      <c r="AC448" s="14" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -78606,7 +78606,7 @@
           <t>940</t>
         </is>
       </c>
-      <c r="L449" s="17" t="inlineStr">
+      <c r="L449" s="8" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -78641,7 +78641,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="S449" s="17" t="inlineStr">
+      <c r="S449" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -78671,7 +78671,7 @@
           <t>114</t>
         </is>
       </c>
-      <c r="Y449" s="17" t="inlineStr">
+      <c r="Y449" s="12" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -78696,7 +78696,7 @@
           <t>749</t>
         </is>
       </c>
-      <c r="AD449" s="17" t="inlineStr">
+      <c r="AD449" s="14" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -78758,7 +78758,7 @@
           <t>164</t>
         </is>
       </c>
-      <c r="E450" s="6" t="inlineStr">
+      <c r="E450" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -79015,7 +79015,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="S451" s="10" t="inlineStr">
+      <c r="S451" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -79090,7 +79090,7 @@
           <t>258</t>
         </is>
       </c>
-      <c r="AH451" s="15" t="inlineStr">
+      <c r="AH451" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -79272,7 +79272,7 @@
           <t>484</t>
         </is>
       </c>
-      <c r="AG452" s="15" t="inlineStr">
+      <c r="AG452" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -79444,7 +79444,7 @@
           <t>678</t>
         </is>
       </c>
-      <c r="AD453" s="17" t="inlineStr">
+      <c r="AD453" s="14" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -79805,7 +79805,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="J458" s="17" t="inlineStr">
+      <c r="J458" s="7" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -79880,7 +79880,7 @@
           <t>640</t>
         </is>
       </c>
-      <c r="Y458" s="12" t="inlineStr">
+      <c r="Y458" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -79900,7 +79900,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="AC458" s="17" t="inlineStr">
+      <c r="AC458" s="14" t="inlineStr">
         <is>
           <t>467</t>
         </is>
@@ -79925,7 +79925,7 @@
           <t>485</t>
         </is>
       </c>
-      <c r="AH458" s="17" t="inlineStr">
+      <c r="AH458" s="15" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -79997,7 +79997,7 @@
           <t>369</t>
         </is>
       </c>
-      <c r="K459" s="8" t="inlineStr">
+      <c r="K459" s="17" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -80154,7 +80154,7 @@
           <t>969</t>
         </is>
       </c>
-      <c r="E460" s="17" t="inlineStr">
+      <c r="E460" s="6" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -80214,12 +80214,12 @@
           <t>214</t>
         </is>
       </c>
-      <c r="Q460" s="17" t="inlineStr">
+      <c r="Q460" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
       </c>
-      <c r="R460" s="10" t="inlineStr">
+      <c r="R460" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -80331,7 +80331,7 @@
           <t>952</t>
         </is>
       </c>
-      <c r="C461" s="5" t="inlineStr">
+      <c r="C461" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -80396,7 +80396,7 @@
           <t>490</t>
         </is>
       </c>
-      <c r="P461" s="17" t="inlineStr">
+      <c r="P461" s="9" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -80431,7 +80431,7 @@
           <t>931</t>
         </is>
       </c>
-      <c r="W461" s="17" t="inlineStr">
+      <c r="W461" s="12" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -80486,7 +80486,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="AH461" s="15" t="inlineStr">
+      <c r="AH461" s="17" t="inlineStr">
         <is>
           <t>317</t>
         </is>
@@ -80705,7 +80705,7 @@
           <t>952</t>
         </is>
       </c>
-      <c r="C463" s="17" t="inlineStr">
+      <c r="C463" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -80715,7 +80715,7 @@
           <t>004</t>
         </is>
       </c>
-      <c r="E463" s="17" t="inlineStr">
+      <c r="E463" s="6" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -80730,7 +80730,7 @@
           <t>695</t>
         </is>
       </c>
-      <c r="H463" s="7" t="inlineStr">
+      <c r="H463" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -80790,7 +80790,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="T463" s="17" t="inlineStr">
+      <c r="T463" s="11" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -80917,7 +80917,7 @@
           <t>096</t>
         </is>
       </c>
-      <c r="H464" s="17" t="inlineStr">
+      <c r="H464" s="7" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -81037,7 +81037,7 @@
           <t>225</t>
         </is>
       </c>
-      <c r="AF464" s="17" t="inlineStr">
+      <c r="AF464" s="15" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -81114,7 +81114,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="J465" s="17" t="inlineStr">
+      <c r="J465" s="7" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -81134,7 +81134,7 @@
           <t>020</t>
         </is>
       </c>
-      <c r="N465" s="17" t="inlineStr">
+      <c r="N465" s="9" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -81209,7 +81209,7 @@
           <t>181</t>
         </is>
       </c>
-      <c r="AC465" s="17" t="inlineStr">
+      <c r="AC465" s="14" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -81276,7 +81276,7 @@
           <t>419</t>
         </is>
       </c>
-      <c r="E466" s="6" t="inlineStr">
+      <c r="E466" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -81311,7 +81311,7 @@
           <t>837</t>
         </is>
       </c>
-      <c r="L466" s="8" t="inlineStr">
+      <c r="L466" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -81356,7 +81356,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="U466" s="17" t="inlineStr">
+      <c r="U466" s="11" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -81391,7 +81391,7 @@
           <t>586</t>
         </is>
       </c>
-      <c r="AB466" s="17" t="inlineStr">
+      <c r="AB466" s="13" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -81411,7 +81411,7 @@
           <t>392</t>
         </is>
       </c>
-      <c r="AF466" s="15" t="inlineStr">
+      <c r="AF466" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -81498,7 +81498,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="L467" s="17" t="inlineStr">
+      <c r="L467" s="8" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -81523,7 +81523,7 @@
           <t>335</t>
         </is>
       </c>
-      <c r="Q467" s="17" t="inlineStr">
+      <c r="Q467" s="10" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -81553,7 +81553,7 @@
           <t>951</t>
         </is>
       </c>
-      <c r="W467" s="12" t="inlineStr">
+      <c r="W467" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -81640,7 +81640,7 @@
           <t>393</t>
         </is>
       </c>
-      <c r="C468" s="17" t="inlineStr">
+      <c r="C468" s="5" t="inlineStr">
         <is>
           <t>674</t>
         </is>
@@ -81760,12 +81760,12 @@
           <t>905</t>
         </is>
       </c>
-      <c r="AA468" s="17" t="inlineStr">
+      <c r="AA468" s="13" t="inlineStr">
         <is>
           <t>764</t>
         </is>
       </c>
-      <c r="AB468" s="17" t="inlineStr">
+      <c r="AB468" s="13" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -81912,7 +81912,7 @@
           <t>061</t>
         </is>
       </c>
-      <c r="T469" s="17" t="inlineStr">
+      <c r="T469" s="11" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -81932,7 +81932,7 @@
           <t>880</t>
         </is>
       </c>
-      <c r="X469" s="17" t="inlineStr">
+      <c r="X469" s="12" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -81952,7 +81952,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AB469" s="17" t="inlineStr">
+      <c r="AB469" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82029,7 +82029,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="F470" s="17" t="inlineStr">
+      <c r="F470" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -82054,7 +82054,7 @@
           <t>928</t>
         </is>
       </c>
-      <c r="K470" s="17" t="inlineStr">
+      <c r="K470" s="8" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -82114,7 +82114,7 @@
           <t>165</t>
         </is>
       </c>
-      <c r="W470" s="17" t="inlineStr">
+      <c r="W470" s="12" t="inlineStr">
         <is>
           <t>970</t>
         </is>
@@ -82129,7 +82129,7 @@
           <t>735</t>
         </is>
       </c>
-      <c r="Z470" s="17" t="inlineStr">
+      <c r="Z470" s="13" t="inlineStr">
         <is>
           <t>758</t>
         </is>
@@ -82206,7 +82206,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="D471" s="17" t="inlineStr">
+      <c r="D471" s="5" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -82316,7 +82316,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="Z471" s="17" t="inlineStr">
+      <c r="Z471" s="13" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -82331,7 +82331,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="AC471" s="17" t="inlineStr">
+      <c r="AC471" s="14" t="inlineStr">
         <is>
           <t>476</t>
         </is>
@@ -82361,7 +82361,7 @@
           <t>977</t>
         </is>
       </c>
-      <c r="AI471" s="17" t="inlineStr">
+      <c r="AI471" s="16" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -82458,7 +82458,7 @@
           <t>837</t>
         </is>
       </c>
-      <c r="Q472" s="17" t="inlineStr">
+      <c r="Q472" s="10" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -82468,7 +82468,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="S472" s="10" t="inlineStr">
+      <c r="S472" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -82493,7 +82493,7 @@
           <t>280</t>
         </is>
       </c>
-      <c r="X472" s="12" t="inlineStr">
+      <c r="X472" s="17" t="inlineStr">
         <is>
           <t>371</t>
         </is>
@@ -82518,7 +82518,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AC472" s="14" t="inlineStr">
+      <c r="AC472" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -82630,7 +82630,7 @@
           <t>739</t>
         </is>
       </c>
-      <c r="N473" s="17" t="inlineStr">
+      <c r="N473" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82660,7 +82660,7 @@
           <t>542</t>
         </is>
       </c>
-      <c r="T473" s="17" t="inlineStr">
+      <c r="T473" s="11" t="inlineStr">
         <is>
           <t>097</t>
         </is>
@@ -82670,7 +82670,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="V473" s="17" t="inlineStr">
+      <c r="V473" s="11" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82735,7 +82735,7 @@
           <t>244</t>
         </is>
       </c>
-      <c r="AI473" s="16" t="inlineStr">
+      <c r="AI473" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -82817,7 +82817,7 @@
           <t>571</t>
         </is>
       </c>
-      <c r="N474" s="17" t="inlineStr">
+      <c r="N474" s="9" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -82979,7 +82979,7 @@
           <t>379</t>
         </is>
       </c>
-      <c r="I475" s="7" t="inlineStr">
+      <c r="I475" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -83029,7 +83029,7 @@
           <t>694</t>
         </is>
       </c>
-      <c r="S475" s="17" t="inlineStr">
+      <c r="S475" s="10" t="inlineStr">
         <is>
           <t>875</t>
         </is>
@@ -83099,7 +83099,7 @@
           <t>963</t>
         </is>
       </c>
-      <c r="AG475" s="17" t="inlineStr">
+      <c r="AG475" s="15" t="inlineStr">
         <is>
           <t>785</t>
         </is>
@@ -83109,7 +83109,7 @@
           <t>608</t>
         </is>
       </c>
-      <c r="AI475" s="17" t="inlineStr">
+      <c r="AI475" s="16" t="inlineStr">
         <is>
           <t>079</t>
         </is>
@@ -83408,7 +83408,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="T477" s="17" t="inlineStr">
+      <c r="T477" s="11" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -83423,7 +83423,7 @@
           <t>646</t>
         </is>
       </c>
-      <c r="W477" s="17" t="inlineStr">
+      <c r="W477" s="12" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -83575,7 +83575,7 @@
           <t>548</t>
         </is>
       </c>
-      <c r="P478" s="9" t="inlineStr">
+      <c r="P478" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -83610,7 +83610,7 @@
           <t>575</t>
         </is>
       </c>
-      <c r="W478" s="17" t="inlineStr">
+      <c r="W478" s="12" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -83732,7 +83732,7 @@
           <t>154</t>
         </is>
       </c>
-      <c r="J479" s="17" t="inlineStr">
+      <c r="J479" s="7" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -83964,7 +83964,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="S480" s="17" t="inlineStr">
+      <c r="S480" s="10" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -84076,7 +84076,7 @@
           <t>687</t>
         </is>
       </c>
-      <c r="D481" s="5" t="inlineStr">
+      <c r="D481" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -84116,7 +84116,7 @@
           <t>393</t>
         </is>
       </c>
-      <c r="L481" s="17" t="inlineStr">
+      <c r="L481" s="8" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -84181,7 +84181,7 @@
           <t>081</t>
         </is>
       </c>
-      <c r="Y481" s="12" t="inlineStr">
+      <c r="Y481" s="17" t="inlineStr">
         <is>
           <t>710</t>
         </is>
@@ -84303,7 +84303,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="L482" s="8" t="inlineStr">
+      <c r="L482" s="17" t="inlineStr">
         <is>
           <t>613</t>
         </is>
@@ -84313,7 +84313,7 @@
           <t>890</t>
         </is>
       </c>
-      <c r="N482" s="17" t="inlineStr">
+      <c r="N482" s="9" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -84378,7 +84378,7 @@
           <t>478</t>
         </is>
       </c>
-      <c r="AA482" s="17" t="inlineStr">
+      <c r="AA482" s="13" t="inlineStr">
         <is>
           <t>547</t>
         </is>
@@ -84465,7 +84465,7 @@
           <t>956</t>
         </is>
       </c>
-      <c r="G483" s="17" t="inlineStr">
+      <c r="G483" s="6" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -84515,17 +84515,17 @@
           <t>913</t>
         </is>
       </c>
-      <c r="Q483" s="17" t="inlineStr">
+      <c r="Q483" s="10" t="inlineStr">
         <is>
           <t>807</t>
         </is>
       </c>
-      <c r="R483" s="17" t="inlineStr">
+      <c r="R483" s="10" t="inlineStr">
         <is>
           <t>670</t>
         </is>
       </c>
-      <c r="S483" s="10" t="inlineStr">
+      <c r="S483" s="17" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -84637,7 +84637,7 @@
           <t>451</t>
         </is>
       </c>
-      <c r="D484" s="17" t="inlineStr">
+      <c r="D484" s="5" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -84707,7 +84707,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="R484" s="17" t="inlineStr">
+      <c r="R484" s="10" t="inlineStr">
         <is>
           <t>467</t>
         </is>
@@ -84727,7 +84727,7 @@
           <t>082</t>
         </is>
       </c>
-      <c r="V484" s="17" t="inlineStr">
+      <c r="V484" s="11" t="inlineStr">
         <is>
           <t>907</t>
         </is>
@@ -84747,12 +84747,12 @@
           <t>645</t>
         </is>
       </c>
-      <c r="Z484" s="17" t="inlineStr">
+      <c r="Z484" s="13" t="inlineStr">
         <is>
           <t>857</t>
         </is>
       </c>
-      <c r="AA484" s="17" t="inlineStr">
+      <c r="AA484" s="13" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -84797,7 +84797,7 @@
           <t>094</t>
         </is>
       </c>
-      <c r="AJ484" s="17" t="inlineStr">
+      <c r="AJ484" s="16" t="inlineStr">
         <is>
           <t>476</t>
         </is>
@@ -84884,7 +84884,7 @@
           <t>139</t>
         </is>
       </c>
-      <c r="P485" s="17" t="inlineStr">
+      <c r="P485" s="9" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -84959,12 +84959,12 @@
           <t>879</t>
         </is>
       </c>
-      <c r="AE485" s="17" t="inlineStr">
+      <c r="AE485" s="14" t="inlineStr">
         <is>
           <t>754</t>
         </is>
       </c>
-      <c r="AF485" s="17" t="inlineStr">
+      <c r="AF485" s="15" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -85011,7 +85011,7 @@
           <t>954</t>
         </is>
       </c>
-      <c r="D486" s="17" t="inlineStr">
+      <c r="D486" s="5" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -85283,7 +85283,7 @@
           <t>219</t>
         </is>
       </c>
-      <c r="U487" s="17" t="inlineStr">
+      <c r="U487" s="11" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -85415,7 +85415,7 @@
           <t>955</t>
         </is>
       </c>
-      <c r="J488" s="7" t="inlineStr">
+      <c r="J488" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -85545,7 +85545,7 @@
           <t>484</t>
         </is>
       </c>
-      <c r="AJ488" s="17" t="inlineStr">
+      <c r="AJ488" s="16" t="inlineStr">
         <is>
           <t>745</t>
         </is>
@@ -85854,7 +85854,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="J493" s="17" t="inlineStr">
+      <c r="J493" s="7" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -86126,7 +86126,7 @@
           <t>200</t>
         </is>
       </c>
-      <c r="AD494" s="17" t="inlineStr">
+      <c r="AD494" s="14" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -86293,7 +86293,7 @@
           <t>525</t>
         </is>
       </c>
-      <c r="AC495" s="17" t="inlineStr">
+      <c r="AC495" s="14" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -86455,7 +86455,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="AA496" s="17" t="inlineStr">
+      <c r="AA496" s="13" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -86512,7 +86512,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="D497" s="17" t="inlineStr">
+      <c r="D497" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -86622,7 +86622,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z497" s="13" t="inlineStr">
+      <c r="Z497" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -87001,7 +87001,7 @@
           <t>490</t>
         </is>
       </c>
-      <c r="AG499" s="15" t="inlineStr">
+      <c r="AG499" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -87148,7 +87148,7 @@
           <t>387</t>
         </is>
       </c>
-      <c r="AB500" s="13" t="inlineStr">
+      <c r="AB500" s="17" t="inlineStr">
         <is>
           <t>173</t>
         </is>
@@ -87220,7 +87220,7 @@
           <t>028</t>
         </is>
       </c>
-      <c r="H501" s="7" t="inlineStr">
+      <c r="H501" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -87554,7 +87554,7 @@
           <t>897</t>
         </is>
       </c>
-      <c r="F503" s="17" t="inlineStr">
+      <c r="F503" s="6" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -87574,7 +87574,7 @@
           <t>896</t>
         </is>
       </c>
-      <c r="J503" s="17" t="inlineStr">
+      <c r="J503" s="7" t="inlineStr">
         <is>
           <t>764</t>
         </is>
@@ -87674,7 +87674,7 @@
           <t>864</t>
         </is>
       </c>
-      <c r="AD503" s="14" t="inlineStr">
+      <c r="AD503" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -88065,7 +88065,7 @@
           <t>891</t>
         </is>
       </c>
-      <c r="E506" s="6" t="inlineStr">
+      <c r="E506" s="17" t="inlineStr">
         <is>
           <t>731</t>
         </is>
@@ -88232,7 +88232,7 @@
           <t>192</t>
         </is>
       </c>
-      <c r="D507" s="17" t="inlineStr">
+      <c r="D507" s="5" t="inlineStr">
         <is>
           <t>574</t>
         </is>
@@ -88404,7 +88404,7 @@
           <t>856</t>
         </is>
       </c>
-      <c r="D508" s="17" t="inlineStr">
+      <c r="D508" s="5" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -88414,7 +88414,7 @@
           <t>167</t>
         </is>
       </c>
-      <c r="F508" s="17" t="inlineStr">
+      <c r="F508" s="6" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -88429,7 +88429,7 @@
           <t>687</t>
         </is>
       </c>
-      <c r="I508" s="7" t="inlineStr">
+      <c r="I508" s="17" t="inlineStr">
         <is>
           <t>631</t>
         </is>
@@ -88596,7 +88596,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="H509" s="17" t="inlineStr">
+      <c r="H509" s="7" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -88691,7 +88691,7 @@
           <t>579</t>
         </is>
       </c>
-      <c r="AA509" s="13" t="inlineStr">
+      <c r="AA509" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -88711,7 +88711,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="AE509" s="17" t="inlineStr">
+      <c r="AE509" s="14" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -88930,7 +88930,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="F511" s="17" t="inlineStr">
+      <c r="F511" s="6" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -89045,7 +89045,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="AC511" s="17" t="inlineStr">
+      <c r="AC511" s="14" t="inlineStr">
         <is>
           <t>709</t>
         </is>
@@ -89092,7 +89092,7 @@
           <t>327</t>
         </is>
       </c>
-      <c r="D512" s="17" t="inlineStr">
+      <c r="D512" s="5" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -89232,7 +89232,7 @@
           <t>923</t>
         </is>
       </c>
-      <c r="AF512" s="15" t="inlineStr">
+      <c r="AF512" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -89431,7 +89431,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="C514" s="17" t="inlineStr">
+      <c r="C514" s="5" t="inlineStr">
         <is>
           <t>578</t>
         </is>
@@ -89910,7 +89910,7 @@
           <t>023</t>
         </is>
       </c>
-      <c r="AD516" s="17" t="inlineStr">
+      <c r="AD516" s="14" t="inlineStr">
         <is>
           <t>970</t>
         </is>
@@ -90052,7 +90052,7 @@
           <t>900</t>
         </is>
       </c>
-      <c r="X517" s="17" t="inlineStr">
+      <c r="X517" s="12" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -90129,12 +90129,12 @@
           <t>605</t>
         </is>
       </c>
-      <c r="E518" s="6" t="inlineStr">
+      <c r="E518" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F518" s="6" t="inlineStr">
+      <c r="F518" s="17" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -90401,7 +90401,7 @@
           <t>644</t>
         </is>
       </c>
-      <c r="Y519" s="17" t="inlineStr">
+      <c r="Y519" s="12" t="inlineStr">
         <is>
           <t>754</t>
         </is>
@@ -90438,17 +90438,17 @@
       </c>
       <c r="AF519" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>242</t>
         </is>
       </c>
       <c r="AG519" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>376</t>
         </is>
       </c>
       <c r="AH519" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>877</t>
         </is>
       </c>
     </row>
@@ -90610,17 +90610,17 @@
       </c>
       <c r="AF520" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>118</t>
         </is>
       </c>
       <c r="AG520" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>801</t>
         </is>
       </c>
       <c r="AH520" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>791</t>
         </is>
       </c>
     </row>
@@ -90630,7 +90630,7 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B521" s="5" t="inlineStr">
+      <c r="B521" s="17" t="inlineStr">
         <is>
           <t>017</t>
         </is>
@@ -90770,7 +90770,7 @@
           <t>664</t>
         </is>
       </c>
-      <c r="AD521" s="14" t="inlineStr">
+      <c r="AD521" s="17" t="inlineStr">
         <is>
           <t>163</t>
         </is>
@@ -90782,17 +90782,17 @@
       </c>
       <c r="AF521" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>369</t>
         </is>
       </c>
       <c r="AG521" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>221</t>
         </is>
       </c>
       <c r="AH521" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>395</t>
         </is>
       </c>
     </row>
@@ -90922,7 +90922,7 @@
           <t>880</t>
         </is>
       </c>
-      <c r="Z522" s="17" t="inlineStr">
+      <c r="Z522" s="13" t="inlineStr">
         <is>
           <t>475</t>
         </is>
@@ -90937,7 +90937,7 @@
           <t>029</t>
         </is>
       </c>
-      <c r="AC522" s="17" t="inlineStr">
+      <c r="AC522" s="14" t="inlineStr">
         <is>
           <t>587</t>
         </is>
@@ -90952,19 +90952,19 @@
           <t>362</t>
         </is>
       </c>
-      <c r="AF522" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG522" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH522" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AF522" s="17" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AG522" s="17" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="AH522" s="17" t="inlineStr">
+        <is>
+          <t>316</t>
         </is>
       </c>
     </row>
@@ -90984,7 +90984,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="D523" s="5" t="inlineStr">
+      <c r="D523" s="17" t="inlineStr">
         <is>
           <t>071</t>
         </is>
@@ -91084,7 +91084,7 @@
           <t>099</t>
         </is>
       </c>
-      <c r="X523" s="17" t="inlineStr">
+      <c r="X523" s="12" t="inlineStr">
         <is>
           <t>457</t>
         </is>
@@ -91109,7 +91109,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC523" s="17" t="inlineStr">
+      <c r="AC523" s="14" t="inlineStr">
         <is>
           <t>708</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -93,12 +93,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="00009966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00009966"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -250,10 +250,10 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6415,7 +6415,7 @@
           <t>022</t>
         </is>
       </c>
-      <c r="AF32" s="17" t="inlineStr">
+      <c r="AF32" s="15" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -6958,7 +6958,7 @@
           <t>587</t>
         </is>
       </c>
-      <c r="K38" s="8" t="inlineStr">
+      <c r="K38" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -8045,7 +8045,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D44" s="5" t="inlineStr">
+      <c r="D44" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -9105,7 +9105,7 @@
           <t>397</t>
         </is>
       </c>
-      <c r="AC49" s="17" t="inlineStr">
+      <c r="AC49" s="14" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -9868,7 +9868,7 @@
           <t>766</t>
         </is>
       </c>
-      <c r="AF53" s="15" t="inlineStr">
+      <c r="AF53" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -11476,7 +11476,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="Q62" s="17" t="inlineStr">
+      <c r="Q62" s="10" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -13533,7 +13533,7 @@
           <t>203</t>
         </is>
       </c>
-      <c r="AK75" s="17" t="inlineStr">
+      <c r="AK75" s="16" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -14630,7 +14630,7 @@
           <t>049</t>
         </is>
       </c>
-      <c r="AF81" s="17" t="inlineStr">
+      <c r="AF81" s="15" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -14929,7 +14929,7 @@
           <t>555</t>
         </is>
       </c>
-      <c r="Q83" s="17" t="inlineStr">
+      <c r="Q83" s="10" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -14999,7 +14999,7 @@
           <t>718</t>
         </is>
       </c>
-      <c r="AE83" s="14" t="inlineStr">
+      <c r="AE83" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -15727,7 +15727,7 @@
           <t>327</t>
         </is>
       </c>
-      <c r="AA87" s="13" t="inlineStr">
+      <c r="AA87" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -15762,7 +15762,7 @@
           <t>293</t>
         </is>
       </c>
-      <c r="AH87" s="17" t="inlineStr">
+      <c r="AH87" s="15" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -16173,7 +16173,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D90" s="5" t="inlineStr">
+      <c r="D90" s="17" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -17076,7 +17076,7 @@
           <t>313</t>
         </is>
       </c>
-      <c r="AI94" s="17" t="inlineStr">
+      <c r="AI94" s="16" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -18193,7 +18193,7 @@
           <t>759</t>
         </is>
       </c>
-      <c r="AH100" s="17" t="inlineStr">
+      <c r="AH100" s="15" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -19362,7 +19362,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="Z109" s="17" t="inlineStr">
+      <c r="Z109" s="13" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -19888,7 +19888,7 @@
           <t>410</t>
         </is>
       </c>
-      <c r="S112" s="17" t="inlineStr">
+      <c r="S112" s="10" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -21434,7 +21434,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="AC120" s="17" t="inlineStr">
+      <c r="AC120" s="14" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -22102,7 +22102,7 @@
           <t>163</t>
         </is>
       </c>
-      <c r="M124" s="17" t="inlineStr">
+      <c r="M124" s="8" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -22264,7 +22264,7 @@
           <t>906</t>
         </is>
       </c>
-      <c r="H125" s="7" t="inlineStr">
+      <c r="H125" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -22668,7 +22668,7 @@
           <t>506</t>
         </is>
       </c>
-      <c r="N127" s="17" t="inlineStr">
+      <c r="N127" s="9" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -23830,7 +23830,7 @@
           <t>236</t>
         </is>
       </c>
-      <c r="V133" s="11" t="inlineStr">
+      <c r="V133" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -23987,7 +23987,7 @@
           <t>635</t>
         </is>
       </c>
-      <c r="P134" s="17" t="inlineStr">
+      <c r="P134" s="9" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -23997,7 +23997,7 @@
           <t>253</t>
         </is>
       </c>
-      <c r="R134" s="10" t="inlineStr">
+      <c r="R134" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -24244,7 +24244,7 @@
           <t>702</t>
         </is>
       </c>
-      <c r="AD135" s="14" t="inlineStr">
+      <c r="AD135" s="17" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -25196,7 +25196,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="P143" s="9" t="inlineStr">
+      <c r="P143" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -26777,7 +26777,7 @@
           <t>126</t>
         </is>
       </c>
-      <c r="AG151" s="17" t="inlineStr">
+      <c r="AG151" s="15" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -27151,7 +27151,7 @@
           <t>297</t>
         </is>
       </c>
-      <c r="AG153" s="15" t="inlineStr">
+      <c r="AG153" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -28128,7 +28128,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="D159" s="5" t="inlineStr">
+      <c r="D159" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -28455,7 +28455,7 @@
           <t>428</t>
         </is>
       </c>
-      <c r="AF160" s="17" t="inlineStr">
+      <c r="AF160" s="15" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -28714,7 +28714,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="I162" s="17" t="inlineStr">
+      <c r="I162" s="7" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -29385,7 +29385,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AE165" s="17" t="inlineStr">
+      <c r="AE165" s="14" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -29405,7 +29405,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI165" s="16" t="inlineStr">
+      <c r="AI165" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -29769,7 +29769,7 @@
           <t>174</t>
         </is>
       </c>
-      <c r="AG167" s="15" t="inlineStr">
+      <c r="AG167" s="17" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -30427,7 +30427,7 @@
           <t>500</t>
         </is>
       </c>
-      <c r="O171" s="9" t="inlineStr">
+      <c r="O171" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -31459,7 +31459,7 @@
           <t>387</t>
         </is>
       </c>
-      <c r="Q179" s="10" t="inlineStr">
+      <c r="Q179" s="17" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -32733,7 +32733,7 @@
           <t>619</t>
         </is>
       </c>
-      <c r="J186" s="7" t="inlineStr">
+      <c r="J186" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -33254,7 +33254,7 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B189" s="5" t="inlineStr">
+      <c r="B189" s="17" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -34531,7 +34531,7 @@
           <t>424</t>
         </is>
       </c>
-      <c r="AG195" s="17" t="inlineStr">
+      <c r="AG195" s="15" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -34780,7 +34780,7 @@
           <t>422</t>
         </is>
       </c>
-      <c r="H197" s="17" t="inlineStr">
+      <c r="H197" s="7" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -35765,7 +35765,7 @@
           <t>422</t>
         </is>
       </c>
-      <c r="R202" s="17" t="inlineStr">
+      <c r="R202" s="10" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -35810,7 +35810,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="AA202" s="13" t="inlineStr">
+      <c r="AA202" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -35977,7 +35977,7 @@
           <t>656</t>
         </is>
       </c>
-      <c r="W203" s="12" t="inlineStr">
+      <c r="W203" s="17" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -36154,7 +36154,7 @@
           <t>899</t>
         </is>
       </c>
-      <c r="U204" s="17" t="inlineStr">
+      <c r="U204" s="11" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -36730,7 +36730,7 @@
           <t>937</t>
         </is>
       </c>
-      <c r="X207" s="17" t="inlineStr">
+      <c r="X207" s="12" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -37807,7 +37807,7 @@
           <t>117</t>
         </is>
       </c>
-      <c r="AI215" s="16" t="inlineStr">
+      <c r="AI215" s="17" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -38016,7 +38016,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="B217" s="17" t="inlineStr">
+      <c r="B217" s="5" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -38223,7 +38223,7 @@
           <t>145</t>
         </is>
       </c>
-      <c r="F218" s="6" t="inlineStr">
+      <c r="F218" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -38864,7 +38864,7 @@
           <t>204</t>
         </is>
       </c>
-      <c r="V221" s="17" t="inlineStr">
+      <c r="V221" s="11" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -39071,7 +39071,7 @@
           <t>086</t>
         </is>
       </c>
-      <c r="Z222" s="13" t="inlineStr">
+      <c r="Z222" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -39385,7 +39385,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="N224" s="17" t="inlineStr">
+      <c r="N224" s="9" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -40280,7 +40280,7 @@
           <t>087</t>
         </is>
       </c>
-      <c r="F229" s="17" t="inlineStr">
+      <c r="F229" s="6" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -40425,7 +40425,7 @@
           <t>571</t>
         </is>
       </c>
-      <c r="AI229" s="17" t="inlineStr">
+      <c r="AI229" s="16" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -41083,7 +41083,7 @@
           <t>709</t>
         </is>
       </c>
-      <c r="Q233" s="17" t="inlineStr">
+      <c r="Q233" s="10" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -41123,7 +41123,7 @@
           <t>161</t>
         </is>
       </c>
-      <c r="Y233" s="17" t="inlineStr">
+      <c r="Y233" s="12" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -41340,7 +41340,7 @@
           <t>265</t>
         </is>
       </c>
-      <c r="AE234" s="14" t="inlineStr">
+      <c r="AE234" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -41402,7 +41402,7 @@
           <t>897</t>
         </is>
       </c>
-      <c r="F235" s="6" t="inlineStr">
+      <c r="F235" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -41437,7 +41437,7 @@
           <t>934</t>
         </is>
       </c>
-      <c r="M235" s="17" t="inlineStr">
+      <c r="M235" s="8" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -42250,7 +42250,7 @@
           <t>730</t>
         </is>
       </c>
-      <c r="Z239" s="13" t="inlineStr">
+      <c r="Z239" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -44162,7 +44162,7 @@
           <t>535</t>
         </is>
       </c>
-      <c r="Q252" s="10" t="inlineStr">
+      <c r="Q252" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -44399,7 +44399,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="AA253" s="17" t="inlineStr">
+      <c r="AA253" s="13" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -44419,7 +44419,7 @@
           <t>908</t>
         </is>
       </c>
-      <c r="AE253" s="17" t="inlineStr">
+      <c r="AE253" s="14" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -44444,7 +44444,7 @@
           <t>324</t>
         </is>
       </c>
-      <c r="AJ253" s="16" t="inlineStr">
+      <c r="AJ253" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -44516,7 +44516,7 @@
           <t>446</t>
         </is>
       </c>
-      <c r="M254" s="17" t="inlineStr">
+      <c r="M254" s="8" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -44718,7 +44718,7 @@
           <t>976</t>
         </is>
       </c>
-      <c r="P255" s="17" t="inlineStr">
+      <c r="P255" s="9" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -44768,7 +44768,7 @@
           <t>793</t>
         </is>
       </c>
-      <c r="Z255" s="17" t="inlineStr">
+      <c r="Z255" s="13" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -44808,7 +44808,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="AH255" s="15" t="inlineStr">
+      <c r="AH255" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -45304,7 +45304,7 @@
           <t>129</t>
         </is>
       </c>
-      <c r="U258" s="17" t="inlineStr">
+      <c r="U258" s="11" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -45536,7 +45536,7 @@
           <t>291</t>
         </is>
       </c>
-      <c r="AD259" s="14" t="inlineStr">
+      <c r="AD259" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -45613,7 +45613,7 @@
           <t>551</t>
         </is>
       </c>
-      <c r="H260" s="17" t="inlineStr">
+      <c r="H260" s="7" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -45935,7 +45935,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="AI261" s="16" t="inlineStr">
+      <c r="AI261" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -46790,7 +46790,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="S266" s="17" t="inlineStr">
+      <c r="S266" s="10" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -46967,7 +46967,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="Q267" s="10" t="inlineStr">
+      <c r="Q267" s="17" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -47159,7 +47159,7 @@
           <t>596</t>
         </is>
       </c>
-      <c r="R268" s="17" t="inlineStr">
+      <c r="R268" s="10" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -47179,7 +47179,7 @@
           <t>876</t>
         </is>
       </c>
-      <c r="V268" s="11" t="inlineStr">
+      <c r="V268" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -47249,7 +47249,7 @@
           <t>713</t>
         </is>
       </c>
-      <c r="AJ268" s="16" t="inlineStr">
+      <c r="AJ268" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -47518,7 +47518,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="O270" s="9" t="inlineStr">
+      <c r="O270" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -47695,7 +47695,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="M271" s="17" t="inlineStr">
+      <c r="M271" s="8" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -47785,7 +47785,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="AE271" s="14" t="inlineStr">
+      <c r="AE271" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -48114,7 +48114,7 @@
           <t>409</t>
         </is>
       </c>
-      <c r="V273" s="11" t="inlineStr">
+      <c r="V273" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -48665,7 +48665,7 @@
           <t>041</t>
         </is>
       </c>
-      <c r="T276" s="11" t="inlineStr">
+      <c r="T276" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -48772,7 +48772,7 @@
           <t>976</t>
         </is>
       </c>
-      <c r="D277" s="17" t="inlineStr">
+      <c r="D277" s="5" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -48872,7 +48872,7 @@
           <t>604</t>
         </is>
       </c>
-      <c r="X277" s="17" t="inlineStr">
+      <c r="X277" s="12" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -49909,7 +49909,7 @@
           <t>150</t>
         </is>
       </c>
-      <c r="AA285" s="17" t="inlineStr">
+      <c r="AA285" s="13" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -51502,7 +51502,7 @@
           <t>009</t>
         </is>
       </c>
-      <c r="I294" s="7" t="inlineStr">
+      <c r="I294" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -51637,7 +51637,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="AJ294" s="16" t="inlineStr">
+      <c r="AJ294" s="17" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -51774,7 +51774,7 @@
           <t>177</t>
         </is>
       </c>
-      <c r="Z295" s="13" t="inlineStr">
+      <c r="Z295" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -52295,7 +52295,7 @@
           <t>921</t>
         </is>
       </c>
-      <c r="R298" s="17" t="inlineStr">
+      <c r="R298" s="10" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -52417,12 +52417,12 @@
           <t>936</t>
         </is>
       </c>
-      <c r="E299" s="17" t="inlineStr">
+      <c r="E299" s="6" t="inlineStr">
         <is>
           <t>615</t>
         </is>
       </c>
-      <c r="F299" s="6" t="inlineStr">
+      <c r="F299" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -53791,7 +53791,7 @@
           <t>264</t>
         </is>
       </c>
-      <c r="R306" s="17" t="inlineStr">
+      <c r="R306" s="10" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -53943,7 +53943,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="K307" s="8" t="inlineStr">
+      <c r="K307" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -55080,7 +55080,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N313" s="17" t="inlineStr">
+      <c r="N313" s="9" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -55895,7 +55895,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="J320" s="17" t="inlineStr">
+      <c r="J320" s="7" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -57259,7 +57259,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="U327" s="11" t="inlineStr">
+      <c r="U327" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -57319,7 +57319,7 @@
           <t>854</t>
         </is>
       </c>
-      <c r="AG327" s="15" t="inlineStr">
+      <c r="AG327" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -57648,7 +57648,7 @@
           <t>839</t>
         </is>
       </c>
-      <c r="X329" s="17" t="inlineStr">
+      <c r="X329" s="12" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -58633,7 +58633,7 @@
           <t>606</t>
         </is>
       </c>
-      <c r="AH334" s="17" t="inlineStr">
+      <c r="AH334" s="15" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -59164,7 +59164,7 @@
           <t>246</t>
         </is>
       </c>
-      <c r="AB337" s="17" t="inlineStr">
+      <c r="AB337" s="13" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -59291,7 +59291,7 @@
           <t>953</t>
         </is>
       </c>
-      <c r="P338" s="17" t="inlineStr">
+      <c r="P338" s="9" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -59917,7 +59917,7 @@
           <t>123</t>
         </is>
       </c>
-      <c r="AC341" s="17" t="inlineStr">
+      <c r="AC341" s="14" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -60069,7 +60069,7 @@
           <t>335</t>
         </is>
       </c>
-      <c r="V342" s="11" t="inlineStr">
+      <c r="V342" s="17" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -60216,7 +60216,7 @@
           <t>892</t>
         </is>
       </c>
-      <c r="N343" s="17" t="inlineStr">
+      <c r="N343" s="9" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -60493,7 +60493,7 @@
           <t>732</t>
         </is>
       </c>
-      <c r="AF344" s="17" t="inlineStr">
+      <c r="AF344" s="15" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -60585,7 +60585,7 @@
           <t>844</t>
         </is>
       </c>
-      <c r="M345" s="17" t="inlineStr">
+      <c r="M345" s="8" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -60862,7 +60862,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="AE346" s="14" t="inlineStr">
+      <c r="AE346" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -60934,7 +60934,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H347" s="17" t="inlineStr">
+      <c r="H347" s="7" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -61121,7 +61121,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H348" s="7" t="inlineStr">
+      <c r="H348" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -61647,12 +61647,12 @@
           <t>629</t>
         </is>
       </c>
-      <c r="U353" s="17" t="inlineStr">
+      <c r="U353" s="11" t="inlineStr">
         <is>
           <t>165</t>
         </is>
       </c>
-      <c r="V353" s="11" t="inlineStr">
+      <c r="V353" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -62218,7 +62218,7 @@
           <t>735</t>
         </is>
       </c>
-      <c r="W356" s="17" t="inlineStr">
+      <c r="W356" s="12" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -62253,7 +62253,7 @@
           <t>325</t>
         </is>
       </c>
-      <c r="AD356" s="14" t="inlineStr">
+      <c r="AD356" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -62694,7 +62694,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="F359" s="6" t="inlineStr">
+      <c r="F359" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -63325,7 +63325,7 @@
           <t>067</t>
         </is>
       </c>
-      <c r="T362" s="17" t="inlineStr">
+      <c r="T362" s="11" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -64013,17 +64013,17 @@
           <t>091</t>
         </is>
       </c>
-      <c r="H366" s="7" t="inlineStr">
+      <c r="H366" s="17" t="inlineStr">
         <is>
           <t>195</t>
         </is>
       </c>
-      <c r="I366" s="17" t="inlineStr">
+      <c r="I366" s="7" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="J366" s="17" t="inlineStr">
+      <c r="J366" s="7" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -64412,7 +64412,7 @@
           <t>587</t>
         </is>
       </c>
-      <c r="M368" s="17" t="inlineStr">
+      <c r="M368" s="8" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -64594,7 +64594,7 @@
           <t>540</t>
         </is>
       </c>
-      <c r="L369" s="17" t="inlineStr">
+      <c r="L369" s="8" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -64741,7 +64741,7 @@
           <t>020</t>
         </is>
       </c>
-      <c r="D370" s="17" t="inlineStr">
+      <c r="D370" s="5" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -65018,7 +65018,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="V371" s="11" t="inlineStr">
+      <c r="V371" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -65529,7 +65529,7 @@
           <t>778</t>
         </is>
       </c>
-      <c r="L374" s="17" t="inlineStr">
+      <c r="L374" s="8" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -65544,7 +65544,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="O374" s="17" t="inlineStr">
+      <c r="O374" s="9" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -65928,7 +65928,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="Q376" s="10" t="inlineStr">
+      <c r="Q376" s="17" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -65938,7 +65938,7 @@
           <t>468</t>
         </is>
       </c>
-      <c r="S376" s="17" t="inlineStr">
+      <c r="S376" s="10" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -66631,7 +66631,7 @@
           <t>847</t>
         </is>
       </c>
-      <c r="H380" s="7" t="inlineStr">
+      <c r="H380" s="17" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -67100,7 +67100,7 @@
           <t>243</t>
         </is>
       </c>
-      <c r="AA382" s="13" t="inlineStr">
+      <c r="AA382" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -67798,7 +67798,7 @@
           <t>874</t>
         </is>
       </c>
-      <c r="AK388" s="16" t="inlineStr">
+      <c r="AK388" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -68688,7 +68688,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AB393" s="17" t="inlineStr">
+      <c r="AB393" s="13" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -69239,7 +69239,7 @@
           <t>738</t>
         </is>
       </c>
-      <c r="Z396" s="17" t="inlineStr">
+      <c r="Z396" s="13" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -69690,7 +69690,7 @@
           <t>437</t>
         </is>
       </c>
-      <c r="D399" s="5" t="inlineStr">
+      <c r="D399" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -72490,7 +72490,7 @@
           <t>320</t>
         </is>
       </c>
-      <c r="C414" s="5" t="inlineStr">
+      <c r="C414" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -72772,7 +72772,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="V415" s="11" t="inlineStr">
+      <c r="V415" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -73398,7 +73398,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI418" s="17" t="inlineStr">
+      <c r="AI418" s="16" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -74056,7 +74056,7 @@
           <t>712</t>
         </is>
       </c>
-      <c r="AK424" s="17" t="inlineStr">
+      <c r="AK424" s="16" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -74265,7 +74265,7 @@
           <t>719</t>
         </is>
       </c>
-      <c r="D426" s="5" t="inlineStr">
+      <c r="D426" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -74275,7 +74275,7 @@
           <t>313</t>
         </is>
       </c>
-      <c r="F426" s="6" t="inlineStr">
+      <c r="F426" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -74597,7 +74597,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="AG427" s="17" t="inlineStr">
+      <c r="AG427" s="15" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -74709,7 +74709,7 @@
           <t>701</t>
         </is>
       </c>
-      <c r="R428" s="10" t="inlineStr">
+      <c r="R428" s="17" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -74759,7 +74759,7 @@
           <t>820</t>
         </is>
       </c>
-      <c r="AB428" s="17" t="inlineStr">
+      <c r="AB428" s="13" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -75589,7 +75589,7 @@
           <t>617</t>
         </is>
       </c>
-      <c r="G433" s="17" t="inlineStr">
+      <c r="G433" s="6" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -75629,7 +75629,7 @@
           <t>953</t>
         </is>
       </c>
-      <c r="O433" s="17" t="inlineStr">
+      <c r="O433" s="9" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -75699,7 +75699,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="AC433" s="17" t="inlineStr">
+      <c r="AC433" s="14" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -76053,7 +76053,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="Y435" s="12" t="inlineStr">
+      <c r="Y435" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -76140,7 +76140,7 @@
           <t>118</t>
         </is>
       </c>
-      <c r="E436" s="17" t="inlineStr">
+      <c r="E436" s="6" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -76372,7 +76372,7 @@
           <t>879</t>
         </is>
       </c>
-      <c r="N437" s="9" t="inlineStr">
+      <c r="N437" s="17" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -77681,7 +77681,7 @@
           <t>385</t>
         </is>
       </c>
-      <c r="N444" s="9" t="inlineStr">
+      <c r="N444" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -77978,7 +77978,7 @@
           <t>264</t>
         </is>
       </c>
-      <c r="AJ445" s="16" t="inlineStr">
+      <c r="AJ445" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -78025,7 +78025,7 @@
           <t>842</t>
         </is>
       </c>
-      <c r="H446" s="17" t="inlineStr">
+      <c r="H446" s="7" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -78591,7 +78591,7 @@
           <t>216</t>
         </is>
       </c>
-      <c r="I449" s="17" t="inlineStr">
+      <c r="I449" s="7" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -78908,7 +78908,7 @@
           <t>659</t>
         </is>
       </c>
-      <c r="AI450" s="16" t="inlineStr">
+      <c r="AI450" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -79935,7 +79935,7 @@
           <t>749</t>
         </is>
       </c>
-      <c r="AJ458" s="17" t="inlineStr">
+      <c r="AJ458" s="16" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -80082,7 +80082,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="AB459" s="13" t="inlineStr">
+      <c r="AB459" s="17" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -80264,7 +80264,7 @@
           <t>285</t>
         </is>
       </c>
-      <c r="AA460" s="13" t="inlineStr">
+      <c r="AA460" s="17" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -81548,7 +81548,7 @@
           <t>223</t>
         </is>
       </c>
-      <c r="V467" s="11" t="inlineStr">
+      <c r="V467" s="17" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -81987,7 +81987,7 @@
           <t>931</t>
         </is>
       </c>
-      <c r="AI469" s="17" t="inlineStr">
+      <c r="AI469" s="16" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -82109,7 +82109,7 @@
           <t>282</t>
         </is>
       </c>
-      <c r="V470" s="17" t="inlineStr">
+      <c r="V470" s="11" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -82271,7 +82271,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="Q471" s="17" t="inlineStr">
+      <c r="Q471" s="10" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -82448,7 +82448,7 @@
           <t>103</t>
         </is>
       </c>
-      <c r="O472" s="17" t="inlineStr">
+      <c r="O472" s="9" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -83064,7 +83064,7 @@
           <t>466</t>
         </is>
       </c>
-      <c r="Z475" s="13" t="inlineStr">
+      <c r="Z475" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -83842,7 +83842,7 @@
           <t>208</t>
         </is>
       </c>
-      <c r="AF479" s="15" t="inlineStr">
+      <c r="AF479" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -84530,7 +84530,7 @@
           <t>170</t>
         </is>
       </c>
-      <c r="T483" s="17" t="inlineStr">
+      <c r="T483" s="11" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -84814,7 +84814,7 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B485" s="17" t="inlineStr">
+      <c r="B485" s="5" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -84934,7 +84934,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="Z485" s="13" t="inlineStr">
+      <c r="Z485" s="17" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -85218,7 +85218,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H487" s="7" t="inlineStr">
+      <c r="H487" s="17" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -88432,7 +88432,7 @@
           <t>527</t>
         </is>
       </c>
-      <c r="AI506" s="16" t="inlineStr">
+      <c r="AI506" s="17" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -89342,7 +89342,7 @@
           <t>709</t>
         </is>
       </c>
-      <c r="AD511" s="17" t="inlineStr">
+      <c r="AD511" s="14" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -89369,17 +89369,17 @@
       </c>
       <c r="AI511" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>636</t>
         </is>
       </c>
       <c r="AJ511" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>651</t>
         </is>
       </c>
       <c r="AK511" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>348</t>
         </is>
       </c>
     </row>
@@ -89556,17 +89556,17 @@
       </c>
       <c r="AI512" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>146</t>
         </is>
       </c>
       <c r="AJ512" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AK512" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>360</t>
         </is>
       </c>
     </row>
@@ -89743,17 +89743,17 @@
       </c>
       <c r="AI513" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>853</t>
         </is>
       </c>
       <c r="AJ513" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>743</t>
         </is>
       </c>
       <c r="AK513" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>236</t>
         </is>
       </c>
     </row>
@@ -89930,17 +89930,17 @@
       </c>
       <c r="AI514" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>673</t>
         </is>
       </c>
       <c r="AJ514" s="16" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK514" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="AK514" s="17" t="inlineStr">
+        <is>
+          <t>159</t>
         </is>
       </c>
     </row>
@@ -90085,7 +90085,7 @@
           <t>031</t>
         </is>
       </c>
-      <c r="AC515" s="17" t="inlineStr">
+      <c r="AC515" s="14" t="inlineStr">
         <is>
           <t>516</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -53,6 +53,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ccff33"/>
       </patternFill>
     </fill>
@@ -94,11 +99,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00009966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -226,9 +226,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,6 +251,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4480,7 +4480,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S22" s="10" t="inlineStr">
+      <c r="S22" s="17" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -5931,7 +5931,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J30" s="7" t="inlineStr">
+      <c r="J30" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -6958,7 +6958,7 @@
           <t>587</t>
         </is>
       </c>
-      <c r="K38" s="17" t="inlineStr">
+      <c r="K38" s="8" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -8045,7 +8045,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D44" s="17" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -9120,7 +9120,7 @@
           <t>318</t>
         </is>
       </c>
-      <c r="AF49" s="15" t="inlineStr">
+      <c r="AF49" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -9868,7 +9868,7 @@
           <t>766</t>
         </is>
       </c>
-      <c r="AF53" s="17" t="inlineStr">
+      <c r="AF53" s="15" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -11334,7 +11334,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="Z61" s="13" t="inlineStr">
+      <c r="Z61" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -12406,7 +12406,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P67" s="9" t="inlineStr">
+      <c r="P67" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -14999,7 +14999,7 @@
           <t>718</t>
         </is>
       </c>
-      <c r="AE83" s="17" t="inlineStr">
+      <c r="AE83" s="14" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -15727,7 +15727,7 @@
           <t>327</t>
         </is>
       </c>
-      <c r="AA87" s="17" t="inlineStr">
+      <c r="AA87" s="13" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -16173,7 +16173,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D90" s="17" t="inlineStr">
+      <c r="D90" s="5" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -17390,7 +17390,7 @@
           <t>139</t>
         </is>
       </c>
-      <c r="W96" s="12" t="inlineStr">
+      <c r="W96" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -19180,7 +19180,7 @@
           <t>447</t>
         </is>
       </c>
-      <c r="AA108" s="13" t="inlineStr">
+      <c r="AA108" s="17" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -21980,7 +21980,7 @@
           <t>368</t>
         </is>
       </c>
-      <c r="Z123" s="13" t="inlineStr">
+      <c r="Z123" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -22264,7 +22264,7 @@
           <t>906</t>
         </is>
       </c>
-      <c r="H125" s="17" t="inlineStr">
+      <c r="H125" s="7" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -23830,7 +23830,7 @@
           <t>236</t>
         </is>
       </c>
-      <c r="V133" s="17" t="inlineStr">
+      <c r="V133" s="11" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -23997,7 +23997,7 @@
           <t>253</t>
         </is>
       </c>
-      <c r="R134" s="17" t="inlineStr">
+      <c r="R134" s="10" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -24244,7 +24244,7 @@
           <t>702</t>
         </is>
       </c>
-      <c r="AD135" s="17" t="inlineStr">
+      <c r="AD135" s="14" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -25196,7 +25196,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="P143" s="17" t="inlineStr">
+      <c r="P143" s="9" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -26717,7 +26717,7 @@
           <t>697</t>
         </is>
       </c>
-      <c r="U151" s="11" t="inlineStr">
+      <c r="U151" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -26809,7 +26809,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B152" s="5" t="inlineStr">
+      <c r="B152" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -27026,7 +27026,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="H153" s="7" t="inlineStr">
+      <c r="H153" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -27151,7 +27151,7 @@
           <t>297</t>
         </is>
       </c>
-      <c r="AG153" s="17" t="inlineStr">
+      <c r="AG153" s="15" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -28128,7 +28128,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="D159" s="17" t="inlineStr">
+      <c r="D159" s="5" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -28375,7 +28375,7 @@
           <t>237</t>
         </is>
       </c>
-      <c r="P160" s="9" t="inlineStr">
+      <c r="P160" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -29405,7 +29405,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI165" s="17" t="inlineStr">
+      <c r="AI165" s="16" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -29769,7 +29769,7 @@
           <t>174</t>
         </is>
       </c>
-      <c r="AG167" s="17" t="inlineStr">
+      <c r="AG167" s="15" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -30013,7 +30013,7 @@
           <t>757</t>
         </is>
       </c>
-      <c r="G169" s="6" t="inlineStr">
+      <c r="G169" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -30230,7 +30230,7 @@
           <t>094</t>
         </is>
       </c>
-      <c r="M170" s="8" t="inlineStr">
+      <c r="M170" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -30427,7 +30427,7 @@
           <t>500</t>
         </is>
       </c>
-      <c r="O171" s="17" t="inlineStr">
+      <c r="O171" s="9" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -31459,7 +31459,7 @@
           <t>387</t>
         </is>
       </c>
-      <c r="Q179" s="17" t="inlineStr">
+      <c r="Q179" s="10" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -32733,7 +32733,7 @@
           <t>619</t>
         </is>
       </c>
-      <c r="J186" s="17" t="inlineStr">
+      <c r="J186" s="7" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -33254,7 +33254,7 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B189" s="17" t="inlineStr">
+      <c r="B189" s="5" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -34142,7 +34142,7 @@
           <t>721</t>
         </is>
       </c>
-      <c r="AD193" s="14" t="inlineStr">
+      <c r="AD193" s="17" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -35810,7 +35810,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="AA202" s="17" t="inlineStr">
+      <c r="AA202" s="13" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -35962,7 +35962,7 @@
           <t>171</t>
         </is>
       </c>
-      <c r="T203" s="11" t="inlineStr">
+      <c r="T203" s="17" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -35977,7 +35977,7 @@
           <t>656</t>
         </is>
       </c>
-      <c r="W203" s="17" t="inlineStr">
+      <c r="W203" s="12" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -37807,7 +37807,7 @@
           <t>117</t>
         </is>
       </c>
-      <c r="AI215" s="17" t="inlineStr">
+      <c r="AI215" s="16" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -38036,7 +38036,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="F217" s="6" t="inlineStr">
+      <c r="F217" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -38223,7 +38223,7 @@
           <t>145</t>
         </is>
       </c>
-      <c r="F218" s="17" t="inlineStr">
+      <c r="F218" s="6" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -39071,7 +39071,7 @@
           <t>086</t>
         </is>
       </c>
-      <c r="Z222" s="17" t="inlineStr">
+      <c r="Z222" s="13" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -40335,7 +40335,7 @@
           <t>055</t>
         </is>
       </c>
-      <c r="Q229" s="10" t="inlineStr">
+      <c r="Q229" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -41340,7 +41340,7 @@
           <t>265</t>
         </is>
       </c>
-      <c r="AE234" s="17" t="inlineStr">
+      <c r="AE234" s="14" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -41402,7 +41402,7 @@
           <t>897</t>
         </is>
       </c>
-      <c r="F235" s="17" t="inlineStr">
+      <c r="F235" s="6" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -42250,7 +42250,7 @@
           <t>730</t>
         </is>
       </c>
-      <c r="Z239" s="17" t="inlineStr">
+      <c r="Z239" s="13" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -44162,7 +44162,7 @@
           <t>535</t>
         </is>
       </c>
-      <c r="Q252" s="17" t="inlineStr">
+      <c r="Q252" s="10" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -44444,7 +44444,7 @@
           <t>324</t>
         </is>
       </c>
-      <c r="AJ253" s="17" t="inlineStr">
+      <c r="AJ253" s="16" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -44808,7 +44808,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="AH255" s="17" t="inlineStr">
+      <c r="AH255" s="15" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -45536,7 +45536,7 @@
           <t>291</t>
         </is>
       </c>
-      <c r="AD259" s="17" t="inlineStr">
+      <c r="AD259" s="14" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -45733,7 +45733,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AF260" s="15" t="inlineStr">
+      <c r="AF260" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -45935,7 +45935,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="AI261" s="17" t="inlineStr">
+      <c r="AI261" s="16" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -46067,7 +46067,7 @@
           <t>500</t>
         </is>
       </c>
-      <c r="X262" s="12" t="inlineStr">
+      <c r="X262" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -46967,7 +46967,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="Q267" s="17" t="inlineStr">
+      <c r="Q267" s="10" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -47179,7 +47179,7 @@
           <t>876</t>
         </is>
       </c>
-      <c r="V268" s="17" t="inlineStr">
+      <c r="V268" s="11" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -47249,7 +47249,7 @@
           <t>713</t>
         </is>
       </c>
-      <c r="AJ268" s="17" t="inlineStr">
+      <c r="AJ268" s="16" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -47518,7 +47518,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="O270" s="17" t="inlineStr">
+      <c r="O270" s="9" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -47785,7 +47785,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="AE271" s="17" t="inlineStr">
+      <c r="AE271" s="14" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -48114,7 +48114,7 @@
           <t>409</t>
         </is>
       </c>
-      <c r="V273" s="17" t="inlineStr">
+      <c r="V273" s="11" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -48665,7 +48665,7 @@
           <t>041</t>
         </is>
       </c>
-      <c r="T276" s="17" t="inlineStr">
+      <c r="T276" s="11" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -50991,7 +50991,7 @@
           <t>752</t>
         </is>
       </c>
-      <c r="S291" s="10" t="inlineStr">
+      <c r="S291" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -51502,7 +51502,7 @@
           <t>009</t>
         </is>
       </c>
-      <c r="I294" s="17" t="inlineStr">
+      <c r="I294" s="7" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -51637,7 +51637,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="AJ294" s="17" t="inlineStr">
+      <c r="AJ294" s="16" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -51774,7 +51774,7 @@
           <t>177</t>
         </is>
       </c>
-      <c r="Z295" s="17" t="inlineStr">
+      <c r="Z295" s="13" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -52422,7 +52422,7 @@
           <t>615</t>
         </is>
       </c>
-      <c r="F299" s="17" t="inlineStr">
+      <c r="F299" s="6" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -53943,7 +53943,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="K307" s="17" t="inlineStr">
+      <c r="K307" s="8" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -57259,7 +57259,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="U327" s="17" t="inlineStr">
+      <c r="U327" s="11" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -57319,7 +57319,7 @@
           <t>854</t>
         </is>
       </c>
-      <c r="AG327" s="17" t="inlineStr">
+      <c r="AG327" s="15" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -57785,7 +57785,7 @@
           <t>353</t>
         </is>
       </c>
-      <c r="N330" s="9" t="inlineStr">
+      <c r="N330" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -58376,7 +58376,7 @@
           <t>708</t>
         </is>
       </c>
-      <c r="T333" s="11" t="inlineStr">
+      <c r="T333" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -58498,7 +58498,7 @@
           <t>552</t>
         </is>
       </c>
-      <c r="G334" s="6" t="inlineStr">
+      <c r="G334" s="17" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -60069,7 +60069,7 @@
           <t>335</t>
         </is>
       </c>
-      <c r="V342" s="17" t="inlineStr">
+      <c r="V342" s="11" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -60862,7 +60862,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="AE346" s="17" t="inlineStr">
+      <c r="AE346" s="14" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -61121,7 +61121,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H348" s="17" t="inlineStr">
+      <c r="H348" s="7" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -61652,7 +61652,7 @@
           <t>165</t>
         </is>
       </c>
-      <c r="V353" s="17" t="inlineStr">
+      <c r="V353" s="11" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -62253,7 +62253,7 @@
           <t>325</t>
         </is>
       </c>
-      <c r="AD356" s="17" t="inlineStr">
+      <c r="AD356" s="14" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -62470,7 +62470,7 @@
           <t>095</t>
         </is>
       </c>
-      <c r="AJ357" s="16" t="inlineStr">
+      <c r="AJ357" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -62694,7 +62694,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="F359" s="17" t="inlineStr">
+      <c r="F359" s="6" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -64013,7 +64013,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="H366" s="17" t="inlineStr">
+      <c r="H366" s="7" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -65018,7 +65018,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="V371" s="17" t="inlineStr">
+      <c r="V371" s="11" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -65644,7 +65644,7 @@
           <t>280</t>
         </is>
       </c>
-      <c r="AI374" s="16" t="inlineStr">
+      <c r="AI374" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -65928,7 +65928,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="Q376" s="17" t="inlineStr">
+      <c r="Q376" s="10" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -66008,7 +66008,7 @@
           <t>351</t>
         </is>
       </c>
-      <c r="AG376" s="15" t="inlineStr">
+      <c r="AG376" s="17" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -66631,7 +66631,7 @@
           <t>847</t>
         </is>
       </c>
-      <c r="H380" s="17" t="inlineStr">
+      <c r="H380" s="7" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -67075,7 +67075,7 @@
           <t>287</t>
         </is>
       </c>
-      <c r="V382" s="11" t="inlineStr">
+      <c r="V382" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -67100,7 +67100,7 @@
           <t>243</t>
         </is>
       </c>
-      <c r="AA382" s="17" t="inlineStr">
+      <c r="AA382" s="13" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -67798,7 +67798,7 @@
           <t>874</t>
         </is>
       </c>
-      <c r="AK388" s="17" t="inlineStr">
+      <c r="AK388" s="16" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -67855,7 +67855,7 @@
           <t>872</t>
         </is>
       </c>
-      <c r="K389" s="8" t="inlineStr">
+      <c r="K389" s="17" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -68506,7 +68506,7 @@
           <t>857</t>
         </is>
       </c>
-      <c r="AC392" s="14" t="inlineStr">
+      <c r="AC392" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -69690,7 +69690,7 @@
           <t>437</t>
         </is>
       </c>
-      <c r="D399" s="17" t="inlineStr">
+      <c r="D399" s="5" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -72490,7 +72490,7 @@
           <t>320</t>
         </is>
       </c>
-      <c r="C414" s="17" t="inlineStr">
+      <c r="C414" s="5" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -72727,7 +72727,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="M415" s="8" t="inlineStr">
+      <c r="M415" s="17" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -72772,7 +72772,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="V415" s="17" t="inlineStr">
+      <c r="V415" s="11" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -73009,7 +73009,7 @@
           <t>298</t>
         </is>
       </c>
-      <c r="AF416" s="15" t="inlineStr">
+      <c r="AF416" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -73136,7 +73136,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T417" s="11" t="inlineStr">
+      <c r="T417" s="17" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -74265,7 +74265,7 @@
           <t>719</t>
         </is>
       </c>
-      <c r="D426" s="17" t="inlineStr">
+      <c r="D426" s="5" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -74275,7 +74275,7 @@
           <t>313</t>
         </is>
       </c>
-      <c r="F426" s="17" t="inlineStr">
+      <c r="F426" s="6" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -74709,7 +74709,7 @@
           <t>701</t>
         </is>
       </c>
-      <c r="R428" s="17" t="inlineStr">
+      <c r="R428" s="10" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -75751,7 +75751,7 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B434" s="5" t="inlineStr">
+      <c r="B434" s="17" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -76053,7 +76053,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="Y435" s="17" t="inlineStr">
+      <c r="Y435" s="12" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -76372,7 +76372,7 @@
           <t>879</t>
         </is>
       </c>
-      <c r="N437" s="17" t="inlineStr">
+      <c r="N437" s="9" t="inlineStr">
         <is>
           <t>519</t>
         </is>
@@ -76669,7 +76669,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="AJ438" s="16" t="inlineStr">
+      <c r="AJ438" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -77681,7 +77681,7 @@
           <t>385</t>
         </is>
       </c>
-      <c r="N444" s="17" t="inlineStr">
+      <c r="N444" s="9" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -77978,7 +77978,7 @@
           <t>264</t>
         </is>
       </c>
-      <c r="AJ445" s="17" t="inlineStr">
+      <c r="AJ445" s="16" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -78908,7 +78908,7 @@
           <t>659</t>
         </is>
       </c>
-      <c r="AI450" s="17" t="inlineStr">
+      <c r="AI450" s="16" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -80082,7 +80082,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="AB459" s="17" t="inlineStr">
+      <c r="AB459" s="13" t="inlineStr">
         <is>
           <t>591</t>
         </is>
@@ -80264,7 +80264,7 @@
           <t>285</t>
         </is>
       </c>
-      <c r="AA460" s="17" t="inlineStr">
+      <c r="AA460" s="13" t="inlineStr">
         <is>
           <t>915</t>
         </is>
@@ -81548,7 +81548,7 @@
           <t>223</t>
         </is>
       </c>
-      <c r="V467" s="17" t="inlineStr">
+      <c r="V467" s="11" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -83064,7 +83064,7 @@
           <t>466</t>
         </is>
       </c>
-      <c r="Z475" s="17" t="inlineStr">
+      <c r="Z475" s="13" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -83842,7 +83842,7 @@
           <t>208</t>
         </is>
       </c>
-      <c r="AF479" s="17" t="inlineStr">
+      <c r="AF479" s="15" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -84500,7 +84500,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="N483" s="9" t="inlineStr">
+      <c r="N483" s="17" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -84934,7 +84934,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="Z485" s="17" t="inlineStr">
+      <c r="Z485" s="13" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -85218,7 +85218,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H487" s="17" t="inlineStr">
+      <c r="H487" s="7" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -87320,7 +87320,7 @@
           <t>695</t>
         </is>
       </c>
-      <c r="AK500" s="16" t="inlineStr">
+      <c r="AK500" s="17" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -88432,7 +88432,7 @@
           <t>527</t>
         </is>
       </c>
-      <c r="AI506" s="17" t="inlineStr">
+      <c r="AI506" s="16" t="inlineStr">
         <is>
           <t>951</t>
         </is>
@@ -89888,7 +89888,7 @@
           <t>096</t>
         </is>
       </c>
-      <c r="AA514" s="13" t="inlineStr">
+      <c r="AA514" s="17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -89938,7 +89938,7 @@
           <t>901</t>
         </is>
       </c>
-      <c r="AK514" s="17" t="inlineStr">
+      <c r="AK514" s="16" t="inlineStr">
         <is>
           <t>159</t>
         </is>
@@ -90117,17 +90117,17 @@
       </c>
       <c r="AI515" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>418</t>
         </is>
       </c>
       <c r="AJ515" s="16" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK515" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="AK515" s="17" t="inlineStr">
+        <is>
+          <t>003</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -53,11 +53,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00ccff33"/>
       </patternFill>
     </fill>
@@ -69,6 +64,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0066cc33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -226,13 +226,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,7 +1488,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S6" s="10" t="inlineStr">
+      <c r="S6" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -4480,7 +4480,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S22" s="17" t="inlineStr">
+      <c r="S22" s="10" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -5931,7 +5931,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J30" s="17" t="inlineStr">
+      <c r="J30" s="7" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -7489,7 +7489,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="E41" s="6" t="inlineStr">
+      <c r="E41" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -7564,7 +7564,7 @@
           <t>481</t>
         </is>
       </c>
-      <c r="T41" s="11" t="inlineStr">
+      <c r="T41" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -8524,7 +8524,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y46" s="12" t="inlineStr">
+      <c r="Y46" s="17" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -8686,7 +8686,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="T47" s="11" t="inlineStr">
+      <c r="T47" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -9000,7 +9000,7 @@
           <t>238</t>
         </is>
       </c>
-      <c r="H49" s="7" t="inlineStr">
+      <c r="H49" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -9120,7 +9120,7 @@
           <t>318</t>
         </is>
       </c>
-      <c r="AF49" s="17" t="inlineStr">
+      <c r="AF49" s="15" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -9212,7 +9212,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M50" s="8" t="inlineStr">
+      <c r="M50" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -9277,7 +9277,7 @@
           <t>429</t>
         </is>
       </c>
-      <c r="Z50" s="13" t="inlineStr">
+      <c r="Z50" s="17" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -11334,7 +11334,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="Z61" s="17" t="inlineStr">
+      <c r="Z61" s="13" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -11800,7 +11800,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G64" s="6" t="inlineStr">
+      <c r="G64" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -12406,7 +12406,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P67" s="17" t="inlineStr">
+      <c r="P67" s="9" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -12511,7 +12511,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK67" s="16" t="inlineStr">
+      <c r="AK67" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -13009,7 +13009,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G73" s="6" t="inlineStr">
+      <c r="G73" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -13518,7 +13518,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="AH75" s="15" t="inlineStr">
+      <c r="AH75" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -13872,7 +13872,7 @@
           <t>933</t>
         </is>
       </c>
-      <c r="AD77" s="14" t="inlineStr">
+      <c r="AD77" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -14079,7 +14079,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="AH78" s="15" t="inlineStr">
+      <c r="AH78" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -14338,7 +14338,7 @@
           <t>236</t>
         </is>
       </c>
-      <c r="K80" s="8" t="inlineStr">
+      <c r="K80" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -15066,7 +15066,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G84" s="6" t="inlineStr">
+      <c r="G84" s="17" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -15141,7 +15141,7 @@
           <t>334</t>
         </is>
       </c>
-      <c r="V84" s="11" t="inlineStr">
+      <c r="V84" s="17" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -16961,7 +16961,7 @@
           <t>661</t>
         </is>
       </c>
-      <c r="L94" s="8" t="inlineStr">
+      <c r="L94" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -17390,7 +17390,7 @@
           <t>139</t>
         </is>
       </c>
-      <c r="W96" s="17" t="inlineStr">
+      <c r="W96" s="12" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -18502,7 +18502,7 @@
           <t>856</t>
         </is>
       </c>
-      <c r="U102" s="11" t="inlineStr">
+      <c r="U102" s="17" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -19180,7 +19180,7 @@
           <t>447</t>
         </is>
       </c>
-      <c r="AA108" s="17" t="inlineStr">
+      <c r="AA108" s="13" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -19342,7 +19342,7 @@
           <t>323</t>
         </is>
       </c>
-      <c r="V109" s="11" t="inlineStr">
+      <c r="V109" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -20272,7 +20272,7 @@
           <t>869</t>
         </is>
       </c>
-      <c r="U114" s="11" t="inlineStr">
+      <c r="U114" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -20571,7 +20571,7 @@
           <t>281</t>
         </is>
       </c>
-      <c r="F116" s="6" t="inlineStr">
+      <c r="F116" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -20873,7 +20873,7 @@
           <t>924</t>
         </is>
       </c>
-      <c r="AC117" s="14" t="inlineStr">
+      <c r="AC117" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -21025,7 +21025,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="V118" s="11" t="inlineStr">
+      <c r="V118" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -21459,7 +21459,7 @@
           <t>611</t>
         </is>
       </c>
-      <c r="AH120" s="15" t="inlineStr">
+      <c r="AH120" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -21843,7 +21843,7 @@
           <t>975</t>
         </is>
       </c>
-      <c r="AJ122" s="16" t="inlineStr">
+      <c r="AJ122" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -21980,7 +21980,7 @@
           <t>368</t>
         </is>
       </c>
-      <c r="Z123" s="17" t="inlineStr">
+      <c r="Z123" s="13" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -23052,7 +23052,7 @@
           <t>049</t>
         </is>
       </c>
-      <c r="P129" s="9" t="inlineStr">
+      <c r="P129" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -23244,7 +23244,7 @@
           <t>064</t>
         </is>
       </c>
-      <c r="Q130" s="10" t="inlineStr">
+      <c r="Q130" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -23668,7 +23668,7 @@
           <t>781</t>
         </is>
       </c>
-      <c r="AA132" s="13" t="inlineStr">
+      <c r="AA132" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -24159,7 +24159,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="M135" s="8" t="inlineStr">
+      <c r="M135" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -25453,7 +25453,7 @@
           <t>291</t>
         </is>
       </c>
-      <c r="AD144" s="14" t="inlineStr">
+      <c r="AD144" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -26383,7 +26383,7 @@
           <t>394</t>
         </is>
       </c>
-      <c r="AC149" s="14" t="inlineStr">
+      <c r="AC149" s="17" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -26717,7 +26717,7 @@
           <t>697</t>
         </is>
       </c>
-      <c r="U151" s="17" t="inlineStr">
+      <c r="U151" s="11" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -26809,7 +26809,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B152" s="17" t="inlineStr">
+      <c r="B152" s="5" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -27026,7 +27026,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="H153" s="17" t="inlineStr">
+      <c r="H153" s="7" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -27146,7 +27146,7 @@
           <t>718</t>
         </is>
       </c>
-      <c r="AF153" s="15" t="inlineStr">
+      <c r="AF153" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -28375,7 +28375,7 @@
           <t>237</t>
         </is>
       </c>
-      <c r="P160" s="17" t="inlineStr">
+      <c r="P160" s="9" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -30013,7 +30013,7 @@
           <t>757</t>
         </is>
       </c>
-      <c r="G169" s="17" t="inlineStr">
+      <c r="G169" s="6" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -30230,7 +30230,7 @@
           <t>094</t>
         </is>
       </c>
-      <c r="M170" s="17" t="inlineStr">
+      <c r="M170" s="8" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -30477,7 +30477,7 @@
           <t>772</t>
         </is>
       </c>
-      <c r="Y171" s="12" t="inlineStr">
+      <c r="Y171" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -31686,7 +31686,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="Y180" s="12" t="inlineStr">
+      <c r="Y180" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -31918,7 +31918,7 @@
           <t>848</t>
         </is>
       </c>
-      <c r="AH181" s="15" t="inlineStr">
+      <c r="AH181" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -31965,7 +31965,7 @@
           <t>872</t>
         </is>
       </c>
-      <c r="F182" s="6" t="inlineStr">
+      <c r="F182" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -32287,7 +32287,7 @@
           <t>420</t>
         </is>
       </c>
-      <c r="AG183" s="15" t="inlineStr">
+      <c r="AG183" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -32586,7 +32586,7 @@
           <t>435</t>
         </is>
       </c>
-      <c r="R185" s="10" t="inlineStr">
+      <c r="R185" s="17" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -32808,7 +32808,7 @@
           <t>517</t>
         </is>
       </c>
-      <c r="Y186" s="12" t="inlineStr">
+      <c r="Y186" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -33825,7 +33825,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="D192" s="5" t="inlineStr">
+      <c r="D192" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -34142,7 +34142,7 @@
           <t>721</t>
         </is>
       </c>
-      <c r="AD193" s="17" t="inlineStr">
+      <c r="AD193" s="14" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -34214,7 +34214,7 @@
           <t>582</t>
         </is>
       </c>
-      <c r="G194" s="6" t="inlineStr">
+      <c r="G194" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -35149,7 +35149,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="G199" s="6" t="inlineStr">
+      <c r="G199" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -35294,7 +35294,7 @@
           <t>983</t>
         </is>
       </c>
-      <c r="AJ199" s="16" t="inlineStr">
+      <c r="AJ199" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -35962,7 +35962,7 @@
           <t>171</t>
         </is>
       </c>
-      <c r="T203" s="17" t="inlineStr">
+      <c r="T203" s="11" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -37879,7 +37879,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="L216" s="8" t="inlineStr">
+      <c r="L216" s="17" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -38036,7 +38036,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="F217" s="17" t="inlineStr">
+      <c r="F217" s="6" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -40335,7 +40335,7 @@
           <t>055</t>
         </is>
       </c>
-      <c r="Q229" s="17" t="inlineStr">
+      <c r="Q229" s="10" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -41240,7 +41240,7 @@
           <t>772</t>
         </is>
       </c>
-      <c r="K234" s="8" t="inlineStr">
+      <c r="K234" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -41507,7 +41507,7 @@
           <t>185</t>
         </is>
       </c>
-      <c r="AA235" s="13" t="inlineStr">
+      <c r="AA235" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -42594,7 +42594,7 @@
           <t>386</t>
         </is>
       </c>
-      <c r="T241" s="11" t="inlineStr">
+      <c r="T241" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -45010,7 +45010,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="AK256" s="16" t="inlineStr">
+      <c r="AK256" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -45733,7 +45733,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AF260" s="17" t="inlineStr">
+      <c r="AF260" s="15" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -46067,7 +46067,7 @@
           <t>500</t>
         </is>
       </c>
-      <c r="X262" s="17" t="inlineStr">
+      <c r="X262" s="12" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -46760,7 +46760,7 @@
           <t>088</t>
         </is>
       </c>
-      <c r="M266" s="8" t="inlineStr">
+      <c r="M266" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -48655,7 +48655,7 @@
           <t>696</t>
         </is>
       </c>
-      <c r="R276" s="10" t="inlineStr">
+      <c r="R276" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -48882,7 +48882,7 @@
           <t>514</t>
         </is>
       </c>
-      <c r="Z277" s="13" t="inlineStr">
+      <c r="Z277" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -49727,7 +49727,7 @@
           <t>804</t>
         </is>
       </c>
-      <c r="AB284" s="13" t="inlineStr">
+      <c r="AB284" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -50460,7 +50460,7 @@
           <t>865</t>
         </is>
       </c>
-      <c r="Y288" s="12" t="inlineStr">
+      <c r="Y288" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -50874,7 +50874,7 @@
           <t>344</t>
         </is>
       </c>
-      <c r="AG290" s="15" t="inlineStr">
+      <c r="AG290" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -50991,7 +50991,7 @@
           <t>752</t>
         </is>
       </c>
-      <c r="S291" s="17" t="inlineStr">
+      <c r="S291" s="10" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -52270,7 +52270,7 @@
           <t>011</t>
         </is>
       </c>
-      <c r="M298" s="8" t="inlineStr">
+      <c r="M298" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -53088,7 +53088,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="AA302" s="13" t="inlineStr">
+      <c r="AA302" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -54766,7 +54766,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="Z311" s="13" t="inlineStr">
+      <c r="Z311" s="17" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -56057,7 +56057,7 @@
           <t>399</t>
         </is>
       </c>
-      <c r="E321" s="6" t="inlineStr">
+      <c r="E321" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -56431,7 +56431,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="E323" s="6" t="inlineStr">
+      <c r="E323" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -56441,7 +56441,7 @@
           <t>070</t>
         </is>
       </c>
-      <c r="G323" s="6" t="inlineStr">
+      <c r="G323" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -57785,7 +57785,7 @@
           <t>353</t>
         </is>
       </c>
-      <c r="N330" s="17" t="inlineStr">
+      <c r="N330" s="9" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -58376,7 +58376,7 @@
           <t>708</t>
         </is>
       </c>
-      <c r="T333" s="17" t="inlineStr">
+      <c r="T333" s="11" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -58498,7 +58498,7 @@
           <t>552</t>
         </is>
       </c>
-      <c r="G334" s="17" t="inlineStr">
+      <c r="G334" s="6" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -58770,7 +58770,7 @@
           <t>804</t>
         </is>
       </c>
-      <c r="X335" s="12" t="inlineStr">
+      <c r="X335" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -59109,7 +59109,7 @@
           <t>105</t>
         </is>
       </c>
-      <c r="Q337" s="10" t="inlineStr">
+      <c r="Q337" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -59852,7 +59852,7 @@
           <t>171</t>
         </is>
       </c>
-      <c r="P341" s="9" t="inlineStr">
+      <c r="P341" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -59979,7 +59979,7 @@
           <t>937</t>
         </is>
       </c>
-      <c r="D342" s="5" t="inlineStr">
+      <c r="D342" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -60944,7 +60944,7 @@
           <t>712</t>
         </is>
       </c>
-      <c r="J347" s="7" t="inlineStr">
+      <c r="J347" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -61156,7 +61156,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="O348" s="9" t="inlineStr">
+      <c r="O348" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -62071,7 +62071,7 @@
           <t>237</t>
         </is>
       </c>
-      <c r="AE355" s="14" t="inlineStr">
+      <c r="AE355" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -62470,7 +62470,7 @@
           <t>095</t>
         </is>
       </c>
-      <c r="AJ357" s="17" t="inlineStr">
+      <c r="AJ357" s="16" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -63442,7 +63442,7 @@
           <t>533</t>
         </is>
       </c>
-      <c r="F363" s="6" t="inlineStr">
+      <c r="F363" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -63764,7 +63764,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="AG364" s="15" t="inlineStr">
+      <c r="AG364" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -63926,7 +63926,7 @@
           <t>480</t>
         </is>
       </c>
-      <c r="AB365" s="13" t="inlineStr">
+      <c r="AB365" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -64609,7 +64609,7 @@
           <t>803</t>
         </is>
       </c>
-      <c r="O369" s="9" t="inlineStr">
+      <c r="O369" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -65644,7 +65644,7 @@
           <t>280</t>
         </is>
       </c>
-      <c r="AI374" s="17" t="inlineStr">
+      <c r="AI374" s="16" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -66008,7 +66008,7 @@
           <t>351</t>
         </is>
       </c>
-      <c r="AG376" s="17" t="inlineStr">
+      <c r="AG376" s="15" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -67075,7 +67075,7 @@
           <t>287</t>
         </is>
       </c>
-      <c r="V382" s="17" t="inlineStr">
+      <c r="V382" s="11" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -67167,7 +67167,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="C383" s="5" t="inlineStr">
+      <c r="C383" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -67227,7 +67227,7 @@
           <t>036</t>
         </is>
       </c>
-      <c r="O383" s="9" t="inlineStr">
+      <c r="O383" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -67277,7 +67277,7 @@
           <t>817</t>
         </is>
       </c>
-      <c r="Y383" s="12" t="inlineStr">
+      <c r="Y383" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -67748,7 +67748,7 @@
           <t>896</t>
         </is>
       </c>
-      <c r="AA388" s="13" t="inlineStr">
+      <c r="AA388" s="17" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -67855,7 +67855,7 @@
           <t>872</t>
         </is>
       </c>
-      <c r="K389" s="17" t="inlineStr">
+      <c r="K389" s="8" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -68506,7 +68506,7 @@
           <t>857</t>
         </is>
       </c>
-      <c r="AC392" s="17" t="inlineStr">
+      <c r="AC392" s="14" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -68900,7 +68900,7 @@
           <t>732</t>
         </is>
       </c>
-      <c r="AG394" s="15" t="inlineStr">
+      <c r="AG394" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -70528,7 +70528,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="V403" s="11" t="inlineStr">
+      <c r="V403" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -71296,7 +71296,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="Z407" s="13" t="inlineStr">
+      <c r="Z407" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -71999,7 +71999,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="Q411" s="10" t="inlineStr">
+      <c r="Q411" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -72151,7 +72151,7 @@
           <t>403</t>
         </is>
       </c>
-      <c r="J412" s="7" t="inlineStr">
+      <c r="J412" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -72727,7 +72727,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="M415" s="17" t="inlineStr">
+      <c r="M415" s="8" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -73009,7 +73009,7 @@
           <t>298</t>
         </is>
       </c>
-      <c r="AF416" s="17" t="inlineStr">
+      <c r="AF416" s="15" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -73051,7 +73051,7 @@
           <t>468</t>
         </is>
       </c>
-      <c r="C417" s="5" t="inlineStr">
+      <c r="C417" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -73136,7 +73136,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T417" s="17" t="inlineStr">
+      <c r="T417" s="11" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -74395,7 +74395,7 @@
           <t>081</t>
         </is>
       </c>
-      <c r="AD426" s="14" t="inlineStr">
+      <c r="AD426" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -75751,7 +75751,7 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B434" s="17" t="inlineStr">
+      <c r="B434" s="5" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -76003,7 +76003,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="O435" s="9" t="inlineStr">
+      <c r="O435" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -76477,7 +76477,7 @@
           <t>418</t>
         </is>
       </c>
-      <c r="AI437" s="16" t="inlineStr">
+      <c r="AI437" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -76669,7 +76669,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="AJ438" s="17" t="inlineStr">
+      <c r="AJ438" s="16" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -76908,7 +76908,7 @@
           <t>225</t>
         </is>
       </c>
-      <c r="I440" s="7" t="inlineStr">
+      <c r="I440" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -78571,7 +78571,7 @@
           <t>384</t>
         </is>
       </c>
-      <c r="E449" s="6" t="inlineStr">
+      <c r="E449" s="17" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -79000,7 +79000,7 @@
           <t>086</t>
         </is>
       </c>
-      <c r="P451" s="9" t="inlineStr">
+      <c r="P451" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -81902,7 +81902,7 @@
           <t>349</t>
         </is>
       </c>
-      <c r="R469" s="10" t="inlineStr">
+      <c r="R469" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -83019,7 +83019,7 @@
           <t>918</t>
         </is>
       </c>
-      <c r="Q475" s="10" t="inlineStr">
+      <c r="Q475" s="17" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -83231,7 +83231,7 @@
           <t>641</t>
         </is>
       </c>
-      <c r="V476" s="11" t="inlineStr">
+      <c r="V476" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -84196,7 +84196,7 @@
           <t>321</t>
         </is>
       </c>
-      <c r="AB481" s="13" t="inlineStr">
+      <c r="AB481" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -84288,7 +84288,7 @@
           <t>968</t>
         </is>
       </c>
-      <c r="I482" s="7" t="inlineStr">
+      <c r="I482" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -84500,7 +84500,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="N483" s="17" t="inlineStr">
+      <c r="N483" s="9" t="inlineStr">
         <is>
           <t>030</t>
         </is>
@@ -85303,7 +85303,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="Y487" s="12" t="inlineStr">
+      <c r="Y487" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -86011,7 +86011,7 @@
           <t>648</t>
         </is>
       </c>
-      <c r="AK493" s="16" t="inlineStr">
+      <c r="AK493" s="17" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -86038,7 +86038,7 @@
           <t>062</t>
         </is>
       </c>
-      <c r="E494" s="6" t="inlineStr">
+      <c r="E494" s="17" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -87320,7 +87320,7 @@
           <t>695</t>
         </is>
       </c>
-      <c r="AK500" s="17" t="inlineStr">
+      <c r="AK500" s="16" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -88058,7 +88058,7 @@
           <t>276</t>
         </is>
       </c>
-      <c r="AI504" s="16" t="inlineStr">
+      <c r="AI504" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -89888,7 +89888,7 @@
           <t>096</t>
         </is>
       </c>
-      <c r="AA514" s="17" t="inlineStr">
+      <c r="AA514" s="13" t="inlineStr">
         <is>
           <t>300</t>
         </is>
@@ -90105,7 +90105,7 @@
           <t>477</t>
         </is>
       </c>
-      <c r="AG515" s="15" t="inlineStr">
+      <c r="AG515" s="17" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -90125,7 +90125,7 @@
           <t>443</t>
         </is>
       </c>
-      <c r="AK515" s="17" t="inlineStr">
+      <c r="AK515" s="16" t="inlineStr">
         <is>
           <t>003</t>
         </is>
@@ -90304,17 +90304,17 @@
       </c>
       <c r="AI516" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>511</t>
         </is>
       </c>
       <c r="AJ516" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>387</t>
         </is>
       </c>
       <c r="AK516" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>808</t>
         </is>
       </c>
     </row>
@@ -90678,17 +90678,17 @@
       </c>
       <c r="AI518" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>283</t>
         </is>
       </c>
       <c r="AJ518" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>258</t>
         </is>
       </c>
       <c r="AK518" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>086</t>
         </is>
       </c>
     </row>
@@ -90865,17 +90865,17 @@
       </c>
       <c r="AI519" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>915</t>
         </is>
       </c>
       <c r="AJ519" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>750</t>
         </is>
       </c>
       <c r="AK519" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>761</t>
         </is>
       </c>
     </row>
@@ -91052,17 +91052,17 @@
       </c>
       <c r="AI520" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>639</t>
         </is>
       </c>
       <c r="AJ520" s="16" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK520" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="AK520" s="17" t="inlineStr">
+        <is>
+          <t>792</t>
         </is>
       </c>
     </row>
@@ -91202,7 +91202,7 @@
           <t>690</t>
         </is>
       </c>
-      <c r="AB521" s="13" t="inlineStr">
+      <c r="AB521" s="17" t="inlineStr">
         <is>
           <t>279</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -43,6 +43,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ff6666"/>
       </patternFill>
     </fill>
@@ -64,11 +69,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0066cc33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -220,9 +220,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,6 +230,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,7 +1488,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S6" s="17" t="inlineStr">
+      <c r="S6" s="10" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -1645,7 +1645,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M7" s="8" t="inlineStr">
+      <c r="M7" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -1847,7 +1847,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P8" s="9" t="inlineStr">
+      <c r="P8" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -1907,7 +1907,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB8" s="13" t="inlineStr">
+      <c r="AB8" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -2094,7 +2094,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB9" s="13" t="inlineStr">
+      <c r="AB9" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -2266,7 +2266,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y10" s="12" t="inlineStr">
+      <c r="Y10" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -2348,7 +2348,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="17" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -2393,7 +2393,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M11" s="8" t="inlineStr">
+      <c r="M11" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -2842,7 +2842,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB13" s="13" t="inlineStr">
+      <c r="AB13" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -2877,7 +2877,7 @@
           <t>343</t>
         </is>
       </c>
-      <c r="AI13" s="16" t="inlineStr">
+      <c r="AI13" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -2969,7 +2969,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P14" s="9" t="inlineStr">
+      <c r="P14" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -3096,7 +3096,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D15" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -3625,7 +3625,7 @@
           <t>378</t>
         </is>
       </c>
-      <c r="AI17" s="16" t="inlineStr">
+      <c r="AI17" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -3672,7 +3672,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="G18" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -4308,7 +4308,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V21" s="11" t="inlineStr">
+      <c r="V21" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -4981,7 +4981,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G25" s="6" t="inlineStr">
+      <c r="G25" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -5542,7 +5542,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G28" s="6" t="inlineStr">
+      <c r="G28" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -6041,7 +6041,7 @@
           <t>875</t>
         </is>
       </c>
-      <c r="AF30" s="15" t="inlineStr">
+      <c r="AF30" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -6275,7 +6275,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="D32" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -6415,7 +6415,7 @@
           <t>022</t>
         </is>
       </c>
-      <c r="AF32" s="15" t="inlineStr">
+      <c r="AF32" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -6597,7 +6597,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE33" s="14" t="inlineStr">
+      <c r="AE33" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -7362,7 +7362,7 @@
           <t>383</t>
         </is>
       </c>
-      <c r="Q40" s="10" t="inlineStr">
+      <c r="Q40" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -7489,7 +7489,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="E41" s="17" t="inlineStr">
+      <c r="E41" s="6" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -7529,7 +7529,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M41" s="8" t="inlineStr">
+      <c r="M41" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -7544,7 +7544,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P41" s="9" t="inlineStr">
+      <c r="P41" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -7564,7 +7564,7 @@
           <t>481</t>
         </is>
       </c>
-      <c r="T41" s="17" t="inlineStr">
+      <c r="T41" s="11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -7863,7 +7863,7 @@
           <t>628</t>
         </is>
       </c>
-      <c r="E43" s="6" t="inlineStr">
+      <c r="E43" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -7978,7 +7978,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB43" s="13" t="inlineStr">
+      <c r="AB43" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -8499,7 +8499,7 @@
           <t>305</t>
         </is>
       </c>
-      <c r="T46" s="11" t="inlineStr">
+      <c r="T46" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -8509,7 +8509,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V46" s="11" t="inlineStr">
+      <c r="V46" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -8524,7 +8524,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y46" s="17" t="inlineStr">
+      <c r="Y46" s="12" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -8554,7 +8554,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE46" s="14" t="inlineStr">
+      <c r="AE46" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -8686,7 +8686,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="T47" s="17" t="inlineStr">
+      <c r="T47" s="11" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -8813,7 +8813,7 @@
           <t>574</t>
         </is>
       </c>
-      <c r="H48" s="7" t="inlineStr">
+      <c r="H48" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -9000,7 +9000,7 @@
           <t>238</t>
         </is>
       </c>
-      <c r="H49" s="17" t="inlineStr">
+      <c r="H49" s="7" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -9105,7 +9105,7 @@
           <t>397</t>
         </is>
       </c>
-      <c r="AC49" s="14" t="inlineStr">
+      <c r="AC49" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -9212,7 +9212,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M50" s="17" t="inlineStr">
+      <c r="M50" s="8" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -9277,7 +9277,7 @@
           <t>429</t>
         </is>
       </c>
-      <c r="Z50" s="17" t="inlineStr">
+      <c r="Z50" s="13" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -9459,12 +9459,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y51" s="12" t="inlineStr">
+      <c r="Y51" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
       </c>
-      <c r="Z51" s="13" t="inlineStr">
+      <c r="Z51" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -9561,7 +9561,7 @@
           <t>707</t>
         </is>
       </c>
-      <c r="H52" s="7" t="inlineStr">
+      <c r="H52" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -9893,7 +9893,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK53" s="16" t="inlineStr">
+      <c r="AK53" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -9995,7 +9995,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="T54" s="11" t="inlineStr">
+      <c r="T54" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -10147,7 +10147,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M55" s="8" t="inlineStr">
+      <c r="M55" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -10257,7 +10257,7 @@
           <t>762</t>
         </is>
       </c>
-      <c r="AI55" s="16" t="inlineStr">
+      <c r="AI55" s="17" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -10506,7 +10506,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J57" s="7" t="inlineStr">
+      <c r="J57" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -10641,7 +10641,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK57" s="16" t="inlineStr">
+      <c r="AK57" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -10818,7 +10818,7 @@
           <t>919</t>
         </is>
       </c>
-      <c r="AI58" s="16" t="inlineStr">
+      <c r="AI58" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -11037,7 +11037,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D60" s="5" t="inlineStr">
+      <c r="D60" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -11067,7 +11067,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J60" s="7" t="inlineStr">
+      <c r="J60" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -11162,7 +11162,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AC60" s="14" t="inlineStr">
+      <c r="AC60" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -11344,7 +11344,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB61" s="13" t="inlineStr">
+      <c r="AB61" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -11426,7 +11426,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G62" s="6" t="inlineStr">
+      <c r="G62" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -11476,7 +11476,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="Q62" s="10" t="inlineStr">
+      <c r="Q62" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -11703,7 +11703,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y63" s="12" t="inlineStr">
+      <c r="Y63" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -11718,7 +11718,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB63" s="13" t="inlineStr">
+      <c r="AB63" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -11800,7 +11800,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G64" s="17" t="inlineStr">
+      <c r="G64" s="6" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -11987,7 +11987,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G65" s="6" t="inlineStr">
+      <c r="G65" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -12234,7 +12234,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S66" s="10" t="inlineStr">
+      <c r="S66" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -12511,7 +12511,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK67" s="17" t="inlineStr">
+      <c r="AK67" s="16" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -12583,7 +12583,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N68" s="9" t="inlineStr">
+      <c r="N68" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -12613,7 +12613,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T68" s="11" t="inlineStr">
+      <c r="T68" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -13009,7 +13009,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G73" s="17" t="inlineStr">
+      <c r="G73" s="6" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -13221,7 +13221,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="L74" s="8" t="inlineStr">
+      <c r="L74" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -13296,7 +13296,7 @@
           <t>148</t>
         </is>
       </c>
-      <c r="AA74" s="13" t="inlineStr">
+      <c r="AA74" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -13331,7 +13331,7 @@
           <t>178</t>
         </is>
       </c>
-      <c r="AH74" s="15" t="inlineStr">
+      <c r="AH74" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -13403,7 +13403,7 @@
           <t>471</t>
         </is>
       </c>
-      <c r="K75" s="8" t="inlineStr">
+      <c r="K75" s="17" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -13438,7 +13438,7 @@
           <t>667</t>
         </is>
       </c>
-      <c r="R75" s="10" t="inlineStr">
+      <c r="R75" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -13518,7 +13518,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="AH75" s="17" t="inlineStr">
+      <c r="AH75" s="15" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -13533,7 +13533,7 @@
           <t>203</t>
         </is>
       </c>
-      <c r="AK75" s="16" t="inlineStr">
+      <c r="AK75" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -13545,7 +13545,7 @@
           <t>04</t>
         </is>
       </c>
-      <c r="B76" s="5" t="inlineStr">
+      <c r="B76" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -13640,7 +13640,7 @@
           <t>027</t>
         </is>
       </c>
-      <c r="U76" s="11" t="inlineStr">
+      <c r="U76" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -13680,7 +13680,7 @@
           <t>218</t>
         </is>
       </c>
-      <c r="AC76" s="14" t="inlineStr">
+      <c r="AC76" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -13700,7 +13700,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="AG76" s="15" t="inlineStr">
+      <c r="AG76" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -13782,7 +13782,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="L77" s="8" t="inlineStr">
+      <c r="L77" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -13872,7 +13872,7 @@
           <t>933</t>
         </is>
       </c>
-      <c r="AD77" s="17" t="inlineStr">
+      <c r="AD77" s="14" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -14079,7 +14079,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="AH78" s="17" t="inlineStr">
+      <c r="AH78" s="15" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -14186,7 +14186,7 @@
           <t>414</t>
         </is>
       </c>
-      <c r="R79" s="10" t="inlineStr">
+      <c r="R79" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -14281,7 +14281,7 @@
           <t>789</t>
         </is>
       </c>
-      <c r="AK79" s="16" t="inlineStr">
+      <c r="AK79" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -14333,12 +14333,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J80" s="7" t="inlineStr">
+      <c r="J80" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
       </c>
-      <c r="K80" s="17" t="inlineStr">
+      <c r="K80" s="8" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -14585,7 +14585,7 @@
           <t>945</t>
         </is>
       </c>
-      <c r="W81" s="12" t="inlineStr">
+      <c r="W81" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -14630,7 +14630,7 @@
           <t>049</t>
         </is>
       </c>
-      <c r="AF81" s="15" t="inlineStr">
+      <c r="AF81" s="17" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -14929,7 +14929,7 @@
           <t>555</t>
         </is>
       </c>
-      <c r="Q83" s="10" t="inlineStr">
+      <c r="Q83" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -15066,7 +15066,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G84" s="17" t="inlineStr">
+      <c r="G84" s="6" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -15111,7 +15111,7 @@
           <t>979</t>
         </is>
       </c>
-      <c r="P84" s="9" t="inlineStr">
+      <c r="P84" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -15141,7 +15141,7 @@
           <t>334</t>
         </is>
       </c>
-      <c r="V84" s="17" t="inlineStr">
+      <c r="V84" s="11" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -15206,7 +15206,7 @@
           <t>790</t>
         </is>
       </c>
-      <c r="AI84" s="16" t="inlineStr">
+      <c r="AI84" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -15228,7 +15228,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B85" s="5" t="inlineStr">
+      <c r="B85" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -15612,7 +15612,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D87" s="5" t="inlineStr">
+      <c r="D87" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -15762,7 +15762,7 @@
           <t>293</t>
         </is>
       </c>
-      <c r="AH87" s="15" t="inlineStr">
+      <c r="AH87" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -15804,7 +15804,7 @@
           <t>982</t>
         </is>
       </c>
-      <c r="E88" s="6" t="inlineStr">
+      <c r="E88" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -15854,7 +15854,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="O88" s="9" t="inlineStr">
+      <c r="O88" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -15874,7 +15874,7 @@
           <t>116</t>
         </is>
       </c>
-      <c r="S88" s="10" t="inlineStr">
+      <c r="S88" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -16091,7 +16091,7 @@
           <t>944</t>
         </is>
       </c>
-      <c r="Y89" s="12" t="inlineStr">
+      <c r="Y89" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -16188,7 +16188,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G90" s="6" t="inlineStr">
+      <c r="G90" s="17" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -16213,7 +16213,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="L90" s="8" t="inlineStr">
+      <c r="L90" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -16465,7 +16465,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="Y91" s="12" t="inlineStr">
+      <c r="Y91" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -16804,7 +16804,7 @@
           <t>513</t>
         </is>
       </c>
-      <c r="R93" s="10" t="inlineStr">
+      <c r="R93" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -16961,7 +16961,7 @@
           <t>661</t>
         </is>
       </c>
-      <c r="L94" s="17" t="inlineStr">
+      <c r="L94" s="8" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -17076,7 +17076,7 @@
           <t>313</t>
         </is>
       </c>
-      <c r="AI94" s="16" t="inlineStr">
+      <c r="AI94" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -17086,7 +17086,7 @@
           <t>049</t>
         </is>
       </c>
-      <c r="AK94" s="16" t="inlineStr">
+      <c r="AK94" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -17248,7 +17248,7 @@
           <t>095</t>
         </is>
       </c>
-      <c r="AF95" s="15" t="inlineStr">
+      <c r="AF95" s="17" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -17335,7 +17335,7 @@
           <t>602</t>
         </is>
       </c>
-      <c r="L96" s="8" t="inlineStr">
+      <c r="L96" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -17582,7 +17582,7 @@
           <t>948</t>
         </is>
       </c>
-      <c r="X97" s="12" t="inlineStr">
+      <c r="X97" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -18193,7 +18193,7 @@
           <t>759</t>
         </is>
       </c>
-      <c r="AH100" s="15" t="inlineStr">
+      <c r="AH100" s="17" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -18230,7 +18230,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D101" s="5" t="inlineStr">
+      <c r="D101" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -18502,7 +18502,7 @@
           <t>856</t>
         </is>
       </c>
-      <c r="U102" s="17" t="inlineStr">
+      <c r="U102" s="11" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -18552,7 +18552,7 @@
           <t>938</t>
         </is>
       </c>
-      <c r="AE102" s="14" t="inlineStr">
+      <c r="AE102" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -18734,7 +18734,7 @@
           <t>060</t>
         </is>
       </c>
-      <c r="AD103" s="14" t="inlineStr">
+      <c r="AD103" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -19342,7 +19342,7 @@
           <t>323</t>
         </is>
       </c>
-      <c r="V109" s="17" t="inlineStr">
+      <c r="V109" s="11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -19352,7 +19352,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="X109" s="12" t="inlineStr">
+      <c r="X109" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -19362,7 +19362,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="Z109" s="13" t="inlineStr">
+      <c r="Z109" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -19459,7 +19459,7 @@
           <t>204</t>
         </is>
       </c>
-      <c r="H110" s="7" t="inlineStr">
+      <c r="H110" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -19706,7 +19706,7 @@
           <t>684</t>
         </is>
       </c>
-      <c r="T111" s="11" t="inlineStr">
+      <c r="T111" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -19726,7 +19726,7 @@
           <t>150</t>
         </is>
       </c>
-      <c r="X111" s="12" t="inlineStr">
+      <c r="X111" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -19888,7 +19888,7 @@
           <t>410</t>
         </is>
       </c>
-      <c r="S112" s="10" t="inlineStr">
+      <c r="S112" s="17" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -19898,7 +19898,7 @@
           <t>628</t>
         </is>
       </c>
-      <c r="U112" s="11" t="inlineStr">
+      <c r="U112" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -20272,7 +20272,7 @@
           <t>869</t>
         </is>
       </c>
-      <c r="U114" s="17" t="inlineStr">
+      <c r="U114" s="11" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -20369,7 +20369,7 @@
           <t>945</t>
         </is>
       </c>
-      <c r="C115" s="5" t="inlineStr">
+      <c r="C115" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -20429,7 +20429,7 @@
           <t>255</t>
         </is>
       </c>
-      <c r="O115" s="9" t="inlineStr">
+      <c r="O115" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -20571,7 +20571,7 @@
           <t>281</t>
         </is>
       </c>
-      <c r="F116" s="17" t="inlineStr">
+      <c r="F116" s="6" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -20873,7 +20873,7 @@
           <t>924</t>
         </is>
       </c>
-      <c r="AC117" s="17" t="inlineStr">
+      <c r="AC117" s="14" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -20945,7 +20945,7 @@
           <t>244</t>
         </is>
       </c>
-      <c r="F118" s="6" t="inlineStr">
+      <c r="F118" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -20965,7 +20965,7 @@
           <t>675</t>
         </is>
       </c>
-      <c r="J118" s="7" t="inlineStr">
+      <c r="J118" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -21025,7 +21025,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="V118" s="17" t="inlineStr">
+      <c r="V118" s="11" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -21152,7 +21152,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="J119" s="7" t="inlineStr">
+      <c r="J119" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -21309,12 +21309,12 @@
           <t>520</t>
         </is>
       </c>
-      <c r="D120" s="5" t="inlineStr">
+      <c r="D120" s="17" t="inlineStr">
         <is>
           <t>326</t>
         </is>
       </c>
-      <c r="E120" s="6" t="inlineStr">
+      <c r="E120" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -21434,7 +21434,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="AC120" s="14" t="inlineStr">
+      <c r="AC120" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -21459,7 +21459,7 @@
           <t>611</t>
         </is>
       </c>
-      <c r="AH120" s="17" t="inlineStr">
+      <c r="AH120" s="15" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -21661,7 +21661,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="AK121" s="16" t="inlineStr">
+      <c r="AK121" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -21843,7 +21843,7 @@
           <t>975</t>
         </is>
       </c>
-      <c r="AJ122" s="17" t="inlineStr">
+      <c r="AJ122" s="16" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -21990,7 +21990,7 @@
           <t>941</t>
         </is>
       </c>
-      <c r="AB123" s="13" t="inlineStr">
+      <c r="AB123" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -22057,7 +22057,7 @@
           <t>679</t>
         </is>
       </c>
-      <c r="D124" s="5" t="inlineStr">
+      <c r="D124" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -22102,7 +22102,7 @@
           <t>163</t>
         </is>
       </c>
-      <c r="M124" s="8" t="inlineStr">
+      <c r="M124" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -22187,7 +22187,7 @@
           <t>956</t>
         </is>
       </c>
-      <c r="AD124" s="14" t="inlineStr">
+      <c r="AD124" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -22344,7 +22344,7 @@
           <t>865</t>
         </is>
       </c>
-      <c r="X125" s="12" t="inlineStr">
+      <c r="X125" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -22354,7 +22354,7 @@
           <t>148</t>
         </is>
       </c>
-      <c r="Z125" s="13" t="inlineStr">
+      <c r="Z125" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -22399,7 +22399,7 @@
           <t>875</t>
         </is>
       </c>
-      <c r="AI125" s="16" t="inlineStr">
+      <c r="AI125" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -22668,12 +22668,12 @@
           <t>506</t>
         </is>
       </c>
-      <c r="N127" s="9" t="inlineStr">
+      <c r="N127" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
       </c>
-      <c r="O127" s="9" t="inlineStr">
+      <c r="O127" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -22683,7 +22683,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="Q127" s="10" t="inlineStr">
+      <c r="Q127" s="17" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -22815,7 +22815,7 @@
           <t>678</t>
         </is>
       </c>
-      <c r="F128" s="6" t="inlineStr">
+      <c r="F128" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -23007,7 +23007,7 @@
           <t>136</t>
         </is>
       </c>
-      <c r="G129" s="6" t="inlineStr">
+      <c r="G129" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -23052,7 +23052,7 @@
           <t>049</t>
         </is>
       </c>
-      <c r="P129" s="17" t="inlineStr">
+      <c r="P129" s="9" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -23189,7 +23189,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="F130" s="6" t="inlineStr">
+      <c r="F130" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -23244,7 +23244,7 @@
           <t>064</t>
         </is>
       </c>
-      <c r="Q130" s="17" t="inlineStr">
+      <c r="Q130" s="10" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -23628,7 +23628,7 @@
           <t>018</t>
         </is>
       </c>
-      <c r="S132" s="10" t="inlineStr">
+      <c r="S132" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -23668,7 +23668,7 @@
           <t>781</t>
         </is>
       </c>
-      <c r="AA132" s="17" t="inlineStr">
+      <c r="AA132" s="13" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -23800,12 +23800,12 @@
           <t>443</t>
         </is>
       </c>
-      <c r="P133" s="9" t="inlineStr">
+      <c r="P133" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="Q133" s="10" t="inlineStr">
+      <c r="Q133" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -23825,7 +23825,7 @@
           <t>496</t>
         </is>
       </c>
-      <c r="U133" s="11" t="inlineStr">
+      <c r="U133" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -23932,7 +23932,7 @@
           <t>727</t>
         </is>
       </c>
-      <c r="E134" s="6" t="inlineStr">
+      <c r="E134" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -23987,7 +23987,7 @@
           <t>635</t>
         </is>
       </c>
-      <c r="P134" s="9" t="inlineStr">
+      <c r="P134" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -24159,7 +24159,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="M135" s="17" t="inlineStr">
+      <c r="M135" s="8" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -24760,7 +24760,7 @@
           <t>028</t>
         </is>
       </c>
-      <c r="U138" s="11" t="inlineStr">
+      <c r="U138" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -25146,7 +25146,7 @@
           <t>917</t>
         </is>
       </c>
-      <c r="F143" s="6" t="inlineStr">
+      <c r="F143" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -25231,7 +25231,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="W143" s="12" t="inlineStr">
+      <c r="W143" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -25343,7 +25343,7 @@
           <t>055</t>
         </is>
       </c>
-      <c r="H144" s="7" t="inlineStr">
+      <c r="H144" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -25383,7 +25383,7 @@
           <t>141</t>
         </is>
       </c>
-      <c r="P144" s="9" t="inlineStr">
+      <c r="P144" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -25453,7 +25453,7 @@
           <t>291</t>
         </is>
       </c>
-      <c r="AD144" s="17" t="inlineStr">
+      <c r="AD144" s="14" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -25530,7 +25530,7 @@
           <t>241</t>
         </is>
       </c>
-      <c r="H145" s="7" t="inlineStr">
+      <c r="H145" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -25570,7 +25570,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="P145" s="9" t="inlineStr">
+      <c r="P145" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -25722,7 +25722,7 @@
           <t>613</t>
         </is>
       </c>
-      <c r="I146" s="7" t="inlineStr">
+      <c r="I146" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -25777,7 +25777,7 @@
           <t>265</t>
         </is>
       </c>
-      <c r="T146" s="11" t="inlineStr">
+      <c r="T146" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -25847,7 +25847,7 @@
           <t>539</t>
         </is>
       </c>
-      <c r="AH146" s="15" t="inlineStr">
+      <c r="AH146" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -25924,7 +25924,7 @@
           <t>390</t>
         </is>
       </c>
-      <c r="L147" s="8" t="inlineStr">
+      <c r="L147" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -25969,7 +25969,7 @@
           <t>177</t>
         </is>
       </c>
-      <c r="U147" s="11" t="inlineStr">
+      <c r="U147" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -25989,7 +25989,7 @@
           <t>908</t>
         </is>
       </c>
-      <c r="Y147" s="12" t="inlineStr">
+      <c r="Y147" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -26111,7 +26111,7 @@
           <t>993</t>
         </is>
       </c>
-      <c r="L148" s="8" t="inlineStr">
+      <c r="L148" s="17" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -26236,7 +26236,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="AK148" s="16" t="inlineStr">
+      <c r="AK148" s="17" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -26383,7 +26383,7 @@
           <t>394</t>
         </is>
       </c>
-      <c r="AC149" s="17" t="inlineStr">
+      <c r="AC149" s="14" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -26485,7 +26485,7 @@
           <t>442</t>
         </is>
       </c>
-      <c r="L150" s="8" t="inlineStr">
+      <c r="L150" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -26777,7 +26777,7 @@
           <t>126</t>
         </is>
       </c>
-      <c r="AG151" s="15" t="inlineStr">
+      <c r="AG151" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -27146,7 +27146,7 @@
           <t>718</t>
         </is>
       </c>
-      <c r="AF153" s="17" t="inlineStr">
+      <c r="AF153" s="15" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -27405,7 +27405,7 @@
           <t>489</t>
         </is>
       </c>
-      <c r="I155" s="7" t="inlineStr">
+      <c r="I155" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -27545,7 +27545,7 @@
           <t>419</t>
         </is>
       </c>
-      <c r="AK155" s="16" t="inlineStr">
+      <c r="AK155" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -27557,7 +27557,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B156" s="5" t="inlineStr">
+      <c r="B156" s="17" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -27657,7 +27657,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="V156" s="11" t="inlineStr">
+      <c r="V156" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -27804,7 +27804,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="N157" s="9" t="inlineStr">
+      <c r="N157" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -28086,7 +28086,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="AG158" s="15" t="inlineStr">
+      <c r="AG158" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -28148,7 +28148,7 @@
           <t>887</t>
         </is>
       </c>
-      <c r="H159" s="7" t="inlineStr">
+      <c r="H159" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -28178,7 +28178,7 @@
           <t>760</t>
         </is>
       </c>
-      <c r="N159" s="9" t="inlineStr">
+      <c r="N159" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -28193,7 +28193,7 @@
           <t>579</t>
         </is>
       </c>
-      <c r="Q159" s="10" t="inlineStr">
+      <c r="Q159" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -28455,7 +28455,7 @@
           <t>428</t>
         </is>
       </c>
-      <c r="AF160" s="15" t="inlineStr">
+      <c r="AF160" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -28582,7 +28582,7 @@
           <t>277</t>
         </is>
       </c>
-      <c r="T161" s="11" t="inlineStr">
+      <c r="T161" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -28714,7 +28714,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="I162" s="7" t="inlineStr">
+      <c r="I162" s="17" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -29270,7 +29270,7 @@
           <t>703</t>
         </is>
       </c>
-      <c r="H165" s="7" t="inlineStr">
+      <c r="H165" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -29315,7 +29315,7 @@
           <t>552</t>
         </is>
       </c>
-      <c r="Q165" s="10" t="inlineStr">
+      <c r="Q165" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -29345,7 +29345,7 @@
           <t>616</t>
         </is>
       </c>
-      <c r="W165" s="12" t="inlineStr">
+      <c r="W165" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -29385,7 +29385,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AE165" s="14" t="inlineStr">
+      <c r="AE165" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -29462,7 +29462,7 @@
           <t>462</t>
         </is>
       </c>
-      <c r="I166" s="7" t="inlineStr">
+      <c r="I166" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -29988,7 +29988,7 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B169" s="5" t="inlineStr">
+      <c r="B169" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -30023,7 +30023,7 @@
           <t>586</t>
         </is>
       </c>
-      <c r="I169" s="7" t="inlineStr">
+      <c r="I169" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -30133,7 +30133,7 @@
           <t>421</t>
         </is>
       </c>
-      <c r="AE169" s="14" t="inlineStr">
+      <c r="AE169" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -30158,7 +30158,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="AJ169" s="16" t="inlineStr">
+      <c r="AJ169" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -30185,7 +30185,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="D170" s="5" t="inlineStr">
+      <c r="D170" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -30235,7 +30235,7 @@
           <t>030</t>
         </is>
       </c>
-      <c r="N170" s="9" t="inlineStr">
+      <c r="N170" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -30275,7 +30275,7 @@
           <t>621</t>
         </is>
       </c>
-      <c r="V170" s="11" t="inlineStr">
+      <c r="V170" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -30412,7 +30412,7 @@
           <t>007</t>
         </is>
       </c>
-      <c r="L171" s="8" t="inlineStr">
+      <c r="L171" s="17" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -30432,7 +30432,7 @@
           <t>915</t>
         </is>
       </c>
-      <c r="P171" s="9" t="inlineStr">
+      <c r="P171" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -30477,7 +30477,7 @@
           <t>772</t>
         </is>
       </c>
-      <c r="Y171" s="17" t="inlineStr">
+      <c r="Y171" s="12" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -30502,7 +30502,7 @@
           <t>822</t>
         </is>
       </c>
-      <c r="AD171" s="14" t="inlineStr">
+      <c r="AD171" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -30609,7 +30609,7 @@
           <t>476</t>
         </is>
       </c>
-      <c r="N172" s="9" t="inlineStr">
+      <c r="N172" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -30669,7 +30669,7 @@
           <t>386</t>
         </is>
       </c>
-      <c r="Z172" s="13" t="inlineStr">
+      <c r="Z172" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -30776,7 +30776,7 @@
           <t>848</t>
         </is>
       </c>
-      <c r="J173" s="7" t="inlineStr">
+      <c r="J173" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -30901,7 +30901,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI173" s="16" t="inlineStr">
+      <c r="AI173" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -30911,7 +30911,7 @@
           <t>444</t>
         </is>
       </c>
-      <c r="AK173" s="16" t="inlineStr">
+      <c r="AK173" s="17" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -31282,7 +31282,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="S178" s="10" t="inlineStr">
+      <c r="S178" s="17" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -31312,7 +31312,7 @@
           <t>722</t>
         </is>
       </c>
-      <c r="Y178" s="12" t="inlineStr">
+      <c r="Y178" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -31489,7 +31489,7 @@
           <t>190</t>
         </is>
       </c>
-      <c r="W179" s="12" t="inlineStr">
+      <c r="W179" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -31571,7 +31571,7 @@
           <t>03</t>
         </is>
       </c>
-      <c r="B180" s="5" t="inlineStr">
+      <c r="B180" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -31686,7 +31686,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="Y180" s="17" t="inlineStr">
+      <c r="Y180" s="12" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -31833,7 +31833,7 @@
           <t>278</t>
         </is>
       </c>
-      <c r="Q181" s="10" t="inlineStr">
+      <c r="Q181" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -31918,7 +31918,7 @@
           <t>848</t>
         </is>
       </c>
-      <c r="AH181" s="17" t="inlineStr">
+      <c r="AH181" s="15" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -31965,7 +31965,7 @@
           <t>872</t>
         </is>
       </c>
-      <c r="F182" s="17" t="inlineStr">
+      <c r="F182" s="6" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -32065,7 +32065,7 @@
           <t>496</t>
         </is>
       </c>
-      <c r="Z182" s="13" t="inlineStr">
+      <c r="Z182" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -32080,7 +32080,7 @@
           <t>771</t>
         </is>
       </c>
-      <c r="AC182" s="14" t="inlineStr">
+      <c r="AC182" s="17" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -32095,7 +32095,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AF182" s="15" t="inlineStr">
+      <c r="AF182" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -32142,7 +32142,7 @@
           <t>211</t>
         </is>
       </c>
-      <c r="D183" s="5" t="inlineStr">
+      <c r="D183" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -32172,7 +32172,7 @@
           <t>286</t>
         </is>
       </c>
-      <c r="J183" s="7" t="inlineStr">
+      <c r="J183" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -32257,7 +32257,7 @@
           <t>567</t>
         </is>
       </c>
-      <c r="AA183" s="13" t="inlineStr">
+      <c r="AA183" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -32287,7 +32287,7 @@
           <t>420</t>
         </is>
       </c>
-      <c r="AG183" s="17" t="inlineStr">
+      <c r="AG183" s="15" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -32359,7 +32359,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="J184" s="7" t="inlineStr">
+      <c r="J184" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -32464,7 +32464,7 @@
           <t>740</t>
         </is>
       </c>
-      <c r="AE184" s="14" t="inlineStr">
+      <c r="AE184" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -32571,7 +32571,7 @@
           <t>446</t>
         </is>
       </c>
-      <c r="O185" s="9" t="inlineStr">
+      <c r="O185" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -32586,7 +32586,7 @@
           <t>435</t>
         </is>
       </c>
-      <c r="R185" s="17" t="inlineStr">
+      <c r="R185" s="10" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -32808,7 +32808,7 @@
           <t>517</t>
         </is>
       </c>
-      <c r="Y186" s="17" t="inlineStr">
+      <c r="Y186" s="12" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -33030,7 +33030,7 @@
           <t>622</t>
         </is>
       </c>
-      <c r="AF187" s="15" t="inlineStr">
+      <c r="AF187" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -33087,7 +33087,7 @@
           <t>937</t>
         </is>
       </c>
-      <c r="F188" s="6" t="inlineStr">
+      <c r="F188" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -33162,7 +33162,7 @@
           <t>439</t>
         </is>
       </c>
-      <c r="U188" s="11" t="inlineStr">
+      <c r="U188" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -33227,7 +33227,7 @@
           <t>024</t>
         </is>
       </c>
-      <c r="AH188" s="15" t="inlineStr">
+      <c r="AH188" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -33359,7 +33359,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="W189" s="12" t="inlineStr">
+      <c r="W189" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -33556,7 +33556,7 @@
           <t>448</t>
         </is>
       </c>
-      <c r="Y190" s="12" t="inlineStr">
+      <c r="Y190" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -33825,7 +33825,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="D192" s="17" t="inlineStr">
+      <c r="D192" s="5" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -33900,7 +33900,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="S192" s="10" t="inlineStr">
+      <c r="S192" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -34122,7 +34122,7 @@
           <t>537</t>
         </is>
       </c>
-      <c r="Z193" s="13" t="inlineStr">
+      <c r="Z193" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -34147,7 +34147,7 @@
           <t>003</t>
         </is>
       </c>
-      <c r="AE193" s="14" t="inlineStr">
+      <c r="AE193" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -34214,12 +34214,12 @@
           <t>582</t>
         </is>
       </c>
-      <c r="G194" s="17" t="inlineStr">
+      <c r="G194" s="6" t="inlineStr">
         <is>
           <t>972</t>
         </is>
       </c>
-      <c r="H194" s="7" t="inlineStr">
+      <c r="H194" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -34314,7 +34314,7 @@
           <t>613</t>
         </is>
       </c>
-      <c r="AA194" s="13" t="inlineStr">
+      <c r="AA194" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -34324,7 +34324,7 @@
           <t>103</t>
         </is>
       </c>
-      <c r="AC194" s="14" t="inlineStr">
+      <c r="AC194" s="17" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -34531,7 +34531,7 @@
           <t>424</t>
         </is>
       </c>
-      <c r="AG195" s="15" t="inlineStr">
+      <c r="AG195" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -34546,7 +34546,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AJ195" s="16" t="inlineStr">
+      <c r="AJ195" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -34578,7 +34578,7 @@
           <t>815</t>
         </is>
       </c>
-      <c r="E196" s="6" t="inlineStr">
+      <c r="E196" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -34780,7 +34780,7 @@
           <t>422</t>
         </is>
       </c>
-      <c r="H197" s="7" t="inlineStr">
+      <c r="H197" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -34795,7 +34795,7 @@
           <t>962</t>
         </is>
       </c>
-      <c r="K197" s="8" t="inlineStr">
+      <c r="K197" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -34850,7 +34850,7 @@
           <t>181</t>
         </is>
       </c>
-      <c r="V197" s="11" t="inlineStr">
+      <c r="V197" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -34947,7 +34947,7 @@
           <t>720</t>
         </is>
       </c>
-      <c r="D198" s="5" t="inlineStr">
+      <c r="D198" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -34977,7 +34977,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="J198" s="7" t="inlineStr">
+      <c r="J198" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -35037,7 +35037,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="V198" s="11" t="inlineStr">
+      <c r="V198" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -35082,7 +35082,7 @@
           <t>707</t>
         </is>
       </c>
-      <c r="AE198" s="14" t="inlineStr">
+      <c r="AE198" s="17" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -35149,7 +35149,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="G199" s="17" t="inlineStr">
+      <c r="G199" s="6" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -35294,7 +35294,7 @@
           <t>983</t>
         </is>
       </c>
-      <c r="AJ199" s="17" t="inlineStr">
+      <c r="AJ199" s="16" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -35643,7 +35643,7 @@
           <t>375</t>
         </is>
       </c>
-      <c r="AE201" s="14" t="inlineStr">
+      <c r="AE201" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -35765,7 +35765,7 @@
           <t>422</t>
         </is>
       </c>
-      <c r="R202" s="10" t="inlineStr">
+      <c r="R202" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -35790,7 +35790,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="W202" s="12" t="inlineStr">
+      <c r="W202" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -35912,7 +35912,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="J203" s="7" t="inlineStr">
+      <c r="J203" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -35937,7 +35937,7 @@
           <t>441</t>
         </is>
       </c>
-      <c r="O203" s="9" t="inlineStr">
+      <c r="O203" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -36119,7 +36119,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="N204" s="9" t="inlineStr">
+      <c r="N204" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -36154,7 +36154,7 @@
           <t>899</t>
         </is>
       </c>
-      <c r="U204" s="11" t="inlineStr">
+      <c r="U204" s="17" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -36311,7 +36311,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="O205" s="9" t="inlineStr">
+      <c r="O205" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -36401,7 +36401,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="AG205" s="15" t="inlineStr">
+      <c r="AG205" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -36563,7 +36563,7 @@
           <t>481</t>
         </is>
       </c>
-      <c r="AB206" s="13" t="inlineStr">
+      <c r="AB206" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -36608,7 +36608,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="AK206" s="16" t="inlineStr">
+      <c r="AK206" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -36730,7 +36730,7 @@
           <t>937</t>
         </is>
       </c>
-      <c r="X207" s="12" t="inlineStr">
+      <c r="X207" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -36760,7 +36760,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="AD207" s="14" t="inlineStr">
+      <c r="AD207" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -36912,7 +36912,7 @@
           <t>456</t>
         </is>
       </c>
-      <c r="W208" s="12" t="inlineStr">
+      <c r="W208" s="17" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -36942,7 +36942,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC208" s="14" t="inlineStr">
+      <c r="AC208" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -37455,7 +37455,7 @@
           <t>02</t>
         </is>
       </c>
-      <c r="B214" s="5" t="inlineStr">
+      <c r="B214" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -37615,7 +37615,7 @@
           <t>089</t>
         </is>
       </c>
-      <c r="AH214" s="15" t="inlineStr">
+      <c r="AH214" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -37647,7 +37647,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="C215" s="5" t="inlineStr">
+      <c r="C215" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -37677,7 +37677,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="I215" s="7" t="inlineStr">
+      <c r="I215" s="17" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -37727,7 +37727,7 @@
           <t>426</t>
         </is>
       </c>
-      <c r="S215" s="10" t="inlineStr">
+      <c r="S215" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -37829,7 +37829,7 @@
           <t>04</t>
         </is>
       </c>
-      <c r="B216" s="5" t="inlineStr">
+      <c r="B216" s="17" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -37879,7 +37879,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="L216" s="17" t="inlineStr">
+      <c r="L216" s="8" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -38016,7 +38016,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="B217" s="5" t="inlineStr">
+      <c r="B217" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -38026,7 +38026,7 @@
           <t>132</t>
         </is>
       </c>
-      <c r="D217" s="5" t="inlineStr">
+      <c r="D217" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -38278,7 +38278,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="Q218" s="10" t="inlineStr">
+      <c r="Q218" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -38425,7 +38425,7 @@
           <t>352</t>
         </is>
       </c>
-      <c r="I219" s="7" t="inlineStr">
+      <c r="I219" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -38465,12 +38465,12 @@
           <t>493</t>
         </is>
       </c>
-      <c r="Q219" s="10" t="inlineStr">
+      <c r="Q219" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
       </c>
-      <c r="R219" s="10" t="inlineStr">
+      <c r="R219" s="17" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -38550,7 +38550,7 @@
           <t>482</t>
         </is>
       </c>
-      <c r="AH219" s="15" t="inlineStr">
+      <c r="AH219" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -38672,7 +38672,7 @@
           <t>489</t>
         </is>
       </c>
-      <c r="U220" s="11" t="inlineStr">
+      <c r="U220" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -38747,7 +38747,7 @@
           <t>634</t>
         </is>
       </c>
-      <c r="AJ220" s="16" t="inlineStr">
+      <c r="AJ220" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -38864,7 +38864,7 @@
           <t>204</t>
         </is>
       </c>
-      <c r="V221" s="11" t="inlineStr">
+      <c r="V221" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -38894,7 +38894,7 @@
           <t>749</t>
         </is>
       </c>
-      <c r="AB221" s="13" t="inlineStr">
+      <c r="AB221" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -38904,7 +38904,7 @@
           <t>414</t>
         </is>
       </c>
-      <c r="AD221" s="14" t="inlineStr">
+      <c r="AD221" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -38919,7 +38919,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="AG221" s="15" t="inlineStr">
+      <c r="AG221" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -39138,7 +39138,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B223" s="5" t="inlineStr">
+      <c r="B223" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -39228,7 +39228,7 @@
           <t>013</t>
         </is>
       </c>
-      <c r="T223" s="11" t="inlineStr">
+      <c r="T223" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -39243,7 +39243,7 @@
           <t>258</t>
         </is>
       </c>
-      <c r="W223" s="12" t="inlineStr">
+      <c r="W223" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -39263,7 +39263,7 @@
           <t>024</t>
         </is>
       </c>
-      <c r="AA223" s="13" t="inlineStr">
+      <c r="AA223" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -39385,7 +39385,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="N224" s="9" t="inlineStr">
+      <c r="N224" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -39627,7 +39627,7 @@
           <t>322</t>
         </is>
       </c>
-      <c r="Y225" s="12" t="inlineStr">
+      <c r="Y225" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -39704,7 +39704,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="C226" s="5" t="inlineStr">
+      <c r="C226" s="17" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -39901,7 +39901,7 @@
           <t>498</t>
         </is>
       </c>
-      <c r="E227" s="6" t="inlineStr">
+      <c r="E227" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -39926,7 +39926,7 @@
           <t>162</t>
         </is>
       </c>
-      <c r="J227" s="7" t="inlineStr">
+      <c r="J227" s="17" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -40016,7 +40016,7 @@
           <t>680</t>
         </is>
       </c>
-      <c r="AB227" s="13" t="inlineStr">
+      <c r="AB227" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -40270,7 +40270,7 @@
           <t>058</t>
         </is>
       </c>
-      <c r="D229" s="5" t="inlineStr">
+      <c r="D229" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -40280,7 +40280,7 @@
           <t>087</t>
         </is>
       </c>
-      <c r="F229" s="6" t="inlineStr">
+      <c r="F229" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -40300,7 +40300,7 @@
           <t>880</t>
         </is>
       </c>
-      <c r="J229" s="7" t="inlineStr">
+      <c r="J229" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -40410,7 +40410,7 @@
           <t>144</t>
         </is>
       </c>
-      <c r="AF229" s="15" t="inlineStr">
+      <c r="AF229" s="17" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -40425,7 +40425,7 @@
           <t>571</t>
         </is>
       </c>
-      <c r="AI229" s="16" t="inlineStr">
+      <c r="AI229" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -40467,7 +40467,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="F230" s="6" t="inlineStr">
+      <c r="F230" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -40497,7 +40497,7 @@
           <t>703</t>
         </is>
       </c>
-      <c r="L230" s="8" t="inlineStr">
+      <c r="L230" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -40729,7 +40729,7 @@
           <t>758</t>
         </is>
       </c>
-      <c r="U231" s="11" t="inlineStr">
+      <c r="U231" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -40886,7 +40886,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="O232" s="9" t="inlineStr">
+      <c r="O232" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -40901,7 +40901,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="R232" s="10" t="inlineStr">
+      <c r="R232" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -40936,7 +40936,7 @@
           <t>356</t>
         </is>
       </c>
-      <c r="Y232" s="12" t="inlineStr">
+      <c r="Y232" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -41068,7 +41068,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="N233" s="9" t="inlineStr">
+      <c r="N233" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -41083,7 +41083,7 @@
           <t>709</t>
         </is>
       </c>
-      <c r="Q233" s="10" t="inlineStr">
+      <c r="Q233" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -41123,7 +41123,7 @@
           <t>161</t>
         </is>
       </c>
-      <c r="Y233" s="12" t="inlineStr">
+      <c r="Y233" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -41173,7 +41173,7 @@
           <t>680</t>
         </is>
       </c>
-      <c r="AI233" s="16" t="inlineStr">
+      <c r="AI233" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -41240,7 +41240,7 @@
           <t>772</t>
         </is>
       </c>
-      <c r="K234" s="17" t="inlineStr">
+      <c r="K234" s="8" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -41280,12 +41280,12 @@
           <t>482</t>
         </is>
       </c>
-      <c r="S234" s="10" t="inlineStr">
+      <c r="S234" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="T234" s="11" t="inlineStr">
+      <c r="T234" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -41412,7 +41412,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="H235" s="7" t="inlineStr">
+      <c r="H235" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -41437,7 +41437,7 @@
           <t>934</t>
         </is>
       </c>
-      <c r="M235" s="8" t="inlineStr">
+      <c r="M235" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -41507,7 +41507,7 @@
           <t>185</t>
         </is>
       </c>
-      <c r="AA235" s="17" t="inlineStr">
+      <c r="AA235" s="13" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -41579,7 +41579,7 @@
           <t>378</t>
         </is>
       </c>
-      <c r="D236" s="5" t="inlineStr">
+      <c r="D236" s="17" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -41659,7 +41659,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="T236" s="11" t="inlineStr">
+      <c r="T236" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -41866,7 +41866,7 @@
           <t>322</t>
         </is>
       </c>
-      <c r="X237" s="12" t="inlineStr">
+      <c r="X237" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -41891,7 +41891,7 @@
           <t>552</t>
         </is>
       </c>
-      <c r="AC237" s="14" t="inlineStr">
+      <c r="AC237" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -42210,7 +42210,7 @@
           <t>856</t>
         </is>
       </c>
-      <c r="R239" s="10" t="inlineStr">
+      <c r="R239" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -42280,7 +42280,7 @@
           <t>209</t>
         </is>
       </c>
-      <c r="AF239" s="15" t="inlineStr">
+      <c r="AF239" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -42317,7 +42317,7 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B240" s="5" t="inlineStr">
+      <c r="B240" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -42347,7 +42347,7 @@
           <t>676</t>
         </is>
       </c>
-      <c r="H240" s="7" t="inlineStr">
+      <c r="H240" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -42377,7 +42377,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="N240" s="9" t="inlineStr">
+      <c r="N240" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -42477,7 +42477,7 @@
           <t>105</t>
         </is>
       </c>
-      <c r="AH240" s="15" t="inlineStr">
+      <c r="AH240" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -42524,7 +42524,7 @@
           <t>869</t>
         </is>
       </c>
-      <c r="F241" s="6" t="inlineStr">
+      <c r="F241" s="17" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -42554,7 +42554,7 @@
           <t>771</t>
         </is>
       </c>
-      <c r="L241" s="8" t="inlineStr">
+      <c r="L241" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -42594,7 +42594,7 @@
           <t>386</t>
         </is>
       </c>
-      <c r="T241" s="17" t="inlineStr">
+      <c r="T241" s="11" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -42629,7 +42629,7 @@
           <t>175</t>
         </is>
       </c>
-      <c r="AA241" s="13" t="inlineStr">
+      <c r="AA241" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -42918,7 +42918,7 @@
           <t>355</t>
         </is>
       </c>
-      <c r="J243" s="7" t="inlineStr">
+      <c r="J243" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -42938,7 +42938,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N243" s="9" t="inlineStr">
+      <c r="N243" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -43018,7 +43018,7 @@
           <t>503</t>
         </is>
       </c>
-      <c r="AD243" s="14" t="inlineStr">
+      <c r="AD243" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -43526,7 +43526,7 @@
           <t>02</t>
         </is>
       </c>
-      <c r="B249" s="5" t="inlineStr">
+      <c r="B249" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -43763,12 +43763,12 @@
           <t>331</t>
         </is>
       </c>
-      <c r="L250" s="8" t="inlineStr">
+      <c r="L250" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
       </c>
-      <c r="M250" s="8" t="inlineStr">
+      <c r="M250" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -43803,7 +43803,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="T250" s="11" t="inlineStr">
+      <c r="T250" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -43950,7 +43950,7 @@
           <t>421</t>
         </is>
       </c>
-      <c r="L251" s="8" t="inlineStr">
+      <c r="L251" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -44065,7 +44065,7 @@
           <t>472</t>
         </is>
       </c>
-      <c r="AI251" s="16" t="inlineStr">
+      <c r="AI251" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -44197,7 +44197,7 @@
           <t>766</t>
         </is>
       </c>
-      <c r="X252" s="12" t="inlineStr">
+      <c r="X252" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -44284,7 +44284,7 @@
           <t>737</t>
         </is>
       </c>
-      <c r="D253" s="5" t="inlineStr">
+      <c r="D253" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -44399,7 +44399,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="AA253" s="13" t="inlineStr">
+      <c r="AA253" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -44419,12 +44419,12 @@
           <t>908</t>
         </is>
       </c>
-      <c r="AE253" s="14" t="inlineStr">
+      <c r="AE253" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
       </c>
-      <c r="AF253" s="15" t="inlineStr">
+      <c r="AF253" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -44491,7 +44491,7 @@
           <t>410</t>
         </is>
       </c>
-      <c r="H254" s="7" t="inlineStr">
+      <c r="H254" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -44516,7 +44516,7 @@
           <t>446</t>
         </is>
       </c>
-      <c r="M254" s="8" t="inlineStr">
+      <c r="M254" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -44718,7 +44718,7 @@
           <t>976</t>
         </is>
       </c>
-      <c r="P255" s="9" t="inlineStr">
+      <c r="P255" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -44768,7 +44768,7 @@
           <t>793</t>
         </is>
       </c>
-      <c r="Z255" s="13" t="inlineStr">
+      <c r="Z255" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -45010,7 +45010,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="AK256" s="17" t="inlineStr">
+      <c r="AK256" s="16" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -45052,7 +45052,7 @@
           <t>678</t>
         </is>
       </c>
-      <c r="H257" s="7" t="inlineStr">
+      <c r="H257" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -45157,7 +45157,7 @@
           <t>302</t>
         </is>
       </c>
-      <c r="AC257" s="14" t="inlineStr">
+      <c r="AC257" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -45304,7 +45304,7 @@
           <t>129</t>
         </is>
       </c>
-      <c r="U258" s="11" t="inlineStr">
+      <c r="U258" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -45319,7 +45319,7 @@
           <t>270</t>
         </is>
       </c>
-      <c r="X258" s="12" t="inlineStr">
+      <c r="X258" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -45401,7 +45401,7 @@
           <t>052</t>
         </is>
       </c>
-      <c r="C259" s="5" t="inlineStr">
+      <c r="C259" s="17" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -45516,7 +45516,7 @@
           <t>280</t>
         </is>
       </c>
-      <c r="Z259" s="13" t="inlineStr">
+      <c r="Z259" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -45613,7 +45613,7 @@
           <t>551</t>
         </is>
       </c>
-      <c r="H260" s="7" t="inlineStr">
+      <c r="H260" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -45678,7 +45678,7 @@
           <t>302</t>
         </is>
       </c>
-      <c r="U260" s="11" t="inlineStr">
+      <c r="U260" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -45713,7 +45713,7 @@
           <t>693</t>
         </is>
       </c>
-      <c r="AB260" s="13" t="inlineStr">
+      <c r="AB260" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -45805,7 +45805,7 @@
           <t>666</t>
         </is>
       </c>
-      <c r="I261" s="7" t="inlineStr">
+      <c r="I261" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -46092,7 +46092,7 @@
           <t>035</t>
         </is>
       </c>
-      <c r="AC262" s="14" t="inlineStr">
+      <c r="AC262" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -46254,7 +46254,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="X263" s="12" t="inlineStr">
+      <c r="X263" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -46284,7 +46284,7 @@
           <t>982</t>
         </is>
       </c>
-      <c r="AD263" s="14" t="inlineStr">
+      <c r="AD263" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -46356,7 +46356,7 @@
           <t>624</t>
         </is>
       </c>
-      <c r="G264" s="6" t="inlineStr">
+      <c r="G264" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -46441,7 +46441,7 @@
           <t>572</t>
         </is>
       </c>
-      <c r="X264" s="12" t="inlineStr">
+      <c r="X264" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -46481,7 +46481,7 @@
           <t>923</t>
         </is>
       </c>
-      <c r="AF264" s="15" t="inlineStr">
+      <c r="AF264" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -46528,7 +46528,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="D265" s="5" t="inlineStr">
+      <c r="D265" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -46553,7 +46553,7 @@
           <t>876</t>
         </is>
       </c>
-      <c r="I265" s="7" t="inlineStr">
+      <c r="I265" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -46613,7 +46613,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="U265" s="11" t="inlineStr">
+      <c r="U265" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -46740,7 +46740,7 @@
           <t>943</t>
         </is>
       </c>
-      <c r="I266" s="7" t="inlineStr">
+      <c r="I266" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -46760,7 +46760,7 @@
           <t>088</t>
         </is>
       </c>
-      <c r="M266" s="17" t="inlineStr">
+      <c r="M266" s="8" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -46790,7 +46790,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="S266" s="10" t="inlineStr">
+      <c r="S266" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -47159,7 +47159,7 @@
           <t>596</t>
         </is>
       </c>
-      <c r="R268" s="10" t="inlineStr">
+      <c r="R268" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -47224,7 +47224,7 @@
           <t>573</t>
         </is>
       </c>
-      <c r="AE268" s="14" t="inlineStr">
+      <c r="AE268" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -47543,7 +47543,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="T270" s="11" t="inlineStr">
+      <c r="T270" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -47618,7 +47618,7 @@
           <t>570</t>
         </is>
       </c>
-      <c r="AI270" s="16" t="inlineStr">
+      <c r="AI270" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -47695,7 +47695,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="M271" s="8" t="inlineStr">
+      <c r="M271" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -47912,7 +47912,7 @@
           <t>723</t>
         </is>
       </c>
-      <c r="S272" s="10" t="inlineStr">
+      <c r="S272" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -48019,7 +48019,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="C273" s="5" t="inlineStr">
+      <c r="C273" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -48119,7 +48119,7 @@
           <t>915</t>
         </is>
       </c>
-      <c r="W273" s="12" t="inlineStr">
+      <c r="W273" s="17" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -48251,7 +48251,7 @@
           <t>639</t>
         </is>
       </c>
-      <c r="L274" s="8" t="inlineStr">
+      <c r="L274" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -48286,7 +48286,7 @@
           <t>443</t>
         </is>
       </c>
-      <c r="S274" s="10" t="inlineStr">
+      <c r="S274" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -48366,7 +48366,7 @@
           <t>744</t>
         </is>
       </c>
-      <c r="AI274" s="16" t="inlineStr">
+      <c r="AI274" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -48655,7 +48655,7 @@
           <t>696</t>
         </is>
       </c>
-      <c r="R276" s="17" t="inlineStr">
+      <c r="R276" s="10" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -48685,7 +48685,7 @@
           <t>503</t>
         </is>
       </c>
-      <c r="X276" s="12" t="inlineStr">
+      <c r="X276" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -48740,7 +48740,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="AI276" s="16" t="inlineStr">
+      <c r="AI276" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -48772,7 +48772,7 @@
           <t>976</t>
         </is>
       </c>
-      <c r="D277" s="5" t="inlineStr">
+      <c r="D277" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -48872,7 +48872,7 @@
           <t>604</t>
         </is>
       </c>
-      <c r="X277" s="12" t="inlineStr">
+      <c r="X277" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -48882,7 +48882,7 @@
           <t>514</t>
         </is>
       </c>
-      <c r="Z277" s="17" t="inlineStr">
+      <c r="Z277" s="13" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -49044,7 +49044,7 @@
           <t>950</t>
         </is>
       </c>
-      <c r="U278" s="11" t="inlineStr">
+      <c r="U278" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -49727,7 +49727,7 @@
           <t>804</t>
         </is>
       </c>
-      <c r="AB284" s="17" t="inlineStr">
+      <c r="AB284" s="13" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -49762,7 +49762,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="AI284" s="16" t="inlineStr">
+      <c r="AI284" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -49794,7 +49794,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="D285" s="5" t="inlineStr">
+      <c r="D285" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -49909,7 +49909,7 @@
           <t>150</t>
         </is>
       </c>
-      <c r="AA285" s="13" t="inlineStr">
+      <c r="AA285" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -50001,7 +50001,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="H286" s="7" t="inlineStr">
+      <c r="H286" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -50011,7 +50011,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="J286" s="7" t="inlineStr">
+      <c r="J286" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -50116,7 +50116,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="AE286" s="14" t="inlineStr">
+      <c r="AE286" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -50375,7 +50375,7 @@
           <t>676</t>
         </is>
       </c>
-      <c r="H288" s="7" t="inlineStr">
+      <c r="H288" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -50460,7 +50460,7 @@
           <t>865</t>
         </is>
       </c>
-      <c r="Y288" s="17" t="inlineStr">
+      <c r="Y288" s="12" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -50485,7 +50485,7 @@
           <t>573</t>
         </is>
       </c>
-      <c r="AD288" s="14" t="inlineStr">
+      <c r="AD288" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -50724,7 +50724,7 @@
           <t>215</t>
         </is>
       </c>
-      <c r="C290" s="5" t="inlineStr">
+      <c r="C290" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -50744,7 +50744,7 @@
           <t>200</t>
         </is>
       </c>
-      <c r="G290" s="6" t="inlineStr">
+      <c r="G290" s="17" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -50874,7 +50874,7 @@
           <t>344</t>
         </is>
       </c>
-      <c r="AG290" s="17" t="inlineStr">
+      <c r="AG290" s="15" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -50931,7 +50931,7 @@
           <t>407</t>
         </is>
       </c>
-      <c r="G291" s="6" t="inlineStr">
+      <c r="G291" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -51133,7 +51133,7 @@
           <t>756</t>
         </is>
       </c>
-      <c r="J292" s="7" t="inlineStr">
+      <c r="J292" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -51198,7 +51198,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="W292" s="12" t="inlineStr">
+      <c r="W292" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -51734,7 +51734,7 @@
           <t>081</t>
         </is>
       </c>
-      <c r="R295" s="10" t="inlineStr">
+      <c r="R295" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -51759,7 +51759,7 @@
           <t>944</t>
         </is>
       </c>
-      <c r="W295" s="12" t="inlineStr">
+      <c r="W295" s="17" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -51789,7 +51789,7 @@
           <t>742</t>
         </is>
       </c>
-      <c r="AC295" s="14" t="inlineStr">
+      <c r="AC295" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -51966,7 +51966,7 @@
           <t>958</t>
         </is>
       </c>
-      <c r="AA296" s="13" t="inlineStr">
+      <c r="AA296" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -52078,7 +52078,7 @@
           <t>755</t>
         </is>
       </c>
-      <c r="L297" s="8" t="inlineStr">
+      <c r="L297" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -52270,7 +52270,7 @@
           <t>011</t>
         </is>
       </c>
-      <c r="M298" s="17" t="inlineStr">
+      <c r="M298" s="8" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -52295,7 +52295,7 @@
           <t>921</t>
         </is>
       </c>
-      <c r="R298" s="10" t="inlineStr">
+      <c r="R298" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -52380,7 +52380,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="AI298" s="16" t="inlineStr">
+      <c r="AI298" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -52417,7 +52417,7 @@
           <t>936</t>
         </is>
       </c>
-      <c r="E299" s="6" t="inlineStr">
+      <c r="E299" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -52542,7 +52542,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="AD299" s="14" t="inlineStr">
+      <c r="AD299" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -52649,7 +52649,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N300" s="9" t="inlineStr">
+      <c r="N300" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -52816,7 +52816,7 @@
           <t>097</t>
         </is>
       </c>
-      <c r="J301" s="7" t="inlineStr">
+      <c r="J301" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -53083,12 +53083,12 @@
           <t>291</t>
         </is>
       </c>
-      <c r="Z302" s="13" t="inlineStr">
+      <c r="Z302" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
       </c>
-      <c r="AA302" s="17" t="inlineStr">
+      <c r="AA302" s="13" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -53108,7 +53108,7 @@
           <t>629</t>
         </is>
       </c>
-      <c r="AE302" s="14" t="inlineStr">
+      <c r="AE302" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -53175,7 +53175,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="G303" s="6" t="inlineStr">
+      <c r="G303" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -53215,12 +53215,12 @@
           <t>062</t>
         </is>
       </c>
-      <c r="O303" s="9" t="inlineStr">
+      <c r="O303" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
       </c>
-      <c r="P303" s="9" t="inlineStr">
+      <c r="P303" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -53320,7 +53320,7 @@
           <t>581</t>
         </is>
       </c>
-      <c r="AJ303" s="16" t="inlineStr">
+      <c r="AJ303" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -53342,7 +53342,7 @@
           <t>047</t>
         </is>
       </c>
-      <c r="C304" s="5" t="inlineStr">
+      <c r="C304" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -53402,7 +53402,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="O304" s="9" t="inlineStr">
+      <c r="O304" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -53564,7 +53564,7 @@
           <t>912</t>
         </is>
       </c>
-      <c r="J305" s="7" t="inlineStr">
+      <c r="J305" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -53609,7 +53609,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="S305" s="10" t="inlineStr">
+      <c r="S305" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -53791,7 +53791,7 @@
           <t>264</t>
         </is>
       </c>
-      <c r="R306" s="10" t="inlineStr">
+      <c r="R306" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -53876,7 +53876,7 @@
           <t>230</t>
         </is>
       </c>
-      <c r="AI306" s="16" t="inlineStr">
+      <c r="AI306" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -53918,7 +53918,7 @@
           <t>969</t>
         </is>
       </c>
-      <c r="F307" s="6" t="inlineStr">
+      <c r="F307" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -54058,7 +54058,7 @@
           <t>842</t>
         </is>
       </c>
-      <c r="AH307" s="15" t="inlineStr">
+      <c r="AH307" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -54691,7 +54691,7 @@
           <t>429</t>
         </is>
       </c>
-      <c r="K311" s="8" t="inlineStr">
+      <c r="K311" s="17" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -54731,7 +54731,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="S311" s="10" t="inlineStr">
+      <c r="S311" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -54766,7 +54766,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="Z311" s="17" t="inlineStr">
+      <c r="Z311" s="13" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -54908,7 +54908,7 @@
           <t>269</t>
         </is>
       </c>
-      <c r="Q312" s="10" t="inlineStr">
+      <c r="Q312" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -54983,7 +54983,7 @@
           <t>527</t>
         </is>
       </c>
-      <c r="AF312" s="15" t="inlineStr">
+      <c r="AF312" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -55080,7 +55080,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N313" s="9" t="inlineStr">
+      <c r="N313" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -55130,7 +55130,7 @@
           <t>526</t>
         </is>
       </c>
-      <c r="X313" s="12" t="inlineStr">
+      <c r="X313" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -55571,7 +55571,7 @@
           <t>715</t>
         </is>
       </c>
-      <c r="T318" s="11" t="inlineStr">
+      <c r="T318" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -55631,7 +55631,7 @@
           <t>028</t>
         </is>
       </c>
-      <c r="AF318" s="15" t="inlineStr">
+      <c r="AF318" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -55678,7 +55678,7 @@
           <t>229</t>
         </is>
       </c>
-      <c r="D319" s="5" t="inlineStr">
+      <c r="D319" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -55875,7 +55875,7 @@
           <t>685</t>
         </is>
       </c>
-      <c r="F320" s="6" t="inlineStr">
+      <c r="F320" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -55895,7 +55895,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="J320" s="7" t="inlineStr">
+      <c r="J320" s="17" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -55940,7 +55940,7 @@
           <t>008</t>
         </is>
       </c>
-      <c r="S320" s="10" t="inlineStr">
+      <c r="S320" s="17" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -55985,7 +55985,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AB320" s="13" t="inlineStr">
+      <c r="AB320" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -56057,12 +56057,12 @@
           <t>399</t>
         </is>
       </c>
-      <c r="E321" s="17" t="inlineStr">
+      <c r="E321" s="6" t="inlineStr">
         <is>
           <t>927</t>
         </is>
       </c>
-      <c r="F321" s="6" t="inlineStr">
+      <c r="F321" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -56249,7 +56249,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="F322" s="6" t="inlineStr">
+      <c r="F322" s="17" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -56431,7 +56431,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="E323" s="17" t="inlineStr">
+      <c r="E323" s="6" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -56441,7 +56441,7 @@
           <t>070</t>
         </is>
       </c>
-      <c r="G323" s="17" t="inlineStr">
+      <c r="G323" s="6" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -56481,7 +56481,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="O323" s="9" t="inlineStr">
+      <c r="O323" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -56638,7 +56638,7 @@
           <t>779</t>
         </is>
       </c>
-      <c r="I324" s="7" t="inlineStr">
+      <c r="I324" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -56748,7 +56748,7 @@
           <t>819</t>
         </is>
       </c>
-      <c r="AE324" s="14" t="inlineStr">
+      <c r="AE324" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -56890,7 +56890,7 @@
           <t>459</t>
         </is>
       </c>
-      <c r="V325" s="11" t="inlineStr">
+      <c r="V325" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -56900,7 +56900,7 @@
           <t>737</t>
         </is>
       </c>
-      <c r="X325" s="12" t="inlineStr">
+      <c r="X325" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -56925,7 +56925,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="AC325" s="14" t="inlineStr">
+      <c r="AC325" s="17" t="inlineStr">
         <is>
           <t>843</t>
         </is>
@@ -56977,7 +56977,7 @@
           <t>09</t>
         </is>
       </c>
-      <c r="B326" s="5" t="inlineStr">
+      <c r="B326" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -57087,7 +57087,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="X326" s="12" t="inlineStr">
+      <c r="X326" s="17" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -57234,7 +57234,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="P327" s="9" t="inlineStr">
+      <c r="P327" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -57406,7 +57406,7 @@
           <t>192</t>
         </is>
       </c>
-      <c r="M328" s="8" t="inlineStr">
+      <c r="M328" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -57471,7 +57471,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="Z328" s="13" t="inlineStr">
+      <c r="Z328" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -57563,7 +57563,7 @@
           <t>526</t>
         </is>
       </c>
-      <c r="G329" s="6" t="inlineStr">
+      <c r="G329" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -57578,7 +57578,7 @@
           <t>453</t>
         </is>
       </c>
-      <c r="J329" s="7" t="inlineStr">
+      <c r="J329" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -57648,7 +57648,7 @@
           <t>839</t>
         </is>
       </c>
-      <c r="X329" s="12" t="inlineStr">
+      <c r="X329" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -57755,7 +57755,7 @@
           <t>178</t>
         </is>
       </c>
-      <c r="H330" s="7" t="inlineStr">
+      <c r="H330" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -57977,7 +57977,7 @@
           <t>216</t>
         </is>
       </c>
-      <c r="O331" s="9" t="inlineStr">
+      <c r="O331" s="17" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -58082,7 +58082,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="AJ331" s="16" t="inlineStr">
+      <c r="AJ331" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -58099,7 +58099,7 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B332" s="5" t="inlineStr">
+      <c r="B332" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -58224,7 +58224,7 @@
           <t>885</t>
         </is>
       </c>
-      <c r="AA332" s="13" t="inlineStr">
+      <c r="AA332" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -58249,7 +58249,7 @@
           <t>214</t>
         </is>
       </c>
-      <c r="AF332" s="15" t="inlineStr">
+      <c r="AF332" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -58274,7 +58274,7 @@
           <t>888</t>
         </is>
       </c>
-      <c r="AK332" s="16" t="inlineStr">
+      <c r="AK332" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -58331,7 +58331,7 @@
           <t>894</t>
         </is>
       </c>
-      <c r="K333" s="8" t="inlineStr">
+      <c r="K333" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -58341,7 +58341,7 @@
           <t>396</t>
         </is>
       </c>
-      <c r="M333" s="8" t="inlineStr">
+      <c r="M333" s="17" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -58411,7 +58411,7 @@
           <t>093</t>
         </is>
       </c>
-      <c r="AA333" s="13" t="inlineStr">
+      <c r="AA333" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -58613,7 +58613,7 @@
           <t>827</t>
         </is>
       </c>
-      <c r="AD334" s="14" t="inlineStr">
+      <c r="AD334" s="17" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -58633,7 +58633,7 @@
           <t>606</t>
         </is>
       </c>
-      <c r="AH334" s="15" t="inlineStr">
+      <c r="AH334" s="17" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -58770,7 +58770,7 @@
           <t>804</t>
         </is>
       </c>
-      <c r="X335" s="17" t="inlineStr">
+      <c r="X335" s="12" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -59109,7 +59109,7 @@
           <t>105</t>
         </is>
       </c>
-      <c r="Q337" s="17" t="inlineStr">
+      <c r="Q337" s="10" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -59124,7 +59124,7 @@
           <t>118</t>
         </is>
       </c>
-      <c r="T337" s="11" t="inlineStr">
+      <c r="T337" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -59164,7 +59164,7 @@
           <t>246</t>
         </is>
       </c>
-      <c r="AB337" s="13" t="inlineStr">
+      <c r="AB337" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -59221,7 +59221,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B338" s="5" t="inlineStr">
+      <c r="B338" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -59291,7 +59291,7 @@
           <t>953</t>
         </is>
       </c>
-      <c r="P338" s="9" t="inlineStr">
+      <c r="P338" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -59418,7 +59418,7 @@
           <t>831</t>
         </is>
       </c>
-      <c r="D339" s="5" t="inlineStr">
+      <c r="D339" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -59655,7 +59655,7 @@
           <t>772</t>
         </is>
       </c>
-      <c r="N340" s="9" t="inlineStr">
+      <c r="N340" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -59782,7 +59782,7 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B341" s="5" t="inlineStr">
+      <c r="B341" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -59837,7 +59837,7 @@
           <t>930</t>
         </is>
       </c>
-      <c r="M341" s="8" t="inlineStr">
+      <c r="M341" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -59852,7 +59852,7 @@
           <t>171</t>
         </is>
       </c>
-      <c r="P341" s="17" t="inlineStr">
+      <c r="P341" s="9" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -59882,7 +59882,7 @@
           <t>766</t>
         </is>
       </c>
-      <c r="V341" s="11" t="inlineStr">
+      <c r="V341" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -59917,7 +59917,7 @@
           <t>123</t>
         </is>
       </c>
-      <c r="AC341" s="14" t="inlineStr">
+      <c r="AC341" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -59979,7 +59979,7 @@
           <t>937</t>
         </is>
       </c>
-      <c r="D342" s="17" t="inlineStr">
+      <c r="D342" s="5" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -60114,7 +60114,7 @@
           <t>257</t>
         </is>
       </c>
-      <c r="AE342" s="14" t="inlineStr">
+      <c r="AE342" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -60216,7 +60216,7 @@
           <t>892</t>
         </is>
       </c>
-      <c r="N343" s="9" t="inlineStr">
+      <c r="N343" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -60301,7 +60301,7 @@
           <t>270</t>
         </is>
       </c>
-      <c r="AE343" s="14" t="inlineStr">
+      <c r="AE343" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -60348,7 +60348,7 @@
           <t>106</t>
         </is>
       </c>
-      <c r="C344" s="5" t="inlineStr">
+      <c r="C344" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -60383,7 +60383,7 @@
           <t>880</t>
         </is>
       </c>
-      <c r="J344" s="7" t="inlineStr">
+      <c r="J344" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -60433,7 +60433,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="T344" s="11" t="inlineStr">
+      <c r="T344" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -60493,7 +60493,7 @@
           <t>732</t>
         </is>
       </c>
-      <c r="AF344" s="15" t="inlineStr">
+      <c r="AF344" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -60585,7 +60585,7 @@
           <t>844</t>
         </is>
       </c>
-      <c r="M345" s="8" t="inlineStr">
+      <c r="M345" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -60680,7 +60680,7 @@
           <t>569</t>
         </is>
       </c>
-      <c r="AF345" s="15" t="inlineStr">
+      <c r="AF345" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -60717,7 +60717,7 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B346" s="5" t="inlineStr">
+      <c r="B346" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -60837,7 +60837,7 @@
           <t>034</t>
         </is>
       </c>
-      <c r="Z346" s="13" t="inlineStr">
+      <c r="Z346" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -60872,7 +60872,7 @@
           <t>626</t>
         </is>
       </c>
-      <c r="AG346" s="15" t="inlineStr">
+      <c r="AG346" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -60934,7 +60934,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H347" s="7" t="inlineStr">
+      <c r="H347" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -60944,7 +60944,7 @@
           <t>712</t>
         </is>
       </c>
-      <c r="J347" s="17" t="inlineStr">
+      <c r="J347" s="7" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -61069,7 +61069,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="AI347" s="16" t="inlineStr">
+      <c r="AI347" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -61156,7 +61156,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="O348" s="17" t="inlineStr">
+      <c r="O348" s="9" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -61261,7 +61261,7 @@
           <t>857</t>
         </is>
       </c>
-      <c r="AJ348" s="16" t="inlineStr">
+      <c r="AJ348" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -61597,7 +61597,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="K353" s="8" t="inlineStr">
+      <c r="K353" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -61647,7 +61647,7 @@
           <t>629</t>
         </is>
       </c>
-      <c r="U353" s="11" t="inlineStr">
+      <c r="U353" s="17" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -61759,7 +61759,7 @@
           <t>944</t>
         </is>
       </c>
-      <c r="F354" s="6" t="inlineStr">
+      <c r="F354" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -62046,7 +62046,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="Z355" s="13" t="inlineStr">
+      <c r="Z355" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -62071,7 +62071,7 @@
           <t>237</t>
         </is>
       </c>
-      <c r="AE355" s="17" t="inlineStr">
+      <c r="AE355" s="14" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -62218,7 +62218,7 @@
           <t>735</t>
         </is>
       </c>
-      <c r="W356" s="12" t="inlineStr">
+      <c r="W356" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -62415,7 +62415,7 @@
           <t>199</t>
         </is>
       </c>
-      <c r="Y357" s="12" t="inlineStr">
+      <c r="Y357" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -62714,7 +62714,7 @@
           <t>451</t>
         </is>
       </c>
-      <c r="J359" s="7" t="inlineStr">
+      <c r="J359" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -62824,7 +62824,7 @@
           <t>130</t>
         </is>
       </c>
-      <c r="AF359" s="15" t="inlineStr">
+      <c r="AF359" s="17" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -62871,7 +62871,7 @@
           <t>631</t>
         </is>
       </c>
-      <c r="D360" s="5" t="inlineStr">
+      <c r="D360" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -63011,7 +63011,7 @@
           <t>767</t>
         </is>
       </c>
-      <c r="AF360" s="15" t="inlineStr">
+      <c r="AF360" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -63208,7 +63208,7 @@
           <t>161</t>
         </is>
       </c>
-      <c r="AH361" s="15" t="inlineStr">
+      <c r="AH361" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -63325,7 +63325,7 @@
           <t>067</t>
         </is>
       </c>
-      <c r="T362" s="11" t="inlineStr">
+      <c r="T362" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -63422,12 +63422,12 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B363" s="5" t="inlineStr">
+      <c r="B363" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
       </c>
-      <c r="C363" s="5" t="inlineStr">
+      <c r="C363" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -63442,7 +63442,7 @@
           <t>533</t>
         </is>
       </c>
-      <c r="F363" s="17" t="inlineStr">
+      <c r="F363" s="6" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -63527,7 +63527,7 @@
           <t>541</t>
         </is>
       </c>
-      <c r="W363" s="12" t="inlineStr">
+      <c r="W363" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -63552,7 +63552,7 @@
           <t>283</t>
         </is>
       </c>
-      <c r="AB363" s="13" t="inlineStr">
+      <c r="AB363" s="17" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -63572,7 +63572,7 @@
           <t>019</t>
         </is>
       </c>
-      <c r="AF363" s="15" t="inlineStr">
+      <c r="AF363" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -63764,7 +63764,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="AG364" s="17" t="inlineStr">
+      <c r="AG364" s="15" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -63801,7 +63801,7 @@
           <t>353</t>
         </is>
       </c>
-      <c r="C365" s="5" t="inlineStr">
+      <c r="C365" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -63811,7 +63811,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="E365" s="6" t="inlineStr">
+      <c r="E365" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -63881,7 +63881,7 @@
           <t>916</t>
         </is>
       </c>
-      <c r="S365" s="10" t="inlineStr">
+      <c r="S365" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -63891,7 +63891,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="U365" s="11" t="inlineStr">
+      <c r="U365" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -63926,7 +63926,7 @@
           <t>480</t>
         </is>
       </c>
-      <c r="AB365" s="17" t="inlineStr">
+      <c r="AB365" s="13" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -64018,12 +64018,12 @@
           <t>195</t>
         </is>
       </c>
-      <c r="I366" s="7" t="inlineStr">
+      <c r="I366" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="J366" s="7" t="inlineStr">
+      <c r="J366" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -64038,7 +64038,7 @@
           <t>766</t>
         </is>
       </c>
-      <c r="M366" s="8" t="inlineStr">
+      <c r="M366" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -64275,7 +64275,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="W367" s="12" t="inlineStr">
+      <c r="W367" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -64397,7 +64397,7 @@
           <t>506</t>
         </is>
       </c>
-      <c r="J368" s="7" t="inlineStr">
+      <c r="J368" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -64412,7 +64412,7 @@
           <t>587</t>
         </is>
       </c>
-      <c r="M368" s="8" t="inlineStr">
+      <c r="M368" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -64594,7 +64594,7 @@
           <t>540</t>
         </is>
       </c>
-      <c r="L369" s="8" t="inlineStr">
+      <c r="L369" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -64609,7 +64609,7 @@
           <t>803</t>
         </is>
       </c>
-      <c r="O369" s="17" t="inlineStr">
+      <c r="O369" s="9" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -64694,7 +64694,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="AF369" s="15" t="inlineStr">
+      <c r="AF369" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -64741,7 +64741,7 @@
           <t>020</t>
         </is>
       </c>
-      <c r="D370" s="5" t="inlineStr">
+      <c r="D370" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -64816,7 +64816,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="S370" s="10" t="inlineStr">
+      <c r="S370" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -64918,12 +64918,12 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B371" s="5" t="inlineStr">
+      <c r="B371" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
       </c>
-      <c r="C371" s="5" t="inlineStr">
+      <c r="C371" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -64933,7 +64933,7 @@
           <t>769</t>
         </is>
       </c>
-      <c r="E371" s="6" t="inlineStr">
+      <c r="E371" s="17" t="inlineStr">
         <is>
           <t>843</t>
         </is>
@@ -65110,7 +65110,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="C372" s="5" t="inlineStr">
+      <c r="C372" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -65140,7 +65140,7 @@
           <t>463</t>
         </is>
       </c>
-      <c r="I372" s="7" t="inlineStr">
+      <c r="I372" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -65225,7 +65225,7 @@
           <t>013</t>
         </is>
       </c>
-      <c r="Z372" s="13" t="inlineStr">
+      <c r="Z372" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -65332,7 +65332,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="J373" s="7" t="inlineStr">
+      <c r="J373" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -65427,7 +65427,7 @@
           <t>072</t>
         </is>
       </c>
-      <c r="AC373" s="14" t="inlineStr">
+      <c r="AC373" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -65529,7 +65529,7 @@
           <t>778</t>
         </is>
       </c>
-      <c r="L374" s="8" t="inlineStr">
+      <c r="L374" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -65544,7 +65544,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="O374" s="9" t="inlineStr">
+      <c r="O374" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -65569,7 +65569,7 @@
           <t>349</t>
         </is>
       </c>
-      <c r="T374" s="11" t="inlineStr">
+      <c r="T374" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -65746,7 +65746,7 @@
           <t>887</t>
         </is>
       </c>
-      <c r="R375" s="10" t="inlineStr">
+      <c r="R375" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -65831,7 +65831,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="AI375" s="16" t="inlineStr">
+      <c r="AI375" s="17" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -65863,7 +65863,7 @@
           <t>105</t>
         </is>
       </c>
-      <c r="D376" s="5" t="inlineStr">
+      <c r="D376" s="17" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -65938,7 +65938,7 @@
           <t>468</t>
         </is>
       </c>
-      <c r="S376" s="10" t="inlineStr">
+      <c r="S376" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -65998,7 +65998,7 @@
           <t>806</t>
         </is>
       </c>
-      <c r="AE376" s="14" t="inlineStr">
+      <c r="AE376" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -66499,7 +66499,7 @@
           <t>404</t>
         </is>
       </c>
-      <c r="S379" s="10" t="inlineStr">
+      <c r="S379" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -66771,7 +66771,7 @@
           <t>824</t>
         </is>
       </c>
-      <c r="AJ380" s="16" t="inlineStr">
+      <c r="AJ380" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -66793,7 +66793,7 @@
           <t>987</t>
         </is>
       </c>
-      <c r="C381" s="5" t="inlineStr">
+      <c r="C381" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -67045,12 +67045,12 @@
           <t>610</t>
         </is>
       </c>
-      <c r="P382" s="9" t="inlineStr">
+      <c r="P382" s="17" t="inlineStr">
         <is>
           <t>326</t>
         </is>
       </c>
-      <c r="Q382" s="10" t="inlineStr">
+      <c r="Q382" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -67115,7 +67115,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="AD382" s="14" t="inlineStr">
+      <c r="AD382" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -67150,7 +67150,7 @@
           <t>905</t>
         </is>
       </c>
-      <c r="AK382" s="16" t="inlineStr">
+      <c r="AK382" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -67167,7 +67167,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="C383" s="17" t="inlineStr">
+      <c r="C383" s="5" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -67222,12 +67222,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N383" s="9" t="inlineStr">
+      <c r="N383" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
       </c>
-      <c r="O383" s="17" t="inlineStr">
+      <c r="O383" s="9" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -67277,7 +67277,7 @@
           <t>817</t>
         </is>
       </c>
-      <c r="Y383" s="17" t="inlineStr">
+      <c r="Y383" s="12" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -67643,7 +67643,7 @@
           <t>251</t>
         </is>
       </c>
-      <c r="F388" s="6" t="inlineStr">
+      <c r="F388" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -67663,12 +67663,12 @@
           <t>837</t>
         </is>
       </c>
-      <c r="J388" s="7" t="inlineStr">
+      <c r="J388" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="K388" s="8" t="inlineStr">
+      <c r="K388" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -67683,7 +67683,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="N388" s="9" t="inlineStr">
+      <c r="N388" s="17" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -67748,12 +67748,12 @@
           <t>896</t>
         </is>
       </c>
-      <c r="AA388" s="17" t="inlineStr">
+      <c r="AA388" s="13" t="inlineStr">
         <is>
           <t>792</t>
         </is>
       </c>
-      <c r="AB388" s="13" t="inlineStr">
+      <c r="AB388" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -67768,7 +67768,7 @@
           <t>281</t>
         </is>
       </c>
-      <c r="AE388" s="14" t="inlineStr">
+      <c r="AE388" s="17" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -67860,7 +67860,7 @@
           <t>003</t>
         </is>
       </c>
-      <c r="L389" s="8" t="inlineStr">
+      <c r="L389" s="17" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -67885,12 +67885,12 @@
           <t>113</t>
         </is>
       </c>
-      <c r="Q389" s="10" t="inlineStr">
+      <c r="Q389" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
       </c>
-      <c r="R389" s="10" t="inlineStr">
+      <c r="R389" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -68022,7 +68022,7 @@
           <t>351</t>
         </is>
       </c>
-      <c r="G390" s="6" t="inlineStr">
+      <c r="G390" s="17" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -68072,7 +68072,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="Q390" s="10" t="inlineStr">
+      <c r="Q390" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -68406,7 +68406,7 @@
           <t>828</t>
         </is>
       </c>
-      <c r="I392" s="7" t="inlineStr">
+      <c r="I392" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -68466,7 +68466,7 @@
           <t>565</t>
         </is>
       </c>
-      <c r="U392" s="11" t="inlineStr">
+      <c r="U392" s="17" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -68623,7 +68623,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="O393" s="9" t="inlineStr">
+      <c r="O393" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -68643,7 +68643,7 @@
           <t>574</t>
         </is>
       </c>
-      <c r="S393" s="10" t="inlineStr">
+      <c r="S393" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -68688,7 +68688,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AB393" s="13" t="inlineStr">
+      <c r="AB393" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -68723,7 +68723,7 @@
           <t>219</t>
         </is>
       </c>
-      <c r="AI393" s="16" t="inlineStr">
+      <c r="AI393" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -68745,7 +68745,7 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B394" s="5" t="inlineStr">
+      <c r="B394" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -68765,7 +68765,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="F394" s="6" t="inlineStr">
+      <c r="F394" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -68850,7 +68850,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="W394" s="12" t="inlineStr">
+      <c r="W394" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -68900,7 +68900,7 @@
           <t>732</t>
         </is>
       </c>
-      <c r="AG394" s="17" t="inlineStr">
+      <c r="AG394" s="15" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -69174,7 +69174,7 @@
           <t>029</t>
         </is>
       </c>
-      <c r="M396" s="8" t="inlineStr">
+      <c r="M396" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -69239,7 +69239,7 @@
           <t>738</t>
         </is>
       </c>
-      <c r="Z396" s="13" t="inlineStr">
+      <c r="Z396" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -69294,7 +69294,7 @@
           <t>788</t>
         </is>
       </c>
-      <c r="AK396" s="16" t="inlineStr">
+      <c r="AK396" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -69311,7 +69311,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="C397" s="5" t="inlineStr">
+      <c r="C397" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -69341,7 +69341,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="I397" s="7" t="inlineStr">
+      <c r="I397" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -69608,7 +69608,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="Y398" s="12" t="inlineStr">
+      <c r="Y398" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -69685,7 +69685,7 @@
           <t>381</t>
         </is>
       </c>
-      <c r="C399" s="5" t="inlineStr">
+      <c r="C399" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -69805,7 +69805,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="AA399" s="13" t="inlineStr">
+      <c r="AA399" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -69820,7 +69820,7 @@
           <t>272</t>
         </is>
       </c>
-      <c r="AD399" s="14" t="inlineStr">
+      <c r="AD399" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -69830,7 +69830,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="AF399" s="15" t="inlineStr">
+      <c r="AF399" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -69840,7 +69840,7 @@
           <t>301</t>
         </is>
       </c>
-      <c r="AH399" s="15" t="inlineStr">
+      <c r="AH399" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -69902,7 +69902,7 @@
           <t>269</t>
         </is>
       </c>
-      <c r="I400" s="7" t="inlineStr">
+      <c r="I400" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -69932,7 +69932,7 @@
           <t>382</t>
         </is>
       </c>
-      <c r="O400" s="9" t="inlineStr">
+      <c r="O400" s="17" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -70054,7 +70054,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B401" s="5" t="inlineStr">
+      <c r="B401" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -70089,7 +70089,7 @@
           <t>598</t>
         </is>
       </c>
-      <c r="I401" s="7" t="inlineStr">
+      <c r="I401" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -70174,7 +70174,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="Z401" s="13" t="inlineStr">
+      <c r="Z401" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -70184,7 +70184,7 @@
           <t>968</t>
         </is>
       </c>
-      <c r="AB401" s="13" t="inlineStr">
+      <c r="AB401" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -70433,7 +70433,7 @@
           <t>946</t>
         </is>
       </c>
-      <c r="C403" s="5" t="inlineStr">
+      <c r="C403" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -70443,7 +70443,7 @@
           <t>192</t>
         </is>
       </c>
-      <c r="E403" s="6" t="inlineStr">
+      <c r="E403" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -70493,7 +70493,7 @@
           <t>895</t>
         </is>
       </c>
-      <c r="O403" s="9" t="inlineStr">
+      <c r="O403" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -70513,7 +70513,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="S403" s="10" t="inlineStr">
+      <c r="S403" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -70528,12 +70528,12 @@
           <t>138</t>
         </is>
       </c>
-      <c r="V403" s="17" t="inlineStr">
+      <c r="V403" s="11" t="inlineStr">
         <is>
           <t>729</t>
         </is>
       </c>
-      <c r="W403" s="12" t="inlineStr">
+      <c r="W403" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -70593,7 +70593,7 @@
           <t>398</t>
         </is>
       </c>
-      <c r="AI403" s="16" t="inlineStr">
+      <c r="AI403" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -70615,7 +70615,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B404" s="5" t="inlineStr">
+      <c r="B404" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -70725,7 +70725,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="X404" s="12" t="inlineStr">
+      <c r="X404" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -71266,7 +71266,7 @@
           <t>088</t>
         </is>
       </c>
-      <c r="T407" s="11" t="inlineStr">
+      <c r="T407" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -71296,7 +71296,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="Z407" s="17" t="inlineStr">
+      <c r="Z407" s="13" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -71351,7 +71351,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="AK407" s="16" t="inlineStr">
+      <c r="AK407" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -71363,7 +71363,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B408" s="5" t="inlineStr">
+      <c r="B408" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -71428,7 +71428,7 @@
           <t>979</t>
         </is>
       </c>
-      <c r="O408" s="9" t="inlineStr">
+      <c r="O408" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -71513,7 +71513,7 @@
           <t>238</t>
         </is>
       </c>
-      <c r="AF408" s="15" t="inlineStr">
+      <c r="AF408" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -71533,7 +71533,7 @@
           <t>822</t>
         </is>
       </c>
-      <c r="AJ408" s="16" t="inlineStr">
+      <c r="AJ408" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -71747,7 +71747,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="D410" s="5" t="inlineStr">
+      <c r="D410" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -71812,7 +71812,7 @@
           <t>053</t>
         </is>
       </c>
-      <c r="Q410" s="10" t="inlineStr">
+      <c r="Q410" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -71999,7 +71999,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="Q411" s="17" t="inlineStr">
+      <c r="Q411" s="10" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -72019,7 +72019,7 @@
           <t>774</t>
         </is>
       </c>
-      <c r="U411" s="11" t="inlineStr">
+      <c r="U411" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -72034,7 +72034,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="X411" s="12" t="inlineStr">
+      <c r="X411" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -72141,7 +72141,7 @@
           <t>850</t>
         </is>
       </c>
-      <c r="H412" s="7" t="inlineStr">
+      <c r="H412" s="17" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -72151,7 +72151,7 @@
           <t>403</t>
         </is>
       </c>
-      <c r="J412" s="17" t="inlineStr">
+      <c r="J412" s="7" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -72398,7 +72398,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="V413" s="11" t="inlineStr">
+      <c r="V413" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -72495,7 +72495,7 @@
           <t>159</t>
         </is>
       </c>
-      <c r="D414" s="5" t="inlineStr">
+      <c r="D414" s="17" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -72677,7 +72677,7 @@
           <t>369</t>
         </is>
       </c>
-      <c r="C415" s="5" t="inlineStr">
+      <c r="C415" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -73051,7 +73051,7 @@
           <t>468</t>
         </is>
       </c>
-      <c r="C417" s="17" t="inlineStr">
+      <c r="C417" s="5" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -73161,7 +73161,7 @@
           <t>673</t>
         </is>
       </c>
-      <c r="Y417" s="12" t="inlineStr">
+      <c r="Y417" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -73398,7 +73398,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI418" s="16" t="inlineStr">
+      <c r="AI418" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -73774,7 +73774,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="R423" s="10" t="inlineStr">
+      <c r="R423" s="17" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -73921,7 +73921,7 @@
           <t>053</t>
         </is>
       </c>
-      <c r="J424" s="7" t="inlineStr">
+      <c r="J424" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -74026,7 +74026,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="AE424" s="14" t="inlineStr">
+      <c r="AE424" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -74056,7 +74056,7 @@
           <t>712</t>
         </is>
       </c>
-      <c r="AK424" s="16" t="inlineStr">
+      <c r="AK424" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -74088,12 +74088,12 @@
           <t>469</t>
         </is>
       </c>
-      <c r="F425" s="6" t="inlineStr">
+      <c r="F425" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
       </c>
-      <c r="G425" s="6" t="inlineStr">
+      <c r="G425" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -74305,7 +74305,7 @@
           <t>006</t>
         </is>
       </c>
-      <c r="L426" s="8" t="inlineStr">
+      <c r="L426" s="17" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -74360,7 +74360,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="W426" s="12" t="inlineStr">
+      <c r="W426" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -74395,7 +74395,7 @@
           <t>081</t>
         </is>
       </c>
-      <c r="AD426" s="17" t="inlineStr">
+      <c r="AD426" s="14" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -74410,7 +74410,7 @@
           <t>310</t>
         </is>
       </c>
-      <c r="AG426" s="15" t="inlineStr">
+      <c r="AG426" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -74462,7 +74462,7 @@
           <t>890</t>
         </is>
       </c>
-      <c r="F427" s="6" t="inlineStr">
+      <c r="F427" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -74562,7 +74562,7 @@
           <t>047</t>
         </is>
       </c>
-      <c r="Z427" s="13" t="inlineStr">
+      <c r="Z427" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -74597,7 +74597,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="AG427" s="15" t="inlineStr">
+      <c r="AG427" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -74759,7 +74759,7 @@
           <t>820</t>
         </is>
       </c>
-      <c r="AB428" s="13" t="inlineStr">
+      <c r="AB428" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -74826,7 +74826,7 @@
           <t>201</t>
         </is>
       </c>
-      <c r="D429" s="5" t="inlineStr">
+      <c r="D429" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -74891,7 +74891,7 @@
           <t>133</t>
         </is>
       </c>
-      <c r="Q429" s="10" t="inlineStr">
+      <c r="Q429" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -74991,7 +74991,7 @@
           <t>949</t>
         </is>
       </c>
-      <c r="AK429" s="16" t="inlineStr">
+      <c r="AK429" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -75148,7 +75148,7 @@
           <t>569</t>
         </is>
       </c>
-      <c r="AE430" s="14" t="inlineStr">
+      <c r="AE430" s="17" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -75163,7 +75163,7 @@
           <t>826</t>
         </is>
       </c>
-      <c r="AH430" s="15" t="inlineStr">
+      <c r="AH430" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -75482,7 +75482,7 @@
           <t>233</t>
         </is>
       </c>
-      <c r="W432" s="12" t="inlineStr">
+      <c r="W432" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -75537,7 +75537,7 @@
           <t>303</t>
         </is>
       </c>
-      <c r="AH432" s="15" t="inlineStr">
+      <c r="AH432" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -75569,7 +75569,7 @@
           <t>970</t>
         </is>
       </c>
-      <c r="C433" s="5" t="inlineStr">
+      <c r="C433" s="17" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -75589,7 +75589,7 @@
           <t>617</t>
         </is>
       </c>
-      <c r="G433" s="6" t="inlineStr">
+      <c r="G433" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -75629,7 +75629,7 @@
           <t>953</t>
         </is>
       </c>
-      <c r="O433" s="9" t="inlineStr">
+      <c r="O433" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -75699,7 +75699,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="AC433" s="14" t="inlineStr">
+      <c r="AC433" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -75761,7 +75761,7 @@
           <t>411</t>
         </is>
       </c>
-      <c r="D434" s="5" t="inlineStr">
+      <c r="D434" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -75911,7 +75911,7 @@
           <t>049</t>
         </is>
       </c>
-      <c r="AH434" s="15" t="inlineStr">
+      <c r="AH434" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -75983,7 +75983,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="K435" s="8" t="inlineStr">
+      <c r="K435" s="17" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -76003,7 +76003,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="O435" s="17" t="inlineStr">
+      <c r="O435" s="9" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -76108,7 +76108,7 @@
           <t>318</t>
         </is>
       </c>
-      <c r="AJ435" s="16" t="inlineStr">
+      <c r="AJ435" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -76140,7 +76140,7 @@
           <t>118</t>
         </is>
       </c>
-      <c r="E436" s="6" t="inlineStr">
+      <c r="E436" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -76180,7 +76180,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="M436" s="8" t="inlineStr">
+      <c r="M436" s="17" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -76337,7 +76337,7 @@
           <t>020</t>
         </is>
       </c>
-      <c r="G437" s="6" t="inlineStr">
+      <c r="G437" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -76407,7 +76407,7 @@
           <t>756</t>
         </is>
       </c>
-      <c r="U437" s="11" t="inlineStr">
+      <c r="U437" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -76477,7 +76477,7 @@
           <t>418</t>
         </is>
       </c>
-      <c r="AI437" s="17" t="inlineStr">
+      <c r="AI437" s="16" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -76811,7 +76811,7 @@
           <t>622</t>
         </is>
       </c>
-      <c r="AA439" s="13" t="inlineStr">
+      <c r="AA439" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -76908,7 +76908,7 @@
           <t>225</t>
         </is>
       </c>
-      <c r="I440" s="17" t="inlineStr">
+      <c r="I440" s="7" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -77676,7 +77676,7 @@
           <t>245</t>
         </is>
       </c>
-      <c r="M444" s="8" t="inlineStr">
+      <c r="M444" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -77838,7 +77838,7 @@
           <t>671</t>
         </is>
       </c>
-      <c r="H445" s="7" t="inlineStr">
+      <c r="H445" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -78025,7 +78025,7 @@
           <t>842</t>
         </is>
       </c>
-      <c r="H446" s="7" t="inlineStr">
+      <c r="H446" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -78085,7 +78085,7 @@
           <t>125</t>
         </is>
       </c>
-      <c r="T446" s="11" t="inlineStr">
+      <c r="T446" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -78145,7 +78145,7 @@
           <t>080</t>
         </is>
       </c>
-      <c r="AF446" s="15" t="inlineStr">
+      <c r="AF446" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -78207,7 +78207,7 @@
           <t>564</t>
         </is>
       </c>
-      <c r="G447" s="6" t="inlineStr">
+      <c r="G447" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -78332,7 +78332,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="AF447" s="15" t="inlineStr">
+      <c r="AF447" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -78566,12 +78566,12 @@
           <t>517</t>
         </is>
       </c>
-      <c r="D449" s="5" t="inlineStr">
+      <c r="D449" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
       </c>
-      <c r="E449" s="17" t="inlineStr">
+      <c r="E449" s="6" t="inlineStr">
         <is>
           <t>972</t>
         </is>
@@ -78591,12 +78591,12 @@
           <t>216</t>
         </is>
       </c>
-      <c r="I449" s="7" t="inlineStr">
+      <c r="I449" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
       </c>
-      <c r="J449" s="7" t="inlineStr">
+      <c r="J449" s="17" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -78606,7 +78606,7 @@
           <t>940</t>
         </is>
       </c>
-      <c r="L449" s="8" t="inlineStr">
+      <c r="L449" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -78616,7 +78616,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="N449" s="9" t="inlineStr">
+      <c r="N449" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -78646,7 +78646,7 @@
           <t>076</t>
         </is>
       </c>
-      <c r="T449" s="11" t="inlineStr">
+      <c r="T449" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -78726,7 +78726,7 @@
           <t>621</t>
         </is>
       </c>
-      <c r="AJ449" s="16" t="inlineStr">
+      <c r="AJ449" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -78753,7 +78753,7 @@
           <t>200</t>
         </is>
       </c>
-      <c r="D450" s="5" t="inlineStr">
+      <c r="D450" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -78843,7 +78843,7 @@
           <t>609</t>
         </is>
       </c>
-      <c r="V450" s="11" t="inlineStr">
+      <c r="V450" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -79000,7 +79000,7 @@
           <t>086</t>
         </is>
       </c>
-      <c r="P451" s="17" t="inlineStr">
+      <c r="P451" s="9" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -79167,7 +79167,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="L452" s="8" t="inlineStr">
+      <c r="L452" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -79212,7 +79212,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="U452" s="11" t="inlineStr">
+      <c r="U452" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -79409,7 +79409,7 @@
           <t>152</t>
         </is>
       </c>
-      <c r="W453" s="12" t="inlineStr">
+      <c r="W453" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -79419,7 +79419,7 @@
           <t>382</t>
         </is>
       </c>
-      <c r="Y453" s="12" t="inlineStr">
+      <c r="Y453" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -79449,7 +79449,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="AE453" s="14" t="inlineStr">
+      <c r="AE453" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -79820,12 +79820,12 @@
           <t>833</t>
         </is>
       </c>
-      <c r="M458" s="8" t="inlineStr">
+      <c r="M458" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
       </c>
-      <c r="N458" s="9" t="inlineStr">
+      <c r="N458" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -79895,7 +79895,7 @@
           <t>949</t>
         </is>
       </c>
-      <c r="AB458" s="13" t="inlineStr">
+      <c r="AB458" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -79925,7 +79925,7 @@
           <t>485</t>
         </is>
       </c>
-      <c r="AH458" s="15" t="inlineStr">
+      <c r="AH458" s="17" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -79935,7 +79935,7 @@
           <t>749</t>
         </is>
       </c>
-      <c r="AJ458" s="16" t="inlineStr">
+      <c r="AJ458" s="17" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -80326,7 +80326,7 @@
           <t>04</t>
         </is>
       </c>
-      <c r="B461" s="5" t="inlineStr">
+      <c r="B461" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -80366,7 +80366,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="J461" s="7" t="inlineStr">
+      <c r="J461" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -80441,7 +80441,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="Y461" s="12" t="inlineStr">
+      <c r="Y461" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -80653,7 +80653,7 @@
           <t>214</t>
         </is>
       </c>
-      <c r="AD462" s="14" t="inlineStr">
+      <c r="AD462" s="17" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -80700,7 +80700,7 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B463" s="5" t="inlineStr">
+      <c r="B463" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -80932,7 +80932,7 @@
           <t>507</t>
         </is>
       </c>
-      <c r="K464" s="8" t="inlineStr">
+      <c r="K464" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -81027,7 +81027,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="AD464" s="14" t="inlineStr">
+      <c r="AD464" s="17" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -81042,7 +81042,7 @@
           <t>578</t>
         </is>
       </c>
-      <c r="AG464" s="15" t="inlineStr">
+      <c r="AG464" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -81104,7 +81104,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="H465" s="7" t="inlineStr">
+      <c r="H465" s="17" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -81164,7 +81164,7 @@
           <t>055</t>
         </is>
       </c>
-      <c r="T465" s="11" t="inlineStr">
+      <c r="T465" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -81436,7 +81436,7 @@
           <t>073</t>
         </is>
       </c>
-      <c r="AK466" s="16" t="inlineStr">
+      <c r="AK466" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -81578,7 +81578,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="AB467" s="13" t="inlineStr">
+      <c r="AB467" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -81765,7 +81765,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="AB468" s="13" t="inlineStr">
+      <c r="AB468" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -81902,7 +81902,7 @@
           <t>349</t>
         </is>
       </c>
-      <c r="R469" s="17" t="inlineStr">
+      <c r="R469" s="10" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -81987,7 +81987,7 @@
           <t>931</t>
         </is>
       </c>
-      <c r="AI469" s="16" t="inlineStr">
+      <c r="AI469" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -82019,7 +82019,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="D470" s="5" t="inlineStr">
+      <c r="D470" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -82109,7 +82109,7 @@
           <t>282</t>
         </is>
       </c>
-      <c r="V470" s="11" t="inlineStr">
+      <c r="V470" s="17" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -82174,7 +82174,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="AI470" s="16" t="inlineStr">
+      <c r="AI470" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -82271,7 +82271,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="Q471" s="10" t="inlineStr">
+      <c r="Q471" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -82448,7 +82448,7 @@
           <t>103</t>
         </is>
       </c>
-      <c r="O472" s="9" t="inlineStr">
+      <c r="O472" s="17" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -82473,7 +82473,7 @@
           <t>071</t>
         </is>
       </c>
-      <c r="T472" s="11" t="inlineStr">
+      <c r="T472" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -82600,7 +82600,7 @@
           <t>751</t>
         </is>
       </c>
-      <c r="H473" s="7" t="inlineStr">
+      <c r="H473" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -82640,7 +82640,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="P473" s="9" t="inlineStr">
+      <c r="P473" s="17" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -82762,7 +82762,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="C474" s="5" t="inlineStr">
+      <c r="C474" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -82882,7 +82882,7 @@
           <t>180</t>
         </is>
       </c>
-      <c r="AA474" s="13" t="inlineStr">
+      <c r="AA474" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -83019,7 +83019,7 @@
           <t>918</t>
         </is>
       </c>
-      <c r="Q475" s="17" t="inlineStr">
+      <c r="Q475" s="10" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -83171,7 +83171,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="J476" s="7" t="inlineStr">
+      <c r="J476" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -83226,12 +83226,12 @@
           <t>427</t>
         </is>
       </c>
-      <c r="U476" s="11" t="inlineStr">
+      <c r="U476" s="17" t="inlineStr">
         <is>
           <t>641</t>
         </is>
       </c>
-      <c r="V476" s="17" t="inlineStr">
+      <c r="V476" s="11" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -83358,7 +83358,7 @@
           <t>481</t>
         </is>
       </c>
-      <c r="J477" s="7" t="inlineStr">
+      <c r="J477" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -83468,7 +83468,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="AF477" s="15" t="inlineStr">
+      <c r="AF477" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -83478,7 +83478,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="AH477" s="15" t="inlineStr">
+      <c r="AH477" s="17" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -83620,7 +83620,7 @@
           <t>369</t>
         </is>
       </c>
-      <c r="Y478" s="12" t="inlineStr">
+      <c r="Y478" s="17" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -83702,7 +83702,7 @@
           <t>820</t>
         </is>
       </c>
-      <c r="D479" s="5" t="inlineStr">
+      <c r="D479" s="17" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -83752,7 +83752,7 @@
           <t>487</t>
         </is>
       </c>
-      <c r="N479" s="9" t="inlineStr">
+      <c r="N479" s="17" t="inlineStr">
         <is>
           <t>843</t>
         </is>
@@ -83964,7 +83964,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="S480" s="10" t="inlineStr">
+      <c r="S480" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -84106,7 +84106,7 @@
           <t>905</t>
         </is>
       </c>
-      <c r="J481" s="7" t="inlineStr">
+      <c r="J481" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -84196,7 +84196,7 @@
           <t>321</t>
         </is>
       </c>
-      <c r="AB481" s="17" t="inlineStr">
+      <c r="AB481" s="13" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -84268,7 +84268,7 @@
           <t>902</t>
         </is>
       </c>
-      <c r="E482" s="6" t="inlineStr">
+      <c r="E482" s="17" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -84288,7 +84288,7 @@
           <t>968</t>
         </is>
       </c>
-      <c r="I482" s="17" t="inlineStr">
+      <c r="I482" s="7" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -84313,7 +84313,7 @@
           <t>890</t>
         </is>
       </c>
-      <c r="N482" s="9" t="inlineStr">
+      <c r="N482" s="17" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -84368,7 +84368,7 @@
           <t>086</t>
         </is>
       </c>
-      <c r="Y482" s="12" t="inlineStr">
+      <c r="Y482" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -84398,7 +84398,7 @@
           <t>490</t>
         </is>
       </c>
-      <c r="AE482" s="14" t="inlineStr">
+      <c r="AE482" s="17" t="inlineStr">
         <is>
           <t>843</t>
         </is>
@@ -84530,7 +84530,7 @@
           <t>170</t>
         </is>
       </c>
-      <c r="T483" s="11" t="inlineStr">
+      <c r="T483" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -84662,7 +84662,7 @@
           <t>627</t>
         </is>
       </c>
-      <c r="I484" s="7" t="inlineStr">
+      <c r="I484" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -84757,7 +84757,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="AB484" s="13" t="inlineStr">
+      <c r="AB484" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -84814,7 +84814,7 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B485" s="5" t="inlineStr">
+      <c r="B485" s="17" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -84964,7 +84964,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="AF485" s="15" t="inlineStr">
+      <c r="AF485" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -85051,7 +85051,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="L486" s="8" t="inlineStr">
+      <c r="L486" s="17" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -85091,7 +85091,7 @@
           <t>482</t>
         </is>
       </c>
-      <c r="T486" s="11" t="inlineStr">
+      <c r="T486" s="17" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -85111,7 +85111,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="X486" s="12" t="inlineStr">
+      <c r="X486" s="17" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -85136,7 +85136,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="AC486" s="14" t="inlineStr">
+      <c r="AC486" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -85273,7 +85273,7 @@
           <t>854</t>
         </is>
       </c>
-      <c r="S487" s="10" t="inlineStr">
+      <c r="S487" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -85303,7 +85303,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="Y487" s="17" t="inlineStr">
+      <c r="Y487" s="12" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -85851,7 +85851,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E493" s="6" t="inlineStr">
+      <c r="E493" s="17" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -85976,7 +85976,7 @@
           <t>355</t>
         </is>
       </c>
-      <c r="AD493" s="14" t="inlineStr">
+      <c r="AD493" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -86011,7 +86011,7 @@
           <t>648</t>
         </is>
       </c>
-      <c r="AK493" s="17" t="inlineStr">
+      <c r="AK493" s="16" t="inlineStr">
         <is>
           <t>729</t>
         </is>
@@ -86038,7 +86038,7 @@
           <t>062</t>
         </is>
       </c>
-      <c r="E494" s="17" t="inlineStr">
+      <c r="E494" s="6" t="inlineStr">
         <is>
           <t>297</t>
         </is>
@@ -86148,7 +86148,7 @@
           <t>937</t>
         </is>
       </c>
-      <c r="AA494" s="13" t="inlineStr">
+      <c r="AA494" s="17" t="inlineStr">
         <is>
           <t>843</t>
         </is>
@@ -86215,7 +86215,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="C495" s="5" t="inlineStr">
+      <c r="C495" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -86402,7 +86402,7 @@
           <t>028</t>
         </is>
       </c>
-      <c r="C496" s="5" t="inlineStr">
+      <c r="C496" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -86537,7 +86537,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD496" s="14" t="inlineStr">
+      <c r="AD496" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -86891,7 +86891,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z498" s="13" t="inlineStr">
+      <c r="Z498" s="17" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -87300,7 +87300,7 @@
           <t>829</t>
         </is>
       </c>
-      <c r="AG500" s="15" t="inlineStr">
+      <c r="AG500" s="17" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -87482,7 +87482,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="AF501" s="15" t="inlineStr">
+      <c r="AF501" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -88043,7 +88043,7 @@
           <t>128</t>
         </is>
       </c>
-      <c r="AF504" s="15" t="inlineStr">
+      <c r="AF504" s="17" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -88058,7 +88058,7 @@
           <t>276</t>
         </is>
       </c>
-      <c r="AI504" s="17" t="inlineStr">
+      <c r="AI504" s="16" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -88090,7 +88090,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="D505" s="5" t="inlineStr">
+      <c r="D505" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -88292,7 +88292,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="G506" s="6" t="inlineStr">
+      <c r="G506" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -88494,7 +88494,7 @@
           <t>961</t>
         </is>
       </c>
-      <c r="J507" s="7" t="inlineStr">
+      <c r="J507" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -88609,7 +88609,7 @@
           <t>942</t>
         </is>
       </c>
-      <c r="AG507" s="15" t="inlineStr">
+      <c r="AG507" s="17" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -88651,7 +88651,7 @@
           <t>856</t>
         </is>
       </c>
-      <c r="D508" s="5" t="inlineStr">
+      <c r="D508" s="17" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -88786,7 +88786,7 @@
           <t>485</t>
         </is>
       </c>
-      <c r="AE508" s="14" t="inlineStr">
+      <c r="AE508" s="17" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -88811,7 +88811,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="AJ508" s="16" t="inlineStr">
+      <c r="AJ508" s="17" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -88973,7 +88973,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="AE509" s="14" t="inlineStr">
+      <c r="AE509" s="17" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -89140,7 +89140,7 @@
           <t>666</t>
         </is>
       </c>
-      <c r="AA510" s="13" t="inlineStr">
+      <c r="AA510" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -89342,7 +89342,7 @@
           <t>709</t>
         </is>
       </c>
-      <c r="AD511" s="14" t="inlineStr">
+      <c r="AD511" s="17" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -89367,17 +89367,17 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AI511" s="16" t="inlineStr">
+      <c r="AI511" s="17" t="inlineStr">
         <is>
           <t>636</t>
         </is>
       </c>
-      <c r="AJ511" s="16" t="inlineStr">
+      <c r="AJ511" s="17" t="inlineStr">
         <is>
           <t>651</t>
         </is>
       </c>
-      <c r="AK511" s="16" t="inlineStr">
+      <c r="AK511" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -89399,7 +89399,7 @@
           <t>327</t>
         </is>
       </c>
-      <c r="D512" s="5" t="inlineStr">
+      <c r="D512" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -89554,17 +89554,17 @@
           <t>814</t>
         </is>
       </c>
-      <c r="AI512" s="16" t="inlineStr">
+      <c r="AI512" s="17" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="AJ512" s="16" t="inlineStr">
+      <c r="AJ512" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="AK512" s="16" t="inlineStr">
+      <c r="AK512" s="17" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -89741,17 +89741,17 @@
           <t>427</t>
         </is>
       </c>
-      <c r="AI513" s="16" t="inlineStr">
+      <c r="AI513" s="17" t="inlineStr">
         <is>
           <t>853</t>
         </is>
       </c>
-      <c r="AJ513" s="16" t="inlineStr">
+      <c r="AJ513" s="17" t="inlineStr">
         <is>
           <t>743</t>
         </is>
       </c>
-      <c r="AK513" s="16" t="inlineStr">
+      <c r="AK513" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -90070,7 +90070,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z515" s="13" t="inlineStr">
+      <c r="Z515" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -90085,7 +90085,7 @@
           <t>031</t>
         </is>
       </c>
-      <c r="AC515" s="14" t="inlineStr">
+      <c r="AC515" s="17" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -90105,7 +90105,7 @@
           <t>477</t>
         </is>
       </c>
-      <c r="AG515" s="17" t="inlineStr">
+      <c r="AG515" s="15" t="inlineStr">
         <is>
           <t>927</t>
         </is>
@@ -90439,7 +90439,7 @@
           <t>076</t>
         </is>
       </c>
-      <c r="Y517" s="12" t="inlineStr">
+      <c r="Y517" s="17" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -90661,7 +90661,7 @@
           <t>305</t>
         </is>
       </c>
-      <c r="AF518" s="15" t="inlineStr">
+      <c r="AF518" s="17" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -90990,7 +90990,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W520" s="12" t="inlineStr">
+      <c r="W520" s="17" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -91030,7 +91030,7 @@
           <t>002</t>
         </is>
       </c>
-      <c r="AE520" s="14" t="inlineStr">
+      <c r="AE520" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -91060,7 +91060,7 @@
           <t>247</t>
         </is>
       </c>
-      <c r="AK520" s="17" t="inlineStr">
+      <c r="AK520" s="16" t="inlineStr">
         <is>
           <t>792</t>
         </is>
@@ -91202,7 +91202,7 @@
           <t>690</t>
         </is>
       </c>
-      <c r="AB521" s="17" t="inlineStr">
+      <c r="AB521" s="13" t="inlineStr">
         <is>
           <t>279</t>
         </is>
@@ -91217,7 +91217,7 @@
           <t>163</t>
         </is>
       </c>
-      <c r="AE521" s="14" t="inlineStr">
+      <c r="AE521" s="17" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -91239,17 +91239,17 @@
       </c>
       <c r="AI521" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>328</t>
         </is>
       </c>
       <c r="AJ521" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493</t>
         </is>
       </c>
       <c r="AK521" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>131</t>
         </is>
       </c>
     </row>
@@ -91404,7 +91404,7 @@
           <t>335</t>
         </is>
       </c>
-      <c r="AE522" s="14" t="inlineStr">
+      <c r="AE522" s="17" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -91426,12 +91426,12 @@
       </c>
       <c r="AI522" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>332</t>
         </is>
       </c>
       <c r="AJ522" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>218</t>
         </is>
       </c>
       <c r="AK522" s="16" t="inlineStr">

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -43,11 +43,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00ff6666"/>
       </patternFill>
     </fill>
@@ -64,6 +59,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="009966ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -220,6 +220,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -227,9 +230,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK523"/>
+  <dimension ref="A1:AK558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,7 +1286,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P5" s="9" t="inlineStr">
+      <c r="P5" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -1645,7 +1645,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M7" s="17" t="inlineStr">
+      <c r="M7" s="8" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -1847,7 +1847,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P8" s="17" t="inlineStr">
+      <c r="P8" s="9" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -1907,7 +1907,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB8" s="17" t="inlineStr">
+      <c r="AB8" s="13" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -2094,7 +2094,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB9" s="17" t="inlineStr">
+      <c r="AB9" s="13" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -2266,7 +2266,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y10" s="17" t="inlineStr">
+      <c r="Y10" s="12" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -2348,7 +2348,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D11" s="17" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -2393,7 +2393,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M11" s="17" t="inlineStr">
+      <c r="M11" s="8" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -2842,7 +2842,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB13" s="17" t="inlineStr">
+      <c r="AB13" s="13" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -2877,7 +2877,7 @@
           <t>343</t>
         </is>
       </c>
-      <c r="AI13" s="17" t="inlineStr">
+      <c r="AI13" s="16" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -2969,7 +2969,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P14" s="17" t="inlineStr">
+      <c r="P14" s="9" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -3096,7 +3096,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D15" s="17" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -3625,7 +3625,7 @@
           <t>378</t>
         </is>
       </c>
-      <c r="AI17" s="17" t="inlineStr">
+      <c r="AI17" s="16" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -3672,7 +3672,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G18" s="17" t="inlineStr">
+      <c r="G18" s="6" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -4308,7 +4308,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V21" s="17" t="inlineStr">
+      <c r="V21" s="11" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -4981,7 +4981,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G25" s="17" t="inlineStr">
+      <c r="G25" s="6" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -5542,7 +5542,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G28" s="17" t="inlineStr">
+      <c r="G28" s="6" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -6041,7 +6041,7 @@
           <t>875</t>
         </is>
       </c>
-      <c r="AF30" s="17" t="inlineStr">
+      <c r="AF30" s="15" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -6275,7 +6275,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D32" s="17" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -6415,7 +6415,7 @@
           <t>022</t>
         </is>
       </c>
-      <c r="AF32" s="17" t="inlineStr">
+      <c r="AF32" s="15" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -6597,7 +6597,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE33" s="17" t="inlineStr">
+      <c r="AE33" s="14" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -6938,7 +6938,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G38" s="6" t="inlineStr">
+      <c r="G38" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -7362,7 +7362,7 @@
           <t>383</t>
         </is>
       </c>
-      <c r="Q40" s="17" t="inlineStr">
+      <c r="Q40" s="10" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -7529,7 +7529,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M41" s="17" t="inlineStr">
+      <c r="M41" s="8" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -7544,7 +7544,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P41" s="17" t="inlineStr">
+      <c r="P41" s="9" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -7863,7 +7863,7 @@
           <t>628</t>
         </is>
       </c>
-      <c r="E43" s="17" t="inlineStr">
+      <c r="E43" s="6" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -7978,7 +7978,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB43" s="17" t="inlineStr">
+      <c r="AB43" s="13" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -8464,7 +8464,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M46" s="8" t="inlineStr">
+      <c r="M46" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -8499,7 +8499,7 @@
           <t>305</t>
         </is>
       </c>
-      <c r="T46" s="17" t="inlineStr">
+      <c r="T46" s="11" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -8509,7 +8509,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V46" s="17" t="inlineStr">
+      <c r="V46" s="11" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -8554,7 +8554,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE46" s="17" t="inlineStr">
+      <c r="AE46" s="14" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -8611,7 +8611,7 @@
           <t>168</t>
         </is>
       </c>
-      <c r="E47" s="6" t="inlineStr">
+      <c r="E47" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -8813,7 +8813,7 @@
           <t>574</t>
         </is>
       </c>
-      <c r="H48" s="17" t="inlineStr">
+      <c r="H48" s="7" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -8943,7 +8943,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH48" s="15" t="inlineStr">
+      <c r="AH48" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -9045,7 +9045,7 @@
           <t>172</t>
         </is>
       </c>
-      <c r="Q49" s="10" t="inlineStr">
+      <c r="Q49" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -9105,7 +9105,7 @@
           <t>397</t>
         </is>
       </c>
-      <c r="AC49" s="17" t="inlineStr">
+      <c r="AC49" s="14" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -9145,7 +9145,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK49" s="16" t="inlineStr">
+      <c r="AK49" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -9459,12 +9459,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y51" s="17" t="inlineStr">
+      <c r="Y51" s="12" t="inlineStr">
         <is>
           <t>663</t>
         </is>
       </c>
-      <c r="Z51" s="17" t="inlineStr">
+      <c r="Z51" s="13" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -9561,7 +9561,7 @@
           <t>707</t>
         </is>
       </c>
-      <c r="H52" s="17" t="inlineStr">
+      <c r="H52" s="7" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -9893,7 +9893,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK53" s="17" t="inlineStr">
+      <c r="AK53" s="16" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -9995,7 +9995,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="T54" s="17" t="inlineStr">
+      <c r="T54" s="11" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -10137,7 +10137,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="K55" s="8" t="inlineStr">
+      <c r="K55" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -10147,7 +10147,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M55" s="17" t="inlineStr">
+      <c r="M55" s="8" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -10257,7 +10257,7 @@
           <t>762</t>
         </is>
       </c>
-      <c r="AI55" s="17" t="inlineStr">
+      <c r="AI55" s="16" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -10506,7 +10506,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J57" s="17" t="inlineStr">
+      <c r="J57" s="7" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -10641,7 +10641,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK57" s="17" t="inlineStr">
+      <c r="AK57" s="16" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -10818,7 +10818,7 @@
           <t>919</t>
         </is>
       </c>
-      <c r="AI58" s="17" t="inlineStr">
+      <c r="AI58" s="16" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -11037,7 +11037,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D60" s="17" t="inlineStr">
+      <c r="D60" s="5" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -11067,7 +11067,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J60" s="17" t="inlineStr">
+      <c r="J60" s="7" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -11162,7 +11162,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AC60" s="17" t="inlineStr">
+      <c r="AC60" s="14" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -11344,7 +11344,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB61" s="17" t="inlineStr">
+      <c r="AB61" s="13" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -11426,7 +11426,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G62" s="17" t="inlineStr">
+      <c r="G62" s="6" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -11476,7 +11476,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="Q62" s="17" t="inlineStr">
+      <c r="Q62" s="10" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -11703,7 +11703,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y63" s="17" t="inlineStr">
+      <c r="Y63" s="12" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -11718,7 +11718,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB63" s="17" t="inlineStr">
+      <c r="AB63" s="13" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -11987,7 +11987,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G65" s="17" t="inlineStr">
+      <c r="G65" s="6" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -12107,7 +12107,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE65" s="14" t="inlineStr">
+      <c r="AE65" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -12234,7 +12234,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S66" s="17" t="inlineStr">
+      <c r="S66" s="10" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -12583,7 +12583,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N68" s="17" t="inlineStr">
+      <c r="N68" s="9" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -12613,7 +12613,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T68" s="17" t="inlineStr">
+      <c r="T68" s="11" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -13221,7 +13221,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="L74" s="17" t="inlineStr">
+      <c r="L74" s="8" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -13296,7 +13296,7 @@
           <t>148</t>
         </is>
       </c>
-      <c r="AA74" s="17" t="inlineStr">
+      <c r="AA74" s="13" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -13331,7 +13331,7 @@
           <t>178</t>
         </is>
       </c>
-      <c r="AH74" s="17" t="inlineStr">
+      <c r="AH74" s="15" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -13403,7 +13403,7 @@
           <t>471</t>
         </is>
       </c>
-      <c r="K75" s="17" t="inlineStr">
+      <c r="K75" s="8" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -13438,7 +13438,7 @@
           <t>667</t>
         </is>
       </c>
-      <c r="R75" s="17" t="inlineStr">
+      <c r="R75" s="10" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -13533,7 +13533,7 @@
           <t>203</t>
         </is>
       </c>
-      <c r="AK75" s="17" t="inlineStr">
+      <c r="AK75" s="16" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -13545,7 +13545,7 @@
           <t>04</t>
         </is>
       </c>
-      <c r="B76" s="17" t="inlineStr">
+      <c r="B76" s="5" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -13640,7 +13640,7 @@
           <t>027</t>
         </is>
       </c>
-      <c r="U76" s="17" t="inlineStr">
+      <c r="U76" s="11" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -13680,7 +13680,7 @@
           <t>218</t>
         </is>
       </c>
-      <c r="AC76" s="17" t="inlineStr">
+      <c r="AC76" s="14" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -13700,7 +13700,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="AG76" s="17" t="inlineStr">
+      <c r="AG76" s="15" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -13757,7 +13757,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G77" s="6" t="inlineStr">
+      <c r="G77" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -13782,7 +13782,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="L77" s="17" t="inlineStr">
+      <c r="L77" s="8" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -14116,7 +14116,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D79" s="5" t="inlineStr">
+      <c r="D79" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -14186,7 +14186,7 @@
           <t>414</t>
         </is>
       </c>
-      <c r="R79" s="17" t="inlineStr">
+      <c r="R79" s="10" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -14281,7 +14281,7 @@
           <t>789</t>
         </is>
       </c>
-      <c r="AK79" s="17" t="inlineStr">
+      <c r="AK79" s="16" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -14303,7 +14303,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D80" s="5" t="inlineStr">
+      <c r="D80" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -14333,7 +14333,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J80" s="17" t="inlineStr">
+      <c r="J80" s="7" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -14585,7 +14585,7 @@
           <t>945</t>
         </is>
       </c>
-      <c r="W81" s="17" t="inlineStr">
+      <c r="W81" s="12" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -14630,7 +14630,7 @@
           <t>049</t>
         </is>
       </c>
-      <c r="AF81" s="17" t="inlineStr">
+      <c r="AF81" s="15" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -14929,7 +14929,7 @@
           <t>555</t>
         </is>
       </c>
-      <c r="Q83" s="17" t="inlineStr">
+      <c r="Q83" s="10" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -15111,7 +15111,7 @@
           <t>979</t>
         </is>
       </c>
-      <c r="P84" s="17" t="inlineStr">
+      <c r="P84" s="9" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -15206,7 +15206,7 @@
           <t>790</t>
         </is>
       </c>
-      <c r="AI84" s="17" t="inlineStr">
+      <c r="AI84" s="16" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -15228,7 +15228,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B85" s="17" t="inlineStr">
+      <c r="B85" s="5" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -15425,7 +15425,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D86" s="5" t="inlineStr">
+      <c r="D86" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -15590,7 +15590,7 @@
           <t>127</t>
         </is>
       </c>
-      <c r="AK86" s="16" t="inlineStr">
+      <c r="AK86" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -15612,7 +15612,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D87" s="17" t="inlineStr">
+      <c r="D87" s="5" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -15762,7 +15762,7 @@
           <t>293</t>
         </is>
       </c>
-      <c r="AH87" s="17" t="inlineStr">
+      <c r="AH87" s="15" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -15804,7 +15804,7 @@
           <t>982</t>
         </is>
       </c>
-      <c r="E88" s="17" t="inlineStr">
+      <c r="E88" s="6" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -15854,7 +15854,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="O88" s="17" t="inlineStr">
+      <c r="O88" s="9" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -15874,7 +15874,7 @@
           <t>116</t>
         </is>
       </c>
-      <c r="S88" s="17" t="inlineStr">
+      <c r="S88" s="10" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -16091,7 +16091,7 @@
           <t>944</t>
         </is>
       </c>
-      <c r="Y89" s="17" t="inlineStr">
+      <c r="Y89" s="12" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -16188,12 +16188,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G90" s="17" t="inlineStr">
+      <c r="G90" s="6" t="inlineStr">
         <is>
           <t>366</t>
         </is>
       </c>
-      <c r="H90" s="7" t="inlineStr">
+      <c r="H90" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -16213,7 +16213,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="L90" s="17" t="inlineStr">
+      <c r="L90" s="8" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -16465,7 +16465,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="Y91" s="17" t="inlineStr">
+      <c r="Y91" s="12" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -16804,7 +16804,7 @@
           <t>513</t>
         </is>
       </c>
-      <c r="R93" s="17" t="inlineStr">
+      <c r="R93" s="10" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -17061,7 +17061,7 @@
           <t>315</t>
         </is>
       </c>
-      <c r="AF94" s="15" t="inlineStr">
+      <c r="AF94" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -17076,7 +17076,7 @@
           <t>313</t>
         </is>
       </c>
-      <c r="AI94" s="17" t="inlineStr">
+      <c r="AI94" s="16" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -17086,7 +17086,7 @@
           <t>049</t>
         </is>
       </c>
-      <c r="AK94" s="17" t="inlineStr">
+      <c r="AK94" s="16" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -17248,7 +17248,7 @@
           <t>095</t>
         </is>
       </c>
-      <c r="AF95" s="17" t="inlineStr">
+      <c r="AF95" s="15" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -17335,7 +17335,7 @@
           <t>602</t>
         </is>
       </c>
-      <c r="L96" s="17" t="inlineStr">
+      <c r="L96" s="8" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -17582,7 +17582,7 @@
           <t>948</t>
         </is>
       </c>
-      <c r="X97" s="17" t="inlineStr">
+      <c r="X97" s="12" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -18193,7 +18193,7 @@
           <t>759</t>
         </is>
       </c>
-      <c r="AH100" s="17" t="inlineStr">
+      <c r="AH100" s="15" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -18230,7 +18230,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D101" s="17" t="inlineStr">
+      <c r="D101" s="5" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -18552,7 +18552,7 @@
           <t>938</t>
         </is>
       </c>
-      <c r="AE102" s="17" t="inlineStr">
+      <c r="AE102" s="14" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -18734,7 +18734,7 @@
           <t>060</t>
         </is>
       </c>
-      <c r="AD103" s="17" t="inlineStr">
+      <c r="AD103" s="14" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -19352,7 +19352,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="X109" s="17" t="inlineStr">
+      <c r="X109" s="12" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -19362,7 +19362,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="Z109" s="17" t="inlineStr">
+      <c r="Z109" s="13" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -19459,7 +19459,7 @@
           <t>204</t>
         </is>
       </c>
-      <c r="H110" s="17" t="inlineStr">
+      <c r="H110" s="7" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -19706,7 +19706,7 @@
           <t>684</t>
         </is>
       </c>
-      <c r="T111" s="17" t="inlineStr">
+      <c r="T111" s="11" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -19726,7 +19726,7 @@
           <t>150</t>
         </is>
       </c>
-      <c r="X111" s="17" t="inlineStr">
+      <c r="X111" s="12" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -19888,7 +19888,7 @@
           <t>410</t>
         </is>
       </c>
-      <c r="S112" s="17" t="inlineStr">
+      <c r="S112" s="10" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -19898,7 +19898,7 @@
           <t>628</t>
         </is>
       </c>
-      <c r="U112" s="17" t="inlineStr">
+      <c r="U112" s="11" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -20187,7 +20187,7 @@
           <t>252</t>
         </is>
       </c>
-      <c r="D114" s="5" t="inlineStr">
+      <c r="D114" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -20202,7 +20202,7 @@
           <t>383</t>
         </is>
       </c>
-      <c r="G114" s="6" t="inlineStr">
+      <c r="G114" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -20369,7 +20369,7 @@
           <t>945</t>
         </is>
       </c>
-      <c r="C115" s="17" t="inlineStr">
+      <c r="C115" s="5" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -20429,7 +20429,7 @@
           <t>255</t>
         </is>
       </c>
-      <c r="O115" s="17" t="inlineStr">
+      <c r="O115" s="9" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -20945,7 +20945,7 @@
           <t>244</t>
         </is>
       </c>
-      <c r="F118" s="17" t="inlineStr">
+      <c r="F118" s="6" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -20965,7 +20965,7 @@
           <t>675</t>
         </is>
       </c>
-      <c r="J118" s="17" t="inlineStr">
+      <c r="J118" s="7" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -21152,7 +21152,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="J119" s="17" t="inlineStr">
+      <c r="J119" s="7" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -21309,12 +21309,12 @@
           <t>520</t>
         </is>
       </c>
-      <c r="D120" s="17" t="inlineStr">
+      <c r="D120" s="5" t="inlineStr">
         <is>
           <t>326</t>
         </is>
       </c>
-      <c r="E120" s="17" t="inlineStr">
+      <c r="E120" s="6" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -21434,7 +21434,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="AC120" s="17" t="inlineStr">
+      <c r="AC120" s="14" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -21661,7 +21661,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="AK121" s="17" t="inlineStr">
+      <c r="AK121" s="16" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -21985,12 +21985,12 @@
           <t>030</t>
         </is>
       </c>
-      <c r="AA123" s="13" t="inlineStr">
+      <c r="AA123" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
       </c>
-      <c r="AB123" s="17" t="inlineStr">
+      <c r="AB123" s="13" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -22057,7 +22057,7 @@
           <t>679</t>
         </is>
       </c>
-      <c r="D124" s="17" t="inlineStr">
+      <c r="D124" s="5" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -22102,7 +22102,7 @@
           <t>163</t>
         </is>
       </c>
-      <c r="M124" s="17" t="inlineStr">
+      <c r="M124" s="8" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -22187,7 +22187,7 @@
           <t>956</t>
         </is>
       </c>
-      <c r="AD124" s="17" t="inlineStr">
+      <c r="AD124" s="14" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -22344,7 +22344,7 @@
           <t>865</t>
         </is>
       </c>
-      <c r="X125" s="17" t="inlineStr">
+      <c r="X125" s="12" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -22354,7 +22354,7 @@
           <t>148</t>
         </is>
       </c>
-      <c r="Z125" s="17" t="inlineStr">
+      <c r="Z125" s="13" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -22399,7 +22399,7 @@
           <t>875</t>
         </is>
       </c>
-      <c r="AI125" s="17" t="inlineStr">
+      <c r="AI125" s="16" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -22546,7 +22546,7 @@
           <t>331</t>
         </is>
       </c>
-      <c r="AA126" s="13" t="inlineStr">
+      <c r="AA126" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -22668,12 +22668,12 @@
           <t>506</t>
         </is>
       </c>
-      <c r="N127" s="17" t="inlineStr">
+      <c r="N127" s="9" t="inlineStr">
         <is>
           <t>516</t>
         </is>
       </c>
-      <c r="O127" s="17" t="inlineStr">
+      <c r="O127" s="9" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -22683,7 +22683,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="Q127" s="17" t="inlineStr">
+      <c r="Q127" s="10" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -22815,7 +22815,7 @@
           <t>678</t>
         </is>
       </c>
-      <c r="F128" s="17" t="inlineStr">
+      <c r="F128" s="6" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -23007,7 +23007,7 @@
           <t>136</t>
         </is>
       </c>
-      <c r="G129" s="17" t="inlineStr">
+      <c r="G129" s="6" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -23189,7 +23189,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="F130" s="17" t="inlineStr">
+      <c r="F130" s="6" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -23628,7 +23628,7 @@
           <t>018</t>
         </is>
       </c>
-      <c r="S132" s="17" t="inlineStr">
+      <c r="S132" s="10" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -23800,12 +23800,12 @@
           <t>443</t>
         </is>
       </c>
-      <c r="P133" s="17" t="inlineStr">
+      <c r="P133" s="9" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="Q133" s="17" t="inlineStr">
+      <c r="Q133" s="10" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -23825,7 +23825,7 @@
           <t>496</t>
         </is>
       </c>
-      <c r="U133" s="17" t="inlineStr">
+      <c r="U133" s="11" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -23905,7 +23905,7 @@
           <t>560</t>
         </is>
       </c>
-      <c r="AK133" s="16" t="inlineStr">
+      <c r="AK133" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -23932,7 +23932,7 @@
           <t>727</t>
         </is>
       </c>
-      <c r="E134" s="17" t="inlineStr">
+      <c r="E134" s="6" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -23987,7 +23987,7 @@
           <t>635</t>
         </is>
       </c>
-      <c r="P134" s="17" t="inlineStr">
+      <c r="P134" s="9" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -24361,7 +24361,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="P136" s="9" t="inlineStr">
+      <c r="P136" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -24760,7 +24760,7 @@
           <t>028</t>
         </is>
       </c>
-      <c r="U138" s="17" t="inlineStr">
+      <c r="U138" s="11" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -25146,7 +25146,7 @@
           <t>917</t>
         </is>
       </c>
-      <c r="F143" s="17" t="inlineStr">
+      <c r="F143" s="6" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -25231,7 +25231,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="W143" s="17" t="inlineStr">
+      <c r="W143" s="12" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -25343,7 +25343,7 @@
           <t>055</t>
         </is>
       </c>
-      <c r="H144" s="17" t="inlineStr">
+      <c r="H144" s="7" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -25383,7 +25383,7 @@
           <t>141</t>
         </is>
       </c>
-      <c r="P144" s="17" t="inlineStr">
+      <c r="P144" s="9" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -25408,7 +25408,7 @@
           <t>857</t>
         </is>
       </c>
-      <c r="U144" s="11" t="inlineStr">
+      <c r="U144" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -25530,7 +25530,7 @@
           <t>241</t>
         </is>
       </c>
-      <c r="H145" s="17" t="inlineStr">
+      <c r="H145" s="7" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -25570,7 +25570,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="P145" s="17" t="inlineStr">
+      <c r="P145" s="9" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -25722,7 +25722,7 @@
           <t>613</t>
         </is>
       </c>
-      <c r="I146" s="17" t="inlineStr">
+      <c r="I146" s="7" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -25762,7 +25762,7 @@
           <t>639</t>
         </is>
       </c>
-      <c r="Q146" s="10" t="inlineStr">
+      <c r="Q146" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -25777,7 +25777,7 @@
           <t>265</t>
         </is>
       </c>
-      <c r="T146" s="17" t="inlineStr">
+      <c r="T146" s="11" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -25847,7 +25847,7 @@
           <t>539</t>
         </is>
       </c>
-      <c r="AH146" s="17" t="inlineStr">
+      <c r="AH146" s="15" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -25924,7 +25924,7 @@
           <t>390</t>
         </is>
       </c>
-      <c r="L147" s="17" t="inlineStr">
+      <c r="L147" s="8" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -25969,7 +25969,7 @@
           <t>177</t>
         </is>
       </c>
-      <c r="U147" s="17" t="inlineStr">
+      <c r="U147" s="11" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -25989,7 +25989,7 @@
           <t>908</t>
         </is>
       </c>
-      <c r="Y147" s="17" t="inlineStr">
+      <c r="Y147" s="12" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -26111,7 +26111,7 @@
           <t>993</t>
         </is>
       </c>
-      <c r="L148" s="17" t="inlineStr">
+      <c r="L148" s="8" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -26236,7 +26236,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="AK148" s="17" t="inlineStr">
+      <c r="AK148" s="16" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -26328,7 +26328,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="R149" s="10" t="inlineStr">
+      <c r="R149" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -26485,7 +26485,7 @@
           <t>442</t>
         </is>
       </c>
-      <c r="L150" s="17" t="inlineStr">
+      <c r="L150" s="8" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -26722,7 +26722,7 @@
           <t>030</t>
         </is>
       </c>
-      <c r="V151" s="11" t="inlineStr">
+      <c r="V151" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -26777,7 +26777,7 @@
           <t>126</t>
         </is>
       </c>
-      <c r="AG151" s="17" t="inlineStr">
+      <c r="AG151" s="15" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -26949,7 +26949,7 @@
           <t>766</t>
         </is>
       </c>
-      <c r="AD152" s="14" t="inlineStr">
+      <c r="AD152" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -27056,7 +27056,7 @@
           <t>320</t>
         </is>
       </c>
-      <c r="N153" s="9" t="inlineStr">
+      <c r="N153" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -27293,7 +27293,7 @@
           <t>559</t>
         </is>
       </c>
-      <c r="X154" s="12" t="inlineStr">
+      <c r="X154" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -27405,7 +27405,7 @@
           <t>489</t>
         </is>
       </c>
-      <c r="I155" s="17" t="inlineStr">
+      <c r="I155" s="7" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -27430,7 +27430,7 @@
           <t>344</t>
         </is>
       </c>
-      <c r="N155" s="9" t="inlineStr">
+      <c r="N155" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -27540,12 +27540,12 @@
           <t>719</t>
         </is>
       </c>
-      <c r="AJ155" s="16" t="inlineStr">
+      <c r="AJ155" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
       </c>
-      <c r="AK155" s="17" t="inlineStr">
+      <c r="AK155" s="16" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -27557,7 +27557,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B156" s="17" t="inlineStr">
+      <c r="B156" s="5" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -27657,7 +27657,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="V156" s="17" t="inlineStr">
+      <c r="V156" s="11" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -27727,7 +27727,7 @@
           <t>202</t>
         </is>
       </c>
-      <c r="AJ156" s="16" t="inlineStr">
+      <c r="AJ156" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -27804,7 +27804,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="N157" s="17" t="inlineStr">
+      <c r="N157" s="9" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -28086,7 +28086,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="AG158" s="17" t="inlineStr">
+      <c r="AG158" s="15" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -28148,7 +28148,7 @@
           <t>887</t>
         </is>
       </c>
-      <c r="H159" s="17" t="inlineStr">
+      <c r="H159" s="7" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -28178,7 +28178,7 @@
           <t>760</t>
         </is>
       </c>
-      <c r="N159" s="17" t="inlineStr">
+      <c r="N159" s="9" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -28193,7 +28193,7 @@
           <t>579</t>
         </is>
       </c>
-      <c r="Q159" s="17" t="inlineStr">
+      <c r="Q159" s="10" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -28455,7 +28455,7 @@
           <t>428</t>
         </is>
       </c>
-      <c r="AF160" s="17" t="inlineStr">
+      <c r="AF160" s="15" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -28502,7 +28502,7 @@
           <t>446</t>
         </is>
       </c>
-      <c r="D161" s="5" t="inlineStr">
+      <c r="D161" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -28582,7 +28582,7 @@
           <t>277</t>
         </is>
       </c>
-      <c r="T161" s="17" t="inlineStr">
+      <c r="T161" s="11" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -28714,7 +28714,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="I162" s="17" t="inlineStr">
+      <c r="I162" s="7" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -29270,7 +29270,7 @@
           <t>703</t>
         </is>
       </c>
-      <c r="H165" s="17" t="inlineStr">
+      <c r="H165" s="7" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -29315,7 +29315,7 @@
           <t>552</t>
         </is>
       </c>
-      <c r="Q165" s="17" t="inlineStr">
+      <c r="Q165" s="10" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -29345,7 +29345,7 @@
           <t>616</t>
         </is>
       </c>
-      <c r="W165" s="17" t="inlineStr">
+      <c r="W165" s="12" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -29385,7 +29385,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AE165" s="17" t="inlineStr">
+      <c r="AE165" s="14" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -29442,7 +29442,7 @@
           <t>848</t>
         </is>
       </c>
-      <c r="E166" s="6" t="inlineStr">
+      <c r="E166" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -29462,7 +29462,7 @@
           <t>462</t>
         </is>
       </c>
-      <c r="I166" s="17" t="inlineStr">
+      <c r="I166" s="7" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -29679,7 +29679,7 @@
           <t>735</t>
         </is>
       </c>
-      <c r="O167" s="9" t="inlineStr">
+      <c r="O167" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -29806,7 +29806,7 @@
           <t>595</t>
         </is>
       </c>
-      <c r="C168" s="5" t="inlineStr">
+      <c r="C168" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -29988,7 +29988,7 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B169" s="17" t="inlineStr">
+      <c r="B169" s="5" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -30023,7 +30023,7 @@
           <t>586</t>
         </is>
       </c>
-      <c r="I169" s="17" t="inlineStr">
+      <c r="I169" s="7" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -30133,7 +30133,7 @@
           <t>421</t>
         </is>
       </c>
-      <c r="AE169" s="17" t="inlineStr">
+      <c r="AE169" s="14" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -30158,7 +30158,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="AJ169" s="17" t="inlineStr">
+      <c r="AJ169" s="16" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -30185,7 +30185,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="D170" s="17" t="inlineStr">
+      <c r="D170" s="5" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -30235,7 +30235,7 @@
           <t>030</t>
         </is>
       </c>
-      <c r="N170" s="17" t="inlineStr">
+      <c r="N170" s="9" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -30275,7 +30275,7 @@
           <t>621</t>
         </is>
       </c>
-      <c r="V170" s="17" t="inlineStr">
+      <c r="V170" s="11" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -30412,7 +30412,7 @@
           <t>007</t>
         </is>
       </c>
-      <c r="L171" s="17" t="inlineStr">
+      <c r="L171" s="8" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -30432,7 +30432,7 @@
           <t>915</t>
         </is>
       </c>
-      <c r="P171" s="17" t="inlineStr">
+      <c r="P171" s="9" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -30502,7 +30502,7 @@
           <t>822</t>
         </is>
       </c>
-      <c r="AD171" s="17" t="inlineStr">
+      <c r="AD171" s="14" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -30609,7 +30609,7 @@
           <t>476</t>
         </is>
       </c>
-      <c r="N172" s="17" t="inlineStr">
+      <c r="N172" s="9" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -30669,7 +30669,7 @@
           <t>386</t>
         </is>
       </c>
-      <c r="Z172" s="17" t="inlineStr">
+      <c r="Z172" s="13" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -30776,7 +30776,7 @@
           <t>848</t>
         </is>
       </c>
-      <c r="J173" s="17" t="inlineStr">
+      <c r="J173" s="7" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -30901,7 +30901,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI173" s="17" t="inlineStr">
+      <c r="AI173" s="16" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -30911,7 +30911,7 @@
           <t>444</t>
         </is>
       </c>
-      <c r="AK173" s="17" t="inlineStr">
+      <c r="AK173" s="16" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -31282,7 +31282,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="S178" s="17" t="inlineStr">
+      <c r="S178" s="10" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -31312,7 +31312,7 @@
           <t>722</t>
         </is>
       </c>
-      <c r="Y178" s="17" t="inlineStr">
+      <c r="Y178" s="12" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -31489,7 +31489,7 @@
           <t>190</t>
         </is>
       </c>
-      <c r="W179" s="17" t="inlineStr">
+      <c r="W179" s="12" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -31571,7 +31571,7 @@
           <t>03</t>
         </is>
       </c>
-      <c r="B180" s="17" t="inlineStr">
+      <c r="B180" s="5" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -31641,7 +31641,7 @@
           <t>895</t>
         </is>
       </c>
-      <c r="P180" s="9" t="inlineStr">
+      <c r="P180" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -31833,7 +31833,7 @@
           <t>278</t>
         </is>
       </c>
-      <c r="Q181" s="17" t="inlineStr">
+      <c r="Q181" s="10" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -32065,7 +32065,7 @@
           <t>496</t>
         </is>
       </c>
-      <c r="Z182" s="17" t="inlineStr">
+      <c r="Z182" s="13" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -32080,7 +32080,7 @@
           <t>771</t>
         </is>
       </c>
-      <c r="AC182" s="17" t="inlineStr">
+      <c r="AC182" s="14" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -32095,7 +32095,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AF182" s="17" t="inlineStr">
+      <c r="AF182" s="15" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -32142,7 +32142,7 @@
           <t>211</t>
         </is>
       </c>
-      <c r="D183" s="17" t="inlineStr">
+      <c r="D183" s="5" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -32172,7 +32172,7 @@
           <t>286</t>
         </is>
       </c>
-      <c r="J183" s="17" t="inlineStr">
+      <c r="J183" s="7" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -32257,7 +32257,7 @@
           <t>567</t>
         </is>
       </c>
-      <c r="AA183" s="17" t="inlineStr">
+      <c r="AA183" s="13" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -32359,7 +32359,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="J184" s="17" t="inlineStr">
+      <c r="J184" s="7" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -32464,7 +32464,7 @@
           <t>740</t>
         </is>
       </c>
-      <c r="AE184" s="17" t="inlineStr">
+      <c r="AE184" s="14" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -32571,7 +32571,7 @@
           <t>446</t>
         </is>
       </c>
-      <c r="O185" s="17" t="inlineStr">
+      <c r="O185" s="9" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -33030,7 +33030,7 @@
           <t>622</t>
         </is>
       </c>
-      <c r="AF187" s="17" t="inlineStr">
+      <c r="AF187" s="15" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -33087,7 +33087,7 @@
           <t>937</t>
         </is>
       </c>
-      <c r="F188" s="17" t="inlineStr">
+      <c r="F188" s="6" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -33162,7 +33162,7 @@
           <t>439</t>
         </is>
       </c>
-      <c r="U188" s="17" t="inlineStr">
+      <c r="U188" s="11" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -33227,7 +33227,7 @@
           <t>024</t>
         </is>
       </c>
-      <c r="AH188" s="17" t="inlineStr">
+      <c r="AH188" s="15" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -33359,7 +33359,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="W189" s="17" t="inlineStr">
+      <c r="W189" s="12" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -33556,7 +33556,7 @@
           <t>448</t>
         </is>
       </c>
-      <c r="Y190" s="17" t="inlineStr">
+      <c r="Y190" s="12" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -33900,7 +33900,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="S192" s="17" t="inlineStr">
+      <c r="S192" s="10" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -34122,7 +34122,7 @@
           <t>537</t>
         </is>
       </c>
-      <c r="Z193" s="17" t="inlineStr">
+      <c r="Z193" s="13" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -34147,7 +34147,7 @@
           <t>003</t>
         </is>
       </c>
-      <c r="AE193" s="17" t="inlineStr">
+      <c r="AE193" s="14" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -34189,7 +34189,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B194" s="5" t="inlineStr">
+      <c r="B194" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -34219,7 +34219,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="H194" s="17" t="inlineStr">
+      <c r="H194" s="7" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -34254,7 +34254,7 @@
           <t>664</t>
         </is>
       </c>
-      <c r="O194" s="9" t="inlineStr">
+      <c r="O194" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -34314,7 +34314,7 @@
           <t>613</t>
         </is>
       </c>
-      <c r="AA194" s="17" t="inlineStr">
+      <c r="AA194" s="13" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -34324,7 +34324,7 @@
           <t>103</t>
         </is>
       </c>
-      <c r="AC194" s="17" t="inlineStr">
+      <c r="AC194" s="14" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -34476,7 +34476,7 @@
           <t>676</t>
         </is>
       </c>
-      <c r="V195" s="11" t="inlineStr">
+      <c r="V195" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -34531,7 +34531,7 @@
           <t>424</t>
         </is>
       </c>
-      <c r="AG195" s="17" t="inlineStr">
+      <c r="AG195" s="15" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -34546,7 +34546,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AJ195" s="17" t="inlineStr">
+      <c r="AJ195" s="16" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -34578,7 +34578,7 @@
           <t>815</t>
         </is>
       </c>
-      <c r="E196" s="17" t="inlineStr">
+      <c r="E196" s="6" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -34780,7 +34780,7 @@
           <t>422</t>
         </is>
       </c>
-      <c r="H197" s="17" t="inlineStr">
+      <c r="H197" s="7" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -34795,7 +34795,7 @@
           <t>962</t>
         </is>
       </c>
-      <c r="K197" s="17" t="inlineStr">
+      <c r="K197" s="8" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -34850,7 +34850,7 @@
           <t>181</t>
         </is>
       </c>
-      <c r="V197" s="17" t="inlineStr">
+      <c r="V197" s="11" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -34947,7 +34947,7 @@
           <t>720</t>
         </is>
       </c>
-      <c r="D198" s="17" t="inlineStr">
+      <c r="D198" s="5" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -34977,7 +34977,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="J198" s="17" t="inlineStr">
+      <c r="J198" s="7" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -35037,7 +35037,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="V198" s="17" t="inlineStr">
+      <c r="V198" s="11" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -35082,7 +35082,7 @@
           <t>707</t>
         </is>
       </c>
-      <c r="AE198" s="17" t="inlineStr">
+      <c r="AE198" s="14" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -35154,7 +35154,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="H199" s="7" t="inlineStr">
+      <c r="H199" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -35643,7 +35643,7 @@
           <t>375</t>
         </is>
       </c>
-      <c r="AE201" s="17" t="inlineStr">
+      <c r="AE201" s="14" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -35765,7 +35765,7 @@
           <t>422</t>
         </is>
       </c>
-      <c r="R202" s="17" t="inlineStr">
+      <c r="R202" s="10" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -35790,7 +35790,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="W202" s="17" t="inlineStr">
+      <c r="W202" s="12" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -35912,7 +35912,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="J203" s="17" t="inlineStr">
+      <c r="J203" s="7" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -35937,7 +35937,7 @@
           <t>441</t>
         </is>
       </c>
-      <c r="O203" s="17" t="inlineStr">
+      <c r="O203" s="9" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -36119,7 +36119,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="N204" s="17" t="inlineStr">
+      <c r="N204" s="9" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -36154,7 +36154,7 @@
           <t>899</t>
         </is>
       </c>
-      <c r="U204" s="17" t="inlineStr">
+      <c r="U204" s="11" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -36311,7 +36311,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="O205" s="17" t="inlineStr">
+      <c r="O205" s="9" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -36401,7 +36401,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="AG205" s="17" t="inlineStr">
+      <c r="AG205" s="15" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -36563,7 +36563,7 @@
           <t>481</t>
         </is>
       </c>
-      <c r="AB206" s="17" t="inlineStr">
+      <c r="AB206" s="13" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -36608,7 +36608,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="AK206" s="17" t="inlineStr">
+      <c r="AK206" s="16" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -36730,7 +36730,7 @@
           <t>937</t>
         </is>
       </c>
-      <c r="X207" s="17" t="inlineStr">
+      <c r="X207" s="12" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -36760,7 +36760,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="AD207" s="17" t="inlineStr">
+      <c r="AD207" s="14" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -36912,7 +36912,7 @@
           <t>456</t>
         </is>
       </c>
-      <c r="W208" s="17" t="inlineStr">
+      <c r="W208" s="12" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -36942,7 +36942,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC208" s="17" t="inlineStr">
+      <c r="AC208" s="14" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -37455,7 +37455,7 @@
           <t>02</t>
         </is>
       </c>
-      <c r="B214" s="17" t="inlineStr">
+      <c r="B214" s="5" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -37525,7 +37525,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="P214" s="9" t="inlineStr">
+      <c r="P214" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -37615,7 +37615,7 @@
           <t>089</t>
         </is>
       </c>
-      <c r="AH214" s="17" t="inlineStr">
+      <c r="AH214" s="15" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -37647,7 +37647,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="C215" s="17" t="inlineStr">
+      <c r="C215" s="5" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -37677,7 +37677,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="I215" s="17" t="inlineStr">
+      <c r="I215" s="7" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -37727,7 +37727,7 @@
           <t>426</t>
         </is>
       </c>
-      <c r="S215" s="17" t="inlineStr">
+      <c r="S215" s="10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -37829,7 +37829,7 @@
           <t>04</t>
         </is>
       </c>
-      <c r="B216" s="17" t="inlineStr">
+      <c r="B216" s="5" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -38016,7 +38016,7 @@
           <t>05</t>
         </is>
       </c>
-      <c r="B217" s="17" t="inlineStr">
+      <c r="B217" s="5" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -38026,7 +38026,7 @@
           <t>132</t>
         </is>
       </c>
-      <c r="D217" s="17" t="inlineStr">
+      <c r="D217" s="5" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -38278,7 +38278,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="Q218" s="17" t="inlineStr">
+      <c r="Q218" s="10" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -38425,7 +38425,7 @@
           <t>352</t>
         </is>
       </c>
-      <c r="I219" s="17" t="inlineStr">
+      <c r="I219" s="7" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -38465,12 +38465,12 @@
           <t>493</t>
         </is>
       </c>
-      <c r="Q219" s="17" t="inlineStr">
+      <c r="Q219" s="10" t="inlineStr">
         <is>
           <t>374</t>
         </is>
       </c>
-      <c r="R219" s="17" t="inlineStr">
+      <c r="R219" s="10" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -38550,7 +38550,7 @@
           <t>482</t>
         </is>
       </c>
-      <c r="AH219" s="17" t="inlineStr">
+      <c r="AH219" s="15" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -38672,7 +38672,7 @@
           <t>489</t>
         </is>
       </c>
-      <c r="U220" s="17" t="inlineStr">
+      <c r="U220" s="11" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -38747,7 +38747,7 @@
           <t>634</t>
         </is>
       </c>
-      <c r="AJ220" s="17" t="inlineStr">
+      <c r="AJ220" s="16" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -38864,7 +38864,7 @@
           <t>204</t>
         </is>
       </c>
-      <c r="V221" s="17" t="inlineStr">
+      <c r="V221" s="11" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -38894,7 +38894,7 @@
           <t>749</t>
         </is>
       </c>
-      <c r="AB221" s="17" t="inlineStr">
+      <c r="AB221" s="13" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -38904,7 +38904,7 @@
           <t>414</t>
         </is>
       </c>
-      <c r="AD221" s="17" t="inlineStr">
+      <c r="AD221" s="14" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -38919,7 +38919,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="AG221" s="17" t="inlineStr">
+      <c r="AG221" s="15" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -39138,7 +39138,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B223" s="17" t="inlineStr">
+      <c r="B223" s="5" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -39193,7 +39193,7 @@
           <t>129</t>
         </is>
       </c>
-      <c r="M223" s="8" t="inlineStr">
+      <c r="M223" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -39228,7 +39228,7 @@
           <t>013</t>
         </is>
       </c>
-      <c r="T223" s="17" t="inlineStr">
+      <c r="T223" s="11" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -39243,7 +39243,7 @@
           <t>258</t>
         </is>
       </c>
-      <c r="W223" s="17" t="inlineStr">
+      <c r="W223" s="12" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -39263,7 +39263,7 @@
           <t>024</t>
         </is>
       </c>
-      <c r="AA223" s="17" t="inlineStr">
+      <c r="AA223" s="13" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -39385,7 +39385,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="N224" s="17" t="inlineStr">
+      <c r="N224" s="9" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -39627,7 +39627,7 @@
           <t>322</t>
         </is>
       </c>
-      <c r="Y225" s="17" t="inlineStr">
+      <c r="Y225" s="12" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -39704,7 +39704,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="C226" s="17" t="inlineStr">
+      <c r="C226" s="5" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -39901,7 +39901,7 @@
           <t>498</t>
         </is>
       </c>
-      <c r="E227" s="17" t="inlineStr">
+      <c r="E227" s="6" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -39926,7 +39926,7 @@
           <t>162</t>
         </is>
       </c>
-      <c r="J227" s="17" t="inlineStr">
+      <c r="J227" s="7" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -40016,7 +40016,7 @@
           <t>680</t>
         </is>
       </c>
-      <c r="AB227" s="17" t="inlineStr">
+      <c r="AB227" s="13" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -40203,7 +40203,7 @@
           <t>984</t>
         </is>
       </c>
-      <c r="AB228" s="13" t="inlineStr">
+      <c r="AB228" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -40270,7 +40270,7 @@
           <t>058</t>
         </is>
       </c>
-      <c r="D229" s="17" t="inlineStr">
+      <c r="D229" s="5" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -40280,7 +40280,7 @@
           <t>087</t>
         </is>
       </c>
-      <c r="F229" s="17" t="inlineStr">
+      <c r="F229" s="6" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -40300,7 +40300,7 @@
           <t>880</t>
         </is>
       </c>
-      <c r="J229" s="17" t="inlineStr">
+      <c r="J229" s="7" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -40410,7 +40410,7 @@
           <t>144</t>
         </is>
       </c>
-      <c r="AF229" s="17" t="inlineStr">
+      <c r="AF229" s="15" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -40425,7 +40425,7 @@
           <t>571</t>
         </is>
       </c>
-      <c r="AI229" s="17" t="inlineStr">
+      <c r="AI229" s="16" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -40467,7 +40467,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="F230" s="17" t="inlineStr">
+      <c r="F230" s="6" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -40497,7 +40497,7 @@
           <t>703</t>
         </is>
       </c>
-      <c r="L230" s="17" t="inlineStr">
+      <c r="L230" s="8" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -40729,7 +40729,7 @@
           <t>758</t>
         </is>
       </c>
-      <c r="U231" s="17" t="inlineStr">
+      <c r="U231" s="11" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -40886,7 +40886,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="O232" s="17" t="inlineStr">
+      <c r="O232" s="9" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -40901,7 +40901,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="R232" s="17" t="inlineStr">
+      <c r="R232" s="10" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -40936,7 +40936,7 @@
           <t>356</t>
         </is>
       </c>
-      <c r="Y232" s="17" t="inlineStr">
+      <c r="Y232" s="12" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -41068,7 +41068,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="N233" s="17" t="inlineStr">
+      <c r="N233" s="9" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -41083,7 +41083,7 @@
           <t>709</t>
         </is>
       </c>
-      <c r="Q233" s="17" t="inlineStr">
+      <c r="Q233" s="10" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -41123,7 +41123,7 @@
           <t>161</t>
         </is>
       </c>
-      <c r="Y233" s="17" t="inlineStr">
+      <c r="Y233" s="12" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -41173,7 +41173,7 @@
           <t>680</t>
         </is>
       </c>
-      <c r="AI233" s="17" t="inlineStr">
+      <c r="AI233" s="16" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -41280,12 +41280,12 @@
           <t>482</t>
         </is>
       </c>
-      <c r="S234" s="17" t="inlineStr">
+      <c r="S234" s="10" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="T234" s="17" t="inlineStr">
+      <c r="T234" s="11" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -41412,7 +41412,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="H235" s="17" t="inlineStr">
+      <c r="H235" s="7" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -41437,7 +41437,7 @@
           <t>934</t>
         </is>
       </c>
-      <c r="M235" s="17" t="inlineStr">
+      <c r="M235" s="8" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -41579,7 +41579,7 @@
           <t>378</t>
         </is>
       </c>
-      <c r="D236" s="17" t="inlineStr">
+      <c r="D236" s="5" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -41659,7 +41659,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="T236" s="17" t="inlineStr">
+      <c r="T236" s="11" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -41866,7 +41866,7 @@
           <t>322</t>
         </is>
       </c>
-      <c r="X237" s="17" t="inlineStr">
+      <c r="X237" s="12" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -41891,7 +41891,7 @@
           <t>552</t>
         </is>
       </c>
-      <c r="AC237" s="17" t="inlineStr">
+      <c r="AC237" s="14" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -42210,7 +42210,7 @@
           <t>856</t>
         </is>
       </c>
-      <c r="R239" s="17" t="inlineStr">
+      <c r="R239" s="10" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -42280,7 +42280,7 @@
           <t>209</t>
         </is>
       </c>
-      <c r="AF239" s="17" t="inlineStr">
+      <c r="AF239" s="15" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -42317,7 +42317,7 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B240" s="17" t="inlineStr">
+      <c r="B240" s="5" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -42347,7 +42347,7 @@
           <t>676</t>
         </is>
       </c>
-      <c r="H240" s="17" t="inlineStr">
+      <c r="H240" s="7" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -42377,7 +42377,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="N240" s="17" t="inlineStr">
+      <c r="N240" s="9" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -42477,7 +42477,7 @@
           <t>105</t>
         </is>
       </c>
-      <c r="AH240" s="17" t="inlineStr">
+      <c r="AH240" s="15" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -42524,7 +42524,7 @@
           <t>869</t>
         </is>
       </c>
-      <c r="F241" s="17" t="inlineStr">
+      <c r="F241" s="6" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -42554,7 +42554,7 @@
           <t>771</t>
         </is>
       </c>
-      <c r="L241" s="17" t="inlineStr">
+      <c r="L241" s="8" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -42629,7 +42629,7 @@
           <t>175</t>
         </is>
       </c>
-      <c r="AA241" s="17" t="inlineStr">
+      <c r="AA241" s="13" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -42659,7 +42659,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="AG241" s="15" t="inlineStr">
+      <c r="AG241" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -42918,7 +42918,7 @@
           <t>355</t>
         </is>
       </c>
-      <c r="J243" s="17" t="inlineStr">
+      <c r="J243" s="7" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -42938,7 +42938,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N243" s="17" t="inlineStr">
+      <c r="N243" s="9" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -43018,7 +43018,7 @@
           <t>503</t>
         </is>
       </c>
-      <c r="AD243" s="17" t="inlineStr">
+      <c r="AD243" s="14" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -43439,7 +43439,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="V248" s="11" t="inlineStr">
+      <c r="V248" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -43526,7 +43526,7 @@
           <t>02</t>
         </is>
       </c>
-      <c r="B249" s="17" t="inlineStr">
+      <c r="B249" s="5" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -43763,12 +43763,12 @@
           <t>331</t>
         </is>
       </c>
-      <c r="L250" s="17" t="inlineStr">
+      <c r="L250" s="8" t="inlineStr">
         <is>
           <t>663</t>
         </is>
       </c>
-      <c r="M250" s="17" t="inlineStr">
+      <c r="M250" s="8" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -43803,7 +43803,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="T250" s="17" t="inlineStr">
+      <c r="T250" s="11" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -43950,7 +43950,7 @@
           <t>421</t>
         </is>
       </c>
-      <c r="L251" s="17" t="inlineStr">
+      <c r="L251" s="8" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -44065,7 +44065,7 @@
           <t>472</t>
         </is>
       </c>
-      <c r="AI251" s="17" t="inlineStr">
+      <c r="AI251" s="16" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -44117,7 +44117,7 @@
           <t>417</t>
         </is>
       </c>
-      <c r="H252" s="7" t="inlineStr">
+      <c r="H252" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -44197,7 +44197,7 @@
           <t>766</t>
         </is>
       </c>
-      <c r="X252" s="17" t="inlineStr">
+      <c r="X252" s="12" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -44284,7 +44284,7 @@
           <t>737</t>
         </is>
       </c>
-      <c r="D253" s="17" t="inlineStr">
+      <c r="D253" s="5" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -44399,7 +44399,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="AA253" s="17" t="inlineStr">
+      <c r="AA253" s="13" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -44419,12 +44419,12 @@
           <t>908</t>
         </is>
       </c>
-      <c r="AE253" s="17" t="inlineStr">
+      <c r="AE253" s="14" t="inlineStr">
         <is>
           <t>561</t>
         </is>
       </c>
-      <c r="AF253" s="17" t="inlineStr">
+      <c r="AF253" s="15" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -44491,7 +44491,7 @@
           <t>410</t>
         </is>
       </c>
-      <c r="H254" s="17" t="inlineStr">
+      <c r="H254" s="7" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -44516,7 +44516,7 @@
           <t>446</t>
         </is>
       </c>
-      <c r="M254" s="17" t="inlineStr">
+      <c r="M254" s="8" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -44718,7 +44718,7 @@
           <t>976</t>
         </is>
       </c>
-      <c r="P255" s="17" t="inlineStr">
+      <c r="P255" s="9" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -44768,7 +44768,7 @@
           <t>793</t>
         </is>
       </c>
-      <c r="Z255" s="17" t="inlineStr">
+      <c r="Z255" s="13" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -44945,7 +44945,7 @@
           <t>211</t>
         </is>
       </c>
-      <c r="X256" s="12" t="inlineStr">
+      <c r="X256" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -45052,7 +45052,7 @@
           <t>678</t>
         </is>
       </c>
-      <c r="H257" s="17" t="inlineStr">
+      <c r="H257" s="7" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -45157,7 +45157,7 @@
           <t>302</t>
         </is>
       </c>
-      <c r="AC257" s="17" t="inlineStr">
+      <c r="AC257" s="14" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -45304,7 +45304,7 @@
           <t>129</t>
         </is>
       </c>
-      <c r="U258" s="17" t="inlineStr">
+      <c r="U258" s="11" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -45319,7 +45319,7 @@
           <t>270</t>
         </is>
       </c>
-      <c r="X258" s="17" t="inlineStr">
+      <c r="X258" s="12" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -45401,7 +45401,7 @@
           <t>052</t>
         </is>
       </c>
-      <c r="C259" s="17" t="inlineStr">
+      <c r="C259" s="5" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -45516,7 +45516,7 @@
           <t>280</t>
         </is>
       </c>
-      <c r="Z259" s="17" t="inlineStr">
+      <c r="Z259" s="13" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -45613,7 +45613,7 @@
           <t>551</t>
         </is>
       </c>
-      <c r="H260" s="17" t="inlineStr">
+      <c r="H260" s="7" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -45678,7 +45678,7 @@
           <t>302</t>
         </is>
       </c>
-      <c r="U260" s="17" t="inlineStr">
+      <c r="U260" s="11" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -45713,7 +45713,7 @@
           <t>693</t>
         </is>
       </c>
-      <c r="AB260" s="17" t="inlineStr">
+      <c r="AB260" s="13" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -45805,7 +45805,7 @@
           <t>666</t>
         </is>
       </c>
-      <c r="I261" s="17" t="inlineStr">
+      <c r="I261" s="7" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -46092,7 +46092,7 @@
           <t>035</t>
         </is>
       </c>
-      <c r="AC262" s="17" t="inlineStr">
+      <c r="AC262" s="14" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -46254,7 +46254,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="X263" s="17" t="inlineStr">
+      <c r="X263" s="12" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -46284,7 +46284,7 @@
           <t>982</t>
         </is>
       </c>
-      <c r="AD263" s="17" t="inlineStr">
+      <c r="AD263" s="14" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -46356,7 +46356,7 @@
           <t>624</t>
         </is>
       </c>
-      <c r="G264" s="17" t="inlineStr">
+      <c r="G264" s="6" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -46441,7 +46441,7 @@
           <t>572</t>
         </is>
       </c>
-      <c r="X264" s="17" t="inlineStr">
+      <c r="X264" s="12" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -46481,7 +46481,7 @@
           <t>923</t>
         </is>
       </c>
-      <c r="AF264" s="17" t="inlineStr">
+      <c r="AF264" s="15" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -46528,7 +46528,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="D265" s="17" t="inlineStr">
+      <c r="D265" s="5" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -46553,7 +46553,7 @@
           <t>876</t>
         </is>
       </c>
-      <c r="I265" s="17" t="inlineStr">
+      <c r="I265" s="7" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -46613,7 +46613,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="U265" s="17" t="inlineStr">
+      <c r="U265" s="11" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -46740,7 +46740,7 @@
           <t>943</t>
         </is>
       </c>
-      <c r="I266" s="17" t="inlineStr">
+      <c r="I266" s="7" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -46790,7 +46790,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="S266" s="17" t="inlineStr">
+      <c r="S266" s="10" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -47159,7 +47159,7 @@
           <t>596</t>
         </is>
       </c>
-      <c r="R268" s="17" t="inlineStr">
+      <c r="R268" s="10" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -47224,7 +47224,7 @@
           <t>573</t>
         </is>
       </c>
-      <c r="AE268" s="17" t="inlineStr">
+      <c r="AE268" s="14" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -47316,7 +47316,7 @@
           <t>839</t>
         </is>
       </c>
-      <c r="L269" s="8" t="inlineStr">
+      <c r="L269" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -47543,7 +47543,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="T270" s="17" t="inlineStr">
+      <c r="T270" s="11" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -47618,7 +47618,7 @@
           <t>570</t>
         </is>
       </c>
-      <c r="AI270" s="17" t="inlineStr">
+      <c r="AI270" s="16" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -47695,7 +47695,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="M271" s="17" t="inlineStr">
+      <c r="M271" s="8" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -47912,7 +47912,7 @@
           <t>723</t>
         </is>
       </c>
-      <c r="S272" s="17" t="inlineStr">
+      <c r="S272" s="10" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -48019,7 +48019,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="C273" s="17" t="inlineStr">
+      <c r="C273" s="5" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -48119,7 +48119,7 @@
           <t>915</t>
         </is>
       </c>
-      <c r="W273" s="17" t="inlineStr">
+      <c r="W273" s="12" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -48251,7 +48251,7 @@
           <t>639</t>
         </is>
       </c>
-      <c r="L274" s="17" t="inlineStr">
+      <c r="L274" s="8" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -48286,7 +48286,7 @@
           <t>443</t>
         </is>
       </c>
-      <c r="S274" s="17" t="inlineStr">
+      <c r="S274" s="10" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -48366,7 +48366,7 @@
           <t>744</t>
         </is>
       </c>
-      <c r="AI274" s="17" t="inlineStr">
+      <c r="AI274" s="16" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -48685,12 +48685,12 @@
           <t>503</t>
         </is>
       </c>
-      <c r="X276" s="17" t="inlineStr">
+      <c r="X276" s="12" t="inlineStr">
         <is>
           <t>384</t>
         </is>
       </c>
-      <c r="Y276" s="12" t="inlineStr">
+      <c r="Y276" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -48740,7 +48740,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="AI276" s="17" t="inlineStr">
+      <c r="AI276" s="16" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -48772,7 +48772,7 @@
           <t>976</t>
         </is>
       </c>
-      <c r="D277" s="17" t="inlineStr">
+      <c r="D277" s="5" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -48872,7 +48872,7 @@
           <t>604</t>
         </is>
       </c>
-      <c r="X277" s="17" t="inlineStr">
+      <c r="X277" s="12" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -48917,7 +48917,7 @@
           <t>661</t>
         </is>
       </c>
-      <c r="AG277" s="15" t="inlineStr">
+      <c r="AG277" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -49044,7 +49044,7 @@
           <t>950</t>
         </is>
       </c>
-      <c r="U278" s="17" t="inlineStr">
+      <c r="U278" s="11" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -49762,7 +49762,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="AI284" s="17" t="inlineStr">
+      <c r="AI284" s="16" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -49794,7 +49794,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="D285" s="17" t="inlineStr">
+      <c r="D285" s="5" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -49909,7 +49909,7 @@
           <t>150</t>
         </is>
       </c>
-      <c r="AA285" s="17" t="inlineStr">
+      <c r="AA285" s="13" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -50001,7 +50001,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="H286" s="17" t="inlineStr">
+      <c r="H286" s="7" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -50011,7 +50011,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="J286" s="17" t="inlineStr">
+      <c r="J286" s="7" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -50116,7 +50116,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="AE286" s="17" t="inlineStr">
+      <c r="AE286" s="14" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -50375,7 +50375,7 @@
           <t>676</t>
         </is>
       </c>
-      <c r="H288" s="17" t="inlineStr">
+      <c r="H288" s="7" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -50485,7 +50485,7 @@
           <t>573</t>
         </is>
       </c>
-      <c r="AD288" s="17" t="inlineStr">
+      <c r="AD288" s="14" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -50532,7 +50532,7 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B289" s="5" t="inlineStr">
+      <c r="B289" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -50724,7 +50724,7 @@
           <t>215</t>
         </is>
       </c>
-      <c r="C290" s="17" t="inlineStr">
+      <c r="C290" s="5" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -50744,7 +50744,7 @@
           <t>200</t>
         </is>
       </c>
-      <c r="G290" s="17" t="inlineStr">
+      <c r="G290" s="6" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -50931,7 +50931,7 @@
           <t>407</t>
         </is>
       </c>
-      <c r="G291" s="17" t="inlineStr">
+      <c r="G291" s="6" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -51001,7 +51001,7 @@
           <t>980</t>
         </is>
       </c>
-      <c r="U291" s="11" t="inlineStr">
+      <c r="U291" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -51133,7 +51133,7 @@
           <t>756</t>
         </is>
       </c>
-      <c r="J292" s="17" t="inlineStr">
+      <c r="J292" s="7" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -51198,7 +51198,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="W292" s="17" t="inlineStr">
+      <c r="W292" s="12" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -51435,7 +51435,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="AG293" s="15" t="inlineStr">
+      <c r="AG293" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -51734,7 +51734,7 @@
           <t>081</t>
         </is>
       </c>
-      <c r="R295" s="17" t="inlineStr">
+      <c r="R295" s="10" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -51759,7 +51759,7 @@
           <t>944</t>
         </is>
       </c>
-      <c r="W295" s="17" t="inlineStr">
+      <c r="W295" s="12" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -51789,7 +51789,7 @@
           <t>742</t>
         </is>
       </c>
-      <c r="AC295" s="17" t="inlineStr">
+      <c r="AC295" s="14" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -51966,7 +51966,7 @@
           <t>958</t>
         </is>
       </c>
-      <c r="AA296" s="17" t="inlineStr">
+      <c r="AA296" s="13" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -51986,7 +51986,7 @@
           <t>753</t>
         </is>
       </c>
-      <c r="AE296" s="14" t="inlineStr">
+      <c r="AE296" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -52078,7 +52078,7 @@
           <t>755</t>
         </is>
       </c>
-      <c r="L297" s="17" t="inlineStr">
+      <c r="L297" s="8" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -52295,7 +52295,7 @@
           <t>921</t>
         </is>
       </c>
-      <c r="R298" s="17" t="inlineStr">
+      <c r="R298" s="10" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -52380,7 +52380,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="AI298" s="17" t="inlineStr">
+      <c r="AI298" s="16" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -52417,7 +52417,7 @@
           <t>936</t>
         </is>
       </c>
-      <c r="E299" s="17" t="inlineStr">
+      <c r="E299" s="6" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -52542,7 +52542,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="AD299" s="17" t="inlineStr">
+      <c r="AD299" s="14" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -52649,7 +52649,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N300" s="17" t="inlineStr">
+      <c r="N300" s="9" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -52816,7 +52816,7 @@
           <t>097</t>
         </is>
       </c>
-      <c r="J301" s="17" t="inlineStr">
+      <c r="J301" s="7" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -53058,7 +53058,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="U302" s="11" t="inlineStr">
+      <c r="U302" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -53083,7 +53083,7 @@
           <t>291</t>
         </is>
       </c>
-      <c r="Z302" s="17" t="inlineStr">
+      <c r="Z302" s="13" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -53108,7 +53108,7 @@
           <t>629</t>
         </is>
       </c>
-      <c r="AE302" s="17" t="inlineStr">
+      <c r="AE302" s="14" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -53175,7 +53175,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="G303" s="17" t="inlineStr">
+      <c r="G303" s="6" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -53215,12 +53215,12 @@
           <t>062</t>
         </is>
       </c>
-      <c r="O303" s="17" t="inlineStr">
+      <c r="O303" s="9" t="inlineStr">
         <is>
           <t>603</t>
         </is>
       </c>
-      <c r="P303" s="17" t="inlineStr">
+      <c r="P303" s="9" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -53320,7 +53320,7 @@
           <t>581</t>
         </is>
       </c>
-      <c r="AJ303" s="17" t="inlineStr">
+      <c r="AJ303" s="16" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -53342,7 +53342,7 @@
           <t>047</t>
         </is>
       </c>
-      <c r="C304" s="17" t="inlineStr">
+      <c r="C304" s="5" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -53402,7 +53402,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="O304" s="17" t="inlineStr">
+      <c r="O304" s="9" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -53452,7 +53452,7 @@
           <t>580</t>
         </is>
       </c>
-      <c r="Y304" s="12" t="inlineStr">
+      <c r="Y304" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -53564,12 +53564,12 @@
           <t>912</t>
         </is>
       </c>
-      <c r="J305" s="17" t="inlineStr">
+      <c r="J305" s="7" t="inlineStr">
         <is>
           <t>835</t>
         </is>
       </c>
-      <c r="K305" s="8" t="inlineStr">
+      <c r="K305" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -53609,7 +53609,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="S305" s="17" t="inlineStr">
+      <c r="S305" s="10" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -53791,7 +53791,7 @@
           <t>264</t>
         </is>
       </c>
-      <c r="R306" s="17" t="inlineStr">
+      <c r="R306" s="10" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -53876,7 +53876,7 @@
           <t>230</t>
         </is>
       </c>
-      <c r="AI306" s="17" t="inlineStr">
+      <c r="AI306" s="16" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -53918,7 +53918,7 @@
           <t>969</t>
         </is>
       </c>
-      <c r="F307" s="17" t="inlineStr">
+      <c r="F307" s="6" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -54058,7 +54058,7 @@
           <t>842</t>
         </is>
       </c>
-      <c r="AH307" s="17" t="inlineStr">
+      <c r="AH307" s="15" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -54100,7 +54100,7 @@
           <t>418</t>
         </is>
       </c>
-      <c r="E308" s="6" t="inlineStr">
+      <c r="E308" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -54691,7 +54691,7 @@
           <t>429</t>
         </is>
       </c>
-      <c r="K311" s="17" t="inlineStr">
+      <c r="K311" s="8" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -54731,7 +54731,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="S311" s="17" t="inlineStr">
+      <c r="S311" s="10" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -54908,7 +54908,7 @@
           <t>269</t>
         </is>
       </c>
-      <c r="Q312" s="17" t="inlineStr">
+      <c r="Q312" s="10" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -54983,7 +54983,7 @@
           <t>527</t>
         </is>
       </c>
-      <c r="AF312" s="17" t="inlineStr">
+      <c r="AF312" s="15" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -55080,7 +55080,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N313" s="17" t="inlineStr">
+      <c r="N313" s="9" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -55130,7 +55130,7 @@
           <t>526</t>
         </is>
       </c>
-      <c r="X313" s="17" t="inlineStr">
+      <c r="X313" s="12" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -55571,7 +55571,7 @@
           <t>715</t>
         </is>
       </c>
-      <c r="T318" s="17" t="inlineStr">
+      <c r="T318" s="11" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -55631,7 +55631,7 @@
           <t>028</t>
         </is>
       </c>
-      <c r="AF318" s="17" t="inlineStr">
+      <c r="AF318" s="15" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -55678,7 +55678,7 @@
           <t>229</t>
         </is>
       </c>
-      <c r="D319" s="17" t="inlineStr">
+      <c r="D319" s="5" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -55875,7 +55875,7 @@
           <t>685</t>
         </is>
       </c>
-      <c r="F320" s="17" t="inlineStr">
+      <c r="F320" s="6" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -55895,7 +55895,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="J320" s="17" t="inlineStr">
+      <c r="J320" s="7" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -55940,7 +55940,7 @@
           <t>008</t>
         </is>
       </c>
-      <c r="S320" s="17" t="inlineStr">
+      <c r="S320" s="10" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -55985,7 +55985,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AB320" s="17" t="inlineStr">
+      <c r="AB320" s="13" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -56062,7 +56062,7 @@
           <t>927</t>
         </is>
       </c>
-      <c r="F321" s="17" t="inlineStr">
+      <c r="F321" s="6" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -56142,7 +56142,7 @@
           <t>270</t>
         </is>
       </c>
-      <c r="V321" s="11" t="inlineStr">
+      <c r="V321" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -56249,7 +56249,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="F322" s="17" t="inlineStr">
+      <c r="F322" s="6" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -56369,7 +56369,7 @@
           <t>884</t>
         </is>
       </c>
-      <c r="AD322" s="14" t="inlineStr">
+      <c r="AD322" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -56404,7 +56404,7 @@
           <t>808</t>
         </is>
       </c>
-      <c r="AK322" s="16" t="inlineStr">
+      <c r="AK322" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -56481,7 +56481,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="O323" s="17" t="inlineStr">
+      <c r="O323" s="9" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -56638,7 +56638,7 @@
           <t>779</t>
         </is>
       </c>
-      <c r="I324" s="17" t="inlineStr">
+      <c r="I324" s="7" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -56658,7 +56658,7 @@
           <t>515</t>
         </is>
       </c>
-      <c r="M324" s="8" t="inlineStr">
+      <c r="M324" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -56748,7 +56748,7 @@
           <t>819</t>
         </is>
       </c>
-      <c r="AE324" s="17" t="inlineStr">
+      <c r="AE324" s="14" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -56890,7 +56890,7 @@
           <t>459</t>
         </is>
       </c>
-      <c r="V325" s="17" t="inlineStr">
+      <c r="V325" s="11" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -56900,7 +56900,7 @@
           <t>737</t>
         </is>
       </c>
-      <c r="X325" s="17" t="inlineStr">
+      <c r="X325" s="12" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -56925,7 +56925,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="AC325" s="17" t="inlineStr">
+      <c r="AC325" s="14" t="inlineStr">
         <is>
           <t>843</t>
         </is>
@@ -56977,7 +56977,7 @@
           <t>09</t>
         </is>
       </c>
-      <c r="B326" s="17" t="inlineStr">
+      <c r="B326" s="5" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -57087,7 +57087,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="X326" s="17" t="inlineStr">
+      <c r="X326" s="12" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -57234,7 +57234,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="P327" s="17" t="inlineStr">
+      <c r="P327" s="9" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -57406,7 +57406,7 @@
           <t>192</t>
         </is>
       </c>
-      <c r="M328" s="17" t="inlineStr">
+      <c r="M328" s="8" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -57471,7 +57471,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="Z328" s="17" t="inlineStr">
+      <c r="Z328" s="13" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -57563,7 +57563,7 @@
           <t>526</t>
         </is>
       </c>
-      <c r="G329" s="17" t="inlineStr">
+      <c r="G329" s="6" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -57578,7 +57578,7 @@
           <t>453</t>
         </is>
       </c>
-      <c r="J329" s="17" t="inlineStr">
+      <c r="J329" s="7" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -57648,7 +57648,7 @@
           <t>839</t>
         </is>
       </c>
-      <c r="X329" s="17" t="inlineStr">
+      <c r="X329" s="12" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -57755,7 +57755,7 @@
           <t>178</t>
         </is>
       </c>
-      <c r="H330" s="17" t="inlineStr">
+      <c r="H330" s="7" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -57977,7 +57977,7 @@
           <t>216</t>
         </is>
       </c>
-      <c r="O331" s="17" t="inlineStr">
+      <c r="O331" s="9" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -58082,7 +58082,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="AJ331" s="17" t="inlineStr">
+      <c r="AJ331" s="16" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -58099,7 +58099,7 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B332" s="17" t="inlineStr">
+      <c r="B332" s="5" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -58224,7 +58224,7 @@
           <t>885</t>
         </is>
       </c>
-      <c r="AA332" s="17" t="inlineStr">
+      <c r="AA332" s="13" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -58249,7 +58249,7 @@
           <t>214</t>
         </is>
       </c>
-      <c r="AF332" s="17" t="inlineStr">
+      <c r="AF332" s="15" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -58274,7 +58274,7 @@
           <t>888</t>
         </is>
       </c>
-      <c r="AK332" s="17" t="inlineStr">
+      <c r="AK332" s="16" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -58331,7 +58331,7 @@
           <t>894</t>
         </is>
       </c>
-      <c r="K333" s="17" t="inlineStr">
+      <c r="K333" s="8" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -58341,7 +58341,7 @@
           <t>396</t>
         </is>
       </c>
-      <c r="M333" s="17" t="inlineStr">
+      <c r="M333" s="8" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -58411,7 +58411,7 @@
           <t>093</t>
         </is>
       </c>
-      <c r="AA333" s="17" t="inlineStr">
+      <c r="AA333" s="13" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -58613,7 +58613,7 @@
           <t>827</t>
         </is>
       </c>
-      <c r="AD334" s="17" t="inlineStr">
+      <c r="AD334" s="14" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -58633,7 +58633,7 @@
           <t>606</t>
         </is>
       </c>
-      <c r="AH334" s="17" t="inlineStr">
+      <c r="AH334" s="15" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -59124,7 +59124,7 @@
           <t>118</t>
         </is>
       </c>
-      <c r="T337" s="17" t="inlineStr">
+      <c r="T337" s="11" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -59164,7 +59164,7 @@
           <t>246</t>
         </is>
       </c>
-      <c r="AB337" s="17" t="inlineStr">
+      <c r="AB337" s="13" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -59221,7 +59221,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B338" s="17" t="inlineStr">
+      <c r="B338" s="5" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -59261,7 +59261,7 @@
           <t>322</t>
         </is>
       </c>
-      <c r="J338" s="7" t="inlineStr">
+      <c r="J338" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -59291,7 +59291,7 @@
           <t>953</t>
         </is>
       </c>
-      <c r="P338" s="17" t="inlineStr">
+      <c r="P338" s="9" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -59418,7 +59418,7 @@
           <t>831</t>
         </is>
       </c>
-      <c r="D339" s="17" t="inlineStr">
+      <c r="D339" s="5" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -59655,7 +59655,7 @@
           <t>772</t>
         </is>
       </c>
-      <c r="N340" s="17" t="inlineStr">
+      <c r="N340" s="9" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -59782,7 +59782,7 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B341" s="17" t="inlineStr">
+      <c r="B341" s="5" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -59837,7 +59837,7 @@
           <t>930</t>
         </is>
       </c>
-      <c r="M341" s="17" t="inlineStr">
+      <c r="M341" s="8" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -59882,7 +59882,7 @@
           <t>766</t>
         </is>
       </c>
-      <c r="V341" s="17" t="inlineStr">
+      <c r="V341" s="11" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -59917,7 +59917,7 @@
           <t>123</t>
         </is>
       </c>
-      <c r="AC341" s="17" t="inlineStr">
+      <c r="AC341" s="14" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -60114,7 +60114,7 @@
           <t>257</t>
         </is>
       </c>
-      <c r="AE342" s="17" t="inlineStr">
+      <c r="AE342" s="14" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -60216,7 +60216,7 @@
           <t>892</t>
         </is>
       </c>
-      <c r="N343" s="17" t="inlineStr">
+      <c r="N343" s="9" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -60301,7 +60301,7 @@
           <t>270</t>
         </is>
       </c>
-      <c r="AE343" s="17" t="inlineStr">
+      <c r="AE343" s="14" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -60348,7 +60348,7 @@
           <t>106</t>
         </is>
       </c>
-      <c r="C344" s="17" t="inlineStr">
+      <c r="C344" s="5" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -60383,7 +60383,7 @@
           <t>880</t>
         </is>
       </c>
-      <c r="J344" s="17" t="inlineStr">
+      <c r="J344" s="7" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -60433,7 +60433,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="T344" s="17" t="inlineStr">
+      <c r="T344" s="11" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -60493,7 +60493,7 @@
           <t>732</t>
         </is>
       </c>
-      <c r="AF344" s="17" t="inlineStr">
+      <c r="AF344" s="15" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -60585,7 +60585,7 @@
           <t>844</t>
         </is>
       </c>
-      <c r="M345" s="17" t="inlineStr">
+      <c r="M345" s="8" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -60680,7 +60680,7 @@
           <t>569</t>
         </is>
       </c>
-      <c r="AF345" s="17" t="inlineStr">
+      <c r="AF345" s="15" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -60717,7 +60717,7 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B346" s="17" t="inlineStr">
+      <c r="B346" s="5" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -60837,7 +60837,7 @@
           <t>034</t>
         </is>
       </c>
-      <c r="Z346" s="17" t="inlineStr">
+      <c r="Z346" s="13" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -60872,7 +60872,7 @@
           <t>626</t>
         </is>
       </c>
-      <c r="AG346" s="17" t="inlineStr">
+      <c r="AG346" s="15" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -60934,7 +60934,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H347" s="17" t="inlineStr">
+      <c r="H347" s="7" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -61069,7 +61069,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="AI347" s="17" t="inlineStr">
+      <c r="AI347" s="16" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -61261,7 +61261,7 @@
           <t>857</t>
         </is>
       </c>
-      <c r="AJ348" s="17" t="inlineStr">
+      <c r="AJ348" s="16" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -61597,7 +61597,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="K353" s="17" t="inlineStr">
+      <c r="K353" s="8" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -61647,7 +61647,7 @@
           <t>629</t>
         </is>
       </c>
-      <c r="U353" s="17" t="inlineStr">
+      <c r="U353" s="11" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -61759,7 +61759,7 @@
           <t>944</t>
         </is>
       </c>
-      <c r="F354" s="17" t="inlineStr">
+      <c r="F354" s="6" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -62046,7 +62046,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="Z355" s="17" t="inlineStr">
+      <c r="Z355" s="13" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -62128,7 +62128,7 @@
           <t>220</t>
         </is>
       </c>
-      <c r="E356" s="6" t="inlineStr">
+      <c r="E356" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -62208,7 +62208,7 @@
           <t>251</t>
         </is>
       </c>
-      <c r="U356" s="11" t="inlineStr">
+      <c r="U356" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -62218,7 +62218,7 @@
           <t>735</t>
         </is>
       </c>
-      <c r="W356" s="17" t="inlineStr">
+      <c r="W356" s="12" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -62415,7 +62415,7 @@
           <t>199</t>
         </is>
       </c>
-      <c r="Y357" s="17" t="inlineStr">
+      <c r="Y357" s="12" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -62714,7 +62714,7 @@
           <t>451</t>
         </is>
       </c>
-      <c r="J359" s="17" t="inlineStr">
+      <c r="J359" s="7" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -62824,7 +62824,7 @@
           <t>130</t>
         </is>
       </c>
-      <c r="AF359" s="17" t="inlineStr">
+      <c r="AF359" s="15" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -62861,7 +62861,7 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B360" s="5" t="inlineStr">
+      <c r="B360" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -62871,7 +62871,7 @@
           <t>631</t>
         </is>
       </c>
-      <c r="D360" s="17" t="inlineStr">
+      <c r="D360" s="5" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -63011,7 +63011,7 @@
           <t>767</t>
         </is>
       </c>
-      <c r="AF360" s="17" t="inlineStr">
+      <c r="AF360" s="15" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -63208,7 +63208,7 @@
           <t>161</t>
         </is>
       </c>
-      <c r="AH361" s="17" t="inlineStr">
+      <c r="AH361" s="15" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -63325,7 +63325,7 @@
           <t>067</t>
         </is>
       </c>
-      <c r="T362" s="17" t="inlineStr">
+      <c r="T362" s="11" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -63422,12 +63422,12 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B363" s="17" t="inlineStr">
+      <c r="B363" s="5" t="inlineStr">
         <is>
           <t>348</t>
         </is>
       </c>
-      <c r="C363" s="17" t="inlineStr">
+      <c r="C363" s="5" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -63527,7 +63527,7 @@
           <t>541</t>
         </is>
       </c>
-      <c r="W363" s="17" t="inlineStr">
+      <c r="W363" s="12" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -63552,7 +63552,7 @@
           <t>283</t>
         </is>
       </c>
-      <c r="AB363" s="17" t="inlineStr">
+      <c r="AB363" s="13" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -63572,7 +63572,7 @@
           <t>019</t>
         </is>
       </c>
-      <c r="AF363" s="17" t="inlineStr">
+      <c r="AF363" s="15" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -63801,7 +63801,7 @@
           <t>353</t>
         </is>
       </c>
-      <c r="C365" s="17" t="inlineStr">
+      <c r="C365" s="5" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -63811,7 +63811,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="E365" s="17" t="inlineStr">
+      <c r="E365" s="6" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -63881,7 +63881,7 @@
           <t>916</t>
         </is>
       </c>
-      <c r="S365" s="17" t="inlineStr">
+      <c r="S365" s="10" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -63891,7 +63891,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="U365" s="17" t="inlineStr">
+      <c r="U365" s="11" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -64018,12 +64018,12 @@
           <t>195</t>
         </is>
       </c>
-      <c r="I366" s="17" t="inlineStr">
+      <c r="I366" s="7" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="J366" s="17" t="inlineStr">
+      <c r="J366" s="7" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -64038,7 +64038,7 @@
           <t>766</t>
         </is>
       </c>
-      <c r="M366" s="17" t="inlineStr">
+      <c r="M366" s="8" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -64275,7 +64275,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="W367" s="17" t="inlineStr">
+      <c r="W367" s="12" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -64397,7 +64397,7 @@
           <t>506</t>
         </is>
       </c>
-      <c r="J368" s="17" t="inlineStr">
+      <c r="J368" s="7" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -64412,7 +64412,7 @@
           <t>587</t>
         </is>
       </c>
-      <c r="M368" s="17" t="inlineStr">
+      <c r="M368" s="8" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -64594,7 +64594,7 @@
           <t>540</t>
         </is>
       </c>
-      <c r="L369" s="17" t="inlineStr">
+      <c r="L369" s="8" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -64694,7 +64694,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="AF369" s="17" t="inlineStr">
+      <c r="AF369" s="15" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -64731,7 +64731,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B370" s="5" t="inlineStr">
+      <c r="B370" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -64741,7 +64741,7 @@
           <t>020</t>
         </is>
       </c>
-      <c r="D370" s="17" t="inlineStr">
+      <c r="D370" s="5" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -64816,7 +64816,7 @@
           <t>389</t>
         </is>
       </c>
-      <c r="S370" s="17" t="inlineStr">
+      <c r="S370" s="10" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -64918,12 +64918,12 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B371" s="17" t="inlineStr">
+      <c r="B371" s="5" t="inlineStr">
         <is>
           <t>592</t>
         </is>
       </c>
-      <c r="C371" s="17" t="inlineStr">
+      <c r="C371" s="5" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -64933,12 +64933,12 @@
           <t>769</t>
         </is>
       </c>
-      <c r="E371" s="17" t="inlineStr">
+      <c r="E371" s="6" t="inlineStr">
         <is>
           <t>843</t>
         </is>
       </c>
-      <c r="F371" s="6" t="inlineStr">
+      <c r="F371" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -65110,7 +65110,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="C372" s="17" t="inlineStr">
+      <c r="C372" s="5" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -65140,7 +65140,7 @@
           <t>463</t>
         </is>
       </c>
-      <c r="I372" s="17" t="inlineStr">
+      <c r="I372" s="7" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -65225,7 +65225,7 @@
           <t>013</t>
         </is>
       </c>
-      <c r="Z372" s="17" t="inlineStr">
+      <c r="Z372" s="13" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -65332,7 +65332,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="J373" s="17" t="inlineStr">
+      <c r="J373" s="7" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -65427,7 +65427,7 @@
           <t>072</t>
         </is>
       </c>
-      <c r="AC373" s="17" t="inlineStr">
+      <c r="AC373" s="14" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -65529,7 +65529,7 @@
           <t>778</t>
         </is>
       </c>
-      <c r="L374" s="17" t="inlineStr">
+      <c r="L374" s="8" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -65544,7 +65544,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="O374" s="17" t="inlineStr">
+      <c r="O374" s="9" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -65569,7 +65569,7 @@
           <t>349</t>
         </is>
       </c>
-      <c r="T374" s="17" t="inlineStr">
+      <c r="T374" s="11" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -65746,7 +65746,7 @@
           <t>887</t>
         </is>
       </c>
-      <c r="R375" s="17" t="inlineStr">
+      <c r="R375" s="10" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -65831,7 +65831,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="AI375" s="17" t="inlineStr">
+      <c r="AI375" s="16" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -65853,7 +65853,7 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B376" s="5" t="inlineStr">
+      <c r="B376" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -65863,7 +65863,7 @@
           <t>105</t>
         </is>
       </c>
-      <c r="D376" s="17" t="inlineStr">
+      <c r="D376" s="5" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -65938,7 +65938,7 @@
           <t>468</t>
         </is>
       </c>
-      <c r="S376" s="17" t="inlineStr">
+      <c r="S376" s="10" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -65998,7 +65998,7 @@
           <t>806</t>
         </is>
       </c>
-      <c r="AE376" s="17" t="inlineStr">
+      <c r="AE376" s="14" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -66282,7 +66282,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="M378" s="8" t="inlineStr">
+      <c r="M378" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -66499,7 +66499,7 @@
           <t>404</t>
         </is>
       </c>
-      <c r="S379" s="17" t="inlineStr">
+      <c r="S379" s="10" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -66771,7 +66771,7 @@
           <t>824</t>
         </is>
       </c>
-      <c r="AJ380" s="17" t="inlineStr">
+      <c r="AJ380" s="16" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -66793,7 +66793,7 @@
           <t>987</t>
         </is>
       </c>
-      <c r="C381" s="17" t="inlineStr">
+      <c r="C381" s="5" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -67045,12 +67045,12 @@
           <t>610</t>
         </is>
       </c>
-      <c r="P382" s="17" t="inlineStr">
+      <c r="P382" s="9" t="inlineStr">
         <is>
           <t>326</t>
         </is>
       </c>
-      <c r="Q382" s="17" t="inlineStr">
+      <c r="Q382" s="10" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -67115,7 +67115,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="AD382" s="17" t="inlineStr">
+      <c r="AD382" s="14" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -67125,7 +67125,7 @@
           <t>697</t>
         </is>
       </c>
-      <c r="AF382" s="15" t="inlineStr">
+      <c r="AF382" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -67150,7 +67150,7 @@
           <t>905</t>
         </is>
       </c>
-      <c r="AK382" s="17" t="inlineStr">
+      <c r="AK382" s="16" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -67222,7 +67222,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N383" s="17" t="inlineStr">
+      <c r="N383" s="9" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -67643,7 +67643,7 @@
           <t>251</t>
         </is>
       </c>
-      <c r="F388" s="17" t="inlineStr">
+      <c r="F388" s="6" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -67663,12 +67663,12 @@
           <t>837</t>
         </is>
       </c>
-      <c r="J388" s="17" t="inlineStr">
+      <c r="J388" s="7" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="K388" s="17" t="inlineStr">
+      <c r="K388" s="8" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -67683,7 +67683,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="N388" s="17" t="inlineStr">
+      <c r="N388" s="9" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -67753,7 +67753,7 @@
           <t>792</t>
         </is>
       </c>
-      <c r="AB388" s="17" t="inlineStr">
+      <c r="AB388" s="13" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -67768,7 +67768,7 @@
           <t>281</t>
         </is>
       </c>
-      <c r="AE388" s="17" t="inlineStr">
+      <c r="AE388" s="14" t="inlineStr">
         <is>
           <t>473</t>
         </is>
@@ -67860,7 +67860,7 @@
           <t>003</t>
         </is>
       </c>
-      <c r="L389" s="17" t="inlineStr">
+      <c r="L389" s="8" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -67885,12 +67885,12 @@
           <t>113</t>
         </is>
       </c>
-      <c r="Q389" s="17" t="inlineStr">
+      <c r="Q389" s="10" t="inlineStr">
         <is>
           <t>641</t>
         </is>
       </c>
-      <c r="R389" s="17" t="inlineStr">
+      <c r="R389" s="10" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -68022,7 +68022,7 @@
           <t>351</t>
         </is>
       </c>
-      <c r="G390" s="17" t="inlineStr">
+      <c r="G390" s="6" t="inlineStr">
         <is>
           <t>366</t>
         </is>
@@ -68047,7 +68047,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="L390" s="8" t="inlineStr">
+      <c r="L390" s="17" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -68072,7 +68072,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="Q390" s="17" t="inlineStr">
+      <c r="Q390" s="10" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -68406,7 +68406,7 @@
           <t>828</t>
         </is>
       </c>
-      <c r="I392" s="17" t="inlineStr">
+      <c r="I392" s="7" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -68466,7 +68466,7 @@
           <t>565</t>
         </is>
       </c>
-      <c r="U392" s="17" t="inlineStr">
+      <c r="U392" s="11" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -68623,7 +68623,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="O393" s="17" t="inlineStr">
+      <c r="O393" s="9" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -68643,7 +68643,7 @@
           <t>574</t>
         </is>
       </c>
-      <c r="S393" s="17" t="inlineStr">
+      <c r="S393" s="10" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -68688,7 +68688,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AB393" s="17" t="inlineStr">
+      <c r="AB393" s="13" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -68723,7 +68723,7 @@
           <t>219</t>
         </is>
       </c>
-      <c r="AI393" s="17" t="inlineStr">
+      <c r="AI393" s="16" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -68745,7 +68745,7 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B394" s="17" t="inlineStr">
+      <c r="B394" s="5" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -68765,7 +68765,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="F394" s="17" t="inlineStr">
+      <c r="F394" s="6" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -68850,7 +68850,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="W394" s="17" t="inlineStr">
+      <c r="W394" s="12" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -69124,7 +69124,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="C396" s="5" t="inlineStr">
+      <c r="C396" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -69174,7 +69174,7 @@
           <t>029</t>
         </is>
       </c>
-      <c r="M396" s="17" t="inlineStr">
+      <c r="M396" s="8" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -69239,7 +69239,7 @@
           <t>738</t>
         </is>
       </c>
-      <c r="Z396" s="17" t="inlineStr">
+      <c r="Z396" s="13" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -69294,7 +69294,7 @@
           <t>788</t>
         </is>
       </c>
-      <c r="AK396" s="17" t="inlineStr">
+      <c r="AK396" s="16" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -69311,7 +69311,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="C397" s="17" t="inlineStr">
+      <c r="C397" s="5" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -69341,7 +69341,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="I397" s="17" t="inlineStr">
+      <c r="I397" s="7" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -69608,7 +69608,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="Y398" s="17" t="inlineStr">
+      <c r="Y398" s="12" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -69685,7 +69685,7 @@
           <t>381</t>
         </is>
       </c>
-      <c r="C399" s="17" t="inlineStr">
+      <c r="C399" s="5" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -69805,7 +69805,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="AA399" s="17" t="inlineStr">
+      <c r="AA399" s="13" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -69820,7 +69820,7 @@
           <t>272</t>
         </is>
       </c>
-      <c r="AD399" s="17" t="inlineStr">
+      <c r="AD399" s="14" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -69830,7 +69830,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="AF399" s="17" t="inlineStr">
+      <c r="AF399" s="15" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -69840,7 +69840,7 @@
           <t>301</t>
         </is>
       </c>
-      <c r="AH399" s="17" t="inlineStr">
+      <c r="AH399" s="15" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -69902,7 +69902,7 @@
           <t>269</t>
         </is>
       </c>
-      <c r="I400" s="17" t="inlineStr">
+      <c r="I400" s="7" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -69932,7 +69932,7 @@
           <t>382</t>
         </is>
       </c>
-      <c r="O400" s="17" t="inlineStr">
+      <c r="O400" s="9" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -70054,7 +70054,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B401" s="17" t="inlineStr">
+      <c r="B401" s="5" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -70089,7 +70089,7 @@
           <t>598</t>
         </is>
       </c>
-      <c r="I401" s="17" t="inlineStr">
+      <c r="I401" s="7" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -70174,7 +70174,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="Z401" s="17" t="inlineStr">
+      <c r="Z401" s="13" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -70184,7 +70184,7 @@
           <t>968</t>
         </is>
       </c>
-      <c r="AB401" s="17" t="inlineStr">
+      <c r="AB401" s="13" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -70433,7 +70433,7 @@
           <t>946</t>
         </is>
       </c>
-      <c r="C403" s="17" t="inlineStr">
+      <c r="C403" s="5" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -70443,7 +70443,7 @@
           <t>192</t>
         </is>
       </c>
-      <c r="E403" s="17" t="inlineStr">
+      <c r="E403" s="6" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -70493,7 +70493,7 @@
           <t>895</t>
         </is>
       </c>
-      <c r="O403" s="17" t="inlineStr">
+      <c r="O403" s="9" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -70513,7 +70513,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="S403" s="17" t="inlineStr">
+      <c r="S403" s="10" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -70533,7 +70533,7 @@
           <t>729</t>
         </is>
       </c>
-      <c r="W403" s="17" t="inlineStr">
+      <c r="W403" s="12" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -70593,7 +70593,7 @@
           <t>398</t>
         </is>
       </c>
-      <c r="AI403" s="17" t="inlineStr">
+      <c r="AI403" s="16" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -70615,7 +70615,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B404" s="17" t="inlineStr">
+      <c r="B404" s="5" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -70725,7 +70725,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="X404" s="17" t="inlineStr">
+      <c r="X404" s="12" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -71266,7 +71266,7 @@
           <t>088</t>
         </is>
       </c>
-      <c r="T407" s="17" t="inlineStr">
+      <c r="T407" s="11" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -71351,7 +71351,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="AK407" s="17" t="inlineStr">
+      <c r="AK407" s="16" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -71363,7 +71363,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B408" s="17" t="inlineStr">
+      <c r="B408" s="5" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -71428,7 +71428,7 @@
           <t>979</t>
         </is>
       </c>
-      <c r="O408" s="17" t="inlineStr">
+      <c r="O408" s="9" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -71513,7 +71513,7 @@
           <t>238</t>
         </is>
       </c>
-      <c r="AF408" s="17" t="inlineStr">
+      <c r="AF408" s="15" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -71533,7 +71533,7 @@
           <t>822</t>
         </is>
       </c>
-      <c r="AJ408" s="17" t="inlineStr">
+      <c r="AJ408" s="16" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -71747,7 +71747,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="D410" s="17" t="inlineStr">
+      <c r="D410" s="5" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -71812,7 +71812,7 @@
           <t>053</t>
         </is>
       </c>
-      <c r="Q410" s="17" t="inlineStr">
+      <c r="Q410" s="10" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -72019,7 +72019,7 @@
           <t>774</t>
         </is>
       </c>
-      <c r="U411" s="17" t="inlineStr">
+      <c r="U411" s="11" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -72034,7 +72034,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="X411" s="17" t="inlineStr">
+      <c r="X411" s="12" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -72141,7 +72141,7 @@
           <t>850</t>
         </is>
       </c>
-      <c r="H412" s="17" t="inlineStr">
+      <c r="H412" s="7" t="inlineStr">
         <is>
           <t>632</t>
         </is>
@@ -72398,7 +72398,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="V413" s="17" t="inlineStr">
+      <c r="V413" s="11" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -72495,7 +72495,7 @@
           <t>159</t>
         </is>
       </c>
-      <c r="D414" s="17" t="inlineStr">
+      <c r="D414" s="5" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -72677,7 +72677,7 @@
           <t>369</t>
         </is>
       </c>
-      <c r="C415" s="17" t="inlineStr">
+      <c r="C415" s="5" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -73161,7 +73161,7 @@
           <t>673</t>
         </is>
       </c>
-      <c r="Y417" s="17" t="inlineStr">
+      <c r="Y417" s="12" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -73338,7 +73338,7 @@
           <t>344</t>
         </is>
       </c>
-      <c r="W418" s="12" t="inlineStr">
+      <c r="W418" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -73398,7 +73398,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI418" s="17" t="inlineStr">
+      <c r="AI418" s="16" t="inlineStr">
         <is>
           <t>651</t>
         </is>
@@ -73774,7 +73774,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="R423" s="17" t="inlineStr">
+      <c r="R423" s="10" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -73921,7 +73921,7 @@
           <t>053</t>
         </is>
       </c>
-      <c r="J424" s="17" t="inlineStr">
+      <c r="J424" s="7" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -74026,7 +74026,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="AE424" s="17" t="inlineStr">
+      <c r="AE424" s="14" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -74056,7 +74056,7 @@
           <t>712</t>
         </is>
       </c>
-      <c r="AK424" s="17" t="inlineStr">
+      <c r="AK424" s="16" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -74088,12 +74088,12 @@
           <t>469</t>
         </is>
       </c>
-      <c r="F425" s="17" t="inlineStr">
+      <c r="F425" s="6" t="inlineStr">
         <is>
           <t>925</t>
         </is>
       </c>
-      <c r="G425" s="17" t="inlineStr">
+      <c r="G425" s="6" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -74305,7 +74305,7 @@
           <t>006</t>
         </is>
       </c>
-      <c r="L426" s="17" t="inlineStr">
+      <c r="L426" s="8" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -74360,7 +74360,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="W426" s="17" t="inlineStr">
+      <c r="W426" s="12" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -74385,7 +74385,7 @@
           <t>356</t>
         </is>
       </c>
-      <c r="AB426" s="13" t="inlineStr">
+      <c r="AB426" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -74410,7 +74410,7 @@
           <t>310</t>
         </is>
       </c>
-      <c r="AG426" s="17" t="inlineStr">
+      <c r="AG426" s="15" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -74462,7 +74462,7 @@
           <t>890</t>
         </is>
       </c>
-      <c r="F427" s="17" t="inlineStr">
+      <c r="F427" s="6" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -74562,7 +74562,7 @@
           <t>047</t>
         </is>
       </c>
-      <c r="Z427" s="17" t="inlineStr">
+      <c r="Z427" s="13" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -74597,7 +74597,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="AG427" s="17" t="inlineStr">
+      <c r="AG427" s="15" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -74759,7 +74759,7 @@
           <t>820</t>
         </is>
       </c>
-      <c r="AB428" s="17" t="inlineStr">
+      <c r="AB428" s="13" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -74826,7 +74826,7 @@
           <t>201</t>
         </is>
       </c>
-      <c r="D429" s="17" t="inlineStr">
+      <c r="D429" s="5" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -74891,7 +74891,7 @@
           <t>133</t>
         </is>
       </c>
-      <c r="Q429" s="17" t="inlineStr">
+      <c r="Q429" s="10" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -74991,7 +74991,7 @@
           <t>949</t>
         </is>
       </c>
-      <c r="AK429" s="17" t="inlineStr">
+      <c r="AK429" s="16" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -75148,7 +75148,7 @@
           <t>569</t>
         </is>
       </c>
-      <c r="AE430" s="17" t="inlineStr">
+      <c r="AE430" s="14" t="inlineStr">
         <is>
           <t>603</t>
         </is>
@@ -75163,7 +75163,7 @@
           <t>826</t>
         </is>
       </c>
-      <c r="AH430" s="17" t="inlineStr">
+      <c r="AH430" s="15" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -75482,7 +75482,7 @@
           <t>233</t>
         </is>
       </c>
-      <c r="W432" s="17" t="inlineStr">
+      <c r="W432" s="12" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -75537,7 +75537,7 @@
           <t>303</t>
         </is>
       </c>
-      <c r="AH432" s="17" t="inlineStr">
+      <c r="AH432" s="15" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -75569,7 +75569,7 @@
           <t>970</t>
         </is>
       </c>
-      <c r="C433" s="17" t="inlineStr">
+      <c r="C433" s="5" t="inlineStr">
         <is>
           <t>461</t>
         </is>
@@ -75589,7 +75589,7 @@
           <t>617</t>
         </is>
       </c>
-      <c r="G433" s="17" t="inlineStr">
+      <c r="G433" s="6" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -75629,7 +75629,7 @@
           <t>953</t>
         </is>
       </c>
-      <c r="O433" s="17" t="inlineStr">
+      <c r="O433" s="9" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -75699,7 +75699,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="AC433" s="17" t="inlineStr">
+      <c r="AC433" s="14" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -75761,7 +75761,7 @@
           <t>411</t>
         </is>
       </c>
-      <c r="D434" s="17" t="inlineStr">
+      <c r="D434" s="5" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -75911,7 +75911,7 @@
           <t>049</t>
         </is>
       </c>
-      <c r="AH434" s="17" t="inlineStr">
+      <c r="AH434" s="15" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -75983,7 +75983,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="K435" s="17" t="inlineStr">
+      <c r="K435" s="8" t="inlineStr">
         <is>
           <t>630</t>
         </is>
@@ -76028,7 +76028,7 @@
           <t>071</t>
         </is>
       </c>
-      <c r="T435" s="11" t="inlineStr">
+      <c r="T435" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -76078,7 +76078,7 @@
           <t>044</t>
         </is>
       </c>
-      <c r="AD435" s="14" t="inlineStr">
+      <c r="AD435" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -76108,7 +76108,7 @@
           <t>318</t>
         </is>
       </c>
-      <c r="AJ435" s="17" t="inlineStr">
+      <c r="AJ435" s="16" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -76140,7 +76140,7 @@
           <t>118</t>
         </is>
       </c>
-      <c r="E436" s="17" t="inlineStr">
+      <c r="E436" s="6" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -76150,7 +76150,7 @@
           <t>231</t>
         </is>
       </c>
-      <c r="G436" s="6" t="inlineStr">
+      <c r="G436" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -76180,7 +76180,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="M436" s="17" t="inlineStr">
+      <c r="M436" s="8" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -76337,7 +76337,7 @@
           <t>020</t>
         </is>
       </c>
-      <c r="G437" s="17" t="inlineStr">
+      <c r="G437" s="6" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -76407,7 +76407,7 @@
           <t>756</t>
         </is>
       </c>
-      <c r="U437" s="17" t="inlineStr">
+      <c r="U437" s="11" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -76811,7 +76811,7 @@
           <t>622</t>
         </is>
       </c>
-      <c r="AA439" s="17" t="inlineStr">
+      <c r="AA439" s="13" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -77676,7 +77676,7 @@
           <t>245</t>
         </is>
       </c>
-      <c r="M444" s="17" t="inlineStr">
+      <c r="M444" s="8" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -77838,7 +77838,7 @@
           <t>671</t>
         </is>
       </c>
-      <c r="H445" s="17" t="inlineStr">
+      <c r="H445" s="7" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -78025,7 +78025,7 @@
           <t>842</t>
         </is>
       </c>
-      <c r="H446" s="17" t="inlineStr">
+      <c r="H446" s="7" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -78085,7 +78085,7 @@
           <t>125</t>
         </is>
       </c>
-      <c r="T446" s="17" t="inlineStr">
+      <c r="T446" s="11" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -78145,7 +78145,7 @@
           <t>080</t>
         </is>
       </c>
-      <c r="AF446" s="17" t="inlineStr">
+      <c r="AF446" s="15" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -78207,7 +78207,7 @@
           <t>564</t>
         </is>
       </c>
-      <c r="G447" s="17" t="inlineStr">
+      <c r="G447" s="6" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -78332,7 +78332,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="AF447" s="17" t="inlineStr">
+      <c r="AF447" s="15" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -78519,7 +78519,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="AF448" s="15" t="inlineStr">
+      <c r="AF448" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -78566,7 +78566,7 @@
           <t>517</t>
         </is>
       </c>
-      <c r="D449" s="17" t="inlineStr">
+      <c r="D449" s="5" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -78591,12 +78591,12 @@
           <t>216</t>
         </is>
       </c>
-      <c r="I449" s="17" t="inlineStr">
+      <c r="I449" s="7" t="inlineStr">
         <is>
           <t>561</t>
         </is>
       </c>
-      <c r="J449" s="17" t="inlineStr">
+      <c r="J449" s="7" t="inlineStr">
         <is>
           <t>416</t>
         </is>
@@ -78606,7 +78606,7 @@
           <t>940</t>
         </is>
       </c>
-      <c r="L449" s="17" t="inlineStr">
+      <c r="L449" s="8" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -78616,7 +78616,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="N449" s="17" t="inlineStr">
+      <c r="N449" s="9" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -78646,7 +78646,7 @@
           <t>076</t>
         </is>
       </c>
-      <c r="T449" s="17" t="inlineStr">
+      <c r="T449" s="11" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -78726,7 +78726,7 @@
           <t>621</t>
         </is>
       </c>
-      <c r="AJ449" s="17" t="inlineStr">
+      <c r="AJ449" s="16" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -78753,7 +78753,7 @@
           <t>200</t>
         </is>
       </c>
-      <c r="D450" s="17" t="inlineStr">
+      <c r="D450" s="5" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -78843,7 +78843,7 @@
           <t>609</t>
         </is>
       </c>
-      <c r="V450" s="17" t="inlineStr">
+      <c r="V450" s="11" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -79167,7 +79167,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="L452" s="17" t="inlineStr">
+      <c r="L452" s="8" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -79212,7 +79212,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="U452" s="17" t="inlineStr">
+      <c r="U452" s="11" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -79409,7 +79409,7 @@
           <t>152</t>
         </is>
       </c>
-      <c r="W453" s="17" t="inlineStr">
+      <c r="W453" s="12" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -79419,7 +79419,7 @@
           <t>382</t>
         </is>
       </c>
-      <c r="Y453" s="17" t="inlineStr">
+      <c r="Y453" s="12" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -79449,7 +79449,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="AE453" s="17" t="inlineStr">
+      <c r="AE453" s="14" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -79820,12 +79820,12 @@
           <t>833</t>
         </is>
       </c>
-      <c r="M458" s="17" t="inlineStr">
+      <c r="M458" s="8" t="inlineStr">
         <is>
           <t>663</t>
         </is>
       </c>
-      <c r="N458" s="17" t="inlineStr">
+      <c r="N458" s="9" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -79895,7 +79895,7 @@
           <t>949</t>
         </is>
       </c>
-      <c r="AB458" s="17" t="inlineStr">
+      <c r="AB458" s="13" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -79925,7 +79925,7 @@
           <t>485</t>
         </is>
       </c>
-      <c r="AH458" s="17" t="inlineStr">
+      <c r="AH458" s="15" t="inlineStr">
         <is>
           <t>374</t>
         </is>
@@ -79935,7 +79935,7 @@
           <t>749</t>
         </is>
       </c>
-      <c r="AJ458" s="17" t="inlineStr">
+      <c r="AJ458" s="16" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -80179,7 +80179,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="J460" s="7" t="inlineStr">
+      <c r="J460" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -80326,7 +80326,7 @@
           <t>04</t>
         </is>
       </c>
-      <c r="B461" s="17" t="inlineStr">
+      <c r="B461" s="5" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -80366,7 +80366,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="J461" s="17" t="inlineStr">
+      <c r="J461" s="7" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -80441,7 +80441,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="Y461" s="17" t="inlineStr">
+      <c r="Y461" s="12" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -80623,7 +80623,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="X462" s="12" t="inlineStr">
+      <c r="X462" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -80653,7 +80653,7 @@
           <t>214</t>
         </is>
       </c>
-      <c r="AD462" s="17" t="inlineStr">
+      <c r="AD462" s="14" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -80700,7 +80700,7 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B463" s="17" t="inlineStr">
+      <c r="B463" s="5" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -80932,7 +80932,7 @@
           <t>507</t>
         </is>
       </c>
-      <c r="K464" s="17" t="inlineStr">
+      <c r="K464" s="8" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -81027,7 +81027,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="AD464" s="17" t="inlineStr">
+      <c r="AD464" s="14" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -81042,7 +81042,7 @@
           <t>578</t>
         </is>
       </c>
-      <c r="AG464" s="17" t="inlineStr">
+      <c r="AG464" s="15" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -81104,7 +81104,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="H465" s="17" t="inlineStr">
+      <c r="H465" s="7" t="inlineStr">
         <is>
           <t>384</t>
         </is>
@@ -81164,7 +81164,7 @@
           <t>055</t>
         </is>
       </c>
-      <c r="T465" s="17" t="inlineStr">
+      <c r="T465" s="11" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -81271,7 +81271,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="D466" s="5" t="inlineStr">
+      <c r="D466" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -81436,7 +81436,7 @@
           <t>073</t>
         </is>
       </c>
-      <c r="AK466" s="17" t="inlineStr">
+      <c r="AK466" s="16" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -81578,7 +81578,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="AB467" s="17" t="inlineStr">
+      <c r="AB467" s="13" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -81765,7 +81765,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="AB468" s="17" t="inlineStr">
+      <c r="AB468" s="13" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -81887,7 +81887,7 @@
           <t>223</t>
         </is>
       </c>
-      <c r="O469" s="9" t="inlineStr">
+      <c r="O469" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -81987,7 +81987,7 @@
           <t>931</t>
         </is>
       </c>
-      <c r="AI469" s="17" t="inlineStr">
+      <c r="AI469" s="16" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -82019,7 +82019,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="D470" s="17" t="inlineStr">
+      <c r="D470" s="5" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -82089,7 +82089,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="R470" s="10" t="inlineStr">
+      <c r="R470" s="17" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -82109,7 +82109,7 @@
           <t>282</t>
         </is>
       </c>
-      <c r="V470" s="17" t="inlineStr">
+      <c r="V470" s="11" t="inlineStr">
         <is>
           <t>165</t>
         </is>
@@ -82174,7 +82174,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="AI470" s="17" t="inlineStr">
+      <c r="AI470" s="16" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -82271,7 +82271,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="Q471" s="17" t="inlineStr">
+      <c r="Q471" s="10" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -82448,7 +82448,7 @@
           <t>103</t>
         </is>
       </c>
-      <c r="O472" s="17" t="inlineStr">
+      <c r="O472" s="9" t="inlineStr">
         <is>
           <t>561</t>
         </is>
@@ -82473,7 +82473,7 @@
           <t>071</t>
         </is>
       </c>
-      <c r="T472" s="17" t="inlineStr">
+      <c r="T472" s="11" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -82600,7 +82600,7 @@
           <t>751</t>
         </is>
       </c>
-      <c r="H473" s="17" t="inlineStr">
+      <c r="H473" s="7" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -82640,7 +82640,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="P473" s="17" t="inlineStr">
+      <c r="P473" s="9" t="inlineStr">
         <is>
           <t>483</t>
         </is>
@@ -82762,7 +82762,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="C474" s="17" t="inlineStr">
+      <c r="C474" s="5" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -82822,7 +82822,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="O474" s="9" t="inlineStr">
+      <c r="O474" s="17" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -82882,7 +82882,7 @@
           <t>180</t>
         </is>
       </c>
-      <c r="AA474" s="17" t="inlineStr">
+      <c r="AA474" s="13" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -83171,7 +83171,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="J476" s="17" t="inlineStr">
+      <c r="J476" s="7" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -83226,7 +83226,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="U476" s="17" t="inlineStr">
+      <c r="U476" s="11" t="inlineStr">
         <is>
           <t>641</t>
         </is>
@@ -83358,7 +83358,7 @@
           <t>481</t>
         </is>
       </c>
-      <c r="J477" s="17" t="inlineStr">
+      <c r="J477" s="7" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -83468,7 +83468,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="AF477" s="17" t="inlineStr">
+      <c r="AF477" s="15" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -83478,7 +83478,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="AH477" s="17" t="inlineStr">
+      <c r="AH477" s="15" t="inlineStr">
         <is>
           <t>438</t>
         </is>
@@ -83620,7 +83620,7 @@
           <t>369</t>
         </is>
       </c>
-      <c r="Y478" s="17" t="inlineStr">
+      <c r="Y478" s="12" t="inlineStr">
         <is>
           <t>164</t>
         </is>
@@ -83640,7 +83640,7 @@
           <t>066</t>
         </is>
       </c>
-      <c r="AC478" s="14" t="inlineStr">
+      <c r="AC478" s="17" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -83702,7 +83702,7 @@
           <t>820</t>
         </is>
       </c>
-      <c r="D479" s="17" t="inlineStr">
+      <c r="D479" s="5" t="inlineStr">
         <is>
           <t>614</t>
         </is>
@@ -83752,7 +83752,7 @@
           <t>487</t>
         </is>
       </c>
-      <c r="N479" s="17" t="inlineStr">
+      <c r="N479" s="9" t="inlineStr">
         <is>
           <t>843</t>
         </is>
@@ -83964,7 +83964,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="S480" s="17" t="inlineStr">
+      <c r="S480" s="10" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -84106,7 +84106,7 @@
           <t>905</t>
         </is>
       </c>
-      <c r="J481" s="17" t="inlineStr">
+      <c r="J481" s="7" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -84268,7 +84268,7 @@
           <t>902</t>
         </is>
       </c>
-      <c r="E482" s="17" t="inlineStr">
+      <c r="E482" s="6" t="inlineStr">
         <is>
           <t>538</t>
         </is>
@@ -84313,7 +84313,7 @@
           <t>890</t>
         </is>
       </c>
-      <c r="N482" s="17" t="inlineStr">
+      <c r="N482" s="9" t="inlineStr">
         <is>
           <t>734</t>
         </is>
@@ -84368,7 +84368,7 @@
           <t>086</t>
         </is>
       </c>
-      <c r="Y482" s="17" t="inlineStr">
+      <c r="Y482" s="12" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -84398,7 +84398,7 @@
           <t>490</t>
         </is>
       </c>
-      <c r="AE482" s="17" t="inlineStr">
+      <c r="AE482" s="14" t="inlineStr">
         <is>
           <t>843</t>
         </is>
@@ -84530,7 +84530,7 @@
           <t>170</t>
         </is>
       </c>
-      <c r="T483" s="17" t="inlineStr">
+      <c r="T483" s="11" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -84662,7 +84662,7 @@
           <t>627</t>
         </is>
       </c>
-      <c r="I484" s="17" t="inlineStr">
+      <c r="I484" s="7" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -84757,7 +84757,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="AB484" s="17" t="inlineStr">
+      <c r="AB484" s="13" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -84814,7 +84814,7 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B485" s="17" t="inlineStr">
+      <c r="B485" s="5" t="inlineStr">
         <is>
           <t>156</t>
         </is>
@@ -84964,7 +84964,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="AF485" s="17" t="inlineStr">
+      <c r="AF485" s="15" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -85051,7 +85051,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="L486" s="17" t="inlineStr">
+      <c r="L486" s="8" t="inlineStr">
         <is>
           <t>036</t>
         </is>
@@ -85076,7 +85076,7 @@
           <t>887</t>
         </is>
       </c>
-      <c r="Q486" s="10" t="inlineStr">
+      <c r="Q486" s="17" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -85091,7 +85091,7 @@
           <t>482</t>
         </is>
       </c>
-      <c r="T486" s="17" t="inlineStr">
+      <c r="T486" s="11" t="inlineStr">
         <is>
           <t>623</t>
         </is>
@@ -85111,7 +85111,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="X486" s="17" t="inlineStr">
+      <c r="X486" s="12" t="inlineStr">
         <is>
           <t>834</t>
         </is>
@@ -85136,7 +85136,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="AC486" s="17" t="inlineStr">
+      <c r="AC486" s="14" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -85273,7 +85273,7 @@
           <t>854</t>
         </is>
       </c>
-      <c r="S487" s="17" t="inlineStr">
+      <c r="S487" s="10" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -85851,7 +85851,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E493" s="17" t="inlineStr">
+      <c r="E493" s="6" t="inlineStr">
         <is>
           <t>063</t>
         </is>
@@ -85976,7 +85976,7 @@
           <t>355</t>
         </is>
       </c>
-      <c r="AD493" s="17" t="inlineStr">
+      <c r="AD493" s="14" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -86148,7 +86148,7 @@
           <t>937</t>
         </is>
       </c>
-      <c r="AA494" s="17" t="inlineStr">
+      <c r="AA494" s="13" t="inlineStr">
         <is>
           <t>843</t>
         </is>
@@ -86215,7 +86215,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="C495" s="17" t="inlineStr">
+      <c r="C495" s="5" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -86402,7 +86402,7 @@
           <t>028</t>
         </is>
       </c>
-      <c r="C496" s="17" t="inlineStr">
+      <c r="C496" s="5" t="inlineStr">
         <is>
           <t>146</t>
         </is>
@@ -86537,7 +86537,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD496" s="17" t="inlineStr">
+      <c r="AD496" s="14" t="inlineStr">
         <is>
           <t>853</t>
         </is>
@@ -86891,7 +86891,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z498" s="17" t="inlineStr">
+      <c r="Z498" s="13" t="inlineStr">
         <is>
           <t>306</t>
         </is>
@@ -87300,7 +87300,7 @@
           <t>829</t>
         </is>
       </c>
-      <c r="AG500" s="17" t="inlineStr">
+      <c r="AG500" s="15" t="inlineStr">
         <is>
           <t>663</t>
         </is>
@@ -87482,7 +87482,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="AF501" s="17" t="inlineStr">
+      <c r="AF501" s="15" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -88043,7 +88043,7 @@
           <t>128</t>
         </is>
       </c>
-      <c r="AF504" s="17" t="inlineStr">
+      <c r="AF504" s="15" t="inlineStr">
         <is>
           <t>385</t>
         </is>
@@ -88090,7 +88090,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="D505" s="17" t="inlineStr">
+      <c r="D505" s="5" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -88292,7 +88292,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="G506" s="17" t="inlineStr">
+      <c r="G506" s="6" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -88494,7 +88494,7 @@
           <t>961</t>
         </is>
       </c>
-      <c r="J507" s="17" t="inlineStr">
+      <c r="J507" s="7" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -88609,7 +88609,7 @@
           <t>942</t>
         </is>
       </c>
-      <c r="AG507" s="17" t="inlineStr">
+      <c r="AG507" s="15" t="inlineStr">
         <is>
           <t>583</t>
         </is>
@@ -88651,7 +88651,7 @@
           <t>856</t>
         </is>
       </c>
-      <c r="D508" s="17" t="inlineStr">
+      <c r="D508" s="5" t="inlineStr">
         <is>
           <t>347</t>
         </is>
@@ -88786,7 +88786,7 @@
           <t>485</t>
         </is>
       </c>
-      <c r="AE508" s="17" t="inlineStr">
+      <c r="AE508" s="14" t="inlineStr">
         <is>
           <t>326</t>
         </is>
@@ -88811,7 +88811,7 @@
           <t>511</t>
         </is>
       </c>
-      <c r="AJ508" s="17" t="inlineStr">
+      <c r="AJ508" s="16" t="inlineStr">
         <is>
           <t>358</t>
         </is>
@@ -88848,7 +88848,7 @@
           <t>725</t>
         </is>
       </c>
-      <c r="F509" s="6" t="inlineStr">
+      <c r="F509" s="17" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -88973,7 +88973,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="AE509" s="17" t="inlineStr">
+      <c r="AE509" s="14" t="inlineStr">
         <is>
           <t>437</t>
         </is>
@@ -89140,7 +89140,7 @@
           <t>666</t>
         </is>
       </c>
-      <c r="AA510" s="17" t="inlineStr">
+      <c r="AA510" s="13" t="inlineStr">
         <is>
           <t>636</t>
         </is>
@@ -89342,7 +89342,7 @@
           <t>709</t>
         </is>
       </c>
-      <c r="AD511" s="17" t="inlineStr">
+      <c r="AD511" s="14" t="inlineStr">
         <is>
           <t>615</t>
         </is>
@@ -89367,17 +89367,17 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AI511" s="17" t="inlineStr">
+      <c r="AI511" s="16" t="inlineStr">
         <is>
           <t>636</t>
         </is>
       </c>
-      <c r="AJ511" s="17" t="inlineStr">
+      <c r="AJ511" s="16" t="inlineStr">
         <is>
           <t>651</t>
         </is>
       </c>
-      <c r="AK511" s="17" t="inlineStr">
+      <c r="AK511" s="16" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -89399,7 +89399,7 @@
           <t>327</t>
         </is>
       </c>
-      <c r="D512" s="17" t="inlineStr">
+      <c r="D512" s="5" t="inlineStr">
         <is>
           <t>743</t>
         </is>
@@ -89554,17 +89554,17 @@
           <t>814</t>
         </is>
       </c>
-      <c r="AI512" s="17" t="inlineStr">
+      <c r="AI512" s="16" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="AJ512" s="17" t="inlineStr">
+      <c r="AJ512" s="16" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="AK512" s="17" t="inlineStr">
+      <c r="AK512" s="16" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -89741,17 +89741,17 @@
           <t>427</t>
         </is>
       </c>
-      <c r="AI513" s="17" t="inlineStr">
+      <c r="AI513" s="16" t="inlineStr">
         <is>
           <t>853</t>
         </is>
       </c>
-      <c r="AJ513" s="17" t="inlineStr">
+      <c r="AJ513" s="16" t="inlineStr">
         <is>
           <t>743</t>
         </is>
       </c>
-      <c r="AK513" s="17" t="inlineStr">
+      <c r="AK513" s="16" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -90070,7 +90070,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z515" s="17" t="inlineStr">
+      <c r="Z515" s="13" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -90085,7 +90085,7 @@
           <t>031</t>
         </is>
       </c>
-      <c r="AC515" s="17" t="inlineStr">
+      <c r="AC515" s="14" t="inlineStr">
         <is>
           <t>516</t>
         </is>
@@ -90439,7 +90439,7 @@
           <t>076</t>
         </is>
       </c>
-      <c r="Y517" s="17" t="inlineStr">
+      <c r="Y517" s="12" t="inlineStr">
         <is>
           <t>348</t>
         </is>
@@ -90661,7 +90661,7 @@
           <t>305</t>
         </is>
       </c>
-      <c r="AF518" s="17" t="inlineStr">
+      <c r="AF518" s="15" t="inlineStr">
         <is>
           <t>263</t>
         </is>
@@ -90990,7 +90990,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W520" s="17" t="inlineStr">
+      <c r="W520" s="12" t="inlineStr">
         <is>
           <t>236</t>
         </is>
@@ -91030,7 +91030,7 @@
           <t>002</t>
         </is>
       </c>
-      <c r="AE520" s="17" t="inlineStr">
+      <c r="AE520" s="14" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -91217,7 +91217,7 @@
           <t>163</t>
         </is>
       </c>
-      <c r="AE521" s="17" t="inlineStr">
+      <c r="AE521" s="14" t="inlineStr">
         <is>
           <t>835</t>
         </is>
@@ -91404,7 +91404,7 @@
           <t>335</t>
         </is>
       </c>
-      <c r="AE522" s="17" t="inlineStr">
+      <c r="AE522" s="14" t="inlineStr">
         <is>
           <t>362</t>
         </is>
@@ -91436,7 +91436,7 @@
       </c>
       <c r="AK522" s="16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>700</t>
         </is>
       </c>
     </row>
@@ -91627,8 +91627,722 @@
         </is>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B526" s="1" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+      <c r="C526" s="2" t="n"/>
+      <c r="D526" s="3" t="n"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="4" t="n"/>
+      <c r="B527" s="1" t="inlineStr">
+        <is>
+          <t>11AM</t>
+        </is>
+      </c>
+      <c r="C527" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="D527" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B528" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C528" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D528" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="B529" s="5" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="C529" s="5" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="D529" s="5" t="inlineStr">
+        <is>
+          <t>013</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="B530" s="5" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="C530" s="5" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="D530" s="5" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="B531" s="5" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C531" s="5" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D531" s="5" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B532" s="5" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="C532" s="5" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="D532" s="5" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B533" s="5" t="inlineStr">
+        <is>
+          <t>050</t>
+        </is>
+      </c>
+      <c r="C533" s="5" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="D533" s="17" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B534" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C534" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D534" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B535" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C535" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D535" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B536" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C536" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D536" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B537" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C537" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D537" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B538" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C538" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D538" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B539" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C539" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D539" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B540" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C540" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D540" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B541" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C541" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D541" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B542" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C542" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D542" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B543" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C543" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D543" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B544" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C544" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D544" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B545" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C545" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D545" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B546" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C546" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D546" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B547" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C547" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D547" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B548" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C548" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D548" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B549" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C549" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D549" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B550" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C550" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D550" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B551" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C551" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D551" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B552" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C552" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D552" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B553" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C553" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D553" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B554" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C554" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D554" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B555" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C555" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D555" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B556" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C556" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D556" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B557" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C557" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D557" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B558" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C558" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D558" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="195">
+  <mergeCells count="197">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -91824,6 +92538,8 @@
     <mergeCell ref="AC491:AE491"/>
     <mergeCell ref="AF491:AH491"/>
     <mergeCell ref="AI491:AK491"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:D526"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -59,11 +59,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="009966ff"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -209,7 +204,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,6 +227,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -248,12 +246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1286,7 +1278,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P5" s="17" t="inlineStr">
+      <c r="P5" s="9" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -6938,7 +6930,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G38" s="17" t="inlineStr">
+      <c r="G38" s="6" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -8464,7 +8456,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M46" s="17" t="inlineStr">
+      <c r="M46" s="8" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -8611,7 +8603,7 @@
           <t>168</t>
         </is>
       </c>
-      <c r="E47" s="17" t="inlineStr">
+      <c r="E47" s="6" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -8943,7 +8935,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH48" s="17" t="inlineStr">
+      <c r="AH48" s="15" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -9045,7 +9037,7 @@
           <t>172</t>
         </is>
       </c>
-      <c r="Q49" s="17" t="inlineStr">
+      <c r="Q49" s="10" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -9145,7 +9137,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK49" s="17" t="inlineStr">
+      <c r="AK49" s="16" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -10137,7 +10129,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="K55" s="17" t="inlineStr">
+      <c r="K55" s="8" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -12107,7 +12099,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE65" s="17" t="inlineStr">
+      <c r="AE65" s="14" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -13757,7 +13749,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G77" s="17" t="inlineStr">
+      <c r="G77" s="6" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -14116,7 +14108,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D79" s="17" t="inlineStr">
+      <c r="D79" s="5" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -14303,7 +14295,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D80" s="17" t="inlineStr">
+      <c r="D80" s="5" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -15425,7 +15417,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D86" s="17" t="inlineStr">
+      <c r="D86" s="5" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -15590,7 +15582,7 @@
           <t>127</t>
         </is>
       </c>
-      <c r="AK86" s="17" t="inlineStr">
+      <c r="AK86" s="16" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -16193,7 +16185,7 @@
           <t>366</t>
         </is>
       </c>
-      <c r="H90" s="17" t="inlineStr">
+      <c r="H90" s="7" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -17061,7 +17053,7 @@
           <t>315</t>
         </is>
       </c>
-      <c r="AF94" s="17" t="inlineStr">
+      <c r="AF94" s="15" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -20187,7 +20179,7 @@
           <t>252</t>
         </is>
       </c>
-      <c r="D114" s="17" t="inlineStr">
+      <c r="D114" s="5" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -20202,7 +20194,7 @@
           <t>383</t>
         </is>
       </c>
-      <c r="G114" s="17" t="inlineStr">
+      <c r="G114" s="6" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -21985,7 +21977,7 @@
           <t>030</t>
         </is>
       </c>
-      <c r="AA123" s="17" t="inlineStr">
+      <c r="AA123" s="13" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -22546,7 +22538,7 @@
           <t>331</t>
         </is>
       </c>
-      <c r="AA126" s="17" t="inlineStr">
+      <c r="AA126" s="13" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -23905,7 +23897,7 @@
           <t>560</t>
         </is>
       </c>
-      <c r="AK133" s="17" t="inlineStr">
+      <c r="AK133" s="16" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -24361,7 +24353,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="P136" s="17" t="inlineStr">
+      <c r="P136" s="9" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -25408,7 +25400,7 @@
           <t>857</t>
         </is>
       </c>
-      <c r="U144" s="17" t="inlineStr">
+      <c r="U144" s="11" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -25762,7 +25754,7 @@
           <t>639</t>
         </is>
       </c>
-      <c r="Q146" s="17" t="inlineStr">
+      <c r="Q146" s="10" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -26328,7 +26320,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="R149" s="17" t="inlineStr">
+      <c r="R149" s="10" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -26722,7 +26714,7 @@
           <t>030</t>
         </is>
       </c>
-      <c r="V151" s="17" t="inlineStr">
+      <c r="V151" s="11" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -26949,7 +26941,7 @@
           <t>766</t>
         </is>
       </c>
-      <c r="AD152" s="17" t="inlineStr">
+      <c r="AD152" s="14" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -27056,7 +27048,7 @@
           <t>320</t>
         </is>
       </c>
-      <c r="N153" s="17" t="inlineStr">
+      <c r="N153" s="9" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -27293,7 +27285,7 @@
           <t>559</t>
         </is>
       </c>
-      <c r="X154" s="17" t="inlineStr">
+      <c r="X154" s="12" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -27430,7 +27422,7 @@
           <t>344</t>
         </is>
       </c>
-      <c r="N155" s="17" t="inlineStr">
+      <c r="N155" s="9" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -27540,7 +27532,7 @@
           <t>719</t>
         </is>
       </c>
-      <c r="AJ155" s="17" t="inlineStr">
+      <c r="AJ155" s="16" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -27727,7 +27719,7 @@
           <t>202</t>
         </is>
       </c>
-      <c r="AJ156" s="17" t="inlineStr">
+      <c r="AJ156" s="16" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -28502,7 +28494,7 @@
           <t>446</t>
         </is>
       </c>
-      <c r="D161" s="17" t="inlineStr">
+      <c r="D161" s="5" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -29442,7 +29434,7 @@
           <t>848</t>
         </is>
       </c>
-      <c r="E166" s="17" t="inlineStr">
+      <c r="E166" s="6" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -29679,7 +29671,7 @@
           <t>735</t>
         </is>
       </c>
-      <c r="O167" s="17" t="inlineStr">
+      <c r="O167" s="9" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -29806,7 +29798,7 @@
           <t>595</t>
         </is>
       </c>
-      <c r="C168" s="17" t="inlineStr">
+      <c r="C168" s="5" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -31641,7 +31633,7 @@
           <t>895</t>
         </is>
       </c>
-      <c r="P180" s="17" t="inlineStr">
+      <c r="P180" s="9" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -34189,7 +34181,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B194" s="17" t="inlineStr">
+      <c r="B194" s="5" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -34254,7 +34246,7 @@
           <t>664</t>
         </is>
       </c>
-      <c r="O194" s="17" t="inlineStr">
+      <c r="O194" s="9" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -34476,7 +34468,7 @@
           <t>676</t>
         </is>
       </c>
-      <c r="V195" s="17" t="inlineStr">
+      <c r="V195" s="11" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -35154,7 +35146,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="H199" s="17" t="inlineStr">
+      <c r="H199" s="7" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -37525,7 +37517,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="P214" s="17" t="inlineStr">
+      <c r="P214" s="9" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -39193,7 +39185,7 @@
           <t>129</t>
         </is>
       </c>
-      <c r="M223" s="17" t="inlineStr">
+      <c r="M223" s="8" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -40203,7 +40195,7 @@
           <t>984</t>
         </is>
       </c>
-      <c r="AB228" s="17" t="inlineStr">
+      <c r="AB228" s="13" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -42659,7 +42651,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="AG241" s="17" t="inlineStr">
+      <c r="AG241" s="15" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -43439,7 +43431,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="V248" s="17" t="inlineStr">
+      <c r="V248" s="11" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -44117,7 +44109,7 @@
           <t>417</t>
         </is>
       </c>
-      <c r="H252" s="17" t="inlineStr">
+      <c r="H252" s="7" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -44945,7 +44937,7 @@
           <t>211</t>
         </is>
       </c>
-      <c r="X256" s="17" t="inlineStr">
+      <c r="X256" s="12" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -47316,7 +47308,7 @@
           <t>839</t>
         </is>
       </c>
-      <c r="L269" s="17" t="inlineStr">
+      <c r="L269" s="8" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -48690,7 +48682,7 @@
           <t>384</t>
         </is>
       </c>
-      <c r="Y276" s="17" t="inlineStr">
+      <c r="Y276" s="12" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -48917,7 +48909,7 @@
           <t>661</t>
         </is>
       </c>
-      <c r="AG277" s="17" t="inlineStr">
+      <c r="AG277" s="15" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -50532,7 +50524,7 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B289" s="17" t="inlineStr">
+      <c r="B289" s="5" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -51001,7 +50993,7 @@
           <t>980</t>
         </is>
       </c>
-      <c r="U291" s="17" t="inlineStr">
+      <c r="U291" s="11" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -51435,7 +51427,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="AG293" s="17" t="inlineStr">
+      <c r="AG293" s="15" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -51986,7 +51978,7 @@
           <t>753</t>
         </is>
       </c>
-      <c r="AE296" s="17" t="inlineStr">
+      <c r="AE296" s="14" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -53058,7 +53050,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="U302" s="17" t="inlineStr">
+      <c r="U302" s="11" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -53452,7 +53444,7 @@
           <t>580</t>
         </is>
       </c>
-      <c r="Y304" s="17" t="inlineStr">
+      <c r="Y304" s="12" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -53569,7 +53561,7 @@
           <t>835</t>
         </is>
       </c>
-      <c r="K305" s="17" t="inlineStr">
+      <c r="K305" s="8" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -54100,7 +54092,7 @@
           <t>418</t>
         </is>
       </c>
-      <c r="E308" s="17" t="inlineStr">
+      <c r="E308" s="6" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -56142,7 +56134,7 @@
           <t>270</t>
         </is>
       </c>
-      <c r="V321" s="17" t="inlineStr">
+      <c r="V321" s="11" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -56369,7 +56361,7 @@
           <t>884</t>
         </is>
       </c>
-      <c r="AD322" s="17" t="inlineStr">
+      <c r="AD322" s="14" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -56404,7 +56396,7 @@
           <t>808</t>
         </is>
       </c>
-      <c r="AK322" s="17" t="inlineStr">
+      <c r="AK322" s="16" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -56658,7 +56650,7 @@
           <t>515</t>
         </is>
       </c>
-      <c r="M324" s="17" t="inlineStr">
+      <c r="M324" s="8" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -59261,7 +59253,7 @@
           <t>322</t>
         </is>
       </c>
-      <c r="J338" s="17" t="inlineStr">
+      <c r="J338" s="7" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -62128,7 +62120,7 @@
           <t>220</t>
         </is>
       </c>
-      <c r="E356" s="17" t="inlineStr">
+      <c r="E356" s="6" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -62208,7 +62200,7 @@
           <t>251</t>
         </is>
       </c>
-      <c r="U356" s="17" t="inlineStr">
+      <c r="U356" s="11" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -62861,7 +62853,7 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B360" s="17" t="inlineStr">
+      <c r="B360" s="5" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -64731,7 +64723,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B370" s="17" t="inlineStr">
+      <c r="B370" s="5" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -64938,7 +64930,7 @@
           <t>843</t>
         </is>
       </c>
-      <c r="F371" s="17" t="inlineStr">
+      <c r="F371" s="6" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -65853,7 +65845,7 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B376" s="17" t="inlineStr">
+      <c r="B376" s="5" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -66282,7 +66274,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="M378" s="17" t="inlineStr">
+      <c r="M378" s="8" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -67125,7 +67117,7 @@
           <t>697</t>
         </is>
       </c>
-      <c r="AF382" s="17" t="inlineStr">
+      <c r="AF382" s="15" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -68047,7 +68039,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="L390" s="17" t="inlineStr">
+      <c r="L390" s="8" t="inlineStr">
         <is>
           <t>149</t>
         </is>
@@ -69124,7 +69116,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="C396" s="17" t="inlineStr">
+      <c r="C396" s="5" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -73338,7 +73330,7 @@
           <t>344</t>
         </is>
       </c>
-      <c r="W418" s="17" t="inlineStr">
+      <c r="W418" s="12" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -74385,7 +74377,7 @@
           <t>356</t>
         </is>
       </c>
-      <c r="AB426" s="17" t="inlineStr">
+      <c r="AB426" s="13" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -76028,7 +76020,7 @@
           <t>071</t>
         </is>
       </c>
-      <c r="T435" s="17" t="inlineStr">
+      <c r="T435" s="11" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -76078,7 +76070,7 @@
           <t>044</t>
         </is>
       </c>
-      <c r="AD435" s="17" t="inlineStr">
+      <c r="AD435" s="14" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -76150,7 +76142,7 @@
           <t>231</t>
         </is>
       </c>
-      <c r="G436" s="17" t="inlineStr">
+      <c r="G436" s="6" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -78519,7 +78511,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="AF448" s="17" t="inlineStr">
+      <c r="AF448" s="15" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -80179,7 +80171,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="J460" s="17" t="inlineStr">
+      <c r="J460" s="7" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -80623,7 +80615,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="X462" s="17" t="inlineStr">
+      <c r="X462" s="12" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -81271,7 +81263,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="D466" s="17" t="inlineStr">
+      <c r="D466" s="5" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -81887,7 +81879,7 @@
           <t>223</t>
         </is>
       </c>
-      <c r="O469" s="17" t="inlineStr">
+      <c r="O469" s="9" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -82089,7 +82081,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="R470" s="17" t="inlineStr">
+      <c r="R470" s="10" t="inlineStr">
         <is>
           <t>491</t>
         </is>
@@ -82822,7 +82814,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="O474" s="17" t="inlineStr">
+      <c r="O474" s="9" t="inlineStr">
         <is>
           <t>914</t>
         </is>
@@ -83640,7 +83632,7 @@
           <t>066</t>
         </is>
       </c>
-      <c r="AC478" s="17" t="inlineStr">
+      <c r="AC478" s="14" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -85076,7 +85068,7 @@
           <t>887</t>
         </is>
       </c>
-      <c r="Q486" s="17" t="inlineStr">
+      <c r="Q486" s="10" t="inlineStr">
         <is>
           <t>194</t>
         </is>
@@ -88848,7 +88840,7 @@
           <t>725</t>
         </is>
       </c>
-      <c r="F509" s="17" t="inlineStr">
+      <c r="F509" s="6" t="inlineStr">
         <is>
           <t>419</t>
         </is>
@@ -91785,7 +91777,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="D533" s="17" t="inlineStr">
+      <c r="D533" s="5" t="inlineStr">
         <is>
           <t>941</t>
         </is>
@@ -91799,17 +91791,17 @@
       </c>
       <c r="B534" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>294</t>
         </is>
       </c>
       <c r="C534" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D534" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>020</t>
         </is>
       </c>
     </row>
@@ -91821,17 +91813,17 @@
       </c>
       <c r="B535" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>930</t>
         </is>
       </c>
       <c r="C535" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>925</t>
         </is>
       </c>
       <c r="D535" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -91843,17 +91835,17 @@
       </c>
       <c r="B536" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>039</t>
         </is>
       </c>
       <c r="C536" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>904</t>
         </is>
       </c>
       <c r="D536" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>733</t>
         </is>
       </c>
     </row>
@@ -91865,17 +91857,17 @@
       </c>
       <c r="B537" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>157</t>
         </is>
       </c>
       <c r="C537" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D537" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>824</t>
         </is>
       </c>
     </row>
@@ -91887,17 +91879,17 @@
       </c>
       <c r="B538" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>309</t>
         </is>
       </c>
       <c r="C538" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D538" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>668</t>
         </is>
       </c>
     </row>
@@ -91909,17 +91901,17 @@
       </c>
       <c r="B539" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>750</t>
         </is>
       </c>
       <c r="C539" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>445</t>
         </is>
       </c>
       <c r="D539" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -91931,17 +91923,17 @@
       </c>
       <c r="B540" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>806</t>
         </is>
       </c>
       <c r="C540" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D540" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>508</t>
         </is>
       </c>
     </row>
@@ -91953,17 +91945,17 @@
       </c>
       <c r="B541" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C541" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>986</t>
         </is>
       </c>
       <c r="D541" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>932</t>
         </is>
       </c>
     </row>
@@ -91975,17 +91967,17 @@
       </c>
       <c r="B542" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C542" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>366</t>
         </is>
       </c>
       <c r="D542" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>498</t>
         </is>
       </c>
     </row>
@@ -91997,7 +91989,7 @@
       </c>
       <c r="B543" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>730</t>
         </is>
       </c>
       <c r="C543" s="5" t="inlineStr">

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -91994,12 +91994,12 @@
       </c>
       <c r="C543" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>739</t>
         </is>
       </c>
       <c r="D543" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>563</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -92011,17 +92011,17 @@
       </c>
       <c r="B544" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>622</t>
         </is>
       </c>
       <c r="C544" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>027</t>
         </is>
       </c>
       <c r="D544" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>226</t>
         </is>
       </c>
     </row>
@@ -92033,17 +92033,17 @@
       </c>
       <c r="B545" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C545" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>511</t>
         </is>
       </c>
       <c r="D545" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>767</t>
         </is>
       </c>
     </row>
@@ -92055,17 +92055,17 @@
       </c>
       <c r="B546" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>208</t>
         </is>
       </c>
       <c r="C546" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>045</t>
         </is>
       </c>
       <c r="D546" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>913</t>
         </is>
       </c>
     </row>
@@ -92077,7 +92077,7 @@
       </c>
       <c r="B547" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>680</t>
         </is>
       </c>
       <c r="C547" s="5" t="inlineStr">

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -92082,12 +92082,12 @@
       </c>
       <c r="C547" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>012</t>
         </is>
       </c>
       <c r="D547" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>956</t>
         </is>
       </c>
     </row>
@@ -92099,17 +92099,17 @@
       </c>
       <c r="B548" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>393</t>
         </is>
       </c>
       <c r="C548" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>940</t>
         </is>
       </c>
       <c r="D548" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>109</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -39,6 +39,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ff6699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -204,7 +209,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,9 +218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -246,6 +248,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1525,7 +1533,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB6" s="13" t="inlineStr">
+      <c r="AB6" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -1592,7 +1600,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -3275,7 +3283,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D16" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -3430,7 +3438,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="AI16" s="16" t="inlineStr">
+      <c r="AI16" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -11408,7 +11416,7 @@
           <t>608</t>
         </is>
       </c>
-      <c r="E62" s="6" t="inlineStr">
+      <c r="E62" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -13991,7 +13999,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="R78" s="10" t="inlineStr">
+      <c r="R78" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -14036,7 +14044,7 @@
           <t>282</t>
         </is>
       </c>
-      <c r="AA78" s="13" t="inlineStr">
+      <c r="AA78" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -15158,7 +15166,7 @@
           <t>223</t>
         </is>
       </c>
-      <c r="AA84" s="13" t="inlineStr">
+      <c r="AA84" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -15946,7 +15954,7 @@
           <t>218</t>
         </is>
       </c>
-      <c r="AI88" s="16" t="inlineStr">
+      <c r="AI88" s="17" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -16968,7 +16976,7 @@
           <t>273</t>
         </is>
       </c>
-      <c r="O94" s="9" t="inlineStr">
+      <c r="O94" s="17" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -17185,7 +17193,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="U95" s="11" t="inlineStr">
+      <c r="U95" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -18439,7 +18447,7 @@
           <t>505</t>
         </is>
       </c>
-      <c r="J102" s="7" t="inlineStr">
+      <c r="J102" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -19102,7 +19110,7 @@
           <t>051</t>
         </is>
       </c>
-      <c r="M108" s="8" t="inlineStr">
+      <c r="M108" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -20219,7 +20227,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="L114" s="8" t="inlineStr">
+      <c r="L114" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -21588,7 +21596,7 @@
           <t>751</t>
         </is>
       </c>
-      <c r="X121" s="12" t="inlineStr">
+      <c r="X121" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -22553,7 +22561,7 @@
           <t>703</t>
         </is>
       </c>
-      <c r="AD126" s="14" t="inlineStr">
+      <c r="AD126" s="17" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -22792,7 +22800,7 @@
           <t>440</t>
         </is>
       </c>
-      <c r="C128" s="5" t="inlineStr">
+      <c r="C128" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -23149,7 +23157,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="AK129" s="16" t="inlineStr">
+      <c r="AK129" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -23615,7 +23623,7 @@
           <t>711</t>
         </is>
       </c>
-      <c r="R132" s="10" t="inlineStr">
+      <c r="R132" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -23929,12 +23937,12 @@
           <t>623</t>
         </is>
       </c>
-      <c r="F134" s="6" t="inlineStr">
+      <c r="F134" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
       </c>
-      <c r="G134" s="6" t="inlineStr">
+      <c r="G134" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -24458,7 +24466,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="AK136" s="16" t="inlineStr">
+      <c r="AK136" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -25148,7 +25156,7 @@
           <t>650</t>
         </is>
       </c>
-      <c r="H143" s="7" t="inlineStr">
+      <c r="H143" s="17" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -25532,7 +25540,7 @@
           <t>645</t>
         </is>
       </c>
-      <c r="J145" s="7" t="inlineStr">
+      <c r="J145" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -27886,7 +27894,7 @@
           <t>211</t>
         </is>
       </c>
-      <c r="AF157" s="15" t="inlineStr">
+      <c r="AF157" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -29938,7 +29946,7 @@
           <t>044</t>
         </is>
       </c>
-      <c r="AE168" s="14" t="inlineStr">
+      <c r="AE168" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -30394,7 +30402,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="J171" s="7" t="inlineStr">
+      <c r="J171" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -30696,7 +30704,7 @@
           <t>112</t>
         </is>
       </c>
-      <c r="AG172" s="15" t="inlineStr">
+      <c r="AG172" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -31885,7 +31893,7 @@
           <t>353</t>
         </is>
       </c>
-      <c r="AC181" s="14" t="inlineStr">
+      <c r="AC181" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -33620,7 +33628,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B191" s="5" t="inlineStr">
+      <c r="B191" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -36530,7 +36538,7 @@
           <t>456</t>
         </is>
       </c>
-      <c r="W206" s="12" t="inlineStr">
+      <c r="W206" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -36652,7 +36660,7 @@
           <t>873</t>
         </is>
       </c>
-      <c r="J207" s="7" t="inlineStr">
+      <c r="J207" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -38205,7 +38213,7 @@
           <t>171</t>
         </is>
       </c>
-      <c r="D218" s="5" t="inlineStr">
+      <c r="D218" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -38806,7 +38814,7 @@
           <t>305</t>
         </is>
       </c>
-      <c r="L221" s="8" t="inlineStr">
+      <c r="L221" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -38926,7 +38934,7 @@
           <t>924</t>
         </is>
       </c>
-      <c r="AJ221" s="16" t="inlineStr">
+      <c r="AJ221" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -42748,7 +42756,7 @@
           <t>844</t>
         </is>
       </c>
-      <c r="O242" s="9" t="inlineStr">
+      <c r="O242" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -43633,7 +43641,7 @@
           <t>272</t>
         </is>
       </c>
-      <c r="Y249" s="12" t="inlineStr">
+      <c r="Y249" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -44578,7 +44586,7 @@
           <t>454</t>
         </is>
       </c>
-      <c r="AA254" s="13" t="inlineStr">
+      <c r="AA254" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -44603,7 +44611,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="AF254" s="15" t="inlineStr">
+      <c r="AF254" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -46363,7 +46371,7 @@
           <t>114</t>
         </is>
       </c>
-      <c r="J264" s="7" t="inlineStr">
+      <c r="J264" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -50048,7 +50056,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="S286" s="10" t="inlineStr">
+      <c r="S286" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -51317,7 +51325,7 @@
           <t>822</t>
         </is>
       </c>
-      <c r="K293" s="8" t="inlineStr">
+      <c r="K293" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -51721,7 +51729,7 @@
           <t>780</t>
         </is>
       </c>
-      <c r="Q295" s="10" t="inlineStr">
+      <c r="Q295" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -52040,7 +52048,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="F297" s="6" t="inlineStr">
+      <c r="F297" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -52888,7 +52896,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="Z301" s="13" t="inlineStr">
+      <c r="Z301" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -53965,7 +53973,7 @@
           <t>320</t>
         </is>
       </c>
-      <c r="Q307" s="10" t="inlineStr">
+      <c r="Q307" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -56286,7 +56294,7 @@
           <t>471</t>
         </is>
       </c>
-      <c r="O322" s="9" t="inlineStr">
+      <c r="O322" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -56578,7 +56586,7 @@
           <t>512</t>
         </is>
       </c>
-      <c r="AJ323" s="16" t="inlineStr">
+      <c r="AJ323" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -57767,7 +57775,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="L330" s="8" t="inlineStr">
+      <c r="L330" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -58069,7 +58077,7 @@
           <t>219</t>
         </is>
       </c>
-      <c r="AI331" s="16" t="inlineStr">
+      <c r="AI331" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -58288,7 +58296,7 @@
           <t>997</t>
         </is>
       </c>
-      <c r="D333" s="5" t="inlineStr">
+      <c r="D333" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -59141,7 +59149,7 @@
           <t>350</t>
         </is>
       </c>
-      <c r="Y337" s="12" t="inlineStr">
+      <c r="Y337" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -59191,7 +59199,7 @@
           <t>918</t>
         </is>
       </c>
-      <c r="AI337" s="16" t="inlineStr">
+      <c r="AI337" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -59662,7 +59670,7 @@
           <t>533</t>
         </is>
       </c>
-      <c r="Q340" s="10" t="inlineStr">
+      <c r="Q340" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -61886,7 +61894,7 @@
           <t>831</t>
         </is>
       </c>
-      <c r="AG354" s="15" t="inlineStr">
+      <c r="AG354" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -63656,7 +63664,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="M364" s="8" t="inlineStr">
+      <c r="M364" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -63878,7 +63886,7 @@
           <t>603</t>
         </is>
       </c>
-      <c r="T365" s="11" t="inlineStr">
+      <c r="T365" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -64354,7 +64362,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="C368" s="5" t="inlineStr">
+      <c r="C368" s="17" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -65040,7 +65048,7 @@
           <t>897</t>
         </is>
       </c>
-      <c r="AB371" s="13" t="inlineStr">
+      <c r="AB371" s="17" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -66112,7 +66120,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="R377" s="10" t="inlineStr">
+      <c r="R377" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -66521,7 +66529,7 @@
           <t>698</t>
         </is>
       </c>
-      <c r="Y379" s="12" t="inlineStr">
+      <c r="Y379" s="17" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -66581,7 +66589,7 @@
           <t>654</t>
         </is>
       </c>
-      <c r="AK379" s="16" t="inlineStr">
+      <c r="AK379" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -66753,7 +66761,7 @@
           <t>058</t>
         </is>
       </c>
-      <c r="AH380" s="15" t="inlineStr">
+      <c r="AH380" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -68685,7 +68693,7 @@
           <t>561</t>
         </is>
       </c>
-      <c r="AC393" s="14" t="inlineStr">
+      <c r="AC393" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -69099,7 +69107,7 @@
           <t>376</t>
         </is>
       </c>
-      <c r="AK395" s="16" t="inlineStr">
+      <c r="AK395" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -69625,7 +69633,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="AD398" s="14" t="inlineStr">
+      <c r="AD398" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -69969,7 +69977,7 @@
           <t>582</t>
         </is>
       </c>
-      <c r="X400" s="12" t="inlineStr">
+      <c r="X400" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -71263,7 +71271,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="U407" s="11" t="inlineStr">
+      <c r="U407" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -71470,7 +71478,7 @@
           <t>411</t>
         </is>
       </c>
-      <c r="Y408" s="12" t="inlineStr">
+      <c r="Y408" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -72891,7 +72899,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="J416" s="7" t="inlineStr">
+      <c r="J416" s="17" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -73786,7 +73794,7 @@
           <t>421</t>
         </is>
       </c>
-      <c r="V423" s="11" t="inlineStr">
+      <c r="V423" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -73796,7 +73804,7 @@
           <t>345</t>
         </is>
       </c>
-      <c r="X423" s="12" t="inlineStr">
+      <c r="X423" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -73928,7 +73936,7 @@
           <t>017</t>
         </is>
       </c>
-      <c r="M424" s="8" t="inlineStr">
+      <c r="M424" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -73938,7 +73946,7 @@
           <t>540</t>
         </is>
       </c>
-      <c r="O424" s="9" t="inlineStr">
+      <c r="O424" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -74382,7 +74390,7 @@
           <t>419</t>
         </is>
       </c>
-      <c r="AC426" s="14" t="inlineStr">
+      <c r="AC426" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -74544,7 +74552,7 @@
           <t>398</t>
         </is>
       </c>
-      <c r="X427" s="12" t="inlineStr">
+      <c r="X427" s="17" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -76247,7 +76255,7 @@
           <t>421</t>
         </is>
       </c>
-      <c r="AB436" s="13" t="inlineStr">
+      <c r="AB436" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -77152,7 +77160,7 @@
           <t>528</t>
         </is>
       </c>
-      <c r="V441" s="11" t="inlineStr">
+      <c r="V441" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -77541,7 +77549,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="Y443" s="12" t="inlineStr">
+      <c r="Y443" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -77800,7 +77808,7 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B445" s="5" t="inlineStr">
+      <c r="B445" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -78157,7 +78165,7 @@
           <t>026</t>
         </is>
       </c>
-      <c r="AJ446" s="16" t="inlineStr">
+      <c r="AJ446" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -80186,7 +80194,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="M460" s="8" t="inlineStr">
+      <c r="M460" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -82869,7 +82877,7 @@
           <t>323</t>
         </is>
       </c>
-      <c r="Z474" s="13" t="inlineStr">
+      <c r="Z474" s="17" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -84168,7 +84176,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="X481" s="12" t="inlineStr">
+      <c r="X481" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -84208,7 +84216,7 @@
           <t>182</t>
         </is>
       </c>
-      <c r="AF481" s="15" t="inlineStr">
+      <c r="AF481" s="17" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -86160,7 +86168,7 @@
           <t>278</t>
         </is>
       </c>
-      <c r="AE494" s="14" t="inlineStr">
+      <c r="AE494" s="17" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -87484,7 +87492,7 @@
           <t>901</t>
         </is>
       </c>
-      <c r="AH501" s="15" t="inlineStr">
+      <c r="AH501" s="17" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -91032,7 +91040,7 @@
           <t>118</t>
         </is>
       </c>
-      <c r="AG520" s="15" t="inlineStr">
+      <c r="AG520" s="17" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -92121,17 +92129,17 @@
       </c>
       <c r="B549" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C549" s="5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D549" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="D549" s="17" t="inlineStr">
+        <is>
+          <t>810</t>
         </is>
       </c>
     </row>
@@ -92143,17 +92151,17 @@
       </c>
       <c r="B550" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>598</t>
         </is>
       </c>
       <c r="C550" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D550" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>513</t>
         </is>
       </c>
     </row>
@@ -92165,17 +92173,17 @@
       </c>
       <c r="B551" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>394</t>
         </is>
       </c>
       <c r="C551" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>556</t>
         </is>
       </c>
       <c r="D551" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>719</t>
         </is>
       </c>
     </row>
@@ -92187,17 +92195,17 @@
       </c>
       <c r="B552" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>757</t>
         </is>
       </c>
       <c r="C552" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D552" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>093</t>
         </is>
       </c>
     </row>
@@ -92209,17 +92217,17 @@
       </c>
       <c r="B553" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>457</t>
         </is>
       </c>
       <c r="C553" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>087</t>
         </is>
       </c>
       <c r="D553" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>266</t>
         </is>
       </c>
     </row>
@@ -92231,17 +92239,17 @@
       </c>
       <c r="B554" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>469</t>
         </is>
       </c>
       <c r="C554" s="5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D554" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="D554" s="17" t="inlineStr">
+        <is>
+          <t>180</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -39,11 +39,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ff6699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -209,7 +204,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -248,12 +246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1533,7 +1525,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB6" s="17" t="inlineStr">
+      <c r="AB6" s="13" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -1600,7 +1592,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D7" s="17" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -3283,7 +3275,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D16" s="17" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -3438,7 +3430,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="AI16" s="17" t="inlineStr">
+      <c r="AI16" s="16" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -11416,7 +11408,7 @@
           <t>608</t>
         </is>
       </c>
-      <c r="E62" s="17" t="inlineStr">
+      <c r="E62" s="6" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -13999,7 +13991,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="R78" s="17" t="inlineStr">
+      <c r="R78" s="10" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -14044,7 +14036,7 @@
           <t>282</t>
         </is>
       </c>
-      <c r="AA78" s="17" t="inlineStr">
+      <c r="AA78" s="13" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -15166,7 +15158,7 @@
           <t>223</t>
         </is>
       </c>
-      <c r="AA84" s="17" t="inlineStr">
+      <c r="AA84" s="13" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -15954,7 +15946,7 @@
           <t>218</t>
         </is>
       </c>
-      <c r="AI88" s="17" t="inlineStr">
+      <c r="AI88" s="16" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -16976,7 +16968,7 @@
           <t>273</t>
         </is>
       </c>
-      <c r="O94" s="17" t="inlineStr">
+      <c r="O94" s="9" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -17193,7 +17185,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="U95" s="17" t="inlineStr">
+      <c r="U95" s="11" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -18447,7 +18439,7 @@
           <t>505</t>
         </is>
       </c>
-      <c r="J102" s="17" t="inlineStr">
+      <c r="J102" s="7" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -19110,7 +19102,7 @@
           <t>051</t>
         </is>
       </c>
-      <c r="M108" s="17" t="inlineStr">
+      <c r="M108" s="8" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -20227,7 +20219,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="L114" s="17" t="inlineStr">
+      <c r="L114" s="8" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -21596,7 +21588,7 @@
           <t>751</t>
         </is>
       </c>
-      <c r="X121" s="17" t="inlineStr">
+      <c r="X121" s="12" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -22561,7 +22553,7 @@
           <t>703</t>
         </is>
       </c>
-      <c r="AD126" s="17" t="inlineStr">
+      <c r="AD126" s="14" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -22800,7 +22792,7 @@
           <t>440</t>
         </is>
       </c>
-      <c r="C128" s="17" t="inlineStr">
+      <c r="C128" s="5" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -23157,7 +23149,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="AK129" s="17" t="inlineStr">
+      <c r="AK129" s="16" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -23623,7 +23615,7 @@
           <t>711</t>
         </is>
       </c>
-      <c r="R132" s="17" t="inlineStr">
+      <c r="R132" s="10" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -23937,12 +23929,12 @@
           <t>623</t>
         </is>
       </c>
-      <c r="F134" s="17" t="inlineStr">
+      <c r="F134" s="6" t="inlineStr">
         <is>
           <t>810</t>
         </is>
       </c>
-      <c r="G134" s="17" t="inlineStr">
+      <c r="G134" s="6" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -24466,7 +24458,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="AK136" s="17" t="inlineStr">
+      <c r="AK136" s="16" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -25156,7 +25148,7 @@
           <t>650</t>
         </is>
       </c>
-      <c r="H143" s="17" t="inlineStr">
+      <c r="H143" s="7" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -25540,7 +25532,7 @@
           <t>645</t>
         </is>
       </c>
-      <c r="J145" s="17" t="inlineStr">
+      <c r="J145" s="7" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -27894,7 +27886,7 @@
           <t>211</t>
         </is>
       </c>
-      <c r="AF157" s="17" t="inlineStr">
+      <c r="AF157" s="15" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -29946,7 +29938,7 @@
           <t>044</t>
         </is>
       </c>
-      <c r="AE168" s="17" t="inlineStr">
+      <c r="AE168" s="14" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -30402,7 +30394,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="J171" s="17" t="inlineStr">
+      <c r="J171" s="7" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -30704,7 +30696,7 @@
           <t>112</t>
         </is>
       </c>
-      <c r="AG172" s="17" t="inlineStr">
+      <c r="AG172" s="15" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -31893,7 +31885,7 @@
           <t>353</t>
         </is>
       </c>
-      <c r="AC181" s="17" t="inlineStr">
+      <c r="AC181" s="14" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -33628,7 +33620,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B191" s="17" t="inlineStr">
+      <c r="B191" s="5" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -36538,7 +36530,7 @@
           <t>456</t>
         </is>
       </c>
-      <c r="W206" s="17" t="inlineStr">
+      <c r="W206" s="12" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -36660,7 +36652,7 @@
           <t>873</t>
         </is>
       </c>
-      <c r="J207" s="17" t="inlineStr">
+      <c r="J207" s="7" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -38213,7 +38205,7 @@
           <t>171</t>
         </is>
       </c>
-      <c r="D218" s="17" t="inlineStr">
+      <c r="D218" s="5" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -38814,7 +38806,7 @@
           <t>305</t>
         </is>
       </c>
-      <c r="L221" s="17" t="inlineStr">
+      <c r="L221" s="8" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -38934,7 +38926,7 @@
           <t>924</t>
         </is>
       </c>
-      <c r="AJ221" s="17" t="inlineStr">
+      <c r="AJ221" s="16" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -42756,7 +42748,7 @@
           <t>844</t>
         </is>
       </c>
-      <c r="O242" s="17" t="inlineStr">
+      <c r="O242" s="9" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -43641,7 +43633,7 @@
           <t>272</t>
         </is>
       </c>
-      <c r="Y249" s="17" t="inlineStr">
+      <c r="Y249" s="12" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -44586,7 +44578,7 @@
           <t>454</t>
         </is>
       </c>
-      <c r="AA254" s="17" t="inlineStr">
+      <c r="AA254" s="13" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -44611,7 +44603,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="AF254" s="17" t="inlineStr">
+      <c r="AF254" s="15" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -46371,7 +46363,7 @@
           <t>114</t>
         </is>
       </c>
-      <c r="J264" s="17" t="inlineStr">
+      <c r="J264" s="7" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -50056,7 +50048,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="S286" s="17" t="inlineStr">
+      <c r="S286" s="10" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -51325,7 +51317,7 @@
           <t>822</t>
         </is>
       </c>
-      <c r="K293" s="17" t="inlineStr">
+      <c r="K293" s="8" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -51729,7 +51721,7 @@
           <t>780</t>
         </is>
       </c>
-      <c r="Q295" s="17" t="inlineStr">
+      <c r="Q295" s="10" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -52048,7 +52040,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="F297" s="17" t="inlineStr">
+      <c r="F297" s="6" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -52896,7 +52888,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="Z301" s="17" t="inlineStr">
+      <c r="Z301" s="13" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -53973,7 +53965,7 @@
           <t>320</t>
         </is>
       </c>
-      <c r="Q307" s="17" t="inlineStr">
+      <c r="Q307" s="10" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -56294,7 +56286,7 @@
           <t>471</t>
         </is>
       </c>
-      <c r="O322" s="17" t="inlineStr">
+      <c r="O322" s="9" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -56586,7 +56578,7 @@
           <t>512</t>
         </is>
       </c>
-      <c r="AJ323" s="17" t="inlineStr">
+      <c r="AJ323" s="16" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -57775,7 +57767,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="L330" s="17" t="inlineStr">
+      <c r="L330" s="8" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -58077,7 +58069,7 @@
           <t>219</t>
         </is>
       </c>
-      <c r="AI331" s="17" t="inlineStr">
+      <c r="AI331" s="16" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -58296,7 +58288,7 @@
           <t>997</t>
         </is>
       </c>
-      <c r="D333" s="17" t="inlineStr">
+      <c r="D333" s="5" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -59149,7 +59141,7 @@
           <t>350</t>
         </is>
       </c>
-      <c r="Y337" s="17" t="inlineStr">
+      <c r="Y337" s="12" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -59199,7 +59191,7 @@
           <t>918</t>
         </is>
       </c>
-      <c r="AI337" s="17" t="inlineStr">
+      <c r="AI337" s="16" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -59670,7 +59662,7 @@
           <t>533</t>
         </is>
       </c>
-      <c r="Q340" s="17" t="inlineStr">
+      <c r="Q340" s="10" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -61894,7 +61886,7 @@
           <t>831</t>
         </is>
       </c>
-      <c r="AG354" s="17" t="inlineStr">
+      <c r="AG354" s="15" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -63664,7 +63656,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="M364" s="17" t="inlineStr">
+      <c r="M364" s="8" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -63886,7 +63878,7 @@
           <t>603</t>
         </is>
       </c>
-      <c r="T365" s="17" t="inlineStr">
+      <c r="T365" s="11" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -64362,7 +64354,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="C368" s="17" t="inlineStr">
+      <c r="C368" s="5" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -65048,7 +65040,7 @@
           <t>897</t>
         </is>
       </c>
-      <c r="AB371" s="17" t="inlineStr">
+      <c r="AB371" s="13" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -66120,7 +66112,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="R377" s="17" t="inlineStr">
+      <c r="R377" s="10" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -66529,7 +66521,7 @@
           <t>698</t>
         </is>
       </c>
-      <c r="Y379" s="17" t="inlineStr">
+      <c r="Y379" s="12" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -66589,7 +66581,7 @@
           <t>654</t>
         </is>
       </c>
-      <c r="AK379" s="17" t="inlineStr">
+      <c r="AK379" s="16" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -66761,7 +66753,7 @@
           <t>058</t>
         </is>
       </c>
-      <c r="AH380" s="17" t="inlineStr">
+      <c r="AH380" s="15" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -68693,7 +68685,7 @@
           <t>561</t>
         </is>
       </c>
-      <c r="AC393" s="17" t="inlineStr">
+      <c r="AC393" s="14" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -69107,7 +69099,7 @@
           <t>376</t>
         </is>
       </c>
-      <c r="AK395" s="17" t="inlineStr">
+      <c r="AK395" s="16" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -69633,7 +69625,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="AD398" s="17" t="inlineStr">
+      <c r="AD398" s="14" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -69977,7 +69969,7 @@
           <t>582</t>
         </is>
       </c>
-      <c r="X400" s="17" t="inlineStr">
+      <c r="X400" s="12" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -71271,7 +71263,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="U407" s="17" t="inlineStr">
+      <c r="U407" s="11" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -71478,7 +71470,7 @@
           <t>411</t>
         </is>
       </c>
-      <c r="Y408" s="17" t="inlineStr">
+      <c r="Y408" s="12" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -72899,7 +72891,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="J416" s="17" t="inlineStr">
+      <c r="J416" s="7" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -73794,7 +73786,7 @@
           <t>421</t>
         </is>
       </c>
-      <c r="V423" s="17" t="inlineStr">
+      <c r="V423" s="11" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -73804,7 +73796,7 @@
           <t>345</t>
         </is>
       </c>
-      <c r="X423" s="17" t="inlineStr">
+      <c r="X423" s="12" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -73936,7 +73928,7 @@
           <t>017</t>
         </is>
       </c>
-      <c r="M424" s="17" t="inlineStr">
+      <c r="M424" s="8" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -73946,7 +73938,7 @@
           <t>540</t>
         </is>
       </c>
-      <c r="O424" s="17" t="inlineStr">
+      <c r="O424" s="9" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -74390,7 +74382,7 @@
           <t>419</t>
         </is>
       </c>
-      <c r="AC426" s="17" t="inlineStr">
+      <c r="AC426" s="14" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -74552,7 +74544,7 @@
           <t>398</t>
         </is>
       </c>
-      <c r="X427" s="17" t="inlineStr">
+      <c r="X427" s="12" t="inlineStr">
         <is>
           <t>018</t>
         </is>
@@ -76255,7 +76247,7 @@
           <t>421</t>
         </is>
       </c>
-      <c r="AB436" s="17" t="inlineStr">
+      <c r="AB436" s="13" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -77160,7 +77152,7 @@
           <t>528</t>
         </is>
       </c>
-      <c r="V441" s="17" t="inlineStr">
+      <c r="V441" s="11" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -77549,7 +77541,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="Y443" s="17" t="inlineStr">
+      <c r="Y443" s="12" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -77808,7 +77800,7 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B445" s="17" t="inlineStr">
+      <c r="B445" s="5" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -78165,7 +78157,7 @@
           <t>026</t>
         </is>
       </c>
-      <c r="AJ446" s="17" t="inlineStr">
+      <c r="AJ446" s="16" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -80194,7 +80186,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="M460" s="17" t="inlineStr">
+      <c r="M460" s="8" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -82877,7 +82869,7 @@
           <t>323</t>
         </is>
       </c>
-      <c r="Z474" s="17" t="inlineStr">
+      <c r="Z474" s="13" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -84176,7 +84168,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="X481" s="17" t="inlineStr">
+      <c r="X481" s="12" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -84216,7 +84208,7 @@
           <t>182</t>
         </is>
       </c>
-      <c r="AF481" s="17" t="inlineStr">
+      <c r="AF481" s="15" t="inlineStr">
         <is>
           <t>180</t>
         </is>
@@ -86168,7 +86160,7 @@
           <t>278</t>
         </is>
       </c>
-      <c r="AE494" s="17" t="inlineStr">
+      <c r="AE494" s="14" t="inlineStr">
         <is>
           <t>081</t>
         </is>
@@ -87492,7 +87484,7 @@
           <t>901</t>
         </is>
       </c>
-      <c r="AH501" s="17" t="inlineStr">
+      <c r="AH501" s="15" t="inlineStr">
         <is>
           <t>810</t>
         </is>
@@ -91040,7 +91032,7 @@
           <t>118</t>
         </is>
       </c>
-      <c r="AG520" s="17" t="inlineStr">
+      <c r="AG520" s="15" t="inlineStr">
         <is>
           <t>801</t>
         </is>
@@ -91640,6 +91632,13 @@
       </c>
       <c r="C526" s="2" t="n"/>
       <c r="D526" s="3" t="n"/>
+      <c r="E526" s="1" t="inlineStr">
+        <is>
+          <t>February 2021</t>
+        </is>
+      </c>
+      <c r="F526" s="2" t="n"/>
+      <c r="G526" s="3" t="n"/>
     </row>
     <row r="527">
       <c r="A527" s="4" t="n"/>
@@ -91658,6 +91657,21 @@
           <t>9PM</t>
         </is>
       </c>
+      <c r="E527" s="1" t="inlineStr">
+        <is>
+          <t>11AM</t>
+        </is>
+      </c>
+      <c r="F527" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="G527" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -91680,6 +91694,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="E528" s="6" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="F528" s="6" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G528" s="6" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
@@ -91702,6 +91731,21 @@
           <t>013</t>
         </is>
       </c>
+      <c r="E529" s="6" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="F529" s="6" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="G529" s="6" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
@@ -91724,6 +91768,21 @@
           <t>909</t>
         </is>
       </c>
+      <c r="E530" s="6" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="F530" s="6" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="G530" s="6" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
@@ -91746,6 +91805,21 @@
           <t>589</t>
         </is>
       </c>
+      <c r="E531" s="6" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="F531" s="6" t="inlineStr">
+        <is>
+          <t>096</t>
+        </is>
+      </c>
+      <c r="G531" s="6" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
@@ -91768,6 +91842,21 @@
           <t>852</t>
         </is>
       </c>
+      <c r="E532" s="6" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="F532" s="6" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="G532" s="6" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
@@ -91790,6 +91879,21 @@
           <t>941</t>
         </is>
       </c>
+      <c r="E533" s="6" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="F533" s="6" t="inlineStr">
+        <is>
+          <t>027</t>
+        </is>
+      </c>
+      <c r="G533" s="6" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
@@ -91812,6 +91916,21 @@
           <t>020</t>
         </is>
       </c>
+      <c r="E534" s="6" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="F534" s="6" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="G534" s="6" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
@@ -91834,6 +91953,21 @@
           <t>113</t>
         </is>
       </c>
+      <c r="E535" s="6" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="F535" s="6" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="G535" s="6" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
@@ -91856,6 +91990,21 @@
           <t>733</t>
         </is>
       </c>
+      <c r="E536" s="6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="F536" s="6" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G536" s="6" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
@@ -91878,6 +92027,21 @@
           <t>824</t>
         </is>
       </c>
+      <c r="E537" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F537" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G537" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
@@ -91900,6 +92064,21 @@
           <t>668</t>
         </is>
       </c>
+      <c r="E538" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F538" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G538" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
@@ -91922,6 +92101,21 @@
           <t>101</t>
         </is>
       </c>
+      <c r="E539" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F539" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G539" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
@@ -91944,6 +92138,21 @@
           <t>508</t>
         </is>
       </c>
+      <c r="E540" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F540" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G540" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
@@ -91966,6 +92175,21 @@
           <t>932</t>
         </is>
       </c>
+      <c r="E541" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F541" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G541" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
@@ -91988,6 +92212,21 @@
           <t>498</t>
         </is>
       </c>
+      <c r="E542" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F542" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G542" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
@@ -92010,6 +92249,21 @@
           <t>563</t>
         </is>
       </c>
+      <c r="E543" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F543" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G543" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
@@ -92032,6 +92286,21 @@
           <t>226</t>
         </is>
       </c>
+      <c r="E544" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F544" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G544" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
@@ -92054,6 +92323,21 @@
           <t>767</t>
         </is>
       </c>
+      <c r="E545" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F545" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G545" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
@@ -92076,6 +92360,21 @@
           <t>913</t>
         </is>
       </c>
+      <c r="E546" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F546" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G546" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
@@ -92098,6 +92397,21 @@
           <t>956</t>
         </is>
       </c>
+      <c r="E547" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F547" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G547" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
@@ -92120,6 +92434,21 @@
           <t>109</t>
         </is>
       </c>
+      <c r="E548" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F548" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G548" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
@@ -92137,9 +92466,24 @@
           <t>854</t>
         </is>
       </c>
-      <c r="D549" s="17" t="inlineStr">
+      <c r="D549" s="5" t="inlineStr">
         <is>
           <t>810</t>
+        </is>
+      </c>
+      <c r="E549" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F549" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G549" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92164,6 +92508,21 @@
           <t>513</t>
         </is>
       </c>
+      <c r="E550" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F550" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G550" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
@@ -92186,6 +92545,21 @@
           <t>719</t>
         </is>
       </c>
+      <c r="E551" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F551" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G551" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
@@ -92208,6 +92582,21 @@
           <t>093</t>
         </is>
       </c>
+      <c r="E552" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F552" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G552" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
@@ -92230,6 +92619,21 @@
           <t>266</t>
         </is>
       </c>
+      <c r="E553" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F553" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G553" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
@@ -92247,9 +92651,24 @@
           <t>679</t>
         </is>
       </c>
-      <c r="D554" s="17" t="inlineStr">
+      <c r="D554" s="5" t="inlineStr">
         <is>
           <t>180</t>
+        </is>
+      </c>
+      <c r="E554" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F554" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G554" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92261,15 +92680,30 @@
       </c>
       <c r="B555" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>005</t>
         </is>
       </c>
       <c r="C555" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>957</t>
         </is>
       </c>
       <c r="D555" s="5" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="E555" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F555" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G555" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92283,15 +92717,30 @@
       </c>
       <c r="B556" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>882</t>
         </is>
       </c>
       <c r="C556" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D556" s="5" t="inlineStr">
+        <is>
+          <t>092</t>
+        </is>
+      </c>
+      <c r="E556" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F556" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G556" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92305,15 +92754,30 @@
       </c>
       <c r="B557" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>066</t>
         </is>
       </c>
       <c r="C557" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D557" s="5" t="inlineStr">
+        <is>
+          <t>063</t>
+        </is>
+      </c>
+      <c r="E557" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F557" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G557" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92327,22 +92791,37 @@
       </c>
       <c r="B558" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>730</t>
         </is>
       </c>
       <c r="C558" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D558" s="5" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="E558" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F558" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G558" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="198">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -92540,6 +93019,7 @@
     <mergeCell ref="AI491:AK491"/>
     <mergeCell ref="A526:A527"/>
     <mergeCell ref="B526:D526"/>
+    <mergeCell ref="E526:G526"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -68,12 +68,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006699ff"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="006699ff"/>
       </patternFill>
     </fill>
     <fill>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1548,7 +1548,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE6" s="17" t="inlineStr">
+      <c r="AE6" s="14" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -2857,7 +2857,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE13" s="17" t="inlineStr">
+      <c r="AE13" s="14" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -3949,7 +3949,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y19" s="17" t="inlineStr">
+      <c r="Y19" s="12" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -4121,7 +4121,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V20" s="17" t="inlineStr">
+      <c r="V20" s="11" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -4854,7 +4854,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S24" s="10" t="inlineStr">
+      <c r="S24" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -6943,7 +6943,7 @@
           <t>941</t>
         </is>
       </c>
-      <c r="H38" s="17" t="inlineStr">
+      <c r="H38" s="7" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -7115,7 +7115,7 @@
           <t>367</t>
         </is>
       </c>
-      <c r="E39" s="17" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -8606,7 +8606,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D47" s="17" t="inlineStr">
+      <c r="D47" s="5" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -9691,7 +9691,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH52" s="15" t="inlineStr">
+      <c r="AH52" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -10349,12 +10349,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P56" s="9" t="inlineStr">
+      <c r="P56" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
       </c>
-      <c r="Q56" s="17" t="inlineStr">
+      <c r="Q56" s="10" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -11269,7 +11269,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M61" s="17" t="inlineStr">
+      <c r="M61" s="8" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -11304,7 +11304,7 @@
           <t>090</t>
         </is>
       </c>
-      <c r="T61" s="17" t="inlineStr">
+      <c r="T61" s="11" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -11551,7 +11551,7 @@
           <t>225</t>
         </is>
       </c>
-      <c r="AF62" s="17" t="inlineStr">
+      <c r="AF62" s="15" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -12299,7 +12299,7 @@
           <t>607</t>
         </is>
       </c>
-      <c r="AF66" s="15" t="inlineStr">
+      <c r="AF66" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -13493,7 +13493,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AC75" s="14" t="inlineStr">
+      <c r="AC75" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -13892,7 +13892,7 @@
           <t>565</t>
         </is>
       </c>
-      <c r="AH77" s="17" t="inlineStr">
+      <c r="AH77" s="15" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -14767,7 +14767,7 @@
           <t>598</t>
         </is>
       </c>
-      <c r="V82" s="17" t="inlineStr">
+      <c r="V82" s="11" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -14974,7 +14974,7 @@
           <t>274</t>
         </is>
       </c>
-      <c r="Z83" s="17" t="inlineStr">
+      <c r="Z83" s="13" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -15333,7 +15333,7 @@
           <t>936</t>
         </is>
       </c>
-      <c r="W85" s="17" t="inlineStr">
+      <c r="W85" s="12" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -17188,7 +17188,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="T95" s="17" t="inlineStr">
+      <c r="T95" s="11" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -17415,7 +17415,7 @@
           <t>031</t>
         </is>
       </c>
-      <c r="AB96" s="17" t="inlineStr">
+      <c r="AB96" s="13" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -18769,7 +18769,7 @@
           <t>107</t>
         </is>
       </c>
-      <c r="AK103" s="16" t="inlineStr">
+      <c r="AK103" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -19220,7 +19220,7 @@
           <t>412</t>
         </is>
       </c>
-      <c r="AI108" s="17" t="inlineStr">
+      <c r="AI108" s="16" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -19948,7 +19948,7 @@
           <t>105</t>
         </is>
       </c>
-      <c r="AE112" s="17" t="inlineStr">
+      <c r="AE112" s="14" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -20394,7 +20394,7 @@
           <t>478</t>
         </is>
       </c>
-      <c r="H115" s="7" t="inlineStr">
+      <c r="H115" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -21606,7 +21606,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="Z121" s="17" t="inlineStr">
+      <c r="Z121" s="13" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -21656,7 +21656,7 @@
           <t>856</t>
         </is>
       </c>
-      <c r="AJ121" s="17" t="inlineStr">
+      <c r="AJ121" s="16" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -22890,7 +22890,7 @@
           <t>565</t>
         </is>
       </c>
-      <c r="U128" s="11" t="inlineStr">
+      <c r="U128" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -22945,7 +22945,7 @@
           <t>814</t>
         </is>
       </c>
-      <c r="AF128" s="17" t="inlineStr">
+      <c r="AF128" s="15" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -23254,7 +23254,7 @@
           <t>007</t>
         </is>
       </c>
-      <c r="S130" s="17" t="inlineStr">
+      <c r="S130" s="10" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -25296,7 +25296,7 @@
           <t>124</t>
         </is>
       </c>
-      <c r="AJ143" s="17" t="inlineStr">
+      <c r="AJ143" s="16" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -25792,7 +25792,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="W146" s="17" t="inlineStr">
+      <c r="W146" s="12" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -26061,7 +26061,7 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B148" s="17" t="inlineStr">
+      <c r="B148" s="5" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -26136,12 +26136,12 @@
           <t>573</t>
         </is>
       </c>
-      <c r="Q148" s="10" t="inlineStr">
+      <c r="Q148" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
       </c>
-      <c r="R148" s="17" t="inlineStr">
+      <c r="R148" s="10" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -26687,7 +26687,7 @@
           <t>490</t>
         </is>
       </c>
-      <c r="O151" s="9" t="inlineStr">
+      <c r="O151" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -27652,7 +27652,7 @@
           <t>395</t>
         </is>
       </c>
-      <c r="U156" s="11" t="inlineStr">
+      <c r="U156" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -27784,7 +27784,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="J157" s="7" t="inlineStr">
+      <c r="J157" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -27936,7 +27936,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="C158" s="5" t="inlineStr">
+      <c r="C158" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -28118,7 +28118,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B159" s="17" t="inlineStr">
+      <c r="B159" s="5" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -28627,7 +28627,7 @@
           <t>179</t>
         </is>
       </c>
-      <c r="AC161" s="14" t="inlineStr">
+      <c r="AC161" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -29118,7 +29118,7 @@
           <t>098</t>
         </is>
       </c>
-      <c r="O164" s="17" t="inlineStr">
+      <c r="O164" s="9" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -30118,7 +30118,7 @@
           <t>996</t>
         </is>
       </c>
-      <c r="AB169" s="13" t="inlineStr">
+      <c r="AB169" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -30881,7 +30881,7 @@
           <t>094</t>
         </is>
       </c>
-      <c r="AE173" s="17" t="inlineStr">
+      <c r="AE173" s="14" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -32950,7 +32950,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="P187" s="17" t="inlineStr">
+      <c r="P187" s="9" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -33122,7 +33122,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="M188" s="8" t="inlineStr">
+      <c r="M188" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -33187,7 +33187,7 @@
           <t>957</t>
         </is>
       </c>
-      <c r="Z188" s="17" t="inlineStr">
+      <c r="Z188" s="13" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -33683,7 +33683,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="M191" s="17" t="inlineStr">
+      <c r="M191" s="8" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -34027,7 +34027,7 @@
           <t>027</t>
         </is>
       </c>
-      <c r="G193" s="17" t="inlineStr">
+      <c r="G193" s="6" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -34920,7 +34920,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="AJ197" s="16" t="inlineStr">
+      <c r="AJ197" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -36421,7 +36421,7 @@
           <t>749</t>
         </is>
       </c>
-      <c r="AK205" s="16" t="inlineStr">
+      <c r="AK205" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -36690,12 +36690,12 @@
           <t>355</t>
         </is>
       </c>
-      <c r="P207" s="17" t="inlineStr">
+      <c r="P207" s="9" t="inlineStr">
         <is>
           <t>618</t>
         </is>
       </c>
-      <c r="Q207" s="17" t="inlineStr">
+      <c r="Q207" s="10" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -37418,7 +37418,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="AF213" s="15" t="inlineStr">
+      <c r="AF213" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -37540,7 +37540,7 @@
           <t>571</t>
         </is>
       </c>
-      <c r="S214" s="17" t="inlineStr">
+      <c r="S214" s="10" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -38490,7 +38490,7 @@
           <t>352</t>
         </is>
       </c>
-      <c r="V219" s="11" t="inlineStr">
+      <c r="V219" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -39111,7 +39111,7 @@
           <t>287</t>
         </is>
       </c>
-      <c r="AH222" s="17" t="inlineStr">
+      <c r="AH222" s="15" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -39485,7 +39485,7 @@
           <t>921</t>
         </is>
       </c>
-      <c r="AH224" s="17" t="inlineStr">
+      <c r="AH224" s="15" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -39874,7 +39874,7 @@
           <t>207</t>
         </is>
       </c>
-      <c r="AK226" s="16" t="inlineStr">
+      <c r="AK226" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -40951,7 +40951,7 @@
           <t>414</t>
         </is>
       </c>
-      <c r="AB232" s="17" t="inlineStr">
+      <c r="AB232" s="13" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -41694,7 +41694,7 @@
           <t>814</t>
         </is>
       </c>
-      <c r="AA236" s="17" t="inlineStr">
+      <c r="AA236" s="13" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -41831,7 +41831,7 @@
           <t>040</t>
         </is>
       </c>
-      <c r="Q237" s="17" t="inlineStr">
+      <c r="Q237" s="10" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -41978,7 +41978,7 @@
           <t>646</t>
         </is>
       </c>
-      <c r="I238" s="17" t="inlineStr">
+      <c r="I238" s="7" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -43494,7 +43494,7 @@
           <t>272</t>
         </is>
       </c>
-      <c r="AG248" s="17" t="inlineStr">
+      <c r="AG248" s="15" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -43915,7 +43915,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="E251" s="17" t="inlineStr">
+      <c r="E251" s="6" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -44279,7 +44279,7 @@
           <t>620</t>
         </is>
       </c>
-      <c r="C253" s="5" t="inlineStr">
+      <c r="C253" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -45112,7 +45112,7 @@
           <t>361</t>
         </is>
       </c>
-      <c r="T257" s="17" t="inlineStr">
+      <c r="T257" s="11" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -46401,7 +46401,7 @@
           <t>940</t>
         </is>
       </c>
-      <c r="P264" s="9" t="inlineStr">
+      <c r="P264" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -46820,7 +46820,7 @@
           <t>143</t>
         </is>
       </c>
-      <c r="Y266" s="12" t="inlineStr">
+      <c r="Y266" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -46927,7 +46927,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="I267" s="17" t="inlineStr">
+      <c r="I267" s="7" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -47371,7 +47371,7 @@
           <t>011</t>
         </is>
       </c>
-      <c r="W269" s="17" t="inlineStr">
+      <c r="W269" s="12" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -47640,7 +47640,7 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B271" s="5" t="inlineStr">
+      <c r="B271" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -48266,7 +48266,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="O274" s="17" t="inlineStr">
+      <c r="O274" s="9" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -48443,7 +48443,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="M275" s="8" t="inlineStr">
+      <c r="M275" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -50036,7 +50036,7 @@
           <t>837</t>
         </is>
       </c>
-      <c r="O286" s="17" t="inlineStr">
+      <c r="O286" s="9" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -50911,7 +50911,7 @@
           <t>132</t>
         </is>
       </c>
-      <c r="C291" s="17" t="inlineStr">
+      <c r="C291" s="5" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -51036,7 +51036,7 @@
           <t>507</t>
         </is>
       </c>
-      <c r="AB291" s="17" t="inlineStr">
+      <c r="AB291" s="13" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -51592,7 +51592,7 @@
           <t>957</t>
         </is>
       </c>
-      <c r="AA294" s="17" t="inlineStr">
+      <c r="AA294" s="13" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -52629,7 +52629,7 @@
           <t>185</t>
         </is>
       </c>
-      <c r="J300" s="17" t="inlineStr">
+      <c r="J300" s="7" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -53255,7 +53255,7 @@
           <t>891</t>
         </is>
       </c>
-      <c r="W303" s="17" t="inlineStr">
+      <c r="W303" s="12" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -54220,7 +54220,7 @@
           <t>371</t>
         </is>
       </c>
-      <c r="AC308" s="17" t="inlineStr">
+      <c r="AC308" s="14" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -54479,7 +54479,7 @@
           <t>525</t>
         </is>
       </c>
-      <c r="F310" s="6" t="inlineStr">
+      <c r="F310" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -54489,7 +54489,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="H310" s="17" t="inlineStr">
+      <c r="H310" s="7" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -55020,7 +55020,7 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B313" s="5" t="inlineStr">
+      <c r="B313" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -56132,7 +56132,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="T321" s="17" t="inlineStr">
+      <c r="T321" s="11" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -56536,7 +56536,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="Z323" s="17" t="inlineStr">
+      <c r="Z323" s="13" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -56895,7 +56895,7 @@
           <t>925</t>
         </is>
       </c>
-      <c r="W325" s="12" t="inlineStr">
+      <c r="W325" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -57147,7 +57147,7 @@
           <t>745</t>
         </is>
       </c>
-      <c r="AJ326" s="17" t="inlineStr">
+      <c r="AJ326" s="16" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -57568,7 +57568,7 @@
           <t>663</t>
         </is>
       </c>
-      <c r="H329" s="17" t="inlineStr">
+      <c r="H329" s="7" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -58179,7 +58179,7 @@
           <t>542</t>
         </is>
       </c>
-      <c r="R332" s="10" t="inlineStr">
+      <c r="R332" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -58381,7 +58381,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="U333" s="11" t="inlineStr">
+      <c r="U333" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -58401,7 +58401,7 @@
           <t>315</t>
         </is>
       </c>
-      <c r="Y333" s="12" t="inlineStr">
+      <c r="Y333" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -58488,7 +58488,7 @@
           <t>458</t>
         </is>
       </c>
-      <c r="E334" s="6" t="inlineStr">
+      <c r="E334" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -58685,7 +58685,7 @@
           <t>910</t>
         </is>
       </c>
-      <c r="G335" s="6" t="inlineStr">
+      <c r="G335" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -58982,7 +58982,7 @@
           <t>311</t>
         </is>
       </c>
-      <c r="AC336" s="17" t="inlineStr">
+      <c r="AC336" s="14" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -59443,7 +59443,7 @@
           <t>224</t>
         </is>
       </c>
-      <c r="I339" s="7" t="inlineStr">
+      <c r="I339" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -60206,7 +60206,7 @@
           <t>484</t>
         </is>
       </c>
-      <c r="L343" s="8" t="inlineStr">
+      <c r="L343" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -60685,7 +60685,7 @@
           <t>952</t>
         </is>
       </c>
-      <c r="AG345" s="17" t="inlineStr">
+      <c r="AG345" s="15" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -60989,7 +60989,7 @@
           <t>569</t>
         </is>
       </c>
-      <c r="S347" s="17" t="inlineStr">
+      <c r="S347" s="10" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -61717,7 +61717,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="AI353" s="16" t="inlineStr">
+      <c r="AI353" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -61956,7 +61956,7 @@
           <t>455</t>
         </is>
       </c>
-      <c r="H355" s="7" t="inlineStr">
+      <c r="H355" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -62492,7 +62492,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="C358" s="5" t="inlineStr">
+      <c r="C358" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -63128,7 +63128,7 @@
           <t>029</t>
         </is>
       </c>
-      <c r="R361" s="17" t="inlineStr">
+      <c r="R361" s="10" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -63447,7 +63447,7 @@
           <t>279</t>
         </is>
       </c>
-      <c r="G363" s="6" t="inlineStr">
+      <c r="G363" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -64806,7 +64806,7 @@
           <t>472</t>
         </is>
       </c>
-      <c r="Q370" s="17" t="inlineStr">
+      <c r="Q370" s="10" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -65457,7 +65457,7 @@
           <t>470</t>
         </is>
       </c>
-      <c r="AI373" s="16" t="inlineStr">
+      <c r="AI373" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -65494,7 +65494,7 @@
           <t>386</t>
         </is>
       </c>
-      <c r="E374" s="17" t="inlineStr">
+      <c r="E374" s="6" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -66579,7 +66579,7 @@
           <t>498</t>
         </is>
       </c>
-      <c r="AI379" s="17" t="inlineStr">
+      <c r="AI379" s="16" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -66903,7 +66903,7 @@
           <t>176</t>
         </is>
       </c>
-      <c r="Y381" s="17" t="inlineStr">
+      <c r="Y381" s="12" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -67262,7 +67262,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="V383" s="17" t="inlineStr">
+      <c r="V383" s="11" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -67910,7 +67910,7 @@
           <t>289</t>
         </is>
       </c>
-      <c r="V389" s="17" t="inlineStr">
+      <c r="V389" s="11" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -68573,7 +68573,7 @@
           <t>029</t>
         </is>
       </c>
-      <c r="E393" s="17" t="inlineStr">
+      <c r="E393" s="6" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -68875,7 +68875,7 @@
           <t>855</t>
         </is>
       </c>
-      <c r="AB394" s="13" t="inlineStr">
+      <c r="AB394" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -69007,7 +69007,7 @@
           <t>250</t>
         </is>
       </c>
-      <c r="Q395" s="10" t="inlineStr">
+      <c r="Q395" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -69062,7 +69062,7 @@
           <t>464</t>
         </is>
       </c>
-      <c r="AB395" s="17" t="inlineStr">
+      <c r="AB395" s="13" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -70149,7 +70149,7 @@
           <t>543</t>
         </is>
       </c>
-      <c r="U401" s="11" t="inlineStr">
+      <c r="U401" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -70735,7 +70735,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="Z404" s="17" t="inlineStr">
+      <c r="Z404" s="13" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -70952,7 +70952,7 @@
           <t>420</t>
         </is>
       </c>
-      <c r="AF405" s="17" t="inlineStr">
+      <c r="AF405" s="15" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -71024,7 +71024,7 @@
           <t>733</t>
         </is>
       </c>
-      <c r="I406" s="17" t="inlineStr">
+      <c r="I406" s="7" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -71523,7 +71523,7 @@
           <t>525</t>
         </is>
       </c>
-      <c r="AH408" s="17" t="inlineStr">
+      <c r="AH408" s="15" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -71625,7 +71625,7 @@
           <t>202</t>
         </is>
       </c>
-      <c r="Q409" s="17" t="inlineStr">
+      <c r="Q409" s="10" t="inlineStr">
         <is>
           <t>618</t>
         </is>
@@ -72707,7 +72707,7 @@
           <t>976</t>
         </is>
       </c>
-      <c r="I415" s="17" t="inlineStr">
+      <c r="I415" s="7" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -73211,7 +73211,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="AI417" s="17" t="inlineStr">
+      <c r="AI417" s="16" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -75786,7 +75786,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="I434" s="7" t="inlineStr">
+      <c r="I434" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -77180,7 +77180,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="Z441" s="13" t="inlineStr">
+      <c r="Z441" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -77272,7 +77272,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="G442" s="6" t="inlineStr">
+      <c r="G442" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -77514,7 +77514,7 @@
           <t>877</t>
         </is>
       </c>
-      <c r="R443" s="17" t="inlineStr">
+      <c r="R443" s="10" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -78711,7 +78711,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="AG449" s="15" t="inlineStr">
+      <c r="AG449" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -80356,7 +80356,7 @@
           <t>302</t>
         </is>
       </c>
-      <c r="H461" s="17" t="inlineStr">
+      <c r="H461" s="7" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -82261,7 +82261,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="O471" s="9" t="inlineStr">
+      <c r="O471" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -82757,7 +82757,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B474" s="5" t="inlineStr">
+      <c r="B474" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -82902,7 +82902,7 @@
           <t>375</t>
         </is>
       </c>
-      <c r="AE474" s="17" t="inlineStr">
+      <c r="AE474" s="14" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -82912,7 +82912,7 @@
           <t>846</t>
         </is>
       </c>
-      <c r="AG474" s="15" t="inlineStr">
+      <c r="AG474" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -83767,7 +83767,7 @@
           <t>184</t>
         </is>
       </c>
-      <c r="Q479" s="17" t="inlineStr">
+      <c r="Q479" s="10" t="inlineStr">
         <is>
           <t>861</t>
         </is>
@@ -84091,7 +84091,7 @@
           <t>112</t>
         </is>
       </c>
-      <c r="G481" s="17" t="inlineStr">
+      <c r="G481" s="6" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -84570,7 +84570,7 @@
           <t>333</t>
         </is>
       </c>
-      <c r="AB483" s="17" t="inlineStr">
+      <c r="AB483" s="13" t="inlineStr">
         <is>
           <t>681</t>
         </is>
@@ -85126,12 +85126,12 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AA486" s="13" t="inlineStr">
+      <c r="AA486" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
       </c>
-      <c r="AB486" s="13" t="inlineStr">
+      <c r="AB486" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -85375,7 +85375,7 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B488" s="17" t="inlineStr">
+      <c r="B488" s="5" t="inlineStr">
         <is>
           <t>186</t>
         </is>
@@ -88454,7 +88454,7 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B507" s="5" t="inlineStr">
+      <c r="B507" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -89170,7 +89170,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="AG510" s="17" t="inlineStr">
+      <c r="AG510" s="15" t="inlineStr">
         <is>
           <t>168</t>
         </is>
@@ -89322,7 +89322,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z511" s="13" t="inlineStr">
+      <c r="Z511" s="17" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -91451,7 +91451,7 @@
           <t>094</t>
         </is>
       </c>
-      <c r="C523" s="5" t="inlineStr">
+      <c r="C523" s="17" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -92146,7 +92146,7 @@
           <t>508</t>
         </is>
       </c>
-      <c r="E540" s="17" t="inlineStr">
+      <c r="E540" s="6" t="inlineStr">
         <is>
           <t>816</t>
         </is>
@@ -92188,7 +92188,7 @@
           <t>842</t>
         </is>
       </c>
-      <c r="F541" s="6" t="inlineStr">
+      <c r="F541" s="17" t="inlineStr">
         <is>
           <t>773</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -63,12 +63,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0066cc33"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="0066cc33"/>
       </patternFill>
     </fill>
     <fill>
@@ -232,7 +232,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2408,7 +2408,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P11" s="9" t="inlineStr">
+      <c r="P11" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -4196,7 +4196,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK20" s="16" t="inlineStr">
+      <c r="AK20" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -4854,7 +4854,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S24" s="17" t="inlineStr">
+      <c r="S24" s="10" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -9359,7 +9359,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="E51" s="6" t="inlineStr">
+      <c r="E51" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -9691,7 +9691,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH52" s="17" t="inlineStr">
+      <c r="AH52" s="15" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -10349,7 +10349,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P56" s="17" t="inlineStr">
+      <c r="P56" s="9" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -11723,7 +11723,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="AC63" s="14" t="inlineStr">
+      <c r="AC63" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -12294,12 +12294,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE66" s="14" t="inlineStr">
+      <c r="AE66" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
       </c>
-      <c r="AF66" s="17" t="inlineStr">
+      <c r="AF66" s="15" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -12523,7 +12523,7 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="B68" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -13059,7 +13059,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="Q73" s="10" t="inlineStr">
+      <c r="Q73" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -13493,7 +13493,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AC75" s="17" t="inlineStr">
+      <c r="AC75" s="14" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -14378,7 +14378,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="S80" s="10" t="inlineStr">
+      <c r="S80" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -16500,7 +16500,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="AF91" s="15" t="inlineStr">
+      <c r="AF91" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -16612,7 +16612,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="Q92" s="10" t="inlineStr">
+      <c r="Q92" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -18769,7 +18769,7 @@
           <t>107</t>
         </is>
       </c>
-      <c r="AK103" s="17" t="inlineStr">
+      <c r="AK103" s="16" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -19731,7 +19731,7 @@
           <t>348</t>
         </is>
       </c>
-      <c r="Y111" s="12" t="inlineStr">
+      <c r="Y111" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -20394,7 +20394,7 @@
           <t>478</t>
         </is>
       </c>
-      <c r="H115" s="17" t="inlineStr">
+      <c r="H115" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -22254,7 +22254,7 @@
           <t>954</t>
         </is>
       </c>
-      <c r="F125" s="6" t="inlineStr">
+      <c r="F125" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -22890,7 +22890,7 @@
           <t>565</t>
         </is>
       </c>
-      <c r="U128" s="17" t="inlineStr">
+      <c r="U128" s="11" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -23319,7 +23319,7 @@
           <t>536</t>
         </is>
       </c>
-      <c r="AF130" s="15" t="inlineStr">
+      <c r="AF130" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -26136,7 +26136,7 @@
           <t>573</t>
         </is>
       </c>
-      <c r="Q148" s="17" t="inlineStr">
+      <c r="Q148" s="10" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -26687,7 +26687,7 @@
           <t>490</t>
         </is>
       </c>
-      <c r="O151" s="17" t="inlineStr">
+      <c r="O151" s="9" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -26894,7 +26894,7 @@
           <t>329</t>
         </is>
       </c>
-      <c r="S152" s="10" t="inlineStr">
+      <c r="S152" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -27652,7 +27652,7 @@
           <t>395</t>
         </is>
       </c>
-      <c r="U156" s="17" t="inlineStr">
+      <c r="U156" s="11" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -27784,7 +27784,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="J157" s="17" t="inlineStr">
+      <c r="J157" s="7" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -27936,7 +27936,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="C158" s="17" t="inlineStr">
+      <c r="C158" s="5" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -27951,7 +27951,7 @@
           <t>484</t>
         </is>
       </c>
-      <c r="F158" s="6" t="inlineStr">
+      <c r="F158" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -28173,7 +28173,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="M159" s="8" t="inlineStr">
+      <c r="M159" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -28345,7 +28345,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="J160" s="7" t="inlineStr">
+      <c r="J160" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -28627,7 +28627,7 @@
           <t>179</t>
         </is>
       </c>
-      <c r="AC161" s="17" t="inlineStr">
+      <c r="AC161" s="14" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -29138,7 +29138,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="S164" s="10" t="inlineStr">
+      <c r="S164" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29198,7 +29198,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="AE164" s="14" t="inlineStr">
+      <c r="AE164" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29360,7 +29360,7 @@
           <t>812</t>
         </is>
       </c>
-      <c r="Z165" s="13" t="inlineStr">
+      <c r="Z165" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -30118,7 +30118,7 @@
           <t>996</t>
         </is>
       </c>
-      <c r="AB169" s="17" t="inlineStr">
+      <c r="AB169" s="13" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -31449,7 +31449,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="O179" s="9" t="inlineStr">
+      <c r="O179" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -32576,7 +32576,7 @@
           <t>734</t>
         </is>
       </c>
-      <c r="P185" s="9" t="inlineStr">
+      <c r="P185" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -32868,7 +32868,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AK186" s="16" t="inlineStr">
+      <c r="AK186" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -33122,7 +33122,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="M188" s="17" t="inlineStr">
+      <c r="M188" s="8" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -34087,7 +34087,7 @@
           <t>137</t>
         </is>
       </c>
-      <c r="S193" s="10" t="inlineStr">
+      <c r="S193" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -34920,7 +34920,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="AJ197" s="17" t="inlineStr">
+      <c r="AJ197" s="16" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -35189,7 +35189,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="O199" s="9" t="inlineStr">
+      <c r="O199" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -35391,7 +35391,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="R200" s="10" t="inlineStr">
+      <c r="R200" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -36381,7 +36381,7 @@
           <t>246</t>
         </is>
       </c>
-      <c r="AC205" s="14" t="inlineStr">
+      <c r="AC205" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -36421,7 +36421,7 @@
           <t>749</t>
         </is>
       </c>
-      <c r="AK205" s="17" t="inlineStr">
+      <c r="AK205" s="16" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -37418,7 +37418,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="AF213" s="17" t="inlineStr">
+      <c r="AF213" s="15" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -37812,7 +37812,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="AJ215" s="16" t="inlineStr">
+      <c r="AJ215" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -37934,7 +37934,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="W216" s="12" t="inlineStr">
+      <c r="W216" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -38490,7 +38490,7 @@
           <t>352</t>
         </is>
       </c>
-      <c r="V219" s="17" t="inlineStr">
+      <c r="V219" s="11" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -38869,7 +38869,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="W221" s="12" t="inlineStr">
+      <c r="W221" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39168,7 +39168,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="H223" s="7" t="inlineStr">
+      <c r="H223" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39632,7 +39632,7 @@
           <t>437</t>
         </is>
       </c>
-      <c r="Z225" s="13" t="inlineStr">
+      <c r="Z225" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39874,7 +39874,7 @@
           <t>207</t>
         </is>
       </c>
-      <c r="AK226" s="17" t="inlineStr">
+      <c r="AK226" s="16" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -42265,7 +42265,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="AC239" s="14" t="inlineStr">
+      <c r="AC239" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -42736,7 +42736,7 @@
           <t>504</t>
         </is>
       </c>
-      <c r="K242" s="8" t="inlineStr">
+      <c r="K242" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -42888,7 +42888,7 @@
           <t>986</t>
         </is>
       </c>
-      <c r="D243" s="5" t="inlineStr">
+      <c r="D243" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -43504,7 +43504,7 @@
           <t>268</t>
         </is>
       </c>
-      <c r="AI248" s="16" t="inlineStr">
+      <c r="AI248" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -43960,7 +43960,7 @@
           <t>970</t>
         </is>
       </c>
-      <c r="N251" s="9" t="inlineStr">
+      <c r="N251" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -44279,7 +44279,7 @@
           <t>620</t>
         </is>
       </c>
-      <c r="C253" s="17" t="inlineStr">
+      <c r="C253" s="5" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -45496,7 +45496,7 @@
           <t>058</t>
         </is>
       </c>
-      <c r="V259" s="11" t="inlineStr">
+      <c r="V259" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -45653,7 +45653,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="P260" s="9" t="inlineStr">
+      <c r="P260" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -46401,7 +46401,7 @@
           <t>940</t>
         </is>
       </c>
-      <c r="P264" s="17" t="inlineStr">
+      <c r="P264" s="9" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -46820,7 +46820,7 @@
           <t>143</t>
         </is>
       </c>
-      <c r="Y266" s="17" t="inlineStr">
+      <c r="Y266" s="12" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -47640,7 +47640,7 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B271" s="17" t="inlineStr">
+      <c r="B271" s="5" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -48216,7 +48216,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="E274" s="6" t="inlineStr">
+      <c r="E274" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48398,7 +48398,7 @@
           <t>506</t>
         </is>
       </c>
-      <c r="D275" s="5" t="inlineStr">
+      <c r="D275" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48443,7 +48443,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="M275" s="17" t="inlineStr">
+      <c r="M275" s="8" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -49450,7 +49450,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="J283" s="7" t="inlineStr">
+      <c r="J283" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -49894,7 +49894,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="X285" s="12" t="inlineStr">
+      <c r="X285" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -50602,7 +50602,7 @@
           <t>420</t>
         </is>
       </c>
-      <c r="P289" s="9" t="inlineStr">
+      <c r="P289" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -50734,7 +50734,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="E290" s="6" t="inlineStr">
+      <c r="E290" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -51522,7 +51522,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="M294" s="8" t="inlineStr">
+      <c r="M294" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -51991,7 +51991,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="AF296" s="15" t="inlineStr">
+      <c r="AF296" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -52734,7 +52734,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="AE300" s="14" t="inlineStr">
+      <c r="AE300" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -53594,7 +53594,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="P305" s="9" t="inlineStr">
+      <c r="P305" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -54048,7 +54048,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="AF307" s="15" t="inlineStr">
+      <c r="AF307" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -54479,7 +54479,7 @@
           <t>525</t>
         </is>
       </c>
-      <c r="F310" s="17" t="inlineStr">
+      <c r="F310" s="6" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -54998,7 +54998,7 @@
           <t>761</t>
         </is>
       </c>
-      <c r="AI312" s="16" t="inlineStr">
+      <c r="AI312" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -55020,7 +55020,7 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B313" s="17" t="inlineStr">
+      <c r="B313" s="5" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -56855,7 +56855,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="O325" s="9" t="inlineStr">
+      <c r="O325" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -56895,7 +56895,7 @@
           <t>925</t>
         </is>
       </c>
-      <c r="W325" s="17" t="inlineStr">
+      <c r="W325" s="12" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -58002,7 +58002,7 @@
           <t>249</t>
         </is>
       </c>
-      <c r="T331" s="11" t="inlineStr">
+      <c r="T331" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -58119,7 +58119,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="F332" s="6" t="inlineStr">
+      <c r="F332" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -58179,7 +58179,7 @@
           <t>542</t>
         </is>
       </c>
-      <c r="R332" s="17" t="inlineStr">
+      <c r="R332" s="10" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -58381,7 +58381,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="U333" s="17" t="inlineStr">
+      <c r="U333" s="11" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -58401,7 +58401,7 @@
           <t>315</t>
         </is>
       </c>
-      <c r="Y333" s="17" t="inlineStr">
+      <c r="Y333" s="12" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -58461,7 +58461,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="AK333" s="16" t="inlineStr">
+      <c r="AK333" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -58488,7 +58488,7 @@
           <t>458</t>
         </is>
       </c>
-      <c r="E334" s="17" t="inlineStr">
+      <c r="E334" s="6" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -58685,7 +58685,7 @@
           <t>910</t>
         </is>
       </c>
-      <c r="G335" s="17" t="inlineStr">
+      <c r="G335" s="6" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -59169,7 +59169,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="AC337" s="14" t="inlineStr">
+      <c r="AC337" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -59443,7 +59443,7 @@
           <t>224</t>
         </is>
       </c>
-      <c r="I339" s="17" t="inlineStr">
+      <c r="I339" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -60206,7 +60206,7 @@
           <t>484</t>
         </is>
       </c>
-      <c r="L343" s="17" t="inlineStr">
+      <c r="L343" s="8" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -61677,7 +61677,7 @@
           <t>977</t>
         </is>
       </c>
-      <c r="AA353" s="13" t="inlineStr">
+      <c r="AA353" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -61717,7 +61717,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="AI353" s="17" t="inlineStr">
+      <c r="AI353" s="16" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -61956,7 +61956,7 @@
           <t>455</t>
         </is>
       </c>
-      <c r="H355" s="17" t="inlineStr">
+      <c r="H355" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -62492,7 +62492,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="C358" s="17" t="inlineStr">
+      <c r="C358" s="5" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -62684,7 +62684,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="D359" s="5" t="inlineStr">
+      <c r="D359" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -62809,7 +62809,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="AC359" s="14" t="inlineStr">
+      <c r="AC359" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -63320,7 +63320,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="S362" s="10" t="inlineStr">
+      <c r="S362" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -63390,7 +63390,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="AG362" s="15" t="inlineStr">
+      <c r="AG362" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -63447,7 +63447,7 @@
           <t>279</t>
         </is>
       </c>
-      <c r="G363" s="17" t="inlineStr">
+      <c r="G363" s="6" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -65457,7 +65457,7 @@
           <t>470</t>
         </is>
       </c>
-      <c r="AI373" s="17" t="inlineStr">
+      <c r="AI373" s="16" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -65467,7 +65467,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="AK373" s="16" t="inlineStr">
+      <c r="AK373" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -65796,7 +65796,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="AB375" s="13" t="inlineStr">
+      <c r="AB375" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -65841,7 +65841,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="AK375" s="16" t="inlineStr">
+      <c r="AK375" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -68875,7 +68875,7 @@
           <t>855</t>
         </is>
       </c>
-      <c r="AB394" s="17" t="inlineStr">
+      <c r="AB394" s="13" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -69007,7 +69007,7 @@
           <t>250</t>
         </is>
       </c>
-      <c r="Q395" s="17" t="inlineStr">
+      <c r="Q395" s="10" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -70149,7 +70149,7 @@
           <t>543</t>
         </is>
       </c>
-      <c r="U401" s="17" t="inlineStr">
+      <c r="U401" s="11" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -70827,7 +70827,7 @@
           <t>765</t>
         </is>
       </c>
-      <c r="G405" s="6" t="inlineStr">
+      <c r="G405" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -71104,7 +71104,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="Y406" s="12" t="inlineStr">
+      <c r="Y406" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -71413,7 +71413,7 @@
           <t>043</t>
         </is>
       </c>
-      <c r="L408" s="8" t="inlineStr">
+      <c r="L408" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -71742,7 +71742,7 @@
           <t>675</t>
         </is>
       </c>
-      <c r="C410" s="5" t="inlineStr">
+      <c r="C410" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -74567,7 +74567,7 @@
           <t>360</t>
         </is>
       </c>
-      <c r="AA427" s="13" t="inlineStr">
+      <c r="AA427" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -75786,7 +75786,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="I434" s="17" t="inlineStr">
+      <c r="I434" s="7" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -75801,7 +75801,7 @@
           <t>299</t>
         </is>
       </c>
-      <c r="L434" s="8" t="inlineStr">
+      <c r="L434" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -76534,7 +76534,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="I438" s="7" t="inlineStr">
+      <c r="I438" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -76873,7 +76873,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B440" s="5" t="inlineStr">
+      <c r="B440" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -77180,7 +77180,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="Z441" s="17" t="inlineStr">
+      <c r="Z441" s="13" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -77272,7 +77272,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="G442" s="17" t="inlineStr">
+      <c r="G442" s="6" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -78504,7 +78504,7 @@
           <t>463</t>
         </is>
       </c>
-      <c r="AC448" s="14" t="inlineStr">
+      <c r="AC448" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -78641,7 +78641,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="S449" s="10" t="inlineStr">
+      <c r="S449" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -78711,7 +78711,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="AG449" s="17" t="inlineStr">
+      <c r="AG449" s="15" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -79805,7 +79805,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="J458" s="7" t="inlineStr">
+      <c r="J458" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -80214,7 +80214,7 @@
           <t>214</t>
         </is>
       </c>
-      <c r="Q460" s="10" t="inlineStr">
+      <c r="Q460" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -80705,7 +80705,7 @@
           <t>952</t>
         </is>
       </c>
-      <c r="C463" s="5" t="inlineStr">
+      <c r="C463" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -81952,7 +81952,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AB469" s="13" t="inlineStr">
+      <c r="AB469" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82029,7 +82029,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="F470" s="6" t="inlineStr">
+      <c r="F470" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -82261,7 +82261,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="O471" s="17" t="inlineStr">
+      <c r="O471" s="9" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -82630,7 +82630,7 @@
           <t>739</t>
         </is>
       </c>
-      <c r="N473" s="9" t="inlineStr">
+      <c r="N473" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82670,7 +82670,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="V473" s="11" t="inlineStr">
+      <c r="V473" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82757,7 +82757,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B474" s="17" t="inlineStr">
+      <c r="B474" s="5" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -82912,7 +82912,7 @@
           <t>846</t>
         </is>
       </c>
-      <c r="AG474" s="17" t="inlineStr">
+      <c r="AG474" s="15" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -83408,7 +83408,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="T477" s="11" t="inlineStr">
+      <c r="T477" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -84520,7 +84520,7 @@
           <t>807</t>
         </is>
       </c>
-      <c r="R483" s="10" t="inlineStr">
+      <c r="R483" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -84884,7 +84884,7 @@
           <t>139</t>
         </is>
       </c>
-      <c r="P485" s="9" t="inlineStr">
+      <c r="P485" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -85126,12 +85126,12 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AA486" s="17" t="inlineStr">
+      <c r="AA486" s="13" t="inlineStr">
         <is>
           <t>377</t>
         </is>
       </c>
-      <c r="AB486" s="17" t="inlineStr">
+      <c r="AB486" s="13" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -86594,7 +86594,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="D497" s="5" t="inlineStr">
+      <c r="D497" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -88454,7 +88454,7 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B507" s="17" t="inlineStr">
+      <c r="B507" s="5" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -88858,7 +88858,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="H509" s="7" t="inlineStr">
+      <c r="H509" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -89322,7 +89322,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z511" s="17" t="inlineStr">
+      <c r="Z511" s="13" t="inlineStr">
         <is>
           <t>737</t>
         </is>
@@ -90434,7 +90434,7 @@
           <t>900</t>
         </is>
       </c>
-      <c r="X517" s="12" t="inlineStr">
+      <c r="X517" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -91451,7 +91451,7 @@
           <t>094</t>
         </is>
       </c>
-      <c r="C523" s="17" t="inlineStr">
+      <c r="C523" s="5" t="inlineStr">
         <is>
           <t>377</t>
         </is>
@@ -91647,6 +91647,13 @@
       </c>
       <c r="F526" s="2" t="n"/>
       <c r="G526" s="3" t="n"/>
+      <c r="H526" s="1" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+      <c r="I526" s="2" t="n"/>
+      <c r="J526" s="3" t="n"/>
     </row>
     <row r="527">
       <c r="A527" s="4" t="n"/>
@@ -91680,6 +91687,21 @@
           <t>9PM</t>
         </is>
       </c>
+      <c r="H527" s="1" t="inlineStr">
+        <is>
+          <t>11AM</t>
+        </is>
+      </c>
+      <c r="I527" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="J527" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -91717,6 +91739,21 @@
           <t>540</t>
         </is>
       </c>
+      <c r="H528" s="7" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="I528" s="7" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="J528" s="7" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
@@ -91754,6 +91791,21 @@
           <t>780</t>
         </is>
       </c>
+      <c r="H529" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I529" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J529" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
@@ -91791,6 +91843,21 @@
           <t>048</t>
         </is>
       </c>
+      <c r="H530" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I530" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J530" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
@@ -91828,6 +91895,21 @@
           <t>295</t>
         </is>
       </c>
+      <c r="H531" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I531" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J531" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
@@ -91865,6 +91947,21 @@
           <t>977</t>
         </is>
       </c>
+      <c r="H532" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I532" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J532" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
@@ -91902,6 +91999,21 @@
           <t>854</t>
         </is>
       </c>
+      <c r="H533" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I533" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J533" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
@@ -91939,6 +92051,21 @@
           <t>599</t>
         </is>
       </c>
+      <c r="H534" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I534" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J534" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
@@ -91976,6 +92103,21 @@
           <t>601</t>
         </is>
       </c>
+      <c r="H535" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I535" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J535" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
@@ -92013,6 +92155,21 @@
           <t>772</t>
         </is>
       </c>
+      <c r="H536" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I536" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J536" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
@@ -92050,6 +92207,21 @@
           <t>109</t>
         </is>
       </c>
+      <c r="H537" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I537" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J537" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
@@ -92087,6 +92259,21 @@
           <t>605</t>
         </is>
       </c>
+      <c r="H538" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I538" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J538" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
@@ -92124,6 +92311,21 @@
           <t>887</t>
         </is>
       </c>
+      <c r="H539" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I539" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J539" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
@@ -92161,6 +92363,21 @@
           <t>933</t>
         </is>
       </c>
+      <c r="H540" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I540" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J540" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
@@ -92188,7 +92405,7 @@
           <t>842</t>
         </is>
       </c>
-      <c r="F541" s="17" t="inlineStr">
+      <c r="F541" s="6" t="inlineStr">
         <is>
           <t>773</t>
         </is>
@@ -92196,6 +92413,21 @@
       <c r="G541" s="6" t="inlineStr">
         <is>
           <t>597</t>
+        </is>
+      </c>
+      <c r="H541" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I541" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J541" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92235,6 +92467,21 @@
           <t>324</t>
         </is>
       </c>
+      <c r="H542" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I542" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J542" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
@@ -92272,6 +92519,21 @@
           <t>107</t>
         </is>
       </c>
+      <c r="H543" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I543" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J543" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
@@ -92309,6 +92571,21 @@
           <t>800</t>
         </is>
       </c>
+      <c r="H544" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I544" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J544" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
@@ -92333,15 +92610,30 @@
       </c>
       <c r="E545" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>049</t>
         </is>
       </c>
       <c r="F545" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>685</t>
         </is>
       </c>
       <c r="G545" s="6" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="H545" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I545" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J545" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92370,15 +92662,30 @@
       </c>
       <c r="E546" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>563</t>
         </is>
       </c>
       <c r="F546" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>308</t>
         </is>
       </c>
       <c r="G546" s="6" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="H546" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I546" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J546" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92407,15 +92714,30 @@
       </c>
       <c r="E547" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>246</t>
         </is>
       </c>
       <c r="F547" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>928</t>
         </is>
       </c>
       <c r="G547" s="6" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="H547" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I547" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J547" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92444,15 +92766,30 @@
       </c>
       <c r="E548" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>323</t>
         </is>
       </c>
       <c r="F548" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>660</t>
         </is>
       </c>
       <c r="G548" s="6" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="H548" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I548" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J548" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92481,15 +92818,30 @@
       </c>
       <c r="E549" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F549" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>648</t>
         </is>
       </c>
       <c r="G549" s="6" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="H549" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I549" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J549" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92518,15 +92870,30 @@
       </c>
       <c r="E550" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>414</t>
         </is>
       </c>
       <c r="F550" s="6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G550" s="6" t="inlineStr">
+          <t>863</t>
+        </is>
+      </c>
+      <c r="G550" s="17" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="H550" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I550" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J550" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92555,15 +92922,30 @@
       </c>
       <c r="E551" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>117</t>
         </is>
       </c>
       <c r="F551" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>834</t>
         </is>
       </c>
       <c r="G551" s="6" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H551" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I551" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J551" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92592,15 +92974,30 @@
       </c>
       <c r="E552" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>494</t>
         </is>
       </c>
       <c r="F552" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>144</t>
         </is>
       </c>
       <c r="G552" s="6" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="H552" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I552" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J552" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92629,15 +93026,30 @@
       </c>
       <c r="E553" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>904</t>
         </is>
       </c>
       <c r="F553" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>918</t>
         </is>
       </c>
       <c r="G553" s="6" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="H553" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I553" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J553" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92666,15 +93078,30 @@
       </c>
       <c r="E554" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>977</t>
         </is>
       </c>
       <c r="F554" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>047</t>
         </is>
       </c>
       <c r="G554" s="6" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="H554" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I554" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J554" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92703,15 +93130,30 @@
       </c>
       <c r="E555" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>679</t>
         </is>
       </c>
       <c r="F555" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>828</t>
         </is>
       </c>
       <c r="G555" s="6" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="H555" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I555" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J555" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92753,6 +93195,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="H556" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I556" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J556" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
@@ -92790,6 +93247,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="H557" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I557" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J557" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
@@ -92827,9 +93299,24 @@
           <t>-</t>
         </is>
       </c>
+      <c r="H558" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I558" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J558" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="198">
+  <mergeCells count="199">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -93028,6 +93515,7 @@
     <mergeCell ref="A526:A527"/>
     <mergeCell ref="B526:D526"/>
     <mergeCell ref="E526:G526"/>
+    <mergeCell ref="H526:J526"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -59,11 +59,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="009966ff"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -209,7 +204,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,6 +227,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -248,12 +246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2408,7 +2400,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P11" s="17" t="inlineStr">
+      <c r="P11" s="9" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -4196,7 +4188,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK20" s="17" t="inlineStr">
+      <c r="AK20" s="16" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -9359,7 +9351,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="E51" s="17" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -11723,7 +11715,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="AC63" s="17" t="inlineStr">
+      <c r="AC63" s="14" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -12294,7 +12286,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE66" s="17" t="inlineStr">
+      <c r="AE66" s="14" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -12523,7 +12515,7 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B68" s="17" t="inlineStr">
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -13059,7 +13051,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="Q73" s="17" t="inlineStr">
+      <c r="Q73" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -14378,7 +14370,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="S80" s="17" t="inlineStr">
+      <c r="S80" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -16500,7 +16492,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="AF91" s="17" t="inlineStr">
+      <c r="AF91" s="15" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -16612,7 +16604,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="Q92" s="17" t="inlineStr">
+      <c r="Q92" s="10" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -19731,7 +19723,7 @@
           <t>348</t>
         </is>
       </c>
-      <c r="Y111" s="17" t="inlineStr">
+      <c r="Y111" s="12" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -22254,7 +22246,7 @@
           <t>954</t>
         </is>
       </c>
-      <c r="F125" s="17" t="inlineStr">
+      <c r="F125" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -23319,7 +23311,7 @@
           <t>536</t>
         </is>
       </c>
-      <c r="AF130" s="17" t="inlineStr">
+      <c r="AF130" s="15" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -26894,7 +26886,7 @@
           <t>329</t>
         </is>
       </c>
-      <c r="S152" s="17" t="inlineStr">
+      <c r="S152" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -27951,7 +27943,7 @@
           <t>484</t>
         </is>
       </c>
-      <c r="F158" s="17" t="inlineStr">
+      <c r="F158" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -28173,7 +28165,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="M159" s="17" t="inlineStr">
+      <c r="M159" s="8" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -28345,7 +28337,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="J160" s="17" t="inlineStr">
+      <c r="J160" s="7" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -29138,7 +29130,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="S164" s="17" t="inlineStr">
+      <c r="S164" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29198,7 +29190,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="AE164" s="17" t="inlineStr">
+      <c r="AE164" s="14" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29360,7 +29352,7 @@
           <t>812</t>
         </is>
       </c>
-      <c r="Z165" s="17" t="inlineStr">
+      <c r="Z165" s="13" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -31449,7 +31441,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="O179" s="17" t="inlineStr">
+      <c r="O179" s="9" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -32576,7 +32568,7 @@
           <t>734</t>
         </is>
       </c>
-      <c r="P185" s="17" t="inlineStr">
+      <c r="P185" s="9" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -32868,7 +32860,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AK186" s="17" t="inlineStr">
+      <c r="AK186" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -34087,7 +34079,7 @@
           <t>137</t>
         </is>
       </c>
-      <c r="S193" s="17" t="inlineStr">
+      <c r="S193" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -35189,7 +35181,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="O199" s="17" t="inlineStr">
+      <c r="O199" s="9" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -35391,7 +35383,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="R200" s="17" t="inlineStr">
+      <c r="R200" s="10" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -36381,7 +36373,7 @@
           <t>246</t>
         </is>
       </c>
-      <c r="AC205" s="17" t="inlineStr">
+      <c r="AC205" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -37812,7 +37804,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="AJ215" s="17" t="inlineStr">
+      <c r="AJ215" s="16" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -37934,7 +37926,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="W216" s="17" t="inlineStr">
+      <c r="W216" s="12" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -38869,7 +38861,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="W221" s="17" t="inlineStr">
+      <c r="W221" s="12" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39168,7 +39160,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="H223" s="17" t="inlineStr">
+      <c r="H223" s="7" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39632,7 +39624,7 @@
           <t>437</t>
         </is>
       </c>
-      <c r="Z225" s="17" t="inlineStr">
+      <c r="Z225" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -42265,7 +42257,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="AC239" s="17" t="inlineStr">
+      <c r="AC239" s="14" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -42736,7 +42728,7 @@
           <t>504</t>
         </is>
       </c>
-      <c r="K242" s="17" t="inlineStr">
+      <c r="K242" s="8" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -42888,7 +42880,7 @@
           <t>986</t>
         </is>
       </c>
-      <c r="D243" s="17" t="inlineStr">
+      <c r="D243" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -43504,7 +43496,7 @@
           <t>268</t>
         </is>
       </c>
-      <c r="AI248" s="17" t="inlineStr">
+      <c r="AI248" s="16" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -43960,7 +43952,7 @@
           <t>970</t>
         </is>
       </c>
-      <c r="N251" s="17" t="inlineStr">
+      <c r="N251" s="9" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -45496,7 +45488,7 @@
           <t>058</t>
         </is>
       </c>
-      <c r="V259" s="17" t="inlineStr">
+      <c r="V259" s="11" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -45653,7 +45645,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="P260" s="17" t="inlineStr">
+      <c r="P260" s="9" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48216,7 +48208,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="E274" s="17" t="inlineStr">
+      <c r="E274" s="6" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48398,7 +48390,7 @@
           <t>506</t>
         </is>
       </c>
-      <c r="D275" s="17" t="inlineStr">
+      <c r="D275" s="5" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -49450,7 +49442,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="J283" s="17" t="inlineStr">
+      <c r="J283" s="7" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -49894,7 +49886,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="X285" s="17" t="inlineStr">
+      <c r="X285" s="12" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -50602,7 +50594,7 @@
           <t>420</t>
         </is>
       </c>
-      <c r="P289" s="17" t="inlineStr">
+      <c r="P289" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -50734,7 +50726,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="E290" s="17" t="inlineStr">
+      <c r="E290" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -51522,7 +51514,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="M294" s="17" t="inlineStr">
+      <c r="M294" s="8" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -51991,7 +51983,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="AF296" s="17" t="inlineStr">
+      <c r="AF296" s="15" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -52734,7 +52726,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="AE300" s="17" t="inlineStr">
+      <c r="AE300" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -53594,7 +53586,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="P305" s="17" t="inlineStr">
+      <c r="P305" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -54048,7 +54040,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="AF307" s="17" t="inlineStr">
+      <c r="AF307" s="15" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -54998,7 +54990,7 @@
           <t>761</t>
         </is>
       </c>
-      <c r="AI312" s="17" t="inlineStr">
+      <c r="AI312" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -56855,7 +56847,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="O325" s="17" t="inlineStr">
+      <c r="O325" s="9" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -58002,7 +57994,7 @@
           <t>249</t>
         </is>
       </c>
-      <c r="T331" s="17" t="inlineStr">
+      <c r="T331" s="11" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -58119,7 +58111,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="F332" s="17" t="inlineStr">
+      <c r="F332" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -58461,7 +58453,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="AK333" s="17" t="inlineStr">
+      <c r="AK333" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -59169,7 +59161,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="AC337" s="17" t="inlineStr">
+      <c r="AC337" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -61677,7 +61669,7 @@
           <t>977</t>
         </is>
       </c>
-      <c r="AA353" s="17" t="inlineStr">
+      <c r="AA353" s="13" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -62684,7 +62676,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="D359" s="17" t="inlineStr">
+      <c r="D359" s="5" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -62809,7 +62801,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="AC359" s="17" t="inlineStr">
+      <c r="AC359" s="14" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -63320,7 +63312,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="S362" s="17" t="inlineStr">
+      <c r="S362" s="10" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -63390,7 +63382,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="AG362" s="17" t="inlineStr">
+      <c r="AG362" s="15" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -65467,7 +65459,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="AK373" s="17" t="inlineStr">
+      <c r="AK373" s="16" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -65796,7 +65788,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="AB375" s="17" t="inlineStr">
+      <c r="AB375" s="13" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -65841,7 +65833,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="AK375" s="17" t="inlineStr">
+      <c r="AK375" s="16" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -70827,7 +70819,7 @@
           <t>765</t>
         </is>
       </c>
-      <c r="G405" s="17" t="inlineStr">
+      <c r="G405" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -71104,7 +71096,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="Y406" s="17" t="inlineStr">
+      <c r="Y406" s="12" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -71413,7 +71405,7 @@
           <t>043</t>
         </is>
       </c>
-      <c r="L408" s="17" t="inlineStr">
+      <c r="L408" s="8" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -71742,7 +71734,7 @@
           <t>675</t>
         </is>
       </c>
-      <c r="C410" s="17" t="inlineStr">
+      <c r="C410" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -74567,7 +74559,7 @@
           <t>360</t>
         </is>
       </c>
-      <c r="AA427" s="17" t="inlineStr">
+      <c r="AA427" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -75801,7 +75793,7 @@
           <t>299</t>
         </is>
       </c>
-      <c r="L434" s="17" t="inlineStr">
+      <c r="L434" s="8" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -76534,7 +76526,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="I438" s="17" t="inlineStr">
+      <c r="I438" s="7" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -76873,7 +76865,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B440" s="17" t="inlineStr">
+      <c r="B440" s="5" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -78504,7 +78496,7 @@
           <t>463</t>
         </is>
       </c>
-      <c r="AC448" s="17" t="inlineStr">
+      <c r="AC448" s="14" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -78641,7 +78633,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="S449" s="17" t="inlineStr">
+      <c r="S449" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -79805,7 +79797,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="J458" s="17" t="inlineStr">
+      <c r="J458" s="7" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -80214,7 +80206,7 @@
           <t>214</t>
         </is>
       </c>
-      <c r="Q460" s="17" t="inlineStr">
+      <c r="Q460" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -80705,7 +80697,7 @@
           <t>952</t>
         </is>
       </c>
-      <c r="C463" s="17" t="inlineStr">
+      <c r="C463" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -81952,7 +81944,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AB469" s="17" t="inlineStr">
+      <c r="AB469" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82029,7 +82021,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="F470" s="17" t="inlineStr">
+      <c r="F470" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -82630,7 +82622,7 @@
           <t>739</t>
         </is>
       </c>
-      <c r="N473" s="17" t="inlineStr">
+      <c r="N473" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82670,7 +82662,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="V473" s="17" t="inlineStr">
+      <c r="V473" s="11" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -83408,7 +83400,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="T477" s="17" t="inlineStr">
+      <c r="T477" s="11" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -84520,7 +84512,7 @@
           <t>807</t>
         </is>
       </c>
-      <c r="R483" s="17" t="inlineStr">
+      <c r="R483" s="10" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -84884,7 +84876,7 @@
           <t>139</t>
         </is>
       </c>
-      <c r="P485" s="17" t="inlineStr">
+      <c r="P485" s="9" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -86594,7 +86586,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="D497" s="17" t="inlineStr">
+      <c r="D497" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -88858,7 +88850,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="H509" s="17" t="inlineStr">
+      <c r="H509" s="7" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -90434,7 +90426,7 @@
           <t>900</t>
         </is>
       </c>
-      <c r="X517" s="17" t="inlineStr">
+      <c r="X517" s="12" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -91793,17 +91785,17 @@
       </c>
       <c r="H529" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>253</t>
         </is>
       </c>
       <c r="I529" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>995</t>
         </is>
       </c>
       <c r="J529" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -91845,17 +91837,17 @@
       </c>
       <c r="H530" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>850</t>
         </is>
       </c>
       <c r="I530" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>695</t>
         </is>
       </c>
       <c r="J530" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>310</t>
         </is>
       </c>
     </row>
@@ -91897,17 +91889,17 @@
       </c>
       <c r="H531" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>367</t>
         </is>
       </c>
       <c r="I531" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>621</t>
         </is>
       </c>
       <c r="J531" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>813</t>
         </is>
       </c>
     </row>
@@ -91949,17 +91941,17 @@
       </c>
       <c r="H532" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>235</t>
         </is>
       </c>
       <c r="I532" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>457</t>
         </is>
       </c>
       <c r="J532" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>089</t>
         </is>
       </c>
     </row>
@@ -92001,17 +91993,17 @@
       </c>
       <c r="H533" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>807</t>
         </is>
       </c>
       <c r="I533" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>259</t>
         </is>
       </c>
       <c r="J533" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>079</t>
         </is>
       </c>
     </row>
@@ -92053,17 +92045,17 @@
       </c>
       <c r="H534" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>008</t>
         </is>
       </c>
       <c r="I534" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>045</t>
         </is>
       </c>
       <c r="J534" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -92878,7 +92870,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="G550" s="17" t="inlineStr">
+      <c r="G550" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -92097,17 +92097,17 @@
       </c>
       <c r="H535" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>342</t>
         </is>
       </c>
       <c r="I535" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>251</t>
         </is>
       </c>
       <c r="J535" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>681</t>
         </is>
       </c>
     </row>
@@ -92149,17 +92149,17 @@
       </c>
       <c r="H536" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>124</t>
         </is>
       </c>
       <c r="I536" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>918</t>
         </is>
       </c>
       <c r="J536" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>363</t>
         </is>
       </c>
     </row>
@@ -92201,17 +92201,17 @@
       </c>
       <c r="H537" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>854</t>
         </is>
       </c>
       <c r="I537" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>930</t>
         </is>
       </c>
       <c r="J537" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>607</t>
         </is>
       </c>
     </row>
@@ -92253,17 +92253,17 @@
       </c>
       <c r="H538" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>920</t>
         </is>
       </c>
       <c r="I538" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>962</t>
         </is>
       </c>
       <c r="J538" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>811</t>
         </is>
       </c>
     </row>
@@ -92305,17 +92305,17 @@
       </c>
       <c r="H539" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>085</t>
         </is>
       </c>
       <c r="I539" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>659</t>
         </is>
       </c>
       <c r="J539" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>996</t>
         </is>
       </c>
     </row>
@@ -92357,17 +92357,17 @@
       </c>
       <c r="H540" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>676</t>
         </is>
       </c>
       <c r="I540" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>496</t>
         </is>
       </c>
       <c r="J540" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>442</t>
         </is>
       </c>
     </row>
@@ -92409,17 +92409,17 @@
       </c>
       <c r="H541" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>487</t>
         </is>
       </c>
       <c r="I541" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>095</t>
         </is>
       </c>
       <c r="J541" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -92461,17 +92461,17 @@
       </c>
       <c r="H542" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>356</t>
         </is>
       </c>
       <c r="I542" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>462</t>
         </is>
       </c>
       <c r="J542" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>950</t>
         </is>
       </c>
     </row>
@@ -92513,17 +92513,17 @@
       </c>
       <c r="H543" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>261</t>
         </is>
       </c>
       <c r="I543" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>196</t>
         </is>
       </c>
       <c r="J543" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>274</t>
         </is>
       </c>
     </row>
@@ -92565,17 +92565,17 @@
       </c>
       <c r="H544" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>339</t>
         </is>
       </c>
       <c r="I544" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>693</t>
         </is>
       </c>
       <c r="J544" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>584</t>
         </is>
       </c>
     </row>
@@ -92617,12 +92617,12 @@
       </c>
       <c r="H545" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>657</t>
         </is>
       </c>
       <c r="I545" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>336</t>
         </is>
       </c>
       <c r="J545" s="7" t="inlineStr">

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ccff33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -204,7 +209,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,9 +227,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -246,6 +248,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2819,7 +2827,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y13" s="12" t="inlineStr">
+      <c r="Y13" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -5003,7 +5011,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M25" s="8" t="inlineStr">
+      <c r="M25" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -7728,7 +7736,7 @@
           <t>906</t>
         </is>
       </c>
-      <c r="Q42" s="10" t="inlineStr">
+      <c r="Q42" s="17" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -8471,7 +8479,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P46" s="9" t="inlineStr">
+      <c r="P46" s="17" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -9164,7 +9172,7 @@
           <t>877</t>
         </is>
       </c>
-      <c r="E50" s="6" t="inlineStr">
+      <c r="E50" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -10376,7 +10384,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="W56" s="12" t="inlineStr">
+      <c r="W56" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -13268,7 +13276,7 @@
           <t>995</t>
         </is>
       </c>
-      <c r="W74" s="12" t="inlineStr">
+      <c r="W74" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -13707,7 +13715,7 @@
           <t>145</t>
         </is>
       </c>
-      <c r="AJ76" s="16" t="inlineStr">
+      <c r="AJ76" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -14163,12 +14171,12 @@
           <t>213</t>
         </is>
       </c>
-      <c r="O79" s="9" t="inlineStr">
+      <c r="O79" s="17" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="P79" s="9" t="inlineStr">
+      <c r="P79" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -19127,7 +19135,7 @@
           <t>796</t>
         </is>
       </c>
-      <c r="R108" s="10" t="inlineStr">
+      <c r="R108" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -19446,7 +19454,7 @@
           <t>227</t>
         </is>
       </c>
-      <c r="G110" s="6" t="inlineStr">
+      <c r="G110" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -23034,7 +23042,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="N129" s="9" t="inlineStr">
+      <c r="N129" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -23560,7 +23568,7 @@
           <t>919</t>
         </is>
       </c>
-      <c r="G132" s="6" t="inlineStr">
+      <c r="G132" s="17" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -23635,7 +23643,7 @@
           <t>699</t>
         </is>
       </c>
-      <c r="V132" s="11" t="inlineStr">
+      <c r="V132" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -24241,7 +24249,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="AE135" s="14" t="inlineStr">
+      <c r="AE135" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -25597,7 +25605,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="W145" s="12" t="inlineStr">
+      <c r="W145" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -27487,7 +27495,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="AA155" s="13" t="inlineStr">
+      <c r="AA155" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -28312,7 +28320,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="E160" s="6" t="inlineStr">
+      <c r="E160" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -28741,7 +28749,7 @@
           <t>351</t>
         </is>
       </c>
-      <c r="P162" s="9" t="inlineStr">
+      <c r="P162" s="17" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -31895,7 +31903,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AE181" s="14" t="inlineStr">
+      <c r="AE181" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -32274,7 +32282,7 @@
           <t>225</t>
         </is>
       </c>
-      <c r="AF183" s="15" t="inlineStr">
+      <c r="AF183" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -33214,7 +33222,7 @@
           <t>243</t>
         </is>
       </c>
-      <c r="AG188" s="15" t="inlineStr">
+      <c r="AG188" s="17" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -35039,7 +35047,7 @@
           <t>124</t>
         </is>
       </c>
-      <c r="X198" s="12" t="inlineStr">
+      <c r="X198" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -35727,7 +35735,7 @@
           <t>872</t>
         </is>
       </c>
-      <c r="L202" s="8" t="inlineStr">
+      <c r="L202" s="17" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -36161,7 +36169,7 @@
           <t>987</t>
         </is>
       </c>
-      <c r="X204" s="12" t="inlineStr">
+      <c r="X204" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -37774,7 +37782,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AD215" s="14" t="inlineStr">
+      <c r="AD215" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -38851,7 +38859,7 @@
           <t>022</t>
         </is>
       </c>
-      <c r="U221" s="11" t="inlineStr">
+      <c r="U221" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -39250,7 +39258,7 @@
           <t>528</t>
         </is>
       </c>
-      <c r="Z223" s="13" t="inlineStr">
+      <c r="Z223" s="17" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -39427,7 +39435,7 @@
           <t>608</t>
         </is>
       </c>
-      <c r="X224" s="12" t="inlineStr">
+      <c r="X224" s="17" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -40786,7 +40794,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="AH231" s="15" t="inlineStr">
+      <c r="AH231" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -41192,7 +41200,7 @@
           <t>852</t>
         </is>
       </c>
-      <c r="C234" s="5" t="inlineStr">
+      <c r="C234" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -44022,7 +44030,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="AB251" s="13" t="inlineStr">
+      <c r="AB251" s="17" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -44047,7 +44055,7 @@
           <t>594</t>
         </is>
       </c>
-      <c r="AG251" s="15" t="inlineStr">
+      <c r="AG251" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -45014,7 +45022,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B257" s="5" t="inlineStr">
+      <c r="B257" s="17" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -45164,7 +45172,7 @@
           <t>258</t>
         </is>
       </c>
-      <c r="AF257" s="15" t="inlineStr">
+      <c r="AF257" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -45216,7 +45224,7 @@
           <t>790</t>
         </is>
       </c>
-      <c r="E258" s="6" t="inlineStr">
+      <c r="E258" s="17" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -45513,7 +45521,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="AA259" s="13" t="inlineStr">
+      <c r="AA259" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -46161,7 +46169,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="G263" s="6" t="inlineStr">
+      <c r="G263" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -46884,7 +46892,7 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B267" s="5" t="inlineStr">
+      <c r="B267" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -47024,7 +47032,7 @@
           <t>299</t>
         </is>
       </c>
-      <c r="AD267" s="14" t="inlineStr">
+      <c r="AD267" s="17" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -47268,7 +47276,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="D269" s="5" t="inlineStr">
+      <c r="D269" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -48919,7 +48927,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AI277" s="16" t="inlineStr">
+      <c r="AI277" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -49422,7 +49430,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="F283" s="6" t="inlineStr">
+      <c r="F283" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -50589,7 +50597,7 @@
           <t>807</t>
         </is>
       </c>
-      <c r="O289" s="9" t="inlineStr">
+      <c r="O289" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -53606,7 +53614,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="T305" s="11" t="inlineStr">
+      <c r="T305" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -54269,7 +54277,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="C309" s="5" t="inlineStr">
+      <c r="C309" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -56937,7 +56945,7 @@
           <t>698</t>
         </is>
       </c>
-      <c r="AG325" s="15" t="inlineStr">
+      <c r="AG325" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -58378,7 +58386,7 @@
           <t>737</t>
         </is>
       </c>
-      <c r="V333" s="11" t="inlineStr">
+      <c r="V333" s="17" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -59742,7 +59750,7 @@
           <t>827</t>
         </is>
       </c>
-      <c r="AG340" s="15" t="inlineStr">
+      <c r="AG340" s="17" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -61016,7 +61024,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="Z347" s="13" t="inlineStr">
+      <c r="Z347" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -61026,7 +61034,7 @@
           <t>392</t>
         </is>
       </c>
-      <c r="AB347" s="13" t="inlineStr">
+      <c r="AB347" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -61953,7 +61961,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="I355" s="7" t="inlineStr">
+      <c r="I355" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -64070,7 +64078,7 @@
           <t>329</t>
         </is>
       </c>
-      <c r="U366" s="11" t="inlineStr">
+      <c r="U366" s="17" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -64641,7 +64649,7 @@
           <t>644</t>
         </is>
       </c>
-      <c r="W369" s="12" t="inlineStr">
+      <c r="W369" s="17" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -66598,7 +66606,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="C380" s="5" t="inlineStr">
+      <c r="C380" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -67164,7 +67172,7 @@
           <t>297</t>
         </is>
       </c>
-      <c r="D383" s="5" t="inlineStr">
+      <c r="D383" s="17" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -68154,7 +68162,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="AI390" s="16" t="inlineStr">
+      <c r="AI390" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -69059,7 +69067,7 @@
           <t>168</t>
         </is>
       </c>
-      <c r="AC395" s="14" t="inlineStr">
+      <c r="AC395" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -69251,7 +69259,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="AD396" s="14" t="inlineStr">
+      <c r="AD396" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -69757,7 +69765,7 @@
           <t>183</t>
         </is>
       </c>
-      <c r="S399" s="10" t="inlineStr">
+      <c r="S399" s="17" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -69989,7 +69997,7 @@
           <t>183</t>
         </is>
       </c>
-      <c r="AB400" s="13" t="inlineStr">
+      <c r="AB400" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -70939,7 +70947,7 @@
           <t>687</t>
         </is>
       </c>
-      <c r="AE405" s="14" t="inlineStr">
+      <c r="AE405" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -70969,7 +70977,7 @@
           <t>666</t>
         </is>
       </c>
-      <c r="AK405" s="16" t="inlineStr">
+      <c r="AK405" s="17" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -75883,7 +75891,7 @@
           <t>094</t>
         </is>
       </c>
-      <c r="AD434" s="14" t="inlineStr">
+      <c r="AD434" s="17" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -76122,7 +76130,7 @@
           <t>836</t>
         </is>
       </c>
-      <c r="C436" s="5" t="inlineStr">
+      <c r="C436" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -77845,7 +77853,7 @@
           <t>948</t>
         </is>
       </c>
-      <c r="K445" s="8" t="inlineStr">
+      <c r="K445" s="17" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -78501,7 +78509,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="AD448" s="14" t="inlineStr">
+      <c r="AD448" s="17" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -80089,7 +80097,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="AE459" s="14" t="inlineStr">
+      <c r="AE459" s="17" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -80306,7 +80314,7 @@
           <t>976</t>
         </is>
       </c>
-      <c r="AK460" s="16" t="inlineStr">
+      <c r="AK460" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -81792,7 +81800,7 @@
           <t>044</t>
         </is>
       </c>
-      <c r="AI468" s="16" t="inlineStr">
+      <c r="AI468" s="17" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -82430,7 +82438,7 @@
           <t>570</t>
         </is>
       </c>
-      <c r="M472" s="8" t="inlineStr">
+      <c r="M472" s="17" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -83253,7 +83261,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="AB476" s="13" t="inlineStr">
+      <c r="AB476" s="17" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -84046,7 +84054,7 @@
           <t>033</t>
         </is>
       </c>
-      <c r="AK480" s="16" t="inlineStr">
+      <c r="AK480" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -89713,7 +89721,7 @@
           <t>039</t>
         </is>
       </c>
-      <c r="AE513" s="14" t="inlineStr">
+      <c r="AE513" s="17" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -89905,7 +89913,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="AF514" s="15" t="inlineStr">
+      <c r="AF514" s="17" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -92627,7 +92635,7 @@
       </c>
       <c r="J545" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>952</t>
         </is>
       </c>
     </row>
@@ -92669,17 +92677,17 @@
       </c>
       <c r="H546" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>683</t>
         </is>
       </c>
       <c r="I546" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>606</t>
         </is>
       </c>
       <c r="J546" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>530</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -2782,7 +2782,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P13" s="9" t="inlineStr">
+      <c r="P13" s="17" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -2827,7 +2827,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y13" s="17" t="inlineStr">
+      <c r="Y13" s="12" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -3807,7 +3807,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH18" s="15" t="inlineStr">
+      <c r="AH18" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -4368,7 +4368,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH21" s="15" t="inlineStr">
+      <c r="AH21" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -5011,7 +5011,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M25" s="17" t="inlineStr">
+      <c r="M25" s="8" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -5198,7 +5198,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M26" s="8" t="inlineStr">
+      <c r="M26" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -6928,7 +6928,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E38" s="6" t="inlineStr">
+      <c r="E38" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -7170,7 +7170,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P39" s="9" t="inlineStr">
+      <c r="P39" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -7736,7 +7736,7 @@
           <t>906</t>
         </is>
       </c>
-      <c r="Q42" s="17" t="inlineStr">
+      <c r="Q42" s="10" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -7953,7 +7953,7 @@
           <t>817</t>
         </is>
       </c>
-      <c r="W43" s="12" t="inlineStr">
+      <c r="W43" s="17" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -8357,7 +8357,7 @@
           <t>346</t>
         </is>
       </c>
-      <c r="AC45" s="14" t="inlineStr">
+      <c r="AC45" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -8479,7 +8479,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P46" s="17" t="inlineStr">
+      <c r="P46" s="9" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -8636,7 +8636,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
+      <c r="J47" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -9172,7 +9172,7 @@
           <t>877</t>
         </is>
       </c>
-      <c r="E50" s="17" t="inlineStr">
+      <c r="E50" s="6" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -9504,7 +9504,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH51" s="15" t="inlineStr">
+      <c r="AH51" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -9743,7 +9743,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G53" s="6" t="inlineStr">
+      <c r="G53" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -9758,7 +9758,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J53" s="7" t="inlineStr">
+      <c r="J53" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -10092,7 +10092,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B55" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -10384,7 +10384,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="W56" s="17" t="inlineStr">
+      <c r="W56" s="12" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -11015,7 +11015,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK59" s="16" t="inlineStr">
+      <c r="AK59" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -11132,7 +11132,7 @@
           <t>130</t>
         </is>
       </c>
-      <c r="W60" s="12" t="inlineStr">
+      <c r="W60" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -11319,7 +11319,7 @@
           <t>617</t>
         </is>
       </c>
-      <c r="W61" s="12" t="inlineStr">
+      <c r="W61" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -11940,7 +11940,7 @@
           <t>930</t>
         </is>
       </c>
-      <c r="AI64" s="16" t="inlineStr">
+      <c r="AI64" s="17" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -13276,7 +13276,7 @@
           <t>995</t>
         </is>
       </c>
-      <c r="W74" s="17" t="inlineStr">
+      <c r="W74" s="12" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -13635,7 +13635,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="T76" s="11" t="inlineStr">
+      <c r="T76" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -13715,7 +13715,7 @@
           <t>145</t>
         </is>
       </c>
-      <c r="AJ76" s="17" t="inlineStr">
+      <c r="AJ76" s="16" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -14171,12 +14171,12 @@
           <t>213</t>
         </is>
       </c>
-      <c r="O79" s="17" t="inlineStr">
+      <c r="O79" s="9" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="P79" s="17" t="inlineStr">
+      <c r="P79" s="9" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -14827,7 +14827,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="AH82" s="15" t="inlineStr">
+      <c r="AH82" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -15667,7 +15667,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="O87" s="9" t="inlineStr">
+      <c r="O87" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -16263,7 +16263,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="V90" s="11" t="inlineStr">
+      <c r="V90" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -17749,7 +17749,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="T98" s="11" t="inlineStr">
+      <c r="T98" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -17931,7 +17931,7 @@
           <t>748</t>
         </is>
       </c>
-      <c r="S99" s="10" t="inlineStr">
+      <c r="S99" s="17" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -18128,7 +18128,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="U100" s="11" t="inlineStr">
+      <c r="U100" s="17" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -18335,7 +18335,7 @@
           <t>031</t>
         </is>
       </c>
-      <c r="Y101" s="12" t="inlineStr">
+      <c r="Y101" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -19085,7 +19085,7 @@
           <t>846</t>
         </is>
       </c>
-      <c r="H108" s="7" t="inlineStr">
+      <c r="H108" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -19135,7 +19135,7 @@
           <t>796</t>
         </is>
       </c>
-      <c r="R108" s="17" t="inlineStr">
+      <c r="R108" s="10" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -19454,7 +19454,7 @@
           <t>227</t>
         </is>
       </c>
-      <c r="G110" s="17" t="inlineStr">
+      <c r="G110" s="6" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -19781,7 +19781,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="AI111" s="16" t="inlineStr">
+      <c r="AI111" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -19918,7 +19918,7 @@
           <t>357</t>
         </is>
       </c>
-      <c r="Y112" s="12" t="inlineStr">
+      <c r="Y112" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -22638,7 +22638,7 @@
           <t>739</t>
         </is>
       </c>
-      <c r="H127" s="7" t="inlineStr">
+      <c r="H127" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -22850,7 +22850,7 @@
           <t>267</t>
         </is>
       </c>
-      <c r="M128" s="8" t="inlineStr">
+      <c r="M128" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -22895,7 +22895,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="V128" s="11" t="inlineStr">
+      <c r="V128" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -23042,7 +23042,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="N129" s="17" t="inlineStr">
+      <c r="N129" s="9" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -23087,7 +23087,7 @@
           <t>906</t>
         </is>
       </c>
-      <c r="W129" s="12" t="inlineStr">
+      <c r="W129" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -23122,7 +23122,7 @@
           <t>450</t>
         </is>
       </c>
-      <c r="AD129" s="14" t="inlineStr">
+      <c r="AD129" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -23451,7 +23451,7 @@
           <t>717</t>
         </is>
       </c>
-      <c r="U131" s="11" t="inlineStr">
+      <c r="U131" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -23543,7 +23543,7 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B132" s="5" t="inlineStr">
+      <c r="B132" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -23568,7 +23568,7 @@
           <t>919</t>
         </is>
       </c>
-      <c r="G132" s="17" t="inlineStr">
+      <c r="G132" s="6" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -23643,7 +23643,7 @@
           <t>699</t>
         </is>
       </c>
-      <c r="V132" s="17" t="inlineStr">
+      <c r="V132" s="11" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -24239,7 +24239,7 @@
           <t>586</t>
         </is>
       </c>
-      <c r="AC135" s="14" t="inlineStr">
+      <c r="AC135" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -24249,7 +24249,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="AE135" s="17" t="inlineStr">
+      <c r="AE135" s="14" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -24775,7 +24775,7 @@
           <t>239</t>
         </is>
       </c>
-      <c r="X138" s="12" t="inlineStr">
+      <c r="X138" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -25510,7 +25510,7 @@
           <t>517</t>
         </is>
       </c>
-      <c r="D145" s="5" t="inlineStr">
+      <c r="D145" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -25605,7 +25605,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="W145" s="17" t="inlineStr">
+      <c r="W145" s="12" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -26226,7 +26226,7 @@
           <t>439</t>
         </is>
       </c>
-      <c r="AI148" s="16" t="inlineStr">
+      <c r="AI148" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -26540,7 +26540,7 @@
           <t>880</t>
         </is>
       </c>
-      <c r="W150" s="12" t="inlineStr">
+      <c r="W150" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -26939,7 +26939,7 @@
           <t>470</t>
         </is>
       </c>
-      <c r="AB152" s="13" t="inlineStr">
+      <c r="AB152" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -27076,12 +27076,12 @@
           <t>487</t>
         </is>
       </c>
-      <c r="R153" s="10" t="inlineStr">
+      <c r="R153" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
       </c>
-      <c r="S153" s="10" t="inlineStr">
+      <c r="S153" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -27218,7 +27218,7 @@
           <t>428</t>
         </is>
       </c>
-      <c r="I154" s="7" t="inlineStr">
+      <c r="I154" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -27495,7 +27495,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="AA155" s="17" t="inlineStr">
+      <c r="AA155" s="13" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -27662,7 +27662,7 @@
           <t>538</t>
         </is>
       </c>
-      <c r="W156" s="12" t="inlineStr">
+      <c r="W156" s="17" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -28320,7 +28320,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="E160" s="17" t="inlineStr">
+      <c r="E160" s="6" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -28749,7 +28749,7 @@
           <t>351</t>
         </is>
       </c>
-      <c r="P162" s="17" t="inlineStr">
+      <c r="P162" s="9" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -29203,7 +29203,7 @@
           <t>076</t>
         </is>
       </c>
-      <c r="AF164" s="15" t="inlineStr">
+      <c r="AF164" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -30689,7 +30689,7 @@
           <t>909</t>
         </is>
       </c>
-      <c r="AD172" s="14" t="inlineStr">
+      <c r="AD172" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -31763,7 +31763,7 @@
           <t>462</t>
         </is>
       </c>
-      <c r="C181" s="5" t="inlineStr">
+      <c r="C181" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -31858,7 +31858,7 @@
           <t>803</t>
         </is>
       </c>
-      <c r="V181" s="11" t="inlineStr">
+      <c r="V181" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -31903,7 +31903,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AE181" s="17" t="inlineStr">
+      <c r="AE181" s="14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -32282,7 +32282,7 @@
           <t>225</t>
         </is>
       </c>
-      <c r="AF183" s="17" t="inlineStr">
+      <c r="AF183" s="15" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -33217,12 +33217,12 @@
           <t>898</t>
         </is>
       </c>
-      <c r="AF188" s="15" t="inlineStr">
+      <c r="AF188" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
       </c>
-      <c r="AG188" s="17" t="inlineStr">
+      <c r="AG188" s="15" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -33409,7 +33409,7 @@
           <t>565</t>
         </is>
       </c>
-      <c r="AG189" s="15" t="inlineStr">
+      <c r="AG189" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -33536,7 +33536,7 @@
           <t>251</t>
         </is>
       </c>
-      <c r="U190" s="11" t="inlineStr">
+      <c r="U190" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -34022,7 +34022,7 @@
           <t>970</t>
         </is>
       </c>
-      <c r="F193" s="6" t="inlineStr">
+      <c r="F193" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -34618,7 +34618,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="M196" s="8" t="inlineStr">
+      <c r="M196" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -34713,7 +34713,7 @@
           <t>069</t>
         </is>
       </c>
-      <c r="AF196" s="15" t="inlineStr">
+      <c r="AF196" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -34942,7 +34942,7 @@
           <t>087</t>
         </is>
       </c>
-      <c r="C198" s="5" t="inlineStr">
+      <c r="C198" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -35047,7 +35047,7 @@
           <t>124</t>
         </is>
       </c>
-      <c r="X198" s="17" t="inlineStr">
+      <c r="X198" s="12" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -35259,7 +35259,7 @@
           <t>059</t>
         </is>
       </c>
-      <c r="AC199" s="14" t="inlineStr">
+      <c r="AC199" s="17" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -35346,7 +35346,7 @@
           <t>715</t>
         </is>
       </c>
-      <c r="I200" s="7" t="inlineStr">
+      <c r="I200" s="17" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -35735,7 +35735,7 @@
           <t>872</t>
         </is>
       </c>
-      <c r="L202" s="17" t="inlineStr">
+      <c r="L202" s="8" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -35987,7 +35987,7 @@
           <t>068</t>
         </is>
       </c>
-      <c r="Y203" s="12" t="inlineStr">
+      <c r="Y203" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -36169,7 +36169,7 @@
           <t>987</t>
         </is>
       </c>
-      <c r="X204" s="17" t="inlineStr">
+      <c r="X204" s="12" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -37782,7 +37782,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AD215" s="17" t="inlineStr">
+      <c r="AD215" s="14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -38116,7 +38116,7 @@
           <t>905</t>
         </is>
       </c>
-      <c r="V217" s="11" t="inlineStr">
+      <c r="V217" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -38859,7 +38859,7 @@
           <t>022</t>
         </is>
       </c>
-      <c r="U221" s="17" t="inlineStr">
+      <c r="U221" s="11" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -38939,7 +38939,7 @@
           <t>018</t>
         </is>
       </c>
-      <c r="AK221" s="16" t="inlineStr">
+      <c r="AK221" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -39258,7 +39258,7 @@
           <t>528</t>
         </is>
       </c>
-      <c r="Z223" s="17" t="inlineStr">
+      <c r="Z223" s="13" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -39435,7 +39435,7 @@
           <t>608</t>
         </is>
       </c>
-      <c r="X224" s="17" t="inlineStr">
+      <c r="X224" s="12" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -39734,7 +39734,7 @@
           <t>488</t>
         </is>
       </c>
-      <c r="I226" s="7" t="inlineStr">
+      <c r="I226" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -39869,7 +39869,7 @@
           <t>411</t>
         </is>
       </c>
-      <c r="AJ226" s="16" t="inlineStr">
+      <c r="AJ226" s="17" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -40183,7 +40183,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="X228" s="12" t="inlineStr">
+      <c r="X228" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -40634,7 +40634,7 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B231" s="5" t="inlineStr">
+      <c r="B231" s="17" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -40759,7 +40759,7 @@
           <t>122</t>
         </is>
       </c>
-      <c r="AA231" s="13" t="inlineStr">
+      <c r="AA231" s="17" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -40794,7 +40794,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="AH231" s="17" t="inlineStr">
+      <c r="AH231" s="15" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -40981,7 +40981,7 @@
           <t>671</t>
         </is>
       </c>
-      <c r="AH232" s="15" t="inlineStr">
+      <c r="AH232" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -41088,7 +41088,7 @@
           <t>615</t>
         </is>
       </c>
-      <c r="R233" s="10" t="inlineStr">
+      <c r="R233" s="17" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -41200,7 +41200,7 @@
           <t>852</t>
         </is>
       </c>
-      <c r="C234" s="17" t="inlineStr">
+      <c r="C234" s="5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -41629,7 +41629,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="N236" s="9" t="inlineStr">
+      <c r="N236" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -41821,7 +41821,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="O237" s="9" t="inlineStr">
+      <c r="O237" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -42068,7 +42068,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AA238" s="13" t="inlineStr">
+      <c r="AA238" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -42230,7 +42230,7 @@
           <t>881</t>
         </is>
       </c>
-      <c r="V239" s="11" t="inlineStr">
+      <c r="V239" s="17" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -42337,7 +42337,7 @@
           <t>228</t>
         </is>
       </c>
-      <c r="F240" s="6" t="inlineStr">
+      <c r="F240" s="17" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -43920,7 +43920,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="F251" s="6" t="inlineStr">
+      <c r="F251" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -44030,7 +44030,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="AB251" s="17" t="inlineStr">
+      <c r="AB251" s="13" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -44055,7 +44055,7 @@
           <t>594</t>
         </is>
       </c>
-      <c r="AG251" s="17" t="inlineStr">
+      <c r="AG251" s="15" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -44092,7 +44092,7 @@
           <t>752</t>
         </is>
       </c>
-      <c r="C252" s="5" t="inlineStr">
+      <c r="C252" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -44182,7 +44182,7 @@
           <t>813</t>
         </is>
       </c>
-      <c r="U252" s="11" t="inlineStr">
+      <c r="U252" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -44439,7 +44439,7 @@
           <t>320</t>
         </is>
       </c>
-      <c r="AI253" s="16" t="inlineStr">
+      <c r="AI253" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -45022,7 +45022,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B257" s="17" t="inlineStr">
+      <c r="B257" s="5" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -45172,7 +45172,7 @@
           <t>258</t>
         </is>
       </c>
-      <c r="AF257" s="17" t="inlineStr">
+      <c r="AF257" s="15" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -45224,7 +45224,7 @@
           <t>790</t>
         </is>
       </c>
-      <c r="E258" s="17" t="inlineStr">
+      <c r="E258" s="6" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -45314,7 +45314,7 @@
           <t>047</t>
         </is>
       </c>
-      <c r="W258" s="12" t="inlineStr">
+      <c r="W258" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -45521,7 +45521,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="AA259" s="17" t="inlineStr">
+      <c r="AA259" s="13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -46169,7 +46169,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="G263" s="17" t="inlineStr">
+      <c r="G263" s="6" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -46304,7 +46304,7 @@
           <t>756</t>
         </is>
       </c>
-      <c r="AH263" s="15" t="inlineStr">
+      <c r="AH263" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -46892,7 +46892,7 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B267" s="17" t="inlineStr">
+      <c r="B267" s="5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -47032,7 +47032,7 @@
           <t>299</t>
         </is>
       </c>
-      <c r="AD267" s="17" t="inlineStr">
+      <c r="AD267" s="14" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -47276,7 +47276,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="D269" s="17" t="inlineStr">
+      <c r="D269" s="5" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -47593,7 +47593,7 @@
           <t>549</t>
         </is>
       </c>
-      <c r="AD270" s="14" t="inlineStr">
+      <c r="AD270" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -47982,7 +47982,7 @@
           <t>080</t>
         </is>
       </c>
-      <c r="AG272" s="15" t="inlineStr">
+      <c r="AG272" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -48523,7 +48523,7 @@
           <t>315</t>
         </is>
       </c>
-      <c r="AC275" s="14" t="inlineStr">
+      <c r="AC275" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -48927,7 +48927,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AI277" s="17" t="inlineStr">
+      <c r="AI277" s="16" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -49430,7 +49430,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="F283" s="17" t="inlineStr">
+      <c r="F283" s="6" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -49939,7 +49939,7 @@
           <t>621</t>
         </is>
       </c>
-      <c r="AG285" s="15" t="inlineStr">
+      <c r="AG285" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -50126,7 +50126,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="AG286" s="15" t="inlineStr">
+      <c r="AG286" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -50233,7 +50233,7 @@
           <t>325</t>
         </is>
       </c>
-      <c r="Q287" s="10" t="inlineStr">
+      <c r="Q287" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -50470,7 +50470,7 @@
           <t>642</t>
         </is>
       </c>
-      <c r="AA288" s="13" t="inlineStr">
+      <c r="AA288" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -50597,7 +50597,7 @@
           <t>807</t>
         </is>
       </c>
-      <c r="O289" s="17" t="inlineStr">
+      <c r="O289" s="9" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -51415,7 +51415,7 @@
           <t>320</t>
         </is>
       </c>
-      <c r="AC293" s="14" t="inlineStr">
+      <c r="AC293" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -52001,7 +52001,7 @@
           <t>905</t>
         </is>
       </c>
-      <c r="AH296" s="15" t="inlineStr">
+      <c r="AH296" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -52477,7 +52477,7 @@
           <t>477</t>
         </is>
       </c>
-      <c r="Q299" s="10" t="inlineStr">
+      <c r="Q299" s="17" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -52851,7 +52851,7 @@
           <t>130</t>
         </is>
       </c>
-      <c r="Q301" s="10" t="inlineStr">
+      <c r="Q301" s="17" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -53599,7 +53599,7 @@
           <t>607</t>
         </is>
       </c>
-      <c r="Q305" s="10" t="inlineStr">
+      <c r="Q305" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -53614,7 +53614,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="T305" s="17" t="inlineStr">
+      <c r="T305" s="11" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -54277,7 +54277,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="C309" s="17" t="inlineStr">
+      <c r="C309" s="5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -54514,7 +54514,7 @@
           <t>428</t>
         </is>
       </c>
-      <c r="M310" s="8" t="inlineStr">
+      <c r="M310" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -54736,7 +54736,7 @@
           <t>743</t>
         </is>
       </c>
-      <c r="T311" s="11" t="inlineStr">
+      <c r="T311" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -54873,7 +54873,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="J312" s="7" t="inlineStr">
+      <c r="J312" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -56137,7 +56137,7 @@
           <t>816</t>
         </is>
       </c>
-      <c r="U321" s="11" t="inlineStr">
+      <c r="U321" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -56344,7 +56344,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="Y322" s="12" t="inlineStr">
+      <c r="Y322" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -56486,7 +56486,7 @@
           <t>362</t>
         </is>
       </c>
-      <c r="P323" s="9" t="inlineStr">
+      <c r="P323" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -56566,7 +56566,7 @@
           <t>949</t>
         </is>
       </c>
-      <c r="AF323" s="15" t="inlineStr">
+      <c r="AF323" s="17" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -56708,7 +56708,7 @@
           <t>847</t>
         </is>
       </c>
-      <c r="W324" s="12" t="inlineStr">
+      <c r="W324" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -56945,7 +56945,7 @@
           <t>698</t>
         </is>
       </c>
-      <c r="AG325" s="17" t="inlineStr">
+      <c r="AG325" s="15" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -57107,7 +57107,7 @@
           <t>631</t>
         </is>
       </c>
-      <c r="AB326" s="13" t="inlineStr">
+      <c r="AB326" s="17" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -57117,7 +57117,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="AD326" s="14" t="inlineStr">
+      <c r="AD326" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -57189,7 +57189,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="G327" s="6" t="inlineStr">
+      <c r="G327" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -57279,7 +57279,7 @@
           <t>855</t>
         </is>
       </c>
-      <c r="Y327" s="12" t="inlineStr">
+      <c r="Y327" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -57376,12 +57376,12 @@
           <t>325</t>
         </is>
       </c>
-      <c r="G328" s="6" t="inlineStr">
+      <c r="G328" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
       </c>
-      <c r="H328" s="7" t="inlineStr">
+      <c r="H328" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -57426,7 +57426,7 @@
           <t>015</t>
         </is>
       </c>
-      <c r="Q328" s="10" t="inlineStr">
+      <c r="Q328" s="17" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -58139,7 +58139,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="J332" s="7" t="inlineStr">
+      <c r="J332" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -58386,7 +58386,7 @@
           <t>737</t>
         </is>
       </c>
-      <c r="V333" s="17" t="inlineStr">
+      <c r="V333" s="11" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -58638,7 +58638,7 @@
           <t>165</t>
         </is>
       </c>
-      <c r="AI334" s="16" t="inlineStr">
+      <c r="AI334" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -59114,7 +59114,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="R337" s="10" t="inlineStr">
+      <c r="R337" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -59266,7 +59266,7 @@
           <t>419</t>
         </is>
       </c>
-      <c r="K338" s="8" t="inlineStr">
+      <c r="K338" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -59750,7 +59750,7 @@
           <t>827</t>
         </is>
       </c>
-      <c r="AG340" s="17" t="inlineStr">
+      <c r="AG340" s="15" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -60024,7 +60024,7 @@
           <t>590</t>
         </is>
       </c>
-      <c r="M342" s="8" t="inlineStr">
+      <c r="M342" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -60296,7 +60296,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="AD343" s="14" t="inlineStr">
+      <c r="AD343" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -61024,7 +61024,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="Z347" s="17" t="inlineStr">
+      <c r="Z347" s="13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -61034,7 +61034,7 @@
           <t>392</t>
         </is>
       </c>
-      <c r="AB347" s="17" t="inlineStr">
+      <c r="AB347" s="13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -61727,7 +61727,7 @@
           <t>375</t>
         </is>
       </c>
-      <c r="AK353" s="16" t="inlineStr">
+      <c r="AK353" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -61961,7 +61961,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="I355" s="17" t="inlineStr">
+      <c r="I355" s="7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -62921,7 +62921,7 @@
           <t>909</t>
         </is>
       </c>
-      <c r="N360" s="9" t="inlineStr">
+      <c r="N360" s="17" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -63031,7 +63031,7 @@
           <t>785</t>
         </is>
       </c>
-      <c r="AJ360" s="16" t="inlineStr">
+      <c r="AJ360" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -63143,7 +63143,7 @@
           <t>089</t>
         </is>
       </c>
-      <c r="U361" s="11" t="inlineStr">
+      <c r="U361" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -64048,7 +64048,7 @@
           <t>851</t>
         </is>
       </c>
-      <c r="O366" s="9" t="inlineStr">
+      <c r="O366" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -64078,7 +64078,7 @@
           <t>329</t>
         </is>
       </c>
-      <c r="U366" s="17" t="inlineStr">
+      <c r="U366" s="11" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -64158,7 +64158,7 @@
           <t>047</t>
         </is>
       </c>
-      <c r="AK366" s="16" t="inlineStr">
+      <c r="AK366" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -64649,7 +64649,7 @@
           <t>644</t>
         </is>
       </c>
-      <c r="W369" s="17" t="inlineStr">
+      <c r="W369" s="12" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -64719,7 +64719,7 @@
           <t>009</t>
         </is>
       </c>
-      <c r="AK369" s="16" t="inlineStr">
+      <c r="AK369" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -64861,7 +64861,7 @@
           <t>582</t>
         </is>
       </c>
-      <c r="AB370" s="13" t="inlineStr">
+      <c r="AB370" s="17" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -64953,7 +64953,7 @@
           <t>617</t>
         </is>
       </c>
-      <c r="I371" s="7" t="inlineStr">
+      <c r="I371" s="17" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -65003,7 +65003,7 @@
           <t>872</t>
         </is>
       </c>
-      <c r="S371" s="10" t="inlineStr">
+      <c r="S371" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -65412,7 +65412,7 @@
           <t>035</t>
         </is>
       </c>
-      <c r="Z373" s="13" t="inlineStr">
+      <c r="Z373" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -65422,7 +65422,7 @@
           <t>678</t>
         </is>
       </c>
-      <c r="AB373" s="13" t="inlineStr">
+      <c r="AB373" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -66272,7 +66272,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K378" s="8" t="inlineStr">
+      <c r="K378" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -66327,7 +66327,7 @@
           <t>206</t>
         </is>
       </c>
-      <c r="V378" s="11" t="inlineStr">
+      <c r="V378" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -66387,7 +66387,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="AH378" s="15" t="inlineStr">
+      <c r="AH378" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -66549,7 +66549,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="AC379" s="14" t="inlineStr">
+      <c r="AC379" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -66606,7 +66606,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="C380" s="17" t="inlineStr">
+      <c r="C380" s="5" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -66853,7 +66853,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="O381" s="9" t="inlineStr">
+      <c r="O381" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -67095,7 +67095,7 @@
           <t>626</t>
         </is>
       </c>
-      <c r="Z382" s="13" t="inlineStr">
+      <c r="Z382" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -67172,7 +67172,7 @@
           <t>297</t>
         </is>
       </c>
-      <c r="D383" s="17" t="inlineStr">
+      <c r="D383" s="5" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -67835,7 +67835,7 @@
           <t>351</t>
         </is>
       </c>
-      <c r="G389" s="6" t="inlineStr">
+      <c r="G389" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -68162,7 +68162,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="AI390" s="17" t="inlineStr">
+      <c r="AI390" s="16" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -69067,7 +69067,7 @@
           <t>168</t>
         </is>
       </c>
-      <c r="AC395" s="17" t="inlineStr">
+      <c r="AC395" s="14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -69259,7 +69259,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="AD396" s="17" t="inlineStr">
+      <c r="AD396" s="14" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -69279,7 +69279,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="AH396" s="15" t="inlineStr">
+      <c r="AH396" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -69765,7 +69765,7 @@
           <t>183</t>
         </is>
       </c>
-      <c r="S399" s="17" t="inlineStr">
+      <c r="S399" s="10" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -69997,7 +69997,7 @@
           <t>183</t>
         </is>
       </c>
-      <c r="AB400" s="17" t="inlineStr">
+      <c r="AB400" s="13" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -70271,7 +70271,7 @@
           <t>088</t>
         </is>
       </c>
-      <c r="H402" s="7" t="inlineStr">
+      <c r="H402" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -70715,7 +70715,7 @@
           <t>210</t>
         </is>
       </c>
-      <c r="V404" s="11" t="inlineStr">
+      <c r="V404" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -70947,7 +70947,7 @@
           <t>687</t>
         </is>
       </c>
-      <c r="AE405" s="17" t="inlineStr">
+      <c r="AE405" s="14" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -70977,7 +70977,7 @@
           <t>666</t>
         </is>
       </c>
-      <c r="AK405" s="17" t="inlineStr">
+      <c r="AK405" s="16" t="inlineStr">
         <is>
           <t>402</t>
         </is>
@@ -72216,7 +72216,7 @@
           <t>836</t>
         </is>
       </c>
-      <c r="W412" s="12" t="inlineStr">
+      <c r="W412" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -72298,7 +72298,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B413" s="5" t="inlineStr">
+      <c r="B413" s="17" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -72453,7 +72453,7 @@
           <t>842</t>
         </is>
       </c>
-      <c r="AG413" s="15" t="inlineStr">
+      <c r="AG413" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -73348,7 +73348,7 @@
           <t>053</t>
         </is>
       </c>
-      <c r="Y418" s="12" t="inlineStr">
+      <c r="Y418" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -73378,7 +73378,7 @@
           <t>317</t>
         </is>
       </c>
-      <c r="AE418" s="14" t="inlineStr">
+      <c r="AE418" s="17" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -73911,7 +73911,7 @@
           <t>855</t>
         </is>
       </c>
-      <c r="H424" s="7" t="inlineStr">
+      <c r="H424" s="17" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -74073,7 +74073,7 @@
           <t>750</t>
         </is>
       </c>
-      <c r="C425" s="5" t="inlineStr">
+      <c r="C425" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -74739,7 +74739,7 @@
           <t>586</t>
         </is>
       </c>
-      <c r="X428" s="12" t="inlineStr">
+      <c r="X428" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -74976,7 +74976,7 @@
           <t>921</t>
         </is>
       </c>
-      <c r="AH429" s="15" t="inlineStr">
+      <c r="AH429" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -75891,7 +75891,7 @@
           <t>094</t>
         </is>
       </c>
-      <c r="AD434" s="17" t="inlineStr">
+      <c r="AD434" s="14" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -76113,7 +76113,7 @@
           <t>384</t>
         </is>
       </c>
-      <c r="AK435" s="16" t="inlineStr">
+      <c r="AK435" s="17" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -76130,7 +76130,7 @@
           <t>836</t>
         </is>
       </c>
-      <c r="C436" s="17" t="inlineStr">
+      <c r="C436" s="5" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -76392,7 +76392,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="R437" s="10" t="inlineStr">
+      <c r="R437" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -76973,7 +76973,7 @@
           <t>685</t>
         </is>
       </c>
-      <c r="V440" s="11" t="inlineStr">
+      <c r="V440" s="17" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -77853,7 +77853,7 @@
           <t>948</t>
         </is>
       </c>
-      <c r="K445" s="17" t="inlineStr">
+      <c r="K445" s="8" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -77888,7 +77888,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="R445" s="10" t="inlineStr">
+      <c r="R445" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -77938,7 +77938,7 @@
           <t>258</t>
         </is>
       </c>
-      <c r="AB445" s="13" t="inlineStr">
+      <c r="AB445" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -78509,7 +78509,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="AD448" s="17" t="inlineStr">
+      <c r="AD448" s="14" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -79399,7 +79399,7 @@
           <t>677</t>
         </is>
       </c>
-      <c r="U453" s="11" t="inlineStr">
+      <c r="U453" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -79870,7 +79870,7 @@
           <t>310</t>
         </is>
       </c>
-      <c r="W458" s="12" t="inlineStr">
+      <c r="W458" s="17" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -80097,7 +80097,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="AE459" s="17" t="inlineStr">
+      <c r="AE459" s="14" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -80249,7 +80249,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="X460" s="12" t="inlineStr">
+      <c r="X460" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -80314,7 +80314,7 @@
           <t>976</t>
         </is>
       </c>
-      <c r="AK460" s="17" t="inlineStr">
+      <c r="AK460" s="16" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -80568,7 +80568,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="M462" s="8" t="inlineStr">
+      <c r="M462" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -80688,7 +80688,7 @@
           <t>542</t>
         </is>
       </c>
-      <c r="AK462" s="16" t="inlineStr">
+      <c r="AK462" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -81613,7 +81613,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="AI467" s="16" t="inlineStr">
+      <c r="AI467" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -81675,7 +81675,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="J468" s="7" t="inlineStr">
+      <c r="J468" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -81800,7 +81800,7 @@
           <t>044</t>
         </is>
       </c>
-      <c r="AI468" s="17" t="inlineStr">
+      <c r="AI468" s="16" t="inlineStr">
         <is>
           <t>042</t>
         </is>
@@ -82438,7 +82438,7 @@
           <t>570</t>
         </is>
       </c>
-      <c r="M472" s="17" t="inlineStr">
+      <c r="M472" s="8" t="inlineStr">
         <is>
           <t>240</t>
         </is>
@@ -83261,7 +83261,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="AB476" s="17" t="inlineStr">
+      <c r="AB476" s="13" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -83428,7 +83428,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="X477" s="12" t="inlineStr">
+      <c r="X477" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -83650,7 +83650,7 @@
           <t>741</t>
         </is>
       </c>
-      <c r="AE478" s="14" t="inlineStr">
+      <c r="AE478" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -83817,7 +83817,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AA479" s="13" t="inlineStr">
+      <c r="AA479" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -83909,7 +83909,7 @@
           <t>551</t>
         </is>
       </c>
-      <c r="H480" s="7" t="inlineStr">
+      <c r="H480" s="17" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -84054,7 +84054,7 @@
           <t>033</t>
         </is>
       </c>
-      <c r="AK480" s="17" t="inlineStr">
+      <c r="AK480" s="16" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -84096,7 +84096,7 @@
           <t>186</t>
         </is>
       </c>
-      <c r="H481" s="7" t="inlineStr">
+      <c r="H481" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -84151,7 +84151,7 @@
           <t>707</t>
         </is>
       </c>
-      <c r="S481" s="10" t="inlineStr">
+      <c r="S481" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -85066,7 +85066,7 @@
           <t>369</t>
         </is>
       </c>
-      <c r="O486" s="9" t="inlineStr">
+      <c r="O486" s="17" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -85233,7 +85233,7 @@
           <t>436</t>
         </is>
       </c>
-      <c r="K487" s="8" t="inlineStr">
+      <c r="K487" s="17" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -87684,7 +87684,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="AI502" s="16" t="inlineStr">
+      <c r="AI502" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -88100,7 +88100,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="F505" s="6" t="inlineStr">
+      <c r="F505" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -88614,7 +88614,7 @@
           <t>583</t>
         </is>
       </c>
-      <c r="AH507" s="15" t="inlineStr">
+      <c r="AH507" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -89721,7 +89721,7 @@
           <t>039</t>
         </is>
       </c>
-      <c r="AE513" s="17" t="inlineStr">
+      <c r="AE513" s="14" t="inlineStr">
         <is>
           <t>204</t>
         </is>
@@ -89913,7 +89913,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="AF514" s="17" t="inlineStr">
+      <c r="AF514" s="15" t="inlineStr">
         <is>
           <t>024</t>
         </is>
@@ -90095,7 +90095,7 @@
           <t>939</t>
         </is>
       </c>
-      <c r="AE515" s="14" t="inlineStr">
+      <c r="AE515" s="17" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -90698,12 +90698,12 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B519" s="5" t="inlineStr">
+      <c r="B519" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
       </c>
-      <c r="C519" s="5" t="inlineStr">
+      <c r="C519" s="17" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -90823,7 +90823,7 @@
           <t>448</t>
         </is>
       </c>
-      <c r="AA519" s="13" t="inlineStr">
+      <c r="AA519" s="17" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -91989,7 +91989,7 @@
           <t>975</t>
         </is>
       </c>
-      <c r="F533" s="6" t="inlineStr">
+      <c r="F533" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -92103,7 +92103,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="H535" s="7" t="inlineStr">
+      <c r="H535" s="17" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -92462,7 +92462,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="G542" s="6" t="inlineStr">
+      <c r="G542" s="17" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -92546,7 +92546,7 @@
           <t>622</t>
         </is>
       </c>
-      <c r="C544" s="5" t="inlineStr">
+      <c r="C544" s="17" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -92729,17 +92729,17 @@
       </c>
       <c r="H547" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>044</t>
         </is>
       </c>
       <c r="I547" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>377</t>
         </is>
       </c>
       <c r="J547" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>631</t>
         </is>
       </c>
     </row>
@@ -92781,17 +92781,17 @@
       </c>
       <c r="H548" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>438</t>
         </is>
       </c>
       <c r="I548" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>782</t>
         </is>
       </c>
       <c r="J548" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>790</t>
         </is>
       </c>
     </row>
@@ -92833,17 +92833,17 @@
       </c>
       <c r="H549" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>689</t>
         </is>
       </c>
       <c r="I549" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>561</t>
         </is>
       </c>
       <c r="J549" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -92885,17 +92885,17 @@
       </c>
       <c r="H550" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>340</t>
         </is>
       </c>
       <c r="I550" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>404</t>
         </is>
       </c>
       <c r="J550" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>560</t>
         </is>
       </c>
     </row>
@@ -92937,17 +92937,17 @@
       </c>
       <c r="H551" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>438</t>
         </is>
       </c>
       <c r="I551" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>453</t>
         </is>
       </c>
       <c r="J551" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>370</t>
         </is>
       </c>
     </row>
@@ -92989,17 +92989,17 @@
       </c>
       <c r="H552" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>968</t>
         </is>
       </c>
       <c r="I552" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>406</t>
         </is>
       </c>
       <c r="J552" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>461</t>
         </is>
       </c>
     </row>
@@ -93041,17 +93041,17 @@
       </c>
       <c r="H553" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>245</t>
         </is>
       </c>
       <c r="I553" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J553" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>913</t>
         </is>
       </c>
     </row>
@@ -93093,17 +93093,17 @@
       </c>
       <c r="H554" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>321</t>
         </is>
       </c>
       <c r="I554" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>463</t>
         </is>
       </c>
       <c r="J554" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>788</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -48,17 +48,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ff6633"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ccff33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -223,10 +223,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2176,7 +2176,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -2206,7 +2206,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M10" s="8" t="inlineStr">
+      <c r="M10" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -2782,7 +2782,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P13" s="17" t="inlineStr">
+      <c r="P13" s="9" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -3605,7 +3605,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE17" s="14" t="inlineStr">
+      <c r="AE17" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -3807,7 +3807,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH18" s="17" t="inlineStr">
+      <c r="AH18" s="15" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -4368,7 +4368,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH21" s="17" t="inlineStr">
+      <c r="AH21" s="15" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -5198,7 +5198,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M26" s="17" t="inlineStr">
+      <c r="M26" s="8" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -6928,7 +6928,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E38" s="17" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -7170,7 +7170,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P39" s="17" t="inlineStr">
+      <c r="P39" s="9" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -7848,7 +7848,7 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="B43" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -7953,7 +7953,7 @@
           <t>817</t>
         </is>
       </c>
-      <c r="W43" s="17" t="inlineStr">
+      <c r="W43" s="12" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -8357,7 +8357,7 @@
           <t>346</t>
         </is>
       </c>
-      <c r="AC45" s="17" t="inlineStr">
+      <c r="AC45" s="14" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -8636,7 +8636,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J47" s="17" t="inlineStr">
+      <c r="J47" s="7" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -9262,7 +9262,7 @@
           <t>955</t>
         </is>
       </c>
-      <c r="W50" s="12" t="inlineStr">
+      <c r="W50" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -9504,7 +9504,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH51" s="17" t="inlineStr">
+      <c r="AH51" s="15" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -9743,7 +9743,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G53" s="17" t="inlineStr">
+      <c r="G53" s="6" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -9758,7 +9758,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J53" s="17" t="inlineStr">
+      <c r="J53" s="7" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -10092,7 +10092,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B55" s="17" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -10177,7 +10177,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S55" s="10" t="inlineStr">
+      <c r="S55" s="17" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -10414,7 +10414,7 @@
           <t>837</t>
         </is>
       </c>
-      <c r="AC56" s="14" t="inlineStr">
+      <c r="AC56" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -10586,7 +10586,7 @@
           <t>767</t>
         </is>
       </c>
-      <c r="Z57" s="13" t="inlineStr">
+      <c r="Z57" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -10813,7 +10813,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH58" s="15" t="inlineStr">
+      <c r="AH58" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -11015,7 +11015,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK59" s="17" t="inlineStr">
+      <c r="AK59" s="16" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -11132,7 +11132,7 @@
           <t>130</t>
         </is>
       </c>
-      <c r="W60" s="17" t="inlineStr">
+      <c r="W60" s="12" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -11319,7 +11319,7 @@
           <t>617</t>
         </is>
       </c>
-      <c r="W61" s="17" t="inlineStr">
+      <c r="W61" s="12" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -11940,7 +11940,7 @@
           <t>930</t>
         </is>
       </c>
-      <c r="AI64" s="17" t="inlineStr">
+      <c r="AI64" s="16" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -12314,7 +12314,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="AI66" s="16" t="inlineStr">
+      <c r="AI66" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -13211,7 +13211,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J74" s="7" t="inlineStr">
+      <c r="J74" s="17" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -13635,7 +13635,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="T76" s="17" t="inlineStr">
+      <c r="T76" s="11" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -13882,7 +13882,7 @@
           <t>753</t>
         </is>
       </c>
-      <c r="AF77" s="15" t="inlineStr">
+      <c r="AF77" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -13984,7 +13984,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="O78" s="9" t="inlineStr">
+      <c r="O78" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -14383,7 +14383,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="T80" s="11" t="inlineStr">
+      <c r="T80" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -14560,7 +14560,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="R81" s="10" t="inlineStr">
+      <c r="R81" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -14827,7 +14827,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="AH82" s="17" t="inlineStr">
+      <c r="AH82" s="15" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -14869,7 +14869,7 @@
           <t>313</t>
         </is>
       </c>
-      <c r="E83" s="6" t="inlineStr">
+      <c r="E83" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -14984,12 +14984,12 @@
           <t>023</t>
         </is>
       </c>
-      <c r="AB83" s="13" t="inlineStr">
+      <c r="AB83" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
       </c>
-      <c r="AC83" s="14" t="inlineStr">
+      <c r="AC83" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -15348,7 +15348,7 @@
           <t>136</t>
         </is>
       </c>
-      <c r="Z85" s="13" t="inlineStr">
+      <c r="Z85" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -15363,7 +15363,7 @@
           <t>269</t>
         </is>
       </c>
-      <c r="AC85" s="14" t="inlineStr">
+      <c r="AC85" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -15667,7 +15667,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="O87" s="17" t="inlineStr">
+      <c r="O87" s="9" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -16263,7 +16263,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="V90" s="17" t="inlineStr">
+      <c r="V90" s="11" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -17036,7 +17036,7 @@
           <t>028</t>
         </is>
       </c>
-      <c r="AA94" s="13" t="inlineStr">
+      <c r="AA94" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -17749,7 +17749,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="T98" s="17" t="inlineStr">
+      <c r="T98" s="11" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -17931,7 +17931,7 @@
           <t>748</t>
         </is>
       </c>
-      <c r="S99" s="17" t="inlineStr">
+      <c r="S99" s="10" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -18048,7 +18048,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="E100" s="6" t="inlineStr">
+      <c r="E100" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -18128,7 +18128,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="U100" s="17" t="inlineStr">
+      <c r="U100" s="11" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -18335,7 +18335,7 @@
           <t>031</t>
         </is>
       </c>
-      <c r="Y101" s="17" t="inlineStr">
+      <c r="Y101" s="12" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -19085,7 +19085,7 @@
           <t>846</t>
         </is>
       </c>
-      <c r="H108" s="17" t="inlineStr">
+      <c r="H108" s="7" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -19519,7 +19519,7 @@
           <t>247</t>
         </is>
       </c>
-      <c r="T110" s="11" t="inlineStr">
+      <c r="T110" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -19781,7 +19781,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="AI111" s="17" t="inlineStr">
+      <c r="AI111" s="16" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -19918,7 +19918,7 @@
           <t>357</t>
         </is>
       </c>
-      <c r="Y112" s="17" t="inlineStr">
+      <c r="Y112" s="12" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -20287,7 +20287,7 @@
           <t>881</t>
         </is>
       </c>
-      <c r="X114" s="12" t="inlineStr">
+      <c r="X114" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -21865,7 +21865,7 @@
           <t>172</t>
         </is>
       </c>
-      <c r="C123" s="5" t="inlineStr">
+      <c r="C123" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -22192,7 +22192,7 @@
           <t>538</t>
         </is>
       </c>
-      <c r="AE124" s="14" t="inlineStr">
+      <c r="AE124" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -22436,7 +22436,7 @@
           <t>277</t>
         </is>
       </c>
-      <c r="E126" s="6" t="inlineStr">
+      <c r="E126" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -22638,7 +22638,7 @@
           <t>739</t>
         </is>
       </c>
-      <c r="H127" s="17" t="inlineStr">
+      <c r="H127" s="7" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -22663,7 +22663,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="M127" s="8" t="inlineStr">
+      <c r="M127" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -22773,7 +22773,7 @@
           <t>978</t>
         </is>
       </c>
-      <c r="AI127" s="16" t="inlineStr">
+      <c r="AI127" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -22850,7 +22850,7 @@
           <t>267</t>
         </is>
       </c>
-      <c r="M128" s="17" t="inlineStr">
+      <c r="M128" s="8" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -22895,7 +22895,7 @@
           <t>377</t>
         </is>
       </c>
-      <c r="V128" s="17" t="inlineStr">
+      <c r="V128" s="11" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -23087,7 +23087,7 @@
           <t>906</t>
         </is>
       </c>
-      <c r="W129" s="17" t="inlineStr">
+      <c r="W129" s="12" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -23122,7 +23122,7 @@
           <t>450</t>
         </is>
       </c>
-      <c r="AD129" s="17" t="inlineStr">
+      <c r="AD129" s="14" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -23451,7 +23451,7 @@
           <t>717</t>
         </is>
       </c>
-      <c r="U131" s="17" t="inlineStr">
+      <c r="U131" s="11" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -23461,7 +23461,7 @@
           <t>205</t>
         </is>
       </c>
-      <c r="W131" s="12" t="inlineStr">
+      <c r="W131" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -23501,7 +23501,7 @@
           <t>827</t>
         </is>
       </c>
-      <c r="AE131" s="14" t="inlineStr">
+      <c r="AE131" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -23543,7 +23543,7 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B132" s="17" t="inlineStr">
+      <c r="B132" s="5" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -23563,7 +23563,7 @@
           <t>543</t>
         </is>
       </c>
-      <c r="F132" s="6" t="inlineStr">
+      <c r="F132" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -23900,7 +23900,7 @@
           <t>209</t>
         </is>
       </c>
-      <c r="AJ133" s="16" t="inlineStr">
+      <c r="AJ133" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -24239,7 +24239,7 @@
           <t>586</t>
         </is>
       </c>
-      <c r="AC135" s="17" t="inlineStr">
+      <c r="AC135" s="14" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -24588,7 +24588,7 @@
           <t>158</t>
         </is>
       </c>
-      <c r="X137" s="12" t="inlineStr">
+      <c r="X137" s="17" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -24628,7 +24628,7 @@
           <t>640</t>
         </is>
       </c>
-      <c r="AF137" s="15" t="inlineStr">
+      <c r="AF137" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -24775,7 +24775,7 @@
           <t>239</t>
         </is>
       </c>
-      <c r="X138" s="17" t="inlineStr">
+      <c r="X138" s="12" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -25151,7 +25151,7 @@
           <t>263</t>
         </is>
       </c>
-      <c r="G143" s="6" t="inlineStr">
+      <c r="G143" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -25423,7 +25423,7 @@
           <t>014</t>
         </is>
       </c>
-      <c r="X144" s="12" t="inlineStr">
+      <c r="X144" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -25510,7 +25510,7 @@
           <t>517</t>
         </is>
       </c>
-      <c r="D145" s="17" t="inlineStr">
+      <c r="D145" s="5" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -25949,7 +25949,7 @@
           <t>525</t>
         </is>
       </c>
-      <c r="Q147" s="10" t="inlineStr">
+      <c r="Q147" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -26226,7 +26226,7 @@
           <t>439</t>
         </is>
       </c>
-      <c r="AI148" s="17" t="inlineStr">
+      <c r="AI148" s="16" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -26540,7 +26540,7 @@
           <t>880</t>
         </is>
       </c>
-      <c r="W150" s="17" t="inlineStr">
+      <c r="W150" s="12" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -26929,7 +26929,7 @@
           <t>019</t>
         </is>
       </c>
-      <c r="Z152" s="13" t="inlineStr">
+      <c r="Z152" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -26939,7 +26939,7 @@
           <t>470</t>
         </is>
       </c>
-      <c r="AB152" s="17" t="inlineStr">
+      <c r="AB152" s="13" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -27076,12 +27076,12 @@
           <t>487</t>
         </is>
       </c>
-      <c r="R153" s="17" t="inlineStr">
+      <c r="R153" s="10" t="inlineStr">
         <is>
           <t>243</t>
         </is>
       </c>
-      <c r="S153" s="17" t="inlineStr">
+      <c r="S153" s="10" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -27218,7 +27218,7 @@
           <t>428</t>
         </is>
       </c>
-      <c r="I154" s="17" t="inlineStr">
+      <c r="I154" s="7" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -27662,7 +27662,7 @@
           <t>538</t>
         </is>
       </c>
-      <c r="W156" s="17" t="inlineStr">
+      <c r="W156" s="12" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -29203,7 +29203,7 @@
           <t>076</t>
         </is>
       </c>
-      <c r="AF164" s="17" t="inlineStr">
+      <c r="AF164" s="15" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -29335,7 +29335,7 @@
           <t>806</t>
         </is>
       </c>
-      <c r="U165" s="11" t="inlineStr">
+      <c r="U165" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -29502,7 +29502,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="Q166" s="10" t="inlineStr">
+      <c r="Q166" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -29614,7 +29614,7 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B167" s="5" t="inlineStr">
+      <c r="B167" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -30649,7 +30649,7 @@
           <t>317</t>
         </is>
       </c>
-      <c r="V172" s="11" t="inlineStr">
+      <c r="V172" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -30679,7 +30679,7 @@
           <t>620</t>
         </is>
       </c>
-      <c r="AB172" s="13" t="inlineStr">
+      <c r="AB172" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -30689,7 +30689,7 @@
           <t>909</t>
         </is>
       </c>
-      <c r="AD172" s="17" t="inlineStr">
+      <c r="AD172" s="14" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -31763,7 +31763,7 @@
           <t>462</t>
         </is>
       </c>
-      <c r="C181" s="17" t="inlineStr">
+      <c r="C181" s="5" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -31858,7 +31858,7 @@
           <t>803</t>
         </is>
       </c>
-      <c r="V181" s="17" t="inlineStr">
+      <c r="V181" s="11" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -32000,7 +32000,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="M182" s="8" t="inlineStr">
+      <c r="M182" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -32025,7 +32025,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="R182" s="10" t="inlineStr">
+      <c r="R182" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -32561,7 +32561,7 @@
           <t>950</t>
         </is>
       </c>
-      <c r="M185" s="8" t="inlineStr">
+      <c r="M185" s="17" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -32601,7 +32601,7 @@
           <t>841</t>
         </is>
       </c>
-      <c r="U185" s="11" t="inlineStr">
+      <c r="U185" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -32880,7 +32880,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B187" s="5" t="inlineStr">
+      <c r="B187" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -33010,7 +33010,7 @@
           <t>406</t>
         </is>
       </c>
-      <c r="AB187" s="13" t="inlineStr">
+      <c r="AB187" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -33217,7 +33217,7 @@
           <t>898</t>
         </is>
       </c>
-      <c r="AF188" s="17" t="inlineStr">
+      <c r="AF188" s="15" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -33409,7 +33409,7 @@
           <t>565</t>
         </is>
       </c>
-      <c r="AG189" s="17" t="inlineStr">
+      <c r="AG189" s="15" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -33536,7 +33536,7 @@
           <t>251</t>
         </is>
       </c>
-      <c r="U190" s="17" t="inlineStr">
+      <c r="U190" s="11" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -33728,7 +33728,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="V191" s="11" t="inlineStr">
+      <c r="V191" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -33738,7 +33738,7 @@
           <t>728</t>
         </is>
       </c>
-      <c r="X191" s="12" t="inlineStr">
+      <c r="X191" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -34022,7 +34022,7 @@
           <t>970</t>
         </is>
       </c>
-      <c r="F193" s="17" t="inlineStr">
+      <c r="F193" s="6" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -34107,7 +34107,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="W193" s="12" t="inlineStr">
+      <c r="W193" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -34152,7 +34152,7 @@
           <t>438</t>
         </is>
       </c>
-      <c r="AF193" s="15" t="inlineStr">
+      <c r="AF193" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -34618,7 +34618,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="M196" s="17" t="inlineStr">
+      <c r="M196" s="8" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -34713,7 +34713,7 @@
           <t>069</t>
         </is>
       </c>
-      <c r="AF196" s="17" t="inlineStr">
+      <c r="AF196" s="15" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -34738,7 +34738,7 @@
           <t>980</t>
         </is>
       </c>
-      <c r="AK196" s="16" t="inlineStr">
+      <c r="AK196" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -34925,7 +34925,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="AK197" s="16" t="inlineStr">
+      <c r="AK197" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -34942,7 +34942,7 @@
           <t>087</t>
         </is>
       </c>
-      <c r="C198" s="17" t="inlineStr">
+      <c r="C198" s="5" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -35007,7 +35007,7 @@
           <t>477</t>
         </is>
       </c>
-      <c r="P198" s="9" t="inlineStr">
+      <c r="P198" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -35092,7 +35092,7 @@
           <t>177</t>
         </is>
       </c>
-      <c r="AG198" s="15" t="inlineStr">
+      <c r="AG198" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -35259,7 +35259,7 @@
           <t>059</t>
         </is>
       </c>
-      <c r="AC199" s="17" t="inlineStr">
+      <c r="AC199" s="14" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -35346,7 +35346,7 @@
           <t>715</t>
         </is>
       </c>
-      <c r="I200" s="17" t="inlineStr">
+      <c r="I200" s="7" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -35987,7 +35987,7 @@
           <t>068</t>
         </is>
       </c>
-      <c r="Y203" s="17" t="inlineStr">
+      <c r="Y203" s="12" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -36528,7 +36528,7 @@
           <t>669</t>
         </is>
       </c>
-      <c r="U206" s="11" t="inlineStr">
+      <c r="U206" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -36750,7 +36750,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="AB207" s="13" t="inlineStr">
+      <c r="AB207" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -37368,7 +37368,7 @@
           <t>965</t>
         </is>
       </c>
-      <c r="V213" s="11" t="inlineStr">
+      <c r="V213" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -38116,7 +38116,7 @@
           <t>905</t>
         </is>
       </c>
-      <c r="V217" s="17" t="inlineStr">
+      <c r="V217" s="11" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -38318,7 +38318,7 @@
           <t>041</t>
         </is>
       </c>
-      <c r="Y218" s="12" t="inlineStr">
+      <c r="Y218" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -38395,7 +38395,7 @@
           <t>499</t>
         </is>
       </c>
-      <c r="C219" s="5" t="inlineStr">
+      <c r="C219" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -38410,7 +38410,7 @@
           <t>957</t>
         </is>
       </c>
-      <c r="F219" s="6" t="inlineStr">
+      <c r="F219" s="17" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -38637,7 +38637,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N220" s="9" t="inlineStr">
+      <c r="N220" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -38879,7 +38879,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="Y221" s="12" t="inlineStr">
+      <c r="Y221" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -38939,7 +38939,7 @@
           <t>018</t>
         </is>
       </c>
-      <c r="AK221" s="17" t="inlineStr">
+      <c r="AK221" s="16" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -39298,7 +39298,7 @@
           <t>795</t>
         </is>
       </c>
-      <c r="AH223" s="15" t="inlineStr">
+      <c r="AH223" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -39734,7 +39734,7 @@
           <t>488</t>
         </is>
       </c>
-      <c r="I226" s="17" t="inlineStr">
+      <c r="I226" s="7" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -39869,7 +39869,7 @@
           <t>411</t>
         </is>
       </c>
-      <c r="AJ226" s="17" t="inlineStr">
+      <c r="AJ226" s="16" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -40183,7 +40183,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="X228" s="17" t="inlineStr">
+      <c r="X228" s="12" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -40634,7 +40634,7 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B231" s="17" t="inlineStr">
+      <c r="B231" s="5" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -40759,7 +40759,7 @@
           <t>122</t>
         </is>
       </c>
-      <c r="AA231" s="17" t="inlineStr">
+      <c r="AA231" s="13" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -40981,7 +40981,7 @@
           <t>671</t>
         </is>
       </c>
-      <c r="AH232" s="17" t="inlineStr">
+      <c r="AH232" s="15" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -41088,7 +41088,7 @@
           <t>615</t>
         </is>
       </c>
-      <c r="R233" s="17" t="inlineStr">
+      <c r="R233" s="10" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -41629,7 +41629,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="N236" s="17" t="inlineStr">
+      <c r="N236" s="9" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -41821,7 +41821,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="O237" s="17" t="inlineStr">
+      <c r="O237" s="9" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -42068,7 +42068,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AA238" s="17" t="inlineStr">
+      <c r="AA238" s="13" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -42230,7 +42230,7 @@
           <t>881</t>
         </is>
       </c>
-      <c r="V239" s="17" t="inlineStr">
+      <c r="V239" s="11" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -42270,7 +42270,7 @@
           <t>670</t>
         </is>
       </c>
-      <c r="AD239" s="14" t="inlineStr">
+      <c r="AD239" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -42337,7 +42337,7 @@
           <t>228</t>
         </is>
       </c>
-      <c r="F240" s="17" t="inlineStr">
+      <c r="F240" s="6" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -42664,7 +42664,7 @@
           <t>491</t>
         </is>
       </c>
-      <c r="AH241" s="15" t="inlineStr">
+      <c r="AH241" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -42674,7 +42674,7 @@
           <t>677</t>
         </is>
       </c>
-      <c r="AJ241" s="16" t="inlineStr">
+      <c r="AJ241" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -43606,7 +43606,7 @@
           <t>568</t>
         </is>
       </c>
-      <c r="R249" s="10" t="inlineStr">
+      <c r="R249" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -43621,7 +43621,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="U249" s="11" t="inlineStr">
+      <c r="U249" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -43813,7 +43813,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="V250" s="11" t="inlineStr">
+      <c r="V250" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -43920,7 +43920,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="F251" s="17" t="inlineStr">
+      <c r="F251" s="6" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -44092,7 +44092,7 @@
           <t>752</t>
         </is>
       </c>
-      <c r="C252" s="17" t="inlineStr">
+      <c r="C252" s="5" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -44182,7 +44182,7 @@
           <t>813</t>
         </is>
       </c>
-      <c r="U252" s="17" t="inlineStr">
+      <c r="U252" s="11" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -44439,7 +44439,7 @@
           <t>320</t>
         </is>
       </c>
-      <c r="AI253" s="17" t="inlineStr">
+      <c r="AI253" s="16" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -45314,7 +45314,7 @@
           <t>047</t>
         </is>
       </c>
-      <c r="W258" s="17" t="inlineStr">
+      <c r="W258" s="12" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -46017,7 +46017,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="N262" s="9" t="inlineStr">
+      <c r="N262" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -46304,7 +46304,7 @@
           <t>756</t>
         </is>
       </c>
-      <c r="AH263" s="17" t="inlineStr">
+      <c r="AH263" s="15" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -47593,7 +47593,7 @@
           <t>549</t>
         </is>
       </c>
-      <c r="AD270" s="17" t="inlineStr">
+      <c r="AD270" s="14" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -47982,7 +47982,7 @@
           <t>080</t>
         </is>
       </c>
-      <c r="AG272" s="17" t="inlineStr">
+      <c r="AG272" s="15" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -48393,7 +48393,7 @@
           <t>753</t>
         </is>
       </c>
-      <c r="C275" s="5" t="inlineStr">
+      <c r="C275" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -48523,7 +48523,7 @@
           <t>315</t>
         </is>
       </c>
-      <c r="AC275" s="17" t="inlineStr">
+      <c r="AC275" s="14" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -49834,7 +49834,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="L285" s="8" t="inlineStr">
+      <c r="L285" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -49939,7 +49939,7 @@
           <t>621</t>
         </is>
       </c>
-      <c r="AG285" s="17" t="inlineStr">
+      <c r="AG285" s="15" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -50126,7 +50126,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="AG286" s="17" t="inlineStr">
+      <c r="AG286" s="15" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -50233,7 +50233,7 @@
           <t>325</t>
         </is>
       </c>
-      <c r="Q287" s="17" t="inlineStr">
+      <c r="Q287" s="10" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -50470,7 +50470,7 @@
           <t>642</t>
         </is>
       </c>
-      <c r="AA288" s="17" t="inlineStr">
+      <c r="AA288" s="13" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -50769,7 +50769,7 @@
           <t>987</t>
         </is>
       </c>
-      <c r="L290" s="8" t="inlineStr">
+      <c r="L290" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -51415,7 +51415,7 @@
           <t>320</t>
         </is>
       </c>
-      <c r="AC293" s="17" t="inlineStr">
+      <c r="AC293" s="14" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -51956,7 +51956,7 @@
           <t>769</t>
         </is>
       </c>
-      <c r="Y296" s="12" t="inlineStr">
+      <c r="Y296" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -52001,7 +52001,7 @@
           <t>905</t>
         </is>
       </c>
-      <c r="AH296" s="17" t="inlineStr">
+      <c r="AH296" s="15" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -52477,7 +52477,7 @@
           <t>477</t>
         </is>
       </c>
-      <c r="Q299" s="17" t="inlineStr">
+      <c r="Q299" s="10" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -52851,7 +52851,7 @@
           <t>130</t>
         </is>
       </c>
-      <c r="Q301" s="17" t="inlineStr">
+      <c r="Q301" s="10" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -52968,7 +52968,7 @@
           <t>528</t>
         </is>
       </c>
-      <c r="C302" s="5" t="inlineStr">
+      <c r="C302" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -53599,7 +53599,7 @@
           <t>607</t>
         </is>
       </c>
-      <c r="Q305" s="17" t="inlineStr">
+      <c r="Q305" s="10" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -53993,7 +53993,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="U307" s="11" t="inlineStr">
+      <c r="U307" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -54028,7 +54028,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="AB307" s="13" t="inlineStr">
+      <c r="AB307" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -54514,7 +54514,7 @@
           <t>428</t>
         </is>
       </c>
-      <c r="M310" s="17" t="inlineStr">
+      <c r="M310" s="8" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -54736,7 +54736,7 @@
           <t>743</t>
         </is>
       </c>
-      <c r="T311" s="17" t="inlineStr">
+      <c r="T311" s="11" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -54873,7 +54873,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="J312" s="17" t="inlineStr">
+      <c r="J312" s="7" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -55085,7 +55085,7 @@
           <t>615</t>
         </is>
       </c>
-      <c r="O313" s="9" t="inlineStr">
+      <c r="O313" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -55120,7 +55120,7 @@
           <t>928</t>
         </is>
       </c>
-      <c r="V313" s="11" t="inlineStr">
+      <c r="V313" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -55556,7 +55556,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="Q318" s="10" t="inlineStr">
+      <c r="Q318" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -56137,7 +56137,7 @@
           <t>816</t>
         </is>
       </c>
-      <c r="U321" s="17" t="inlineStr">
+      <c r="U321" s="11" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -56344,7 +56344,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="Y322" s="17" t="inlineStr">
+      <c r="Y322" s="12" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -56486,7 +56486,7 @@
           <t>362</t>
         </is>
       </c>
-      <c r="P323" s="17" t="inlineStr">
+      <c r="P323" s="9" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -56566,7 +56566,7 @@
           <t>949</t>
         </is>
       </c>
-      <c r="AF323" s="17" t="inlineStr">
+      <c r="AF323" s="15" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -56708,7 +56708,7 @@
           <t>847</t>
         </is>
       </c>
-      <c r="W324" s="17" t="inlineStr">
+      <c r="W324" s="12" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -57107,7 +57107,7 @@
           <t>631</t>
         </is>
       </c>
-      <c r="AB326" s="17" t="inlineStr">
+      <c r="AB326" s="13" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -57117,7 +57117,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="AD326" s="17" t="inlineStr">
+      <c r="AD326" s="14" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -57189,7 +57189,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="G327" s="17" t="inlineStr">
+      <c r="G327" s="6" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -57279,7 +57279,7 @@
           <t>855</t>
         </is>
       </c>
-      <c r="Y327" s="17" t="inlineStr">
+      <c r="Y327" s="12" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -57376,12 +57376,12 @@
           <t>325</t>
         </is>
       </c>
-      <c r="G328" s="17" t="inlineStr">
+      <c r="G328" s="6" t="inlineStr">
         <is>
           <t>243</t>
         </is>
       </c>
-      <c r="H328" s="17" t="inlineStr">
+      <c r="H328" s="7" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -57426,7 +57426,7 @@
           <t>015</t>
         </is>
       </c>
-      <c r="Q328" s="17" t="inlineStr">
+      <c r="Q328" s="10" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -57688,7 +57688,7 @@
           <t>613</t>
         </is>
       </c>
-      <c r="AF329" s="15" t="inlineStr">
+      <c r="AF329" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -57790,7 +57790,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="O330" s="9" t="inlineStr">
+      <c r="O330" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -57942,7 +57942,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="H331" s="7" t="inlineStr">
+      <c r="H331" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -58139,7 +58139,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="J332" s="17" t="inlineStr">
+      <c r="J332" s="7" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -58229,7 +58229,7 @@
           <t>374</t>
         </is>
       </c>
-      <c r="AB332" s="13" t="inlineStr">
+      <c r="AB332" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -58638,7 +58638,7 @@
           <t>165</t>
         </is>
       </c>
-      <c r="AI334" s="17" t="inlineStr">
+      <c r="AI334" s="16" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -59114,7 +59114,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="R337" s="17" t="inlineStr">
+      <c r="R337" s="10" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -59226,7 +59226,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="C338" s="5" t="inlineStr">
+      <c r="C338" s="17" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -59266,7 +59266,7 @@
           <t>419</t>
         </is>
       </c>
-      <c r="K338" s="17" t="inlineStr">
+      <c r="K338" s="8" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -59685,7 +59685,7 @@
           <t>902</t>
         </is>
       </c>
-      <c r="T340" s="11" t="inlineStr">
+      <c r="T340" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -60024,7 +60024,7 @@
           <t>590</t>
         </is>
       </c>
-      <c r="M342" s="17" t="inlineStr">
+      <c r="M342" s="8" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -60296,7 +60296,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="AD343" s="17" t="inlineStr">
+      <c r="AD343" s="14" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -61727,7 +61727,7 @@
           <t>375</t>
         </is>
       </c>
-      <c r="AK353" s="17" t="inlineStr">
+      <c r="AK353" s="16" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -62410,7 +62410,7 @@
           <t>855</t>
         </is>
       </c>
-      <c r="X357" s="12" t="inlineStr">
+      <c r="X357" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -62921,7 +62921,7 @@
           <t>909</t>
         </is>
       </c>
-      <c r="N360" s="17" t="inlineStr">
+      <c r="N360" s="9" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -63031,7 +63031,7 @@
           <t>785</t>
         </is>
       </c>
-      <c r="AJ360" s="17" t="inlineStr">
+      <c r="AJ360" s="16" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -63143,7 +63143,7 @@
           <t>089</t>
         </is>
       </c>
-      <c r="U361" s="17" t="inlineStr">
+      <c r="U361" s="11" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -64048,7 +64048,7 @@
           <t>851</t>
         </is>
       </c>
-      <c r="O366" s="17" t="inlineStr">
+      <c r="O366" s="9" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -64158,7 +64158,7 @@
           <t>047</t>
         </is>
       </c>
-      <c r="AK366" s="17" t="inlineStr">
+      <c r="AK366" s="16" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -64392,7 +64392,7 @@
           <t>412</t>
         </is>
       </c>
-      <c r="I368" s="7" t="inlineStr">
+      <c r="I368" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -64447,7 +64447,7 @@
           <t>708</t>
         </is>
       </c>
-      <c r="T368" s="11" t="inlineStr">
+      <c r="T368" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -64719,7 +64719,7 @@
           <t>009</t>
         </is>
       </c>
-      <c r="AK369" s="17" t="inlineStr">
+      <c r="AK369" s="16" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -64861,7 +64861,7 @@
           <t>582</t>
         </is>
       </c>
-      <c r="AB370" s="17" t="inlineStr">
+      <c r="AB370" s="13" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -64953,7 +64953,7 @@
           <t>617</t>
         </is>
       </c>
-      <c r="I371" s="17" t="inlineStr">
+      <c r="I371" s="7" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -64963,7 +64963,7 @@
           <t>020</t>
         </is>
       </c>
-      <c r="K371" s="8" t="inlineStr">
+      <c r="K371" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -65003,7 +65003,7 @@
           <t>872</t>
         </is>
       </c>
-      <c r="S371" s="17" t="inlineStr">
+      <c r="S371" s="10" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -65412,7 +65412,7 @@
           <t>035</t>
         </is>
       </c>
-      <c r="Z373" s="17" t="inlineStr">
+      <c r="Z373" s="13" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -65422,7 +65422,7 @@
           <t>678</t>
         </is>
       </c>
-      <c r="AB373" s="17" t="inlineStr">
+      <c r="AB373" s="13" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -65786,7 +65786,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="Z375" s="13" t="inlineStr">
+      <c r="Z375" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -66145,7 +66145,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="W377" s="12" t="inlineStr">
+      <c r="W377" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -66272,7 +66272,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K378" s="17" t="inlineStr">
+      <c r="K378" s="8" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -66327,7 +66327,7 @@
           <t>206</t>
         </is>
       </c>
-      <c r="V378" s="17" t="inlineStr">
+      <c r="V378" s="11" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -66387,7 +66387,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="AH378" s="17" t="inlineStr">
+      <c r="AH378" s="15" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -66549,7 +66549,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="AC379" s="17" t="inlineStr">
+      <c r="AC379" s="14" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -66706,7 +66706,7 @@
           <t>090</t>
         </is>
       </c>
-      <c r="W380" s="12" t="inlineStr">
+      <c r="W380" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -66731,7 +66731,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="AB380" s="13" t="inlineStr">
+      <c r="AB380" s="17" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -66853,7 +66853,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="O381" s="17" t="inlineStr">
+      <c r="O381" s="9" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -67060,7 +67060,7 @@
           <t>132</t>
         </is>
       </c>
-      <c r="S382" s="10" t="inlineStr">
+      <c r="S382" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -67095,7 +67095,7 @@
           <t>626</t>
         </is>
       </c>
-      <c r="Z382" s="17" t="inlineStr">
+      <c r="Z382" s="13" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -67758,7 +67758,7 @@
           <t>641</t>
         </is>
       </c>
-      <c r="AC388" s="14" t="inlineStr">
+      <c r="AC388" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -67835,7 +67835,7 @@
           <t>351</t>
         </is>
       </c>
-      <c r="G389" s="17" t="inlineStr">
+      <c r="G389" s="6" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -67865,7 +67865,7 @@
           <t>366</t>
         </is>
       </c>
-      <c r="M389" s="8" t="inlineStr">
+      <c r="M389" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -67915,7 +67915,7 @@
           <t>816</t>
         </is>
       </c>
-      <c r="W389" s="12" t="inlineStr">
+      <c r="W389" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -68476,7 +68476,7 @@
           <t>912</t>
         </is>
       </c>
-      <c r="W392" s="12" t="inlineStr">
+      <c r="W392" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -69279,7 +69279,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="AH396" s="17" t="inlineStr">
+      <c r="AH396" s="15" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -69907,7 +69907,7 @@
           <t>438</t>
         </is>
       </c>
-      <c r="J400" s="7" t="inlineStr">
+      <c r="J400" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -70271,7 +70271,7 @@
           <t>088</t>
         </is>
       </c>
-      <c r="H402" s="17" t="inlineStr">
+      <c r="H402" s="7" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -70316,7 +70316,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="Q402" s="10" t="inlineStr">
+      <c r="Q402" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -70351,7 +70351,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="X402" s="12" t="inlineStr">
+      <c r="X402" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -70715,7 +70715,7 @@
           <t>210</t>
         </is>
       </c>
-      <c r="V404" s="17" t="inlineStr">
+      <c r="V404" s="11" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -71630,7 +71630,7 @@
           <t>618</t>
         </is>
       </c>
-      <c r="R409" s="10" t="inlineStr">
+      <c r="R409" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -72216,7 +72216,7 @@
           <t>836</t>
         </is>
       </c>
-      <c r="W412" s="17" t="inlineStr">
+      <c r="W412" s="12" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -72298,7 +72298,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B413" s="17" t="inlineStr">
+      <c r="B413" s="5" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -72453,7 +72453,7 @@
           <t>842</t>
         </is>
       </c>
-      <c r="AG413" s="17" t="inlineStr">
+      <c r="AG413" s="15" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -72832,7 +72832,7 @@
           <t>974</t>
         </is>
       </c>
-      <c r="AH415" s="15" t="inlineStr">
+      <c r="AH415" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -72979,7 +72979,7 @@
           <t>078</t>
         </is>
       </c>
-      <c r="Z416" s="13" t="inlineStr">
+      <c r="Z416" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -73019,7 +73019,7 @@
           <t>327</t>
         </is>
       </c>
-      <c r="AH416" s="15" t="inlineStr">
+      <c r="AH416" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -73196,7 +73196,7 @@
           <t>515</t>
         </is>
       </c>
-      <c r="AF417" s="15" t="inlineStr">
+      <c r="AF417" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -73348,7 +73348,7 @@
           <t>053</t>
         </is>
       </c>
-      <c r="Y418" s="17" t="inlineStr">
+      <c r="Y418" s="12" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -73378,7 +73378,7 @@
           <t>317</t>
         </is>
       </c>
-      <c r="AE418" s="17" t="inlineStr">
+      <c r="AE418" s="14" t="inlineStr">
         <is>
           <t>072</t>
         </is>
@@ -73714,7 +73714,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="F423" s="6" t="inlineStr">
+      <c r="F423" s="17" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -73839,7 +73839,7 @@
           <t>968</t>
         </is>
       </c>
-      <c r="AE423" s="14" t="inlineStr">
+      <c r="AE423" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -73911,7 +73911,7 @@
           <t>855</t>
         </is>
       </c>
-      <c r="H424" s="17" t="inlineStr">
+      <c r="H424" s="7" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -74073,7 +74073,7 @@
           <t>750</t>
         </is>
       </c>
-      <c r="C425" s="17" t="inlineStr">
+      <c r="C425" s="5" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -74739,7 +74739,7 @@
           <t>586</t>
         </is>
       </c>
-      <c r="X428" s="17" t="inlineStr">
+      <c r="X428" s="12" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -74976,7 +74976,7 @@
           <t>921</t>
         </is>
       </c>
-      <c r="AH429" s="17" t="inlineStr">
+      <c r="AH429" s="15" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -75068,7 +75068,7 @@
           <t>725</t>
         </is>
       </c>
-      <c r="O430" s="9" t="inlineStr">
+      <c r="O430" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -75427,7 +75427,7 @@
           <t>884</t>
         </is>
       </c>
-      <c r="L432" s="8" t="inlineStr">
+      <c r="L432" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -75776,7 +75776,7 @@
           <t>323</t>
         </is>
       </c>
-      <c r="G434" s="6" t="inlineStr">
+      <c r="G434" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -76113,7 +76113,7 @@
           <t>384</t>
         </is>
       </c>
-      <c r="AK435" s="17" t="inlineStr">
+      <c r="AK435" s="16" t="inlineStr">
         <is>
           <t>432</t>
         </is>
@@ -76392,7 +76392,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="R437" s="17" t="inlineStr">
+      <c r="R437" s="10" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -76711,7 +76711,7 @@
           <t>135</t>
         </is>
       </c>
-      <c r="G439" s="6" t="inlineStr">
+      <c r="G439" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -76888,7 +76888,7 @@
           <t>805</t>
         </is>
       </c>
-      <c r="E440" s="6" t="inlineStr">
+      <c r="E440" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -76973,7 +76973,7 @@
           <t>685</t>
         </is>
       </c>
-      <c r="V440" s="17" t="inlineStr">
+      <c r="V440" s="11" t="inlineStr">
         <is>
           <t>207</t>
         </is>
@@ -77210,7 +77210,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="AF441" s="15" t="inlineStr">
+      <c r="AF441" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -77347,7 +77347,7 @@
           <t>998</t>
         </is>
       </c>
-      <c r="V442" s="11" t="inlineStr">
+      <c r="V442" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -77559,7 +77559,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="AA443" s="13" t="inlineStr">
+      <c r="AA443" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -77609,7 +77609,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="AK443" s="16" t="inlineStr">
+      <c r="AK443" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -77888,7 +77888,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="R445" s="17" t="inlineStr">
+      <c r="R445" s="10" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -77928,7 +77928,7 @@
           <t>541</t>
         </is>
       </c>
-      <c r="Z445" s="13" t="inlineStr">
+      <c r="Z445" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -77938,7 +77938,7 @@
           <t>258</t>
         </is>
       </c>
-      <c r="AB445" s="17" t="inlineStr">
+      <c r="AB445" s="13" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -79035,7 +79035,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="W451" s="12" t="inlineStr">
+      <c r="W451" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -79399,7 +79399,7 @@
           <t>677</t>
         </is>
       </c>
-      <c r="U453" s="17" t="inlineStr">
+      <c r="U453" s="11" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -79835,7 +79835,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="P458" s="9" t="inlineStr">
+      <c r="P458" s="17" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -79870,7 +79870,7 @@
           <t>310</t>
         </is>
       </c>
-      <c r="W458" s="17" t="inlineStr">
+      <c r="W458" s="12" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -80072,7 +80072,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="Z459" s="13" t="inlineStr">
+      <c r="Z459" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -80249,7 +80249,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="X460" s="17" t="inlineStr">
+      <c r="X460" s="12" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -80381,7 +80381,7 @@
           <t>189</t>
         </is>
       </c>
-      <c r="M461" s="8" t="inlineStr">
+      <c r="M461" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -80568,7 +80568,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="M462" s="17" t="inlineStr">
+      <c r="M462" s="8" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -80688,7 +80688,7 @@
           <t>542</t>
         </is>
       </c>
-      <c r="AK462" s="17" t="inlineStr">
+      <c r="AK462" s="16" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -81234,7 +81234,7 @@
           <t>689</t>
         </is>
       </c>
-      <c r="AH465" s="15" t="inlineStr">
+      <c r="AH465" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -81458,7 +81458,7 @@
           <t>294</t>
         </is>
       </c>
-      <c r="D467" s="5" t="inlineStr">
+      <c r="D467" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -81613,7 +81613,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="AI467" s="17" t="inlineStr">
+      <c r="AI467" s="16" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -81675,7 +81675,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="J468" s="17" t="inlineStr">
+      <c r="J468" s="7" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -83428,7 +83428,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="X477" s="17" t="inlineStr">
+      <c r="X477" s="12" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -83650,7 +83650,7 @@
           <t>741</t>
         </is>
       </c>
-      <c r="AE478" s="17" t="inlineStr">
+      <c r="AE478" s="14" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -83817,7 +83817,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AA479" s="17" t="inlineStr">
+      <c r="AA479" s="13" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -83909,7 +83909,7 @@
           <t>551</t>
         </is>
       </c>
-      <c r="H480" s="17" t="inlineStr">
+      <c r="H480" s="7" t="inlineStr">
         <is>
           <t>234</t>
         </is>
@@ -84096,7 +84096,7 @@
           <t>186</t>
         </is>
       </c>
-      <c r="H481" s="17" t="inlineStr">
+      <c r="H481" s="7" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -84141,7 +84141,7 @@
           <t>233</t>
         </is>
       </c>
-      <c r="Q481" s="10" t="inlineStr">
+      <c r="Q481" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -84151,7 +84151,7 @@
           <t>707</t>
         </is>
       </c>
-      <c r="S481" s="17" t="inlineStr">
+      <c r="S481" s="10" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -85066,7 +85066,7 @@
           <t>369</t>
         </is>
       </c>
-      <c r="O486" s="17" t="inlineStr">
+      <c r="O486" s="9" t="inlineStr">
         <is>
           <t>702</t>
         </is>
@@ -85233,7 +85233,7 @@
           <t>436</t>
         </is>
       </c>
-      <c r="K487" s="17" t="inlineStr">
+      <c r="K487" s="8" t="inlineStr">
         <is>
           <t>243</t>
         </is>
@@ -86001,7 +86001,7 @@
           <t>712</t>
         </is>
       </c>
-      <c r="AI493" s="16" t="inlineStr">
+      <c r="AI493" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -86048,7 +86048,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="G494" s="6" t="inlineStr">
+      <c r="G494" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -86791,7 +86791,7 @@
           <t>410</t>
         </is>
       </c>
-      <c r="F498" s="6" t="inlineStr">
+      <c r="F498" s="17" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -87123,7 +87123,7 @@
           <t>911</t>
         </is>
       </c>
-      <c r="AI499" s="16" t="inlineStr">
+      <c r="AI499" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -87133,7 +87133,7 @@
           <t>355</t>
         </is>
       </c>
-      <c r="AK499" s="16" t="inlineStr">
+      <c r="AK499" s="17" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -87290,7 +87290,7 @@
           <t>964</t>
         </is>
       </c>
-      <c r="AE500" s="14" t="inlineStr">
+      <c r="AE500" s="17" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -87684,7 +87684,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="AI502" s="17" t="inlineStr">
+      <c r="AI502" s="16" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -87706,7 +87706,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B503" s="5" t="inlineStr">
+      <c r="B503" s="17" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -88100,7 +88100,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="F505" s="17" t="inlineStr">
+      <c r="F505" s="6" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -88614,7 +88614,7 @@
           <t>583</t>
         </is>
       </c>
-      <c r="AH507" s="17" t="inlineStr">
+      <c r="AH507" s="15" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -89357,7 +89357,7 @@
           <t>558</t>
         </is>
       </c>
-      <c r="AG511" s="15" t="inlineStr">
+      <c r="AG511" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -90095,7 +90095,7 @@
           <t>939</t>
         </is>
       </c>
-      <c r="AE515" s="17" t="inlineStr">
+      <c r="AE515" s="14" t="inlineStr">
         <is>
           <t>270</t>
         </is>
@@ -90521,7 +90521,7 @@
           <t>043</t>
         </is>
       </c>
-      <c r="D518" s="5" t="inlineStr">
+      <c r="D518" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -90698,12 +90698,12 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B519" s="17" t="inlineStr">
+      <c r="B519" s="5" t="inlineStr">
         <is>
           <t>324</t>
         </is>
       </c>
-      <c r="C519" s="17" t="inlineStr">
+      <c r="C519" s="5" t="inlineStr">
         <is>
           <t>720</t>
         </is>
@@ -90823,7 +90823,7 @@
           <t>448</t>
         </is>
       </c>
-      <c r="AA519" s="17" t="inlineStr">
+      <c r="AA519" s="13" t="inlineStr">
         <is>
           <t>423</t>
         </is>
@@ -91259,12 +91259,12 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B522" s="5" t="inlineStr">
+      <c r="B522" s="17" t="inlineStr">
         <is>
           <t>199</t>
         </is>
       </c>
-      <c r="C522" s="5" t="inlineStr">
+      <c r="C522" s="17" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -91989,7 +91989,7 @@
           <t>975</t>
         </is>
       </c>
-      <c r="F533" s="17" t="inlineStr">
+      <c r="F533" s="6" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -92103,7 +92103,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="H535" s="17" t="inlineStr">
+      <c r="H535" s="7" t="inlineStr">
         <is>
           <t>342</t>
         </is>
@@ -92254,7 +92254,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="G538" s="6" t="inlineStr">
+      <c r="G538" s="17" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -92462,7 +92462,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="G542" s="17" t="inlineStr">
+      <c r="G542" s="6" t="inlineStr">
         <is>
           <t>324</t>
         </is>
@@ -92546,7 +92546,7 @@
           <t>622</t>
         </is>
       </c>
-      <c r="C544" s="17" t="inlineStr">
+      <c r="C544" s="5" t="inlineStr">
         <is>
           <t>027</t>
         </is>
@@ -92893,7 +92893,7 @@
           <t>404</t>
         </is>
       </c>
-      <c r="J550" s="7" t="inlineStr">
+      <c r="J550" s="17" t="inlineStr">
         <is>
           <t>560</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -43,12 +43,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff6666"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="00ff6666"/>
       </patternFill>
     </fill>
     <fill>
@@ -220,7 +220,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,7 +1376,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH5" s="15" t="inlineStr">
+      <c r="AH5" s="17" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -2176,7 +2176,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G10" s="17" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -2206,7 +2206,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M10" s="17" t="inlineStr">
+      <c r="M10" s="8" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -2722,7 +2722,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D13" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -3605,7 +3605,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE17" s="17" t="inlineStr">
+      <c r="AE17" s="14" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -5086,7 +5086,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB25" s="13" t="inlineStr">
+      <c r="AB25" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -7205,7 +7205,7 @@
           <t>225</t>
         </is>
       </c>
-      <c r="W39" s="12" t="inlineStr">
+      <c r="W39" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -7848,7 +7848,7 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B43" s="17" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -8439,7 +8439,7 @@
           <t>928</t>
         </is>
       </c>
-      <c r="H46" s="7" t="inlineStr">
+      <c r="H46" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -9262,7 +9262,7 @@
           <t>955</t>
         </is>
       </c>
-      <c r="W50" s="17" t="inlineStr">
+      <c r="W50" s="12" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -10177,7 +10177,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S55" s="17" t="inlineStr">
+      <c r="S55" s="10" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -10339,7 +10339,7 @@
           <t>015</t>
         </is>
       </c>
-      <c r="N56" s="9" t="inlineStr">
+      <c r="N56" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -10414,7 +10414,7 @@
           <t>837</t>
         </is>
       </c>
-      <c r="AC56" s="17" t="inlineStr">
+      <c r="AC56" s="14" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -10586,7 +10586,7 @@
           <t>767</t>
         </is>
       </c>
-      <c r="Z57" s="17" t="inlineStr">
+      <c r="Z57" s="13" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -10798,7 +10798,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE58" s="14" t="inlineStr">
+      <c r="AE58" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -10813,7 +10813,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH58" s="17" t="inlineStr">
+      <c r="AH58" s="15" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -10975,7 +10975,7 @@
           <t>327</t>
         </is>
       </c>
-      <c r="AC59" s="14" t="inlineStr">
+      <c r="AC59" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -12314,7 +12314,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="AI66" s="17" t="inlineStr">
+      <c r="AI66" s="16" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -13211,7 +13211,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J74" s="17" t="inlineStr">
+      <c r="J74" s="7" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -13316,7 +13316,7 @@
           <t>857</t>
         </is>
       </c>
-      <c r="AE74" s="14" t="inlineStr">
+      <c r="AE74" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -13882,7 +13882,7 @@
           <t>753</t>
         </is>
       </c>
-      <c r="AF77" s="17" t="inlineStr">
+      <c r="AF77" s="15" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -13959,7 +13959,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J78" s="7" t="inlineStr">
+      <c r="J78" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -13984,7 +13984,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="O78" s="17" t="inlineStr">
+      <c r="O78" s="9" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -14216,7 +14216,7 @@
           <t>598</t>
         </is>
       </c>
-      <c r="X79" s="12" t="inlineStr">
+      <c r="X79" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -14383,7 +14383,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="T80" s="17" t="inlineStr">
+      <c r="T80" s="11" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -14560,7 +14560,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="R81" s="17" t="inlineStr">
+      <c r="R81" s="10" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -14787,7 +14787,7 @@
           <t>946</t>
         </is>
       </c>
-      <c r="Z82" s="13" t="inlineStr">
+      <c r="Z82" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -14869,7 +14869,7 @@
           <t>313</t>
         </is>
       </c>
-      <c r="E83" s="17" t="inlineStr">
+      <c r="E83" s="6" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -14984,12 +14984,12 @@
           <t>023</t>
         </is>
       </c>
-      <c r="AB83" s="17" t="inlineStr">
+      <c r="AB83" s="13" t="inlineStr">
         <is>
           <t>650</t>
         </is>
       </c>
-      <c r="AC83" s="17" t="inlineStr">
+      <c r="AC83" s="14" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -15009,7 +15009,7 @@
           <t>211</t>
         </is>
       </c>
-      <c r="AG83" s="15" t="inlineStr">
+      <c r="AG83" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -15121,7 +15121,7 @@
           <t>900</t>
         </is>
       </c>
-      <c r="R84" s="10" t="inlineStr">
+      <c r="R84" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -15348,7 +15348,7 @@
           <t>136</t>
         </is>
       </c>
-      <c r="Z85" s="17" t="inlineStr">
+      <c r="Z85" s="13" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -15363,7 +15363,7 @@
           <t>269</t>
         </is>
       </c>
-      <c r="AC85" s="17" t="inlineStr">
+      <c r="AC85" s="14" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -15657,7 +15657,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="M87" s="8" t="inlineStr">
+      <c r="M87" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -16662,7 +16662,7 @@
           <t>283</t>
         </is>
       </c>
-      <c r="AA92" s="13" t="inlineStr">
+      <c r="AA92" s="17" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -16839,7 +16839,7 @@
           <t>558</t>
         </is>
       </c>
-      <c r="Y93" s="12" t="inlineStr">
+      <c r="Y93" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -16859,7 +16859,7 @@
           <t>501</t>
         </is>
       </c>
-      <c r="AC93" s="14" t="inlineStr">
+      <c r="AC93" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -17036,7 +17036,7 @@
           <t>028</t>
         </is>
       </c>
-      <c r="AA94" s="17" t="inlineStr">
+      <c r="AA94" s="13" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -17203,7 +17203,7 @@
           <t>680</t>
         </is>
       </c>
-      <c r="W95" s="12" t="inlineStr">
+      <c r="W95" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -17607,7 +17607,7 @@
           <t>318</t>
         </is>
       </c>
-      <c r="AC97" s="14" t="inlineStr">
+      <c r="AC97" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -18048,7 +18048,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="E100" s="17" t="inlineStr">
+      <c r="E100" s="6" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -18123,7 +18123,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="T100" s="11" t="inlineStr">
+      <c r="T100" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -19519,7 +19519,7 @@
           <t>247</t>
         </is>
       </c>
-      <c r="T110" s="17" t="inlineStr">
+      <c r="T110" s="11" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -20287,7 +20287,7 @@
           <t>881</t>
         </is>
       </c>
-      <c r="X114" s="17" t="inlineStr">
+      <c r="X114" s="12" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -21030,7 +21030,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="W118" s="12" t="inlineStr">
+      <c r="W118" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -21848,7 +21848,7 @@
           <t>297</t>
         </is>
       </c>
-      <c r="AK122" s="16" t="inlineStr">
+      <c r="AK122" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -21865,7 +21865,7 @@
           <t>172</t>
         </is>
       </c>
-      <c r="C123" s="17" t="inlineStr">
+      <c r="C123" s="5" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -21940,7 +21940,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="R123" s="10" t="inlineStr">
+      <c r="R123" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -21975,7 +21975,7 @@
           <t>597</t>
         </is>
       </c>
-      <c r="Y123" s="12" t="inlineStr">
+      <c r="Y123" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -22192,7 +22192,7 @@
           <t>538</t>
         </is>
       </c>
-      <c r="AE124" s="17" t="inlineStr">
+      <c r="AE124" s="14" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -22436,7 +22436,7 @@
           <t>277</t>
         </is>
       </c>
-      <c r="E126" s="17" t="inlineStr">
+      <c r="E126" s="6" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -22653,7 +22653,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="K127" s="8" t="inlineStr">
+      <c r="K127" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -22663,7 +22663,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="M127" s="17" t="inlineStr">
+      <c r="M127" s="8" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -22773,7 +22773,7 @@
           <t>978</t>
         </is>
       </c>
-      <c r="AI127" s="17" t="inlineStr">
+      <c r="AI127" s="16" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -23461,7 +23461,7 @@
           <t>205</t>
         </is>
       </c>
-      <c r="W131" s="17" t="inlineStr">
+      <c r="W131" s="12" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -23501,7 +23501,7 @@
           <t>827</t>
         </is>
       </c>
-      <c r="AE131" s="17" t="inlineStr">
+      <c r="AE131" s="14" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -23563,7 +23563,7 @@
           <t>543</t>
         </is>
       </c>
-      <c r="F132" s="17" t="inlineStr">
+      <c r="F132" s="6" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -23900,7 +23900,7 @@
           <t>209</t>
         </is>
       </c>
-      <c r="AJ133" s="17" t="inlineStr">
+      <c r="AJ133" s="16" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -24588,12 +24588,12 @@
           <t>158</t>
         </is>
       </c>
-      <c r="X137" s="17" t="inlineStr">
+      <c r="X137" s="12" t="inlineStr">
         <is>
           <t>065</t>
         </is>
       </c>
-      <c r="Y137" s="12" t="inlineStr">
+      <c r="Y137" s="17" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -24628,7 +24628,7 @@
           <t>640</t>
         </is>
       </c>
-      <c r="AF137" s="17" t="inlineStr">
+      <c r="AF137" s="15" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -24735,7 +24735,7 @@
           <t>080</t>
         </is>
       </c>
-      <c r="P138" s="9" t="inlineStr">
+      <c r="P138" s="17" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -25151,7 +25151,7 @@
           <t>263</t>
         </is>
       </c>
-      <c r="G143" s="17" t="inlineStr">
+      <c r="G143" s="6" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -25423,7 +25423,7 @@
           <t>014</t>
         </is>
       </c>
-      <c r="X144" s="17" t="inlineStr">
+      <c r="X144" s="12" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -25934,7 +25934,7 @@
           <t>750</t>
         </is>
       </c>
-      <c r="N147" s="9" t="inlineStr">
+      <c r="N147" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -25949,7 +25949,7 @@
           <t>525</t>
         </is>
       </c>
-      <c r="Q147" s="17" t="inlineStr">
+      <c r="Q147" s="10" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -26403,7 +26403,7 @@
           <t>905</t>
         </is>
       </c>
-      <c r="AG149" s="15" t="inlineStr">
+      <c r="AG149" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -26545,7 +26545,7 @@
           <t>720</t>
         </is>
       </c>
-      <c r="X150" s="12" t="inlineStr">
+      <c r="X150" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -26929,7 +26929,7 @@
           <t>019</t>
         </is>
       </c>
-      <c r="Z152" s="17" t="inlineStr">
+      <c r="Z152" s="13" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -27001,7 +27001,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="C153" s="5" t="inlineStr">
+      <c r="C153" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -27136,7 +27136,7 @@
           <t>078</t>
         </is>
       </c>
-      <c r="AD153" s="14" t="inlineStr">
+      <c r="AD153" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -27183,7 +27183,7 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B154" s="5" t="inlineStr">
+      <c r="B154" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -28238,7 +28238,7 @@
           <t>710</t>
         </is>
       </c>
-      <c r="Z159" s="13" t="inlineStr">
+      <c r="Z159" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -28956,7 +28956,7 @@
           <t>624</t>
         </is>
       </c>
-      <c r="T163" s="11" t="inlineStr">
+      <c r="T163" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -29335,7 +29335,7 @@
           <t>806</t>
         </is>
       </c>
-      <c r="U165" s="17" t="inlineStr">
+      <c r="U165" s="11" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -29502,7 +29502,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="Q166" s="17" t="inlineStr">
+      <c r="Q166" s="10" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -29614,7 +29614,7 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B167" s="17" t="inlineStr">
+      <c r="B167" s="5" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -30148,7 +30148,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="AH169" s="15" t="inlineStr">
+      <c r="AH169" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -30215,7 +30215,7 @@
           <t>085</t>
         </is>
       </c>
-      <c r="J170" s="7" t="inlineStr">
+      <c r="J170" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -30649,7 +30649,7 @@
           <t>317</t>
         </is>
       </c>
-      <c r="V172" s="17" t="inlineStr">
+      <c r="V172" s="11" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -30664,7 +30664,7 @@
           <t>541</t>
         </is>
       </c>
-      <c r="Y172" s="12" t="inlineStr">
+      <c r="Y172" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -30679,7 +30679,7 @@
           <t>620</t>
         </is>
       </c>
-      <c r="AB172" s="17" t="inlineStr">
+      <c r="AB172" s="13" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -31474,7 +31474,7 @@
           <t>482</t>
         </is>
       </c>
-      <c r="T179" s="11" t="inlineStr">
+      <c r="T179" s="17" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -32000,7 +32000,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="M182" s="17" t="inlineStr">
+      <c r="M182" s="8" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -32025,7 +32025,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="R182" s="17" t="inlineStr">
+      <c r="R182" s="10" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -32040,7 +32040,7 @@
           <t>542</t>
         </is>
       </c>
-      <c r="U182" s="11" t="inlineStr">
+      <c r="U182" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -32267,7 +32267,7 @@
           <t>125</t>
         </is>
       </c>
-      <c r="AC183" s="14" t="inlineStr">
+      <c r="AC183" s="17" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -32561,7 +32561,7 @@
           <t>950</t>
         </is>
       </c>
-      <c r="M185" s="17" t="inlineStr">
+      <c r="M185" s="8" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -32601,7 +32601,7 @@
           <t>841</t>
         </is>
       </c>
-      <c r="U185" s="17" t="inlineStr">
+      <c r="U185" s="11" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -32880,7 +32880,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B187" s="17" t="inlineStr">
+      <c r="B187" s="5" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -33010,7 +33010,7 @@
           <t>406</t>
         </is>
       </c>
-      <c r="AB187" s="17" t="inlineStr">
+      <c r="AB187" s="13" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -33142,7 +33142,7 @@
           <t>761</t>
         </is>
       </c>
-      <c r="Q188" s="10" t="inlineStr">
+      <c r="Q188" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -33728,7 +33728,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="V191" s="17" t="inlineStr">
+      <c r="V191" s="11" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -33738,7 +33738,7 @@
           <t>728</t>
         </is>
       </c>
-      <c r="X191" s="17" t="inlineStr">
+      <c r="X191" s="12" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -34107,7 +34107,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="W193" s="17" t="inlineStr">
+      <c r="W193" s="12" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -34152,7 +34152,7 @@
           <t>438</t>
         </is>
       </c>
-      <c r="AF193" s="17" t="inlineStr">
+      <c r="AF193" s="15" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -34738,7 +34738,7 @@
           <t>980</t>
         </is>
       </c>
-      <c r="AK196" s="17" t="inlineStr">
+      <c r="AK196" s="16" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -34925,7 +34925,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="AK197" s="17" t="inlineStr">
+      <c r="AK197" s="16" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -34957,7 +34957,7 @@
           <t>689</t>
         </is>
       </c>
-      <c r="F198" s="6" t="inlineStr">
+      <c r="F198" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -35007,7 +35007,7 @@
           <t>477</t>
         </is>
       </c>
-      <c r="P198" s="17" t="inlineStr">
+      <c r="P198" s="9" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -35092,7 +35092,7 @@
           <t>177</t>
         </is>
       </c>
-      <c r="AG198" s="17" t="inlineStr">
+      <c r="AG198" s="15" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -35690,7 +35690,7 @@
           <t>045</t>
         </is>
       </c>
-      <c r="C202" s="5" t="inlineStr">
+      <c r="C202" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -36301,12 +36301,12 @@
           <t>131</t>
         </is>
       </c>
-      <c r="M205" s="8" t="inlineStr">
+      <c r="M205" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
       </c>
-      <c r="N205" s="9" t="inlineStr">
+      <c r="N205" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -36528,7 +36528,7 @@
           <t>669</t>
         </is>
       </c>
-      <c r="U206" s="17" t="inlineStr">
+      <c r="U206" s="11" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -36750,7 +36750,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="AB207" s="17" t="inlineStr">
+      <c r="AB207" s="13" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -37368,7 +37368,7 @@
           <t>965</t>
         </is>
       </c>
-      <c r="V213" s="17" t="inlineStr">
+      <c r="V213" s="11" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -37515,7 +37515,7 @@
           <t>585</t>
         </is>
       </c>
-      <c r="N214" s="9" t="inlineStr">
+      <c r="N214" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -38176,7 +38176,7 @@
           <t>970</t>
         </is>
       </c>
-      <c r="AH217" s="15" t="inlineStr">
+      <c r="AH217" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -38318,7 +38318,7 @@
           <t>041</t>
         </is>
       </c>
-      <c r="Y218" s="17" t="inlineStr">
+      <c r="Y218" s="12" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -38395,7 +38395,7 @@
           <t>499</t>
         </is>
       </c>
-      <c r="C219" s="17" t="inlineStr">
+      <c r="C219" s="5" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -38410,7 +38410,7 @@
           <t>957</t>
         </is>
       </c>
-      <c r="F219" s="17" t="inlineStr">
+      <c r="F219" s="6" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -38637,7 +38637,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N220" s="17" t="inlineStr">
+      <c r="N220" s="9" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -38879,7 +38879,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="Y221" s="17" t="inlineStr">
+      <c r="Y221" s="12" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -39298,7 +39298,7 @@
           <t>795</t>
         </is>
       </c>
-      <c r="AH223" s="17" t="inlineStr">
+      <c r="AH223" s="15" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -40866,7 +40866,7 @@
           <t>954</t>
         </is>
       </c>
-      <c r="K232" s="8" t="inlineStr">
+      <c r="K232" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -41270,7 +41270,7 @@
           <t>669</t>
         </is>
       </c>
-      <c r="Q234" s="10" t="inlineStr">
+      <c r="Q234" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -41906,7 +41906,7 @@
           <t>637</t>
         </is>
       </c>
-      <c r="AF237" s="15" t="inlineStr">
+      <c r="AF237" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -42043,7 +42043,7 @@
           <t>095</t>
         </is>
       </c>
-      <c r="V238" s="11" t="inlineStr">
+      <c r="V238" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -42270,7 +42270,7 @@
           <t>670</t>
         </is>
       </c>
-      <c r="AD239" s="17" t="inlineStr">
+      <c r="AD239" s="14" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -42487,7 +42487,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="AJ240" s="16" t="inlineStr">
+      <c r="AJ240" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -42589,7 +42589,7 @@
           <t>543</t>
         </is>
       </c>
-      <c r="S241" s="10" t="inlineStr">
+      <c r="S241" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -42664,7 +42664,7 @@
           <t>491</t>
         </is>
       </c>
-      <c r="AH241" s="17" t="inlineStr">
+      <c r="AH241" s="15" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -42674,12 +42674,12 @@
           <t>677</t>
         </is>
       </c>
-      <c r="AJ241" s="17" t="inlineStr">
+      <c r="AJ241" s="16" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="AK241" s="16" t="inlineStr">
+      <c r="AK241" s="17" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -43566,7 +43566,7 @@
           <t>800</t>
         </is>
       </c>
-      <c r="J249" s="7" t="inlineStr">
+      <c r="J249" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -43606,7 +43606,7 @@
           <t>568</t>
         </is>
       </c>
-      <c r="R249" s="17" t="inlineStr">
+      <c r="R249" s="10" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -43621,7 +43621,7 @@
           <t>372</t>
         </is>
       </c>
-      <c r="U249" s="17" t="inlineStr">
+      <c r="U249" s="11" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -43813,7 +43813,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="V250" s="17" t="inlineStr">
+      <c r="V250" s="11" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -44242,7 +44242,7 @@
           <t>439</t>
         </is>
       </c>
-      <c r="AG252" s="15" t="inlineStr">
+      <c r="AG252" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -44658,7 +44658,7 @@
           <t>818</t>
         </is>
       </c>
-      <c r="D255" s="5" t="inlineStr">
+      <c r="D255" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -44728,7 +44728,7 @@
           <t>249</t>
         </is>
       </c>
-      <c r="R255" s="10" t="inlineStr">
+      <c r="R255" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -45057,7 +45057,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="I257" s="7" t="inlineStr">
+      <c r="I257" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -45289,7 +45289,7 @@
           <t>654</t>
         </is>
       </c>
-      <c r="R258" s="10" t="inlineStr">
+      <c r="R258" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -45785,7 +45785,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="E261" s="6" t="inlineStr">
+      <c r="E261" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -45962,7 +45962,7 @@
           <t>513</t>
         </is>
       </c>
-      <c r="C262" s="5" t="inlineStr">
+      <c r="C262" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -46017,7 +46017,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="N262" s="17" t="inlineStr">
+      <c r="N262" s="9" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -46214,7 +46214,7 @@
           <t>838</t>
         </is>
       </c>
-      <c r="P263" s="9" t="inlineStr">
+      <c r="P263" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -46269,7 +46269,7 @@
           <t>878</t>
         </is>
       </c>
-      <c r="AA263" s="13" t="inlineStr">
+      <c r="AA263" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -47079,7 +47079,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B268" s="5" t="inlineStr">
+      <c r="B268" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -47114,7 +47114,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="I268" s="7" t="inlineStr">
+      <c r="I268" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -48393,7 +48393,7 @@
           <t>753</t>
         </is>
       </c>
-      <c r="C275" s="17" t="inlineStr">
+      <c r="C275" s="5" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -49834,7 +49834,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="L285" s="17" t="inlineStr">
+      <c r="L285" s="8" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -49844,7 +49844,7 @@
           <t>562</t>
         </is>
       </c>
-      <c r="N285" s="9" t="inlineStr">
+      <c r="N285" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -50515,7 +50515,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="AJ288" s="16" t="inlineStr">
+      <c r="AJ288" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -50769,7 +50769,7 @@
           <t>987</t>
         </is>
       </c>
-      <c r="L290" s="17" t="inlineStr">
+      <c r="L290" s="8" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -51178,7 +51178,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="S292" s="10" t="inlineStr">
+      <c r="S292" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -51223,7 +51223,7 @@
           <t>703</t>
         </is>
       </c>
-      <c r="AB292" s="13" t="inlineStr">
+      <c r="AB292" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -51669,7 +51669,7 @@
           <t>980</t>
         </is>
       </c>
-      <c r="E295" s="6" t="inlineStr">
+      <c r="E295" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -51956,7 +51956,7 @@
           <t>769</t>
         </is>
       </c>
-      <c r="Y296" s="17" t="inlineStr">
+      <c r="Y296" s="12" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -52043,7 +52043,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="E297" s="6" t="inlineStr">
+      <c r="E297" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -52088,7 +52088,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="N297" s="9" t="inlineStr">
+      <c r="N297" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -52946,7 +52946,7 @@
           <t>918</t>
         </is>
       </c>
-      <c r="AJ301" s="16" t="inlineStr">
+      <c r="AJ301" s="17" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -52968,7 +52968,7 @@
           <t>528</t>
         </is>
       </c>
-      <c r="C302" s="17" t="inlineStr">
+      <c r="C302" s="5" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -53240,7 +53240,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="T303" s="11" t="inlineStr">
+      <c r="T303" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -53933,7 +53933,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="I307" s="7" t="inlineStr">
+      <c r="I307" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -53993,7 +53993,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="U307" s="17" t="inlineStr">
+      <c r="U307" s="11" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -54028,7 +54028,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="AB307" s="17" t="inlineStr">
+      <c r="AB307" s="13" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -54125,7 +54125,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="J308" s="7" t="inlineStr">
+      <c r="J308" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -54170,7 +54170,7 @@
           <t>703</t>
         </is>
       </c>
-      <c r="S308" s="10" t="inlineStr">
+      <c r="S308" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -54357,7 +54357,7 @@
           <t>482</t>
         </is>
       </c>
-      <c r="S309" s="10" t="inlineStr">
+      <c r="S309" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -54913,7 +54913,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="R312" s="10" t="inlineStr">
+      <c r="R312" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -55085,7 +55085,7 @@
           <t>615</t>
         </is>
       </c>
-      <c r="O313" s="17" t="inlineStr">
+      <c r="O313" s="9" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -55120,7 +55120,7 @@
           <t>928</t>
         </is>
       </c>
-      <c r="V313" s="17" t="inlineStr">
+      <c r="V313" s="11" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -55556,12 +55556,12 @@
           <t>960</t>
         </is>
       </c>
-      <c r="Q318" s="17" t="inlineStr">
+      <c r="Q318" s="10" t="inlineStr">
         <is>
           <t>650</t>
         </is>
       </c>
-      <c r="R318" s="10" t="inlineStr">
+      <c r="R318" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -55880,7 +55880,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="G320" s="6" t="inlineStr">
+      <c r="G320" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -56466,7 +56466,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="L323" s="8" t="inlineStr">
+      <c r="L323" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -57067,7 +57067,7 @@
           <t>161</t>
         </is>
       </c>
-      <c r="T326" s="11" t="inlineStr">
+      <c r="T326" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -57239,7 +57239,7 @@
           <t>603</t>
         </is>
       </c>
-      <c r="Q327" s="10" t="inlineStr">
+      <c r="Q327" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -57688,7 +57688,7 @@
           <t>613</t>
         </is>
       </c>
-      <c r="AF329" s="17" t="inlineStr">
+      <c r="AF329" s="15" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -57713,7 +57713,7 @@
           <t>103</t>
         </is>
       </c>
-      <c r="AK329" s="16" t="inlineStr">
+      <c r="AK329" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -57790,7 +57790,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="O330" s="17" t="inlineStr">
+      <c r="O330" s="9" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -57865,7 +57865,7 @@
           <t>774</t>
         </is>
       </c>
-      <c r="AD330" s="14" t="inlineStr">
+      <c r="AD330" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -57942,7 +57942,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="H331" s="17" t="inlineStr">
+      <c r="H331" s="7" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -58229,7 +58229,7 @@
           <t>374</t>
         </is>
       </c>
-      <c r="AB332" s="17" t="inlineStr">
+      <c r="AB332" s="13" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -58628,7 +58628,7 @@
           <t>633</t>
         </is>
       </c>
-      <c r="AG334" s="15" t="inlineStr">
+      <c r="AG334" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -58882,7 +58882,7 @@
           <t>878</t>
         </is>
       </c>
-      <c r="I336" s="7" t="inlineStr">
+      <c r="I336" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -59226,7 +59226,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="C338" s="17" t="inlineStr">
+      <c r="C338" s="5" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -59630,7 +59630,7 @@
           <t>575</t>
         </is>
       </c>
-      <c r="I340" s="7" t="inlineStr">
+      <c r="I340" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -59685,7 +59685,7 @@
           <t>902</t>
         </is>
       </c>
-      <c r="T340" s="17" t="inlineStr">
+      <c r="T340" s="11" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -60236,7 +60236,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="R343" s="10" t="inlineStr">
+      <c r="R343" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -60363,7 +60363,7 @@
           <t>983</t>
         </is>
       </c>
-      <c r="F344" s="6" t="inlineStr">
+      <c r="F344" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -62410,7 +62410,7 @@
           <t>855</t>
         </is>
       </c>
-      <c r="X357" s="17" t="inlineStr">
+      <c r="X357" s="12" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -63557,7 +63557,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="AC363" s="14" t="inlineStr">
+      <c r="AC363" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -63592,7 +63592,7 @@
           <t>449</t>
         </is>
       </c>
-      <c r="AJ363" s="16" t="inlineStr">
+      <c r="AJ363" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -63946,7 +63946,7 @@
           <t>211</t>
         </is>
       </c>
-      <c r="AF365" s="15" t="inlineStr">
+      <c r="AF365" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -64392,7 +64392,7 @@
           <t>412</t>
         </is>
       </c>
-      <c r="I368" s="17" t="inlineStr">
+      <c r="I368" s="7" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -64447,7 +64447,7 @@
           <t>708</t>
         </is>
       </c>
-      <c r="T368" s="17" t="inlineStr">
+      <c r="T368" s="11" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -64614,7 +64614,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="P369" s="9" t="inlineStr">
+      <c r="P369" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -64963,7 +64963,7 @@
           <t>020</t>
         </is>
       </c>
-      <c r="K371" s="17" t="inlineStr">
+      <c r="K371" s="8" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -65063,7 +65063,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="AE371" s="14" t="inlineStr">
+      <c r="AE371" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -65489,7 +65489,7 @@
           <t>696</t>
         </is>
       </c>
-      <c r="D374" s="5" t="inlineStr">
+      <c r="D374" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -65786,7 +65786,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="Z375" s="17" t="inlineStr">
+      <c r="Z375" s="13" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -66145,7 +66145,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="W377" s="17" t="inlineStr">
+      <c r="W377" s="12" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -66434,7 +66434,7 @@
           <t>163</t>
         </is>
       </c>
-      <c r="F379" s="6" t="inlineStr">
+      <c r="F379" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -66706,7 +66706,7 @@
           <t>090</t>
         </is>
       </c>
-      <c r="W380" s="17" t="inlineStr">
+      <c r="W380" s="12" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -66731,7 +66731,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="AB380" s="17" t="inlineStr">
+      <c r="AB380" s="13" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -66913,7 +66913,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="AA381" s="13" t="inlineStr">
+      <c r="AA381" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -67060,7 +67060,7 @@
           <t>132</t>
         </is>
       </c>
-      <c r="S382" s="17" t="inlineStr">
+      <c r="S382" s="10" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -67758,7 +67758,7 @@
           <t>641</t>
         </is>
       </c>
-      <c r="AC388" s="17" t="inlineStr">
+      <c r="AC388" s="14" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -67865,7 +67865,7 @@
           <t>366</t>
         </is>
       </c>
-      <c r="M389" s="17" t="inlineStr">
+      <c r="M389" s="8" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -67915,7 +67915,7 @@
           <t>816</t>
         </is>
       </c>
-      <c r="W389" s="17" t="inlineStr">
+      <c r="W389" s="12" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -68229,7 +68229,7 @@
           <t>099</t>
         </is>
       </c>
-      <c r="K391" s="8" t="inlineStr">
+      <c r="K391" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -68476,7 +68476,7 @@
           <t>912</t>
         </is>
       </c>
-      <c r="W392" s="17" t="inlineStr">
+      <c r="W392" s="12" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -68708,7 +68708,7 @@
           <t>707</t>
         </is>
       </c>
-      <c r="AF393" s="15" t="inlineStr">
+      <c r="AF393" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -69668,7 +69668,7 @@
           <t>275</t>
         </is>
       </c>
-      <c r="AK398" s="16" t="inlineStr">
+      <c r="AK398" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -69907,7 +69907,7 @@
           <t>438</t>
         </is>
       </c>
-      <c r="J400" s="17" t="inlineStr">
+      <c r="J400" s="7" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -70189,7 +70189,7 @@
           <t>295</t>
         </is>
       </c>
-      <c r="AC401" s="14" t="inlineStr">
+      <c r="AC401" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -70316,7 +70316,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="Q402" s="17" t="inlineStr">
+      <c r="Q402" s="10" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -70351,7 +70351,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="X402" s="17" t="inlineStr">
+      <c r="X402" s="12" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -71149,7 +71149,7 @@
           <t>763</t>
         </is>
       </c>
-      <c r="AH406" s="15" t="inlineStr">
+      <c r="AH406" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -71186,7 +71186,7 @@
           <t>755</t>
         </is>
       </c>
-      <c r="D407" s="5" t="inlineStr">
+      <c r="D407" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -71286,7 +71286,7 @@
           <t>594</t>
         </is>
       </c>
-      <c r="X407" s="12" t="inlineStr">
+      <c r="X407" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -71326,7 +71326,7 @@
           <t>621</t>
         </is>
       </c>
-      <c r="AF407" s="15" t="inlineStr">
+      <c r="AF407" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -71630,7 +71630,7 @@
           <t>618</t>
         </is>
       </c>
-      <c r="R409" s="17" t="inlineStr">
+      <c r="R409" s="10" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -72211,7 +72211,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="V412" s="11" t="inlineStr">
+      <c r="V412" s="17" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -72832,7 +72832,7 @@
           <t>974</t>
         </is>
       </c>
-      <c r="AH415" s="17" t="inlineStr">
+      <c r="AH415" s="15" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -72944,7 +72944,7 @@
           <t>619</t>
         </is>
       </c>
-      <c r="S416" s="10" t="inlineStr">
+      <c r="S416" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -72979,7 +72979,7 @@
           <t>078</t>
         </is>
       </c>
-      <c r="Z416" s="17" t="inlineStr">
+      <c r="Z416" s="13" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -73019,7 +73019,7 @@
           <t>327</t>
         </is>
       </c>
-      <c r="AH416" s="17" t="inlineStr">
+      <c r="AH416" s="15" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -73196,7 +73196,7 @@
           <t>515</t>
         </is>
       </c>
-      <c r="AF417" s="17" t="inlineStr">
+      <c r="AF417" s="15" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -73714,7 +73714,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="F423" s="17" t="inlineStr">
+      <c r="F423" s="6" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -73809,7 +73809,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="Y423" s="12" t="inlineStr">
+      <c r="Y423" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -73839,7 +73839,7 @@
           <t>968</t>
         </is>
       </c>
-      <c r="AE423" s="17" t="inlineStr">
+      <c r="AE423" s="14" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -75068,7 +75068,7 @@
           <t>725</t>
         </is>
       </c>
-      <c r="O430" s="17" t="inlineStr">
+      <c r="O430" s="9" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -75270,7 +75270,7 @@
           <t>724</t>
         </is>
       </c>
-      <c r="R431" s="10" t="inlineStr">
+      <c r="R431" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -75427,7 +75427,7 @@
           <t>884</t>
         </is>
       </c>
-      <c r="L432" s="17" t="inlineStr">
+      <c r="L432" s="8" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -75776,7 +75776,7 @@
           <t>323</t>
         </is>
       </c>
-      <c r="G434" s="17" t="inlineStr">
+      <c r="G434" s="6" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -76125,7 +76125,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B436" s="5" t="inlineStr">
+      <c r="B436" s="17" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -76529,7 +76529,7 @@
           <t>008</t>
         </is>
       </c>
-      <c r="H438" s="7" t="inlineStr">
+      <c r="H438" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -76544,7 +76544,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="K438" s="8" t="inlineStr">
+      <c r="K438" s="17" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -76711,7 +76711,7 @@
           <t>135</t>
         </is>
       </c>
-      <c r="G439" s="17" t="inlineStr">
+      <c r="G439" s="6" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -76888,7 +76888,7 @@
           <t>805</t>
         </is>
       </c>
-      <c r="E440" s="17" t="inlineStr">
+      <c r="E440" s="6" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -77110,7 +77110,7 @@
           <t>879</t>
         </is>
       </c>
-      <c r="L441" s="8" t="inlineStr">
+      <c r="L441" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -77210,7 +77210,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="AF441" s="17" t="inlineStr">
+      <c r="AF441" s="15" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -77262,7 +77262,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="E442" s="6" t="inlineStr">
+      <c r="E442" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -77347,7 +77347,7 @@
           <t>998</t>
         </is>
       </c>
-      <c r="V442" s="17" t="inlineStr">
+      <c r="V442" s="11" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -77559,7 +77559,7 @@
           <t>138</t>
         </is>
       </c>
-      <c r="AA443" s="17" t="inlineStr">
+      <c r="AA443" s="13" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -77609,7 +77609,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="AK443" s="17" t="inlineStr">
+      <c r="AK443" s="16" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -77928,7 +77928,7 @@
           <t>541</t>
         </is>
       </c>
-      <c r="Z445" s="17" t="inlineStr">
+      <c r="Z445" s="13" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -78182,7 +78182,7 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B447" s="5" t="inlineStr">
+      <c r="B447" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -79035,7 +79035,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="W451" s="17" t="inlineStr">
+      <c r="W451" s="12" t="inlineStr">
         <is>
           <t>506</t>
         </is>
@@ -79162,7 +79162,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K452" s="8" t="inlineStr">
+      <c r="K452" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -79835,7 +79835,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="P458" s="17" t="inlineStr">
+      <c r="P458" s="9" t="inlineStr">
         <is>
           <t>065</t>
         </is>
@@ -79987,7 +79987,7 @@
           <t>911</t>
         </is>
       </c>
-      <c r="I459" s="7" t="inlineStr">
+      <c r="I459" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -80072,7 +80072,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="Z459" s="17" t="inlineStr">
+      <c r="Z459" s="13" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -80381,7 +80381,7 @@
           <t>189</t>
         </is>
       </c>
-      <c r="M461" s="17" t="inlineStr">
+      <c r="M461" s="8" t="inlineStr">
         <is>
           <t>560</t>
         </is>
@@ -81234,7 +81234,7 @@
           <t>689</t>
         </is>
       </c>
-      <c r="AH465" s="17" t="inlineStr">
+      <c r="AH465" s="15" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -81361,7 +81361,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="V466" s="11" t="inlineStr">
+      <c r="V466" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -81421,7 +81421,7 @@
           <t>944</t>
         </is>
       </c>
-      <c r="AH466" s="15" t="inlineStr">
+      <c r="AH466" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -81458,7 +81458,7 @@
           <t>294</t>
         </is>
       </c>
-      <c r="D467" s="17" t="inlineStr">
+      <c r="D467" s="5" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -81583,7 +81583,7 @@
           <t>835</t>
         </is>
       </c>
-      <c r="AC467" s="14" t="inlineStr">
+      <c r="AC467" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -81670,7 +81670,7 @@
           <t>624</t>
         </is>
       </c>
-      <c r="I468" s="7" t="inlineStr">
+      <c r="I468" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -81962,7 +81962,7 @@
           <t>346</t>
         </is>
       </c>
-      <c r="AD469" s="14" t="inlineStr">
+      <c r="AD469" s="17" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -82024,7 +82024,7 @@
           <t>385</t>
         </is>
       </c>
-      <c r="E470" s="6" t="inlineStr">
+      <c r="E470" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -82039,7 +82039,7 @@
           <t>145</t>
         </is>
       </c>
-      <c r="H470" s="7" t="inlineStr">
+      <c r="H470" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -82802,7 +82802,7 @@
           <t>215</t>
         </is>
       </c>
-      <c r="K474" s="8" t="inlineStr">
+      <c r="K474" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -83635,7 +83635,7 @@
           <t>685</t>
         </is>
       </c>
-      <c r="AB478" s="13" t="inlineStr">
+      <c r="AB478" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -84141,7 +84141,7 @@
           <t>233</t>
         </is>
       </c>
-      <c r="Q481" s="17" t="inlineStr">
+      <c r="Q481" s="10" t="inlineStr">
         <is>
           <t>199</t>
         </is>
@@ -84844,7 +84844,7 @@
           <t>677</t>
         </is>
       </c>
-      <c r="H485" s="7" t="inlineStr">
+      <c r="H485" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -86001,7 +86001,7 @@
           <t>712</t>
         </is>
       </c>
-      <c r="AI493" s="17" t="inlineStr">
+      <c r="AI493" s="16" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -86048,7 +86048,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="G494" s="17" t="inlineStr">
+      <c r="G494" s="6" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -86791,12 +86791,12 @@
           <t>410</t>
         </is>
       </c>
-      <c r="F498" s="17" t="inlineStr">
+      <c r="F498" s="6" t="inlineStr">
         <is>
           <t>506</t>
         </is>
       </c>
-      <c r="G498" s="6" t="inlineStr">
+      <c r="G498" s="17" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -87123,7 +87123,7 @@
           <t>911</t>
         </is>
       </c>
-      <c r="AI499" s="17" t="inlineStr">
+      <c r="AI499" s="16" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -87133,7 +87133,7 @@
           <t>355</t>
         </is>
       </c>
-      <c r="AK499" s="17" t="inlineStr">
+      <c r="AK499" s="16" t="inlineStr">
         <is>
           <t>919</t>
         </is>
@@ -87290,7 +87290,7 @@
           <t>964</t>
         </is>
       </c>
-      <c r="AE500" s="17" t="inlineStr">
+      <c r="AE500" s="14" t="inlineStr">
         <is>
           <t>650</t>
         </is>
@@ -87689,7 +87689,7 @@
           <t>324</t>
         </is>
       </c>
-      <c r="AJ502" s="16" t="inlineStr">
+      <c r="AJ502" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -87706,7 +87706,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B503" s="17" t="inlineStr">
+      <c r="B503" s="5" t="inlineStr">
         <is>
           <t>991</t>
         </is>
@@ -88302,7 +88302,7 @@
           <t>527</t>
         </is>
       </c>
-      <c r="I506" s="7" t="inlineStr">
+      <c r="I506" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -88397,7 +88397,7 @@
           <t>241</t>
         </is>
       </c>
-      <c r="AB506" s="13" t="inlineStr">
+      <c r="AB506" s="17" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -88599,7 +88599,7 @@
           <t>399</t>
         </is>
       </c>
-      <c r="AE507" s="14" t="inlineStr">
+      <c r="AE507" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -89207,7 +89207,7 @@
           <t>533</t>
         </is>
       </c>
-      <c r="C511" s="5" t="inlineStr">
+      <c r="C511" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -89357,7 +89357,7 @@
           <t>558</t>
         </is>
       </c>
-      <c r="AG511" s="17" t="inlineStr">
+      <c r="AG511" s="15" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -90521,7 +90521,7 @@
           <t>043</t>
         </is>
       </c>
-      <c r="D518" s="17" t="inlineStr">
+      <c r="D518" s="5" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -91187,7 +91187,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="Y521" s="12" t="inlineStr">
+      <c r="Y521" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -91259,12 +91259,12 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B522" s="17" t="inlineStr">
+      <c r="B522" s="5" t="inlineStr">
         <is>
           <t>199</t>
         </is>
       </c>
-      <c r="C522" s="17" t="inlineStr">
+      <c r="C522" s="5" t="inlineStr">
         <is>
           <t>056</t>
         </is>
@@ -91654,6 +91654,13 @@
       </c>
       <c r="I526" s="2" t="n"/>
       <c r="J526" s="3" t="n"/>
+      <c r="K526" s="1" t="inlineStr">
+        <is>
+          <t>April 2021</t>
+        </is>
+      </c>
+      <c r="L526" s="2" t="n"/>
+      <c r="M526" s="3" t="n"/>
     </row>
     <row r="527">
       <c r="A527" s="4" t="n"/>
@@ -91702,6 +91709,21 @@
           <t>9PM</t>
         </is>
       </c>
+      <c r="K527" s="1" t="inlineStr">
+        <is>
+          <t>11AM</t>
+        </is>
+      </c>
+      <c r="L527" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="M527" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -91754,6 +91776,21 @@
           <t>107</t>
         </is>
       </c>
+      <c r="K528" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L528" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M528" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
@@ -91806,6 +91843,21 @@
           <t>113</t>
         </is>
       </c>
+      <c r="K529" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L529" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M529" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
@@ -91858,6 +91910,21 @@
           <t>310</t>
         </is>
       </c>
+      <c r="K530" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L530" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M530" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
@@ -91910,6 +91977,21 @@
           <t>813</t>
         </is>
       </c>
+      <c r="K531" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L531" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M531" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
@@ -91962,6 +92044,21 @@
           <t>089</t>
         </is>
       </c>
+      <c r="K532" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L532" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M532" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
@@ -92014,6 +92111,21 @@
           <t>079</t>
         </is>
       </c>
+      <c r="K533" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L533" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M533" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
@@ -92066,6 +92178,21 @@
           <t>197</t>
         </is>
       </c>
+      <c r="K534" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L534" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M534" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
@@ -92118,6 +92245,21 @@
           <t>681</t>
         </is>
       </c>
+      <c r="K535" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L535" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M535" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
@@ -92170,6 +92312,21 @@
           <t>363</t>
         </is>
       </c>
+      <c r="K536" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L536" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M536" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
@@ -92222,6 +92379,21 @@
           <t>607</t>
         </is>
       </c>
+      <c r="K537" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L537" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M537" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
@@ -92254,7 +92426,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="G538" s="17" t="inlineStr">
+      <c r="G538" s="6" t="inlineStr">
         <is>
           <t>605</t>
         </is>
@@ -92272,6 +92444,21 @@
       <c r="J538" s="7" t="inlineStr">
         <is>
           <t>811</t>
+        </is>
+      </c>
+      <c r="K538" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L538" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M538" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92326,6 +92513,21 @@
           <t>996</t>
         </is>
       </c>
+      <c r="K539" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L539" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M539" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
@@ -92378,6 +92580,21 @@
           <t>442</t>
         </is>
       </c>
+      <c r="K540" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L540" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M540" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
@@ -92430,6 +92647,21 @@
           <t>126</t>
         </is>
       </c>
+      <c r="K541" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L541" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M541" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
@@ -92482,6 +92714,21 @@
           <t>950</t>
         </is>
       </c>
+      <c r="K542" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L542" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M542" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
@@ -92534,6 +92781,21 @@
           <t>274</t>
         </is>
       </c>
+      <c r="K543" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L543" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M543" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
@@ -92586,6 +92848,21 @@
           <t>584</t>
         </is>
       </c>
+      <c r="K544" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L544" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M544" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
@@ -92638,6 +92915,21 @@
           <t>952</t>
         </is>
       </c>
+      <c r="K545" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L545" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M545" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
@@ -92675,12 +92967,12 @@
           <t>446</t>
         </is>
       </c>
-      <c r="H546" s="7" t="inlineStr">
+      <c r="H546" s="17" t="inlineStr">
         <is>
           <t>683</t>
         </is>
       </c>
-      <c r="I546" s="7" t="inlineStr">
+      <c r="I546" s="17" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -92688,6 +92980,21 @@
       <c r="J546" s="7" t="inlineStr">
         <is>
           <t>530</t>
+        </is>
+      </c>
+      <c r="K546" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L546" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M546" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92742,6 +93049,21 @@
           <t>631</t>
         </is>
       </c>
+      <c r="K547" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L547" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M547" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
@@ -92769,7 +93091,7 @@
           <t>323</t>
         </is>
       </c>
-      <c r="F548" s="6" t="inlineStr">
+      <c r="F548" s="17" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -92792,6 +93114,21 @@
       <c r="J548" s="7" t="inlineStr">
         <is>
           <t>790</t>
+        </is>
+      </c>
+      <c r="K548" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L548" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M548" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92846,6 +93183,21 @@
           <t>134</t>
         </is>
       </c>
+      <c r="K549" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L549" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M549" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
@@ -92873,7 +93225,7 @@
           <t>414</t>
         </is>
       </c>
-      <c r="F550" s="6" t="inlineStr">
+      <c r="F550" s="17" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -92893,9 +93245,24 @@
           <t>404</t>
         </is>
       </c>
-      <c r="J550" s="17" t="inlineStr">
+      <c r="J550" s="7" t="inlineStr">
         <is>
           <t>560</t>
+        </is>
+      </c>
+      <c r="K550" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L550" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M550" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92950,6 +93317,21 @@
           <t>370</t>
         </is>
       </c>
+      <c r="K551" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L551" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M551" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
@@ -93002,6 +93384,21 @@
           <t>461</t>
         </is>
       </c>
+      <c r="K552" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L552" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M552" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
@@ -93054,6 +93451,21 @@
           <t>913</t>
         </is>
       </c>
+      <c r="K553" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L553" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M553" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
@@ -93106,6 +93518,21 @@
           <t>788</t>
         </is>
       </c>
+      <c r="K554" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L554" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M554" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
@@ -93145,15 +93572,30 @@
       </c>
       <c r="H555" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>338</t>
         </is>
       </c>
       <c r="I555" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>727</t>
         </is>
       </c>
       <c r="J555" s="7" t="inlineStr">
+        <is>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="K555" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L555" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M555" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -93197,15 +93639,30 @@
       </c>
       <c r="H556" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>915</t>
         </is>
       </c>
       <c r="I556" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>934</t>
         </is>
       </c>
       <c r="J556" s="7" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="K556" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L556" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M556" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -93217,7 +93674,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B557" s="5" t="inlineStr">
+      <c r="B557" s="17" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -93249,15 +93706,30 @@
       </c>
       <c r="H557" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>797</t>
         </is>
       </c>
       <c r="I557" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>412</t>
         </is>
       </c>
       <c r="J557" s="7" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="K557" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L557" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M557" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -93301,22 +93773,37 @@
       </c>
       <c r="H558" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>998</t>
         </is>
       </c>
       <c r="I558" s="7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>231</t>
         </is>
       </c>
       <c r="J558" s="7" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="K558" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L558" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M558" s="8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="199">
+  <mergeCells count="200">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -93516,6 +94003,7 @@
     <mergeCell ref="B526:D526"/>
     <mergeCell ref="E526:G526"/>
     <mergeCell ref="H526:J526"/>
+    <mergeCell ref="K526:M526"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -39,11 +39,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ff6699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -209,7 +204,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -248,12 +246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,7 +1368,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH5" s="17" t="inlineStr">
+      <c r="AH5" s="15" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -2722,7 +2714,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D13" s="17" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -5086,7 +5078,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB25" s="17" t="inlineStr">
+      <c r="AB25" s="13" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -7205,7 +7197,7 @@
           <t>225</t>
         </is>
       </c>
-      <c r="W39" s="17" t="inlineStr">
+      <c r="W39" s="12" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -8439,7 +8431,7 @@
           <t>928</t>
         </is>
       </c>
-      <c r="H46" s="17" t="inlineStr">
+      <c r="H46" s="7" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -10339,7 +10331,7 @@
           <t>015</t>
         </is>
       </c>
-      <c r="N56" s="17" t="inlineStr">
+      <c r="N56" s="9" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -10798,7 +10790,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE58" s="17" t="inlineStr">
+      <c r="AE58" s="14" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -10975,7 +10967,7 @@
           <t>327</t>
         </is>
       </c>
-      <c r="AC59" s="17" t="inlineStr">
+      <c r="AC59" s="14" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -13316,7 +13308,7 @@
           <t>857</t>
         </is>
       </c>
-      <c r="AE74" s="17" t="inlineStr">
+      <c r="AE74" s="14" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -13959,7 +13951,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J78" s="17" t="inlineStr">
+      <c r="J78" s="7" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -14216,7 +14208,7 @@
           <t>598</t>
         </is>
       </c>
-      <c r="X79" s="17" t="inlineStr">
+      <c r="X79" s="12" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -14787,7 +14779,7 @@
           <t>946</t>
         </is>
       </c>
-      <c r="Z82" s="17" t="inlineStr">
+      <c r="Z82" s="13" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -15009,7 +15001,7 @@
           <t>211</t>
         </is>
       </c>
-      <c r="AG83" s="17" t="inlineStr">
+      <c r="AG83" s="15" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -15121,7 +15113,7 @@
           <t>900</t>
         </is>
       </c>
-      <c r="R84" s="17" t="inlineStr">
+      <c r="R84" s="10" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -15657,7 +15649,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="M87" s="17" t="inlineStr">
+      <c r="M87" s="8" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -16662,7 +16654,7 @@
           <t>283</t>
         </is>
       </c>
-      <c r="AA92" s="17" t="inlineStr">
+      <c r="AA92" s="13" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -16839,7 +16831,7 @@
           <t>558</t>
         </is>
       </c>
-      <c r="Y93" s="17" t="inlineStr">
+      <c r="Y93" s="12" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -16859,7 +16851,7 @@
           <t>501</t>
         </is>
       </c>
-      <c r="AC93" s="17" t="inlineStr">
+      <c r="AC93" s="14" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -17203,7 +17195,7 @@
           <t>680</t>
         </is>
       </c>
-      <c r="W95" s="17" t="inlineStr">
+      <c r="W95" s="12" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -17607,7 +17599,7 @@
           <t>318</t>
         </is>
       </c>
-      <c r="AC97" s="17" t="inlineStr">
+      <c r="AC97" s="14" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -18123,7 +18115,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="T100" s="17" t="inlineStr">
+      <c r="T100" s="11" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -21030,7 +21022,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="W118" s="17" t="inlineStr">
+      <c r="W118" s="12" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -21848,7 +21840,7 @@
           <t>297</t>
         </is>
       </c>
-      <c r="AK122" s="17" t="inlineStr">
+      <c r="AK122" s="16" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -21940,7 +21932,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="R123" s="17" t="inlineStr">
+      <c r="R123" s="10" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -21975,7 +21967,7 @@
           <t>597</t>
         </is>
       </c>
-      <c r="Y123" s="17" t="inlineStr">
+      <c r="Y123" s="12" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -22653,7 +22645,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="K127" s="17" t="inlineStr">
+      <c r="K127" s="8" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -24593,7 +24585,7 @@
           <t>065</t>
         </is>
       </c>
-      <c r="Y137" s="17" t="inlineStr">
+      <c r="Y137" s="12" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -24735,7 +24727,7 @@
           <t>080</t>
         </is>
       </c>
-      <c r="P138" s="17" t="inlineStr">
+      <c r="P138" s="9" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -25934,7 +25926,7 @@
           <t>750</t>
         </is>
       </c>
-      <c r="N147" s="17" t="inlineStr">
+      <c r="N147" s="9" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -26403,7 +26395,7 @@
           <t>905</t>
         </is>
       </c>
-      <c r="AG149" s="17" t="inlineStr">
+      <c r="AG149" s="15" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -26545,7 +26537,7 @@
           <t>720</t>
         </is>
       </c>
-      <c r="X150" s="17" t="inlineStr">
+      <c r="X150" s="12" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -27001,7 +26993,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="C153" s="17" t="inlineStr">
+      <c r="C153" s="5" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -27136,7 +27128,7 @@
           <t>078</t>
         </is>
       </c>
-      <c r="AD153" s="17" t="inlineStr">
+      <c r="AD153" s="14" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -27183,7 +27175,7 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B154" s="17" t="inlineStr">
+      <c r="B154" s="5" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -28238,7 +28230,7 @@
           <t>710</t>
         </is>
       </c>
-      <c r="Z159" s="17" t="inlineStr">
+      <c r="Z159" s="13" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -28956,7 +28948,7 @@
           <t>624</t>
         </is>
       </c>
-      <c r="T163" s="17" t="inlineStr">
+      <c r="T163" s="11" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -30148,7 +30140,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="AH169" s="17" t="inlineStr">
+      <c r="AH169" s="15" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -30215,7 +30207,7 @@
           <t>085</t>
         </is>
       </c>
-      <c r="J170" s="17" t="inlineStr">
+      <c r="J170" s="7" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -30664,7 +30656,7 @@
           <t>541</t>
         </is>
       </c>
-      <c r="Y172" s="17" t="inlineStr">
+      <c r="Y172" s="12" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -31474,7 +31466,7 @@
           <t>482</t>
         </is>
       </c>
-      <c r="T179" s="17" t="inlineStr">
+      <c r="T179" s="11" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -32040,7 +32032,7 @@
           <t>542</t>
         </is>
       </c>
-      <c r="U182" s="17" t="inlineStr">
+      <c r="U182" s="11" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -32267,7 +32259,7 @@
           <t>125</t>
         </is>
       </c>
-      <c r="AC183" s="17" t="inlineStr">
+      <c r="AC183" s="14" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -33142,7 +33134,7 @@
           <t>761</t>
         </is>
       </c>
-      <c r="Q188" s="17" t="inlineStr">
+      <c r="Q188" s="10" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -34957,7 +34949,7 @@
           <t>689</t>
         </is>
       </c>
-      <c r="F198" s="17" t="inlineStr">
+      <c r="F198" s="6" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -35690,7 +35682,7 @@
           <t>045</t>
         </is>
       </c>
-      <c r="C202" s="17" t="inlineStr">
+      <c r="C202" s="5" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -36301,12 +36293,12 @@
           <t>131</t>
         </is>
       </c>
-      <c r="M205" s="17" t="inlineStr">
+      <c r="M205" s="8" t="inlineStr">
         <is>
           <t>386</t>
         </is>
       </c>
-      <c r="N205" s="17" t="inlineStr">
+      <c r="N205" s="9" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -37515,7 +37507,7 @@
           <t>585</t>
         </is>
       </c>
-      <c r="N214" s="17" t="inlineStr">
+      <c r="N214" s="9" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -38176,7 +38168,7 @@
           <t>970</t>
         </is>
       </c>
-      <c r="AH217" s="17" t="inlineStr">
+      <c r="AH217" s="15" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -40866,7 +40858,7 @@
           <t>954</t>
         </is>
       </c>
-      <c r="K232" s="17" t="inlineStr">
+      <c r="K232" s="8" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -41270,7 +41262,7 @@
           <t>669</t>
         </is>
       </c>
-      <c r="Q234" s="17" t="inlineStr">
+      <c r="Q234" s="10" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -41906,7 +41898,7 @@
           <t>637</t>
         </is>
       </c>
-      <c r="AF237" s="17" t="inlineStr">
+      <c r="AF237" s="15" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -42043,7 +42035,7 @@
           <t>095</t>
         </is>
       </c>
-      <c r="V238" s="17" t="inlineStr">
+      <c r="V238" s="11" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -42487,7 +42479,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="AJ240" s="17" t="inlineStr">
+      <c r="AJ240" s="16" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -42589,7 +42581,7 @@
           <t>543</t>
         </is>
       </c>
-      <c r="S241" s="17" t="inlineStr">
+      <c r="S241" s="10" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -42679,7 +42671,7 @@
           <t>919</t>
         </is>
       </c>
-      <c r="AK241" s="17" t="inlineStr">
+      <c r="AK241" s="16" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -43566,7 +43558,7 @@
           <t>800</t>
         </is>
       </c>
-      <c r="J249" s="17" t="inlineStr">
+      <c r="J249" s="7" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -44242,7 +44234,7 @@
           <t>439</t>
         </is>
       </c>
-      <c r="AG252" s="17" t="inlineStr">
+      <c r="AG252" s="15" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -44658,7 +44650,7 @@
           <t>818</t>
         </is>
       </c>
-      <c r="D255" s="17" t="inlineStr">
+      <c r="D255" s="5" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -44728,7 +44720,7 @@
           <t>249</t>
         </is>
       </c>
-      <c r="R255" s="17" t="inlineStr">
+      <c r="R255" s="10" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -45057,7 +45049,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="I257" s="17" t="inlineStr">
+      <c r="I257" s="7" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -45289,7 +45281,7 @@
           <t>654</t>
         </is>
       </c>
-      <c r="R258" s="17" t="inlineStr">
+      <c r="R258" s="10" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -45785,7 +45777,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="E261" s="17" t="inlineStr">
+      <c r="E261" s="6" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -45962,7 +45954,7 @@
           <t>513</t>
         </is>
       </c>
-      <c r="C262" s="17" t="inlineStr">
+      <c r="C262" s="5" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -46214,7 +46206,7 @@
           <t>838</t>
         </is>
       </c>
-      <c r="P263" s="17" t="inlineStr">
+      <c r="P263" s="9" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -46269,7 +46261,7 @@
           <t>878</t>
         </is>
       </c>
-      <c r="AA263" s="17" t="inlineStr">
+      <c r="AA263" s="13" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -47079,7 +47071,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B268" s="17" t="inlineStr">
+      <c r="B268" s="5" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -47114,7 +47106,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="I268" s="17" t="inlineStr">
+      <c r="I268" s="7" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -49844,7 +49836,7 @@
           <t>562</t>
         </is>
       </c>
-      <c r="N285" s="17" t="inlineStr">
+      <c r="N285" s="9" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -50515,7 +50507,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="AJ288" s="17" t="inlineStr">
+      <c r="AJ288" s="16" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -51178,7 +51170,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="S292" s="17" t="inlineStr">
+      <c r="S292" s="10" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -51223,7 +51215,7 @@
           <t>703</t>
         </is>
       </c>
-      <c r="AB292" s="17" t="inlineStr">
+      <c r="AB292" s="13" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -51669,7 +51661,7 @@
           <t>980</t>
         </is>
       </c>
-      <c r="E295" s="17" t="inlineStr">
+      <c r="E295" s="6" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -52043,7 +52035,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="E297" s="17" t="inlineStr">
+      <c r="E297" s="6" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -52088,7 +52080,7 @@
           <t>714</t>
         </is>
       </c>
-      <c r="N297" s="17" t="inlineStr">
+      <c r="N297" s="9" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -52946,7 +52938,7 @@
           <t>918</t>
         </is>
       </c>
-      <c r="AJ301" s="17" t="inlineStr">
+      <c r="AJ301" s="16" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -53240,7 +53232,7 @@
           <t>232</t>
         </is>
       </c>
-      <c r="T303" s="17" t="inlineStr">
+      <c r="T303" s="11" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -53933,7 +53925,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="I307" s="17" t="inlineStr">
+      <c r="I307" s="7" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -54125,7 +54117,7 @@
           <t>662</t>
         </is>
       </c>
-      <c r="J308" s="17" t="inlineStr">
+      <c r="J308" s="7" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -54170,7 +54162,7 @@
           <t>703</t>
         </is>
       </c>
-      <c r="S308" s="17" t="inlineStr">
+      <c r="S308" s="10" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -54357,7 +54349,7 @@
           <t>482</t>
         </is>
       </c>
-      <c r="S309" s="17" t="inlineStr">
+      <c r="S309" s="10" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -54913,7 +54905,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="R312" s="17" t="inlineStr">
+      <c r="R312" s="10" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -55561,7 +55553,7 @@
           <t>650</t>
         </is>
       </c>
-      <c r="R318" s="17" t="inlineStr">
+      <c r="R318" s="10" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -55880,7 +55872,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="G320" s="17" t="inlineStr">
+      <c r="G320" s="6" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -56466,7 +56458,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="L323" s="17" t="inlineStr">
+      <c r="L323" s="8" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -57067,7 +57059,7 @@
           <t>161</t>
         </is>
       </c>
-      <c r="T326" s="17" t="inlineStr">
+      <c r="T326" s="11" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -57239,7 +57231,7 @@
           <t>603</t>
         </is>
       </c>
-      <c r="Q327" s="17" t="inlineStr">
+      <c r="Q327" s="10" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -57713,7 +57705,7 @@
           <t>103</t>
         </is>
       </c>
-      <c r="AK329" s="17" t="inlineStr">
+      <c r="AK329" s="16" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -57865,7 +57857,7 @@
           <t>774</t>
         </is>
       </c>
-      <c r="AD330" s="17" t="inlineStr">
+      <c r="AD330" s="14" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -58628,7 +58620,7 @@
           <t>633</t>
         </is>
       </c>
-      <c r="AG334" s="17" t="inlineStr">
+      <c r="AG334" s="15" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -58882,7 +58874,7 @@
           <t>878</t>
         </is>
       </c>
-      <c r="I336" s="17" t="inlineStr">
+      <c r="I336" s="7" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -59630,7 +59622,7 @@
           <t>575</t>
         </is>
       </c>
-      <c r="I340" s="17" t="inlineStr">
+      <c r="I340" s="7" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -60236,7 +60228,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="R343" s="17" t="inlineStr">
+      <c r="R343" s="10" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -60363,7 +60355,7 @@
           <t>983</t>
         </is>
       </c>
-      <c r="F344" s="17" t="inlineStr">
+      <c r="F344" s="6" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -63557,7 +63549,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="AC363" s="17" t="inlineStr">
+      <c r="AC363" s="14" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -63592,7 +63584,7 @@
           <t>449</t>
         </is>
       </c>
-      <c r="AJ363" s="17" t="inlineStr">
+      <c r="AJ363" s="16" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -63946,7 +63938,7 @@
           <t>211</t>
         </is>
       </c>
-      <c r="AF365" s="17" t="inlineStr">
+      <c r="AF365" s="15" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -64614,7 +64606,7 @@
           <t>972</t>
         </is>
       </c>
-      <c r="P369" s="17" t="inlineStr">
+      <c r="P369" s="9" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -65063,7 +65055,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="AE371" s="17" t="inlineStr">
+      <c r="AE371" s="14" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -65489,7 +65481,7 @@
           <t>696</t>
         </is>
       </c>
-      <c r="D374" s="17" t="inlineStr">
+      <c r="D374" s="5" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -66434,7 +66426,7 @@
           <t>163</t>
         </is>
       </c>
-      <c r="F379" s="17" t="inlineStr">
+      <c r="F379" s="6" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -66913,7 +66905,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="AA381" s="17" t="inlineStr">
+      <c r="AA381" s="13" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -68229,7 +68221,7 @@
           <t>099</t>
         </is>
       </c>
-      <c r="K391" s="17" t="inlineStr">
+      <c r="K391" s="8" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -68708,7 +68700,7 @@
           <t>707</t>
         </is>
       </c>
-      <c r="AF393" s="17" t="inlineStr">
+      <c r="AF393" s="15" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -69668,7 +69660,7 @@
           <t>275</t>
         </is>
       </c>
-      <c r="AK398" s="17" t="inlineStr">
+      <c r="AK398" s="16" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -70189,7 +70181,7 @@
           <t>295</t>
         </is>
       </c>
-      <c r="AC401" s="17" t="inlineStr">
+      <c r="AC401" s="14" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -71149,7 +71141,7 @@
           <t>763</t>
         </is>
       </c>
-      <c r="AH406" s="17" t="inlineStr">
+      <c r="AH406" s="15" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -71186,7 +71178,7 @@
           <t>755</t>
         </is>
       </c>
-      <c r="D407" s="17" t="inlineStr">
+      <c r="D407" s="5" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -71286,7 +71278,7 @@
           <t>594</t>
         </is>
       </c>
-      <c r="X407" s="17" t="inlineStr">
+      <c r="X407" s="12" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -71326,7 +71318,7 @@
           <t>621</t>
         </is>
       </c>
-      <c r="AF407" s="17" t="inlineStr">
+      <c r="AF407" s="15" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -72211,7 +72203,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="V412" s="17" t="inlineStr">
+      <c r="V412" s="11" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -72944,7 +72936,7 @@
           <t>619</t>
         </is>
       </c>
-      <c r="S416" s="17" t="inlineStr">
+      <c r="S416" s="10" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -73809,7 +73801,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="Y423" s="17" t="inlineStr">
+      <c r="Y423" s="12" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -75270,7 +75262,7 @@
           <t>724</t>
         </is>
       </c>
-      <c r="R431" s="17" t="inlineStr">
+      <c r="R431" s="10" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -76125,7 +76117,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B436" s="17" t="inlineStr">
+      <c r="B436" s="5" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -76529,7 +76521,7 @@
           <t>008</t>
         </is>
       </c>
-      <c r="H438" s="17" t="inlineStr">
+      <c r="H438" s="7" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -76544,7 +76536,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="K438" s="17" t="inlineStr">
+      <c r="K438" s="8" t="inlineStr">
         <is>
           <t>836</t>
         </is>
@@ -77110,7 +77102,7 @@
           <t>879</t>
         </is>
       </c>
-      <c r="L441" s="17" t="inlineStr">
+      <c r="L441" s="8" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -77262,7 +77254,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="E442" s="17" t="inlineStr">
+      <c r="E442" s="6" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -78182,7 +78174,7 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B447" s="17" t="inlineStr">
+      <c r="B447" s="5" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -79162,7 +79154,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K452" s="17" t="inlineStr">
+      <c r="K452" s="8" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -79987,7 +79979,7 @@
           <t>911</t>
         </is>
       </c>
-      <c r="I459" s="17" t="inlineStr">
+      <c r="I459" s="7" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -81361,7 +81353,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="V466" s="17" t="inlineStr">
+      <c r="V466" s="11" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -81421,7 +81413,7 @@
           <t>944</t>
         </is>
       </c>
-      <c r="AH466" s="17" t="inlineStr">
+      <c r="AH466" s="15" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -81583,7 +81575,7 @@
           <t>835</t>
         </is>
       </c>
-      <c r="AC467" s="17" t="inlineStr">
+      <c r="AC467" s="14" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -81670,7 +81662,7 @@
           <t>624</t>
         </is>
       </c>
-      <c r="I468" s="17" t="inlineStr">
+      <c r="I468" s="7" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -81962,7 +81954,7 @@
           <t>346</t>
         </is>
       </c>
-      <c r="AD469" s="17" t="inlineStr">
+      <c r="AD469" s="14" t="inlineStr">
         <is>
           <t>386</t>
         </is>
@@ -82024,7 +82016,7 @@
           <t>385</t>
         </is>
       </c>
-      <c r="E470" s="17" t="inlineStr">
+      <c r="E470" s="6" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -82039,7 +82031,7 @@
           <t>145</t>
         </is>
       </c>
-      <c r="H470" s="17" t="inlineStr">
+      <c r="H470" s="7" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -82802,7 +82794,7 @@
           <t>215</t>
         </is>
       </c>
-      <c r="K474" s="17" t="inlineStr">
+      <c r="K474" s="8" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -83635,7 +83627,7 @@
           <t>685</t>
         </is>
       </c>
-      <c r="AB478" s="17" t="inlineStr">
+      <c r="AB478" s="13" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -84844,7 +84836,7 @@
           <t>677</t>
         </is>
       </c>
-      <c r="H485" s="17" t="inlineStr">
+      <c r="H485" s="7" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -86796,7 +86788,7 @@
           <t>506</t>
         </is>
       </c>
-      <c r="G498" s="17" t="inlineStr">
+      <c r="G498" s="6" t="inlineStr">
         <is>
           <t>368</t>
         </is>
@@ -87689,7 +87681,7 @@
           <t>324</t>
         </is>
       </c>
-      <c r="AJ502" s="17" t="inlineStr">
+      <c r="AJ502" s="16" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -88302,7 +88294,7 @@
           <t>527</t>
         </is>
       </c>
-      <c r="I506" s="17" t="inlineStr">
+      <c r="I506" s="7" t="inlineStr">
         <is>
           <t>066</t>
         </is>
@@ -88397,7 +88389,7 @@
           <t>241</t>
         </is>
       </c>
-      <c r="AB506" s="17" t="inlineStr">
+      <c r="AB506" s="13" t="inlineStr">
         <is>
           <t>638</t>
         </is>
@@ -88599,7 +88591,7 @@
           <t>399</t>
         </is>
       </c>
-      <c r="AE507" s="17" t="inlineStr">
+      <c r="AE507" s="14" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -89207,7 +89199,7 @@
           <t>533</t>
         </is>
       </c>
-      <c r="C511" s="17" t="inlineStr">
+      <c r="C511" s="5" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -91187,7 +91179,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="Y521" s="17" t="inlineStr">
+      <c r="Y521" s="12" t="inlineStr">
         <is>
           <t>683</t>
         </is>
@@ -92046,17 +92038,17 @@
       </c>
       <c r="K532" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>778</t>
         </is>
       </c>
       <c r="L532" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>847</t>
         </is>
       </c>
       <c r="M532" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>323</t>
         </is>
       </c>
     </row>
@@ -92967,12 +92959,12 @@
           <t>446</t>
         </is>
       </c>
-      <c r="H546" s="17" t="inlineStr">
+      <c r="H546" s="7" t="inlineStr">
         <is>
           <t>683</t>
         </is>
       </c>
-      <c r="I546" s="17" t="inlineStr">
+      <c r="I546" s="7" t="inlineStr">
         <is>
           <t>606</t>
         </is>
@@ -93091,7 +93083,7 @@
           <t>323</t>
         </is>
       </c>
-      <c r="F548" s="17" t="inlineStr">
+      <c r="F548" s="6" t="inlineStr">
         <is>
           <t>660</t>
         </is>
@@ -93225,7 +93217,7 @@
           <t>414</t>
         </is>
       </c>
-      <c r="F550" s="17" t="inlineStr">
+      <c r="F550" s="6" t="inlineStr">
         <is>
           <t>863</t>
         </is>
@@ -93674,7 +93666,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B557" s="17" t="inlineStr">
+      <c r="B557" s="5" t="inlineStr">
         <is>
           <t>066</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -92105,17 +92105,17 @@
       </c>
       <c r="K533" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>335</t>
         </is>
       </c>
       <c r="L533" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>772</t>
         </is>
       </c>
       <c r="M533" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>650</t>
         </is>
       </c>
     </row>
@@ -92172,17 +92172,17 @@
       </c>
       <c r="K534" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>405</t>
         </is>
       </c>
       <c r="L534" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>197</t>
         </is>
       </c>
       <c r="M534" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>155</t>
         </is>
       </c>
     </row>
@@ -92239,17 +92239,17 @@
       </c>
       <c r="K535" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>693</t>
         </is>
       </c>
       <c r="L535" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>787</t>
         </is>
       </c>
       <c r="M535" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>816</t>
         </is>
       </c>
     </row>
@@ -92306,17 +92306,17 @@
       </c>
       <c r="K536" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>407</t>
         </is>
       </c>
       <c r="L536" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>498</t>
         </is>
       </c>
       <c r="M536" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>198</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -92373,17 +92373,17 @@
       </c>
       <c r="K537" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>768</t>
         </is>
       </c>
       <c r="L537" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>550</t>
         </is>
       </c>
       <c r="M537" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -92440,17 +92440,17 @@
       </c>
       <c r="K538" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>065</t>
         </is>
       </c>
       <c r="L538" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>555</t>
         </is>
       </c>
       <c r="M538" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>340</t>
         </is>
       </c>
     </row>
@@ -92507,12 +92507,12 @@
       </c>
       <c r="K539" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>959</t>
         </is>
       </c>
       <c r="L539" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>729</t>
         </is>
       </c>
       <c r="M539" s="8" t="inlineStr">

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ccff33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -204,7 +209,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,9 +227,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -246,6 +248,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1652,7 +1660,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P7" s="9" t="inlineStr">
+      <c r="P7" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -1742,7 +1750,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH7" s="15" t="inlineStr">
+      <c r="AH7" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -2273,7 +2281,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB10" s="13" t="inlineStr">
+      <c r="AB10" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -4442,7 +4450,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M22" s="8" t="inlineStr">
+      <c r="M22" s="17" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -8688,7 +8696,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V47" s="11" t="inlineStr">
+      <c r="V47" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -9159,7 +9167,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D50" s="5" t="inlineStr">
+      <c r="D50" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -9441,7 +9449,7 @@
           <t>271</t>
         </is>
       </c>
-      <c r="W51" s="12" t="inlineStr">
+      <c r="W51" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -11655,7 +11663,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="Q63" s="10" t="inlineStr">
+      <c r="Q63" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -12129,7 +12137,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK65" s="16" t="inlineStr">
+      <c r="AK65" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -16432,7 +16440,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="T91" s="11" t="inlineStr">
+      <c r="T91" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -16594,7 +16602,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="O92" s="9" t="inlineStr">
+      <c r="O92" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -17200,7 +17208,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="X95" s="12" t="inlineStr">
+      <c r="X95" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -17539,7 +17547,7 @@
           <t>921</t>
         </is>
       </c>
-      <c r="Q97" s="10" t="inlineStr">
+      <c r="Q97" s="17" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -17918,7 +17926,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="R99" s="10" t="inlineStr">
+      <c r="R99" s="17" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -18050,7 +18058,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G100" s="6" t="inlineStr">
+      <c r="G100" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -19409,7 +19417,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="AK109" s="16" t="inlineStr">
+      <c r="AK109" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -19738,7 +19746,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="AB111" s="13" t="inlineStr">
+      <c r="AB111" s="17" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -19835,7 +19843,7 @@
           <t>381</t>
         </is>
       </c>
-      <c r="J112" s="7" t="inlineStr">
+      <c r="J112" s="17" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -20381,7 +20389,7 @@
           <t>562</t>
         </is>
       </c>
-      <c r="G115" s="6" t="inlineStr">
+      <c r="G115" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -20471,7 +20479,7 @@
           <t>613</t>
         </is>
       </c>
-      <c r="Y115" s="12" t="inlineStr">
+      <c r="Y115" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -22478,7 +22486,7 @@
           <t>375</t>
         </is>
       </c>
-      <c r="O126" s="9" t="inlineStr">
+      <c r="O126" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -26208,7 +26216,7 @@
           <t>929</t>
         </is>
       </c>
-      <c r="AG148" s="15" t="inlineStr">
+      <c r="AG148" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -27063,7 +27071,7 @@
           <t>936</t>
         </is>
       </c>
-      <c r="Q153" s="10" t="inlineStr">
+      <c r="Q153" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -28377,7 +28385,7 @@
           <t>652</t>
         </is>
       </c>
-      <c r="R160" s="10" t="inlineStr">
+      <c r="R160" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -28796,7 +28804,7 @@
           <t>956</t>
         </is>
       </c>
-      <c r="AA162" s="13" t="inlineStr">
+      <c r="AA162" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -28928,7 +28936,7 @@
           <t>294</t>
         </is>
       </c>
-      <c r="P163" s="9" t="inlineStr">
+      <c r="P163" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -29499,7 +29507,7 @@
           <t>199</t>
         </is>
       </c>
-      <c r="R166" s="10" t="inlineStr">
+      <c r="R166" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -29534,7 +29542,7 @@
           <t>340</t>
         </is>
       </c>
-      <c r="Y166" s="12" t="inlineStr">
+      <c r="Y166" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -29746,7 +29754,7 @@
           <t>799</t>
         </is>
       </c>
-      <c r="AD167" s="14" t="inlineStr">
+      <c r="AD167" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -30257,7 +30265,7 @@
           <t>908</t>
         </is>
       </c>
-      <c r="T170" s="11" t="inlineStr">
+      <c r="T170" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -31294,7 +31302,7 @@
           <t>021</t>
         </is>
       </c>
-      <c r="W178" s="12" t="inlineStr">
+      <c r="W178" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -31962,7 +31970,7 @@
           <t>279</t>
         </is>
       </c>
-      <c r="G182" s="6" t="inlineStr">
+      <c r="G182" s="17" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -32740,7 +32748,7 @@
           <t>455</t>
         </is>
       </c>
-      <c r="M186" s="8" t="inlineStr">
+      <c r="M186" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -32750,7 +32758,7 @@
           <t>126</t>
         </is>
       </c>
-      <c r="O186" s="9" t="inlineStr">
+      <c r="O186" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -34802,7 +34810,7 @@
           <t>756</t>
         </is>
       </c>
-      <c r="N197" s="9" t="inlineStr">
+      <c r="N197" s="17" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -35655,7 +35663,7 @@
           <t>327</t>
         </is>
       </c>
-      <c r="AI201" s="16" t="inlineStr">
+      <c r="AI201" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -35772,7 +35780,7 @@
           <t>841</t>
         </is>
       </c>
-      <c r="U202" s="11" t="inlineStr">
+      <c r="U202" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -35879,7 +35887,7 @@
           <t>097</t>
         </is>
       </c>
-      <c r="E203" s="6" t="inlineStr">
+      <c r="E203" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -38128,7 +38136,7 @@
           <t>275</t>
         </is>
       </c>
-      <c r="Z217" s="13" t="inlineStr">
+      <c r="Z217" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -38148,7 +38156,7 @@
           <t>740</t>
         </is>
       </c>
-      <c r="AD217" s="14" t="inlineStr">
+      <c r="AD217" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -38230,7 +38238,7 @@
           <t>033</t>
         </is>
       </c>
-      <c r="I218" s="7" t="inlineStr">
+      <c r="I218" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -38517,7 +38525,7 @@
           <t>532</t>
         </is>
       </c>
-      <c r="AC219" s="14" t="inlineStr">
+      <c r="AC219" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -40584,7 +40592,7 @@
           <t>192</t>
         </is>
       </c>
-      <c r="AE230" s="14" t="inlineStr">
+      <c r="AE230" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -41529,7 +41537,7 @@
           <t>403</t>
         </is>
       </c>
-      <c r="AG235" s="15" t="inlineStr">
+      <c r="AG235" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -42596,7 +42604,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="V241" s="11" t="inlineStr">
+      <c r="V241" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -43386,7 +43394,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="M248" s="8" t="inlineStr">
+      <c r="M248" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -44346,7 +44354,7 @@
           <t>269</t>
         </is>
       </c>
-      <c r="R253" s="10" t="inlineStr">
+      <c r="R253" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -44750,7 +44758,7 @@
           <t>411</t>
         </is>
       </c>
-      <c r="X255" s="12" t="inlineStr">
+      <c r="X255" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -45366,7 +45374,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="AI258" s="16" t="inlineStr">
+      <c r="AI258" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -45533,7 +45541,7 @@
           <t>519</t>
         </is>
       </c>
-      <c r="AE259" s="14" t="inlineStr">
+      <c r="AE259" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -45862,7 +45870,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="V261" s="11" t="inlineStr">
+      <c r="V261" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -46186,7 +46194,7 @@
           <t>371</t>
         </is>
       </c>
-      <c r="L263" s="8" t="inlineStr">
+      <c r="L263" s="17" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -46413,7 +46421,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="T264" s="11" t="inlineStr">
+      <c r="T264" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -46525,7 +46533,7 @@
           <t>835</t>
         </is>
       </c>
-      <c r="E265" s="6" t="inlineStr">
+      <c r="E265" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -47054,7 +47062,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="AJ267" s="16" t="inlineStr">
+      <c r="AJ267" s="17" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -47368,7 +47376,7 @@
           <t>618</t>
         </is>
       </c>
-      <c r="X269" s="12" t="inlineStr">
+      <c r="X269" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -47418,7 +47426,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="AH269" s="15" t="inlineStr">
+      <c r="AH269" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -47530,7 +47538,7 @@
           <t>217</t>
         </is>
       </c>
-      <c r="S270" s="10" t="inlineStr">
+      <c r="S270" s="17" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -47914,7 +47922,7 @@
           <t>856</t>
         </is>
       </c>
-      <c r="U272" s="11" t="inlineStr">
+      <c r="U272" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -47959,7 +47967,7 @@
           <t>643</t>
         </is>
       </c>
-      <c r="AD272" s="14" t="inlineStr">
+      <c r="AD272" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -48849,7 +48857,7 @@
           <t>227</t>
         </is>
       </c>
-      <c r="U277" s="11" t="inlineStr">
+      <c r="U277" s="17" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -49659,7 +49667,7 @@
           <t>763</t>
         </is>
       </c>
-      <c r="P284" s="9" t="inlineStr">
+      <c r="P284" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -50185,7 +50193,7 @@
           <t>584</t>
         </is>
       </c>
-      <c r="I287" s="7" t="inlineStr">
+      <c r="I287" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -51327,7 +51335,7 @@
           <t>964</t>
         </is>
       </c>
-      <c r="M293" s="8" t="inlineStr">
+      <c r="M293" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -51539,7 +51547,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="R294" s="10" t="inlineStr">
+      <c r="R294" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -51838,7 +51846,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="C296" s="5" t="inlineStr">
+      <c r="C296" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -52008,7 +52016,7 @@
           <t>148</t>
         </is>
       </c>
-      <c r="AK296" s="16" t="inlineStr">
+      <c r="AK296" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -52217,7 +52225,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="D298" s="5" t="inlineStr">
+      <c r="D298" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -52706,7 +52714,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="AA300" s="13" t="inlineStr">
+      <c r="AA300" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -53317,7 +53325,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="AK303" s="16" t="inlineStr">
+      <c r="AK303" s="17" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -54369,7 +54377,7 @@
           <t>244</t>
         </is>
       </c>
-      <c r="W309" s="12" t="inlineStr">
+      <c r="W309" s="17" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -54379,7 +54387,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="Y309" s="12" t="inlineStr">
+      <c r="Y309" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -54429,7 +54437,7 @@
           <t>688</t>
         </is>
       </c>
-      <c r="AI309" s="16" t="inlineStr">
+      <c r="AI309" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -55047,7 +55055,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="I313" s="7" t="inlineStr">
+      <c r="I313" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -56074,7 +56082,7 @@
           <t>205</t>
         </is>
       </c>
-      <c r="J321" s="7" t="inlineStr">
+      <c r="J321" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -56610,7 +56618,7 @@
           <t>653</t>
         </is>
       </c>
-      <c r="E324" s="6" t="inlineStr">
+      <c r="E324" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -56695,7 +56703,7 @@
           <t>217</t>
         </is>
       </c>
-      <c r="V324" s="11" t="inlineStr">
+      <c r="V324" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -56872,7 +56880,7 @@
           <t>242</t>
         </is>
       </c>
-      <c r="T325" s="11" t="inlineStr">
+      <c r="T325" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -57161,7 +57169,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="C327" s="5" t="inlineStr">
+      <c r="C327" s="17" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -58054,7 +58062,7 @@
           <t>201</t>
         </is>
       </c>
-      <c r="AF331" s="15" t="inlineStr">
+      <c r="AF331" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -58767,7 +58775,7 @@
           <t>279</t>
         </is>
       </c>
-      <c r="Y335" s="12" t="inlineStr">
+      <c r="Y335" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -60415,7 +60423,7 @@
           <t>184</t>
         </is>
       </c>
-      <c r="R344" s="10" t="inlineStr">
+      <c r="R344" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -60956,7 +60964,7 @@
           <t>231</t>
         </is>
       </c>
-      <c r="N347" s="9" t="inlineStr">
+      <c r="N347" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -61801,7 +61809,7 @@
           <t>517</t>
         </is>
       </c>
-      <c r="P354" s="9" t="inlineStr">
+      <c r="P354" s="17" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -63449,7 +63457,7 @@
           <t>016</t>
         </is>
       </c>
-      <c r="I363" s="7" t="inlineStr">
+      <c r="I363" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -63943,7 +63951,7 @@
           <t>606</t>
         </is>
       </c>
-      <c r="AG365" s="15" t="inlineStr">
+      <c r="AG365" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -64459,7 +64467,7 @@
           <t>938</t>
         </is>
       </c>
-      <c r="X368" s="12" t="inlineStr">
+      <c r="X368" s="17" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -65516,7 +65524,7 @@
           <t>040</t>
         </is>
       </c>
-      <c r="K374" s="8" t="inlineStr">
+      <c r="K374" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -65683,7 +65691,7 @@
           <t>958</t>
         </is>
       </c>
-      <c r="G375" s="6" t="inlineStr">
+      <c r="G375" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -65713,7 +65721,7 @@
           <t>822</t>
         </is>
       </c>
-      <c r="M375" s="8" t="inlineStr">
+      <c r="M375" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -65975,7 +65983,7 @@
           <t>307</t>
         </is>
       </c>
-      <c r="AB376" s="13" t="inlineStr">
+      <c r="AB376" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -66005,7 +66013,7 @@
           <t>003</t>
         </is>
       </c>
-      <c r="AH376" s="15" t="inlineStr">
+      <c r="AH376" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -66102,7 +66110,7 @@
           <t>624</t>
         </is>
       </c>
-      <c r="P377" s="9" t="inlineStr">
+      <c r="P377" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -66618,7 +66626,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="G380" s="6" t="inlineStr">
+      <c r="G380" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -66673,7 +66681,7 @@
           <t>711</t>
         </is>
       </c>
-      <c r="R380" s="10" t="inlineStr">
+      <c r="R380" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -66967,7 +66975,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B382" s="5" t="inlineStr">
+      <c r="B382" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -67785,7 +67793,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AJ388" s="16" t="inlineStr">
+      <c r="AJ388" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -68346,7 +68354,7 @@
           <t>585</t>
         </is>
       </c>
-      <c r="AJ391" s="16" t="inlineStr">
+      <c r="AJ391" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -69373,7 +69381,7 @@
           <t>747</t>
         </is>
       </c>
-      <c r="Q397" s="10" t="inlineStr">
+      <c r="Q397" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -69495,7 +69503,7 @@
           <t>364</t>
         </is>
       </c>
-      <c r="D398" s="5" t="inlineStr">
+      <c r="D398" s="17" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -69640,7 +69648,7 @@
           <t>759</t>
         </is>
       </c>
-      <c r="AG398" s="15" t="inlineStr">
+      <c r="AG398" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -71303,7 +71311,7 @@
           <t>698</t>
         </is>
       </c>
-      <c r="AC407" s="14" t="inlineStr">
+      <c r="AC407" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -71854,7 +71862,7 @@
           <t>813</t>
         </is>
       </c>
-      <c r="AA410" s="13" t="inlineStr">
+      <c r="AA410" s="17" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -74125,7 +74133,7 @@
           <t>398</t>
         </is>
       </c>
-      <c r="O425" s="9" t="inlineStr">
+      <c r="O425" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -75758,7 +75766,7 @@
           <t>306</t>
         </is>
       </c>
-      <c r="E434" s="6" t="inlineStr">
+      <c r="E434" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -76818,7 +76826,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="AD439" s="14" t="inlineStr">
+      <c r="AD439" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -76905,12 +76913,12 @@
           <t>279</t>
         </is>
       </c>
-      <c r="J440" s="7" t="inlineStr">
+      <c r="J440" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
       </c>
-      <c r="K440" s="8" t="inlineStr">
+      <c r="K440" s="17" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -77501,7 +77509,7 @@
           <t>239</t>
         </is>
       </c>
-      <c r="Q443" s="10" t="inlineStr">
+      <c r="Q443" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -77521,7 +77529,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="U443" s="11" t="inlineStr">
+      <c r="U443" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -78264,7 +78272,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="T447" s="11" t="inlineStr">
+      <c r="T447" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -78673,7 +78681,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="AA449" s="13" t="inlineStr">
+      <c r="AA449" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -78693,7 +78701,7 @@
           <t>758</t>
         </is>
       </c>
-      <c r="AE449" s="14" t="inlineStr">
+      <c r="AE449" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -80054,7 +80062,7 @@
           <t>841</t>
         </is>
       </c>
-      <c r="X459" s="12" t="inlineStr">
+      <c r="X459" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -80797,7 +80805,7 @@
           <t>217</t>
         </is>
       </c>
-      <c r="W463" s="12" t="inlineStr">
+      <c r="W463" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -81066,7 +81074,7 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B465" s="5" t="inlineStr">
+      <c r="B465" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -81869,7 +81877,7 @@
           <t>310</t>
         </is>
       </c>
-      <c r="M469" s="8" t="inlineStr">
+      <c r="M469" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -83128,7 +83136,7 @@
           <t>375</t>
         </is>
       </c>
-      <c r="C476" s="5" t="inlineStr">
+      <c r="C476" s="17" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -83739,7 +83747,7 @@
           <t>897</t>
         </is>
       </c>
-      <c r="M479" s="8" t="inlineStr">
+      <c r="M479" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -84118,7 +84126,7 @@
           <t>383</t>
         </is>
       </c>
-      <c r="N481" s="9" t="inlineStr">
+      <c r="N481" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -84365,7 +84373,7 @@
           <t>952</t>
         </is>
       </c>
-      <c r="Z482" s="13" t="inlineStr">
+      <c r="Z482" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -84896,7 +84904,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="T485" s="11" t="inlineStr">
+      <c r="T485" s="17" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -85397,7 +85405,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H488" s="7" t="inlineStr">
+      <c r="H488" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -86893,7 +86901,7 @@
           <t>839</t>
         </is>
       </c>
-      <c r="AB498" s="13" t="inlineStr">
+      <c r="AB498" s="17" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -90279,7 +90287,7 @@
           <t>343</t>
         </is>
       </c>
-      <c r="AF516" s="15" t="inlineStr">
+      <c r="AF516" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -90471,7 +90479,7 @@
           <t>039</t>
         </is>
       </c>
-      <c r="AG517" s="15" t="inlineStr">
+      <c r="AG517" s="17" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -90623,7 +90631,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="Z518" s="13" t="inlineStr">
+      <c r="Z518" s="17" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -90850,7 +90858,7 @@
           <t>376</t>
         </is>
       </c>
-      <c r="AH519" s="15" t="inlineStr">
+      <c r="AH519" s="17" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -92006,7 +92014,7 @@
           <t>852</t>
         </is>
       </c>
-      <c r="E532" s="6" t="inlineStr">
+      <c r="E532" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -92036,12 +92044,12 @@
           <t>089</t>
         </is>
       </c>
-      <c r="K532" s="8" t="inlineStr">
+      <c r="K532" s="17" t="inlineStr">
         <is>
           <t>778</t>
         </is>
       </c>
-      <c r="L532" s="8" t="inlineStr">
+      <c r="L532" s="17" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -92242,7 +92250,7 @@
           <t>693</t>
         </is>
       </c>
-      <c r="L535" s="8" t="inlineStr">
+      <c r="L535" s="17" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -92517,7 +92525,7 @@
       </c>
       <c r="M539" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>368</t>
         </is>
       </c>
     </row>
@@ -92624,7 +92632,7 @@
           <t>597</t>
         </is>
       </c>
-      <c r="H541" s="7" t="inlineStr">
+      <c r="H541" s="17" t="inlineStr">
         <is>
           <t>487</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -54,11 +54,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ccff33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -209,7 +204,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +222,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -248,12 +246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1660,7 +1652,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P7" s="17" t="inlineStr">
+      <c r="P7" s="9" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -1750,7 +1742,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH7" s="17" t="inlineStr">
+      <c r="AH7" s="15" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -2281,7 +2273,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB10" s="17" t="inlineStr">
+      <c r="AB10" s="13" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -4450,7 +4442,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M22" s="17" t="inlineStr">
+      <c r="M22" s="8" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -8696,7 +8688,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V47" s="17" t="inlineStr">
+      <c r="V47" s="11" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -9167,7 +9159,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D50" s="17" t="inlineStr">
+      <c r="D50" s="5" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -9449,7 +9441,7 @@
           <t>271</t>
         </is>
       </c>
-      <c r="W51" s="17" t="inlineStr">
+      <c r="W51" s="12" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -11663,7 +11655,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="Q63" s="17" t="inlineStr">
+      <c r="Q63" s="10" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -12137,7 +12129,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK65" s="17" t="inlineStr">
+      <c r="AK65" s="16" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -16440,7 +16432,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="T91" s="17" t="inlineStr">
+      <c r="T91" s="11" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -16602,7 +16594,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="O92" s="17" t="inlineStr">
+      <c r="O92" s="9" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -17208,7 +17200,7 @@
           <t>638</t>
         </is>
       </c>
-      <c r="X95" s="17" t="inlineStr">
+      <c r="X95" s="12" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -17547,7 +17539,7 @@
           <t>921</t>
         </is>
       </c>
-      <c r="Q97" s="17" t="inlineStr">
+      <c r="Q97" s="10" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -17926,7 +17918,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="R99" s="17" t="inlineStr">
+      <c r="R99" s="10" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -18058,7 +18050,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G100" s="17" t="inlineStr">
+      <c r="G100" s="6" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -19417,7 +19409,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="AK109" s="17" t="inlineStr">
+      <c r="AK109" s="16" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -19746,7 +19738,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="AB111" s="17" t="inlineStr">
+      <c r="AB111" s="13" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -19843,7 +19835,7 @@
           <t>381</t>
         </is>
       </c>
-      <c r="J112" s="17" t="inlineStr">
+      <c r="J112" s="7" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -20389,7 +20381,7 @@
           <t>562</t>
         </is>
       </c>
-      <c r="G115" s="17" t="inlineStr">
+      <c r="G115" s="6" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -20479,7 +20471,7 @@
           <t>613</t>
         </is>
       </c>
-      <c r="Y115" s="17" t="inlineStr">
+      <c r="Y115" s="12" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -22486,7 +22478,7 @@
           <t>375</t>
         </is>
       </c>
-      <c r="O126" s="17" t="inlineStr">
+      <c r="O126" s="9" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -26216,7 +26208,7 @@
           <t>929</t>
         </is>
       </c>
-      <c r="AG148" s="17" t="inlineStr">
+      <c r="AG148" s="15" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -27071,7 +27063,7 @@
           <t>936</t>
         </is>
       </c>
-      <c r="Q153" s="17" t="inlineStr">
+      <c r="Q153" s="10" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -28385,7 +28377,7 @@
           <t>652</t>
         </is>
       </c>
-      <c r="R160" s="17" t="inlineStr">
+      <c r="R160" s="10" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -28804,7 +28796,7 @@
           <t>956</t>
         </is>
       </c>
-      <c r="AA162" s="17" t="inlineStr">
+      <c r="AA162" s="13" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -28936,7 +28928,7 @@
           <t>294</t>
         </is>
       </c>
-      <c r="P163" s="17" t="inlineStr">
+      <c r="P163" s="9" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -29507,7 +29499,7 @@
           <t>199</t>
         </is>
       </c>
-      <c r="R166" s="17" t="inlineStr">
+      <c r="R166" s="10" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -29542,7 +29534,7 @@
           <t>340</t>
         </is>
       </c>
-      <c r="Y166" s="17" t="inlineStr">
+      <c r="Y166" s="12" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -29754,7 +29746,7 @@
           <t>799</t>
         </is>
       </c>
-      <c r="AD167" s="17" t="inlineStr">
+      <c r="AD167" s="14" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -30265,7 +30257,7 @@
           <t>908</t>
         </is>
       </c>
-      <c r="T170" s="17" t="inlineStr">
+      <c r="T170" s="11" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -31302,7 +31294,7 @@
           <t>021</t>
         </is>
       </c>
-      <c r="W178" s="17" t="inlineStr">
+      <c r="W178" s="12" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -31970,7 +31962,7 @@
           <t>279</t>
         </is>
       </c>
-      <c r="G182" s="17" t="inlineStr">
+      <c r="G182" s="6" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -32748,7 +32740,7 @@
           <t>455</t>
         </is>
       </c>
-      <c r="M186" s="17" t="inlineStr">
+      <c r="M186" s="8" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -32758,7 +32750,7 @@
           <t>126</t>
         </is>
       </c>
-      <c r="O186" s="17" t="inlineStr">
+      <c r="O186" s="9" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -34810,7 +34802,7 @@
           <t>756</t>
         </is>
       </c>
-      <c r="N197" s="17" t="inlineStr">
+      <c r="N197" s="9" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -35663,7 +35655,7 @@
           <t>327</t>
         </is>
       </c>
-      <c r="AI201" s="17" t="inlineStr">
+      <c r="AI201" s="16" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -35780,7 +35772,7 @@
           <t>841</t>
         </is>
       </c>
-      <c r="U202" s="17" t="inlineStr">
+      <c r="U202" s="11" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -35887,7 +35879,7 @@
           <t>097</t>
         </is>
       </c>
-      <c r="E203" s="17" t="inlineStr">
+      <c r="E203" s="6" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -38136,7 +38128,7 @@
           <t>275</t>
         </is>
       </c>
-      <c r="Z217" s="17" t="inlineStr">
+      <c r="Z217" s="13" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -38156,7 +38148,7 @@
           <t>740</t>
         </is>
       </c>
-      <c r="AD217" s="17" t="inlineStr">
+      <c r="AD217" s="14" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -38238,7 +38230,7 @@
           <t>033</t>
         </is>
       </c>
-      <c r="I218" s="17" t="inlineStr">
+      <c r="I218" s="7" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -38525,7 +38517,7 @@
           <t>532</t>
         </is>
       </c>
-      <c r="AC219" s="17" t="inlineStr">
+      <c r="AC219" s="14" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -40592,7 +40584,7 @@
           <t>192</t>
         </is>
       </c>
-      <c r="AE230" s="17" t="inlineStr">
+      <c r="AE230" s="14" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -41537,7 +41529,7 @@
           <t>403</t>
         </is>
       </c>
-      <c r="AG235" s="17" t="inlineStr">
+      <c r="AG235" s="15" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -42604,7 +42596,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="V241" s="17" t="inlineStr">
+      <c r="V241" s="11" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -43394,7 +43386,7 @@
           <t>825</t>
         </is>
       </c>
-      <c r="M248" s="17" t="inlineStr">
+      <c r="M248" s="8" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -44354,7 +44346,7 @@
           <t>269</t>
         </is>
       </c>
-      <c r="R253" s="17" t="inlineStr">
+      <c r="R253" s="10" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -44758,7 +44750,7 @@
           <t>411</t>
         </is>
       </c>
-      <c r="X255" s="17" t="inlineStr">
+      <c r="X255" s="12" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -45374,7 +45366,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="AI258" s="17" t="inlineStr">
+      <c r="AI258" s="16" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -45541,7 +45533,7 @@
           <t>519</t>
         </is>
       </c>
-      <c r="AE259" s="17" t="inlineStr">
+      <c r="AE259" s="14" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -45870,7 +45862,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="V261" s="17" t="inlineStr">
+      <c r="V261" s="11" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -46194,7 +46186,7 @@
           <t>371</t>
         </is>
       </c>
-      <c r="L263" s="17" t="inlineStr">
+      <c r="L263" s="8" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -46421,7 +46413,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="T264" s="17" t="inlineStr">
+      <c r="T264" s="11" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -46533,7 +46525,7 @@
           <t>835</t>
         </is>
       </c>
-      <c r="E265" s="17" t="inlineStr">
+      <c r="E265" s="6" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -47062,7 +47054,7 @@
           <t>495</t>
         </is>
       </c>
-      <c r="AJ267" s="17" t="inlineStr">
+      <c r="AJ267" s="16" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -47376,7 +47368,7 @@
           <t>618</t>
         </is>
       </c>
-      <c r="X269" s="17" t="inlineStr">
+      <c r="X269" s="12" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -47426,7 +47418,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="AH269" s="17" t="inlineStr">
+      <c r="AH269" s="15" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -47538,7 +47530,7 @@
           <t>217</t>
         </is>
       </c>
-      <c r="S270" s="17" t="inlineStr">
+      <c r="S270" s="10" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -47922,7 +47914,7 @@
           <t>856</t>
         </is>
       </c>
-      <c r="U272" s="17" t="inlineStr">
+      <c r="U272" s="11" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -47967,7 +47959,7 @@
           <t>643</t>
         </is>
       </c>
-      <c r="AD272" s="17" t="inlineStr">
+      <c r="AD272" s="14" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -48857,7 +48849,7 @@
           <t>227</t>
         </is>
       </c>
-      <c r="U277" s="17" t="inlineStr">
+      <c r="U277" s="11" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -49667,7 +49659,7 @@
           <t>763</t>
         </is>
       </c>
-      <c r="P284" s="17" t="inlineStr">
+      <c r="P284" s="9" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -50193,7 +50185,7 @@
           <t>584</t>
         </is>
       </c>
-      <c r="I287" s="17" t="inlineStr">
+      <c r="I287" s="7" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -51335,7 +51327,7 @@
           <t>964</t>
         </is>
       </c>
-      <c r="M293" s="17" t="inlineStr">
+      <c r="M293" s="8" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -51547,7 +51539,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="R294" s="17" t="inlineStr">
+      <c r="R294" s="10" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -51846,7 +51838,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="C296" s="17" t="inlineStr">
+      <c r="C296" s="5" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -52016,7 +52008,7 @@
           <t>148</t>
         </is>
       </c>
-      <c r="AK296" s="17" t="inlineStr">
+      <c r="AK296" s="16" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -52225,7 +52217,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="D298" s="17" t="inlineStr">
+      <c r="D298" s="5" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -52714,7 +52706,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="AA300" s="17" t="inlineStr">
+      <c r="AA300" s="13" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -53325,7 +53317,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="AK303" s="17" t="inlineStr">
+      <c r="AK303" s="16" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -54377,7 +54369,7 @@
           <t>244</t>
         </is>
       </c>
-      <c r="W309" s="17" t="inlineStr">
+      <c r="W309" s="12" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -54387,7 +54379,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="Y309" s="17" t="inlineStr">
+      <c r="Y309" s="12" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -54437,7 +54429,7 @@
           <t>688</t>
         </is>
       </c>
-      <c r="AI309" s="17" t="inlineStr">
+      <c r="AI309" s="16" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -55055,7 +55047,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="I313" s="17" t="inlineStr">
+      <c r="I313" s="7" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -56082,7 +56074,7 @@
           <t>205</t>
         </is>
       </c>
-      <c r="J321" s="17" t="inlineStr">
+      <c r="J321" s="7" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -56618,7 +56610,7 @@
           <t>653</t>
         </is>
       </c>
-      <c r="E324" s="17" t="inlineStr">
+      <c r="E324" s="6" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -56703,7 +56695,7 @@
           <t>217</t>
         </is>
       </c>
-      <c r="V324" s="17" t="inlineStr">
+      <c r="V324" s="11" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -56880,7 +56872,7 @@
           <t>242</t>
         </is>
       </c>
-      <c r="T325" s="17" t="inlineStr">
+      <c r="T325" s="11" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -57169,7 +57161,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="C327" s="17" t="inlineStr">
+      <c r="C327" s="5" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -58062,7 +58054,7 @@
           <t>201</t>
         </is>
       </c>
-      <c r="AF331" s="17" t="inlineStr">
+      <c r="AF331" s="15" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -58775,7 +58767,7 @@
           <t>279</t>
         </is>
       </c>
-      <c r="Y335" s="17" t="inlineStr">
+      <c r="Y335" s="12" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -60423,7 +60415,7 @@
           <t>184</t>
         </is>
       </c>
-      <c r="R344" s="17" t="inlineStr">
+      <c r="R344" s="10" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -60964,7 +60956,7 @@
           <t>231</t>
         </is>
       </c>
-      <c r="N347" s="17" t="inlineStr">
+      <c r="N347" s="9" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -61809,7 +61801,7 @@
           <t>517</t>
         </is>
       </c>
-      <c r="P354" s="17" t="inlineStr">
+      <c r="P354" s="9" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -63457,7 +63449,7 @@
           <t>016</t>
         </is>
       </c>
-      <c r="I363" s="17" t="inlineStr">
+      <c r="I363" s="7" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -63951,7 +63943,7 @@
           <t>606</t>
         </is>
       </c>
-      <c r="AG365" s="17" t="inlineStr">
+      <c r="AG365" s="15" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -64467,7 +64459,7 @@
           <t>938</t>
         </is>
       </c>
-      <c r="X368" s="17" t="inlineStr">
+      <c r="X368" s="12" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -65524,7 +65516,7 @@
           <t>040</t>
         </is>
       </c>
-      <c r="K374" s="17" t="inlineStr">
+      <c r="K374" s="8" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -65691,7 +65683,7 @@
           <t>958</t>
         </is>
       </c>
-      <c r="G375" s="17" t="inlineStr">
+      <c r="G375" s="6" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -65721,7 +65713,7 @@
           <t>822</t>
         </is>
       </c>
-      <c r="M375" s="17" t="inlineStr">
+      <c r="M375" s="8" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -65983,7 +65975,7 @@
           <t>307</t>
         </is>
       </c>
-      <c r="AB376" s="17" t="inlineStr">
+      <c r="AB376" s="13" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -66013,7 +66005,7 @@
           <t>003</t>
         </is>
       </c>
-      <c r="AH376" s="17" t="inlineStr">
+      <c r="AH376" s="15" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -66110,7 +66102,7 @@
           <t>624</t>
         </is>
       </c>
-      <c r="P377" s="17" t="inlineStr">
+      <c r="P377" s="9" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -66626,7 +66618,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="G380" s="17" t="inlineStr">
+      <c r="G380" s="6" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -66681,7 +66673,7 @@
           <t>711</t>
         </is>
       </c>
-      <c r="R380" s="17" t="inlineStr">
+      <c r="R380" s="10" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -66975,7 +66967,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B382" s="17" t="inlineStr">
+      <c r="B382" s="5" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -67793,7 +67785,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AJ388" s="17" t="inlineStr">
+      <c r="AJ388" s="16" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -68354,7 +68346,7 @@
           <t>585</t>
         </is>
       </c>
-      <c r="AJ391" s="17" t="inlineStr">
+      <c r="AJ391" s="16" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -69381,7 +69373,7 @@
           <t>747</t>
         </is>
       </c>
-      <c r="Q397" s="17" t="inlineStr">
+      <c r="Q397" s="10" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -69503,7 +69495,7 @@
           <t>364</t>
         </is>
       </c>
-      <c r="D398" s="17" t="inlineStr">
+      <c r="D398" s="5" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -69648,7 +69640,7 @@
           <t>759</t>
         </is>
       </c>
-      <c r="AG398" s="17" t="inlineStr">
+      <c r="AG398" s="15" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -71311,7 +71303,7 @@
           <t>698</t>
         </is>
       </c>
-      <c r="AC407" s="17" t="inlineStr">
+      <c r="AC407" s="14" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -71862,7 +71854,7 @@
           <t>813</t>
         </is>
       </c>
-      <c r="AA410" s="17" t="inlineStr">
+      <c r="AA410" s="13" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -74133,7 +74125,7 @@
           <t>398</t>
         </is>
       </c>
-      <c r="O425" s="17" t="inlineStr">
+      <c r="O425" s="9" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -75766,7 +75758,7 @@
           <t>306</t>
         </is>
       </c>
-      <c r="E434" s="17" t="inlineStr">
+      <c r="E434" s="6" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -76826,7 +76818,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="AD439" s="17" t="inlineStr">
+      <c r="AD439" s="14" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -76913,12 +76905,12 @@
           <t>279</t>
         </is>
       </c>
-      <c r="J440" s="17" t="inlineStr">
+      <c r="J440" s="7" t="inlineStr">
         <is>
           <t>874</t>
         </is>
       </c>
-      <c r="K440" s="17" t="inlineStr">
+      <c r="K440" s="8" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -77509,7 +77501,7 @@
           <t>239</t>
         </is>
       </c>
-      <c r="Q443" s="17" t="inlineStr">
+      <c r="Q443" s="10" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -77529,7 +77521,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="U443" s="17" t="inlineStr">
+      <c r="U443" s="11" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -78272,7 +78264,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="T447" s="17" t="inlineStr">
+      <c r="T447" s="11" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -78681,7 +78673,7 @@
           <t>520</t>
         </is>
       </c>
-      <c r="AA449" s="17" t="inlineStr">
+      <c r="AA449" s="13" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -78701,7 +78693,7 @@
           <t>758</t>
         </is>
       </c>
-      <c r="AE449" s="17" t="inlineStr">
+      <c r="AE449" s="14" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -80062,7 +80054,7 @@
           <t>841</t>
         </is>
       </c>
-      <c r="X459" s="17" t="inlineStr">
+      <c r="X459" s="12" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -80805,7 +80797,7 @@
           <t>217</t>
         </is>
       </c>
-      <c r="W463" s="17" t="inlineStr">
+      <c r="W463" s="12" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -81074,7 +81066,7 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B465" s="17" t="inlineStr">
+      <c r="B465" s="5" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -81877,7 +81869,7 @@
           <t>310</t>
         </is>
       </c>
-      <c r="M469" s="17" t="inlineStr">
+      <c r="M469" s="8" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -83136,7 +83128,7 @@
           <t>375</t>
         </is>
       </c>
-      <c r="C476" s="17" t="inlineStr">
+      <c r="C476" s="5" t="inlineStr">
         <is>
           <t>874</t>
         </is>
@@ -83747,7 +83739,7 @@
           <t>897</t>
         </is>
       </c>
-      <c r="M479" s="17" t="inlineStr">
+      <c r="M479" s="8" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -84126,7 +84118,7 @@
           <t>383</t>
         </is>
       </c>
-      <c r="N481" s="17" t="inlineStr">
+      <c r="N481" s="9" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -84373,7 +84365,7 @@
           <t>952</t>
         </is>
       </c>
-      <c r="Z482" s="17" t="inlineStr">
+      <c r="Z482" s="13" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -84904,7 +84896,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="T485" s="17" t="inlineStr">
+      <c r="T485" s="11" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -85405,7 +85397,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H488" s="17" t="inlineStr">
+      <c r="H488" s="7" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -86901,7 +86893,7 @@
           <t>839</t>
         </is>
       </c>
-      <c r="AB498" s="17" t="inlineStr">
+      <c r="AB498" s="13" t="inlineStr">
         <is>
           <t>784</t>
         </is>
@@ -90287,7 +90279,7 @@
           <t>343</t>
         </is>
       </c>
-      <c r="AF516" s="17" t="inlineStr">
+      <c r="AF516" s="15" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -90479,7 +90471,7 @@
           <t>039</t>
         </is>
       </c>
-      <c r="AG517" s="17" t="inlineStr">
+      <c r="AG517" s="15" t="inlineStr">
         <is>
           <t>748</t>
         </is>
@@ -90631,7 +90623,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="Z518" s="17" t="inlineStr">
+      <c r="Z518" s="13" t="inlineStr">
         <is>
           <t>478</t>
         </is>
@@ -90858,7 +90850,7 @@
           <t>376</t>
         </is>
       </c>
-      <c r="AH519" s="17" t="inlineStr">
+      <c r="AH519" s="15" t="inlineStr">
         <is>
           <t>877</t>
         </is>
@@ -92014,7 +92006,7 @@
           <t>852</t>
         </is>
       </c>
-      <c r="E532" s="17" t="inlineStr">
+      <c r="E532" s="6" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -92044,12 +92036,12 @@
           <t>089</t>
         </is>
       </c>
-      <c r="K532" s="17" t="inlineStr">
+      <c r="K532" s="8" t="inlineStr">
         <is>
           <t>778</t>
         </is>
       </c>
-      <c r="L532" s="17" t="inlineStr">
+      <c r="L532" s="8" t="inlineStr">
         <is>
           <t>847</t>
         </is>
@@ -92250,7 +92242,7 @@
           <t>693</t>
         </is>
       </c>
-      <c r="L535" s="17" t="inlineStr">
+      <c r="L535" s="8" t="inlineStr">
         <is>
           <t>787</t>
         </is>
@@ -92582,17 +92574,17 @@
       </c>
       <c r="K540" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>248</t>
         </is>
       </c>
       <c r="L540" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>764</t>
         </is>
       </c>
       <c r="M540" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>471</t>
         </is>
       </c>
     </row>
@@ -92632,7 +92624,7 @@
           <t>597</t>
         </is>
       </c>
-      <c r="H541" s="17" t="inlineStr">
+      <c r="H541" s="7" t="inlineStr">
         <is>
           <t>487</t>
         </is>
@@ -92649,17 +92641,17 @@
       </c>
       <c r="K541" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>727</t>
         </is>
       </c>
       <c r="L541" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>081</t>
         </is>
       </c>
       <c r="M541" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>392</t>
         </is>
       </c>
     </row>
@@ -92716,17 +92708,17 @@
       </c>
       <c r="K542" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>389</t>
         </is>
       </c>
       <c r="L542" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>818</t>
         </is>
       </c>
       <c r="M542" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>546</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -92775,17 +92775,17 @@
       </c>
       <c r="K543" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>217</t>
         </is>
       </c>
       <c r="L543" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>608</t>
         </is>
       </c>
       <c r="M543" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>097</t>
         </is>
       </c>
     </row>
@@ -92842,17 +92842,17 @@
       </c>
       <c r="K544" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>190</t>
         </is>
       </c>
       <c r="L544" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>944</t>
         </is>
       </c>
       <c r="M544" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -92909,17 +92909,17 @@
       </c>
       <c r="K545" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>744</t>
         </is>
       </c>
       <c r="L545" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>163</t>
         </is>
       </c>
       <c r="M545" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>976</t>
         </is>
       </c>
     </row>
@@ -92976,17 +92976,17 @@
       </c>
       <c r="K546" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>478</t>
         </is>
       </c>
       <c r="L546" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>899</t>
         </is>
       </c>
       <c r="M546" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>408</t>
         </is>
       </c>
     </row>
@@ -93043,17 +93043,17 @@
       </c>
       <c r="K547" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>317</t>
         </is>
       </c>
       <c r="L547" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>443</t>
         </is>
       </c>
       <c r="M547" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>601</t>
         </is>
       </c>
     </row>
@@ -93110,17 +93110,17 @@
       </c>
       <c r="K548" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>060</t>
         </is>
       </c>
       <c r="L548" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>318</t>
         </is>
       </c>
       <c r="M548" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>145</t>
         </is>
       </c>
     </row>
@@ -93177,17 +93177,17 @@
       </c>
       <c r="K549" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>696</t>
         </is>
       </c>
       <c r="L549" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>422</t>
         </is>
       </c>
       <c r="M549" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -93244,17 +93244,17 @@
       </c>
       <c r="K550" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>557</t>
         </is>
       </c>
       <c r="L550" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>839</t>
         </is>
       </c>
       <c r="M550" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>863</t>
         </is>
       </c>
     </row>
@@ -93311,17 +93311,17 @@
       </c>
       <c r="K551" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>331</t>
         </is>
       </c>
       <c r="L551" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M551" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>887</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -39,6 +39,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ff6699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -204,7 +209,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,9 +218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -246,6 +248,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1069,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="J4" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -1570,7 +1578,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK6" s="16" t="inlineStr">
+      <c r="AK6" s="17" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -1779,7 +1787,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -1809,7 +1817,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J8" s="7" t="inlineStr">
+      <c r="J8" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -2121,7 +2129,7 @@
           <t>122</t>
         </is>
       </c>
-      <c r="AI9" s="16" t="inlineStr">
+      <c r="AI9" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -2385,7 +2393,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M11" s="8" t="inlineStr">
+      <c r="M11" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -2400,7 +2408,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P11" s="9" t="inlineStr">
+      <c r="P11" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -2430,7 +2438,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V11" s="11" t="inlineStr">
+      <c r="V11" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -2445,7 +2453,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y11" s="12" t="inlineStr">
+      <c r="Y11" s="17" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -2460,7 +2468,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB11" s="13" t="inlineStr">
+      <c r="AB11" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -3103,7 +3111,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G15" s="6" t="inlineStr">
+      <c r="G15" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -3664,7 +3672,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="G18" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -3739,7 +3747,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V18" s="11" t="inlineStr">
+      <c r="V18" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -3851,7 +3859,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="G19" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -3896,7 +3904,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P19" s="9" t="inlineStr">
+      <c r="P19" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -4188,7 +4196,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK20" s="16" t="inlineStr">
+      <c r="AK20" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -4300,7 +4308,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V21" s="11" t="inlineStr">
+      <c r="V21" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -4365,7 +4373,7 @@
           <t>342</t>
         </is>
       </c>
-      <c r="AI21" s="16" t="inlineStr">
+      <c r="AI21" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -4502,7 +4510,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y22" s="12" t="inlineStr">
+      <c r="Y22" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -4532,7 +4540,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE22" s="14" t="inlineStr">
+      <c r="AE22" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -4644,7 +4652,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P23" s="9" t="inlineStr">
+      <c r="P23" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -4786,7 +4794,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G24" s="6" t="inlineStr">
+      <c r="G24" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -4816,7 +4824,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M24" s="8" t="inlineStr">
+      <c r="M24" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -4936,7 +4944,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK24" s="16" t="inlineStr">
+      <c r="AK24" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -5113,7 +5121,7 @@
           <t>736</t>
         </is>
       </c>
-      <c r="AI25" s="16" t="inlineStr">
+      <c r="AI25" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -5519,7 +5527,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D28" s="17" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -5968,7 +5976,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S30" s="10" t="inlineStr">
+      <c r="S30" s="17" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -7212,7 +7220,7 @@
           <t>526</t>
         </is>
       </c>
-      <c r="Z39" s="13" t="inlineStr">
+      <c r="Z39" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -7551,7 +7559,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S41" s="10" t="inlineStr">
+      <c r="S41" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -8102,7 +8110,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="Q44" s="10" t="inlineStr">
+      <c r="Q44" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -8157,7 +8165,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB44" s="13" t="inlineStr">
+      <c r="AB44" s="17" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -8172,7 +8180,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE44" s="14" t="inlineStr">
+      <c r="AE44" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -8319,7 +8327,7 @@
           <t>189</t>
         </is>
       </c>
-      <c r="W45" s="12" t="inlineStr">
+      <c r="W45" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -8491,7 +8499,7 @@
           <t>305</t>
         </is>
       </c>
-      <c r="T46" s="11" t="inlineStr">
+      <c r="T46" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -8506,7 +8514,7 @@
           <t>853</t>
         </is>
       </c>
-      <c r="W46" s="12" t="inlineStr">
+      <c r="W46" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -8536,7 +8544,7 @@
           <t>008</t>
         </is>
       </c>
-      <c r="AC46" s="14" t="inlineStr">
+      <c r="AC46" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -8865,7 +8873,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="T48" s="11" t="inlineStr">
+      <c r="T48" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -8950,7 +8958,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK48" s="16" t="inlineStr">
+      <c r="AK48" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -9082,7 +9090,7 @@
           <t>983</t>
         </is>
       </c>
-      <c r="Z49" s="13" t="inlineStr">
+      <c r="Z49" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -9351,7 +9359,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="E51" s="6" t="inlineStr">
+      <c r="E51" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -9481,7 +9489,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE51" s="14" t="inlineStr">
+      <c r="AE51" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -9740,7 +9748,7 @@
           <t>270</t>
         </is>
       </c>
-      <c r="H53" s="7" t="inlineStr">
+      <c r="H53" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -9755,7 +9763,7 @@
           <t>072</t>
         </is>
       </c>
-      <c r="K53" s="8" t="inlineStr">
+      <c r="K53" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -9765,7 +9773,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M53" s="8" t="inlineStr">
+      <c r="M53" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -9845,7 +9853,7 @@
           <t>174</t>
         </is>
       </c>
-      <c r="AC53" s="14" t="inlineStr">
+      <c r="AC53" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -10002,7 +10010,7 @@
           <t>202</t>
         </is>
       </c>
-      <c r="W54" s="12" t="inlineStr">
+      <c r="W54" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -10017,7 +10025,7 @@
           <t>890</t>
         </is>
       </c>
-      <c r="Z54" s="13" t="inlineStr">
+      <c r="Z54" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -10872,7 +10880,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J59" s="7" t="inlineStr">
+      <c r="J59" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -11154,7 +11162,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AC60" s="14" t="inlineStr">
+      <c r="AC60" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -11246,7 +11254,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J61" s="7" t="inlineStr">
+      <c r="J61" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -11291,7 +11299,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S61" s="10" t="inlineStr">
+      <c r="S61" s="17" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -11700,7 +11708,7 @@
           <t>384</t>
         </is>
       </c>
-      <c r="Z63" s="13" t="inlineStr">
+      <c r="Z63" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -11715,7 +11723,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="AC63" s="14" t="inlineStr">
+      <c r="AC63" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -11927,7 +11935,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH64" s="15" t="inlineStr">
+      <c r="AH64" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -12029,7 +12037,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="Q65" s="10" t="inlineStr">
+      <c r="Q65" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -12201,7 +12209,7 @@
           <t>534</t>
         </is>
       </c>
-      <c r="N66" s="9" t="inlineStr">
+      <c r="N66" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -12211,7 +12219,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P66" s="9" t="inlineStr">
+      <c r="P66" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -12286,7 +12294,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE66" s="14" t="inlineStr">
+      <c r="AE66" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -12515,7 +12523,7 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="B68" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -13051,7 +13059,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="Q73" s="10" t="inlineStr">
+      <c r="Q73" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -13188,7 +13196,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G74" s="6" t="inlineStr">
+      <c r="G74" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -13253,7 +13261,7 @@
           <t>513</t>
         </is>
       </c>
-      <c r="T74" s="11" t="inlineStr">
+      <c r="T74" s="17" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -13283,7 +13291,7 @@
           <t>661</t>
         </is>
       </c>
-      <c r="Z74" s="13" t="inlineStr">
+      <c r="Z74" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -13415,7 +13423,7 @@
           <t>910</t>
         </is>
       </c>
-      <c r="O75" s="9" t="inlineStr">
+      <c r="O75" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -13470,7 +13478,7 @@
           <t>112</t>
         </is>
       </c>
-      <c r="Z75" s="13" t="inlineStr">
+      <c r="Z75" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -13617,7 +13625,7 @@
           <t>785</t>
         </is>
       </c>
-      <c r="R76" s="10" t="inlineStr">
+      <c r="R76" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -13632,7 +13640,7 @@
           <t>027</t>
         </is>
       </c>
-      <c r="U76" s="11" t="inlineStr">
+      <c r="U76" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -13819,7 +13827,7 @@
           <t>501</t>
         </is>
       </c>
-      <c r="U77" s="11" t="inlineStr">
+      <c r="U77" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -14006,7 +14014,7 @@
           <t>181</t>
         </is>
       </c>
-      <c r="U78" s="11" t="inlineStr">
+      <c r="U78" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -14031,7 +14039,7 @@
           <t>873</t>
         </is>
       </c>
-      <c r="Z78" s="13" t="inlineStr">
+      <c r="Z78" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -14123,7 +14131,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G79" s="6" t="inlineStr">
+      <c r="G79" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -14158,7 +14166,7 @@
           <t>034</t>
         </is>
       </c>
-      <c r="N79" s="9" t="inlineStr">
+      <c r="N79" s="17" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -14173,7 +14181,7 @@
           <t>204</t>
         </is>
       </c>
-      <c r="Q79" s="10" t="inlineStr">
+      <c r="Q79" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -14340,7 +14348,7 @@
           <t>918</t>
         </is>
       </c>
-      <c r="M80" s="8" t="inlineStr">
+      <c r="M80" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -14370,7 +14378,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="S80" s="10" t="inlineStr">
+      <c r="S80" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -14577,7 +14585,7 @@
           <t>945</t>
         </is>
       </c>
-      <c r="W81" s="12" t="inlineStr">
+      <c r="W81" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -14684,7 +14692,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G82" s="6" t="inlineStr">
+      <c r="G82" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -14896,7 +14904,7 @@
           <t>881</t>
         </is>
       </c>
-      <c r="L83" s="8" t="inlineStr">
+      <c r="L83" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -14946,7 +14954,7 @@
           <t>596</t>
         </is>
       </c>
-      <c r="V83" s="11" t="inlineStr">
+      <c r="V83" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -15063,7 +15071,7 @@
           <t>792</t>
         </is>
       </c>
-      <c r="H84" s="7" t="inlineStr">
+      <c r="H84" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -15108,7 +15116,7 @@
           <t>036</t>
         </is>
       </c>
-      <c r="Q84" s="10" t="inlineStr">
+      <c r="Q84" s="17" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -15123,7 +15131,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="T84" s="11" t="inlineStr">
+      <c r="T84" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -15143,7 +15151,7 @@
           <t>252</t>
         </is>
       </c>
-      <c r="X84" s="12" t="inlineStr">
+      <c r="X84" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -15532,7 +15540,7 @@
           <t>838</t>
         </is>
       </c>
-      <c r="AA86" s="13" t="inlineStr">
+      <c r="AA86" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -15552,7 +15560,7 @@
           <t>089</t>
         </is>
       </c>
-      <c r="AE86" s="14" t="inlineStr">
+      <c r="AE86" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -15851,7 +15859,7 @@
           <t>473</t>
         </is>
       </c>
-      <c r="P88" s="9" t="inlineStr">
+      <c r="P88" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -15866,7 +15874,7 @@
           <t>116</t>
         </is>
       </c>
-      <c r="S88" s="10" t="inlineStr">
+      <c r="S88" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -16205,12 +16213,12 @@
           <t>389</t>
         </is>
       </c>
-      <c r="L90" s="8" t="inlineStr">
+      <c r="L90" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
       </c>
-      <c r="M90" s="8" t="inlineStr">
+      <c r="M90" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -16492,7 +16500,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="AF91" s="15" t="inlineStr">
+      <c r="AF91" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -16502,7 +16510,7 @@
           <t>831</t>
         </is>
       </c>
-      <c r="AH91" s="15" t="inlineStr">
+      <c r="AH91" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -16604,7 +16612,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="Q92" s="10" t="inlineStr">
+      <c r="Q92" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -16716,7 +16724,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B93" s="5" t="inlineStr">
+      <c r="B93" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -16741,7 +16749,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G93" s="6" t="inlineStr">
+      <c r="G93" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -16776,7 +16784,7 @@
           <t>776</t>
         </is>
       </c>
-      <c r="N93" s="9" t="inlineStr">
+      <c r="N93" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -16796,7 +16804,7 @@
           <t>513</t>
         </is>
       </c>
-      <c r="R93" s="10" t="inlineStr">
+      <c r="R93" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -16993,12 +17001,12 @@
           <t>037</t>
         </is>
       </c>
-      <c r="T94" s="11" t="inlineStr">
+      <c r="T94" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
       </c>
-      <c r="U94" s="11" t="inlineStr">
+      <c r="U94" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -17170,7 +17178,7 @@
           <t>200</t>
         </is>
       </c>
-      <c r="R95" s="10" t="inlineStr">
+      <c r="R95" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -17255,7 +17263,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="AI95" s="16" t="inlineStr">
+      <c r="AI95" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -17337,7 +17345,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="N96" s="9" t="inlineStr">
+      <c r="N96" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -17766,7 +17774,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="Y98" s="12" t="inlineStr">
+      <c r="Y98" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -17878,7 +17886,7 @@
           <t>136</t>
         </is>
       </c>
-      <c r="J99" s="7" t="inlineStr">
+      <c r="J99" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -17888,7 +17896,7 @@
           <t>828</t>
         </is>
       </c>
-      <c r="L99" s="8" t="inlineStr">
+      <c r="L99" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -17953,7 +17961,7 @@
           <t>407</t>
         </is>
       </c>
-      <c r="Y99" s="12" t="inlineStr">
+      <c r="Y99" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -18055,7 +18063,7 @@
           <t>487</t>
         </is>
       </c>
-      <c r="H100" s="7" t="inlineStr">
+      <c r="H100" s="17" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -18105,7 +18113,7 @@
           <t>597</t>
         </is>
       </c>
-      <c r="R100" s="10" t="inlineStr">
+      <c r="R100" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -18200,7 +18208,7 @@
           <t>781</t>
         </is>
       </c>
-      <c r="AK100" s="16" t="inlineStr">
+      <c r="AK100" s="17" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -18484,7 +18492,7 @@
           <t>948</t>
         </is>
       </c>
-      <c r="S102" s="10" t="inlineStr">
+      <c r="S102" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -18544,7 +18552,7 @@
           <t>938</t>
         </is>
       </c>
-      <c r="AE102" s="14" t="inlineStr">
+      <c r="AE102" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -19239,7 +19247,7 @@
           <t>999</t>
         </is>
       </c>
-      <c r="C109" s="5" t="inlineStr">
+      <c r="C109" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -19279,7 +19287,7 @@
           <t>901</t>
         </is>
       </c>
-      <c r="K109" s="8" t="inlineStr">
+      <c r="K109" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -19668,7 +19676,7 @@
           <t>381</t>
         </is>
       </c>
-      <c r="N111" s="9" t="inlineStr">
+      <c r="N111" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -19723,7 +19731,7 @@
           <t>348</t>
         </is>
       </c>
-      <c r="Y111" s="12" t="inlineStr">
+      <c r="Y111" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -19982,7 +19990,7 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B113" s="5" t="inlineStr">
+      <c r="B113" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -20002,7 +20010,7 @@
           <t>255</t>
         </is>
       </c>
-      <c r="F113" s="6" t="inlineStr">
+      <c r="F113" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -20982,7 +20990,7 @@
           <t>696</t>
         </is>
       </c>
-      <c r="O118" s="9" t="inlineStr">
+      <c r="O118" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -21114,7 +21122,7 @@
           <t>859</t>
         </is>
       </c>
-      <c r="D119" s="5" t="inlineStr">
+      <c r="D119" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -21224,7 +21232,7 @@
           <t>277</t>
         </is>
       </c>
-      <c r="Z119" s="13" t="inlineStr">
+      <c r="Z119" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -21508,7 +21516,7 @@
           <t>769</t>
         </is>
       </c>
-      <c r="H121" s="7" t="inlineStr">
+      <c r="H121" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -21603,7 +21611,7 @@
           <t>186</t>
         </is>
       </c>
-      <c r="AA121" s="13" t="inlineStr">
+      <c r="AA121" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -21760,7 +21768,7 @@
           <t>639</t>
         </is>
       </c>
-      <c r="U122" s="11" t="inlineStr">
+      <c r="U122" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -21775,7 +21783,7 @@
           <t>891</t>
         </is>
       </c>
-      <c r="X122" s="12" t="inlineStr">
+      <c r="X122" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -21795,7 +21803,7 @@
           <t>252</t>
         </is>
       </c>
-      <c r="AB122" s="13" t="inlineStr">
+      <c r="AB122" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -21952,7 +21960,7 @@
           <t>554</t>
         </is>
       </c>
-      <c r="V123" s="11" t="inlineStr">
+      <c r="V123" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -22209,7 +22217,7 @@
           <t>218</t>
         </is>
       </c>
-      <c r="AJ124" s="16" t="inlineStr">
+      <c r="AJ124" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -22246,7 +22254,7 @@
           <t>954</t>
         </is>
       </c>
-      <c r="F125" s="6" t="inlineStr">
+      <c r="F125" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -22311,7 +22319,7 @@
           <t>793</t>
         </is>
       </c>
-      <c r="S125" s="10" t="inlineStr">
+      <c r="S125" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -22326,7 +22334,7 @@
           <t>633</t>
         </is>
       </c>
-      <c r="V125" s="11" t="inlineStr">
+      <c r="V125" s="17" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -22341,7 +22349,7 @@
           <t>583</t>
         </is>
       </c>
-      <c r="Y125" s="12" t="inlineStr">
+      <c r="Y125" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -22356,7 +22364,7 @@
           <t>992</t>
         </is>
       </c>
-      <c r="AB125" s="13" t="inlineStr">
+      <c r="AB125" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -22433,7 +22441,7 @@
           <t>056</t>
         </is>
       </c>
-      <c r="F126" s="6" t="inlineStr">
+      <c r="F126" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -22453,7 +22461,7 @@
           <t>640</t>
         </is>
       </c>
-      <c r="J126" s="7" t="inlineStr">
+      <c r="J126" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -22600,7 +22608,7 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B127" s="5" t="inlineStr">
+      <c r="B127" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -22715,7 +22723,7 @@
           <t>190</t>
         </is>
       </c>
-      <c r="Y127" s="12" t="inlineStr">
+      <c r="Y127" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -22827,12 +22835,12 @@
           <t>434</t>
         </is>
       </c>
-      <c r="J128" s="7" t="inlineStr">
+      <c r="J128" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
       </c>
-      <c r="K128" s="8" t="inlineStr">
+      <c r="K128" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -22912,7 +22920,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="AA128" s="13" t="inlineStr">
+      <c r="AA128" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -22932,7 +22940,7 @@
           <t>353</t>
         </is>
       </c>
-      <c r="AE128" s="14" t="inlineStr">
+      <c r="AE128" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -22942,7 +22950,7 @@
           <t>861</t>
         </is>
       </c>
-      <c r="AG128" s="15" t="inlineStr">
+      <c r="AG128" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -23099,7 +23107,7 @@
           <t>393</t>
         </is>
       </c>
-      <c r="AA129" s="13" t="inlineStr">
+      <c r="AA129" s="17" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -23134,7 +23142,7 @@
           <t>085</t>
         </is>
       </c>
-      <c r="AH129" s="15" t="inlineStr">
+      <c r="AH129" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -23311,7 +23319,7 @@
           <t>536</t>
         </is>
       </c>
-      <c r="AF130" s="15" t="inlineStr">
+      <c r="AF130" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -23488,7 +23496,7 @@
           <t>943</t>
         </is>
       </c>
-      <c r="AD131" s="14" t="inlineStr">
+      <c r="AD131" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -23523,7 +23531,7 @@
           <t>203</t>
         </is>
       </c>
-      <c r="AK131" s="16" t="inlineStr">
+      <c r="AK131" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -23650,7 +23658,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="Y132" s="12" t="inlineStr">
+      <c r="Y132" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -23949,7 +23957,7 @@
           <t>387</t>
         </is>
       </c>
-      <c r="J134" s="7" t="inlineStr">
+      <c r="J134" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -24014,7 +24022,7 @@
           <t>337</t>
         </is>
       </c>
-      <c r="W134" s="12" t="inlineStr">
+      <c r="W134" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -24211,7 +24219,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="Y135" s="12" t="inlineStr">
+      <c r="Y135" s="17" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -24318,7 +24326,7 @@
           <t>471</t>
         </is>
       </c>
-      <c r="I136" s="7" t="inlineStr">
+      <c r="I136" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -24470,7 +24478,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B137" s="5" t="inlineStr">
+      <c r="B137" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -24692,7 +24700,7 @@
           <t>689</t>
         </is>
       </c>
-      <c r="I138" s="7" t="inlineStr">
+      <c r="I138" s="17" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -24832,7 +24840,7 @@
           <t>224</t>
         </is>
       </c>
-      <c r="AK138" s="16" t="inlineStr">
+      <c r="AK138" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -25512,7 +25520,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="F145" s="6" t="inlineStr">
+      <c r="F145" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -25769,7 +25777,7 @@
           <t>265</t>
         </is>
       </c>
-      <c r="T146" s="11" t="inlineStr">
+      <c r="T146" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -25799,12 +25807,12 @@
           <t>127</t>
         </is>
       </c>
-      <c r="Z146" s="13" t="inlineStr">
+      <c r="Z146" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
       </c>
-      <c r="AA146" s="13" t="inlineStr">
+      <c r="AA146" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -25844,7 +25852,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="AI146" s="16" t="inlineStr">
+      <c r="AI146" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -25854,7 +25862,7 @@
           <t>158</t>
         </is>
       </c>
-      <c r="AK146" s="16" t="inlineStr">
+      <c r="AK146" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -25891,7 +25899,7 @@
           <t>038</t>
         </is>
       </c>
-      <c r="G147" s="6" t="inlineStr">
+      <c r="G147" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -25911,7 +25919,7 @@
           <t>622</t>
         </is>
       </c>
-      <c r="K147" s="8" t="inlineStr">
+      <c r="K147" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -26001,7 +26009,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="AC147" s="14" t="inlineStr">
+      <c r="AC147" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -26016,7 +26024,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="AF147" s="15" t="inlineStr">
+      <c r="AF147" s="17" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -26340,7 +26348,7 @@
           <t>500</t>
         </is>
       </c>
-      <c r="V149" s="11" t="inlineStr">
+      <c r="V149" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -26851,7 +26859,7 @@
           <t>124</t>
         </is>
       </c>
-      <c r="L152" s="8" t="inlineStr">
+      <c r="L152" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -26886,7 +26894,7 @@
           <t>329</t>
         </is>
       </c>
-      <c r="S152" s="10" t="inlineStr">
+      <c r="S152" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -27108,7 +27116,7 @@
           <t>147</t>
         </is>
       </c>
-      <c r="Z153" s="13" t="inlineStr">
+      <c r="Z153" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -27123,7 +27131,7 @@
           <t>698</t>
         </is>
       </c>
-      <c r="AC153" s="14" t="inlineStr">
+      <c r="AC153" s="17" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -27215,7 +27223,7 @@
           <t>243</t>
         </is>
       </c>
-      <c r="J154" s="7" t="inlineStr">
+      <c r="J154" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -27295,7 +27303,7 @@
           <t>338</t>
         </is>
       </c>
-      <c r="Z154" s="13" t="inlineStr">
+      <c r="Z154" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -27569,7 +27577,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="F156" s="6" t="inlineStr">
+      <c r="F156" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -27669,7 +27677,7 @@
           <t>477</t>
         </is>
       </c>
-      <c r="Z156" s="13" t="inlineStr">
+      <c r="Z156" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -27694,7 +27702,7 @@
           <t>409</t>
         </is>
       </c>
-      <c r="AE156" s="14" t="inlineStr">
+      <c r="AE156" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -27751,7 +27759,7 @@
           <t>496</t>
         </is>
       </c>
-      <c r="E157" s="6" t="inlineStr">
+      <c r="E157" s="17" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -27851,7 +27859,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="Y157" s="12" t="inlineStr">
+      <c r="Y157" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -27906,7 +27914,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="AJ157" s="16" t="inlineStr">
+      <c r="AJ157" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -27938,12 +27946,12 @@
           <t>777</t>
         </is>
       </c>
-      <c r="E158" s="6" t="inlineStr">
+      <c r="E158" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="F158" s="6" t="inlineStr">
+      <c r="F158" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -27968,7 +27976,7 @@
           <t>829</t>
         </is>
       </c>
-      <c r="K158" s="8" t="inlineStr">
+      <c r="K158" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -28093,7 +28101,7 @@
           <t>208</t>
         </is>
       </c>
-      <c r="AJ158" s="16" t="inlineStr">
+      <c r="AJ158" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -28165,7 +28173,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="M159" s="8" t="inlineStr">
+      <c r="M159" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -28210,7 +28218,7 @@
           <t>699</t>
         </is>
       </c>
-      <c r="V159" s="11" t="inlineStr">
+      <c r="V159" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -28337,7 +28345,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="J160" s="7" t="inlineStr">
+      <c r="J160" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -28574,7 +28582,7 @@
           <t>277</t>
         </is>
       </c>
-      <c r="T161" s="11" t="inlineStr">
+      <c r="T161" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -28584,7 +28592,7 @@
           <t>922</t>
         </is>
       </c>
-      <c r="V161" s="11" t="inlineStr">
+      <c r="V161" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -28806,7 +28814,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AC162" s="14" t="inlineStr">
+      <c r="AC162" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -28893,7 +28901,7 @@
           <t>249</t>
         </is>
       </c>
-      <c r="I163" s="7" t="inlineStr">
+      <c r="I163" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -29090,12 +29098,12 @@
           <t>657</t>
         </is>
       </c>
-      <c r="K164" s="8" t="inlineStr">
+      <c r="K164" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
       </c>
-      <c r="L164" s="8" t="inlineStr">
+      <c r="L164" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -29130,7 +29138,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="S164" s="10" t="inlineStr">
+      <c r="S164" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29190,7 +29198,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="AE164" s="14" t="inlineStr">
+      <c r="AE164" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29220,7 +29228,7 @@
           <t>395</t>
         </is>
       </c>
-      <c r="AK164" s="16" t="inlineStr">
+      <c r="AK164" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -29352,7 +29360,7 @@
           <t>812</t>
         </is>
       </c>
-      <c r="Z165" s="13" t="inlineStr">
+      <c r="Z165" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -29594,7 +29602,7 @@
           <t>962</t>
         </is>
       </c>
-      <c r="AK166" s="16" t="inlineStr">
+      <c r="AK166" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -29656,7 +29664,7 @@
           <t>725</t>
         </is>
       </c>
-      <c r="L167" s="8" t="inlineStr">
+      <c r="L167" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -29681,12 +29689,12 @@
           <t>169</t>
         </is>
       </c>
-      <c r="Q167" s="10" t="inlineStr">
+      <c r="Q167" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="R167" s="10" t="inlineStr">
+      <c r="R167" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -29803,7 +29811,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="D168" s="5" t="inlineStr">
+      <c r="D168" s="17" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -29868,7 +29876,7 @@
           <t>753</t>
         </is>
       </c>
-      <c r="Q168" s="10" t="inlineStr">
+      <c r="Q168" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -29893,7 +29901,7 @@
           <t>646</t>
         </is>
       </c>
-      <c r="V168" s="11" t="inlineStr">
+      <c r="V168" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -30015,7 +30023,7 @@
           <t>586</t>
         </is>
       </c>
-      <c r="I169" s="7" t="inlineStr">
+      <c r="I169" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -30177,7 +30185,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="D170" s="5" t="inlineStr">
+      <c r="D170" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -30302,7 +30310,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="AC170" s="14" t="inlineStr">
+      <c r="AC170" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -30312,7 +30320,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="AE170" s="14" t="inlineStr">
+      <c r="AE170" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -30337,7 +30345,7 @@
           <t>958</t>
         </is>
       </c>
-      <c r="AJ170" s="16" t="inlineStr">
+      <c r="AJ170" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -30489,7 +30497,7 @@
           <t>276</t>
         </is>
       </c>
-      <c r="AC171" s="14" t="inlineStr">
+      <c r="AC171" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -30509,7 +30517,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="AG171" s="15" t="inlineStr">
+      <c r="AG171" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -30541,7 +30549,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B172" s="5" t="inlineStr">
+      <c r="B172" s="17" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -30893,7 +30901,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI173" s="16" t="inlineStr">
+      <c r="AI173" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -31264,7 +31272,7 @@
           <t>469</t>
         </is>
       </c>
-      <c r="Q178" s="10" t="inlineStr">
+      <c r="Q178" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -31324,7 +31332,7 @@
           <t>174</t>
         </is>
       </c>
-      <c r="AC178" s="14" t="inlineStr">
+      <c r="AC178" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -31391,7 +31399,7 @@
           <t>804</t>
         </is>
       </c>
-      <c r="E179" s="6" t="inlineStr">
+      <c r="E179" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -31441,7 +31449,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="O179" s="9" t="inlineStr">
+      <c r="O179" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -31481,7 +31489,7 @@
           <t>190</t>
         </is>
       </c>
-      <c r="W179" s="12" t="inlineStr">
+      <c r="W179" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -31608,7 +31616,7 @@
           <t>497</t>
         </is>
       </c>
-      <c r="K180" s="8" t="inlineStr">
+      <c r="K180" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -31683,7 +31691,7 @@
           <t>297</t>
         </is>
       </c>
-      <c r="Z180" s="13" t="inlineStr">
+      <c r="Z180" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -31708,7 +31716,7 @@
           <t>237</t>
         </is>
       </c>
-      <c r="AE180" s="14" t="inlineStr">
+      <c r="AE180" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -31820,7 +31828,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="P181" s="9" t="inlineStr">
+      <c r="P181" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -31915,7 +31923,7 @@
           <t>927</t>
         </is>
       </c>
-      <c r="AI181" s="16" t="inlineStr">
+      <c r="AI181" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -31952,7 +31960,7 @@
           <t>980</t>
         </is>
       </c>
-      <c r="E182" s="6" t="inlineStr">
+      <c r="E182" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -32002,7 +32010,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="O182" s="9" t="inlineStr">
+      <c r="O182" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -32184,7 +32192,7 @@
           <t>412</t>
         </is>
       </c>
-      <c r="N183" s="9" t="inlineStr">
+      <c r="N183" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -32568,7 +32576,7 @@
           <t>734</t>
         </is>
       </c>
-      <c r="P185" s="9" t="inlineStr">
+      <c r="P185" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -32588,7 +32596,7 @@
           <t>975</t>
         </is>
       </c>
-      <c r="T185" s="11" t="inlineStr">
+      <c r="T185" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -32633,7 +32641,7 @@
           <t>471</t>
         </is>
       </c>
-      <c r="AC185" s="14" t="inlineStr">
+      <c r="AC185" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -32860,7 +32868,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AK186" s="16" t="inlineStr">
+      <c r="AK186" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -32972,7 +32980,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="V187" s="11" t="inlineStr">
+      <c r="V187" s="17" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -33411,7 +33419,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="AI189" s="16" t="inlineStr">
+      <c r="AI189" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -33421,7 +33429,7 @@
           <t>584</t>
         </is>
       </c>
-      <c r="AK189" s="16" t="inlineStr">
+      <c r="AK189" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -33543,7 +33551,7 @@
           <t>476</t>
         </is>
       </c>
-      <c r="X190" s="12" t="inlineStr">
+      <c r="X190" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -33645,7 +33653,7 @@
           <t>449</t>
         </is>
       </c>
-      <c r="G191" s="6" t="inlineStr">
+      <c r="G191" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -33725,7 +33733,7 @@
           <t>650</t>
         </is>
       </c>
-      <c r="W191" s="12" t="inlineStr">
+      <c r="W191" s="17" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -33977,7 +33985,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="AJ192" s="16" t="inlineStr">
+      <c r="AJ192" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -34029,7 +34037,7 @@
           <t>016</t>
         </is>
       </c>
-      <c r="I193" s="7" t="inlineStr">
+      <c r="I193" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -34039,7 +34047,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="K193" s="8" t="inlineStr">
+      <c r="K193" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -34079,7 +34087,7 @@
           <t>137</t>
         </is>
       </c>
-      <c r="S193" s="10" t="inlineStr">
+      <c r="S193" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -34393,7 +34401,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="G195" s="6" t="inlineStr">
+      <c r="G195" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -34528,7 +34536,7 @@
           <t>615</t>
         </is>
       </c>
-      <c r="AH195" s="15" t="inlineStr">
+      <c r="AH195" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -34538,7 +34546,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AJ195" s="16" t="inlineStr">
+      <c r="AJ195" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -34640,7 +34648,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="S196" s="10" t="inlineStr">
+      <c r="S196" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -34752,7 +34760,7 @@
           <t>237</t>
         </is>
       </c>
-      <c r="D197" s="5" t="inlineStr">
+      <c r="D197" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -34807,7 +34815,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="O197" s="9" t="inlineStr">
+      <c r="O197" s="17" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -34929,7 +34937,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B198" s="5" t="inlineStr">
+      <c r="B198" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -35019,7 +35027,7 @@
           <t>990</t>
         </is>
       </c>
-      <c r="T198" s="11" t="inlineStr">
+      <c r="T198" s="17" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -35029,7 +35037,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="V198" s="11" t="inlineStr">
+      <c r="V198" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -35181,7 +35189,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="O199" s="9" t="inlineStr">
+      <c r="O199" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -35201,7 +35209,7 @@
           <t>820</t>
         </is>
       </c>
-      <c r="S199" s="10" t="inlineStr">
+      <c r="S199" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -35271,7 +35279,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="AG199" s="15" t="inlineStr">
+      <c r="AG199" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -35291,7 +35299,7 @@
           <t>297</t>
         </is>
       </c>
-      <c r="AK199" s="16" t="inlineStr">
+      <c r="AK199" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -35383,7 +35391,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="R200" s="10" t="inlineStr">
+      <c r="R200" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -35413,7 +35421,7 @@
           <t>412</t>
         </is>
       </c>
-      <c r="X200" s="12" t="inlineStr">
+      <c r="X200" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -35443,7 +35451,7 @@
           <t>141</t>
         </is>
       </c>
-      <c r="AD200" s="14" t="inlineStr">
+      <c r="AD200" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -35722,7 +35730,7 @@
           <t>430</t>
         </is>
       </c>
-      <c r="K202" s="8" t="inlineStr">
+      <c r="K202" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -35767,7 +35775,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="T202" s="11" t="inlineStr">
+      <c r="T202" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -35782,7 +35790,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="W202" s="12" t="inlineStr">
+      <c r="W202" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -35924,7 +35932,7 @@
           <t>397</t>
         </is>
       </c>
-      <c r="N203" s="9" t="inlineStr">
+      <c r="N203" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -36278,7 +36286,7 @@
           <t>920</t>
         </is>
       </c>
-      <c r="J205" s="7" t="inlineStr">
+      <c r="J205" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -36338,7 +36346,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="V205" s="11" t="inlineStr">
+      <c r="V205" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -36348,7 +36356,7 @@
           <t>599</t>
         </is>
       </c>
-      <c r="X205" s="12" t="inlineStr">
+      <c r="X205" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -36373,7 +36381,7 @@
           <t>246</t>
         </is>
       </c>
-      <c r="AC205" s="14" t="inlineStr">
+      <c r="AC205" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -36393,7 +36401,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="AG205" s="15" t="inlineStr">
+      <c r="AG205" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -36500,7 +36508,7 @@
           <t>499</t>
         </is>
       </c>
-      <c r="Q206" s="10" t="inlineStr">
+      <c r="Q206" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -36535,7 +36543,7 @@
           <t>108</t>
         </is>
       </c>
-      <c r="X206" s="12" t="inlineStr">
+      <c r="X206" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -36550,7 +36558,7 @@
           <t>045</t>
         </is>
       </c>
-      <c r="AA206" s="13" t="inlineStr">
+      <c r="AA206" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -36909,7 +36917,7 @@
           <t>483</t>
         </is>
       </c>
-      <c r="X208" s="12" t="inlineStr">
+      <c r="X208" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -37340,7 +37348,7 @@
           <t>573</t>
         </is>
       </c>
-      <c r="R213" s="10" t="inlineStr">
+      <c r="R213" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -37552,7 +37560,7 @@
           <t>849</t>
         </is>
       </c>
-      <c r="W214" s="12" t="inlineStr">
+      <c r="W214" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -37804,7 +37812,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="AJ215" s="16" t="inlineStr">
+      <c r="AJ215" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -37926,7 +37934,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="W216" s="12" t="inlineStr">
+      <c r="W216" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -37961,7 +37969,7 @@
           <t>997</t>
         </is>
       </c>
-      <c r="AD216" s="14" t="inlineStr">
+      <c r="AD216" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -38013,12 +38021,12 @@
           <t>156</t>
         </is>
       </c>
-      <c r="C217" s="5" t="inlineStr">
+      <c r="C217" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="D217" s="5" t="inlineStr">
+      <c r="D217" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -38235,7 +38243,7 @@
           <t>778</t>
         </is>
       </c>
-      <c r="J218" s="7" t="inlineStr">
+      <c r="J218" s="17" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -38335,7 +38343,7 @@
           <t>805</t>
         </is>
       </c>
-      <c r="AD218" s="14" t="inlineStr">
+      <c r="AD218" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -38589,7 +38597,7 @@
           <t>680</t>
         </is>
       </c>
-      <c r="F220" s="6" t="inlineStr">
+      <c r="F220" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -38669,7 +38677,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="V220" s="11" t="inlineStr">
+      <c r="V220" s="17" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -38684,7 +38692,7 @@
           <t>965</t>
         </is>
       </c>
-      <c r="Y220" s="12" t="inlineStr">
+      <c r="Y220" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -38739,7 +38747,7 @@
           <t>634</t>
         </is>
       </c>
-      <c r="AJ220" s="16" t="inlineStr">
+      <c r="AJ220" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -38861,7 +38869,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="W221" s="12" t="inlineStr">
+      <c r="W221" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -38891,12 +38899,12 @@
           <t>438</t>
         </is>
       </c>
-      <c r="AC221" s="14" t="inlineStr">
+      <c r="AC221" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AD221" s="14" t="inlineStr">
+      <c r="AD221" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -38958,7 +38966,7 @@
           <t>499</t>
         </is>
       </c>
-      <c r="E222" s="6" t="inlineStr">
+      <c r="E222" s="17" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -38998,7 +39006,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="M222" s="8" t="inlineStr">
+      <c r="M222" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -39083,7 +39091,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="AD222" s="14" t="inlineStr">
+      <c r="AD222" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -39098,7 +39106,7 @@
           <t>388</t>
         </is>
       </c>
-      <c r="AG222" s="15" t="inlineStr">
+      <c r="AG222" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -39130,7 +39138,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B223" s="5" t="inlineStr">
+      <c r="B223" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -39160,7 +39168,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="H223" s="7" t="inlineStr">
+      <c r="H223" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39210,7 +39218,7 @@
           <t>881</t>
         </is>
       </c>
-      <c r="R223" s="10" t="inlineStr">
+      <c r="R223" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -39482,7 +39490,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="AI224" s="16" t="inlineStr">
+      <c r="AI224" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -39574,7 +39582,7 @@
           <t>667</t>
         </is>
       </c>
-      <c r="P225" s="9" t="inlineStr">
+      <c r="P225" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -39624,7 +39632,7 @@
           <t>437</t>
         </is>
       </c>
-      <c r="Z225" s="13" t="inlineStr">
+      <c r="Z225" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39654,7 +39662,7 @@
           <t>653</t>
         </is>
       </c>
-      <c r="AF225" s="15" t="inlineStr">
+      <c r="AF225" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -39761,7 +39769,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="P226" s="9" t="inlineStr">
+      <c r="P226" s="17" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -39791,7 +39799,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="V226" s="11" t="inlineStr">
+      <c r="V226" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -40090,7 +40098,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G228" s="6" t="inlineStr">
+      <c r="G228" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -40140,12 +40148,12 @@
           <t>111</t>
         </is>
       </c>
-      <c r="Q228" s="10" t="inlineStr">
+      <c r="Q228" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
       </c>
-      <c r="R228" s="10" t="inlineStr">
+      <c r="R228" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -40267,7 +40275,7 @@
           <t>663</t>
         </is>
       </c>
-      <c r="E229" s="6" t="inlineStr">
+      <c r="E229" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -40372,7 +40380,7 @@
           <t>074</t>
         </is>
       </c>
-      <c r="Z229" s="13" t="inlineStr">
+      <c r="Z229" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -40397,7 +40405,7 @@
           <t>154</t>
         </is>
       </c>
-      <c r="AE229" s="14" t="inlineStr">
+      <c r="AE229" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -40534,7 +40542,7 @@
           <t>171</t>
         </is>
       </c>
-      <c r="U230" s="11" t="inlineStr">
+      <c r="U230" s="17" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -40604,7 +40612,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="AI230" s="16" t="inlineStr">
+      <c r="AI230" s="17" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -40731,7 +40739,7 @@
           <t>687</t>
         </is>
       </c>
-      <c r="W231" s="12" t="inlineStr">
+      <c r="W231" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -40818,7 +40826,7 @@
           <t>349</t>
         </is>
       </c>
-      <c r="C232" s="5" t="inlineStr">
+      <c r="C232" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -40878,7 +40886,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="O232" s="9" t="inlineStr">
+      <c r="O232" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -40893,7 +40901,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="R232" s="10" t="inlineStr">
+      <c r="R232" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -40938,7 +40946,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="AA232" s="13" t="inlineStr">
+      <c r="AA232" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -41000,7 +41008,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B233" s="5" t="inlineStr">
+      <c r="B233" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -41060,7 +41068,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="N233" s="9" t="inlineStr">
+      <c r="N233" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -41165,7 +41173,7 @@
           <t>680</t>
         </is>
       </c>
-      <c r="AI233" s="16" t="inlineStr">
+      <c r="AI233" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -41237,7 +41245,7 @@
           <t>927</t>
         </is>
       </c>
-      <c r="L234" s="8" t="inlineStr">
+      <c r="L234" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -41464,7 +41472,7 @@
           <t>400</t>
         </is>
       </c>
-      <c r="T235" s="11" t="inlineStr">
+      <c r="T235" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -41514,7 +41522,7 @@
           <t>722</t>
         </is>
       </c>
-      <c r="AD235" s="14" t="inlineStr">
+      <c r="AD235" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -41651,7 +41659,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="T236" s="11" t="inlineStr">
+      <c r="T236" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -41681,7 +41689,7 @@
           <t>069</t>
         </is>
       </c>
-      <c r="Z236" s="13" t="inlineStr">
+      <c r="Z236" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -41768,7 +41776,7 @@
           <t>434</t>
         </is>
       </c>
-      <c r="F237" s="6" t="inlineStr">
+      <c r="F237" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -41833,7 +41841,7 @@
           <t>082</t>
         </is>
       </c>
-      <c r="S237" s="10" t="inlineStr">
+      <c r="S237" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -41990,7 +41998,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="M238" s="8" t="inlineStr">
+      <c r="M238" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -42010,7 +42018,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="Q238" s="10" t="inlineStr">
+      <c r="Q238" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -42187,7 +42195,7 @@
           <t>799</t>
         </is>
       </c>
-      <c r="O239" s="9" t="inlineStr">
+      <c r="O239" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -42227,7 +42235,7 @@
           <t>234</t>
         </is>
       </c>
-      <c r="W239" s="12" t="inlineStr">
+      <c r="W239" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -42257,7 +42265,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="AC239" s="14" t="inlineStr">
+      <c r="AC239" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -42314,7 +42322,7 @@
           <t>630</t>
         </is>
       </c>
-      <c r="C240" s="5" t="inlineStr">
+      <c r="C240" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -42324,7 +42332,7 @@
           <t>247</t>
         </is>
       </c>
-      <c r="E240" s="6" t="inlineStr">
+      <c r="E240" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -42449,7 +42457,7 @@
           <t>229</t>
         </is>
       </c>
-      <c r="AD240" s="14" t="inlineStr">
+      <c r="AD240" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -42501,7 +42509,7 @@
           <t>023</t>
         </is>
       </c>
-      <c r="C241" s="5" t="inlineStr">
+      <c r="C241" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -42728,7 +42736,7 @@
           <t>504</t>
         </is>
       </c>
-      <c r="K242" s="8" t="inlineStr">
+      <c r="K242" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -42743,7 +42751,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="N242" s="9" t="inlineStr">
+      <c r="N242" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -42853,7 +42861,7 @@
           <t>096</t>
         </is>
       </c>
-      <c r="AJ242" s="16" t="inlineStr">
+      <c r="AJ242" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -42880,7 +42888,7 @@
           <t>986</t>
         </is>
       </c>
-      <c r="D243" s="5" t="inlineStr">
+      <c r="D243" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -43496,7 +43504,7 @@
           <t>268</t>
         </is>
       </c>
-      <c r="AI248" s="16" t="inlineStr">
+      <c r="AI248" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -43588,7 +43596,7 @@
           <t>542</t>
         </is>
       </c>
-      <c r="P249" s="9" t="inlineStr">
+      <c r="P249" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -43705,7 +43713,7 @@
           <t>03</t>
         </is>
       </c>
-      <c r="B250" s="5" t="inlineStr">
+      <c r="B250" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -43880,7 +43888,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="AK250" s="16" t="inlineStr">
+      <c r="AK250" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -43952,7 +43960,7 @@
           <t>970</t>
         </is>
       </c>
-      <c r="N251" s="9" t="inlineStr">
+      <c r="N251" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -44124,7 +44132,7 @@
           <t>317</t>
         </is>
       </c>
-      <c r="K252" s="8" t="inlineStr">
+      <c r="K252" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -44159,7 +44167,7 @@
           <t>591</t>
         </is>
       </c>
-      <c r="R252" s="10" t="inlineStr">
+      <c r="R252" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -44239,7 +44247,7 @@
           <t>606</t>
         </is>
       </c>
-      <c r="AH252" s="15" t="inlineStr">
+      <c r="AH252" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -44276,7 +44284,7 @@
           <t>737</t>
         </is>
       </c>
-      <c r="D253" s="5" t="inlineStr">
+      <c r="D253" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -44296,7 +44304,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="H253" s="7" t="inlineStr">
+      <c r="H253" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -44306,7 +44314,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="J253" s="7" t="inlineStr">
+      <c r="J253" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -44593,7 +44601,7 @@
           <t>963</t>
         </is>
       </c>
-      <c r="AD254" s="14" t="inlineStr">
+      <c r="AD254" s="17" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -44613,7 +44621,7 @@
           <t>449</t>
         </is>
       </c>
-      <c r="AH254" s="15" t="inlineStr">
+      <c r="AH254" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -44640,7 +44648,7 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B255" s="5" t="inlineStr">
+      <c r="B255" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -44882,7 +44890,7 @@
           <t>536</t>
         </is>
       </c>
-      <c r="M256" s="8" t="inlineStr">
+      <c r="M256" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -44892,7 +44900,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="O256" s="9" t="inlineStr">
+      <c r="O256" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -45094,7 +45102,7 @@
           <t>771</t>
         </is>
       </c>
-      <c r="R257" s="10" t="inlineStr">
+      <c r="R257" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -45114,12 +45122,12 @@
           <t>777</t>
         </is>
       </c>
-      <c r="V257" s="11" t="inlineStr">
+      <c r="V257" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
       </c>
-      <c r="W257" s="12" t="inlineStr">
+      <c r="W257" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -45488,7 +45496,7 @@
           <t>058</t>
         </is>
       </c>
-      <c r="V259" s="11" t="inlineStr">
+      <c r="V259" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -45620,7 +45628,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="K260" s="8" t="inlineStr">
+      <c r="K260" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -45645,7 +45653,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="P260" s="9" t="inlineStr">
+      <c r="P260" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -45685,7 +45693,7 @@
           <t>628</t>
         </is>
       </c>
-      <c r="X260" s="12" t="inlineStr">
+      <c r="X260" s="17" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -45710,7 +45718,7 @@
           <t>358</t>
         </is>
       </c>
-      <c r="AC260" s="14" t="inlineStr">
+      <c r="AC260" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -45797,7 +45805,7 @@
           <t>666</t>
         </is>
       </c>
-      <c r="I261" s="7" t="inlineStr">
+      <c r="I261" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -45827,7 +45835,7 @@
           <t>997</t>
         </is>
       </c>
-      <c r="O261" s="9" t="inlineStr">
+      <c r="O261" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -46039,7 +46047,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="T262" s="11" t="inlineStr">
+      <c r="T262" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -46221,7 +46229,7 @@
           <t>948</t>
         </is>
       </c>
-      <c r="S263" s="10" t="inlineStr">
+      <c r="S263" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -46281,7 +46289,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="AE263" s="14" t="inlineStr">
+      <c r="AE263" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -46615,7 +46623,7 @@
           <t>332</t>
         </is>
       </c>
-      <c r="W265" s="12" t="inlineStr">
+      <c r="W265" s="17" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -46707,7 +46715,7 @@
           <t>387</t>
         </is>
       </c>
-      <c r="D266" s="5" t="inlineStr">
+      <c r="D266" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -46717,7 +46725,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="F266" s="6" t="inlineStr">
+      <c r="F266" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -46767,7 +46775,7 @@
           <t>268</t>
         </is>
       </c>
-      <c r="P266" s="9" t="inlineStr">
+      <c r="P266" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -46929,7 +46937,7 @@
           <t>616</t>
         </is>
       </c>
-      <c r="K267" s="8" t="inlineStr">
+      <c r="K267" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -46944,7 +46952,7 @@
           <t>895</t>
         </is>
       </c>
-      <c r="N267" s="9" t="inlineStr">
+      <c r="N267" s="17" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -47126,7 +47134,7 @@
           <t>022</t>
         </is>
       </c>
-      <c r="M268" s="8" t="inlineStr">
+      <c r="M268" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -47196,7 +47204,7 @@
           <t>044</t>
         </is>
       </c>
-      <c r="AA268" s="13" t="inlineStr">
+      <c r="AA268" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -47500,7 +47508,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="M270" s="8" t="inlineStr">
+      <c r="M270" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -47535,7 +47543,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="T270" s="11" t="inlineStr">
+      <c r="T270" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -47642,7 +47650,7 @@
           <t>413</t>
         </is>
       </c>
-      <c r="D271" s="5" t="inlineStr">
+      <c r="D271" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -47732,7 +47740,7 @@
           <t>838</t>
         </is>
       </c>
-      <c r="V271" s="11" t="inlineStr">
+      <c r="V271" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -47747,7 +47755,7 @@
           <t>689</t>
         </is>
       </c>
-      <c r="Y271" s="12" t="inlineStr">
+      <c r="Y271" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -47819,7 +47827,7 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B272" s="5" t="inlineStr">
+      <c r="B272" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -47934,7 +47942,7 @@
           <t>310</t>
         </is>
       </c>
-      <c r="Y272" s="12" t="inlineStr">
+      <c r="Y272" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -48056,7 +48064,7 @@
           <t>124</t>
         </is>
       </c>
-      <c r="L273" s="8" t="inlineStr">
+      <c r="L273" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -48208,7 +48216,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="E274" s="6" t="inlineStr">
+      <c r="E274" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48283,7 +48291,7 @@
           <t>036</t>
         </is>
       </c>
-      <c r="T274" s="11" t="inlineStr">
+      <c r="T274" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -48390,7 +48398,7 @@
           <t>506</t>
         </is>
       </c>
-      <c r="D275" s="5" t="inlineStr">
+      <c r="D275" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48445,7 +48453,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="O275" s="9" t="inlineStr">
+      <c r="O275" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -48687,7 +48695,7 @@
           <t>941</t>
         </is>
       </c>
-      <c r="Z276" s="13" t="inlineStr">
+      <c r="Z276" s="17" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -48737,7 +48745,7 @@
           <t>734</t>
         </is>
       </c>
-      <c r="AJ276" s="16" t="inlineStr">
+      <c r="AJ276" s="17" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -48814,7 +48822,7 @@
           <t>749</t>
         </is>
       </c>
-      <c r="N277" s="9" t="inlineStr">
+      <c r="N277" s="17" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -48884,7 +48892,7 @@
           <t>608</t>
         </is>
       </c>
-      <c r="AB277" s="13" t="inlineStr">
+      <c r="AB277" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -49442,7 +49450,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="J283" s="7" t="inlineStr">
+      <c r="J283" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -49537,7 +49545,7 @@
           <t>881</t>
         </is>
       </c>
-      <c r="AC283" s="14" t="inlineStr">
+      <c r="AC283" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -49552,7 +49560,7 @@
           <t>271</t>
         </is>
       </c>
-      <c r="AF283" s="15" t="inlineStr">
+      <c r="AF283" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -49604,7 +49612,7 @@
           <t>986</t>
         </is>
       </c>
-      <c r="E284" s="6" t="inlineStr">
+      <c r="E284" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -49734,7 +49742,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AE284" s="14" t="inlineStr">
+      <c r="AE284" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -49886,7 +49894,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="X285" s="12" t="inlineStr">
+      <c r="X285" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -49936,7 +49944,7 @@
           <t>324</t>
         </is>
       </c>
-      <c r="AH285" s="15" t="inlineStr">
+      <c r="AH285" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -50003,7 +50011,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="J286" s="7" t="inlineStr">
+      <c r="J286" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -50078,7 +50086,7 @@
           <t>496</t>
         </is>
       </c>
-      <c r="Y286" s="12" t="inlineStr">
+      <c r="Y286" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -50275,7 +50283,7 @@
           <t>790</t>
         </is>
       </c>
-      <c r="AA287" s="13" t="inlineStr">
+      <c r="AA287" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -50427,7 +50435,7 @@
           <t>624</t>
         </is>
       </c>
-      <c r="T288" s="11" t="inlineStr">
+      <c r="T288" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -50512,7 +50520,7 @@
           <t>606</t>
         </is>
       </c>
-      <c r="AK288" s="16" t="inlineStr">
+      <c r="AK288" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -50574,7 +50582,7 @@
           <t>443</t>
         </is>
       </c>
-      <c r="L289" s="8" t="inlineStr">
+      <c r="L289" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -50584,7 +50592,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="N289" s="9" t="inlineStr">
+      <c r="N289" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -50594,7 +50602,7 @@
           <t>420</t>
         </is>
       </c>
-      <c r="P289" s="9" t="inlineStr">
+      <c r="P289" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -50726,7 +50734,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="E290" s="6" t="inlineStr">
+      <c r="E290" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -50741,7 +50749,7 @@
           <t>366</t>
         </is>
       </c>
-      <c r="H290" s="7" t="inlineStr">
+      <c r="H290" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -50766,7 +50774,7 @@
           <t>650</t>
         </is>
       </c>
-      <c r="M290" s="8" t="inlineStr">
+      <c r="M290" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -50791,7 +50799,7 @@
           <t>330</t>
         </is>
       </c>
-      <c r="R290" s="10" t="inlineStr">
+      <c r="R290" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -50801,7 +50809,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="T290" s="11" t="inlineStr">
+      <c r="T290" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -50898,7 +50906,7 @@
           <t>09</t>
         </is>
       </c>
-      <c r="B291" s="5" t="inlineStr">
+      <c r="B291" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -50923,7 +50931,7 @@
           <t>407</t>
         </is>
       </c>
-      <c r="G291" s="6" t="inlineStr">
+      <c r="G291" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -50933,7 +50941,7 @@
           <t>968</t>
         </is>
       </c>
-      <c r="I291" s="7" t="inlineStr">
+      <c r="I291" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -51053,7 +51061,7 @@
           <t>212</t>
         </is>
       </c>
-      <c r="AG291" s="15" t="inlineStr">
+      <c r="AG291" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -51205,7 +51213,7 @@
           <t>480</t>
         </is>
       </c>
-      <c r="Z292" s="13" t="inlineStr">
+      <c r="Z292" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -51312,7 +51320,7 @@
           <t>245</t>
         </is>
       </c>
-      <c r="J293" s="7" t="inlineStr">
+      <c r="J293" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -51352,7 +51360,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="R293" s="10" t="inlineStr">
+      <c r="R293" s="17" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -51392,7 +51400,7 @@
           <t>364</t>
         </is>
       </c>
-      <c r="Z293" s="13" t="inlineStr">
+      <c r="Z293" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -51432,7 +51440,7 @@
           <t>941</t>
         </is>
       </c>
-      <c r="AH293" s="15" t="inlineStr">
+      <c r="AH293" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -51489,7 +51497,7 @@
           <t>697</t>
         </is>
       </c>
-      <c r="H294" s="7" t="inlineStr">
+      <c r="H294" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -51514,7 +51522,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="M294" s="8" t="inlineStr">
+      <c r="M294" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -51559,7 +51567,7 @@
           <t>369</t>
         </is>
       </c>
-      <c r="V294" s="11" t="inlineStr">
+      <c r="V294" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -51594,7 +51602,7 @@
           <t>999</t>
         </is>
       </c>
-      <c r="AC294" s="14" t="inlineStr">
+      <c r="AC294" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -51716,7 +51724,7 @@
           <t>464</t>
         </is>
       </c>
-      <c r="P295" s="9" t="inlineStr">
+      <c r="P295" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -51883,12 +51891,12 @@
           <t>147</t>
         </is>
       </c>
-      <c r="L296" s="8" t="inlineStr">
+      <c r="L296" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
       </c>
-      <c r="M296" s="8" t="inlineStr">
+      <c r="M296" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -51903,7 +51911,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="P296" s="9" t="inlineStr">
+      <c r="P296" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -51983,7 +51991,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="AF296" s="15" t="inlineStr">
+      <c r="AF296" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -52003,7 +52011,7 @@
           <t>426</t>
         </is>
       </c>
-      <c r="AJ296" s="16" t="inlineStr">
+      <c r="AJ296" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -52232,7 +52240,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="G298" s="6" t="inlineStr">
+      <c r="G298" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -52686,7 +52694,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="W300" s="12" t="inlineStr">
+      <c r="W300" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -52726,7 +52734,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="AE300" s="14" t="inlineStr">
+      <c r="AE300" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -52808,7 +52816,7 @@
           <t>097</t>
         </is>
       </c>
-      <c r="J301" s="7" t="inlineStr">
+      <c r="J301" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -52980,7 +52988,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="G302" s="6" t="inlineStr">
+      <c r="G302" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -52990,7 +52998,7 @@
           <t>447</t>
         </is>
       </c>
-      <c r="I302" s="7" t="inlineStr">
+      <c r="I302" s="17" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -53100,12 +53108,12 @@
           <t>629</t>
         </is>
       </c>
-      <c r="AE302" s="14" t="inlineStr">
+      <c r="AE302" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
       </c>
-      <c r="AF302" s="15" t="inlineStr">
+      <c r="AF302" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -53177,7 +53185,7 @@
           <t>325</t>
         </is>
       </c>
-      <c r="I303" s="7" t="inlineStr">
+      <c r="I303" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -53212,7 +53220,7 @@
           <t>603</t>
         </is>
       </c>
-      <c r="P303" s="9" t="inlineStr">
+      <c r="P303" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -53414,7 +53422,7 @@
           <t>924</t>
         </is>
       </c>
-      <c r="S304" s="10" t="inlineStr">
+      <c r="S304" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -53586,7 +53594,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="P305" s="9" t="inlineStr">
+      <c r="P305" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -53910,7 +53918,7 @@
           <t>969</t>
         </is>
       </c>
-      <c r="F307" s="6" t="inlineStr">
+      <c r="F307" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -54010,7 +54018,7 @@
           <t>693</t>
         </is>
       </c>
-      <c r="Z307" s="13" t="inlineStr">
+      <c r="Z307" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -54040,7 +54048,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="AF307" s="15" t="inlineStr">
+      <c r="AF307" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -54087,7 +54095,7 @@
           <t>582</t>
         </is>
       </c>
-      <c r="D308" s="5" t="inlineStr">
+      <c r="D308" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -54324,7 +54332,7 @@
           <t>192</t>
         </is>
       </c>
-      <c r="N309" s="9" t="inlineStr">
+      <c r="N309" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -54359,7 +54367,7 @@
           <t>343</t>
         </is>
       </c>
-      <c r="U309" s="11" t="inlineStr">
+      <c r="U309" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -54521,7 +54529,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="P310" s="9" t="inlineStr">
+      <c r="P310" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -54536,7 +54544,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="S310" s="10" t="inlineStr">
+      <c r="S310" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -54621,12 +54629,12 @@
           <t>957</t>
         </is>
       </c>
-      <c r="AJ310" s="16" t="inlineStr">
+      <c r="AJ310" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
       </c>
-      <c r="AK310" s="16" t="inlineStr">
+      <c r="AK310" s="17" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -54648,7 +54656,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="D311" s="5" t="inlineStr">
+      <c r="D311" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -54798,7 +54806,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="AH311" s="15" t="inlineStr">
+      <c r="AH311" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -54990,7 +54998,7 @@
           <t>761</t>
         </is>
       </c>
-      <c r="AI312" s="16" t="inlineStr">
+      <c r="AI312" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -55528,7 +55536,7 @@
           <t>869</t>
         </is>
       </c>
-      <c r="M318" s="8" t="inlineStr">
+      <c r="M318" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -55538,7 +55546,7 @@
           <t>291</t>
         </is>
       </c>
-      <c r="O318" s="9" t="inlineStr">
+      <c r="O318" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -55568,7 +55576,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="U318" s="11" t="inlineStr">
+      <c r="U318" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -55790,7 +55798,7 @@
           <t>775</t>
         </is>
       </c>
-      <c r="AB319" s="13" t="inlineStr">
+      <c r="AB319" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -55942,7 +55950,7 @@
           <t>677</t>
         </is>
       </c>
-      <c r="U320" s="11" t="inlineStr">
+      <c r="U320" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -55987,7 +55995,7 @@
           <t>323</t>
         </is>
       </c>
-      <c r="AD320" s="14" t="inlineStr">
+      <c r="AD320" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -56064,7 +56072,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="H321" s="7" t="inlineStr">
+      <c r="H321" s="17" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -56169,7 +56177,7 @@
           <t>813</t>
         </is>
       </c>
-      <c r="AC321" s="14" t="inlineStr">
+      <c r="AC321" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -56184,12 +56192,12 @@
           <t>254</t>
         </is>
       </c>
-      <c r="AF321" s="15" t="inlineStr">
+      <c r="AF321" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
       </c>
-      <c r="AG321" s="15" t="inlineStr">
+      <c r="AG321" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -56311,7 +56319,7 @@
           <t>581</t>
         </is>
       </c>
-      <c r="T322" s="11" t="inlineStr">
+      <c r="T322" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -56595,7 +56603,7 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B324" s="5" t="inlineStr">
+      <c r="B324" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -56832,7 +56840,7 @@
           <t>476</t>
         </is>
       </c>
-      <c r="L325" s="8" t="inlineStr">
+      <c r="L325" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -56847,7 +56855,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="O325" s="9" t="inlineStr">
+      <c r="O325" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -56882,7 +56890,7 @@
           <t>459</t>
         </is>
       </c>
-      <c r="V325" s="11" t="inlineStr">
+      <c r="V325" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -56942,7 +56950,7 @@
           <t>204</t>
         </is>
       </c>
-      <c r="AH325" s="15" t="inlineStr">
+      <c r="AH325" s="17" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -57630,7 +57638,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="V329" s="11" t="inlineStr">
+      <c r="V329" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -57645,7 +57653,7 @@
           <t>651</t>
         </is>
       </c>
-      <c r="Y329" s="12" t="inlineStr">
+      <c r="Y329" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -57670,7 +57678,7 @@
           <t>747</t>
         </is>
       </c>
-      <c r="AD329" s="14" t="inlineStr">
+      <c r="AD329" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -57722,7 +57730,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="C330" s="5" t="inlineStr">
+      <c r="C330" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -57832,7 +57840,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="Y330" s="12" t="inlineStr">
+      <c r="Y330" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -57847,7 +57855,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="AB330" s="13" t="inlineStr">
+      <c r="AB330" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -57994,7 +58002,7 @@
           <t>249</t>
         </is>
       </c>
-      <c r="T331" s="11" t="inlineStr">
+      <c r="T331" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -58111,7 +58119,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="F332" s="6" t="inlineStr">
+      <c r="F332" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -58323,7 +58331,7 @@
           <t>894</t>
         </is>
       </c>
-      <c r="K333" s="8" t="inlineStr">
+      <c r="K333" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -58363,7 +58371,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="S333" s="10" t="inlineStr">
+      <c r="S333" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -58398,7 +58406,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="Z333" s="13" t="inlineStr">
+      <c r="Z333" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -58453,7 +58461,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="AK333" s="16" t="inlineStr">
+      <c r="AK333" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -58540,7 +58548,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="Q334" s="10" t="inlineStr">
+      <c r="Q334" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -58600,7 +58608,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="AC334" s="14" t="inlineStr">
+      <c r="AC334" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -58782,7 +58790,7 @@
           <t>577</t>
         </is>
       </c>
-      <c r="AB335" s="13" t="inlineStr">
+      <c r="AB335" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -58854,7 +58862,7 @@
           <t>014</t>
         </is>
       </c>
-      <c r="E336" s="6" t="inlineStr">
+      <c r="E336" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -58924,7 +58932,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="S336" s="10" t="inlineStr">
+      <c r="S336" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -58939,7 +58947,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="V336" s="11" t="inlineStr">
+      <c r="V336" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -59036,7 +59044,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="D337" s="5" t="inlineStr">
+      <c r="D337" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -59161,7 +59169,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="AC337" s="14" t="inlineStr">
+      <c r="AC337" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -59196,7 +59204,7 @@
           <t>081</t>
         </is>
       </c>
-      <c r="AJ337" s="16" t="inlineStr">
+      <c r="AJ337" s="17" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -59223,7 +59231,7 @@
           <t>065</t>
         </is>
       </c>
-      <c r="D338" s="5" t="inlineStr">
+      <c r="D338" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -59313,7 +59321,7 @@
           <t>678</t>
         </is>
       </c>
-      <c r="V338" s="11" t="inlineStr">
+      <c r="V338" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -59343,7 +59351,7 @@
           <t>225</t>
         </is>
       </c>
-      <c r="AB338" s="13" t="inlineStr">
+      <c r="AB338" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -59500,7 +59508,7 @@
           <t>802</t>
         </is>
       </c>
-      <c r="V339" s="11" t="inlineStr">
+      <c r="V339" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -59540,7 +59548,7 @@
           <t>532</t>
         </is>
       </c>
-      <c r="AD339" s="14" t="inlineStr">
+      <c r="AD339" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -59687,7 +59695,7 @@
           <t>350</t>
         </is>
       </c>
-      <c r="V340" s="11" t="inlineStr">
+      <c r="V340" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -59717,7 +59725,7 @@
           <t>440</t>
         </is>
       </c>
-      <c r="AB340" s="13" t="inlineStr">
+      <c r="AB340" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -59737,7 +59745,7 @@
           <t>210</t>
         </is>
       </c>
-      <c r="AF340" s="15" t="inlineStr">
+      <c r="AF340" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -59819,12 +59827,12 @@
           <t>458</t>
         </is>
       </c>
-      <c r="K341" s="8" t="inlineStr">
+      <c r="K341" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
       </c>
-      <c r="L341" s="8" t="inlineStr">
+      <c r="L341" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -59904,7 +59912,7 @@
           <t>762</t>
         </is>
       </c>
-      <c r="AB341" s="13" t="inlineStr">
+      <c r="AB341" s="17" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -59914,12 +59922,12 @@
           <t>561</t>
         </is>
       </c>
-      <c r="AD341" s="14" t="inlineStr">
+      <c r="AD341" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
       </c>
-      <c r="AE341" s="14" t="inlineStr">
+      <c r="AE341" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -59981,7 +59989,7 @@
           <t>185</t>
         </is>
       </c>
-      <c r="F342" s="6" t="inlineStr">
+      <c r="F342" s="17" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -59991,7 +59999,7 @@
           <t>229</t>
         </is>
       </c>
-      <c r="H342" s="7" t="inlineStr">
+      <c r="H342" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -60081,7 +60089,7 @@
           <t>250</t>
         </is>
       </c>
-      <c r="Z342" s="13" t="inlineStr">
+      <c r="Z342" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -60158,7 +60166,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="D343" s="5" t="inlineStr">
+      <c r="D343" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -60183,7 +60191,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="I343" s="7" t="inlineStr">
+      <c r="I343" s="17" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -60193,7 +60201,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="K343" s="8" t="inlineStr">
+      <c r="K343" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -60243,7 +60251,7 @@
           <t>890</t>
         </is>
       </c>
-      <c r="U343" s="11" t="inlineStr">
+      <c r="U343" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -60340,7 +60348,7 @@
           <t>106</t>
         </is>
       </c>
-      <c r="C344" s="5" t="inlineStr">
+      <c r="C344" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -60375,12 +60383,12 @@
           <t>880</t>
         </is>
       </c>
-      <c r="J344" s="7" t="inlineStr">
+      <c r="J344" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
       </c>
-      <c r="K344" s="8" t="inlineStr">
+      <c r="K344" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -60410,7 +60418,7 @@
           <t>997</t>
         </is>
       </c>
-      <c r="Q344" s="10" t="inlineStr">
+      <c r="Q344" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -60445,7 +60453,7 @@
           <t>162</t>
         </is>
       </c>
-      <c r="X344" s="12" t="inlineStr">
+      <c r="X344" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -60455,7 +60463,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="Z344" s="13" t="inlineStr">
+      <c r="Z344" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -60572,7 +60580,7 @@
           <t>869</t>
         </is>
       </c>
-      <c r="L345" s="8" t="inlineStr">
+      <c r="L345" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -60632,7 +60640,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="X345" s="12" t="inlineStr">
+      <c r="X345" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -60672,7 +60680,7 @@
           <t>569</t>
         </is>
       </c>
-      <c r="AF345" s="15" t="inlineStr">
+      <c r="AF345" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -60874,7 +60882,7 @@
           <t>830</t>
         </is>
       </c>
-      <c r="AI346" s="16" t="inlineStr">
+      <c r="AI346" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -60951,7 +60959,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="M347" s="8" t="inlineStr">
+      <c r="M347" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -61061,7 +61069,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="AI347" s="16" t="inlineStr">
+      <c r="AI347" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -61183,7 +61191,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="V348" s="11" t="inlineStr">
+      <c r="V348" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -61669,7 +61677,7 @@
           <t>977</t>
         </is>
       </c>
-      <c r="AA353" s="13" t="inlineStr">
+      <c r="AA353" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -61679,7 +61687,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="AC353" s="14" t="inlineStr">
+      <c r="AC353" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -61751,7 +61759,7 @@
           <t>944</t>
         </is>
       </c>
-      <c r="F354" s="6" t="inlineStr">
+      <c r="F354" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -61821,7 +61829,7 @@
           <t>996</t>
         </is>
       </c>
-      <c r="T354" s="11" t="inlineStr">
+      <c r="T354" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -61918,7 +61926,7 @@
           <t>03</t>
         </is>
       </c>
-      <c r="B355" s="5" t="inlineStr">
+      <c r="B355" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -62038,7 +62046,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="Z355" s="13" t="inlineStr">
+      <c r="Z355" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -62088,12 +62096,12 @@
           <t>746</t>
         </is>
       </c>
-      <c r="AJ355" s="16" t="inlineStr">
+      <c r="AJ355" s="17" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AK355" s="16" t="inlineStr">
+      <c r="AK355" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -62175,7 +62183,7 @@
           <t>407</t>
         </is>
       </c>
-      <c r="P356" s="9" t="inlineStr">
+      <c r="P356" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -62220,7 +62228,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="Y356" s="12" t="inlineStr">
+      <c r="Y356" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -62417,7 +62425,7 @@
           <t>693</t>
         </is>
       </c>
-      <c r="AA357" s="13" t="inlineStr">
+      <c r="AA357" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -62437,7 +62445,7 @@
           <t>503</t>
         </is>
       </c>
-      <c r="AE357" s="14" t="inlineStr">
+      <c r="AE357" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -62499,7 +62507,7 @@
           <t>376</t>
         </is>
       </c>
-      <c r="F358" s="6" t="inlineStr">
+      <c r="F358" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -62624,7 +62632,7 @@
           <t>370</t>
         </is>
       </c>
-      <c r="AE358" s="14" t="inlineStr">
+      <c r="AE358" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -62676,7 +62684,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="D359" s="5" t="inlineStr">
+      <c r="D359" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -62736,7 +62744,7 @@
           <t>188</t>
         </is>
       </c>
-      <c r="P359" s="9" t="inlineStr">
+      <c r="P359" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -62791,7 +62799,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="AA359" s="13" t="inlineStr">
+      <c r="AA359" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -62801,7 +62809,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="AC359" s="14" t="inlineStr">
+      <c r="AC359" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -63110,7 +63118,7 @@
           <t>725</t>
         </is>
       </c>
-      <c r="P361" s="9" t="inlineStr">
+      <c r="P361" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -63155,12 +63163,12 @@
           <t>789</t>
         </is>
       </c>
-      <c r="Y361" s="12" t="inlineStr">
+      <c r="Y361" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
       </c>
-      <c r="Z361" s="13" t="inlineStr">
+      <c r="Z361" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -63252,7 +63260,7 @@
           <t>449</t>
         </is>
       </c>
-      <c r="G362" s="6" t="inlineStr">
+      <c r="G362" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -63267,7 +63275,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="J362" s="7" t="inlineStr">
+      <c r="J362" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -63312,7 +63320,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="S362" s="10" t="inlineStr">
+      <c r="S362" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -63347,7 +63355,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="Z362" s="13" t="inlineStr">
+      <c r="Z362" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -63382,7 +63390,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="AG362" s="15" t="inlineStr">
+      <c r="AG362" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -63479,7 +63487,7 @@
           <t>361</t>
         </is>
       </c>
-      <c r="O363" s="9" t="inlineStr">
+      <c r="O363" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -63499,7 +63507,7 @@
           <t>846</t>
         </is>
       </c>
-      <c r="S363" s="10" t="inlineStr">
+      <c r="S363" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -63509,7 +63517,7 @@
           <t>454</t>
         </is>
       </c>
-      <c r="U363" s="11" t="inlineStr">
+      <c r="U363" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -63589,7 +63597,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="AK363" s="16" t="inlineStr">
+      <c r="AK363" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -63818,7 +63826,7 @@
           <t>059</t>
         </is>
       </c>
-      <c r="H365" s="7" t="inlineStr">
+      <c r="H365" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -63828,7 +63836,7 @@
           <t>409</t>
         </is>
       </c>
-      <c r="J365" s="7" t="inlineStr">
+      <c r="J365" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -63923,7 +63931,7 @@
           <t>729</t>
         </is>
       </c>
-      <c r="AC365" s="14" t="inlineStr">
+      <c r="AC365" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -64267,7 +64275,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="W367" s="12" t="inlineStr">
+      <c r="W367" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -64434,7 +64442,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="S368" s="10" t="inlineStr">
+      <c r="S368" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -64464,7 +64472,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="Y368" s="12" t="inlineStr">
+      <c r="Y368" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -64524,7 +64532,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="AK368" s="16" t="inlineStr">
+      <c r="AK368" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -64571,12 +64579,12 @@
           <t>613</t>
         </is>
       </c>
-      <c r="I369" s="7" t="inlineStr">
+      <c r="I369" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
       </c>
-      <c r="J369" s="7" t="inlineStr">
+      <c r="J369" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -64686,7 +64694,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="AF369" s="15" t="inlineStr">
+      <c r="AF369" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -64706,7 +64714,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="AJ369" s="16" t="inlineStr">
+      <c r="AJ369" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -64878,7 +64886,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="AG370" s="15" t="inlineStr">
+      <c r="AG370" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -64910,7 +64918,7 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B371" s="5" t="inlineStr">
+      <c r="B371" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -64990,7 +64998,7 @@
           <t>422</t>
         </is>
       </c>
-      <c r="R371" s="10" t="inlineStr">
+      <c r="R371" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -65247,7 +65255,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="AF372" s="15" t="inlineStr">
+      <c r="AF372" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -65314,7 +65322,7 @@
           <t>723</t>
         </is>
       </c>
-      <c r="H373" s="7" t="inlineStr">
+      <c r="H373" s="17" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -65459,7 +65467,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="AK373" s="16" t="inlineStr">
+      <c r="AK373" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -65698,7 +65706,7 @@
           <t>539</t>
         </is>
       </c>
-      <c r="J375" s="7" t="inlineStr">
+      <c r="J375" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -65708,7 +65716,7 @@
           <t>995</t>
         </is>
       </c>
-      <c r="L375" s="8" t="inlineStr">
+      <c r="L375" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -65723,7 +65731,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="O375" s="9" t="inlineStr">
+      <c r="O375" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -65788,7 +65796,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="AB375" s="13" t="inlineStr">
+      <c r="AB375" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -65833,7 +65841,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="AK375" s="16" t="inlineStr">
+      <c r="AK375" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -66122,7 +66130,7 @@
           <t>167</t>
         </is>
       </c>
-      <c r="T377" s="11" t="inlineStr">
+      <c r="T377" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -66147,7 +66155,7 @@
           <t>556</t>
         </is>
       </c>
-      <c r="Y377" s="12" t="inlineStr">
+      <c r="Y377" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -66167,7 +66175,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="AC377" s="14" t="inlineStr">
+      <c r="AC377" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -66177,7 +66185,7 @@
           <t>534</t>
         </is>
       </c>
-      <c r="AE377" s="14" t="inlineStr">
+      <c r="AE377" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -66369,7 +66377,7 @@
           <t>837</t>
         </is>
       </c>
-      <c r="AF378" s="15" t="inlineStr">
+      <c r="AF378" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -66628,7 +66636,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="I380" s="7" t="inlineStr">
+      <c r="I380" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -66693,7 +66701,7 @@
           <t>533</t>
         </is>
       </c>
-      <c r="V380" s="11" t="inlineStr">
+      <c r="V380" s="17" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -66805,7 +66813,7 @@
           <t>918</t>
         </is>
       </c>
-      <c r="G381" s="6" t="inlineStr">
+      <c r="G381" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -66865,7 +66873,7 @@
           <t>733</t>
         </is>
       </c>
-      <c r="S381" s="10" t="inlineStr">
+      <c r="S381" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -66940,7 +66948,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="AH381" s="15" t="inlineStr">
+      <c r="AH381" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -66997,7 +67005,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H382" s="7" t="inlineStr">
+      <c r="H382" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -67047,7 +67055,7 @@
           <t>416</t>
         </is>
       </c>
-      <c r="R382" s="10" t="inlineStr">
+      <c r="R382" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -67062,7 +67070,7 @@
           <t>015</t>
         </is>
       </c>
-      <c r="U382" s="11" t="inlineStr">
+      <c r="U382" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -67107,7 +67115,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="AD382" s="14" t="inlineStr">
+      <c r="AD382" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -67635,12 +67643,12 @@
           <t>251</t>
         </is>
       </c>
-      <c r="F388" s="6" t="inlineStr">
+      <c r="F388" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="G388" s="6" t="inlineStr">
+      <c r="G388" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -67655,7 +67663,7 @@
           <t>837</t>
         </is>
       </c>
-      <c r="J388" s="7" t="inlineStr">
+      <c r="J388" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -67665,7 +67673,7 @@
           <t>358</t>
         </is>
       </c>
-      <c r="L388" s="8" t="inlineStr">
+      <c r="L388" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -67680,7 +67688,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="O388" s="9" t="inlineStr">
+      <c r="O388" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -67690,7 +67698,7 @@
           <t>488</t>
         </is>
       </c>
-      <c r="Q388" s="10" t="inlineStr">
+      <c r="Q388" s="17" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -67842,7 +67850,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="J389" s="7" t="inlineStr">
+      <c r="J389" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -67917,7 +67925,7 @@
           <t>187</t>
         </is>
       </c>
-      <c r="Y389" s="12" t="inlineStr">
+      <c r="Y389" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -67947,7 +67955,7 @@
           <t>731</t>
         </is>
       </c>
-      <c r="AE389" s="14" t="inlineStr">
+      <c r="AE389" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -68004,7 +68012,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="E390" s="6" t="inlineStr">
+      <c r="E390" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -68064,7 +68072,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="Q390" s="10" t="inlineStr">
+      <c r="Q390" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -68094,7 +68102,7 @@
           <t>644</t>
         </is>
       </c>
-      <c r="W390" s="12" t="inlineStr">
+      <c r="W390" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -68109,7 +68117,7 @@
           <t>117</t>
         </is>
       </c>
-      <c r="Z390" s="13" t="inlineStr">
+      <c r="Z390" s="17" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -68236,7 +68244,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="N391" s="9" t="inlineStr">
+      <c r="N391" s="17" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -68301,7 +68309,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AA391" s="13" t="inlineStr">
+      <c r="AA391" s="17" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -68368,7 +68376,7 @@
           <t>203</t>
         </is>
       </c>
-      <c r="C392" s="5" t="inlineStr">
+      <c r="C392" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -68615,7 +68623,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="O393" s="9" t="inlineStr">
+      <c r="O393" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -68757,7 +68765,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="F394" s="6" t="inlineStr">
+      <c r="F394" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -68797,7 +68805,7 @@
           <t>150</t>
         </is>
       </c>
-      <c r="N394" s="9" t="inlineStr">
+      <c r="N394" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -68912,7 +68920,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="AK394" s="16" t="inlineStr">
+      <c r="AK394" s="17" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -69156,7 +69164,7 @@
           <t>052</t>
         </is>
       </c>
-      <c r="K396" s="8" t="inlineStr">
+      <c r="K396" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -69418,7 +69426,7 @@
           <t>933</t>
         </is>
       </c>
-      <c r="Z397" s="13" t="inlineStr">
+      <c r="Z397" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -69438,7 +69446,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="AD397" s="14" t="inlineStr">
+      <c r="AD397" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -69463,7 +69471,7 @@
           <t>722</t>
         </is>
       </c>
-      <c r="AI397" s="16" t="inlineStr">
+      <c r="AI397" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -69702,7 +69710,7 @@
           <t>023</t>
         </is>
       </c>
-      <c r="H399" s="7" t="inlineStr">
+      <c r="H399" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -69797,7 +69805,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="AA399" s="13" t="inlineStr">
+      <c r="AA399" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -69837,7 +69845,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="AI399" s="16" t="inlineStr">
+      <c r="AI399" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -70034,7 +70042,7 @@
           <t>201</t>
         </is>
       </c>
-      <c r="AK400" s="16" t="inlineStr">
+      <c r="AK400" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -70176,7 +70184,7 @@
           <t>968</t>
         </is>
       </c>
-      <c r="AB401" s="13" t="inlineStr">
+      <c r="AB401" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -70186,7 +70194,7 @@
           <t>368</t>
         </is>
       </c>
-      <c r="AD401" s="14" t="inlineStr">
+      <c r="AD401" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -70358,7 +70366,7 @@
           <t>417</t>
         </is>
       </c>
-      <c r="AA402" s="13" t="inlineStr">
+      <c r="AA402" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -70393,7 +70401,7 @@
           <t>343</t>
         </is>
       </c>
-      <c r="AH402" s="15" t="inlineStr">
+      <c r="AH402" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -70425,7 +70433,7 @@
           <t>946</t>
         </is>
       </c>
-      <c r="C403" s="5" t="inlineStr">
+      <c r="C403" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -70450,7 +70458,7 @@
           <t>567</t>
         </is>
       </c>
-      <c r="H403" s="7" t="inlineStr">
+      <c r="H403" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -70607,7 +70615,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B404" s="5" t="inlineStr">
+      <c r="B404" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -70672,7 +70680,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="O404" s="9" t="inlineStr">
+      <c r="O404" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -70742,7 +70750,7 @@
           <t>245</t>
         </is>
       </c>
-      <c r="AC404" s="14" t="inlineStr">
+      <c r="AC404" s="17" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -70794,7 +70802,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B405" s="5" t="inlineStr">
+      <c r="B405" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -70819,7 +70827,7 @@
           <t>765</t>
         </is>
       </c>
-      <c r="G405" s="6" t="inlineStr">
+      <c r="G405" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -70879,7 +70887,7 @@
           <t>779</t>
         </is>
       </c>
-      <c r="S405" s="10" t="inlineStr">
+      <c r="S405" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -71096,7 +71104,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="Y406" s="12" t="inlineStr">
+      <c r="Y406" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -71198,7 +71206,7 @@
           <t>029</t>
         </is>
       </c>
-      <c r="H407" s="7" t="inlineStr">
+      <c r="H407" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -71308,7 +71316,7 @@
           <t>787</t>
         </is>
       </c>
-      <c r="AD407" s="14" t="inlineStr">
+      <c r="AD407" s="17" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -71405,12 +71413,12 @@
           <t>043</t>
         </is>
       </c>
-      <c r="L408" s="8" t="inlineStr">
+      <c r="L408" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
       </c>
-      <c r="M408" s="8" t="inlineStr">
+      <c r="M408" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -71455,7 +71463,7 @@
           <t>525</t>
         </is>
       </c>
-      <c r="V408" s="11" t="inlineStr">
+      <c r="V408" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -71520,7 +71528,7 @@
           <t>618</t>
         </is>
       </c>
-      <c r="AI408" s="16" t="inlineStr">
+      <c r="AI408" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -71572,7 +71580,7 @@
           <t>757</t>
         </is>
       </c>
-      <c r="H409" s="7" t="inlineStr">
+      <c r="H409" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -71734,7 +71742,7 @@
           <t>675</t>
         </is>
       </c>
-      <c r="C410" s="5" t="inlineStr">
+      <c r="C410" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -72036,7 +72044,7 @@
           <t>999</t>
         </is>
       </c>
-      <c r="Z411" s="13" t="inlineStr">
+      <c r="Z411" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -72173,7 +72181,7 @@
           <t>356</t>
         </is>
       </c>
-      <c r="P412" s="9" t="inlineStr">
+      <c r="P412" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -72213,7 +72221,7 @@
           <t>243</t>
         </is>
       </c>
-      <c r="X412" s="12" t="inlineStr">
+      <c r="X412" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -72228,7 +72236,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="AA412" s="13" t="inlineStr">
+      <c r="AA412" s="17" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -72295,12 +72303,12 @@
           <t>207</t>
         </is>
       </c>
-      <c r="C413" s="5" t="inlineStr">
+      <c r="C413" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="D413" s="5" t="inlineStr">
+      <c r="D413" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -72420,7 +72428,7 @@
           <t>949</t>
         </is>
       </c>
-      <c r="AB413" s="13" t="inlineStr">
+      <c r="AB413" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -72460,7 +72468,7 @@
           <t>753</t>
         </is>
       </c>
-      <c r="AJ413" s="16" t="inlineStr">
+      <c r="AJ413" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -72704,7 +72712,7 @@
           <t>861</t>
         </is>
       </c>
-      <c r="J415" s="7" t="inlineStr">
+      <c r="J415" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -72779,7 +72787,7 @@
           <t>392</t>
         </is>
       </c>
-      <c r="Y415" s="12" t="inlineStr">
+      <c r="Y415" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -72799,7 +72807,7 @@
           <t>831</t>
         </is>
       </c>
-      <c r="AC415" s="14" t="inlineStr">
+      <c r="AC415" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -72966,7 +72974,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="Y416" s="12" t="inlineStr">
+      <c r="Y416" s="17" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -73315,7 +73323,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T418" s="11" t="inlineStr">
+      <c r="T418" s="17" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -73958,7 +73966,7 @@
           <t>343</t>
         </is>
       </c>
-      <c r="S424" s="10" t="inlineStr">
+      <c r="S424" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -74018,7 +74026,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="AE424" s="14" t="inlineStr">
+      <c r="AE424" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -74080,7 +74088,7 @@
           <t>469</t>
         </is>
       </c>
-      <c r="F425" s="6" t="inlineStr">
+      <c r="F425" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -74145,7 +74153,7 @@
           <t>723</t>
         </is>
       </c>
-      <c r="S425" s="10" t="inlineStr">
+      <c r="S425" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -74200,7 +74208,7 @@
           <t>302</t>
         </is>
       </c>
-      <c r="AD425" s="14" t="inlineStr">
+      <c r="AD425" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -74412,12 +74420,12 @@
           <t>613</t>
         </is>
       </c>
-      <c r="AI426" s="16" t="inlineStr">
+      <c r="AI426" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
       </c>
-      <c r="AJ426" s="16" t="inlineStr">
+      <c r="AJ426" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -74444,7 +74452,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="D427" s="5" t="inlineStr">
+      <c r="D427" s="17" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -74454,7 +74462,7 @@
           <t>890</t>
         </is>
       </c>
-      <c r="F427" s="6" t="inlineStr">
+      <c r="F427" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -74514,7 +74522,7 @@
           <t>803</t>
         </is>
       </c>
-      <c r="R427" s="10" t="inlineStr">
+      <c r="R427" s="17" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -74529,7 +74537,7 @@
           <t>275</t>
         </is>
       </c>
-      <c r="U427" s="11" t="inlineStr">
+      <c r="U427" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -74559,7 +74567,7 @@
           <t>360</t>
         </is>
       </c>
-      <c r="AA427" s="13" t="inlineStr">
+      <c r="AA427" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -74621,7 +74629,7 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B428" s="5" t="inlineStr">
+      <c r="B428" s="17" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -74711,7 +74719,7 @@
           <t>130</t>
         </is>
       </c>
-      <c r="T428" s="11" t="inlineStr">
+      <c r="T428" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -74721,7 +74729,7 @@
           <t>444</t>
         </is>
       </c>
-      <c r="V428" s="11" t="inlineStr">
+      <c r="V428" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -74741,7 +74749,7 @@
           <t>395</t>
         </is>
       </c>
-      <c r="Z428" s="13" t="inlineStr">
+      <c r="Z428" s="17" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -74883,7 +74891,7 @@
           <t>133</t>
         </is>
       </c>
-      <c r="Q429" s="10" t="inlineStr">
+      <c r="Q429" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -74908,7 +74916,7 @@
           <t>936</t>
         </is>
       </c>
-      <c r="V429" s="11" t="inlineStr">
+      <c r="V429" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -74973,7 +74981,7 @@
           <t>423</t>
         </is>
       </c>
-      <c r="AI429" s="16" t="inlineStr">
+      <c r="AI429" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -75090,7 +75098,7 @@
           <t>442</t>
         </is>
       </c>
-      <c r="U430" s="11" t="inlineStr">
+      <c r="U430" s="17" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -75115,7 +75123,7 @@
           <t>639</t>
         </is>
       </c>
-      <c r="Z430" s="13" t="inlineStr">
+      <c r="Z430" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -75297,7 +75305,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="Y431" s="12" t="inlineStr">
+      <c r="Y431" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -75434,7 +75442,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="O432" s="9" t="inlineStr">
+      <c r="O432" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -75571,7 +75579,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="E433" s="6" t="inlineStr">
+      <c r="E433" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -75706,7 +75714,7 @@
           <t>979</t>
         </is>
       </c>
-      <c r="AF433" s="15" t="inlineStr">
+      <c r="AF433" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -75793,7 +75801,7 @@
           <t>299</t>
         </is>
       </c>
-      <c r="L434" s="8" t="inlineStr">
+      <c r="L434" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -75818,7 +75826,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="Q434" s="10" t="inlineStr">
+      <c r="Q434" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -75853,7 +75861,7 @@
           <t>701</t>
         </is>
       </c>
-      <c r="X434" s="12" t="inlineStr">
+      <c r="X434" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -75903,12 +75911,12 @@
           <t>049</t>
         </is>
       </c>
-      <c r="AH434" s="15" t="inlineStr">
+      <c r="AH434" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="AI434" s="16" t="inlineStr">
+      <c r="AI434" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -76055,7 +76063,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="AA435" s="13" t="inlineStr">
+      <c r="AA435" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -76137,7 +76145,7 @@
           <t>615</t>
         </is>
       </c>
-      <c r="F436" s="6" t="inlineStr">
+      <c r="F436" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -76252,7 +76260,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="AC436" s="14" t="inlineStr">
+      <c r="AC436" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -76439,7 +76447,7 @@
           <t>273</t>
         </is>
       </c>
-      <c r="AC437" s="14" t="inlineStr">
+      <c r="AC437" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -76464,7 +76472,7 @@
           <t>493</t>
         </is>
       </c>
-      <c r="AH437" s="15" t="inlineStr">
+      <c r="AH437" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -76526,7 +76534,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="I438" s="7" t="inlineStr">
+      <c r="I438" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -76833,7 +76841,7 @@
           <t>965</t>
         </is>
       </c>
-      <c r="AG439" s="15" t="inlineStr">
+      <c r="AG439" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -76865,7 +76873,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B440" s="5" t="inlineStr">
+      <c r="B440" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -76930,7 +76938,7 @@
           <t>585</t>
         </is>
       </c>
-      <c r="O440" s="9" t="inlineStr">
+      <c r="O440" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -76995,7 +77003,7 @@
           <t>395</t>
         </is>
       </c>
-      <c r="AB440" s="13" t="inlineStr">
+      <c r="AB440" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -77040,7 +77048,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="AK440" s="16" t="inlineStr">
+      <c r="AK440" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -77057,7 +77065,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="C441" s="5" t="inlineStr">
+      <c r="C441" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -77142,7 +77150,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="T441" s="11" t="inlineStr">
+      <c r="T441" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -77192,7 +77200,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="AD441" s="14" t="inlineStr">
+      <c r="AD441" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -77309,7 +77317,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="P442" s="9" t="inlineStr">
+      <c r="P442" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -77369,7 +77377,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="AB442" s="13" t="inlineStr">
+      <c r="AB442" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -77441,7 +77449,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="E443" s="6" t="inlineStr">
+      <c r="E443" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -77481,7 +77489,7 @@
           <t>469</t>
         </is>
       </c>
-      <c r="M443" s="8" t="inlineStr">
+      <c r="M443" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -77491,7 +77499,7 @@
           <t>426</t>
         </is>
       </c>
-      <c r="O443" s="9" t="inlineStr">
+      <c r="O443" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -77743,7 +77751,7 @@
           <t>667</t>
         </is>
       </c>
-      <c r="AB444" s="13" t="inlineStr">
+      <c r="AB444" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -77753,7 +77761,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AD444" s="14" t="inlineStr">
+      <c r="AD444" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -78097,7 +78105,7 @@
           <t>459</t>
         </is>
       </c>
-      <c r="X446" s="12" t="inlineStr">
+      <c r="X446" s="17" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -78219,7 +78227,7 @@
           <t>946</t>
         </is>
       </c>
-      <c r="K447" s="8" t="inlineStr">
+      <c r="K447" s="17" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -78314,7 +78322,7 @@
           <t>528</t>
         </is>
       </c>
-      <c r="AD447" s="14" t="inlineStr">
+      <c r="AD447" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -78361,7 +78369,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B448" s="5" t="inlineStr">
+      <c r="B448" s="17" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -78461,7 +78469,7 @@
           <t>769</t>
         </is>
       </c>
-      <c r="V448" s="11" t="inlineStr">
+      <c r="V448" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -78496,7 +78504,7 @@
           <t>463</t>
         </is>
       </c>
-      <c r="AC448" s="14" t="inlineStr">
+      <c r="AC448" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -78633,7 +78641,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="S449" s="10" t="inlineStr">
+      <c r="S449" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -78770,7 +78778,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="I450" s="7" t="inlineStr">
+      <c r="I450" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -78835,7 +78843,7 @@
           <t>609</t>
         </is>
       </c>
-      <c r="V450" s="11" t="inlineStr">
+      <c r="V450" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -78932,7 +78940,7 @@
           <t>806</t>
         </is>
       </c>
-      <c r="D451" s="5" t="inlineStr">
+      <c r="D451" s="17" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -79047,7 +79055,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="AA451" s="13" t="inlineStr">
+      <c r="AA451" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -79229,7 +79237,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="Z452" s="13" t="inlineStr">
+      <c r="Z452" s="17" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -79259,7 +79267,7 @@
           <t>127</t>
         </is>
       </c>
-      <c r="AF452" s="15" t="inlineStr">
+      <c r="AF452" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -79411,7 +79419,7 @@
           <t>382</t>
         </is>
       </c>
-      <c r="Y453" s="12" t="inlineStr">
+      <c r="Y453" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -79441,7 +79449,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="AE453" s="14" t="inlineStr">
+      <c r="AE453" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -79797,7 +79805,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="J458" s="7" t="inlineStr">
+      <c r="J458" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -80049,7 +80057,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="W459" s="12" t="inlineStr">
+      <c r="W459" s="17" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -80151,7 +80159,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="F460" s="6" t="inlineStr">
+      <c r="F460" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -80206,7 +80214,7 @@
           <t>214</t>
         </is>
       </c>
-      <c r="Q460" s="10" t="inlineStr">
+      <c r="Q460" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -80271,7 +80279,7 @@
           <t>548</t>
         </is>
       </c>
-      <c r="AD460" s="14" t="inlineStr">
+      <c r="AD460" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -80318,7 +80326,7 @@
           <t>04</t>
         </is>
       </c>
-      <c r="B461" s="5" t="inlineStr">
+      <c r="B461" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -80358,7 +80366,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="J461" s="7" t="inlineStr">
+      <c r="J461" s="17" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -80423,7 +80431,7 @@
           <t>931</t>
         </is>
       </c>
-      <c r="W461" s="12" t="inlineStr">
+      <c r="W461" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -80463,7 +80471,7 @@
           <t>642</t>
         </is>
       </c>
-      <c r="AE461" s="14" t="inlineStr">
+      <c r="AE461" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -80575,7 +80583,7 @@
           <t>190</t>
         </is>
       </c>
-      <c r="P462" s="9" t="inlineStr">
+      <c r="P462" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -80692,12 +80700,12 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B463" s="5" t="inlineStr">
+      <c r="B463" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
       </c>
-      <c r="C463" s="5" t="inlineStr">
+      <c r="C463" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -80782,7 +80790,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="T463" s="11" t="inlineStr">
+      <c r="T463" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -80909,7 +80917,7 @@
           <t>096</t>
         </is>
       </c>
-      <c r="H464" s="7" t="inlineStr">
+      <c r="H464" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -81106,7 +81114,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="J465" s="7" t="inlineStr">
+      <c r="J465" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -81156,7 +81164,7 @@
           <t>055</t>
         </is>
       </c>
-      <c r="T465" s="11" t="inlineStr">
+      <c r="T465" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -81171,7 +81179,7 @@
           <t>109</t>
         </is>
       </c>
-      <c r="W465" s="12" t="inlineStr">
+      <c r="W465" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -81490,7 +81498,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="L467" s="8" t="inlineStr">
+      <c r="L467" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -81924,7 +81932,7 @@
           <t>880</t>
         </is>
       </c>
-      <c r="X469" s="12" t="inlineStr">
+      <c r="X469" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -81944,7 +81952,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AB469" s="13" t="inlineStr">
+      <c r="AB469" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82021,7 +82029,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="F470" s="6" t="inlineStr">
+      <c r="F470" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -82096,7 +82104,7 @@
           <t>804</t>
         </is>
       </c>
-      <c r="U470" s="11" t="inlineStr">
+      <c r="U470" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -82126,7 +82134,7 @@
           <t>758</t>
         </is>
       </c>
-      <c r="AA470" s="13" t="inlineStr">
+      <c r="AA470" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -82141,7 +82149,7 @@
           <t>431</t>
         </is>
       </c>
-      <c r="AD470" s="14" t="inlineStr">
+      <c r="AD470" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -82198,7 +82206,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="D471" s="5" t="inlineStr">
+      <c r="D471" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -82243,7 +82251,7 @@
           <t>335</t>
         </is>
       </c>
-      <c r="M471" s="8" t="inlineStr">
+      <c r="M471" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -82288,7 +82296,7 @@
           <t>064</t>
         </is>
       </c>
-      <c r="V471" s="11" t="inlineStr">
+      <c r="V471" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -82353,7 +82361,7 @@
           <t>977</t>
         </is>
       </c>
-      <c r="AI471" s="16" t="inlineStr">
+      <c r="AI471" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -82530,7 +82538,7 @@
           <t>892</t>
         </is>
       </c>
-      <c r="AG472" s="15" t="inlineStr">
+      <c r="AG472" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -82592,7 +82600,7 @@
           <t>751</t>
         </is>
       </c>
-      <c r="H473" s="7" t="inlineStr">
+      <c r="H473" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -82622,7 +82630,7 @@
           <t>739</t>
         </is>
       </c>
-      <c r="N473" s="9" t="inlineStr">
+      <c r="N473" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82662,7 +82670,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="V473" s="11" t="inlineStr">
+      <c r="V473" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82874,7 +82882,7 @@
           <t>180</t>
         </is>
       </c>
-      <c r="AA474" s="13" t="inlineStr">
+      <c r="AA474" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -83133,7 +83141,7 @@
           <t>874</t>
         </is>
       </c>
-      <c r="D476" s="5" t="inlineStr">
+      <c r="D476" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -83228,7 +83236,7 @@
           <t>279</t>
         </is>
       </c>
-      <c r="W476" s="12" t="inlineStr">
+      <c r="W476" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -83345,7 +83353,7 @@
           <t>257</t>
         </is>
       </c>
-      <c r="I477" s="7" t="inlineStr">
+      <c r="I477" s="17" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -83400,7 +83408,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="T477" s="11" t="inlineStr">
+      <c r="T477" s="17" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -83450,7 +83458,7 @@
           <t>564</t>
         </is>
       </c>
-      <c r="AD477" s="14" t="inlineStr">
+      <c r="AD477" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -83587,7 +83595,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="T478" s="11" t="inlineStr">
+      <c r="T478" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -83602,7 +83610,7 @@
           <t>575</t>
         </is>
       </c>
-      <c r="W478" s="12" t="inlineStr">
+      <c r="W478" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -83754,7 +83762,7 @@
           <t>775</t>
         </is>
       </c>
-      <c r="P479" s="9" t="inlineStr">
+      <c r="P479" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -83784,7 +83792,7 @@
           <t>759</t>
         </is>
       </c>
-      <c r="V479" s="11" t="inlineStr">
+      <c r="V479" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -84108,7 +84116,7 @@
           <t>393</t>
         </is>
       </c>
-      <c r="L481" s="8" t="inlineStr">
+      <c r="L481" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -84183,7 +84191,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="AA481" s="13" t="inlineStr">
+      <c r="AA481" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -84340,7 +84348,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="U482" s="11" t="inlineStr">
+      <c r="U482" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -84360,7 +84368,7 @@
           <t>086</t>
         </is>
       </c>
-      <c r="Y482" s="12" t="inlineStr">
+      <c r="Y482" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -84457,7 +84465,7 @@
           <t>956</t>
         </is>
       </c>
-      <c r="G483" s="6" t="inlineStr">
+      <c r="G483" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -84507,12 +84515,12 @@
           <t>913</t>
         </is>
       </c>
-      <c r="Q483" s="10" t="inlineStr">
+      <c r="Q483" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
       </c>
-      <c r="R483" s="10" t="inlineStr">
+      <c r="R483" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -84542,7 +84550,7 @@
           <t>751</t>
         </is>
       </c>
-      <c r="X483" s="12" t="inlineStr">
+      <c r="X483" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -84629,7 +84637,7 @@
           <t>451</t>
         </is>
       </c>
-      <c r="D484" s="5" t="inlineStr">
+      <c r="D484" s="17" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -84724,7 +84732,7 @@
           <t>907</t>
         </is>
       </c>
-      <c r="W484" s="12" t="inlineStr">
+      <c r="W484" s="17" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -84876,7 +84884,7 @@
           <t>139</t>
         </is>
       </c>
-      <c r="P485" s="9" t="inlineStr">
+      <c r="P485" s="17" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -84971,7 +84979,7 @@
           <t>769</t>
         </is>
       </c>
-      <c r="AI485" s="16" t="inlineStr">
+      <c r="AI485" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -85128,7 +85136,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="AC486" s="14" t="inlineStr">
+      <c r="AC486" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -85532,7 +85540,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI488" s="16" t="inlineStr">
+      <c r="AI488" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -85868,7 +85876,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="J493" s="7" t="inlineStr">
+      <c r="J493" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -86155,7 +86163,7 @@
           <t>200</t>
         </is>
       </c>
-      <c r="AD494" s="14" t="inlineStr">
+      <c r="AD494" s="17" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -86190,7 +86198,7 @@
           <t>471</t>
         </is>
       </c>
-      <c r="AK494" s="16" t="inlineStr">
+      <c r="AK494" s="17" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -86514,7 +86522,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="AA496" s="13" t="inlineStr">
+      <c r="AA496" s="17" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -86586,7 +86594,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="D497" s="5" t="inlineStr">
+      <c r="D497" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -87641,7 +87649,7 @@
           <t>440</t>
         </is>
       </c>
-      <c r="AB502" s="13" t="inlineStr">
+      <c r="AB502" s="17" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -87666,7 +87674,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="AG502" s="15" t="inlineStr">
+      <c r="AG502" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -87708,7 +87716,7 @@
           <t>566</t>
         </is>
       </c>
-      <c r="D503" s="5" t="inlineStr">
+      <c r="D503" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -87873,7 +87881,7 @@
           <t>476</t>
         </is>
       </c>
-      <c r="AK503" s="16" t="inlineStr">
+      <c r="AK503" s="17" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -88005,7 +88013,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z504" s="13" t="inlineStr">
+      <c r="Z504" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -88082,7 +88090,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="D505" s="5" t="inlineStr">
+      <c r="D505" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -88107,7 +88115,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="I505" s="7" t="inlineStr">
+      <c r="I505" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -88197,7 +88205,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="AA505" s="13" t="inlineStr">
+      <c r="AA505" s="17" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -88284,7 +88292,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="G506" s="6" t="inlineStr">
+      <c r="G506" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -88653,7 +88661,7 @@
           <t>167</t>
         </is>
       </c>
-      <c r="F508" s="6" t="inlineStr">
+      <c r="F508" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -88753,7 +88761,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z508" s="13" t="inlineStr">
+      <c r="Z508" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -88850,7 +88858,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="H509" s="7" t="inlineStr">
+      <c r="H509" s="17" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -88970,7 +88978,7 @@
           <t>437</t>
         </is>
       </c>
-      <c r="AF509" s="15" t="inlineStr">
+      <c r="AF509" s="17" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -89047,7 +89055,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="J510" s="7" t="inlineStr">
+      <c r="J510" s="17" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -89214,7 +89222,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="F511" s="6" t="inlineStr">
+      <c r="F511" s="17" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -89501,7 +89509,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z512" s="13" t="inlineStr">
+      <c r="Z512" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -89536,12 +89544,12 @@
           <t>701</t>
         </is>
       </c>
-      <c r="AG512" s="15" t="inlineStr">
+      <c r="AG512" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
       </c>
-      <c r="AH512" s="15" t="inlineStr">
+      <c r="AH512" s="17" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -89551,7 +89559,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="AJ512" s="16" t="inlineStr">
+      <c r="AJ512" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -89708,7 +89716,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="AD513" s="14" t="inlineStr">
+      <c r="AD513" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -89947,7 +89955,7 @@
           <t>488</t>
         </is>
       </c>
-      <c r="C515" s="5" t="inlineStr">
+      <c r="C515" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -90062,7 +90070,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z515" s="13" t="inlineStr">
+      <c r="Z515" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -90107,7 +90115,7 @@
           <t>990</t>
         </is>
       </c>
-      <c r="AI515" s="16" t="inlineStr">
+      <c r="AI515" s="17" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -90421,12 +90429,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W517" s="12" t="inlineStr">
+      <c r="W517" s="17" t="inlineStr">
         <is>
           <t>900</t>
         </is>
       </c>
-      <c r="X517" s="12" t="inlineStr">
+      <c r="X517" s="17" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -90456,7 +90464,7 @@
           <t>596</t>
         </is>
       </c>
-      <c r="AD517" s="14" t="inlineStr">
+      <c r="AD517" s="17" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -90466,7 +90474,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="AF517" s="15" t="inlineStr">
+      <c r="AF517" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -90613,7 +90621,7 @@
           <t>353</t>
         </is>
       </c>
-      <c r="X518" s="12" t="inlineStr">
+      <c r="X518" s="17" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -90715,7 +90723,7 @@
           <t>640</t>
         </is>
       </c>
-      <c r="G519" s="6" t="inlineStr">
+      <c r="G519" s="17" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -90810,7 +90818,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="Z519" s="13" t="inlineStr">
+      <c r="Z519" s="17" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -91022,7 +91030,7 @@
           <t>002</t>
         </is>
       </c>
-      <c r="AE520" s="14" t="inlineStr">
+      <c r="AE520" s="17" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -91573,7 +91581,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC523" s="14" t="inlineStr">
+      <c r="AC523" s="17" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -91653,6 +91661,13 @@
       </c>
       <c r="L526" s="2" t="n"/>
       <c r="M526" s="3" t="n"/>
+      <c r="N526" s="1" t="inlineStr">
+        <is>
+          <t>May 2021</t>
+        </is>
+      </c>
+      <c r="O526" s="2" t="n"/>
+      <c r="P526" s="3" t="n"/>
     </row>
     <row r="527">
       <c r="A527" s="4" t="n"/>
@@ -91716,6 +91731,21 @@
           <t>9PM</t>
         </is>
       </c>
+      <c r="N527" s="1" t="inlineStr">
+        <is>
+          <t>11AM</t>
+        </is>
+      </c>
+      <c r="O527" s="1" t="inlineStr">
+        <is>
+          <t>4PM</t>
+        </is>
+      </c>
+      <c r="P527" s="1" t="inlineStr">
+        <is>
+          <t>9PM</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -91783,6 +91813,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="N528" s="9" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="O528" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P528" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
@@ -91815,7 +91860,7 @@
           <t>491</t>
         </is>
       </c>
-      <c r="G529" s="6" t="inlineStr">
+      <c r="G529" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -91846,6 +91891,21 @@
         </is>
       </c>
       <c r="M529" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N529" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O529" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P529" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -91917,6 +91977,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="N530" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O530" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P530" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
@@ -91939,7 +92014,7 @@
           <t>589</t>
         </is>
       </c>
-      <c r="E531" s="6" t="inlineStr">
+      <c r="E531" s="17" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -91949,7 +92024,7 @@
           <t>096</t>
         </is>
       </c>
-      <c r="G531" s="6" t="inlineStr">
+      <c r="G531" s="17" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -91980,6 +92055,21 @@
         </is>
       </c>
       <c r="M531" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N531" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O531" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P531" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -92051,6 +92141,21 @@
           <t>323</t>
         </is>
       </c>
+      <c r="N532" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O532" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P532" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
@@ -92088,12 +92193,12 @@
           <t>854</t>
         </is>
       </c>
-      <c r="H533" s="7" t="inlineStr">
+      <c r="H533" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
       </c>
-      <c r="I533" s="7" t="inlineStr">
+      <c r="I533" s="17" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -92116,6 +92221,21 @@
       <c r="M533" s="8" t="inlineStr">
         <is>
           <t>650</t>
+        </is>
+      </c>
+      <c r="N533" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O533" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P533" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92185,6 +92305,21 @@
           <t>155</t>
         </is>
       </c>
+      <c r="N534" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O534" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P534" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
@@ -92192,12 +92327,12 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B535" s="5" t="inlineStr">
+      <c r="B535" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="C535" s="5" t="inlineStr">
+      <c r="C535" s="17" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -92250,6 +92385,21 @@
       <c r="M535" s="8" t="inlineStr">
         <is>
           <t>816</t>
+        </is>
+      </c>
+      <c r="N535" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O535" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P535" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92259,7 +92409,7 @@
           <t>09</t>
         </is>
       </c>
-      <c r="B536" s="5" t="inlineStr">
+      <c r="B536" s="17" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -92317,6 +92467,21 @@
       <c r="M536" s="8" t="inlineStr">
         <is>
           <t>198</t>
+        </is>
+      </c>
+      <c r="N536" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O536" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P536" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92361,12 +92526,12 @@
           <t>854</t>
         </is>
       </c>
-      <c r="I537" s="7" t="inlineStr">
+      <c r="I537" s="17" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="J537" s="7" t="inlineStr">
+      <c r="J537" s="17" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -92384,6 +92549,21 @@
       <c r="M537" s="8" t="inlineStr">
         <is>
           <t>168</t>
+        </is>
+      </c>
+      <c r="N537" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O537" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P537" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92393,7 +92573,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B538" s="5" t="inlineStr">
+      <c r="B538" s="17" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -92451,6 +92631,21 @@
       <c r="M538" s="8" t="inlineStr">
         <is>
           <t>340</t>
+        </is>
+      </c>
+      <c r="N538" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O538" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P538" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92520,6 +92715,21 @@
           <t>368</t>
         </is>
       </c>
+      <c r="N539" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O539" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P539" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
@@ -92587,6 +92797,21 @@
           <t>471</t>
         </is>
       </c>
+      <c r="N540" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O540" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P540" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
@@ -92654,6 +92879,21 @@
           <t>392</t>
         </is>
       </c>
+      <c r="N541" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O541" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P541" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
@@ -92721,6 +92961,21 @@
           <t>546</t>
         </is>
       </c>
+      <c r="N542" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O542" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P542" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
@@ -92788,6 +93043,21 @@
           <t>097</t>
         </is>
       </c>
+      <c r="N543" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O543" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P543" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
@@ -92855,6 +93125,21 @@
           <t>116</t>
         </is>
       </c>
+      <c r="N544" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O544" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P544" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
@@ -92902,7 +93187,7 @@
           <t>336</t>
         </is>
       </c>
-      <c r="J545" s="7" t="inlineStr">
+      <c r="J545" s="17" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -92920,6 +93205,21 @@
       <c r="M545" s="8" t="inlineStr">
         <is>
           <t>976</t>
+        </is>
+      </c>
+      <c r="N545" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O545" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P545" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -92989,6 +93289,21 @@
           <t>408</t>
         </is>
       </c>
+      <c r="N546" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O546" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P546" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
@@ -93056,6 +93371,21 @@
           <t>601</t>
         </is>
       </c>
+      <c r="N547" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O547" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P547" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
@@ -93098,7 +93428,7 @@
           <t>438</t>
         </is>
       </c>
-      <c r="I548" s="7" t="inlineStr">
+      <c r="I548" s="17" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -93121,6 +93451,21 @@
       <c r="M548" s="8" t="inlineStr">
         <is>
           <t>145</t>
+        </is>
+      </c>
+      <c r="N548" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O548" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P548" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -93190,6 +93535,21 @@
           <t>117</t>
         </is>
       </c>
+      <c r="N549" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O549" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P549" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
@@ -93212,7 +93572,7 @@
           <t>513</t>
         </is>
       </c>
-      <c r="E550" s="6" t="inlineStr">
+      <c r="E550" s="17" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -93222,7 +93582,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="G550" s="6" t="inlineStr">
+      <c r="G550" s="17" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -93255,6 +93615,21 @@
       <c r="M550" s="8" t="inlineStr">
         <is>
           <t>863</t>
+        </is>
+      </c>
+      <c r="N550" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O550" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P550" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -93324,6 +93699,21 @@
           <t>887</t>
         </is>
       </c>
+      <c r="N551" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O551" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P551" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
@@ -93341,7 +93731,7 @@
           <t>517</t>
         </is>
       </c>
-      <c r="D552" s="5" t="inlineStr">
+      <c r="D552" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -93351,7 +93741,7 @@
           <t>494</t>
         </is>
       </c>
-      <c r="F552" s="6" t="inlineStr">
+      <c r="F552" s="17" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -93378,15 +93768,30 @@
       </c>
       <c r="K552" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>276</t>
         </is>
       </c>
       <c r="L552" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>703</t>
         </is>
       </c>
       <c r="M552" s="8" t="inlineStr">
+        <is>
+          <t>050</t>
+        </is>
+      </c>
+      <c r="N552" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O552" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P552" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -93403,7 +93808,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="C553" s="5" t="inlineStr">
+      <c r="C553" s="17" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -93445,15 +93850,30 @@
       </c>
       <c r="K553" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>281</t>
         </is>
       </c>
       <c r="L553" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>311</t>
         </is>
       </c>
       <c r="M553" s="8" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="N553" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O553" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P553" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -93490,12 +93910,12 @@
           <t>047</t>
         </is>
       </c>
-      <c r="G554" s="6" t="inlineStr">
+      <c r="G554" s="17" t="inlineStr">
         <is>
           <t>807</t>
         </is>
       </c>
-      <c r="H554" s="7" t="inlineStr">
+      <c r="H554" s="17" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -93512,15 +93932,30 @@
       </c>
       <c r="K554" s="8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L554" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="L554" s="17" t="inlineStr">
+        <is>
+          <t>009</t>
         </is>
       </c>
       <c r="M554" s="8" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="N554" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O554" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P554" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -93542,7 +93977,7 @@
           <t>957</t>
         </is>
       </c>
-      <c r="D555" s="5" t="inlineStr">
+      <c r="D555" s="17" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -93557,7 +93992,7 @@
           <t>828</t>
         </is>
       </c>
-      <c r="G555" s="6" t="inlineStr">
+      <c r="G555" s="17" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -93577,17 +94012,32 @@
           <t>094</t>
         </is>
       </c>
-      <c r="K555" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L555" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K555" s="17" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="L555" s="17" t="inlineStr">
+        <is>
+          <t>144</t>
         </is>
       </c>
       <c r="M555" s="8" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="N555" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O555" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P555" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -93646,15 +94096,30 @@
       </c>
       <c r="K556" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>215</t>
         </is>
       </c>
       <c r="L556" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>705</t>
         </is>
       </c>
       <c r="M556" s="8" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="N556" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O556" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P556" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -93713,15 +94178,30 @@
       </c>
       <c r="K557" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>314</t>
         </is>
       </c>
       <c r="L557" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>125</t>
         </is>
       </c>
       <c r="M557" s="8" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="N557" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O557" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P557" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -93768,7 +94248,7 @@
           <t>998</t>
         </is>
       </c>
-      <c r="I558" s="7" t="inlineStr">
+      <c r="I558" s="17" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -93789,13 +94269,28 @@
         </is>
       </c>
       <c r="M558" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N558" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O558" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P558" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="201">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -93996,6 +94491,7 @@
     <mergeCell ref="E526:G526"/>
     <mergeCell ref="H526:J526"/>
     <mergeCell ref="K526:M526"/>
+    <mergeCell ref="N526:P526"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -29,7 +29,7 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -39,11 +39,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ff6699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -209,7 +204,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -248,12 +246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,7 +1061,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" s="17" t="inlineStr">
+      <c r="J4" s="7" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -1578,7 +1570,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK6" s="17" t="inlineStr">
+      <c r="AK6" s="16" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -1787,7 +1779,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D8" s="17" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -1817,7 +1809,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J8" s="17" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -2129,7 +2121,7 @@
           <t>122</t>
         </is>
       </c>
-      <c r="AI9" s="17" t="inlineStr">
+      <c r="AI9" s="16" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -2393,7 +2385,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M11" s="17" t="inlineStr">
+      <c r="M11" s="8" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -2408,7 +2400,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P11" s="17" t="inlineStr">
+      <c r="P11" s="9" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -2438,7 +2430,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V11" s="17" t="inlineStr">
+      <c r="V11" s="11" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -2453,7 +2445,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y11" s="17" t="inlineStr">
+      <c r="Y11" s="12" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -2468,7 +2460,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB11" s="17" t="inlineStr">
+      <c r="AB11" s="13" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -3111,7 +3103,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G15" s="17" t="inlineStr">
+      <c r="G15" s="6" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -3672,7 +3664,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G18" s="17" t="inlineStr">
+      <c r="G18" s="6" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -3747,7 +3739,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V18" s="17" t="inlineStr">
+      <c r="V18" s="11" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -3859,7 +3851,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G19" s="17" t="inlineStr">
+      <c r="G19" s="6" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -3904,7 +3896,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P19" s="17" t="inlineStr">
+      <c r="P19" s="9" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -4196,7 +4188,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK20" s="17" t="inlineStr">
+      <c r="AK20" s="16" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -4308,7 +4300,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V21" s="17" t="inlineStr">
+      <c r="V21" s="11" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -4373,7 +4365,7 @@
           <t>342</t>
         </is>
       </c>
-      <c r="AI21" s="17" t="inlineStr">
+      <c r="AI21" s="16" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -4510,7 +4502,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y22" s="17" t="inlineStr">
+      <c r="Y22" s="12" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -4540,7 +4532,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE22" s="17" t="inlineStr">
+      <c r="AE22" s="14" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -4652,7 +4644,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P23" s="17" t="inlineStr">
+      <c r="P23" s="9" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -4794,7 +4786,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G24" s="17" t="inlineStr">
+      <c r="G24" s="6" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -4824,7 +4816,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M24" s="17" t="inlineStr">
+      <c r="M24" s="8" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -4944,7 +4936,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK24" s="17" t="inlineStr">
+      <c r="AK24" s="16" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -5121,7 +5113,7 @@
           <t>736</t>
         </is>
       </c>
-      <c r="AI25" s="17" t="inlineStr">
+      <c r="AI25" s="16" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -5527,7 +5519,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D28" s="17" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -5976,7 +5968,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S30" s="17" t="inlineStr">
+      <c r="S30" s="10" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -7220,7 +7212,7 @@
           <t>526</t>
         </is>
       </c>
-      <c r="Z39" s="17" t="inlineStr">
+      <c r="Z39" s="13" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -7559,7 +7551,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S41" s="17" t="inlineStr">
+      <c r="S41" s="10" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -8110,7 +8102,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="Q44" s="17" t="inlineStr">
+      <c r="Q44" s="10" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -8165,7 +8157,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB44" s="17" t="inlineStr">
+      <c r="AB44" s="13" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -8180,7 +8172,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE44" s="17" t="inlineStr">
+      <c r="AE44" s="14" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -8327,7 +8319,7 @@
           <t>189</t>
         </is>
       </c>
-      <c r="W45" s="17" t="inlineStr">
+      <c r="W45" s="12" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -8499,7 +8491,7 @@
           <t>305</t>
         </is>
       </c>
-      <c r="T46" s="17" t="inlineStr">
+      <c r="T46" s="11" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -8514,7 +8506,7 @@
           <t>853</t>
         </is>
       </c>
-      <c r="W46" s="17" t="inlineStr">
+      <c r="W46" s="12" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -8544,7 +8536,7 @@
           <t>008</t>
         </is>
       </c>
-      <c r="AC46" s="17" t="inlineStr">
+      <c r="AC46" s="14" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -8873,7 +8865,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="T48" s="17" t="inlineStr">
+      <c r="T48" s="11" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -8958,7 +8950,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AK48" s="17" t="inlineStr">
+      <c r="AK48" s="16" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -9090,7 +9082,7 @@
           <t>983</t>
         </is>
       </c>
-      <c r="Z49" s="17" t="inlineStr">
+      <c r="Z49" s="13" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -9359,7 +9351,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="E51" s="17" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -9489,7 +9481,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE51" s="17" t="inlineStr">
+      <c r="AE51" s="14" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -9748,7 +9740,7 @@
           <t>270</t>
         </is>
       </c>
-      <c r="H53" s="17" t="inlineStr">
+      <c r="H53" s="7" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -9763,7 +9755,7 @@
           <t>072</t>
         </is>
       </c>
-      <c r="K53" s="17" t="inlineStr">
+      <c r="K53" s="8" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -9773,7 +9765,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M53" s="17" t="inlineStr">
+      <c r="M53" s="8" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -9853,7 +9845,7 @@
           <t>174</t>
         </is>
       </c>
-      <c r="AC53" s="17" t="inlineStr">
+      <c r="AC53" s="14" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -10010,7 +10002,7 @@
           <t>202</t>
         </is>
       </c>
-      <c r="W54" s="17" t="inlineStr">
+      <c r="W54" s="12" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -10025,7 +10017,7 @@
           <t>890</t>
         </is>
       </c>
-      <c r="Z54" s="17" t="inlineStr">
+      <c r="Z54" s="13" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -10880,7 +10872,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J59" s="17" t="inlineStr">
+      <c r="J59" s="7" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -11162,7 +11154,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AC60" s="17" t="inlineStr">
+      <c r="AC60" s="14" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -11254,7 +11246,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J61" s="17" t="inlineStr">
+      <c r="J61" s="7" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -11299,7 +11291,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S61" s="17" t="inlineStr">
+      <c r="S61" s="10" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -11708,7 +11700,7 @@
           <t>384</t>
         </is>
       </c>
-      <c r="Z63" s="17" t="inlineStr">
+      <c r="Z63" s="13" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -11723,7 +11715,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="AC63" s="17" t="inlineStr">
+      <c r="AC63" s="14" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -11935,7 +11927,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AH64" s="17" t="inlineStr">
+      <c r="AH64" s="15" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -12037,7 +12029,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="Q65" s="17" t="inlineStr">
+      <c r="Q65" s="10" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -12209,7 +12201,7 @@
           <t>534</t>
         </is>
       </c>
-      <c r="N66" s="17" t="inlineStr">
+      <c r="N66" s="9" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -12219,7 +12211,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P66" s="17" t="inlineStr">
+      <c r="P66" s="9" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -12294,7 +12286,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AE66" s="17" t="inlineStr">
+      <c r="AE66" s="14" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -12523,7 +12515,7 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B68" s="17" t="inlineStr">
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -13059,7 +13051,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="Q73" s="17" t="inlineStr">
+      <c r="Q73" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -13196,7 +13188,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G74" s="17" t="inlineStr">
+      <c r="G74" s="6" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -13261,7 +13253,7 @@
           <t>513</t>
         </is>
       </c>
-      <c r="T74" s="17" t="inlineStr">
+      <c r="T74" s="11" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -13291,7 +13283,7 @@
           <t>661</t>
         </is>
       </c>
-      <c r="Z74" s="17" t="inlineStr">
+      <c r="Z74" s="13" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -13423,7 +13415,7 @@
           <t>910</t>
         </is>
       </c>
-      <c r="O75" s="17" t="inlineStr">
+      <c r="O75" s="9" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -13478,7 +13470,7 @@
           <t>112</t>
         </is>
       </c>
-      <c r="Z75" s="17" t="inlineStr">
+      <c r="Z75" s="13" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -13625,7 +13617,7 @@
           <t>785</t>
         </is>
       </c>
-      <c r="R76" s="17" t="inlineStr">
+      <c r="R76" s="10" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -13640,7 +13632,7 @@
           <t>027</t>
         </is>
       </c>
-      <c r="U76" s="17" t="inlineStr">
+      <c r="U76" s="11" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -13827,7 +13819,7 @@
           <t>501</t>
         </is>
       </c>
-      <c r="U77" s="17" t="inlineStr">
+      <c r="U77" s="11" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -14014,7 +14006,7 @@
           <t>181</t>
         </is>
       </c>
-      <c r="U78" s="17" t="inlineStr">
+      <c r="U78" s="11" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -14039,7 +14031,7 @@
           <t>873</t>
         </is>
       </c>
-      <c r="Z78" s="17" t="inlineStr">
+      <c r="Z78" s="13" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -14131,7 +14123,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G79" s="17" t="inlineStr">
+      <c r="G79" s="6" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -14166,7 +14158,7 @@
           <t>034</t>
         </is>
       </c>
-      <c r="N79" s="17" t="inlineStr">
+      <c r="N79" s="9" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -14181,7 +14173,7 @@
           <t>204</t>
         </is>
       </c>
-      <c r="Q79" s="17" t="inlineStr">
+      <c r="Q79" s="10" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -14348,7 +14340,7 @@
           <t>918</t>
         </is>
       </c>
-      <c r="M80" s="17" t="inlineStr">
+      <c r="M80" s="8" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -14378,7 +14370,7 @@
           <t>373</t>
         </is>
       </c>
-      <c r="S80" s="17" t="inlineStr">
+      <c r="S80" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -14585,7 +14577,7 @@
           <t>945</t>
         </is>
       </c>
-      <c r="W81" s="17" t="inlineStr">
+      <c r="W81" s="12" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -14692,7 +14684,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G82" s="17" t="inlineStr">
+      <c r="G82" s="6" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -14904,7 +14896,7 @@
           <t>881</t>
         </is>
       </c>
-      <c r="L83" s="17" t="inlineStr">
+      <c r="L83" s="8" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -14954,7 +14946,7 @@
           <t>596</t>
         </is>
       </c>
-      <c r="V83" s="17" t="inlineStr">
+      <c r="V83" s="11" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -15071,7 +15063,7 @@
           <t>792</t>
         </is>
       </c>
-      <c r="H84" s="17" t="inlineStr">
+      <c r="H84" s="7" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -15116,7 +15108,7 @@
           <t>036</t>
         </is>
       </c>
-      <c r="Q84" s="17" t="inlineStr">
+      <c r="Q84" s="10" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -15131,7 +15123,7 @@
           <t>959</t>
         </is>
       </c>
-      <c r="T84" s="17" t="inlineStr">
+      <c r="T84" s="11" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -15151,7 +15143,7 @@
           <t>252</t>
         </is>
       </c>
-      <c r="X84" s="17" t="inlineStr">
+      <c r="X84" s="12" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -15540,7 +15532,7 @@
           <t>838</t>
         </is>
       </c>
-      <c r="AA86" s="17" t="inlineStr">
+      <c r="AA86" s="13" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -15560,7 +15552,7 @@
           <t>089</t>
         </is>
       </c>
-      <c r="AE86" s="17" t="inlineStr">
+      <c r="AE86" s="14" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -15859,7 +15851,7 @@
           <t>473</t>
         </is>
       </c>
-      <c r="P88" s="17" t="inlineStr">
+      <c r="P88" s="9" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -15874,7 +15866,7 @@
           <t>116</t>
         </is>
       </c>
-      <c r="S88" s="17" t="inlineStr">
+      <c r="S88" s="10" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -16213,12 +16205,12 @@
           <t>389</t>
         </is>
       </c>
-      <c r="L90" s="17" t="inlineStr">
+      <c r="L90" s="8" t="inlineStr">
         <is>
           <t>529</t>
         </is>
       </c>
-      <c r="M90" s="17" t="inlineStr">
+      <c r="M90" s="8" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -16500,7 +16492,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="AF91" s="17" t="inlineStr">
+      <c r="AF91" s="15" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -16510,7 +16502,7 @@
           <t>831</t>
         </is>
       </c>
-      <c r="AH91" s="17" t="inlineStr">
+      <c r="AH91" s="15" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -16612,7 +16604,7 @@
           <t>405</t>
         </is>
       </c>
-      <c r="Q92" s="17" t="inlineStr">
+      <c r="Q92" s="10" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -16724,7 +16716,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B93" s="17" t="inlineStr">
+      <c r="B93" s="5" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -16749,7 +16741,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G93" s="17" t="inlineStr">
+      <c r="G93" s="6" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -16784,7 +16776,7 @@
           <t>776</t>
         </is>
       </c>
-      <c r="N93" s="17" t="inlineStr">
+      <c r="N93" s="9" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -16804,7 +16796,7 @@
           <t>513</t>
         </is>
       </c>
-      <c r="R93" s="17" t="inlineStr">
+      <c r="R93" s="10" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -17001,12 +16993,12 @@
           <t>037</t>
         </is>
       </c>
-      <c r="T94" s="17" t="inlineStr">
+      <c r="T94" s="11" t="inlineStr">
         <is>
           <t>039</t>
         </is>
       </c>
-      <c r="U94" s="17" t="inlineStr">
+      <c r="U94" s="11" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -17178,7 +17170,7 @@
           <t>200</t>
         </is>
       </c>
-      <c r="R95" s="17" t="inlineStr">
+      <c r="R95" s="10" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -17263,7 +17255,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="AI95" s="17" t="inlineStr">
+      <c r="AI95" s="16" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -17345,7 +17337,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="N96" s="17" t="inlineStr">
+      <c r="N96" s="9" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -17774,7 +17766,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="Y98" s="17" t="inlineStr">
+      <c r="Y98" s="12" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -17886,7 +17878,7 @@
           <t>136</t>
         </is>
       </c>
-      <c r="J99" s="17" t="inlineStr">
+      <c r="J99" s="7" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -17896,7 +17888,7 @@
           <t>828</t>
         </is>
       </c>
-      <c r="L99" s="17" t="inlineStr">
+      <c r="L99" s="8" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -17961,7 +17953,7 @@
           <t>407</t>
         </is>
       </c>
-      <c r="Y99" s="17" t="inlineStr">
+      <c r="Y99" s="12" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -18063,7 +18055,7 @@
           <t>487</t>
         </is>
       </c>
-      <c r="H100" s="17" t="inlineStr">
+      <c r="H100" s="7" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -18113,7 +18105,7 @@
           <t>597</t>
         </is>
       </c>
-      <c r="R100" s="17" t="inlineStr">
+      <c r="R100" s="10" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -18208,7 +18200,7 @@
           <t>781</t>
         </is>
       </c>
-      <c r="AK100" s="17" t="inlineStr">
+      <c r="AK100" s="16" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -18492,7 +18484,7 @@
           <t>948</t>
         </is>
       </c>
-      <c r="S102" s="17" t="inlineStr">
+      <c r="S102" s="10" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -18552,7 +18544,7 @@
           <t>938</t>
         </is>
       </c>
-      <c r="AE102" s="17" t="inlineStr">
+      <c r="AE102" s="14" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -19247,7 +19239,7 @@
           <t>999</t>
         </is>
       </c>
-      <c r="C109" s="17" t="inlineStr">
+      <c r="C109" s="5" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -19287,7 +19279,7 @@
           <t>901</t>
         </is>
       </c>
-      <c r="K109" s="17" t="inlineStr">
+      <c r="K109" s="8" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -19676,7 +19668,7 @@
           <t>381</t>
         </is>
       </c>
-      <c r="N111" s="17" t="inlineStr">
+      <c r="N111" s="9" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -19731,7 +19723,7 @@
           <t>348</t>
         </is>
       </c>
-      <c r="Y111" s="17" t="inlineStr">
+      <c r="Y111" s="12" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -19990,7 +19982,7 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B113" s="17" t="inlineStr">
+      <c r="B113" s="5" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -20010,7 +20002,7 @@
           <t>255</t>
         </is>
       </c>
-      <c r="F113" s="17" t="inlineStr">
+      <c r="F113" s="6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -20990,7 +20982,7 @@
           <t>696</t>
         </is>
       </c>
-      <c r="O118" s="17" t="inlineStr">
+      <c r="O118" s="9" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -21122,7 +21114,7 @@
           <t>859</t>
         </is>
       </c>
-      <c r="D119" s="17" t="inlineStr">
+      <c r="D119" s="5" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -21232,7 +21224,7 @@
           <t>277</t>
         </is>
       </c>
-      <c r="Z119" s="17" t="inlineStr">
+      <c r="Z119" s="13" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -21516,7 +21508,7 @@
           <t>769</t>
         </is>
       </c>
-      <c r="H121" s="17" t="inlineStr">
+      <c r="H121" s="7" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -21611,7 +21603,7 @@
           <t>186</t>
         </is>
       </c>
-      <c r="AA121" s="17" t="inlineStr">
+      <c r="AA121" s="13" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -21768,7 +21760,7 @@
           <t>639</t>
         </is>
       </c>
-      <c r="U122" s="17" t="inlineStr">
+      <c r="U122" s="11" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -21783,7 +21775,7 @@
           <t>891</t>
         </is>
       </c>
-      <c r="X122" s="17" t="inlineStr">
+      <c r="X122" s="12" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -21803,7 +21795,7 @@
           <t>252</t>
         </is>
       </c>
-      <c r="AB122" s="17" t="inlineStr">
+      <c r="AB122" s="13" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -21960,7 +21952,7 @@
           <t>554</t>
         </is>
       </c>
-      <c r="V123" s="17" t="inlineStr">
+      <c r="V123" s="11" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -22217,7 +22209,7 @@
           <t>218</t>
         </is>
       </c>
-      <c r="AJ124" s="17" t="inlineStr">
+      <c r="AJ124" s="16" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -22254,7 +22246,7 @@
           <t>954</t>
         </is>
       </c>
-      <c r="F125" s="17" t="inlineStr">
+      <c r="F125" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -22319,7 +22311,7 @@
           <t>793</t>
         </is>
       </c>
-      <c r="S125" s="17" t="inlineStr">
+      <c r="S125" s="10" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -22334,7 +22326,7 @@
           <t>633</t>
         </is>
       </c>
-      <c r="V125" s="17" t="inlineStr">
+      <c r="V125" s="11" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -22349,7 +22341,7 @@
           <t>583</t>
         </is>
       </c>
-      <c r="Y125" s="17" t="inlineStr">
+      <c r="Y125" s="12" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -22364,7 +22356,7 @@
           <t>992</t>
         </is>
       </c>
-      <c r="AB125" s="17" t="inlineStr">
+      <c r="AB125" s="13" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -22441,7 +22433,7 @@
           <t>056</t>
         </is>
       </c>
-      <c r="F126" s="17" t="inlineStr">
+      <c r="F126" s="6" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -22461,7 +22453,7 @@
           <t>640</t>
         </is>
       </c>
-      <c r="J126" s="17" t="inlineStr">
+      <c r="J126" s="7" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -22608,7 +22600,7 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B127" s="17" t="inlineStr">
+      <c r="B127" s="5" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -22723,7 +22715,7 @@
           <t>190</t>
         </is>
       </c>
-      <c r="Y127" s="17" t="inlineStr">
+      <c r="Y127" s="12" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -22835,12 +22827,12 @@
           <t>434</t>
         </is>
       </c>
-      <c r="J128" s="17" t="inlineStr">
+      <c r="J128" s="7" t="inlineStr">
         <is>
           <t>782</t>
         </is>
       </c>
-      <c r="K128" s="17" t="inlineStr">
+      <c r="K128" s="8" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -22920,7 +22912,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="AA128" s="17" t="inlineStr">
+      <c r="AA128" s="13" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -22940,7 +22932,7 @@
           <t>353</t>
         </is>
       </c>
-      <c r="AE128" s="17" t="inlineStr">
+      <c r="AE128" s="14" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -22950,7 +22942,7 @@
           <t>861</t>
         </is>
       </c>
-      <c r="AG128" s="17" t="inlineStr">
+      <c r="AG128" s="15" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -23107,7 +23099,7 @@
           <t>393</t>
         </is>
       </c>
-      <c r="AA129" s="17" t="inlineStr">
+      <c r="AA129" s="13" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -23142,7 +23134,7 @@
           <t>085</t>
         </is>
       </c>
-      <c r="AH129" s="17" t="inlineStr">
+      <c r="AH129" s="15" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -23319,7 +23311,7 @@
           <t>536</t>
         </is>
       </c>
-      <c r="AF130" s="17" t="inlineStr">
+      <c r="AF130" s="15" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -23496,7 +23488,7 @@
           <t>943</t>
         </is>
       </c>
-      <c r="AD131" s="17" t="inlineStr">
+      <c r="AD131" s="14" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -23531,7 +23523,7 @@
           <t>203</t>
         </is>
       </c>
-      <c r="AK131" s="17" t="inlineStr">
+      <c r="AK131" s="16" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -23658,7 +23650,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="Y132" s="17" t="inlineStr">
+      <c r="Y132" s="12" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -23957,7 +23949,7 @@
           <t>387</t>
         </is>
       </c>
-      <c r="J134" s="17" t="inlineStr">
+      <c r="J134" s="7" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -24022,7 +24014,7 @@
           <t>337</t>
         </is>
       </c>
-      <c r="W134" s="17" t="inlineStr">
+      <c r="W134" s="12" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -24219,7 +24211,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="Y135" s="17" t="inlineStr">
+      <c r="Y135" s="12" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -24326,7 +24318,7 @@
           <t>471</t>
         </is>
       </c>
-      <c r="I136" s="17" t="inlineStr">
+      <c r="I136" s="7" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -24478,7 +24470,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B137" s="17" t="inlineStr">
+      <c r="B137" s="5" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -24700,7 +24692,7 @@
           <t>689</t>
         </is>
       </c>
-      <c r="I138" s="17" t="inlineStr">
+      <c r="I138" s="7" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -24840,7 +24832,7 @@
           <t>224</t>
         </is>
       </c>
-      <c r="AK138" s="17" t="inlineStr">
+      <c r="AK138" s="16" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -25520,7 +25512,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="F145" s="17" t="inlineStr">
+      <c r="F145" s="6" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -25777,7 +25769,7 @@
           <t>265</t>
         </is>
       </c>
-      <c r="T146" s="17" t="inlineStr">
+      <c r="T146" s="11" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -25807,12 +25799,12 @@
           <t>127</t>
         </is>
       </c>
-      <c r="Z146" s="17" t="inlineStr">
+      <c r="Z146" s="13" t="inlineStr">
         <is>
           <t>481</t>
         </is>
       </c>
-      <c r="AA146" s="17" t="inlineStr">
+      <c r="AA146" s="13" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -25852,7 +25844,7 @@
           <t>623</t>
         </is>
       </c>
-      <c r="AI146" s="17" t="inlineStr">
+      <c r="AI146" s="16" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -25862,7 +25854,7 @@
           <t>158</t>
         </is>
       </c>
-      <c r="AK146" s="17" t="inlineStr">
+      <c r="AK146" s="16" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -25899,7 +25891,7 @@
           <t>038</t>
         </is>
       </c>
-      <c r="G147" s="17" t="inlineStr">
+      <c r="G147" s="6" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -25919,7 +25911,7 @@
           <t>622</t>
         </is>
       </c>
-      <c r="K147" s="17" t="inlineStr">
+      <c r="K147" s="8" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -26009,7 +26001,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="AC147" s="17" t="inlineStr">
+      <c r="AC147" s="14" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -26024,7 +26016,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="AF147" s="17" t="inlineStr">
+      <c r="AF147" s="15" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -26348,7 +26340,7 @@
           <t>500</t>
         </is>
       </c>
-      <c r="V149" s="17" t="inlineStr">
+      <c r="V149" s="11" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -26859,7 +26851,7 @@
           <t>124</t>
         </is>
       </c>
-      <c r="L152" s="17" t="inlineStr">
+      <c r="L152" s="8" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -26894,7 +26886,7 @@
           <t>329</t>
         </is>
       </c>
-      <c r="S152" s="17" t="inlineStr">
+      <c r="S152" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -27116,7 +27108,7 @@
           <t>147</t>
         </is>
       </c>
-      <c r="Z153" s="17" t="inlineStr">
+      <c r="Z153" s="13" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -27131,7 +27123,7 @@
           <t>698</t>
         </is>
       </c>
-      <c r="AC153" s="17" t="inlineStr">
+      <c r="AC153" s="14" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -27223,7 +27215,7 @@
           <t>243</t>
         </is>
       </c>
-      <c r="J154" s="17" t="inlineStr">
+      <c r="J154" s="7" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -27303,7 +27295,7 @@
           <t>338</t>
         </is>
       </c>
-      <c r="Z154" s="17" t="inlineStr">
+      <c r="Z154" s="13" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -27577,7 +27569,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="F156" s="17" t="inlineStr">
+      <c r="F156" s="6" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -27677,7 +27669,7 @@
           <t>477</t>
         </is>
       </c>
-      <c r="Z156" s="17" t="inlineStr">
+      <c r="Z156" s="13" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -27702,7 +27694,7 @@
           <t>409</t>
         </is>
       </c>
-      <c r="AE156" s="17" t="inlineStr">
+      <c r="AE156" s="14" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -27759,7 +27751,7 @@
           <t>496</t>
         </is>
       </c>
-      <c r="E157" s="17" t="inlineStr">
+      <c r="E157" s="6" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -27859,7 +27851,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="Y157" s="17" t="inlineStr">
+      <c r="Y157" s="12" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -27914,7 +27906,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="AJ157" s="17" t="inlineStr">
+      <c r="AJ157" s="16" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -27946,12 +27938,12 @@
           <t>777</t>
         </is>
       </c>
-      <c r="E158" s="17" t="inlineStr">
+      <c r="E158" s="6" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="F158" s="17" t="inlineStr">
+      <c r="F158" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -27976,7 +27968,7 @@
           <t>829</t>
         </is>
       </c>
-      <c r="K158" s="17" t="inlineStr">
+      <c r="K158" s="8" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -28101,7 +28093,7 @@
           <t>208</t>
         </is>
       </c>
-      <c r="AJ158" s="17" t="inlineStr">
+      <c r="AJ158" s="16" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -28173,7 +28165,7 @@
           <t>083</t>
         </is>
       </c>
-      <c r="M159" s="17" t="inlineStr">
+      <c r="M159" s="8" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -28218,7 +28210,7 @@
           <t>699</t>
         </is>
       </c>
-      <c r="V159" s="17" t="inlineStr">
+      <c r="V159" s="11" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -28345,7 +28337,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="J160" s="17" t="inlineStr">
+      <c r="J160" s="7" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -28582,7 +28574,7 @@
           <t>277</t>
         </is>
       </c>
-      <c r="T161" s="17" t="inlineStr">
+      <c r="T161" s="11" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -28592,7 +28584,7 @@
           <t>922</t>
         </is>
       </c>
-      <c r="V161" s="17" t="inlineStr">
+      <c r="V161" s="11" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -28814,7 +28806,7 @@
           <t>474</t>
         </is>
       </c>
-      <c r="AC162" s="17" t="inlineStr">
+      <c r="AC162" s="14" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -28901,7 +28893,7 @@
           <t>249</t>
         </is>
       </c>
-      <c r="I163" s="17" t="inlineStr">
+      <c r="I163" s="7" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -29098,12 +29090,12 @@
           <t>657</t>
         </is>
       </c>
-      <c r="K164" s="17" t="inlineStr">
+      <c r="K164" s="8" t="inlineStr">
         <is>
           <t>087</t>
         </is>
       </c>
-      <c r="L164" s="17" t="inlineStr">
+      <c r="L164" s="8" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -29138,7 +29130,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="S164" s="17" t="inlineStr">
+      <c r="S164" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29198,7 +29190,7 @@
           <t>057</t>
         </is>
       </c>
-      <c r="AE164" s="17" t="inlineStr">
+      <c r="AE164" s="14" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -29228,7 +29220,7 @@
           <t>395</t>
         </is>
       </c>
-      <c r="AK164" s="17" t="inlineStr">
+      <c r="AK164" s="16" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -29360,7 +29352,7 @@
           <t>812</t>
         </is>
       </c>
-      <c r="Z165" s="17" t="inlineStr">
+      <c r="Z165" s="13" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -29602,7 +29594,7 @@
           <t>962</t>
         </is>
       </c>
-      <c r="AK166" s="17" t="inlineStr">
+      <c r="AK166" s="16" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -29664,7 +29656,7 @@
           <t>725</t>
         </is>
       </c>
-      <c r="L167" s="17" t="inlineStr">
+      <c r="L167" s="8" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -29689,12 +29681,12 @@
           <t>169</t>
         </is>
       </c>
-      <c r="Q167" s="17" t="inlineStr">
+      <c r="Q167" s="10" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="R167" s="17" t="inlineStr">
+      <c r="R167" s="10" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -29811,7 +29803,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="D168" s="17" t="inlineStr">
+      <c r="D168" s="5" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -29876,7 +29868,7 @@
           <t>753</t>
         </is>
       </c>
-      <c r="Q168" s="17" t="inlineStr">
+      <c r="Q168" s="10" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -29901,7 +29893,7 @@
           <t>646</t>
         </is>
       </c>
-      <c r="V168" s="17" t="inlineStr">
+      <c r="V168" s="11" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -30023,7 +30015,7 @@
           <t>586</t>
         </is>
       </c>
-      <c r="I169" s="17" t="inlineStr">
+      <c r="I169" s="7" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -30185,7 +30177,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="D170" s="17" t="inlineStr">
+      <c r="D170" s="5" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -30310,7 +30302,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="AC170" s="17" t="inlineStr">
+      <c r="AC170" s="14" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -30320,7 +30312,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="AE170" s="17" t="inlineStr">
+      <c r="AE170" s="14" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -30345,7 +30337,7 @@
           <t>958</t>
         </is>
       </c>
-      <c r="AJ170" s="17" t="inlineStr">
+      <c r="AJ170" s="16" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -30497,7 +30489,7 @@
           <t>276</t>
         </is>
       </c>
-      <c r="AC171" s="17" t="inlineStr">
+      <c r="AC171" s="14" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -30517,7 +30509,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="AG171" s="17" t="inlineStr">
+      <c r="AG171" s="15" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -30549,7 +30541,7 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B172" s="17" t="inlineStr">
+      <c r="B172" s="5" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -30901,7 +30893,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI173" s="17" t="inlineStr">
+      <c r="AI173" s="16" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -31272,7 +31264,7 @@
           <t>469</t>
         </is>
       </c>
-      <c r="Q178" s="17" t="inlineStr">
+      <c r="Q178" s="10" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -31332,7 +31324,7 @@
           <t>174</t>
         </is>
       </c>
-      <c r="AC178" s="17" t="inlineStr">
+      <c r="AC178" s="14" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -31399,7 +31391,7 @@
           <t>804</t>
         </is>
       </c>
-      <c r="E179" s="17" t="inlineStr">
+      <c r="E179" s="6" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -31449,7 +31441,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="O179" s="17" t="inlineStr">
+      <c r="O179" s="9" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -31489,7 +31481,7 @@
           <t>190</t>
         </is>
       </c>
-      <c r="W179" s="17" t="inlineStr">
+      <c r="W179" s="12" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -31616,7 +31608,7 @@
           <t>497</t>
         </is>
       </c>
-      <c r="K180" s="17" t="inlineStr">
+      <c r="K180" s="8" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -31691,7 +31683,7 @@
           <t>297</t>
         </is>
       </c>
-      <c r="Z180" s="17" t="inlineStr">
+      <c r="Z180" s="13" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -31716,7 +31708,7 @@
           <t>237</t>
         </is>
       </c>
-      <c r="AE180" s="17" t="inlineStr">
+      <c r="AE180" s="14" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -31828,7 +31820,7 @@
           <t>545</t>
         </is>
       </c>
-      <c r="P181" s="17" t="inlineStr">
+      <c r="P181" s="9" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -31923,7 +31915,7 @@
           <t>927</t>
         </is>
       </c>
-      <c r="AI181" s="17" t="inlineStr">
+      <c r="AI181" s="16" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -31960,7 +31952,7 @@
           <t>980</t>
         </is>
       </c>
-      <c r="E182" s="17" t="inlineStr">
+      <c r="E182" s="6" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -32010,7 +32002,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="O182" s="17" t="inlineStr">
+      <c r="O182" s="9" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -32192,7 +32184,7 @@
           <t>412</t>
         </is>
       </c>
-      <c r="N183" s="17" t="inlineStr">
+      <c r="N183" s="9" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -32576,7 +32568,7 @@
           <t>734</t>
         </is>
       </c>
-      <c r="P185" s="17" t="inlineStr">
+      <c r="P185" s="9" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -32596,7 +32588,7 @@
           <t>975</t>
         </is>
       </c>
-      <c r="T185" s="17" t="inlineStr">
+      <c r="T185" s="11" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -32641,7 +32633,7 @@
           <t>471</t>
         </is>
       </c>
-      <c r="AC185" s="17" t="inlineStr">
+      <c r="AC185" s="14" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -32868,7 +32860,7 @@
           <t>935</t>
         </is>
       </c>
-      <c r="AK186" s="17" t="inlineStr">
+      <c r="AK186" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -32980,7 +32972,7 @@
           <t>475</t>
         </is>
       </c>
-      <c r="V187" s="17" t="inlineStr">
+      <c r="V187" s="11" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -33419,7 +33411,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="AI189" s="17" t="inlineStr">
+      <c r="AI189" s="16" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -33429,7 +33421,7 @@
           <t>584</t>
         </is>
       </c>
-      <c r="AK189" s="17" t="inlineStr">
+      <c r="AK189" s="16" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -33551,7 +33543,7 @@
           <t>476</t>
         </is>
       </c>
-      <c r="X190" s="17" t="inlineStr">
+      <c r="X190" s="12" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -33653,7 +33645,7 @@
           <t>449</t>
         </is>
       </c>
-      <c r="G191" s="17" t="inlineStr">
+      <c r="G191" s="6" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -33733,7 +33725,7 @@
           <t>650</t>
         </is>
       </c>
-      <c r="W191" s="17" t="inlineStr">
+      <c r="W191" s="12" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -33985,7 +33977,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="AJ192" s="17" t="inlineStr">
+      <c r="AJ192" s="16" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -34037,7 +34029,7 @@
           <t>016</t>
         </is>
       </c>
-      <c r="I193" s="17" t="inlineStr">
+      <c r="I193" s="7" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -34047,7 +34039,7 @@
           <t>960</t>
         </is>
       </c>
-      <c r="K193" s="17" t="inlineStr">
+      <c r="K193" s="8" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -34087,7 +34079,7 @@
           <t>137</t>
         </is>
       </c>
-      <c r="S193" s="17" t="inlineStr">
+      <c r="S193" s="10" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -34401,7 +34393,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="G195" s="17" t="inlineStr">
+      <c r="G195" s="6" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -34536,7 +34528,7 @@
           <t>615</t>
         </is>
       </c>
-      <c r="AH195" s="17" t="inlineStr">
+      <c r="AH195" s="15" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -34546,7 +34538,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="AJ195" s="17" t="inlineStr">
+      <c r="AJ195" s="16" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -34648,7 +34640,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="S196" s="17" t="inlineStr">
+      <c r="S196" s="10" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -34760,7 +34752,7 @@
           <t>237</t>
         </is>
       </c>
-      <c r="D197" s="17" t="inlineStr">
+      <c r="D197" s="5" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -34815,7 +34807,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="O197" s="17" t="inlineStr">
+      <c r="O197" s="9" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -34937,7 +34929,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B198" s="17" t="inlineStr">
+      <c r="B198" s="5" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -35027,7 +35019,7 @@
           <t>990</t>
         </is>
       </c>
-      <c r="T198" s="17" t="inlineStr">
+      <c r="T198" s="11" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -35037,7 +35029,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="V198" s="17" t="inlineStr">
+      <c r="V198" s="11" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -35189,7 +35181,7 @@
           <t>764</t>
         </is>
       </c>
-      <c r="O199" s="17" t="inlineStr">
+      <c r="O199" s="9" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -35209,7 +35201,7 @@
           <t>820</t>
         </is>
       </c>
-      <c r="S199" s="17" t="inlineStr">
+      <c r="S199" s="10" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -35279,7 +35271,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="AG199" s="17" t="inlineStr">
+      <c r="AG199" s="15" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -35299,7 +35291,7 @@
           <t>297</t>
         </is>
       </c>
-      <c r="AK199" s="17" t="inlineStr">
+      <c r="AK199" s="16" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -35391,7 +35383,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="R200" s="17" t="inlineStr">
+      <c r="R200" s="10" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -35421,7 +35413,7 @@
           <t>412</t>
         </is>
       </c>
-      <c r="X200" s="17" t="inlineStr">
+      <c r="X200" s="12" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -35451,7 +35443,7 @@
           <t>141</t>
         </is>
       </c>
-      <c r="AD200" s="17" t="inlineStr">
+      <c r="AD200" s="14" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -35730,7 +35722,7 @@
           <t>430</t>
         </is>
       </c>
-      <c r="K202" s="17" t="inlineStr">
+      <c r="K202" s="8" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -35775,7 +35767,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="T202" s="17" t="inlineStr">
+      <c r="T202" s="11" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -35790,7 +35782,7 @@
           <t>131</t>
         </is>
       </c>
-      <c r="W202" s="17" t="inlineStr">
+      <c r="W202" s="12" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -35932,7 +35924,7 @@
           <t>397</t>
         </is>
       </c>
-      <c r="N203" s="17" t="inlineStr">
+      <c r="N203" s="9" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -36286,7 +36278,7 @@
           <t>920</t>
         </is>
       </c>
-      <c r="J205" s="17" t="inlineStr">
+      <c r="J205" s="7" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -36346,7 +36338,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="V205" s="17" t="inlineStr">
+      <c r="V205" s="11" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -36356,7 +36348,7 @@
           <t>599</t>
         </is>
       </c>
-      <c r="X205" s="17" t="inlineStr">
+      <c r="X205" s="12" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -36381,7 +36373,7 @@
           <t>246</t>
         </is>
       </c>
-      <c r="AC205" s="17" t="inlineStr">
+      <c r="AC205" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -36401,7 +36393,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="AG205" s="17" t="inlineStr">
+      <c r="AG205" s="15" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -36508,7 +36500,7 @@
           <t>499</t>
         </is>
       </c>
-      <c r="Q206" s="17" t="inlineStr">
+      <c r="Q206" s="10" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -36543,7 +36535,7 @@
           <t>108</t>
         </is>
       </c>
-      <c r="X206" s="17" t="inlineStr">
+      <c r="X206" s="12" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -36558,7 +36550,7 @@
           <t>045</t>
         </is>
       </c>
-      <c r="AA206" s="17" t="inlineStr">
+      <c r="AA206" s="13" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -36917,7 +36909,7 @@
           <t>483</t>
         </is>
       </c>
-      <c r="X208" s="17" t="inlineStr">
+      <c r="X208" s="12" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -37348,7 +37340,7 @@
           <t>573</t>
         </is>
       </c>
-      <c r="R213" s="17" t="inlineStr">
+      <c r="R213" s="10" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -37560,7 +37552,7 @@
           <t>849</t>
         </is>
       </c>
-      <c r="W214" s="17" t="inlineStr">
+      <c r="W214" s="12" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -37812,7 +37804,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="AJ215" s="17" t="inlineStr">
+      <c r="AJ215" s="16" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -37934,7 +37926,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="W216" s="17" t="inlineStr">
+      <c r="W216" s="12" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -37969,7 +37961,7 @@
           <t>997</t>
         </is>
       </c>
-      <c r="AD216" s="17" t="inlineStr">
+      <c r="AD216" s="14" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -38021,12 +38013,12 @@
           <t>156</t>
         </is>
       </c>
-      <c r="C217" s="17" t="inlineStr">
+      <c r="C217" s="5" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="D217" s="17" t="inlineStr">
+      <c r="D217" s="5" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -38243,7 +38235,7 @@
           <t>778</t>
         </is>
       </c>
-      <c r="J218" s="17" t="inlineStr">
+      <c r="J218" s="7" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -38343,7 +38335,7 @@
           <t>805</t>
         </is>
       </c>
-      <c r="AD218" s="17" t="inlineStr">
+      <c r="AD218" s="14" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -38597,7 +38589,7 @@
           <t>680</t>
         </is>
       </c>
-      <c r="F220" s="17" t="inlineStr">
+      <c r="F220" s="6" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -38677,7 +38669,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="V220" s="17" t="inlineStr">
+      <c r="V220" s="11" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -38692,7 +38684,7 @@
           <t>965</t>
         </is>
       </c>
-      <c r="Y220" s="17" t="inlineStr">
+      <c r="Y220" s="12" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -38747,7 +38739,7 @@
           <t>634</t>
         </is>
       </c>
-      <c r="AJ220" s="17" t="inlineStr">
+      <c r="AJ220" s="16" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -38869,7 +38861,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="W221" s="17" t="inlineStr">
+      <c r="W221" s="12" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -38899,12 +38891,12 @@
           <t>438</t>
         </is>
       </c>
-      <c r="AC221" s="17" t="inlineStr">
+      <c r="AC221" s="14" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AD221" s="17" t="inlineStr">
+      <c r="AD221" s="14" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -38966,7 +38958,7 @@
           <t>499</t>
         </is>
       </c>
-      <c r="E222" s="17" t="inlineStr">
+      <c r="E222" s="6" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -39006,7 +38998,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="M222" s="17" t="inlineStr">
+      <c r="M222" s="8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -39091,7 +39083,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="AD222" s="17" t="inlineStr">
+      <c r="AD222" s="14" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -39106,7 +39098,7 @@
           <t>388</t>
         </is>
       </c>
-      <c r="AG222" s="17" t="inlineStr">
+      <c r="AG222" s="15" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -39138,7 +39130,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B223" s="17" t="inlineStr">
+      <c r="B223" s="5" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -39168,7 +39160,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="H223" s="17" t="inlineStr">
+      <c r="H223" s="7" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39218,7 +39210,7 @@
           <t>881</t>
         </is>
       </c>
-      <c r="R223" s="17" t="inlineStr">
+      <c r="R223" s="10" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -39490,7 +39482,7 @@
           <t>681</t>
         </is>
       </c>
-      <c r="AI224" s="17" t="inlineStr">
+      <c r="AI224" s="16" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -39582,7 +39574,7 @@
           <t>667</t>
         </is>
       </c>
-      <c r="P225" s="17" t="inlineStr">
+      <c r="P225" s="9" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -39632,7 +39624,7 @@
           <t>437</t>
         </is>
       </c>
-      <c r="Z225" s="17" t="inlineStr">
+      <c r="Z225" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -39662,7 +39654,7 @@
           <t>653</t>
         </is>
       </c>
-      <c r="AF225" s="17" t="inlineStr">
+      <c r="AF225" s="15" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -39769,7 +39761,7 @@
           <t>486</t>
         </is>
       </c>
-      <c r="P226" s="17" t="inlineStr">
+      <c r="P226" s="9" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -39799,7 +39791,7 @@
           <t>705</t>
         </is>
       </c>
-      <c r="V226" s="17" t="inlineStr">
+      <c r="V226" s="11" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -40098,7 +40090,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="G228" s="17" t="inlineStr">
+      <c r="G228" s="6" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -40148,12 +40140,12 @@
           <t>111</t>
         </is>
       </c>
-      <c r="Q228" s="17" t="inlineStr">
+      <c r="Q228" s="10" t="inlineStr">
         <is>
           <t>841</t>
         </is>
       </c>
-      <c r="R228" s="17" t="inlineStr">
+      <c r="R228" s="10" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -40275,7 +40267,7 @@
           <t>663</t>
         </is>
       </c>
-      <c r="E229" s="17" t="inlineStr">
+      <c r="E229" s="6" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -40380,7 +40372,7 @@
           <t>074</t>
         </is>
       </c>
-      <c r="Z229" s="17" t="inlineStr">
+      <c r="Z229" s="13" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -40405,7 +40397,7 @@
           <t>154</t>
         </is>
       </c>
-      <c r="AE229" s="17" t="inlineStr">
+      <c r="AE229" s="14" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -40542,7 +40534,7 @@
           <t>171</t>
         </is>
       </c>
-      <c r="U230" s="17" t="inlineStr">
+      <c r="U230" s="11" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -40612,7 +40604,7 @@
           <t>328</t>
         </is>
       </c>
-      <c r="AI230" s="17" t="inlineStr">
+      <c r="AI230" s="16" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -40739,7 +40731,7 @@
           <t>687</t>
         </is>
       </c>
-      <c r="W231" s="17" t="inlineStr">
+      <c r="W231" s="12" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -40826,7 +40818,7 @@
           <t>349</t>
         </is>
       </c>
-      <c r="C232" s="17" t="inlineStr">
+      <c r="C232" s="5" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -40886,7 +40878,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="O232" s="17" t="inlineStr">
+      <c r="O232" s="9" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -40901,7 +40893,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="R232" s="17" t="inlineStr">
+      <c r="R232" s="10" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -40946,7 +40938,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="AA232" s="17" t="inlineStr">
+      <c r="AA232" s="13" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -41008,7 +41000,7 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B233" s="17" t="inlineStr">
+      <c r="B233" s="5" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -41068,7 +41060,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="N233" s="17" t="inlineStr">
+      <c r="N233" s="9" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -41173,7 +41165,7 @@
           <t>680</t>
         </is>
       </c>
-      <c r="AI233" s="17" t="inlineStr">
+      <c r="AI233" s="16" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -41245,7 +41237,7 @@
           <t>927</t>
         </is>
       </c>
-      <c r="L234" s="17" t="inlineStr">
+      <c r="L234" s="8" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -41472,7 +41464,7 @@
           <t>400</t>
         </is>
       </c>
-      <c r="T235" s="17" t="inlineStr">
+      <c r="T235" s="11" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -41522,7 +41514,7 @@
           <t>722</t>
         </is>
       </c>
-      <c r="AD235" s="17" t="inlineStr">
+      <c r="AD235" s="14" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -41659,7 +41651,7 @@
           <t>867</t>
         </is>
       </c>
-      <c r="T236" s="17" t="inlineStr">
+      <c r="T236" s="11" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -41689,7 +41681,7 @@
           <t>069</t>
         </is>
       </c>
-      <c r="Z236" s="17" t="inlineStr">
+      <c r="Z236" s="13" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -41776,7 +41768,7 @@
           <t>434</t>
         </is>
       </c>
-      <c r="F237" s="17" t="inlineStr">
+      <c r="F237" s="6" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -41841,7 +41833,7 @@
           <t>082</t>
         </is>
       </c>
-      <c r="S237" s="17" t="inlineStr">
+      <c r="S237" s="10" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -41998,7 +41990,7 @@
           <t>989</t>
         </is>
       </c>
-      <c r="M238" s="17" t="inlineStr">
+      <c r="M238" s="8" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -42018,7 +42010,7 @@
           <t>256</t>
         </is>
       </c>
-      <c r="Q238" s="17" t="inlineStr">
+      <c r="Q238" s="10" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -42195,7 +42187,7 @@
           <t>799</t>
         </is>
       </c>
-      <c r="O239" s="17" t="inlineStr">
+      <c r="O239" s="9" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -42235,7 +42227,7 @@
           <t>234</t>
         </is>
       </c>
-      <c r="W239" s="17" t="inlineStr">
+      <c r="W239" s="12" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -42265,7 +42257,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="AC239" s="17" t="inlineStr">
+      <c r="AC239" s="14" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -42322,7 +42314,7 @@
           <t>630</t>
         </is>
       </c>
-      <c r="C240" s="17" t="inlineStr">
+      <c r="C240" s="5" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -42332,7 +42324,7 @@
           <t>247</t>
         </is>
       </c>
-      <c r="E240" s="17" t="inlineStr">
+      <c r="E240" s="6" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -42457,7 +42449,7 @@
           <t>229</t>
         </is>
       </c>
-      <c r="AD240" s="17" t="inlineStr">
+      <c r="AD240" s="14" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -42509,7 +42501,7 @@
           <t>023</t>
         </is>
       </c>
-      <c r="C241" s="17" t="inlineStr">
+      <c r="C241" s="5" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -42736,7 +42728,7 @@
           <t>504</t>
         </is>
       </c>
-      <c r="K242" s="17" t="inlineStr">
+      <c r="K242" s="8" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -42751,7 +42743,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="N242" s="17" t="inlineStr">
+      <c r="N242" s="9" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -42861,7 +42853,7 @@
           <t>096</t>
         </is>
       </c>
-      <c r="AJ242" s="17" t="inlineStr">
+      <c r="AJ242" s="16" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -42888,7 +42880,7 @@
           <t>986</t>
         </is>
       </c>
-      <c r="D243" s="17" t="inlineStr">
+      <c r="D243" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -43504,7 +43496,7 @@
           <t>268</t>
         </is>
       </c>
-      <c r="AI248" s="17" t="inlineStr">
+      <c r="AI248" s="16" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -43596,7 +43588,7 @@
           <t>542</t>
         </is>
       </c>
-      <c r="P249" s="17" t="inlineStr">
+      <c r="P249" s="9" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -43713,7 +43705,7 @@
           <t>03</t>
         </is>
       </c>
-      <c r="B250" s="17" t="inlineStr">
+      <c r="B250" s="5" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -43888,7 +43880,7 @@
           <t>798</t>
         </is>
       </c>
-      <c r="AK250" s="17" t="inlineStr">
+      <c r="AK250" s="16" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -43960,7 +43952,7 @@
           <t>970</t>
         </is>
       </c>
-      <c r="N251" s="17" t="inlineStr">
+      <c r="N251" s="9" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -44132,7 +44124,7 @@
           <t>317</t>
         </is>
       </c>
-      <c r="K252" s="17" t="inlineStr">
+      <c r="K252" s="8" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -44167,7 +44159,7 @@
           <t>591</t>
         </is>
       </c>
-      <c r="R252" s="17" t="inlineStr">
+      <c r="R252" s="10" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -44247,7 +44239,7 @@
           <t>606</t>
         </is>
       </c>
-      <c r="AH252" s="17" t="inlineStr">
+      <c r="AH252" s="15" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -44284,7 +44276,7 @@
           <t>737</t>
         </is>
       </c>
-      <c r="D253" s="17" t="inlineStr">
+      <c r="D253" s="5" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -44304,7 +44296,7 @@
           <t>363</t>
         </is>
       </c>
-      <c r="H253" s="17" t="inlineStr">
+      <c r="H253" s="7" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -44314,7 +44306,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="J253" s="17" t="inlineStr">
+      <c r="J253" s="7" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -44601,7 +44593,7 @@
           <t>963</t>
         </is>
       </c>
-      <c r="AD254" s="17" t="inlineStr">
+      <c r="AD254" s="14" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -44621,7 +44613,7 @@
           <t>449</t>
         </is>
       </c>
-      <c r="AH254" s="17" t="inlineStr">
+      <c r="AH254" s="15" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -44648,7 +44640,7 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B255" s="17" t="inlineStr">
+      <c r="B255" s="5" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -44890,7 +44882,7 @@
           <t>536</t>
         </is>
       </c>
-      <c r="M256" s="17" t="inlineStr">
+      <c r="M256" s="8" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -44900,7 +44892,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="O256" s="17" t="inlineStr">
+      <c r="O256" s="9" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -45102,7 +45094,7 @@
           <t>771</t>
         </is>
       </c>
-      <c r="R257" s="17" t="inlineStr">
+      <c r="R257" s="10" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -45122,12 +45114,12 @@
           <t>777</t>
         </is>
       </c>
-      <c r="V257" s="17" t="inlineStr">
+      <c r="V257" s="11" t="inlineStr">
         <is>
           <t>287</t>
         </is>
       </c>
-      <c r="W257" s="17" t="inlineStr">
+      <c r="W257" s="12" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -45496,7 +45488,7 @@
           <t>058</t>
         </is>
       </c>
-      <c r="V259" s="17" t="inlineStr">
+      <c r="V259" s="11" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -45628,7 +45620,7 @@
           <t>169</t>
         </is>
       </c>
-      <c r="K260" s="17" t="inlineStr">
+      <c r="K260" s="8" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -45653,7 +45645,7 @@
           <t>601</t>
         </is>
       </c>
-      <c r="P260" s="17" t="inlineStr">
+      <c r="P260" s="9" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -45693,7 +45685,7 @@
           <t>628</t>
         </is>
       </c>
-      <c r="X260" s="17" t="inlineStr">
+      <c r="X260" s="12" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -45718,7 +45710,7 @@
           <t>358</t>
         </is>
       </c>
-      <c r="AC260" s="17" t="inlineStr">
+      <c r="AC260" s="14" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -45805,7 +45797,7 @@
           <t>666</t>
         </is>
       </c>
-      <c r="I261" s="17" t="inlineStr">
+      <c r="I261" s="7" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -45835,7 +45827,7 @@
           <t>997</t>
         </is>
       </c>
-      <c r="O261" s="17" t="inlineStr">
+      <c r="O261" s="9" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -46047,7 +46039,7 @@
           <t>985</t>
         </is>
       </c>
-      <c r="T262" s="17" t="inlineStr">
+      <c r="T262" s="11" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -46229,7 +46221,7 @@
           <t>948</t>
         </is>
       </c>
-      <c r="S263" s="17" t="inlineStr">
+      <c r="S263" s="10" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -46289,7 +46281,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="AE263" s="17" t="inlineStr">
+      <c r="AE263" s="14" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -46623,7 +46615,7 @@
           <t>332</t>
         </is>
       </c>
-      <c r="W265" s="17" t="inlineStr">
+      <c r="W265" s="12" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -46715,7 +46707,7 @@
           <t>387</t>
         </is>
       </c>
-      <c r="D266" s="17" t="inlineStr">
+      <c r="D266" s="5" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -46725,7 +46717,7 @@
           <t>254</t>
         </is>
       </c>
-      <c r="F266" s="17" t="inlineStr">
+      <c r="F266" s="6" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -46775,7 +46767,7 @@
           <t>268</t>
         </is>
       </c>
-      <c r="P266" s="17" t="inlineStr">
+      <c r="P266" s="9" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -46937,7 +46929,7 @@
           <t>616</t>
         </is>
       </c>
-      <c r="K267" s="17" t="inlineStr">
+      <c r="K267" s="8" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -46952,7 +46944,7 @@
           <t>895</t>
         </is>
       </c>
-      <c r="N267" s="17" t="inlineStr">
+      <c r="N267" s="9" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -47134,7 +47126,7 @@
           <t>022</t>
         </is>
       </c>
-      <c r="M268" s="17" t="inlineStr">
+      <c r="M268" s="8" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -47204,7 +47196,7 @@
           <t>044</t>
         </is>
       </c>
-      <c r="AA268" s="17" t="inlineStr">
+      <c r="AA268" s="13" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -47508,7 +47500,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="M270" s="17" t="inlineStr">
+      <c r="M270" s="8" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -47543,7 +47535,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="T270" s="17" t="inlineStr">
+      <c r="T270" s="11" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -47650,7 +47642,7 @@
           <t>413</t>
         </is>
       </c>
-      <c r="D271" s="17" t="inlineStr">
+      <c r="D271" s="5" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -47740,7 +47732,7 @@
           <t>838</t>
         </is>
       </c>
-      <c r="V271" s="17" t="inlineStr">
+      <c r="V271" s="11" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -47755,7 +47747,7 @@
           <t>689</t>
         </is>
       </c>
-      <c r="Y271" s="17" t="inlineStr">
+      <c r="Y271" s="12" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -47827,7 +47819,7 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B272" s="17" t="inlineStr">
+      <c r="B272" s="5" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -47942,7 +47934,7 @@
           <t>310</t>
         </is>
       </c>
-      <c r="Y272" s="17" t="inlineStr">
+      <c r="Y272" s="12" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -48064,7 +48056,7 @@
           <t>124</t>
         </is>
       </c>
-      <c r="L273" s="17" t="inlineStr">
+      <c r="L273" s="8" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -48216,7 +48208,7 @@
           <t>871</t>
         </is>
       </c>
-      <c r="E274" s="17" t="inlineStr">
+      <c r="E274" s="6" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48291,7 +48283,7 @@
           <t>036</t>
         </is>
       </c>
-      <c r="T274" s="17" t="inlineStr">
+      <c r="T274" s="11" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -48398,7 +48390,7 @@
           <t>506</t>
         </is>
       </c>
-      <c r="D275" s="17" t="inlineStr">
+      <c r="D275" s="5" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -48453,7 +48445,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="O275" s="17" t="inlineStr">
+      <c r="O275" s="9" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -48695,7 +48687,7 @@
           <t>941</t>
         </is>
       </c>
-      <c r="Z276" s="17" t="inlineStr">
+      <c r="Z276" s="13" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -48745,7 +48737,7 @@
           <t>734</t>
         </is>
       </c>
-      <c r="AJ276" s="17" t="inlineStr">
+      <c r="AJ276" s="16" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -48822,7 +48814,7 @@
           <t>749</t>
         </is>
       </c>
-      <c r="N277" s="17" t="inlineStr">
+      <c r="N277" s="9" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -48892,7 +48884,7 @@
           <t>608</t>
         </is>
       </c>
-      <c r="AB277" s="17" t="inlineStr">
+      <c r="AB277" s="13" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -49450,7 +49442,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="J283" s="17" t="inlineStr">
+      <c r="J283" s="7" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -49545,7 +49537,7 @@
           <t>881</t>
         </is>
       </c>
-      <c r="AC283" s="17" t="inlineStr">
+      <c r="AC283" s="14" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -49560,7 +49552,7 @@
           <t>271</t>
         </is>
       </c>
-      <c r="AF283" s="17" t="inlineStr">
+      <c r="AF283" s="15" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -49612,7 +49604,7 @@
           <t>986</t>
         </is>
       </c>
-      <c r="E284" s="17" t="inlineStr">
+      <c r="E284" s="6" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -49742,7 +49734,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AE284" s="17" t="inlineStr">
+      <c r="AE284" s="14" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -49894,7 +49886,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="X285" s="17" t="inlineStr">
+      <c r="X285" s="12" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -49944,7 +49936,7 @@
           <t>324</t>
         </is>
       </c>
-      <c r="AH285" s="17" t="inlineStr">
+      <c r="AH285" s="15" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -50011,7 +50003,7 @@
           <t>672</t>
         </is>
       </c>
-      <c r="J286" s="17" t="inlineStr">
+      <c r="J286" s="7" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -50086,7 +50078,7 @@
           <t>496</t>
         </is>
       </c>
-      <c r="Y286" s="17" t="inlineStr">
+      <c r="Y286" s="12" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -50283,7 +50275,7 @@
           <t>790</t>
         </is>
       </c>
-      <c r="AA287" s="17" t="inlineStr">
+      <c r="AA287" s="13" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -50435,7 +50427,7 @@
           <t>624</t>
         </is>
       </c>
-      <c r="T288" s="17" t="inlineStr">
+      <c r="T288" s="11" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -50520,7 +50512,7 @@
           <t>606</t>
         </is>
       </c>
-      <c r="AK288" s="17" t="inlineStr">
+      <c r="AK288" s="16" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -50582,7 +50574,7 @@
           <t>443</t>
         </is>
       </c>
-      <c r="L289" s="17" t="inlineStr">
+      <c r="L289" s="8" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -50592,7 +50584,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="N289" s="17" t="inlineStr">
+      <c r="N289" s="9" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -50602,7 +50594,7 @@
           <t>420</t>
         </is>
       </c>
-      <c r="P289" s="17" t="inlineStr">
+      <c r="P289" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -50734,7 +50726,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="E290" s="17" t="inlineStr">
+      <c r="E290" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -50749,7 +50741,7 @@
           <t>366</t>
         </is>
       </c>
-      <c r="H290" s="17" t="inlineStr">
+      <c r="H290" s="7" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -50774,7 +50766,7 @@
           <t>650</t>
         </is>
       </c>
-      <c r="M290" s="17" t="inlineStr">
+      <c r="M290" s="8" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -50799,7 +50791,7 @@
           <t>330</t>
         </is>
       </c>
-      <c r="R290" s="17" t="inlineStr">
+      <c r="R290" s="10" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -50809,7 +50801,7 @@
           <t>380</t>
         </is>
       </c>
-      <c r="T290" s="17" t="inlineStr">
+      <c r="T290" s="11" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -50906,7 +50898,7 @@
           <t>09</t>
         </is>
       </c>
-      <c r="B291" s="17" t="inlineStr">
+      <c r="B291" s="5" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -50931,7 +50923,7 @@
           <t>407</t>
         </is>
       </c>
-      <c r="G291" s="17" t="inlineStr">
+      <c r="G291" s="6" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -50941,7 +50933,7 @@
           <t>968</t>
         </is>
       </c>
-      <c r="I291" s="17" t="inlineStr">
+      <c r="I291" s="7" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -51061,7 +51053,7 @@
           <t>212</t>
         </is>
       </c>
-      <c r="AG291" s="17" t="inlineStr">
+      <c r="AG291" s="15" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -51213,7 +51205,7 @@
           <t>480</t>
         </is>
       </c>
-      <c r="Z292" s="17" t="inlineStr">
+      <c r="Z292" s="13" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -51320,7 +51312,7 @@
           <t>245</t>
         </is>
       </c>
-      <c r="J293" s="17" t="inlineStr">
+      <c r="J293" s="7" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -51360,7 +51352,7 @@
           <t>261</t>
         </is>
       </c>
-      <c r="R293" s="17" t="inlineStr">
+      <c r="R293" s="10" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -51400,7 +51392,7 @@
           <t>364</t>
         </is>
       </c>
-      <c r="Z293" s="17" t="inlineStr">
+      <c r="Z293" s="13" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -51440,7 +51432,7 @@
           <t>941</t>
         </is>
       </c>
-      <c r="AH293" s="17" t="inlineStr">
+      <c r="AH293" s="15" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -51497,7 +51489,7 @@
           <t>697</t>
         </is>
       </c>
-      <c r="H294" s="17" t="inlineStr">
+      <c r="H294" s="7" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -51522,7 +51514,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="M294" s="17" t="inlineStr">
+      <c r="M294" s="8" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -51567,7 +51559,7 @@
           <t>369</t>
         </is>
       </c>
-      <c r="V294" s="17" t="inlineStr">
+      <c r="V294" s="11" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -51602,7 +51594,7 @@
           <t>999</t>
         </is>
       </c>
-      <c r="AC294" s="17" t="inlineStr">
+      <c r="AC294" s="14" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -51724,7 +51716,7 @@
           <t>464</t>
         </is>
       </c>
-      <c r="P295" s="17" t="inlineStr">
+      <c r="P295" s="9" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -51891,12 +51883,12 @@
           <t>147</t>
         </is>
       </c>
-      <c r="L296" s="17" t="inlineStr">
+      <c r="L296" s="8" t="inlineStr">
         <is>
           <t>039</t>
         </is>
       </c>
-      <c r="M296" s="17" t="inlineStr">
+      <c r="M296" s="8" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -51911,7 +51903,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="P296" s="17" t="inlineStr">
+      <c r="P296" s="9" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -51991,7 +51983,7 @@
           <t>914</t>
         </is>
       </c>
-      <c r="AF296" s="17" t="inlineStr">
+      <c r="AF296" s="15" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -52011,7 +52003,7 @@
           <t>426</t>
         </is>
       </c>
-      <c r="AJ296" s="17" t="inlineStr">
+      <c r="AJ296" s="16" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -52240,7 +52232,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="G298" s="17" t="inlineStr">
+      <c r="G298" s="6" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -52694,7 +52686,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="W300" s="17" t="inlineStr">
+      <c r="W300" s="12" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -52734,7 +52726,7 @@
           <t>445</t>
         </is>
       </c>
-      <c r="AE300" s="17" t="inlineStr">
+      <c r="AE300" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -52816,7 +52808,7 @@
           <t>097</t>
         </is>
       </c>
-      <c r="J301" s="17" t="inlineStr">
+      <c r="J301" s="7" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -52988,7 +52980,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="G302" s="17" t="inlineStr">
+      <c r="G302" s="6" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -52998,7 +52990,7 @@
           <t>447</t>
         </is>
       </c>
-      <c r="I302" s="17" t="inlineStr">
+      <c r="I302" s="7" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -53108,12 +53100,12 @@
           <t>629</t>
         </is>
       </c>
-      <c r="AE302" s="17" t="inlineStr">
+      <c r="AE302" s="14" t="inlineStr">
         <is>
           <t>529</t>
         </is>
       </c>
-      <c r="AF302" s="17" t="inlineStr">
+      <c r="AF302" s="15" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -53185,7 +53177,7 @@
           <t>325</t>
         </is>
       </c>
-      <c r="I303" s="17" t="inlineStr">
+      <c r="I303" s="7" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -53220,7 +53212,7 @@
           <t>603</t>
         </is>
       </c>
-      <c r="P303" s="17" t="inlineStr">
+      <c r="P303" s="9" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -53422,7 +53414,7 @@
           <t>924</t>
         </is>
       </c>
-      <c r="S304" s="17" t="inlineStr">
+      <c r="S304" s="10" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -53594,7 +53586,7 @@
           <t>157</t>
         </is>
       </c>
-      <c r="P305" s="17" t="inlineStr">
+      <c r="P305" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -53918,7 +53910,7 @@
           <t>969</t>
         </is>
       </c>
-      <c r="F307" s="17" t="inlineStr">
+      <c r="F307" s="6" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -54018,7 +54010,7 @@
           <t>693</t>
         </is>
       </c>
-      <c r="Z307" s="17" t="inlineStr">
+      <c r="Z307" s="13" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -54048,7 +54040,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="AF307" s="17" t="inlineStr">
+      <c r="AF307" s="15" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -54095,7 +54087,7 @@
           <t>582</t>
         </is>
       </c>
-      <c r="D308" s="17" t="inlineStr">
+      <c r="D308" s="5" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -54332,7 +54324,7 @@
           <t>192</t>
         </is>
       </c>
-      <c r="N309" s="17" t="inlineStr">
+      <c r="N309" s="9" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -54367,7 +54359,7 @@
           <t>343</t>
         </is>
       </c>
-      <c r="U309" s="17" t="inlineStr">
+      <c r="U309" s="11" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -54529,7 +54521,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="P310" s="17" t="inlineStr">
+      <c r="P310" s="9" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -54544,7 +54536,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="S310" s="17" t="inlineStr">
+      <c r="S310" s="10" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -54629,12 +54621,12 @@
           <t>957</t>
         </is>
       </c>
-      <c r="AJ310" s="17" t="inlineStr">
+      <c r="AJ310" s="16" t="inlineStr">
         <is>
           <t>903</t>
         </is>
       </c>
-      <c r="AK310" s="17" t="inlineStr">
+      <c r="AK310" s="16" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -54656,7 +54648,7 @@
           <t>845</t>
         </is>
       </c>
-      <c r="D311" s="17" t="inlineStr">
+      <c r="D311" s="5" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -54806,7 +54798,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="AH311" s="17" t="inlineStr">
+      <c r="AH311" s="15" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -54998,7 +54990,7 @@
           <t>761</t>
         </is>
       </c>
-      <c r="AI312" s="17" t="inlineStr">
+      <c r="AI312" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -55536,7 +55528,7 @@
           <t>869</t>
         </is>
       </c>
-      <c r="M318" s="17" t="inlineStr">
+      <c r="M318" s="8" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -55546,7 +55538,7 @@
           <t>291</t>
         </is>
       </c>
-      <c r="O318" s="17" t="inlineStr">
+      <c r="O318" s="9" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -55576,7 +55568,7 @@
           <t>063</t>
         </is>
       </c>
-      <c r="U318" s="17" t="inlineStr">
+      <c r="U318" s="11" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -55798,7 +55790,7 @@
           <t>775</t>
         </is>
       </c>
-      <c r="AB319" s="17" t="inlineStr">
+      <c r="AB319" s="13" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -55950,7 +55942,7 @@
           <t>677</t>
         </is>
       </c>
-      <c r="U320" s="17" t="inlineStr">
+      <c r="U320" s="11" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -55995,7 +55987,7 @@
           <t>323</t>
         </is>
       </c>
-      <c r="AD320" s="17" t="inlineStr">
+      <c r="AD320" s="14" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -56072,7 +56064,7 @@
           <t>510</t>
         </is>
       </c>
-      <c r="H321" s="17" t="inlineStr">
+      <c r="H321" s="7" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -56177,7 +56169,7 @@
           <t>813</t>
         </is>
       </c>
-      <c r="AC321" s="17" t="inlineStr">
+      <c r="AC321" s="14" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -56192,12 +56184,12 @@
           <t>254</t>
         </is>
       </c>
-      <c r="AF321" s="17" t="inlineStr">
+      <c r="AF321" s="15" t="inlineStr">
         <is>
           <t>807</t>
         </is>
       </c>
-      <c r="AG321" s="17" t="inlineStr">
+      <c r="AG321" s="15" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -56319,7 +56311,7 @@
           <t>581</t>
         </is>
       </c>
-      <c r="T322" s="17" t="inlineStr">
+      <c r="T322" s="11" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -56603,7 +56595,7 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B324" s="17" t="inlineStr">
+      <c r="B324" s="5" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -56840,7 +56832,7 @@
           <t>476</t>
         </is>
       </c>
-      <c r="L325" s="17" t="inlineStr">
+      <c r="L325" s="8" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -56855,7 +56847,7 @@
           <t>048</t>
         </is>
       </c>
-      <c r="O325" s="17" t="inlineStr">
+      <c r="O325" s="9" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -56890,7 +56882,7 @@
           <t>459</t>
         </is>
       </c>
-      <c r="V325" s="17" t="inlineStr">
+      <c r="V325" s="11" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -56950,7 +56942,7 @@
           <t>204</t>
         </is>
       </c>
-      <c r="AH325" s="17" t="inlineStr">
+      <c r="AH325" s="15" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -57638,7 +57630,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="V329" s="17" t="inlineStr">
+      <c r="V329" s="11" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -57653,7 +57645,7 @@
           <t>651</t>
         </is>
       </c>
-      <c r="Y329" s="17" t="inlineStr">
+      <c r="Y329" s="12" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -57678,7 +57670,7 @@
           <t>747</t>
         </is>
       </c>
-      <c r="AD329" s="17" t="inlineStr">
+      <c r="AD329" s="14" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -57730,7 +57722,7 @@
           <t>408</t>
         </is>
       </c>
-      <c r="C330" s="17" t="inlineStr">
+      <c r="C330" s="5" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -57840,7 +57832,7 @@
           <t>886</t>
         </is>
       </c>
-      <c r="Y330" s="17" t="inlineStr">
+      <c r="Y330" s="12" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -57855,7 +57847,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="AB330" s="17" t="inlineStr">
+      <c r="AB330" s="13" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -58002,7 +57994,7 @@
           <t>249</t>
         </is>
       </c>
-      <c r="T331" s="17" t="inlineStr">
+      <c r="T331" s="11" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -58119,7 +58111,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="F332" s="17" t="inlineStr">
+      <c r="F332" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -58331,7 +58323,7 @@
           <t>894</t>
         </is>
       </c>
-      <c r="K333" s="17" t="inlineStr">
+      <c r="K333" s="8" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -58371,7 +58363,7 @@
           <t>401</t>
         </is>
       </c>
-      <c r="S333" s="17" t="inlineStr">
+      <c r="S333" s="10" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -58406,7 +58398,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="Z333" s="17" t="inlineStr">
+      <c r="Z333" s="13" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -58461,7 +58453,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="AK333" s="17" t="inlineStr">
+      <c r="AK333" s="16" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -58548,7 +58540,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="Q334" s="17" t="inlineStr">
+      <c r="Q334" s="10" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -58608,7 +58600,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="AC334" s="17" t="inlineStr">
+      <c r="AC334" s="14" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -58790,7 +58782,7 @@
           <t>577</t>
         </is>
       </c>
-      <c r="AB335" s="17" t="inlineStr">
+      <c r="AB335" s="13" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -58862,7 +58854,7 @@
           <t>014</t>
         </is>
       </c>
-      <c r="E336" s="17" t="inlineStr">
+      <c r="E336" s="6" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -58932,7 +58924,7 @@
           <t>221</t>
         </is>
       </c>
-      <c r="S336" s="17" t="inlineStr">
+      <c r="S336" s="10" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -58947,7 +58939,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="V336" s="17" t="inlineStr">
+      <c r="V336" s="11" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -59044,7 +59036,7 @@
           <t>193</t>
         </is>
       </c>
-      <c r="D337" s="17" t="inlineStr">
+      <c r="D337" s="5" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -59169,7 +59161,7 @@
           <t>156</t>
         </is>
       </c>
-      <c r="AC337" s="17" t="inlineStr">
+      <c r="AC337" s="14" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -59204,7 +59196,7 @@
           <t>081</t>
         </is>
       </c>
-      <c r="AJ337" s="17" t="inlineStr">
+      <c r="AJ337" s="16" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -59231,7 +59223,7 @@
           <t>065</t>
         </is>
       </c>
-      <c r="D338" s="17" t="inlineStr">
+      <c r="D338" s="5" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -59321,7 +59313,7 @@
           <t>678</t>
         </is>
       </c>
-      <c r="V338" s="17" t="inlineStr">
+      <c r="V338" s="11" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -59351,7 +59343,7 @@
           <t>225</t>
         </is>
       </c>
-      <c r="AB338" s="17" t="inlineStr">
+      <c r="AB338" s="13" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -59508,7 +59500,7 @@
           <t>802</t>
         </is>
       </c>
-      <c r="V339" s="17" t="inlineStr">
+      <c r="V339" s="11" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -59548,7 +59540,7 @@
           <t>532</t>
         </is>
       </c>
-      <c r="AD339" s="17" t="inlineStr">
+      <c r="AD339" s="14" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -59695,7 +59687,7 @@
           <t>350</t>
         </is>
       </c>
-      <c r="V340" s="17" t="inlineStr">
+      <c r="V340" s="11" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -59725,7 +59717,7 @@
           <t>440</t>
         </is>
       </c>
-      <c r="AB340" s="17" t="inlineStr">
+      <c r="AB340" s="13" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -59745,7 +59737,7 @@
           <t>210</t>
         </is>
       </c>
-      <c r="AF340" s="17" t="inlineStr">
+      <c r="AF340" s="15" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -59827,12 +59819,12 @@
           <t>458</t>
         </is>
       </c>
-      <c r="K341" s="17" t="inlineStr">
+      <c r="K341" s="8" t="inlineStr">
         <is>
           <t>039</t>
         </is>
       </c>
-      <c r="L341" s="17" t="inlineStr">
+      <c r="L341" s="8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -59912,7 +59904,7 @@
           <t>762</t>
         </is>
       </c>
-      <c r="AB341" s="17" t="inlineStr">
+      <c r="AB341" s="13" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -59922,12 +59914,12 @@
           <t>561</t>
         </is>
       </c>
-      <c r="AD341" s="17" t="inlineStr">
+      <c r="AD341" s="14" t="inlineStr">
         <is>
           <t>390</t>
         </is>
       </c>
-      <c r="AE341" s="17" t="inlineStr">
+      <c r="AE341" s="14" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -59989,7 +59981,7 @@
           <t>185</t>
         </is>
       </c>
-      <c r="F342" s="17" t="inlineStr">
+      <c r="F342" s="6" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -59999,7 +59991,7 @@
           <t>229</t>
         </is>
       </c>
-      <c r="H342" s="17" t="inlineStr">
+      <c r="H342" s="7" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -60089,7 +60081,7 @@
           <t>250</t>
         </is>
       </c>
-      <c r="Z342" s="17" t="inlineStr">
+      <c r="Z342" s="13" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -60166,7 +60158,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="D343" s="17" t="inlineStr">
+      <c r="D343" s="5" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -60191,7 +60183,7 @@
           <t>292</t>
         </is>
       </c>
-      <c r="I343" s="17" t="inlineStr">
+      <c r="I343" s="7" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -60201,7 +60193,7 @@
           <t>610</t>
         </is>
       </c>
-      <c r="K343" s="17" t="inlineStr">
+      <c r="K343" s="8" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -60251,7 +60243,7 @@
           <t>890</t>
         </is>
       </c>
-      <c r="U343" s="17" t="inlineStr">
+      <c r="U343" s="11" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -60348,7 +60340,7 @@
           <t>106</t>
         </is>
       </c>
-      <c r="C344" s="17" t="inlineStr">
+      <c r="C344" s="5" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -60383,12 +60375,12 @@
           <t>880</t>
         </is>
       </c>
-      <c r="J344" s="17" t="inlineStr">
+      <c r="J344" s="7" t="inlineStr">
         <is>
           <t>529</t>
         </is>
       </c>
-      <c r="K344" s="17" t="inlineStr">
+      <c r="K344" s="8" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -60418,7 +60410,7 @@
           <t>997</t>
         </is>
       </c>
-      <c r="Q344" s="17" t="inlineStr">
+      <c r="Q344" s="10" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -60453,7 +60445,7 @@
           <t>162</t>
         </is>
       </c>
-      <c r="X344" s="17" t="inlineStr">
+      <c r="X344" s="12" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -60463,7 +60455,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="Z344" s="17" t="inlineStr">
+      <c r="Z344" s="13" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -60580,7 +60572,7 @@
           <t>869</t>
         </is>
       </c>
-      <c r="L345" s="17" t="inlineStr">
+      <c r="L345" s="8" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -60640,7 +60632,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="X345" s="17" t="inlineStr">
+      <c r="X345" s="12" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -60680,7 +60672,7 @@
           <t>569</t>
         </is>
       </c>
-      <c r="AF345" s="17" t="inlineStr">
+      <c r="AF345" s="15" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -60882,7 +60874,7 @@
           <t>830</t>
         </is>
       </c>
-      <c r="AI346" s="17" t="inlineStr">
+      <c r="AI346" s="16" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -60959,7 +60951,7 @@
           <t>860</t>
         </is>
       </c>
-      <c r="M347" s="17" t="inlineStr">
+      <c r="M347" s="8" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -61069,7 +61061,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="AI347" s="17" t="inlineStr">
+      <c r="AI347" s="16" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -61191,7 +61183,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="V348" s="17" t="inlineStr">
+      <c r="V348" s="11" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -61677,7 +61669,7 @@
           <t>977</t>
         </is>
       </c>
-      <c r="AA353" s="17" t="inlineStr">
+      <c r="AA353" s="13" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -61687,7 +61679,7 @@
           <t>046</t>
         </is>
       </c>
-      <c r="AC353" s="17" t="inlineStr">
+      <c r="AC353" s="14" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -61759,7 +61751,7 @@
           <t>944</t>
         </is>
       </c>
-      <c r="F354" s="17" t="inlineStr">
+      <c r="F354" s="6" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -61829,7 +61821,7 @@
           <t>996</t>
         </is>
       </c>
-      <c r="T354" s="17" t="inlineStr">
+      <c r="T354" s="11" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -61926,7 +61918,7 @@
           <t>03</t>
         </is>
       </c>
-      <c r="B355" s="17" t="inlineStr">
+      <c r="B355" s="5" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -62046,7 +62038,7 @@
           <t>166</t>
         </is>
       </c>
-      <c r="Z355" s="17" t="inlineStr">
+      <c r="Z355" s="13" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -62096,12 +62088,12 @@
           <t>746</t>
         </is>
       </c>
-      <c r="AJ355" s="17" t="inlineStr">
+      <c r="AJ355" s="16" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AK355" s="17" t="inlineStr">
+      <c r="AK355" s="16" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -62183,7 +62175,7 @@
           <t>407</t>
         </is>
       </c>
-      <c r="P356" s="17" t="inlineStr">
+      <c r="P356" s="9" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -62228,7 +62220,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="Y356" s="17" t="inlineStr">
+      <c r="Y356" s="12" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -62425,7 +62417,7 @@
           <t>693</t>
         </is>
       </c>
-      <c r="AA357" s="17" t="inlineStr">
+      <c r="AA357" s="13" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -62445,7 +62437,7 @@
           <t>503</t>
         </is>
       </c>
-      <c r="AE357" s="17" t="inlineStr">
+      <c r="AE357" s="14" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -62507,7 +62499,7 @@
           <t>376</t>
         </is>
       </c>
-      <c r="F358" s="17" t="inlineStr">
+      <c r="F358" s="6" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -62632,7 +62624,7 @@
           <t>370</t>
         </is>
       </c>
-      <c r="AE358" s="17" t="inlineStr">
+      <c r="AE358" s="14" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -62684,7 +62676,7 @@
           <t>341</t>
         </is>
       </c>
-      <c r="D359" s="17" t="inlineStr">
+      <c r="D359" s="5" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -62744,7 +62736,7 @@
           <t>188</t>
         </is>
       </c>
-      <c r="P359" s="17" t="inlineStr">
+      <c r="P359" s="9" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -62799,7 +62791,7 @@
           <t>768</t>
         </is>
       </c>
-      <c r="AA359" s="17" t="inlineStr">
+      <c r="AA359" s="13" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -62809,7 +62801,7 @@
           <t>657</t>
         </is>
       </c>
-      <c r="AC359" s="17" t="inlineStr">
+      <c r="AC359" s="14" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -63118,7 +63110,7 @@
           <t>725</t>
         </is>
       </c>
-      <c r="P361" s="17" t="inlineStr">
+      <c r="P361" s="9" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -63163,12 +63155,12 @@
           <t>789</t>
         </is>
       </c>
-      <c r="Y361" s="17" t="inlineStr">
+      <c r="Y361" s="12" t="inlineStr">
         <is>
           <t>708</t>
         </is>
       </c>
-      <c r="Z361" s="17" t="inlineStr">
+      <c r="Z361" s="13" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -63260,7 +63252,7 @@
           <t>449</t>
         </is>
       </c>
-      <c r="G362" s="17" t="inlineStr">
+      <c r="G362" s="6" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -63275,7 +63267,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="J362" s="17" t="inlineStr">
+      <c r="J362" s="7" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -63320,7 +63312,7 @@
           <t>832</t>
         </is>
       </c>
-      <c r="S362" s="17" t="inlineStr">
+      <c r="S362" s="10" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -63355,7 +63347,7 @@
           <t>222</t>
         </is>
       </c>
-      <c r="Z362" s="17" t="inlineStr">
+      <c r="Z362" s="13" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -63390,7 +63382,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="AG362" s="17" t="inlineStr">
+      <c r="AG362" s="15" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -63487,7 +63479,7 @@
           <t>361</t>
         </is>
       </c>
-      <c r="O363" s="17" t="inlineStr">
+      <c r="O363" s="9" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -63507,7 +63499,7 @@
           <t>846</t>
         </is>
       </c>
-      <c r="S363" s="17" t="inlineStr">
+      <c r="S363" s="10" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -63517,7 +63509,7 @@
           <t>454</t>
         </is>
       </c>
-      <c r="U363" s="17" t="inlineStr">
+      <c r="U363" s="11" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -63597,7 +63589,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="AK363" s="17" t="inlineStr">
+      <c r="AK363" s="16" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -63826,7 +63818,7 @@
           <t>059</t>
         </is>
       </c>
-      <c r="H365" s="17" t="inlineStr">
+      <c r="H365" s="7" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -63836,7 +63828,7 @@
           <t>409</t>
         </is>
       </c>
-      <c r="J365" s="17" t="inlineStr">
+      <c r="J365" s="7" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -63931,7 +63923,7 @@
           <t>729</t>
         </is>
       </c>
-      <c r="AC365" s="17" t="inlineStr">
+      <c r="AC365" s="14" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -64275,7 +64267,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="W367" s="17" t="inlineStr">
+      <c r="W367" s="12" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -64442,7 +64434,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="S368" s="17" t="inlineStr">
+      <c r="S368" s="10" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -64472,7 +64464,7 @@
           <t>784</t>
         </is>
       </c>
-      <c r="Y368" s="17" t="inlineStr">
+      <c r="Y368" s="12" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -64532,7 +64524,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="AK368" s="17" t="inlineStr">
+      <c r="AK368" s="16" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -64579,12 +64571,12 @@
           <t>613</t>
         </is>
       </c>
-      <c r="I369" s="17" t="inlineStr">
+      <c r="I369" s="7" t="inlineStr">
         <is>
           <t>009</t>
         </is>
       </c>
-      <c r="J369" s="17" t="inlineStr">
+      <c r="J369" s="7" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -64694,7 +64686,7 @@
           <t>658</t>
         </is>
       </c>
-      <c r="AF369" s="17" t="inlineStr">
+      <c r="AF369" s="15" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -64714,7 +64706,7 @@
           <t>314</t>
         </is>
       </c>
-      <c r="AJ369" s="17" t="inlineStr">
+      <c r="AJ369" s="16" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -64886,7 +64878,7 @@
           <t>077</t>
         </is>
       </c>
-      <c r="AG370" s="17" t="inlineStr">
+      <c r="AG370" s="15" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -64918,7 +64910,7 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B371" s="17" t="inlineStr">
+      <c r="B371" s="5" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -64998,7 +64990,7 @@
           <t>422</t>
         </is>
       </c>
-      <c r="R371" s="17" t="inlineStr">
+      <c r="R371" s="10" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -65255,7 +65247,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="AF372" s="17" t="inlineStr">
+      <c r="AF372" s="15" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -65322,7 +65314,7 @@
           <t>723</t>
         </is>
       </c>
-      <c r="H373" s="17" t="inlineStr">
+      <c r="H373" s="7" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -65467,7 +65459,7 @@
           <t>791</t>
         </is>
       </c>
-      <c r="AK373" s="17" t="inlineStr">
+      <c r="AK373" s="16" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -65706,7 +65698,7 @@
           <t>539</t>
         </is>
       </c>
-      <c r="J375" s="17" t="inlineStr">
+      <c r="J375" s="7" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -65716,7 +65708,7 @@
           <t>995</t>
         </is>
       </c>
-      <c r="L375" s="17" t="inlineStr">
+      <c r="L375" s="8" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -65731,7 +65723,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="O375" s="17" t="inlineStr">
+      <c r="O375" s="9" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -65796,7 +65788,7 @@
           <t>926</t>
         </is>
       </c>
-      <c r="AB375" s="17" t="inlineStr">
+      <c r="AB375" s="13" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -65841,7 +65833,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="AK375" s="17" t="inlineStr">
+      <c r="AK375" s="16" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -66130,7 +66122,7 @@
           <t>167</t>
         </is>
       </c>
-      <c r="T377" s="17" t="inlineStr">
+      <c r="T377" s="11" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -66155,7 +66147,7 @@
           <t>556</t>
         </is>
       </c>
-      <c r="Y377" s="17" t="inlineStr">
+      <c r="Y377" s="12" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -66175,7 +66167,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="AC377" s="17" t="inlineStr">
+      <c r="AC377" s="14" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -66185,7 +66177,7 @@
           <t>534</t>
         </is>
       </c>
-      <c r="AE377" s="17" t="inlineStr">
+      <c r="AE377" s="14" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -66377,7 +66369,7 @@
           <t>837</t>
         </is>
       </c>
-      <c r="AF378" s="17" t="inlineStr">
+      <c r="AF378" s="15" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -66636,7 +66628,7 @@
           <t>195</t>
         </is>
       </c>
-      <c r="I380" s="17" t="inlineStr">
+      <c r="I380" s="7" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -66701,7 +66693,7 @@
           <t>533</t>
         </is>
       </c>
-      <c r="V380" s="17" t="inlineStr">
+      <c r="V380" s="11" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -66813,7 +66805,7 @@
           <t>918</t>
         </is>
       </c>
-      <c r="G381" s="17" t="inlineStr">
+      <c r="G381" s="6" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -66873,7 +66865,7 @@
           <t>733</t>
         </is>
       </c>
-      <c r="S381" s="17" t="inlineStr">
+      <c r="S381" s="10" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -66948,7 +66940,7 @@
           <t>786</t>
         </is>
       </c>
-      <c r="AH381" s="17" t="inlineStr">
+      <c r="AH381" s="15" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -67005,7 +66997,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H382" s="17" t="inlineStr">
+      <c r="H382" s="7" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -67055,7 +67047,7 @@
           <t>416</t>
         </is>
       </c>
-      <c r="R382" s="17" t="inlineStr">
+      <c r="R382" s="10" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -67070,7 +67062,7 @@
           <t>015</t>
         </is>
       </c>
-      <c r="U382" s="17" t="inlineStr">
+      <c r="U382" s="11" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -67115,7 +67107,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="AD382" s="17" t="inlineStr">
+      <c r="AD382" s="14" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -67643,12 +67635,12 @@
           <t>251</t>
         </is>
       </c>
-      <c r="F388" s="17" t="inlineStr">
+      <c r="F388" s="6" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="G388" s="17" t="inlineStr">
+      <c r="G388" s="6" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -67663,7 +67655,7 @@
           <t>837</t>
         </is>
       </c>
-      <c r="J388" s="17" t="inlineStr">
+      <c r="J388" s="7" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -67673,7 +67665,7 @@
           <t>358</t>
         </is>
       </c>
-      <c r="L388" s="17" t="inlineStr">
+      <c r="L388" s="8" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -67688,7 +67680,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="O388" s="17" t="inlineStr">
+      <c r="O388" s="9" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -67698,7 +67690,7 @@
           <t>488</t>
         </is>
       </c>
-      <c r="Q388" s="17" t="inlineStr">
+      <c r="Q388" s="10" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -67850,7 +67842,7 @@
           <t>452</t>
         </is>
       </c>
-      <c r="J389" s="17" t="inlineStr">
+      <c r="J389" s="7" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -67925,7 +67917,7 @@
           <t>187</t>
         </is>
       </c>
-      <c r="Y389" s="17" t="inlineStr">
+      <c r="Y389" s="12" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -67955,7 +67947,7 @@
           <t>731</t>
         </is>
       </c>
-      <c r="AE389" s="17" t="inlineStr">
+      <c r="AE389" s="14" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -68012,7 +68004,7 @@
           <t>971</t>
         </is>
       </c>
-      <c r="E390" s="17" t="inlineStr">
+      <c r="E390" s="6" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -68072,7 +68064,7 @@
           <t>037</t>
         </is>
       </c>
-      <c r="Q390" s="17" t="inlineStr">
+      <c r="Q390" s="10" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -68102,7 +68094,7 @@
           <t>644</t>
         </is>
       </c>
-      <c r="W390" s="17" t="inlineStr">
+      <c r="W390" s="12" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -68117,7 +68109,7 @@
           <t>117</t>
         </is>
       </c>
-      <c r="Z390" s="17" t="inlineStr">
+      <c r="Z390" s="13" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -68244,7 +68236,7 @@
           <t>479</t>
         </is>
       </c>
-      <c r="N391" s="17" t="inlineStr">
+      <c r="N391" s="9" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -68309,7 +68301,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AA391" s="17" t="inlineStr">
+      <c r="AA391" s="13" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -68376,7 +68368,7 @@
           <t>203</t>
         </is>
       </c>
-      <c r="C392" s="17" t="inlineStr">
+      <c r="C392" s="5" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -68623,7 +68615,7 @@
           <t>121</t>
         </is>
       </c>
-      <c r="O393" s="17" t="inlineStr">
+      <c r="O393" s="9" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -68765,7 +68757,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="F394" s="17" t="inlineStr">
+      <c r="F394" s="6" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -68805,7 +68797,7 @@
           <t>150</t>
         </is>
       </c>
-      <c r="N394" s="17" t="inlineStr">
+      <c r="N394" s="9" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -68920,7 +68912,7 @@
           <t>544</t>
         </is>
       </c>
-      <c r="AK394" s="17" t="inlineStr">
+      <c r="AK394" s="16" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -69164,7 +69156,7 @@
           <t>052</t>
         </is>
       </c>
-      <c r="K396" s="17" t="inlineStr">
+      <c r="K396" s="8" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -69426,7 +69418,7 @@
           <t>933</t>
         </is>
       </c>
-      <c r="Z397" s="17" t="inlineStr">
+      <c r="Z397" s="13" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -69446,7 +69438,7 @@
           <t>427</t>
         </is>
       </c>
-      <c r="AD397" s="17" t="inlineStr">
+      <c r="AD397" s="14" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -69471,7 +69463,7 @@
           <t>722</t>
         </is>
       </c>
-      <c r="AI397" s="17" t="inlineStr">
+      <c r="AI397" s="16" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -69710,7 +69702,7 @@
           <t>023</t>
         </is>
       </c>
-      <c r="H399" s="17" t="inlineStr">
+      <c r="H399" s="7" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -69805,7 +69797,7 @@
           <t>465</t>
         </is>
       </c>
-      <c r="AA399" s="17" t="inlineStr">
+      <c r="AA399" s="13" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -69845,7 +69837,7 @@
           <t>636</t>
         </is>
       </c>
-      <c r="AI399" s="17" t="inlineStr">
+      <c r="AI399" s="16" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -70042,7 +70034,7 @@
           <t>201</t>
         </is>
       </c>
-      <c r="AK400" s="17" t="inlineStr">
+      <c r="AK400" s="16" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -70184,7 +70176,7 @@
           <t>968</t>
         </is>
       </c>
-      <c r="AB401" s="17" t="inlineStr">
+      <c r="AB401" s="13" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -70194,7 +70186,7 @@
           <t>368</t>
         </is>
       </c>
-      <c r="AD401" s="17" t="inlineStr">
+      <c r="AD401" s="14" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -70366,7 +70358,7 @@
           <t>417</t>
         </is>
       </c>
-      <c r="AA402" s="17" t="inlineStr">
+      <c r="AA402" s="13" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -70401,7 +70393,7 @@
           <t>343</t>
         </is>
       </c>
-      <c r="AH402" s="17" t="inlineStr">
+      <c r="AH402" s="15" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -70433,7 +70425,7 @@
           <t>946</t>
         </is>
       </c>
-      <c r="C403" s="17" t="inlineStr">
+      <c r="C403" s="5" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -70458,7 +70450,7 @@
           <t>567</t>
         </is>
       </c>
-      <c r="H403" s="17" t="inlineStr">
+      <c r="H403" s="7" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -70615,7 +70607,7 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B404" s="17" t="inlineStr">
+      <c r="B404" s="5" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -70680,7 +70672,7 @@
           <t>889</t>
         </is>
       </c>
-      <c r="O404" s="17" t="inlineStr">
+      <c r="O404" s="9" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -70750,7 +70742,7 @@
           <t>245</t>
         </is>
       </c>
-      <c r="AC404" s="17" t="inlineStr">
+      <c r="AC404" s="14" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -70802,7 +70794,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B405" s="17" t="inlineStr">
+      <c r="B405" s="5" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -70827,7 +70819,7 @@
           <t>765</t>
         </is>
       </c>
-      <c r="G405" s="17" t="inlineStr">
+      <c r="G405" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -70887,7 +70879,7 @@
           <t>779</t>
         </is>
       </c>
-      <c r="S405" s="17" t="inlineStr">
+      <c r="S405" s="10" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -71104,7 +71096,7 @@
           <t>198</t>
         </is>
       </c>
-      <c r="Y406" s="17" t="inlineStr">
+      <c r="Y406" s="12" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -71206,7 +71198,7 @@
           <t>029</t>
         </is>
       </c>
-      <c r="H407" s="17" t="inlineStr">
+      <c r="H407" s="7" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -71316,7 +71308,7 @@
           <t>787</t>
         </is>
       </c>
-      <c r="AD407" s="17" t="inlineStr">
+      <c r="AD407" s="14" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -71413,12 +71405,12 @@
           <t>043</t>
         </is>
       </c>
-      <c r="L408" s="17" t="inlineStr">
+      <c r="L408" s="8" t="inlineStr">
         <is>
           <t>076</t>
         </is>
       </c>
-      <c r="M408" s="17" t="inlineStr">
+      <c r="M408" s="8" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -71463,7 +71455,7 @@
           <t>525</t>
         </is>
       </c>
-      <c r="V408" s="17" t="inlineStr">
+      <c r="V408" s="11" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -71528,7 +71520,7 @@
           <t>618</t>
         </is>
       </c>
-      <c r="AI408" s="17" t="inlineStr">
+      <c r="AI408" s="16" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -71580,7 +71572,7 @@
           <t>757</t>
         </is>
       </c>
-      <c r="H409" s="17" t="inlineStr">
+      <c r="H409" s="7" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -71742,7 +71734,7 @@
           <t>675</t>
         </is>
       </c>
-      <c r="C410" s="17" t="inlineStr">
+      <c r="C410" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -72044,7 +72036,7 @@
           <t>999</t>
         </is>
       </c>
-      <c r="Z411" s="17" t="inlineStr">
+      <c r="Z411" s="13" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -72181,7 +72173,7 @@
           <t>356</t>
         </is>
       </c>
-      <c r="P412" s="17" t="inlineStr">
+      <c r="P412" s="9" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -72221,7 +72213,7 @@
           <t>243</t>
         </is>
       </c>
-      <c r="X412" s="17" t="inlineStr">
+      <c r="X412" s="12" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -72236,7 +72228,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="AA412" s="17" t="inlineStr">
+      <c r="AA412" s="13" t="inlineStr">
         <is>
           <t>822</t>
         </is>
@@ -72303,12 +72295,12 @@
           <t>207</t>
         </is>
       </c>
-      <c r="C413" s="17" t="inlineStr">
+      <c r="C413" s="5" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="D413" s="17" t="inlineStr">
+      <c r="D413" s="5" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -72428,7 +72420,7 @@
           <t>949</t>
         </is>
       </c>
-      <c r="AB413" s="17" t="inlineStr">
+      <c r="AB413" s="13" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -72468,7 +72460,7 @@
           <t>753</t>
         </is>
       </c>
-      <c r="AJ413" s="17" t="inlineStr">
+      <c r="AJ413" s="16" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -72712,7 +72704,7 @@
           <t>861</t>
         </is>
       </c>
-      <c r="J415" s="17" t="inlineStr">
+      <c r="J415" s="7" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -72787,7 +72779,7 @@
           <t>392</t>
         </is>
       </c>
-      <c r="Y415" s="17" t="inlineStr">
+      <c r="Y415" s="12" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -72807,7 +72799,7 @@
           <t>831</t>
         </is>
       </c>
-      <c r="AC415" s="17" t="inlineStr">
+      <c r="AC415" s="14" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -72974,7 +72966,7 @@
           <t>134</t>
         </is>
       </c>
-      <c r="Y416" s="17" t="inlineStr">
+      <c r="Y416" s="12" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -73323,7 +73315,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T418" s="17" t="inlineStr">
+      <c r="T418" s="11" t="inlineStr">
         <is>
           <t>728</t>
         </is>
@@ -73966,7 +73958,7 @@
           <t>343</t>
         </is>
       </c>
-      <c r="S424" s="17" t="inlineStr">
+      <c r="S424" s="10" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -74026,7 +74018,7 @@
           <t>858</t>
         </is>
       </c>
-      <c r="AE424" s="17" t="inlineStr">
+      <c r="AE424" s="14" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -74088,7 +74080,7 @@
           <t>469</t>
         </is>
       </c>
-      <c r="F425" s="17" t="inlineStr">
+      <c r="F425" s="6" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -74153,7 +74145,7 @@
           <t>723</t>
         </is>
       </c>
-      <c r="S425" s="17" t="inlineStr">
+      <c r="S425" s="10" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -74208,7 +74200,7 @@
           <t>302</t>
         </is>
       </c>
-      <c r="AD425" s="17" t="inlineStr">
+      <c r="AD425" s="14" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -74420,12 +74412,12 @@
           <t>613</t>
         </is>
       </c>
-      <c r="AI426" s="17" t="inlineStr">
+      <c r="AI426" s="16" t="inlineStr">
         <is>
           <t>039</t>
         </is>
       </c>
-      <c r="AJ426" s="17" t="inlineStr">
+      <c r="AJ426" s="16" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -74452,7 +74444,7 @@
           <t>932</t>
         </is>
       </c>
-      <c r="D427" s="17" t="inlineStr">
+      <c r="D427" s="5" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -74462,7 +74454,7 @@
           <t>890</t>
         </is>
       </c>
-      <c r="F427" s="17" t="inlineStr">
+      <c r="F427" s="6" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -74522,7 +74514,7 @@
           <t>803</t>
         </is>
       </c>
-      <c r="R427" s="17" t="inlineStr">
+      <c r="R427" s="10" t="inlineStr">
         <is>
           <t>872</t>
         </is>
@@ -74537,7 +74529,7 @@
           <t>275</t>
         </is>
       </c>
-      <c r="U427" s="17" t="inlineStr">
+      <c r="U427" s="11" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -74567,7 +74559,7 @@
           <t>360</t>
         </is>
       </c>
-      <c r="AA427" s="17" t="inlineStr">
+      <c r="AA427" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -74629,7 +74621,7 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B428" s="17" t="inlineStr">
+      <c r="B428" s="5" t="inlineStr">
         <is>
           <t>213</t>
         </is>
@@ -74719,7 +74711,7 @@
           <t>130</t>
         </is>
       </c>
-      <c r="T428" s="17" t="inlineStr">
+      <c r="T428" s="11" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -74729,7 +74721,7 @@
           <t>444</t>
         </is>
       </c>
-      <c r="V428" s="17" t="inlineStr">
+      <c r="V428" s="11" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -74749,7 +74741,7 @@
           <t>395</t>
         </is>
       </c>
-      <c r="Z428" s="17" t="inlineStr">
+      <c r="Z428" s="13" t="inlineStr">
         <is>
           <t>090</t>
         </is>
@@ -74891,7 +74883,7 @@
           <t>133</t>
         </is>
       </c>
-      <c r="Q429" s="17" t="inlineStr">
+      <c r="Q429" s="10" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -74916,7 +74908,7 @@
           <t>936</t>
         </is>
       </c>
-      <c r="V429" s="17" t="inlineStr">
+      <c r="V429" s="11" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -74981,7 +74973,7 @@
           <t>423</t>
         </is>
       </c>
-      <c r="AI429" s="17" t="inlineStr">
+      <c r="AI429" s="16" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -75098,7 +75090,7 @@
           <t>442</t>
         </is>
       </c>
-      <c r="U430" s="17" t="inlineStr">
+      <c r="U430" s="11" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -75123,7 +75115,7 @@
           <t>639</t>
         </is>
       </c>
-      <c r="Z430" s="17" t="inlineStr">
+      <c r="Z430" s="13" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -75305,7 +75297,7 @@
           <t>882</t>
         </is>
       </c>
-      <c r="Y431" s="17" t="inlineStr">
+      <c r="Y431" s="12" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -75442,7 +75434,7 @@
           <t>588</t>
         </is>
       </c>
-      <c r="O432" s="17" t="inlineStr">
+      <c r="O432" s="9" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -75579,7 +75571,7 @@
           <t>783</t>
         </is>
       </c>
-      <c r="E433" s="17" t="inlineStr">
+      <c r="E433" s="6" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -75714,7 +75706,7 @@
           <t>979</t>
         </is>
       </c>
-      <c r="AF433" s="17" t="inlineStr">
+      <c r="AF433" s="15" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -75801,7 +75793,7 @@
           <t>299</t>
         </is>
       </c>
-      <c r="L434" s="17" t="inlineStr">
+      <c r="L434" s="8" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -75826,7 +75818,7 @@
           <t>197</t>
         </is>
       </c>
-      <c r="Q434" s="17" t="inlineStr">
+      <c r="Q434" s="10" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -75861,7 +75853,7 @@
           <t>701</t>
         </is>
       </c>
-      <c r="X434" s="17" t="inlineStr">
+      <c r="X434" s="12" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -75911,12 +75903,12 @@
           <t>049</t>
         </is>
       </c>
-      <c r="AH434" s="17" t="inlineStr">
+      <c r="AH434" s="15" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="AI434" s="17" t="inlineStr">
+      <c r="AI434" s="16" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -76063,7 +76055,7 @@
           <t>994</t>
         </is>
       </c>
-      <c r="AA435" s="17" t="inlineStr">
+      <c r="AA435" s="13" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -76145,7 +76137,7 @@
           <t>615</t>
         </is>
       </c>
-      <c r="F436" s="17" t="inlineStr">
+      <c r="F436" s="6" t="inlineStr">
         <is>
           <t>231</t>
         </is>
@@ -76260,7 +76252,7 @@
           <t>801</t>
         </is>
       </c>
-      <c r="AC436" s="17" t="inlineStr">
+      <c r="AC436" s="14" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -76447,7 +76439,7 @@
           <t>273</t>
         </is>
       </c>
-      <c r="AC437" s="17" t="inlineStr">
+      <c r="AC437" s="14" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -76472,7 +76464,7 @@
           <t>493</t>
         </is>
       </c>
-      <c r="AH437" s="17" t="inlineStr">
+      <c r="AH437" s="15" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -76534,7 +76526,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="I438" s="17" t="inlineStr">
+      <c r="I438" s="7" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -76841,7 +76833,7 @@
           <t>965</t>
         </is>
       </c>
-      <c r="AG439" s="17" t="inlineStr">
+      <c r="AG439" s="15" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -76873,7 +76865,7 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B440" s="17" t="inlineStr">
+      <c r="B440" s="5" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -76938,7 +76930,7 @@
           <t>585</t>
         </is>
       </c>
-      <c r="O440" s="17" t="inlineStr">
+      <c r="O440" s="9" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -77003,7 +76995,7 @@
           <t>395</t>
         </is>
       </c>
-      <c r="AB440" s="17" t="inlineStr">
+      <c r="AB440" s="13" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -77048,7 +77040,7 @@
           <t>304</t>
         </is>
       </c>
-      <c r="AK440" s="17" t="inlineStr">
+      <c r="AK440" s="16" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -77065,7 +77057,7 @@
           <t>531</t>
         </is>
       </c>
-      <c r="C441" s="17" t="inlineStr">
+      <c r="C441" s="5" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -77150,7 +77142,7 @@
           <t>075</t>
         </is>
       </c>
-      <c r="T441" s="17" t="inlineStr">
+      <c r="T441" s="11" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -77200,7 +77192,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="AD441" s="17" t="inlineStr">
+      <c r="AD441" s="14" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -77317,7 +77309,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="P442" s="17" t="inlineStr">
+      <c r="P442" s="9" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -77377,7 +77369,7 @@
           <t>502</t>
         </is>
       </c>
-      <c r="AB442" s="17" t="inlineStr">
+      <c r="AB442" s="13" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -77449,7 +77441,7 @@
           <t>288</t>
         </is>
       </c>
-      <c r="E443" s="17" t="inlineStr">
+      <c r="E443" s="6" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -77489,7 +77481,7 @@
           <t>469</t>
         </is>
       </c>
-      <c r="M443" s="17" t="inlineStr">
+      <c r="M443" s="8" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -77499,7 +77491,7 @@
           <t>426</t>
         </is>
       </c>
-      <c r="O443" s="17" t="inlineStr">
+      <c r="O443" s="9" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -77751,7 +77743,7 @@
           <t>667</t>
         </is>
       </c>
-      <c r="AB444" s="17" t="inlineStr">
+      <c r="AB444" s="13" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -77761,7 +77753,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AD444" s="17" t="inlineStr">
+      <c r="AD444" s="14" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -78105,7 +78097,7 @@
           <t>459</t>
         </is>
       </c>
-      <c r="X446" s="17" t="inlineStr">
+      <c r="X446" s="12" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -78227,7 +78219,7 @@
           <t>946</t>
         </is>
       </c>
-      <c r="K447" s="17" t="inlineStr">
+      <c r="K447" s="8" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -78322,7 +78314,7 @@
           <t>528</t>
         </is>
       </c>
-      <c r="AD447" s="17" t="inlineStr">
+      <c r="AD447" s="14" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -78369,7 +78361,7 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B448" s="17" t="inlineStr">
+      <c r="B448" s="5" t="inlineStr">
         <is>
           <t>078</t>
         </is>
@@ -78469,7 +78461,7 @@
           <t>769</t>
         </is>
       </c>
-      <c r="V448" s="17" t="inlineStr">
+      <c r="V448" s="11" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -78504,7 +78496,7 @@
           <t>463</t>
         </is>
       </c>
-      <c r="AC448" s="17" t="inlineStr">
+      <c r="AC448" s="14" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -78641,7 +78633,7 @@
           <t>682</t>
         </is>
       </c>
-      <c r="S449" s="17" t="inlineStr">
+      <c r="S449" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -78778,7 +78770,7 @@
           <t>339</t>
         </is>
       </c>
-      <c r="I450" s="17" t="inlineStr">
+      <c r="I450" s="7" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -78843,7 +78835,7 @@
           <t>609</t>
         </is>
       </c>
-      <c r="V450" s="17" t="inlineStr">
+      <c r="V450" s="11" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -78940,7 +78932,7 @@
           <t>806</t>
         </is>
       </c>
-      <c r="D451" s="17" t="inlineStr">
+      <c r="D451" s="5" t="inlineStr">
         <is>
           <t>312</t>
         </is>
@@ -79055,7 +79047,7 @@
           <t>553</t>
         </is>
       </c>
-      <c r="AA451" s="17" t="inlineStr">
+      <c r="AA451" s="13" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -79237,7 +79229,7 @@
           <t>913</t>
         </is>
       </c>
-      <c r="Z452" s="17" t="inlineStr">
+      <c r="Z452" s="13" t="inlineStr">
         <is>
           <t>900</t>
         </is>
@@ -79267,7 +79259,7 @@
           <t>127</t>
         </is>
       </c>
-      <c r="AF452" s="17" t="inlineStr">
+      <c r="AF452" s="15" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -79419,7 +79411,7 @@
           <t>382</t>
         </is>
       </c>
-      <c r="Y453" s="17" t="inlineStr">
+      <c r="Y453" s="12" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -79449,7 +79441,7 @@
           <t>547</t>
         </is>
       </c>
-      <c r="AE453" s="17" t="inlineStr">
+      <c r="AE453" s="14" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -79805,7 +79797,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="J458" s="17" t="inlineStr">
+      <c r="J458" s="7" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -80057,7 +80049,7 @@
           <t>563</t>
         </is>
       </c>
-      <c r="W459" s="17" t="inlineStr">
+      <c r="W459" s="12" t="inlineStr">
         <is>
           <t>841</t>
         </is>
@@ -80159,7 +80151,7 @@
           <t>079</t>
         </is>
       </c>
-      <c r="F460" s="17" t="inlineStr">
+      <c r="F460" s="6" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -80214,7 +80206,7 @@
           <t>214</t>
         </is>
       </c>
-      <c r="Q460" s="17" t="inlineStr">
+      <c r="Q460" s="10" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -80279,7 +80271,7 @@
           <t>548</t>
         </is>
       </c>
-      <c r="AD460" s="17" t="inlineStr">
+      <c r="AD460" s="14" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -80326,7 +80318,7 @@
           <t>04</t>
         </is>
       </c>
-      <c r="B461" s="17" t="inlineStr">
+      <c r="B461" s="5" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -80366,7 +80358,7 @@
           <t>546</t>
         </is>
       </c>
-      <c r="J461" s="17" t="inlineStr">
+      <c r="J461" s="7" t="inlineStr">
         <is>
           <t>529</t>
         </is>
@@ -80431,7 +80423,7 @@
           <t>931</t>
         </is>
       </c>
-      <c r="W461" s="17" t="inlineStr">
+      <c r="W461" s="12" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -80471,7 +80463,7 @@
           <t>642</t>
         </is>
       </c>
-      <c r="AE461" s="17" t="inlineStr">
+      <c r="AE461" s="14" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -80583,7 +80575,7 @@
           <t>190</t>
         </is>
       </c>
-      <c r="P462" s="17" t="inlineStr">
+      <c r="P462" s="9" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -80700,12 +80692,12 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B463" s="17" t="inlineStr">
+      <c r="B463" s="5" t="inlineStr">
         <is>
           <t>952</t>
         </is>
       </c>
-      <c r="C463" s="17" t="inlineStr">
+      <c r="C463" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -80790,7 +80782,7 @@
           <t>160</t>
         </is>
       </c>
-      <c r="T463" s="17" t="inlineStr">
+      <c r="T463" s="11" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -80917,7 +80909,7 @@
           <t>096</t>
         </is>
       </c>
-      <c r="H464" s="17" t="inlineStr">
+      <c r="H464" s="7" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -81114,7 +81106,7 @@
           <t>726</t>
         </is>
       </c>
-      <c r="J465" s="17" t="inlineStr">
+      <c r="J465" s="7" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -81164,7 +81156,7 @@
           <t>055</t>
         </is>
       </c>
-      <c r="T465" s="17" t="inlineStr">
+      <c r="T465" s="11" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -81179,7 +81171,7 @@
           <t>109</t>
         </is>
       </c>
-      <c r="W465" s="17" t="inlineStr">
+      <c r="W465" s="12" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -81498,7 +81490,7 @@
           <t>524</t>
         </is>
       </c>
-      <c r="L467" s="17" t="inlineStr">
+      <c r="L467" s="8" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -81932,7 +81924,7 @@
           <t>880</t>
         </is>
       </c>
-      <c r="X469" s="17" t="inlineStr">
+      <c r="X469" s="12" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -81952,7 +81944,7 @@
           <t>119</t>
         </is>
       </c>
-      <c r="AB469" s="17" t="inlineStr">
+      <c r="AB469" s="13" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82029,7 +82021,7 @@
           <t>683</t>
         </is>
       </c>
-      <c r="F470" s="17" t="inlineStr">
+      <c r="F470" s="6" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -82104,7 +82096,7 @@
           <t>804</t>
         </is>
       </c>
-      <c r="U470" s="17" t="inlineStr">
+      <c r="U470" s="11" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -82134,7 +82126,7 @@
           <t>758</t>
         </is>
       </c>
-      <c r="AA470" s="17" t="inlineStr">
+      <c r="AA470" s="13" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -82149,7 +82141,7 @@
           <t>431</t>
         </is>
       </c>
-      <c r="AD470" s="17" t="inlineStr">
+      <c r="AD470" s="14" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -82206,7 +82198,7 @@
           <t>518</t>
         </is>
       </c>
-      <c r="D471" s="17" t="inlineStr">
+      <c r="D471" s="5" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -82251,7 +82243,7 @@
           <t>335</t>
         </is>
       </c>
-      <c r="M471" s="17" t="inlineStr">
+      <c r="M471" s="8" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -82296,7 +82288,7 @@
           <t>064</t>
         </is>
       </c>
-      <c r="V471" s="17" t="inlineStr">
+      <c r="V471" s="11" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -82361,7 +82353,7 @@
           <t>977</t>
         </is>
       </c>
-      <c r="AI471" s="17" t="inlineStr">
+      <c r="AI471" s="16" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -82538,7 +82530,7 @@
           <t>892</t>
         </is>
       </c>
-      <c r="AG472" s="17" t="inlineStr">
+      <c r="AG472" s="15" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -82600,7 +82592,7 @@
           <t>751</t>
         </is>
       </c>
-      <c r="H473" s="17" t="inlineStr">
+      <c r="H473" s="7" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -82630,7 +82622,7 @@
           <t>739</t>
         </is>
       </c>
-      <c r="N473" s="17" t="inlineStr">
+      <c r="N473" s="9" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82670,7 +82662,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="V473" s="17" t="inlineStr">
+      <c r="V473" s="11" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -82882,7 +82874,7 @@
           <t>180</t>
         </is>
       </c>
-      <c r="AA474" s="17" t="inlineStr">
+      <c r="AA474" s="13" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -83141,7 +83133,7 @@
           <t>874</t>
         </is>
       </c>
-      <c r="D476" s="17" t="inlineStr">
+      <c r="D476" s="5" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -83236,7 +83228,7 @@
           <t>279</t>
         </is>
       </c>
-      <c r="W476" s="17" t="inlineStr">
+      <c r="W476" s="12" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -83353,7 +83345,7 @@
           <t>257</t>
         </is>
       </c>
-      <c r="I477" s="17" t="inlineStr">
+      <c r="I477" s="7" t="inlineStr">
         <is>
           <t>481</t>
         </is>
@@ -83408,7 +83400,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="T477" s="17" t="inlineStr">
+      <c r="T477" s="11" t="inlineStr">
         <is>
           <t>760</t>
         </is>
@@ -83458,7 +83450,7 @@
           <t>564</t>
         </is>
       </c>
-      <c r="AD477" s="17" t="inlineStr">
+      <c r="AD477" s="14" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -83595,7 +83587,7 @@
           <t>691</t>
         </is>
       </c>
-      <c r="T478" s="17" t="inlineStr">
+      <c r="T478" s="11" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -83610,7 +83602,7 @@
           <t>575</t>
         </is>
       </c>
-      <c r="W478" s="17" t="inlineStr">
+      <c r="W478" s="12" t="inlineStr">
         <is>
           <t>807</t>
         </is>
@@ -83762,7 +83754,7 @@
           <t>775</t>
         </is>
       </c>
-      <c r="P479" s="17" t="inlineStr">
+      <c r="P479" s="9" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -83792,7 +83784,7 @@
           <t>759</t>
         </is>
       </c>
-      <c r="V479" s="17" t="inlineStr">
+      <c r="V479" s="11" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -84116,7 +84108,7 @@
           <t>393</t>
         </is>
       </c>
-      <c r="L481" s="17" t="inlineStr">
+      <c r="L481" s="8" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -84191,7 +84183,7 @@
           <t>091</t>
         </is>
       </c>
-      <c r="AA481" s="17" t="inlineStr">
+      <c r="AA481" s="13" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -84348,7 +84340,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="U482" s="17" t="inlineStr">
+      <c r="U482" s="11" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -84368,7 +84360,7 @@
           <t>086</t>
         </is>
       </c>
-      <c r="Y482" s="17" t="inlineStr">
+      <c r="Y482" s="12" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -84465,7 +84457,7 @@
           <t>956</t>
         </is>
       </c>
-      <c r="G483" s="17" t="inlineStr">
+      <c r="G483" s="6" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -84515,12 +84507,12 @@
           <t>913</t>
         </is>
       </c>
-      <c r="Q483" s="17" t="inlineStr">
+      <c r="Q483" s="10" t="inlineStr">
         <is>
           <t>807</t>
         </is>
       </c>
-      <c r="R483" s="17" t="inlineStr">
+      <c r="R483" s="10" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -84550,7 +84542,7 @@
           <t>751</t>
         </is>
       </c>
-      <c r="X483" s="17" t="inlineStr">
+      <c r="X483" s="12" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -84637,7 +84629,7 @@
           <t>451</t>
         </is>
       </c>
-      <c r="D484" s="17" t="inlineStr">
+      <c r="D484" s="5" t="inlineStr">
         <is>
           <t>287</t>
         </is>
@@ -84732,7 +84724,7 @@
           <t>907</t>
         </is>
       </c>
-      <c r="W484" s="17" t="inlineStr">
+      <c r="W484" s="12" t="inlineStr">
         <is>
           <t>441</t>
         </is>
@@ -84884,7 +84876,7 @@
           <t>139</t>
         </is>
       </c>
-      <c r="P485" s="17" t="inlineStr">
+      <c r="P485" s="9" t="inlineStr">
         <is>
           <t>067</t>
         </is>
@@ -84979,7 +84971,7 @@
           <t>769</t>
         </is>
       </c>
-      <c r="AI485" s="17" t="inlineStr">
+      <c r="AI485" s="16" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -85136,7 +85128,7 @@
           <t>773</t>
         </is>
       </c>
-      <c r="AC486" s="17" t="inlineStr">
+      <c r="AC486" s="14" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -85540,7 +85532,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AI488" s="17" t="inlineStr">
+      <c r="AI488" s="16" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -85876,7 +85868,7 @@
           <t>151</t>
         </is>
       </c>
-      <c r="J493" s="17" t="inlineStr">
+      <c r="J493" s="7" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -86163,7 +86155,7 @@
           <t>200</t>
         </is>
       </c>
-      <c r="AD494" s="17" t="inlineStr">
+      <c r="AD494" s="14" t="inlineStr">
         <is>
           <t>278</t>
         </is>
@@ -86198,7 +86190,7 @@
           <t>471</t>
         </is>
       </c>
-      <c r="AK494" s="17" t="inlineStr">
+      <c r="AK494" s="16" t="inlineStr">
         <is>
           <t>132</t>
         </is>
@@ -86522,7 +86514,7 @@
           <t>359</t>
         </is>
       </c>
-      <c r="AA496" s="17" t="inlineStr">
+      <c r="AA496" s="13" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -86594,7 +86586,7 @@
           <t>973</t>
         </is>
       </c>
-      <c r="D497" s="17" t="inlineStr">
+      <c r="D497" s="5" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -87649,7 +87641,7 @@
           <t>440</t>
         </is>
       </c>
-      <c r="AB502" s="17" t="inlineStr">
+      <c r="AB502" s="13" t="inlineStr">
         <is>
           <t>184</t>
         </is>
@@ -87674,7 +87666,7 @@
           <t>191</t>
         </is>
       </c>
-      <c r="AG502" s="17" t="inlineStr">
+      <c r="AG502" s="15" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -87716,7 +87708,7 @@
           <t>566</t>
         </is>
       </c>
-      <c r="D503" s="17" t="inlineStr">
+      <c r="D503" s="5" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -87881,7 +87873,7 @@
           <t>476</t>
         </is>
       </c>
-      <c r="AK503" s="17" t="inlineStr">
+      <c r="AK503" s="16" t="inlineStr">
         <is>
           <t>903</t>
         </is>
@@ -88013,7 +88005,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z504" s="17" t="inlineStr">
+      <c r="Z504" s="13" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -88090,7 +88082,7 @@
           <t>811</t>
         </is>
       </c>
-      <c r="D505" s="17" t="inlineStr">
+      <c r="D505" s="5" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -88115,7 +88107,7 @@
           <t>797</t>
         </is>
       </c>
-      <c r="I505" s="17" t="inlineStr">
+      <c r="I505" s="7" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -88205,7 +88197,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="AA505" s="17" t="inlineStr">
+      <c r="AA505" s="13" t="inlineStr">
         <is>
           <t>282</t>
         </is>
@@ -88292,7 +88284,7 @@
           <t>704</t>
         </is>
       </c>
-      <c r="G506" s="17" t="inlineStr">
+      <c r="G506" s="6" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -88661,7 +88653,7 @@
           <t>167</t>
         </is>
       </c>
-      <c r="F508" s="17" t="inlineStr">
+      <c r="F508" s="6" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -88761,7 +88753,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z508" s="17" t="inlineStr">
+      <c r="Z508" s="13" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -88858,7 +88850,7 @@
           <t>840</t>
         </is>
       </c>
-      <c r="H509" s="17" t="inlineStr">
+      <c r="H509" s="7" t="inlineStr">
         <is>
           <t>670</t>
         </is>
@@ -88978,7 +88970,7 @@
           <t>437</t>
         </is>
       </c>
-      <c r="AF509" s="17" t="inlineStr">
+      <c r="AF509" s="15" t="inlineStr">
         <is>
           <t>844</t>
         </is>
@@ -89055,7 +89047,7 @@
           <t>266</t>
         </is>
       </c>
-      <c r="J510" s="17" t="inlineStr">
+      <c r="J510" s="7" t="inlineStr">
         <is>
           <t>148</t>
         </is>
@@ -89222,7 +89214,7 @@
           <t>904</t>
         </is>
       </c>
-      <c r="F511" s="17" t="inlineStr">
+      <c r="F511" s="6" t="inlineStr">
         <is>
           <t>827</t>
         </is>
@@ -89509,7 +89501,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z512" s="17" t="inlineStr">
+      <c r="Z512" s="13" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -89544,12 +89536,12 @@
           <t>701</t>
         </is>
       </c>
-      <c r="AG512" s="17" t="inlineStr">
+      <c r="AG512" s="15" t="inlineStr">
         <is>
           <t>309</t>
         </is>
       </c>
-      <c r="AH512" s="17" t="inlineStr">
+      <c r="AH512" s="15" t="inlineStr">
         <is>
           <t>814</t>
         </is>
@@ -89559,7 +89551,7 @@
           <t>146</t>
         </is>
       </c>
-      <c r="AJ512" s="17" t="inlineStr">
+      <c r="AJ512" s="16" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -89716,7 +89708,7 @@
           <t>868</t>
         </is>
       </c>
-      <c r="AD513" s="17" t="inlineStr">
+      <c r="AD513" s="14" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -89955,7 +89947,7 @@
           <t>488</t>
         </is>
       </c>
-      <c r="C515" s="17" t="inlineStr">
+      <c r="C515" s="5" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -90070,7 +90062,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Z515" s="17" t="inlineStr">
+      <c r="Z515" s="13" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -90115,7 +90107,7 @@
           <t>990</t>
         </is>
       </c>
-      <c r="AI515" s="17" t="inlineStr">
+      <c r="AI515" s="16" t="inlineStr">
         <is>
           <t>418</t>
         </is>
@@ -90429,12 +90421,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W517" s="17" t="inlineStr">
+      <c r="W517" s="12" t="inlineStr">
         <is>
           <t>900</t>
         </is>
       </c>
-      <c r="X517" s="17" t="inlineStr">
+      <c r="X517" s="12" t="inlineStr">
         <is>
           <t>076</t>
         </is>
@@ -90464,7 +90456,7 @@
           <t>596</t>
         </is>
       </c>
-      <c r="AD517" s="17" t="inlineStr">
+      <c r="AD517" s="14" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -90474,7 +90466,7 @@
           <t>833</t>
         </is>
       </c>
-      <c r="AF517" s="17" t="inlineStr">
+      <c r="AF517" s="15" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -90621,7 +90613,7 @@
           <t>353</t>
         </is>
       </c>
-      <c r="X518" s="17" t="inlineStr">
+      <c r="X518" s="12" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -90723,7 +90715,7 @@
           <t>640</t>
         </is>
       </c>
-      <c r="G519" s="17" t="inlineStr">
+      <c r="G519" s="6" t="inlineStr">
         <is>
           <t>484</t>
         </is>
@@ -90818,7 +90810,7 @@
           <t>754</t>
         </is>
       </c>
-      <c r="Z519" s="17" t="inlineStr">
+      <c r="Z519" s="13" t="inlineStr">
         <is>
           <t>448</t>
         </is>
@@ -91030,7 +91022,7 @@
           <t>002</t>
         </is>
       </c>
-      <c r="AE520" s="17" t="inlineStr">
+      <c r="AE520" s="14" t="inlineStr">
         <is>
           <t>592</t>
         </is>
@@ -91581,7 +91573,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AC523" s="17" t="inlineStr">
+      <c r="AC523" s="14" t="inlineStr">
         <is>
           <t>708</t>
         </is>
@@ -91820,12 +91812,12 @@
       </c>
       <c r="O528" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>844</t>
         </is>
       </c>
       <c r="P528" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>403</t>
         </is>
       </c>
     </row>
@@ -91860,7 +91852,7 @@
           <t>491</t>
         </is>
       </c>
-      <c r="G529" s="17" t="inlineStr">
+      <c r="G529" s="6" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -91897,17 +91889,17 @@
       </c>
       <c r="N529" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>419</t>
         </is>
       </c>
       <c r="O529" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>863</t>
         </is>
       </c>
       <c r="P529" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>052</t>
         </is>
       </c>
     </row>
@@ -91979,17 +91971,17 @@
       </c>
       <c r="N530" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>260</t>
         </is>
       </c>
       <c r="O530" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>992</t>
         </is>
       </c>
       <c r="P530" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>259</t>
         </is>
       </c>
     </row>
@@ -92014,7 +92006,7 @@
           <t>589</t>
         </is>
       </c>
-      <c r="E531" s="17" t="inlineStr">
+      <c r="E531" s="6" t="inlineStr">
         <is>
           <t>390</t>
         </is>
@@ -92024,7 +92016,7 @@
           <t>096</t>
         </is>
       </c>
-      <c r="G531" s="17" t="inlineStr">
+      <c r="G531" s="6" t="inlineStr">
         <is>
           <t>295</t>
         </is>
@@ -92193,12 +92185,12 @@
           <t>854</t>
         </is>
       </c>
-      <c r="H533" s="17" t="inlineStr">
+      <c r="H533" s="7" t="inlineStr">
         <is>
           <t>807</t>
         </is>
       </c>
-      <c r="I533" s="17" t="inlineStr">
+      <c r="I533" s="7" t="inlineStr">
         <is>
           <t>259</t>
         </is>
@@ -92327,12 +92319,12 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B535" s="17" t="inlineStr">
+      <c r="B535" s="5" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="C535" s="17" t="inlineStr">
+      <c r="C535" s="5" t="inlineStr">
         <is>
           <t>925</t>
         </is>
@@ -92409,7 +92401,7 @@
           <t>09</t>
         </is>
       </c>
-      <c r="B536" s="17" t="inlineStr">
+      <c r="B536" s="5" t="inlineStr">
         <is>
           <t>039</t>
         </is>
@@ -92526,12 +92518,12 @@
           <t>854</t>
         </is>
       </c>
-      <c r="I537" s="17" t="inlineStr">
+      <c r="I537" s="7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="J537" s="17" t="inlineStr">
+      <c r="J537" s="7" t="inlineStr">
         <is>
           <t>607</t>
         </is>
@@ -92573,7 +92565,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B538" s="17" t="inlineStr">
+      <c r="B538" s="5" t="inlineStr">
         <is>
           <t>309</t>
         </is>
@@ -93187,7 +93179,7 @@
           <t>336</t>
         </is>
       </c>
-      <c r="J545" s="17" t="inlineStr">
+      <c r="J545" s="7" t="inlineStr">
         <is>
           <t>952</t>
         </is>
@@ -93428,7 +93420,7 @@
           <t>438</t>
         </is>
       </c>
-      <c r="I548" s="17" t="inlineStr">
+      <c r="I548" s="7" t="inlineStr">
         <is>
           <t>782</t>
         </is>
@@ -93572,7 +93564,7 @@
           <t>513</t>
         </is>
       </c>
-      <c r="E550" s="17" t="inlineStr">
+      <c r="E550" s="6" t="inlineStr">
         <is>
           <t>414</t>
         </is>
@@ -93582,7 +93574,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="G550" s="17" t="inlineStr">
+      <c r="G550" s="6" t="inlineStr">
         <is>
           <t>706</t>
         </is>
@@ -93731,7 +93723,7 @@
           <t>517</t>
         </is>
       </c>
-      <c r="D552" s="17" t="inlineStr">
+      <c r="D552" s="5" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -93741,7 +93733,7 @@
           <t>494</t>
         </is>
       </c>
-      <c r="F552" s="17" t="inlineStr">
+      <c r="F552" s="6" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -93808,7 +93800,7 @@
           <t>457</t>
         </is>
       </c>
-      <c r="C553" s="17" t="inlineStr">
+      <c r="C553" s="5" t="inlineStr">
         <is>
           <t>087</t>
         </is>
@@ -93910,12 +93902,12 @@
           <t>047</t>
         </is>
       </c>
-      <c r="G554" s="17" t="inlineStr">
+      <c r="G554" s="6" t="inlineStr">
         <is>
           <t>807</t>
         </is>
       </c>
-      <c r="H554" s="17" t="inlineStr">
+      <c r="H554" s="7" t="inlineStr">
         <is>
           <t>321</t>
         </is>
@@ -93935,7 +93927,7 @@
           <t>863</t>
         </is>
       </c>
-      <c r="L554" s="17" t="inlineStr">
+      <c r="L554" s="8" t="inlineStr">
         <is>
           <t>009</t>
         </is>
@@ -93977,7 +93969,7 @@
           <t>957</t>
         </is>
       </c>
-      <c r="D555" s="17" t="inlineStr">
+      <c r="D555" s="5" t="inlineStr">
         <is>
           <t>093</t>
         </is>
@@ -93992,7 +93984,7 @@
           <t>828</t>
         </is>
       </c>
-      <c r="G555" s="17" t="inlineStr">
+      <c r="G555" s="6" t="inlineStr">
         <is>
           <t>780</t>
         </is>
@@ -94012,12 +94004,12 @@
           <t>094</t>
         </is>
       </c>
-      <c r="K555" s="17" t="inlineStr">
+      <c r="K555" s="8" t="inlineStr">
         <is>
           <t>827</t>
         </is>
       </c>
-      <c r="L555" s="17" t="inlineStr">
+      <c r="L555" s="8" t="inlineStr">
         <is>
           <t>144</t>
         </is>
@@ -94248,7 +94240,7 @@
           <t>998</t>
         </is>
       </c>
-      <c r="I558" s="17" t="inlineStr">
+      <c r="I558" s="7" t="inlineStr">
         <is>
           <t>231</t>
         </is>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -92053,17 +92053,17 @@
       </c>
       <c r="N531" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444</t>
         </is>
       </c>
       <c r="O531" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>971</t>
         </is>
       </c>
       <c r="P531" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>308</t>
         </is>
       </c>
     </row>
@@ -92135,17 +92135,17 @@
       </c>
       <c r="N532" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>762</t>
         </is>
       </c>
       <c r="O532" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493</t>
         </is>
       </c>
       <c r="P532" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>789</t>
         </is>
       </c>
     </row>
@@ -92217,17 +92217,17 @@
       </c>
       <c r="N533" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>103</t>
         </is>
       </c>
       <c r="O533" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>062</t>
         </is>
       </c>
       <c r="P533" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>417</t>
         </is>
       </c>
     </row>
@@ -92299,17 +92299,17 @@
       </c>
       <c r="N534" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>762</t>
         </is>
       </c>
       <c r="O534" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>035</t>
         </is>
       </c>
       <c r="P534" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>635</t>
         </is>
       </c>
     </row>
@@ -92381,17 +92381,17 @@
       </c>
       <c r="N535" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>346</t>
         </is>
       </c>
       <c r="O535" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>807</t>
         </is>
       </c>
       <c r="P535" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -92463,17 +92463,17 @@
       </c>
       <c r="N536" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>087</t>
         </is>
       </c>
       <c r="O536" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>323</t>
         </is>
       </c>
       <c r="P536" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>380</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -92545,17 +92545,17 @@
       </c>
       <c r="N537" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>809</t>
         </is>
       </c>
       <c r="O537" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>925</t>
         </is>
       </c>
       <c r="P537" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>373</t>
         </is>
       </c>
     </row>
@@ -92627,17 +92627,17 @@
       </c>
       <c r="N538" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>377</t>
         </is>
       </c>
       <c r="O538" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>563</t>
         </is>
       </c>
       <c r="P538" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>536</t>
         </is>
       </c>
     </row>
@@ -92709,17 +92709,17 @@
       </c>
       <c r="N539" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>264</t>
         </is>
       </c>
       <c r="O539" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>282</t>
         </is>
       </c>
       <c r="P539" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>881</t>
         </is>
       </c>
     </row>
@@ -92791,17 +92791,17 @@
       </c>
       <c r="N540" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>703</t>
         </is>
       </c>
       <c r="O540" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>293</t>
         </is>
       </c>
       <c r="P540" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>236</t>
         </is>
       </c>
     </row>
@@ -92873,17 +92873,17 @@
       </c>
       <c r="N541" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>235</t>
         </is>
       </c>
       <c r="O541" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>048</t>
         </is>
       </c>
       <c r="P541" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>066</t>
         </is>
       </c>
     </row>
@@ -92955,12 +92955,12 @@
       </c>
       <c r="N542" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>901</t>
         </is>
       </c>
       <c r="O542" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>733</t>
         </is>
       </c>
       <c r="P542" s="9" t="inlineStr">

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -92965,7 +92965,7 @@
       </c>
       <c r="P542" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>637</t>
         </is>
       </c>
     </row>
@@ -93037,17 +93037,17 @@
       </c>
       <c r="N543" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>266</t>
         </is>
       </c>
       <c r="O543" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>434</t>
         </is>
       </c>
       <c r="P543" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>116</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -93119,17 +93119,17 @@
       </c>
       <c r="N544" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>380</t>
         </is>
       </c>
       <c r="O544" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>820</t>
         </is>
       </c>
       <c r="P544" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>244</t>
         </is>
       </c>
     </row>
@@ -93201,17 +93201,17 @@
       </c>
       <c r="N545" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>786</t>
         </is>
       </c>
       <c r="O545" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>404</t>
         </is>
       </c>
       <c r="P545" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>374</t>
         </is>
       </c>
     </row>
@@ -93283,17 +93283,17 @@
       </c>
       <c r="N546" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>197</t>
         </is>
       </c>
       <c r="O546" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>385</t>
         </is>
       </c>
       <c r="P546" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>592</t>
         </is>
       </c>
     </row>
@@ -93365,17 +93365,17 @@
       </c>
       <c r="N547" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>696</t>
         </is>
       </c>
       <c r="O547" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>728</t>
         </is>
       </c>
       <c r="P547" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>564</t>
         </is>
       </c>
     </row>

--- a/swertres/excel_results.xlsx
+++ b/swertres/excel_results.xlsx
@@ -93447,17 +93447,17 @@
       </c>
       <c r="N548" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>165</t>
         </is>
       </c>
       <c r="O548" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>622</t>
         </is>
       </c>
       <c r="P548" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>209</t>
         </is>
       </c>
     </row>
@@ -93529,17 +93529,17 @@
       </c>
       <c r="N549" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>248</t>
         </is>
       </c>
       <c r="O549" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>949</t>
         </is>
       </c>
       <c r="P549" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>054</t>
         </is>
       </c>
     </row>
@@ -93611,17 +93611,17 @@
       </c>
       <c r="N550" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>149</t>
         </is>
       </c>
       <c r="O550" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>567</t>
         </is>
       </c>
       <c r="P550" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>179</t>
         </is>
       </c>
     </row>
@@ -93693,17 +93693,17 @@
       </c>
       <c r="N551" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>147</t>
         </is>
       </c>
       <c r="O551" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>638</t>
         </is>
       </c>
       <c r="P551" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>153</t>
         </is>
       </c>
     </row>
@@ -93775,17 +93775,17 @@
       </c>
       <c r="N552" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>669</t>
         </is>
       </c>
       <c r="O552" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>666</t>
         </is>
       </c>
       <c r="P552" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -93857,17 +93857,17 @@
       </c>
       <c r="N553" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>357</t>
         </is>
       </c>
       <c r="O553" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>497</t>
         </is>
       </c>
       <c r="P553" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>714</t>
         </is>
       </c>
     </row>
@@ -93939,17 +93939,17 @@
       </c>
       <c r="N554" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>806</t>
         </is>
       </c>
       <c r="O554" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>990</t>
         </is>
       </c>
       <c r="P554" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -94021,17 +94021,17 @@
       </c>
       <c r="N555" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>378</t>
         </is>
       </c>
       <c r="O555" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>827</t>
         </is>
       </c>
       <c r="P555" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>305</t>
         </is>
       </c>
     </row>
@@ -94103,17 +94103,17 @@
       </c>
       <c r="N556" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>933</t>
         </is>
       </c>
       <c r="O556" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>058</t>
         </is>
       </c>
       <c r="P556" s="9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>067</t>
         </is>
       </c>
     </row>
